--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\Outros\IC\Github\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0359194-7E43-471E-8F35-4C7D6E368BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6841828-10B0-4E02-B3BA-C44797310755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BAAE1837-F317-4A95-AF6E-1436FC0ECB0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAAE1837-F317-4A95-AF6E-1436FC0ECB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -57,53 +48,53 @@
     <t>Lâmpadas</t>
   </si>
   <si>
-    <t>LED</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>5.96</t>
-  </si>
-  <si>
     <t>Área de serviço</t>
   </si>
   <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>6.63</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
     <t>Cozinha</t>
   </si>
   <si>
-    <t>3.71</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
     <t>Banheiro externo</t>
   </si>
   <si>
     <t>Banheiro interno</t>
   </si>
   <si>
-    <t>Banheiro suíte</t>
+    <t>Garagem</t>
+  </si>
+  <si>
+    <t>Hall de entrada</t>
+  </si>
+  <si>
+    <t>Sala</t>
+  </si>
+  <si>
+    <t>Closet</t>
+  </si>
+  <si>
+    <t>Suíte</t>
+  </si>
+  <si>
+    <t>Banheiro da suíte</t>
+  </si>
+  <si>
+    <t>Quarto</t>
+  </si>
+  <si>
+    <t>Área externa não coberta (corredor lateral)</t>
+  </si>
+  <si>
+    <t>Área externa não coberta (área de lazer e corredor de frente para piscina)</t>
+  </si>
+  <si>
+    <t>Área da piscina</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,16 +108,35 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -134,20 +144,106 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -463,123 +559,274 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664E424-F9E2-4020-A680-F96C934CEF65}">
-  <dimension ref="A1:G21"/>
+  <dimension ref="B2:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="20.7109375" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="8" width="20.7109375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="2" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G2" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3"/>
-    </row>
-    <row r="2" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="1" t="s">
+      <c r="H2" s="7"/>
+    </row>
+    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E3" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="3" t="s">
+      <c r="F3" s="5"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="3"/>
-    </row>
-    <row r="3" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="12"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="12"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="12"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+    </row>
+    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+    </row>
+    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="12"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+    </row>
+    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+    </row>
+    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="10" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="12" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="15" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="16" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="19" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="21" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+    </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="F1:G1"/>
-    <mergeCell ref="F2:G2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B22">
+    <sortCondition ref="B4:B22"/>
+  </sortState>
+  <mergeCells count="19">
+    <mergeCell ref="E6:E9"/>
+    <mergeCell ref="F6:F9"/>
+    <mergeCell ref="G6:G9"/>
+    <mergeCell ref="H6:H9"/>
+    <mergeCell ref="B10:B12"/>
+    <mergeCell ref="C10:C12"/>
+    <mergeCell ref="D10:D12"/>
+    <mergeCell ref="E10:E12"/>
+    <mergeCell ref="F10:F12"/>
+    <mergeCell ref="G10:G12"/>
+    <mergeCell ref="H10:H12"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D9"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:H3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\Outros\IC\Github\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6841828-10B0-4E02-B3BA-C44797310755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FB5264-8709-49C2-B156-5159CCC50BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAAE1837-F317-4A95-AF6E-1436FC0ECB0C}"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Identificação_Informações" sheetId="1" r:id="rId1"/>
+    <sheet name="Previsão_de_carga" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -24,8 +25,51 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Ramon</author>
+  </authors>
+  <commentList>
+    <comment ref="E8" authorId="0" shapeId="0" xr:uid="{984D0653-818B-44B2-8FAD-5CE546C8EF30}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Ramon:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="14"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Essa parte de fanficar objetos no projeto acho que é mais pra frente, não tenho certeza.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
   <si>
     <t>Cômodo ou dependência</t>
   </si>
@@ -33,21 +77,9 @@
     <t>Perímetro (m)</t>
   </si>
   <si>
-    <t>Tomadas (TUG)</t>
-  </si>
-  <si>
-    <t>Calculado</t>
-  </si>
-  <si>
-    <t>Instalado</t>
-  </si>
-  <si>
     <t>Área (m²)</t>
   </si>
   <si>
-    <t>Lâmpadas</t>
-  </si>
-  <si>
     <t>Área de serviço</t>
   </si>
   <si>
@@ -88,13 +120,214 @@
   </si>
   <si>
     <t>Área da piscina</t>
+  </si>
+  <si>
+    <t>Alunos: Gabriel Schettino Lucas e Ramon Rodrigues Morello</t>
+  </si>
+  <si>
+    <t>Equipamentos elétricos tipo A</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Dupla 1: Circuito de iluminação e tomadas </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>separados</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">, equipamentos elétricos </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>tipo A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Equipamentos adicionados pela dupla</t>
+  </si>
+  <si>
+    <t>Dimensões</t>
+  </si>
+  <si>
+    <t>Iluminação</t>
+  </si>
+  <si>
+    <t>Nº de pontos</t>
+  </si>
+  <si>
+    <t>Pot. Unitária (VA)</t>
+  </si>
+  <si>
+    <t>Pot. Total (VA)</t>
+  </si>
+  <si>
+    <t>TUG</t>
+  </si>
+  <si>
+    <t>TUE</t>
+  </si>
+  <si>
+    <t>Aparelho</t>
+  </si>
+  <si>
+    <t>Potência (VA)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quadro de previsão de cargas </t>
+  </si>
+  <si>
+    <t>23.9</t>
+  </si>
+  <si>
+    <t>17.58</t>
+  </si>
+  <si>
+    <t>2.18</t>
+  </si>
+  <si>
+    <t>5.95</t>
+  </si>
+  <si>
+    <t>32.1</t>
+  </si>
+  <si>
+    <t>21.83</t>
+  </si>
+  <si>
+    <t>3.04</t>
+  </si>
+  <si>
+    <t>4.25</t>
+  </si>
+  <si>
+    <t>1.07</t>
+  </si>
+  <si>
+    <t>8.1</t>
+  </si>
+  <si>
+    <t>3.71</t>
+  </si>
+  <si>
+    <t>9.85</t>
+  </si>
+  <si>
+    <t>4.43</t>
+  </si>
+  <si>
+    <t>10.3</t>
+  </si>
+  <si>
+    <t>6.63</t>
+  </si>
+  <si>
+    <t>20.6</t>
+  </si>
+  <si>
+    <t>25.8</t>
+  </si>
+  <si>
+    <t>15.4</t>
+  </si>
+  <si>
+    <t>11.02</t>
+  </si>
+  <si>
+    <t>10.9</t>
+  </si>
+  <si>
+    <t>7.42</t>
+  </si>
+  <si>
+    <t>25.3</t>
+  </si>
+  <si>
+    <t>30.23</t>
+  </si>
+  <si>
+    <t>15.3</t>
+  </si>
+  <si>
+    <t>9.66</t>
+  </si>
+  <si>
+    <t>Motor de operação da piscina</t>
+  </si>
+  <si>
+    <t>Motor de operação do portão</t>
+  </si>
+  <si>
+    <t>Chuveiro</t>
+  </si>
+  <si>
+    <t>Equipamento</t>
+  </si>
+  <si>
+    <t>5400W/220V</t>
+  </si>
+  <si>
+    <t>Potência/Tensão</t>
+  </si>
+  <si>
+    <t>Ar condicionado no quarto</t>
+  </si>
+  <si>
+    <t>???? W/220V</t>
+  </si>
+  <si>
+    <t>Ar condicionado na suíte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1620W/127V </t>
+  </si>
+  <si>
+    <t>Máq. Lavar e secar roupa (FP = 0,8 atrasado)</t>
+  </si>
+  <si>
+    <t>Microondas (FP = 0,92 atrasado)</t>
+  </si>
+  <si>
+    <t>2100W/127</t>
+  </si>
+  <si>
+    <t>Freezer na área de lazer?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +348,61 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -135,8 +421,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -203,11 +495,92 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -218,31 +591,128 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -558,277 +1028,699 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664E424-F9E2-4020-A680-F96C934CEF65}">
-  <dimension ref="B2:H22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664E424-F9E2-4020-A680-F96C934CEF65}">
+  <dimension ref="B1:I26"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:D12"/>
+      <selection activeCell="E8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="8" width="20.7109375" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="7" width="22.7109375" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="10"/>
-    </row>
-    <row r="4" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+    <row r="1" spans="2:9" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="B1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+    </row>
+    <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+    </row>
+    <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+    </row>
+    <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-    </row>
-    <row r="5" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
-    </row>
-    <row r="6" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="12"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="12"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-    </row>
-    <row r="9" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="12"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-    </row>
-    <row r="10" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-    </row>
-    <row r="11" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-    </row>
-    <row r="12" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="12"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-    </row>
-    <row r="13" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-    </row>
-    <row r="14" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-    </row>
-    <row r="15" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C21" s="4"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-    </row>
+      <c r="F4" s="34"/>
+      <c r="G4" s="34"/>
+    </row>
+    <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="E5" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="35"/>
+      <c r="G5" s="36" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="39"/>
+      <c r="D6" s="36" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="35"/>
+      <c r="G6" s="36"/>
+      <c r="I6" s="8"/>
+    </row>
+    <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="38" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="39"/>
+      <c r="D7" s="36" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="36"/>
+      <c r="I7" s="8"/>
+    </row>
+    <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="38" t="s">
+        <v>64</v>
+      </c>
+      <c r="C8" s="39"/>
+      <c r="D8" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E8" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="F8" s="35"/>
+      <c r="G8" s="36"/>
+      <c r="I8" s="8"/>
+    </row>
+    <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C9" s="39"/>
+      <c r="D9" s="37" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" s="35"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="36"/>
+      <c r="I9" s="8"/>
+    </row>
+    <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="40" t="s">
+        <v>66</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="44" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="G10" s="36"/>
+      <c r="I10" s="8"/>
+    </row>
+    <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="42"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="36"/>
+      <c r="I11" s="8"/>
+    </row>
+    <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
+      <c r="G12" s="36"/>
+    </row>
+    <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="38"/>
+      <c r="C13" s="39"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="38"/>
+      <c r="C14" s="39"/>
+      <c r="D14" s="37"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="G14" s="37"/>
+    </row>
+    <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:B22">
-    <sortCondition ref="B4:B22"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B14:B32">
+    <sortCondition ref="B14:B32"/>
   </sortState>
-  <mergeCells count="19">
-    <mergeCell ref="E6:E9"/>
-    <mergeCell ref="F6:F9"/>
-    <mergeCell ref="G6:G9"/>
-    <mergeCell ref="H6:H9"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="G10:G12"/>
-    <mergeCell ref="H10:H12"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D9"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:H3"/>
+  <mergeCells count="24">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F661506B-44F4-40FA-81F1-44DC43154591}">
+  <dimension ref="B2:L24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="12" width="20.7109375" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+    </row>
+    <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="16"/>
+      <c r="J4" s="17"/>
+      <c r="K4" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="17"/>
+    </row>
+    <row r="5" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="33"/>
+      <c r="C5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="3">
+        <v>28</v>
+      </c>
+      <c r="D6" s="3">
+        <v>23</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="9"/>
+    </row>
+    <row r="7" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B7" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="3"/>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+    </row>
+    <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B8" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="18"/>
+      <c r="L8" s="18"/>
+    </row>
+    <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B9" s="22"/>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="18"/>
+      <c r="L9" s="18"/>
+    </row>
+    <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="22"/>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="18"/>
+      <c r="L10" s="18"/>
+    </row>
+    <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="22"/>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18"/>
+      <c r="F11" s="18"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+    </row>
+    <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B12" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="18"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="18"/>
+      <c r="L12" s="18"/>
+    </row>
+    <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="22"/>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="18"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
+    </row>
+    <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="22"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="18"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
+    </row>
+    <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B15" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="3">
+        <v>7</v>
+      </c>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B16" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+    </row>
+    <row r="18" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="2"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+    </row>
+    <row r="24" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+      <c r="L24" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="38">
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="G19:H19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="G15:H15"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="G21:H21"/>
+    <mergeCell ref="G22:H22"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
+    <mergeCell ref="I12:I14"/>
+    <mergeCell ref="J12:J14"/>
+    <mergeCell ref="K12:K14"/>
+    <mergeCell ref="L12:L14"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="E8:E11"/>
+    <mergeCell ref="F8:F11"/>
+    <mergeCell ref="C8:C11"/>
+    <mergeCell ref="D8:D11"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="G8:H11"/>
+    <mergeCell ref="G12:H14"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="B8:B11"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\Outros\IC\Github\Instel-I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\GitHub\Instel I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FB5264-8709-49C2-B156-5159CCC50BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1F95B6E-6F35-408D-8CDA-BCD5F4F2B084}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{BAAE1837-F317-4A95-AF6E-1436FC0ECB0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{BAAE1837-F317-4A95-AF6E-1436FC0ECB0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação_Informações" sheetId="1" r:id="rId1"/>
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="45">
   <si>
     <t>Cômodo ou dependência</t>
   </si>
@@ -204,81 +204,6 @@
   </si>
   <si>
     <t xml:space="preserve">Quadro de previsão de cargas </t>
-  </si>
-  <si>
-    <t>23.9</t>
-  </si>
-  <si>
-    <t>17.58</t>
-  </si>
-  <si>
-    <t>2.18</t>
-  </si>
-  <si>
-    <t>5.95</t>
-  </si>
-  <si>
-    <t>32.1</t>
-  </si>
-  <si>
-    <t>21.83</t>
-  </si>
-  <si>
-    <t>3.04</t>
-  </si>
-  <si>
-    <t>4.25</t>
-  </si>
-  <si>
-    <t>1.07</t>
-  </si>
-  <si>
-    <t>8.1</t>
-  </si>
-  <si>
-    <t>3.71</t>
-  </si>
-  <si>
-    <t>9.85</t>
-  </si>
-  <si>
-    <t>4.43</t>
-  </si>
-  <si>
-    <t>10.3</t>
-  </si>
-  <si>
-    <t>6.63</t>
-  </si>
-  <si>
-    <t>20.6</t>
-  </si>
-  <si>
-    <t>25.8</t>
-  </si>
-  <si>
-    <t>15.4</t>
-  </si>
-  <si>
-    <t>11.02</t>
-  </si>
-  <si>
-    <t>10.9</t>
-  </si>
-  <si>
-    <t>7.42</t>
-  </si>
-  <si>
-    <t>25.3</t>
-  </si>
-  <si>
-    <t>30.23</t>
-  </si>
-  <si>
-    <t>15.3</t>
-  </si>
-  <si>
-    <t>9.66</t>
   </si>
   <si>
     <t>Motor de operação da piscina</t>
@@ -555,11 +480,15 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -570,9 +499,7 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
@@ -580,7 +507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -613,11 +540,74 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -631,88 +621,34 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1031,8 +967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7664E424-F9E2-4020-A680-F96C934CEF65}">
   <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8:F8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1043,24 +979,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="12"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="2:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="11"/>
@@ -1071,136 +1007,136 @@
       <c r="G3" s="11"/>
     </row>
     <row r="4" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34" t="s">
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="34"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
     </row>
     <row r="5" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="35" t="s">
-        <v>59</v>
-      </c>
-      <c r="F5" s="35"/>
-      <c r="G5" s="36" t="s">
-        <v>61</v>
+      <c r="B5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="14"/>
+      <c r="G5" s="12" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="E6" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="35"/>
-      <c r="G6" s="36"/>
+      <c r="B6" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="14"/>
+      <c r="G6" s="12"/>
       <c r="I6" s="8"/>
     </row>
     <row r="7" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="39"/>
-      <c r="D7" s="36" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="F7" s="35"/>
-      <c r="G7" s="36"/>
+      <c r="B7" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="F7" s="14"/>
+      <c r="G7" s="12"/>
       <c r="I7" s="8"/>
     </row>
     <row r="8" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="38" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="39"/>
-      <c r="D8" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E8" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="F8" s="35"/>
-      <c r="G8" s="36"/>
+      <c r="B8" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="14"/>
+      <c r="G8" s="12"/>
       <c r="I8" s="8"/>
     </row>
     <row r="9" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="38" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="39"/>
-      <c r="D9" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="G9" s="36"/>
+      <c r="B9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="12"/>
       <c r="I9" s="8"/>
     </row>
     <row r="10" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="40" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="36"/>
+      <c r="B10" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="19"/>
+      <c r="D10" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="12"/>
       <c r="I10" s="8"/>
     </row>
     <row r="11" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="36"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="12"/>
       <c r="I11" s="8"/>
     </row>
     <row r="12" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
-      <c r="G12" s="36"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="12"/>
     </row>
     <row r="13" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="38"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="36"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="12"/>
     </row>
     <row r="14" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="38"/>
-      <c r="C14" s="39"/>
-      <c r="D14" s="37"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="37"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="2:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1219,6 +1155,14 @@
     <sortCondition ref="B14:B32"/>
   </sortState>
   <mergeCells count="24">
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="B2:G2"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="E14:F14"/>
@@ -1231,18 +1175,10 @@
     <mergeCell ref="B14:C14"/>
     <mergeCell ref="B10:C11"/>
     <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B2:G2"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
     <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1254,8 +1190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F661506B-44F4-40FA-81F1-44DC43154591}">
   <dimension ref="B2:L24"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1266,58 +1202,58 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="35"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="35"/>
+      <c r="H3" s="35"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="35"/>
+      <c r="L3" s="35"/>
     </row>
     <row r="4" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="33" t="s">
+      <c r="B4" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="19" t="s">
+      <c r="D4" s="30"/>
+      <c r="E4" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="21"/>
-      <c r="G4" s="20"/>
-      <c r="H4" s="15" t="s">
+      <c r="F4" s="31"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="I4" s="16"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="15" t="s">
+      <c r="I4" s="37"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="17"/>
+      <c r="L4" s="38"/>
     </row>
     <row r="5" spans="2:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="33"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1353,16 +1289,16 @@
       <c r="B6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="44">
         <v>28</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="44">
         <v>23</v>
       </c>
       <c r="E6" s="3"/>
       <c r="F6" s="9"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24"/>
+      <c r="G6" s="39"/>
+      <c r="H6" s="40"/>
       <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="3"/>
@@ -1372,138 +1308,138 @@
       <c r="B7" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>34</v>
+      <c r="C7" s="44">
+        <v>2.1800000000000002</v>
+      </c>
+      <c r="D7" s="44">
+        <v>5.95</v>
       </c>
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="42"/>
       <c r="I7" s="3"/>
       <c r="J7" s="3"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="22" t="s">
+      <c r="B8" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="18"/>
+      <c r="C8" s="46">
+        <v>17.579999999999998</v>
+      </c>
+      <c r="D8" s="46">
+        <v>23.9</v>
+      </c>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
     </row>
     <row r="9" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="22"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
     </row>
     <row r="10" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="22"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="18"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
+      <c r="B10" s="27"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
     </row>
     <row r="11" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="22"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18"/>
-      <c r="G11" s="31"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="34"/>
+      <c r="H11" s="34"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
     </row>
     <row r="12" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="22" t="s">
+      <c r="B12" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="18"/>
-      <c r="F12" s="18"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
+      <c r="C12" s="46">
+        <v>21.83</v>
+      </c>
+      <c r="D12" s="46">
+        <v>32.1</v>
+      </c>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
     </row>
     <row r="13" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="22"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="18"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="47"/>
+      <c r="D13" s="47"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
     </row>
     <row r="14" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="22"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="31"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="18"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="34"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
     </row>
     <row r="15" spans="2:12" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="3">
+      <c r="C15" s="44">
+        <v>3.04</v>
+      </c>
+      <c r="D15" s="44">
         <v>7</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="26"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
@@ -1513,16 +1449,16 @@
       <c r="B16" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>38</v>
+      <c r="C16" s="44">
+        <v>1.07</v>
+      </c>
+      <c r="D16" s="44">
+        <v>4.25</v>
       </c>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
+      <c r="G16" s="43"/>
+      <c r="H16" s="43"/>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -1532,16 +1468,16 @@
       <c r="B17" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>40</v>
+      <c r="C17" s="45">
+        <v>3.71</v>
+      </c>
+      <c r="D17" s="45">
+        <v>8.1</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="26"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="43"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
@@ -1551,16 +1487,16 @@
       <c r="B18" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>42</v>
+      <c r="C18" s="45">
+        <v>4.43</v>
+      </c>
+      <c r="D18" s="45">
+        <v>9.85</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="26"/>
+      <c r="G18" s="43"/>
+      <c r="H18" s="43"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
       <c r="K18" s="2"/>
@@ -1570,16 +1506,16 @@
       <c r="B19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>44</v>
+      <c r="C19" s="45">
+        <v>6.63</v>
+      </c>
+      <c r="D19" s="45">
+        <v>10.3</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
       <c r="K19" s="2"/>
@@ -1589,16 +1525,16 @@
       <c r="B20" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>46</v>
+      <c r="C20" s="45">
+        <v>25.8</v>
+      </c>
+      <c r="D20" s="45">
+        <v>20.6</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="26"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2"/>
@@ -1608,16 +1544,16 @@
       <c r="B21" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>48</v>
+      <c r="C21" s="45">
+        <v>11.02</v>
+      </c>
+      <c r="D21" s="45">
+        <v>15.4</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="26"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
@@ -1627,16 +1563,16 @@
       <c r="B22" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>50</v>
+      <c r="C22" s="45">
+        <v>7.42</v>
+      </c>
+      <c r="D22" s="45">
+        <v>10.9</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="26"/>
+      <c r="G22" s="43"/>
+      <c r="H22" s="43"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
       <c r="K22" s="2"/>
@@ -1646,16 +1582,16 @@
       <c r="B23" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>52</v>
+      <c r="C23" s="45">
+        <v>30.23</v>
+      </c>
+      <c r="D23" s="45">
+        <v>25.3</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
       <c r="K23" s="2"/>
@@ -1665,39 +1601,33 @@
       <c r="B24" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="C24" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="3" t="s">
-        <v>54</v>
+      <c r="C24" s="44">
+        <v>8.66</v>
+      </c>
+      <c r="D24" s="44">
+        <v>15.3</v>
       </c>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
       <c r="L24" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="38">
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="G19:H19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="G15:H15"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="G21:H21"/>
-    <mergeCell ref="G22:H22"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
+  <mergeCells count="28">
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="I8:I11"/>
+    <mergeCell ref="J8:J11"/>
+    <mergeCell ref="K8:K11"/>
+    <mergeCell ref="L8:L11"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="H8:H11"/>
     <mergeCell ref="I12:I14"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
@@ -1708,18 +1638,14 @@
     <mergeCell ref="F8:F11"/>
     <mergeCell ref="C8:C11"/>
     <mergeCell ref="D8:D11"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="G8:H11"/>
-    <mergeCell ref="G12:H14"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="I8:I11"/>
-    <mergeCell ref="J8:J11"/>
-    <mergeCell ref="K8:K11"/>
-    <mergeCell ref="L8:L11"/>
-    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="G12:G14"/>
+    <mergeCell ref="H12:H14"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -8,20 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\Outros\IC\Github\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{837C05B2-16F5-40BB-A839-F0121BAF831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F33A316-3D78-4007-866E-5771A8DCE72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação_Informações" sheetId="1" r:id="rId1"/>
-    <sheet name="Previsão_de_carga" sheetId="2" r:id="rId2"/>
+    <sheet name="Previsão_de_cargas" sheetId="2" r:id="rId2"/>
+    <sheet name="Quadro_de_cargas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
   <si>
     <t>Alunos: Gabriel Schettino Lucas e Ramon Rodrigues Morello</t>
   </si>
@@ -267,6 +268,42 @@
   </si>
   <si>
     <t>246W/127V</t>
+  </si>
+  <si>
+    <t>100 VA</t>
+  </si>
+  <si>
+    <t>200 VA</t>
+  </si>
+  <si>
+    <t>600 VA</t>
+  </si>
+  <si>
+    <t>(VA)</t>
+  </si>
+  <si>
+    <t>(V)</t>
+  </si>
+  <si>
+    <t>(A)</t>
+  </si>
+  <si>
+    <t>CIRCUITO</t>
+  </si>
+  <si>
+    <t>ILUMINAÇÃO</t>
+  </si>
+  <si>
+    <t>TOMADA DE USO GERAL</t>
+  </si>
+  <si>
+    <t>POT. TOTAL</t>
+  </si>
+  <si>
+    <t>TENSÃO</t>
+  </si>
+  <si>
+    <t>CORRENTE</t>
   </si>
 </sst>
 </file>
@@ -673,7 +710,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="86">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,78 +770,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -814,12 +789,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -840,21 +809,6 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -862,20 +816,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -884,11 +828,116 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1121,14 +1170,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="59"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1151,14 +1200,14 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="58"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1209,16 +1258,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="28"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="27" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="61" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="22"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1241,17 +1290,17 @@
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="22"/>
+      <c r="C5" s="52"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="22"/>
+      <c r="F5" s="52"/>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1277,18 +1326,18 @@
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="22"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="64" t="s">
+      <c r="E6" s="63" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="63" t="s">
+      <c r="F6" s="52"/>
+      <c r="G6" s="33" t="s">
         <v>61</v>
       </c>
       <c r="H6" s="1"/>
@@ -1313,18 +1362,18 @@
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="63" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="22"/>
-      <c r="D7" s="63" t="s">
+      <c r="C7" s="52"/>
+      <c r="D7" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="64" t="s">
+      <c r="E7" s="63" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="22"/>
-      <c r="G7" s="63" t="s">
+      <c r="F7" s="52"/>
+      <c r="G7" s="33" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="1"/>
@@ -1349,15 +1398,15 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="64" t="s">
+      <c r="B8" s="63" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="22"/>
-      <c r="D8" s="75" t="s">
+      <c r="C8" s="52"/>
+      <c r="D8" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="52"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
@@ -1381,15 +1430,15 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="22"/>
+      <c r="C9" s="52"/>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="52"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
@@ -1413,15 +1462,15 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="65" t="s">
+      <c r="C10" s="46"/>
+      <c r="D10" s="49" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="52"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
@@ -1445,11 +1494,11 @@
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="31"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="52"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
@@ -1473,11 +1522,11 @@
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="22"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="52"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1501,12 +1550,12 @@
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="68"/>
-      <c r="C13" s="30"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="46"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="70"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="35"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1529,12 +1578,12 @@
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
-      <c r="D14" s="73"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
-      <c r="G14" s="73"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="36"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1557,12 +1606,12 @@
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="69"/>
-      <c r="D15" s="69"/>
-      <c r="E15" s="69"/>
-      <c r="F15" s="69"/>
-      <c r="G15" s="69"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="34"/>
+      <c r="F15" s="34"/>
+      <c r="G15" s="34"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1585,12 +1634,12 @@
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
-      <c r="F16" s="69"/>
-      <c r="G16" s="69"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="E16" s="34"/>
+      <c r="F16" s="34"/>
+      <c r="G16" s="34"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1613,14 +1662,14 @@
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="66" t="s">
+      <c r="B17" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="66"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="42"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1643,14 +1692,14 @@
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="67" t="s">
+      <c r="B18" s="53" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="67"/>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1673,14 +1722,14 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="66" t="s">
+      <c r="B19" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="42"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1703,14 +1752,14 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="66" t="s">
+      <c r="B20" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="C20" s="42"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1733,14 +1782,14 @@
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="81" t="s">
+      <c r="B21" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="80"/>
+      <c r="C21" s="44"/>
+      <c r="D21" s="44"/>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -29231,23 +29280,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -29260,6 +29292,23 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -29313,19 +29362,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="30"/>
+      <c r="C2" s="78"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="46"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -29343,17 +29392,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="31"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="39"/>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="32"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="48"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -29371,27 +29420,27 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="80" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="41" t="s">
+      <c r="C4" s="81" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="41" t="s">
+      <c r="D4" s="52"/>
+      <c r="E4" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="42" t="s">
+      <c r="F4" s="62"/>
+      <c r="G4" s="52"/>
+      <c r="H4" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="28"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="42" t="s">
+      <c r="I4" s="62"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="82" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="22"/>
+      <c r="L4" s="52"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -29409,7 +29458,7 @@
     </row>
     <row r="5" spans="1:26" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="33"/>
+      <c r="B5" s="50"/>
       <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
@@ -29437,7 +29486,7 @@
       <c r="K5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="62" t="s">
+      <c r="L5" s="32" t="s">
         <v>43</v>
       </c>
       <c r="M5" s="1"/>
@@ -29475,7 +29524,7 @@
       <c r="G6" s="13">
         <v>400</v>
       </c>
-      <c r="H6" s="43">
+      <c r="H6" s="21">
         <v>0</v>
       </c>
       <c r="I6" s="13">
@@ -29484,7 +29533,7 @@
       <c r="J6" s="13">
         <v>0</v>
       </c>
-      <c r="K6" s="54" t="s">
+      <c r="K6" s="26" t="s">
         <v>56</v>
       </c>
       <c r="L6" s="14">
@@ -29525,7 +29574,7 @@
       <c r="G7" s="13">
         <v>100</v>
       </c>
-      <c r="H7" s="44">
+      <c r="H7" s="22">
         <v>3</v>
       </c>
       <c r="I7" s="13">
@@ -29534,7 +29583,7 @@
       <c r="J7" s="13">
         <v>1800</v>
       </c>
-      <c r="K7" s="54" t="s">
+      <c r="K7" s="26" t="s">
         <v>54</v>
       </c>
       <c r="L7" s="13">
@@ -29557,35 +29606,35 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="34">
+      <c r="C8" s="76">
         <v>17.579999999999998</v>
       </c>
-      <c r="D8" s="34">
+      <c r="D8" s="76">
         <v>23.9</v>
       </c>
-      <c r="E8" s="48">
+      <c r="E8" s="75">
         <v>3</v>
       </c>
-      <c r="F8" s="48">
+      <c r="F8" s="75">
         <v>100</v>
       </c>
-      <c r="G8" s="49">
+      <c r="G8" s="71">
         <v>300</v>
       </c>
-      <c r="H8" s="49">
+      <c r="H8" s="71">
         <v>4</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="73" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="48">
+      <c r="J8" s="75">
         <v>1400</v>
       </c>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36"/>
+      <c r="K8" s="67"/>
+      <c r="L8" s="67"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -29603,17 +29652,17 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="51"/>
-      <c r="H9" s="51"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="45"/>
-      <c r="L9" s="45"/>
+      <c r="B9" s="70"/>
+      <c r="C9" s="70"/>
+      <c r="D9" s="70"/>
+      <c r="E9" s="74"/>
+      <c r="F9" s="74"/>
+      <c r="G9" s="72"/>
+      <c r="H9" s="72"/>
+      <c r="I9" s="74"/>
+      <c r="J9" s="74"/>
+      <c r="K9" s="68"/>
+      <c r="L9" s="68"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -29631,7 +29680,7 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="56" t="s">
+      <c r="B10" s="27" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="15">
@@ -29704,10 +29753,10 @@
       <c r="J11" s="13">
         <v>600</v>
       </c>
-      <c r="K11" s="54" t="s">
+      <c r="K11" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="54">
+      <c r="L11" s="26">
         <v>5400</v>
       </c>
       <c r="M11" s="1"/>
@@ -29800,7 +29849,7 @@
       <c r="J13" s="19">
         <v>600</v>
       </c>
-      <c r="K13" s="53" t="s">
+      <c r="K13" s="25" t="s">
         <v>6</v>
       </c>
       <c r="L13" s="19">
@@ -29890,13 +29939,13 @@
       <c r="H15" s="13">
         <v>6</v>
       </c>
-      <c r="I15" s="53" t="s">
+      <c r="I15" s="25" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="19">
         <v>2100</v>
       </c>
-      <c r="K15" s="53" t="s">
+      <c r="K15" s="25" t="s">
         <v>53</v>
       </c>
       <c r="L15" s="19">
@@ -29937,13 +29986,13 @@
       <c r="G16" s="13">
         <v>400</v>
       </c>
-      <c r="H16" s="47">
+      <c r="H16" s="24">
         <v>4</v>
       </c>
-      <c r="I16" s="61" t="s">
+      <c r="I16" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="46">
+      <c r="J16" s="23">
         <v>1400</v>
       </c>
       <c r="K16" s="19"/>
@@ -30032,13 +30081,13 @@
       <c r="H18" s="13">
         <v>3</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="25" t="s">
         <v>38</v>
       </c>
       <c r="J18" s="19">
         <v>1900</v>
       </c>
-      <c r="K18" s="53" t="s">
+      <c r="K18" s="25" t="s">
         <v>52</v>
       </c>
       <c r="L18" s="19">
@@ -30070,25 +30119,25 @@
       <c r="D19" s="18">
         <v>25.3</v>
       </c>
-      <c r="E19" s="46">
+      <c r="E19" s="23">
         <v>5</v>
       </c>
-      <c r="F19" s="46">
+      <c r="F19" s="23">
         <v>100</v>
       </c>
-      <c r="G19" s="47">
+      <c r="G19" s="24">
         <v>500</v>
       </c>
       <c r="H19" s="13">
         <v>5</v>
       </c>
-      <c r="I19" s="53" t="s">
+      <c r="I19" s="25" t="s">
         <v>37</v>
       </c>
       <c r="J19" s="19">
         <v>2000</v>
       </c>
-      <c r="K19" s="53" t="s">
+      <c r="K19" s="25" t="s">
         <v>52</v>
       </c>
       <c r="L19" s="19">
@@ -30111,7 +30160,7 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="58" t="s">
+      <c r="B20" s="28" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="12">
@@ -30132,7 +30181,7 @@
       <c r="H20" s="13">
         <v>5</v>
       </c>
-      <c r="I20" s="54" t="s">
+      <c r="I20" s="26" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="13">
@@ -30157,43 +30206,43 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="59" t="s">
+      <c r="B21" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="60">
-        <f>SUM(C6:C20)</f>
+      <c r="C21" s="30">
+        <f t="shared" ref="C21:J21" si="0">SUM(C6:C20)</f>
         <v>171.59999999999997</v>
       </c>
-      <c r="D21" s="60">
-        <f>SUM(D6:D20)</f>
+      <c r="D21" s="30">
+        <f t="shared" si="0"/>
         <v>211.95000000000002</v>
       </c>
-      <c r="E21" s="60">
-        <f>SUM(E6:E20)</f>
+      <c r="E21" s="30">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F21" s="60">
-        <f>SUM(F6:F20)</f>
+      <c r="F21" s="30">
+        <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="G21" s="60">
-        <f>SUM(G6:G20)</f>
+      <c r="G21" s="30">
+        <f t="shared" si="0"/>
         <v>2900</v>
       </c>
-      <c r="H21" s="60">
-        <f>SUM(H6:H20)</f>
+      <c r="H21" s="30">
+        <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="I21" s="60">
-        <f>SUM(I6:I20)</f>
+      <c r="I21" s="30">
+        <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="J21" s="60">
-        <f>SUM(J6:J20)</f>
+      <c r="J21" s="30">
+        <f t="shared" si="0"/>
         <v>15700</v>
       </c>
-      <c r="K21" s="59"/>
-      <c r="L21" s="60">
+      <c r="K21" s="29"/>
+      <c r="L21" s="30">
         <f>SUM(L6:L20)</f>
         <v>18731</v>
       </c>
@@ -30222,9 +30271,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="74"/>
-      <c r="K22" s="74"/>
-      <c r="L22" s="74"/>
+      <c r="J22" s="65"/>
+      <c r="K22" s="65"/>
+      <c r="L22" s="65"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -30242,12 +30291,12 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="77" t="s">
+      <c r="B23" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="78"/>
-      <c r="D23" s="78"/>
-      <c r="E23" s="79"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -30270,11 +30319,11 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="66" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
+      <c r="C24" s="66"/>
+      <c r="D24" s="66"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -30304,11 +30353,11 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="52" t="s">
+      <c r="J25" s="64" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="52"/>
-      <c r="L25" s="52"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="64"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -57514,17 +57563,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="L8:L9"/>
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="K4:L4"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="L8:L9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
@@ -57538,4 +57587,153 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398C07AF-3B06-4C71-BE66-D657F989F064}">
+  <dimension ref="B1:J35"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="19" width="20.7109375" style="41" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="41"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="83" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="D3" s="83"/>
+      <c r="E3" s="83" t="s">
+        <v>71</v>
+      </c>
+      <c r="F3" s="83"/>
+      <c r="G3" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="83"/>
+      <c r="C4" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="J4" s="29" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="84"/>
+      <c r="C5" s="84"/>
+      <c r="D5" s="84"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="84"/>
+      <c r="G5" s="84"/>
+      <c r="H5" s="84"/>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+    </row>
+    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="85"/>
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="85"/>
+      <c r="C7" s="85"/>
+      <c r="D7" s="85"/>
+      <c r="E7" s="85"/>
+      <c r="F7" s="85"/>
+      <c r="G7" s="85"/>
+      <c r="H7" s="85"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+    </row>
+    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="17" ht="20.100000000000001" customHeight="1"/>
+    <row r="18" ht="20.100000000000001" customHeight="1"/>
+    <row r="19" ht="20.100000000000001" customHeight="1"/>
+    <row r="20" ht="20.100000000000001" customHeight="1"/>
+    <row r="21" ht="20.100000000000001" customHeight="1"/>
+    <row r="22" ht="20.100000000000001" customHeight="1"/>
+    <row r="23" ht="20.100000000000001" customHeight="1"/>
+    <row r="24" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" ht="20.100000000000001" customHeight="1"/>
+    <row r="33" ht="20.100000000000001" customHeight="1"/>
+    <row r="34" ht="20.100000000000001" customHeight="1"/>
+    <row r="35" ht="20.100000000000001" customHeight="1"/>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="J5:J7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="C5:C7"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="E5:E7"/>
+    <mergeCell ref="F5:F7"/>
+    <mergeCell ref="G5:G7"/>
+    <mergeCell ref="H5:H7"/>
+    <mergeCell ref="I5:I7"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\Outros\IC\Github\Instel-I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\GitHub\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F33A316-3D78-4007-866E-5771A8DCE72A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF8F5F7-F85F-401B-81ED-9288F9A07E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação_Informações" sheetId="1" r:id="rId1"/>
@@ -18,11 +18,24 @@
     <sheet name="Quadro_de_cargas" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="99">
   <si>
     <t>Alunos: Gabriel Schettino Lucas e Ramon Rodrigues Morello</t>
   </si>
@@ -305,12 +318,84 @@
   <si>
     <t>CORRENTE</t>
   </si>
+  <si>
+    <t>acho que ta certo, pela norma, a gnt vai ter: https://neoipsum.com.br/previsao-de-cargas-de-iluminacao-de-acordo-com-a-nbr-5410/</t>
+  </si>
+  <si>
+    <t>(6m2 = 100VA )+ (11,58m2 / 4) = 2,895 arredondado pra 3 x 60VA = 280 VA no total, arredondado pra 3 pontos com 100VA cada</t>
+  </si>
+  <si>
+    <t>Seguindo o mesmo caso da de cima, temos:</t>
+  </si>
+  <si>
+    <t>30,23m2 - 6m2 = 24,23m2, dividido por 4 = 6 aproximadamente, então no final: (100 + (6 x 60)) = 460 (será q da pra arredondar pra 500??)</t>
+  </si>
+  <si>
+    <t>Esse aqui eu acho q deveriam ser 5, tirando daqui: https://neoipsum.com.br/numero-minimo-de-tomadas-nbr-5410-projetos-eletricos-residenciais/</t>
+  </si>
+  <si>
+    <t>no caso o perimetro é 23,9, dividido por 5 = 4,78 e arredondando pra cima, 5 tomadas</t>
+  </si>
+  <si>
+    <t>Pelo que eu vi a norma define apenas 1 TUG(mínimo) para garagem, varanda, hall e corredor</t>
+  </si>
+  <si>
+    <t>DESCRIÇÃO</t>
+  </si>
+  <si>
+    <t>ILUM. EXTERNA</t>
+  </si>
+  <si>
+    <t>ILUM. INTERNA</t>
+  </si>
+  <si>
+    <t>CHUVEIRO SUÍTE</t>
+  </si>
+  <si>
+    <t>CHUVEIRO SOCIAL</t>
+  </si>
+  <si>
+    <t>MÁQ. LAVAR</t>
+  </si>
+  <si>
+    <t>AR CONDICIONADO QUARTO</t>
+  </si>
+  <si>
+    <t>AR CONDICIONADO SALA</t>
+  </si>
+  <si>
+    <t>BOMBA PISCINA</t>
+  </si>
+  <si>
+    <t>FORNO MICROONDAS</t>
+  </si>
+  <si>
+    <t>TOMADAS COZINHA</t>
+  </si>
+  <si>
+    <t>TOMADAS CORREDOR LATERAL + AREA DE LAZER + CORREDOR FRONTAL</t>
+  </si>
+  <si>
+    <t>TOMADAS SUÍTE</t>
+  </si>
+  <si>
+    <t>TOMADAS SALA</t>
+  </si>
+  <si>
+    <t>TOMADAS QUARTO + BANHEIRO INTERNO</t>
+  </si>
+  <si>
+    <t>TOMADAS BANHEIRO DA SUÍTE + GARAGEM</t>
+  </si>
+  <si>
+    <t>TOMADAS AREA DE SERVIÇO + BANHEIRO EXTERNO</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -423,8 +508,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +549,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -710,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -776,12 +891,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -799,9 +908,6 @@
     </xf>
     <xf numFmtId="4" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -831,6 +937,33 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -843,40 +976,27 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -898,45 +1018,67 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1157,7 +1299,7 @@
   <dimension ref="A1:Z1002"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:G20"/>
+      <selection activeCell="B5" sqref="B5:C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1170,14 +1312,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="59"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="48"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1200,14 +1342,14 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="58"/>
-      <c r="G2" s="59"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="48"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1258,16 +1400,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="62"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="61" t="s">
+      <c r="C4" s="51"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="40"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1290,17 +1432,17 @@
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="40"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="45" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="F5" s="40"/>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1326,18 +1468,18 @@
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="40"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="63" t="s">
+      <c r="E6" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="33" t="s">
+      <c r="F6" s="40"/>
+      <c r="G6" s="30" t="s">
         <v>61</v>
       </c>
       <c r="H6" s="1"/>
@@ -1362,18 +1504,18 @@
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="52"/>
-      <c r="D7" s="33" t="s">
+      <c r="C7" s="40"/>
+      <c r="D7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="63" t="s">
+      <c r="E7" s="39" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="33" t="s">
+      <c r="F7" s="40"/>
+      <c r="G7" s="30" t="s">
         <v>62</v>
       </c>
       <c r="H7" s="1"/>
@@ -1398,15 +1540,15 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="52"/>
-      <c r="D8" s="37" t="s">
+      <c r="C8" s="40"/>
+      <c r="D8" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="40"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
@@ -1430,15 +1572,15 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="40"/>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="40"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
@@ -1462,15 +1604,15 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="45" t="s">
+      <c r="B10" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="46"/>
-      <c r="D10" s="49" t="s">
+      <c r="C10" s="42"/>
+      <c r="D10" s="58" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="40"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
@@ -1494,11 +1636,11 @@
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="47"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="56"/>
+      <c r="C11" s="57"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="40"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
@@ -1522,11 +1664,11 @@
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="40"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="40"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1550,12 +1692,12 @@
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="46"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="46"/>
-      <c r="G13" s="35"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="32"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
       <c r="J13" s="1"/>
@@ -1578,12 +1720,12 @@
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="36"/>
+      <c r="B14" s="43"/>
+      <c r="C14" s="44"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="43"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="33"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -1606,12 +1748,12 @@
     </row>
     <row r="15" spans="1:26" ht="19.5" customHeight="1">
       <c r="A15" s="1"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34"/>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="31"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
+      <c r="G15" s="31"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1634,12 +1776,12 @@
     </row>
     <row r="16" spans="1:26" ht="19.5" customHeight="1">
       <c r="A16" s="1"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -1662,14 +1804,14 @@
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1692,14 +1834,14 @@
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="53" t="s">
+      <c r="B18" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53"/>
-      <c r="G18" s="53"/>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="60"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1722,14 +1864,14 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="42"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1752,14 +1894,14 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="52" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="42"/>
-      <c r="D20" s="42"/>
-      <c r="E20" s="42"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1782,14 +1924,14 @@
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="53" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
+      <c r="C21" s="54"/>
+      <c r="D21" s="54"/>
+      <c r="E21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="54"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -29280,6 +29422,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -29292,23 +29451,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -29319,8 +29461,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -29362,19 +29504,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="78"/>
-      <c r="G2" s="78"/>
-      <c r="H2" s="78"/>
-      <c r="I2" s="78"/>
-      <c r="J2" s="78"/>
-      <c r="K2" s="78"/>
-      <c r="L2" s="46"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="62"/>
+      <c r="I2" s="62"/>
+      <c r="J2" s="62"/>
+      <c r="K2" s="62"/>
+      <c r="L2" s="42"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -29392,17 +29534,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="47"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="48"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="63"/>
+      <c r="F3" s="63"/>
+      <c r="G3" s="63"/>
+      <c r="H3" s="63"/>
+      <c r="I3" s="63"/>
+      <c r="J3" s="63"/>
+      <c r="K3" s="63"/>
+      <c r="L3" s="57"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -29420,27 +29562,27 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="65" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="52"/>
-      <c r="E4" s="81" t="s">
+      <c r="D4" s="40"/>
+      <c r="E4" s="65" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="52"/>
-      <c r="H4" s="82" t="s">
+      <c r="F4" s="51"/>
+      <c r="G4" s="40"/>
+      <c r="H4" s="66" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="62"/>
-      <c r="J4" s="52"/>
-      <c r="K4" s="82" t="s">
+      <c r="I4" s="51"/>
+      <c r="J4" s="40"/>
+      <c r="K4" s="66" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="52"/>
+      <c r="L4" s="40"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -29458,7 +29600,7 @@
     </row>
     <row r="5" spans="1:26" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="50"/>
+      <c r="B5" s="59"/>
       <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
@@ -29486,7 +29628,7 @@
       <c r="K5" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="L5" s="32" t="s">
+      <c r="L5" s="29" t="s">
         <v>43</v>
       </c>
       <c r="M5" s="1"/>
@@ -29533,7 +29675,7 @@
       <c r="J6" s="13">
         <v>0</v>
       </c>
-      <c r="K6" s="26" t="s">
+      <c r="K6" s="24" t="s">
         <v>56</v>
       </c>
       <c r="L6" s="14">
@@ -29583,7 +29725,7 @@
       <c r="J7" s="13">
         <v>1800</v>
       </c>
-      <c r="K7" s="26" t="s">
+      <c r="K7" s="24" t="s">
         <v>54</v>
       </c>
       <c r="L7" s="13">
@@ -29606,35 +29748,35 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="69" t="s">
+      <c r="B8" s="72" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="76">
+      <c r="C8" s="74">
         <v>17.579999999999998</v>
       </c>
-      <c r="D8" s="76">
+      <c r="D8" s="74">
         <v>23.9</v>
       </c>
-      <c r="E8" s="75">
+      <c r="E8" s="76">
         <v>3</v>
       </c>
-      <c r="F8" s="75">
+      <c r="F8" s="76">
         <v>100</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="77">
         <v>300</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="84">
         <v>4</v>
       </c>
-      <c r="I8" s="73" t="s">
+      <c r="I8" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="75">
+      <c r="J8" s="86">
         <v>1400</v>
       </c>
-      <c r="K8" s="67"/>
-      <c r="L8" s="67"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -29652,17 +29794,17 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="70"/>
-      <c r="D9" s="70"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="74"/>
-      <c r="J9" s="74"/>
-      <c r="K9" s="68"/>
-      <c r="L9" s="68"/>
+      <c r="B9" s="73"/>
+      <c r="C9" s="73"/>
+      <c r="D9" s="73"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="87"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="71"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -29680,7 +29822,7 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="25" t="s">
         <v>40</v>
       </c>
       <c r="C10" s="15">
@@ -29753,10 +29895,10 @@
       <c r="J11" s="13">
         <v>600</v>
       </c>
-      <c r="K11" s="26" t="s">
+      <c r="K11" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="24">
         <v>5400</v>
       </c>
       <c r="M11" s="1"/>
@@ -29849,7 +29991,7 @@
       <c r="J13" s="19">
         <v>600</v>
       </c>
-      <c r="K13" s="25" t="s">
+      <c r="K13" s="23" t="s">
         <v>6</v>
       </c>
       <c r="L13" s="19">
@@ -29939,13 +30081,13 @@
       <c r="H15" s="13">
         <v>6</v>
       </c>
-      <c r="I15" s="25" t="s">
+      <c r="I15" s="23" t="s">
         <v>36</v>
       </c>
       <c r="J15" s="19">
         <v>2100</v>
       </c>
-      <c r="K15" s="25" t="s">
+      <c r="K15" s="23" t="s">
         <v>53</v>
       </c>
       <c r="L15" s="19">
@@ -29986,13 +30128,13 @@
       <c r="G16" s="13">
         <v>400</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="90">
         <v>4</v>
       </c>
-      <c r="I16" s="31" t="s">
+      <c r="I16" s="91" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="23">
+      <c r="J16" s="92">
         <v>1400</v>
       </c>
       <c r="K16" s="19"/>
@@ -30081,13 +30223,13 @@
       <c r="H18" s="13">
         <v>3</v>
       </c>
-      <c r="I18" s="25" t="s">
+      <c r="I18" s="23" t="s">
         <v>38</v>
       </c>
       <c r="J18" s="19">
         <v>1900</v>
       </c>
-      <c r="K18" s="25" t="s">
+      <c r="K18" s="23" t="s">
         <v>52</v>
       </c>
       <c r="L18" s="19">
@@ -30119,25 +30261,25 @@
       <c r="D19" s="18">
         <v>25.3</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="81">
         <v>5</v>
       </c>
-      <c r="F19" s="23">
+      <c r="F19" s="81">
         <v>100</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="82">
         <v>500</v>
       </c>
       <c r="H19" s="13">
         <v>5</v>
       </c>
-      <c r="I19" s="25" t="s">
+      <c r="I19" s="23" t="s">
         <v>37</v>
       </c>
       <c r="J19" s="19">
         <v>2000</v>
       </c>
-      <c r="K19" s="25" t="s">
+      <c r="K19" s="23" t="s">
         <v>52</v>
       </c>
       <c r="L19" s="19">
@@ -30160,7 +30302,7 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="26" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="12">
@@ -30181,11 +30323,11 @@
       <c r="H20" s="13">
         <v>5</v>
       </c>
-      <c r="I20" s="26" t="s">
+      <c r="I20" s="24" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="13">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="K20" s="13"/>
       <c r="L20" s="13"/>
@@ -30206,43 +30348,43 @@
     </row>
     <row r="21" spans="1:26" ht="15.75" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="28">
         <f t="shared" ref="C21:J21" si="0">SUM(C6:C20)</f>
         <v>171.59999999999997</v>
       </c>
-      <c r="D21" s="30">
+      <c r="D21" s="28">
         <f t="shared" si="0"/>
         <v>211.95000000000002</v>
       </c>
-      <c r="E21" s="30">
+      <c r="E21" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="F21" s="30">
+      <c r="F21" s="28">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="G21" s="30">
-        <f t="shared" si="0"/>
+      <c r="G21" s="28">
+        <f>SUM(G6:G20)</f>
         <v>2900</v>
       </c>
-      <c r="H21" s="30">
+      <c r="H21" s="28">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="I21" s="30">
+      <c r="I21" s="28">
         <f t="shared" si="0"/>
         <v>3600</v>
       </c>
-      <c r="J21" s="30">
+      <c r="J21" s="28">
         <f t="shared" si="0"/>
-        <v>15700</v>
+        <v>15600</v>
       </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="30">
+      <c r="K21" s="27"/>
+      <c r="L21" s="28">
         <f>SUM(L6:L20)</f>
         <v>18731</v>
       </c>
@@ -30271,9 +30413,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
+      <c r="J22" s="68"/>
+      <c r="K22" s="68"/>
+      <c r="L22" s="68"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -30291,12 +30433,12 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="37"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -30319,11 +30461,11 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="66" t="s">
+      <c r="B24" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -30353,11 +30495,11 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="64" t="s">
+      <c r="J25" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="64"/>
-      <c r="L25" s="64"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -30373,7 +30515,7 @@
       <c r="Y25" s="1"/>
       <c r="Z25" s="1"/>
     </row>
-    <row r="26" spans="1:26" ht="15.75" customHeight="1">
+    <row r="26" spans="1:26" ht="15.75">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
@@ -30383,9 +30525,11 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="1"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
+      <c r="J26" s="80" t="s">
+        <v>75</v>
+      </c>
+      <c r="K26" s="80"/>
+      <c r="L26" s="80"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -30411,9 +30555,11 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
+      <c r="J27" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="K27" s="80"/>
+      <c r="L27" s="80"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -30439,9 +30585,11 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
+      <c r="J28" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="83"/>
+      <c r="L28" s="83"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -30467,9 +30615,11 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="1"/>
-      <c r="K29" s="1"/>
-      <c r="L29" s="1"/>
+      <c r="J29" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="K29" s="83"/>
+      <c r="L29" s="83"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -30495,9 +30645,11 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-      <c r="K30" s="1"/>
-      <c r="L30" s="1"/>
+      <c r="J30" s="89" t="s">
+        <v>79</v>
+      </c>
+      <c r="K30" s="89"/>
+      <c r="L30" s="89"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -30523,9 +30675,11 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="J31" s="89" t="s">
+        <v>80</v>
+      </c>
+      <c r="K31" s="89"/>
+      <c r="L31" s="89"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -30551,9 +30705,11 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="1"/>
+      <c r="J32" s="93" t="s">
+        <v>81</v>
+      </c>
+      <c r="K32" s="93"/>
+      <c r="L32" s="93"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -30579,9 +30735,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="1"/>
-      <c r="K33" s="1"/>
-      <c r="L33" s="1"/>
+      <c r="J33" s="93"/>
+      <c r="K33" s="93"/>
+      <c r="L33" s="93"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -30607,9 +30763,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-      <c r="K34" s="1"/>
-      <c r="L34" s="1"/>
+      <c r="J34" s="93"/>
+      <c r="K34" s="93"/>
+      <c r="L34" s="93"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -57562,13 +57718,13 @@
       <c r="Z996" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
+  <mergeCells count="26">
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="B24:D24"/>
@@ -57583,155 +57739,582 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398C07AF-3B06-4C71-BE66-D657F989F064}">
-  <dimension ref="B1:J35"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="19" width="20.7109375" style="41" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="41"/>
+    <col min="1" max="1" width="20.7109375" style="38" customWidth="1"/>
+    <col min="2" max="2" width="80.7109375" style="38" bestFit="1" customWidth="1"/>
+    <col min="3" max="19" width="20.7109375" style="38" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="2" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="3" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="83" t="s">
+    <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A3" s="75" t="s">
         <v>69</v>
       </c>
-      <c r="C3" s="83" t="s">
+      <c r="B3" s="75" t="s">
+        <v>82</v>
+      </c>
+      <c r="C3" s="75" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83" t="s">
+      <c r="D3" s="75"/>
+      <c r="E3" s="75" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="83"/>
-      <c r="G3" s="29" t="s">
+      <c r="F3" s="75"/>
+      <c r="G3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="27" t="s">
         <v>72</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="27" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="83"/>
-      <c r="C4" s="29" t="s">
+    <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A4" s="75"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="27" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="E4" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="29" t="s">
+      <c r="F4" s="27" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="G4" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="H4" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="I4" s="27" t="s">
         <v>67</v>
       </c>
-      <c r="J4" s="29" t="s">
+      <c r="J4" s="27" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="84"/>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="85"/>
-      <c r="C6" s="85"/>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="85"/>
-      <c r="H6" s="85"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-    </row>
-    <row r="7" spans="2:10" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="85"/>
-      <c r="C7" s="85"/>
-      <c r="D7" s="85"/>
-      <c r="E7" s="85"/>
-      <c r="F7" s="85"/>
-      <c r="G7" s="85"/>
-      <c r="H7" s="85"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-    </row>
-    <row r="8" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="9" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="10" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="11" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="12" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="13" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="14" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="15" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="16" spans="2:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="17" ht="20.100000000000001" customHeight="1"/>
-    <row r="18" ht="20.100000000000001" customHeight="1"/>
-    <row r="19" ht="20.100000000000001" customHeight="1"/>
-    <row r="20" ht="20.100000000000001" customHeight="1"/>
-    <row r="21" ht="20.100000000000001" customHeight="1"/>
-    <row r="22" ht="20.100000000000001" customHeight="1"/>
-    <row r="23" ht="20.100000000000001" customHeight="1"/>
-    <row r="24" ht="20.100000000000001" customHeight="1"/>
-    <row r="25" ht="20.100000000000001" customHeight="1"/>
-    <row r="26" ht="20.100000000000001" customHeight="1"/>
-    <row r="27" ht="20.100000000000001" customHeight="1"/>
-    <row r="28" ht="20.100000000000001" customHeight="1"/>
-    <row r="29" ht="20.100000000000001" customHeight="1"/>
-    <row r="30" ht="20.100000000000001" customHeight="1"/>
-    <row r="31" ht="20.100000000000001" customHeight="1"/>
-    <row r="32" ht="20.100000000000001" customHeight="1"/>
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A5" s="94">
+        <v>1</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="94">
+        <v>8</v>
+      </c>
+      <c r="D5" s="94">
+        <v>4</v>
+      </c>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="94"/>
+      <c r="H5" s="94">
+        <f t="shared" ref="H5:H11" si="0">(C5*100+D5*200)+(E5*100+F5*600)+G5</f>
+        <v>1600</v>
+      </c>
+      <c r="I5" s="94">
+        <v>127</v>
+      </c>
+      <c r="J5" s="94">
+        <f t="shared" ref="J5:J13" si="1">H5/I5</f>
+        <v>12.598425196850394</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A6" s="94">
+        <v>2</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>84</v>
+      </c>
+      <c r="C6" s="94">
+        <v>13</v>
+      </c>
+      <c r="D6" s="94"/>
+      <c r="E6" s="94"/>
+      <c r="F6" s="94"/>
+      <c r="G6" s="94"/>
+      <c r="H6" s="94">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="I6" s="94">
+        <v>127</v>
+      </c>
+      <c r="J6" s="94">
+        <f t="shared" si="1"/>
+        <v>10.236220472440944</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A7" s="94">
+        <v>3</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94">
+        <v>3</v>
+      </c>
+      <c r="F7" s="94">
+        <v>3</v>
+      </c>
+      <c r="G7" s="94"/>
+      <c r="H7" s="94">
+        <f t="shared" si="0"/>
+        <v>2100</v>
+      </c>
+      <c r="I7" s="94">
+        <v>127</v>
+      </c>
+      <c r="J7" s="94">
+        <f t="shared" si="1"/>
+        <v>16.535433070866141</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A8" s="94">
+        <v>4</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>98</v>
+      </c>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94">
+        <v>1</v>
+      </c>
+      <c r="F8" s="94">
+        <v>3</v>
+      </c>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94">
+        <f t="shared" si="0"/>
+        <v>1900</v>
+      </c>
+      <c r="I8" s="94">
+        <v>127</v>
+      </c>
+      <c r="J8" s="94">
+        <f t="shared" si="1"/>
+        <v>14.960629921259843</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A9" s="94">
+        <v>5</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>93</v>
+      </c>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94">
+        <v>2</v>
+      </c>
+      <c r="F9" s="94">
+        <v>3</v>
+      </c>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94">
+        <f t="shared" si="0"/>
+        <v>2000</v>
+      </c>
+      <c r="I9" s="94">
+        <v>127</v>
+      </c>
+      <c r="J9" s="94">
+        <f t="shared" si="1"/>
+        <v>15.748031496062993</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A10" s="94">
+        <v>6</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>96</v>
+      </c>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94">
+        <v>1</v>
+      </c>
+      <c r="F10" s="94">
+        <v>4</v>
+      </c>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94">
+        <f t="shared" si="0"/>
+        <v>2500</v>
+      </c>
+      <c r="I10" s="94">
+        <v>127</v>
+      </c>
+      <c r="J10" s="94">
+        <f t="shared" si="1"/>
+        <v>19.685039370078741</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A11" s="94">
+        <v>7</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>94</v>
+      </c>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94">
+        <v>2</v>
+      </c>
+      <c r="F11" s="94">
+        <v>3</v>
+      </c>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94">
+        <f>(C11*100+D11*200)+(E11*100+F11*600)+G11</f>
+        <v>2000</v>
+      </c>
+      <c r="I11" s="94">
+        <v>127</v>
+      </c>
+      <c r="J11" s="94">
+        <f t="shared" si="1"/>
+        <v>15.748031496062993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A12" s="94">
+        <v>8</v>
+      </c>
+      <c r="B12" s="94" t="s">
+        <v>95</v>
+      </c>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94">
+        <v>2</v>
+      </c>
+      <c r="F12" s="94">
+        <v>3</v>
+      </c>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94">
+        <f>(C12*100+D12*200)+(E12*100+F12*600)+G12</f>
+        <v>2000</v>
+      </c>
+      <c r="I12" s="94">
+        <v>127</v>
+      </c>
+      <c r="J12" s="94">
+        <f t="shared" si="1"/>
+        <v>15.748031496062993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A13" s="94">
+        <v>9</v>
+      </c>
+      <c r="B13" s="94" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94">
+        <v>2</v>
+      </c>
+      <c r="F13" s="94">
+        <v>3</v>
+      </c>
+      <c r="G13" s="94"/>
+      <c r="H13" s="94">
+        <f>(C13*100+D13*200)+(E13*100+F13*600)+G13</f>
+        <v>2000</v>
+      </c>
+      <c r="I13" s="94">
+        <v>127</v>
+      </c>
+      <c r="J13" s="94">
+        <f t="shared" si="1"/>
+        <v>15.748031496062993</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A14" s="94">
+        <v>10</v>
+      </c>
+      <c r="B14" s="94" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94">
+        <v>5400</v>
+      </c>
+      <c r="H14" s="94">
+        <f>(C14*100+D14*200)+(E14*100+F14*600)+G14</f>
+        <v>5400</v>
+      </c>
+      <c r="I14" s="94">
+        <v>220</v>
+      </c>
+      <c r="J14" s="94">
+        <f>H14/I14</f>
+        <v>24.545454545454547</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A15" s="94">
+        <v>11</v>
+      </c>
+      <c r="B15" s="94" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="94"/>
+      <c r="D15" s="94"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="94"/>
+      <c r="G15" s="94">
+        <v>5400</v>
+      </c>
+      <c r="H15" s="94">
+        <f t="shared" ref="H15:H20" si="2">(C15*100+D15*200)+(E15*100+F15*600)+G15</f>
+        <v>5400</v>
+      </c>
+      <c r="I15" s="94">
+        <v>220</v>
+      </c>
+      <c r="J15" s="94">
+        <f>H15/I15</f>
+        <v>24.545454545454547</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A16" s="94">
+        <v>12</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="94"/>
+      <c r="D16" s="94"/>
+      <c r="E16" s="94"/>
+      <c r="F16" s="94"/>
+      <c r="G16" s="94">
+        <v>2625</v>
+      </c>
+      <c r="H16" s="94">
+        <f t="shared" si="2"/>
+        <v>2625</v>
+      </c>
+      <c r="I16" s="94">
+        <v>220</v>
+      </c>
+      <c r="J16" s="94">
+        <f>H16/I16</f>
+        <v>11.931818181818182</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A17" s="94">
+        <v>13</v>
+      </c>
+      <c r="B17" s="94" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94">
+        <v>1650</v>
+      </c>
+      <c r="H17" s="94">
+        <f t="shared" si="2"/>
+        <v>1650</v>
+      </c>
+      <c r="I17" s="94">
+        <v>220</v>
+      </c>
+      <c r="J17" s="94">
+        <f t="shared" ref="J17:J20" si="3">H17/I17</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A18" s="94">
+        <v>14</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>89</v>
+      </c>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94">
+        <v>1650</v>
+      </c>
+      <c r="H18" s="94">
+        <f t="shared" si="2"/>
+        <v>1650</v>
+      </c>
+      <c r="I18" s="94">
+        <v>220</v>
+      </c>
+      <c r="J18" s="94">
+        <f t="shared" si="3"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A19" s="94">
+        <v>15</v>
+      </c>
+      <c r="B19" s="94" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="14">
+        <v>246</v>
+      </c>
+      <c r="H19" s="94">
+        <f t="shared" si="2"/>
+        <v>246</v>
+      </c>
+      <c r="I19" s="94">
+        <v>127</v>
+      </c>
+      <c r="J19" s="94">
+        <f t="shared" si="3"/>
+        <v>1.9370078740157479</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A20" s="94">
+        <v>16</v>
+      </c>
+      <c r="B20" s="94" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="94"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="94"/>
+      <c r="F20" s="94"/>
+      <c r="G20" s="19">
+        <v>1760</v>
+      </c>
+      <c r="H20" s="94">
+        <f t="shared" si="2"/>
+        <v>1760</v>
+      </c>
+      <c r="I20" s="94">
+        <v>220</v>
+      </c>
+      <c r="J20" s="94">
+        <f t="shared" si="3"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
+      <c r="A21" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27">
+        <f>SUM(C5:C20)</f>
+        <v>21</v>
+      </c>
+      <c r="D21" s="27">
+        <f>SUM(D5:D20)</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="27">
+        <f>SUM(E5:E20)</f>
+        <v>13</v>
+      </c>
+      <c r="F21" s="27">
+        <f>SUM(F5:F20)</f>
+        <v>22</v>
+      </c>
+      <c r="G21" s="27">
+        <f>SUM(G5:G20)</f>
+        <v>18731</v>
+      </c>
+      <c r="H21" s="27">
+        <f>SUM(H5:H20)</f>
+        <v>36131</v>
+      </c>
+      <c r="I21" s="27">
+        <f>SUM(I5:I20)</f>
+        <v>2590</v>
+      </c>
+      <c r="J21" s="27">
+        <f>SUM(J5:J20)</f>
+        <v>222.96760916249107</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="27" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="28" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="29" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="30" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="31" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="32" spans="1:10" ht="20.100000000000001" customHeight="1"/>
     <row r="33" ht="20.100000000000001" customHeight="1"/>
     <row r="34" ht="20.100000000000001" customHeight="1"/>
     <row r="35" ht="20.100000000000001" customHeight="1"/>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="4">
+    <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:D3"/>
     <mergeCell ref="E3:F3"/>
-    <mergeCell ref="J5:J7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="C5:C7"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="E5:E7"/>
-    <mergeCell ref="F5:F7"/>
-    <mergeCell ref="G5:G7"/>
-    <mergeCell ref="H5:H7"/>
-    <mergeCell ref="I5:I7"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="300" r:id="rId1"/>

--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\GitHub\Instel-I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\Outros\IC\Github\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EF8F5F7-F85F-401B-81ED-9288F9A07E76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1EEE08-9B79-48C2-B21E-C183FF7350B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -825,7 +825,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -937,21 +937,57 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -964,40 +1000,17 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1018,67 +1031,60 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1312,14 +1318,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="48"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="62"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1342,14 +1348,14 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="48"/>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="61"/>
+      <c r="G2" s="62"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1400,16 +1406,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="50" t="s">
+      <c r="B4" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="51"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="50" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="55"/>
+      <c r="E4" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="40"/>
+      <c r="F4" s="65"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1432,17 +1438,17 @@
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="40"/>
+      <c r="C5" s="55"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="45" t="s">
+      <c r="E5" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="40"/>
+      <c r="F5" s="55"/>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1468,17 +1474,17 @@
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="40"/>
+      <c r="C6" s="55"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="66" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="40"/>
+      <c r="F6" s="55"/>
       <c r="G6" s="30" t="s">
         <v>61</v>
       </c>
@@ -1504,17 +1510,17 @@
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="39" t="s">
+      <c r="B7" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="40"/>
+      <c r="C7" s="55"/>
       <c r="D7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="40"/>
+      <c r="F7" s="55"/>
       <c r="G7" s="30" t="s">
         <v>62</v>
       </c>
@@ -1540,15 +1546,15 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="66" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="40"/>
+      <c r="C8" s="55"/>
       <c r="D8" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="45"/>
-      <c r="F8" s="40"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="55"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
@@ -1572,15 +1578,15 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="45" t="s">
+      <c r="B9" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="40"/>
+      <c r="C9" s="55"/>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="45"/>
-      <c r="F9" s="40"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
@@ -1604,15 +1610,15 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="55" t="s">
+      <c r="B10" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="42"/>
-      <c r="D10" s="58" t="s">
+      <c r="C10" s="49"/>
+      <c r="D10" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="45"/>
-      <c r="F10" s="40"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="55"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
@@ -1636,11 +1642,11 @@
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="56"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="40"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="53"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="55"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
@@ -1664,11 +1670,11 @@
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="40"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="55"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="40"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="55"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1692,11 +1698,11 @@
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42"/>
+      <c r="B13" s="57"/>
+      <c r="C13" s="49"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="42"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="49"/>
       <c r="G13" s="32"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1720,11 +1726,11 @@
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="43"/>
-      <c r="C14" s="44"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="59"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="43"/>
-      <c r="F14" s="44"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="59"/>
       <c r="G14" s="33"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1804,14 +1810,14 @@
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="52" t="s">
+      <c r="B17" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
-      <c r="G17" s="52"/>
+      <c r="C17" s="45"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="45"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="45"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1834,14 +1840,14 @@
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="60" t="s">
+      <c r="B18" s="56" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1864,14 +1870,14 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="52" t="s">
+      <c r="B19" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
-      <c r="F19" s="52"/>
-      <c r="G19" s="52"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="45"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1894,14 +1900,14 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="52" t="s">
+      <c r="B20" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="52"/>
+      <c r="C20" s="45"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1924,14 +1930,14 @@
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="53" t="s">
+      <c r="B21" s="46" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="54"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -29422,23 +29428,6 @@
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -29451,6 +29440,23 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -29461,8 +29467,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31:L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -29504,19 +29510,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="42"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
+      <c r="G2" s="88"/>
+      <c r="H2" s="88"/>
+      <c r="I2" s="88"/>
+      <c r="J2" s="88"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="49"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -29534,17 +29540,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-      <c r="K3" s="63"/>
-      <c r="L3" s="57"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="51"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -29562,27 +29568,27 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="65" t="s">
+      <c r="C4" s="91" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="65" t="s">
+      <c r="D4" s="55"/>
+      <c r="E4" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="66" t="s">
+      <c r="F4" s="65"/>
+      <c r="G4" s="55"/>
+      <c r="H4" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="51"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="66" t="s">
+      <c r="I4" s="65"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="92" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="40"/>
+      <c r="L4" s="55"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -29600,7 +29606,7 @@
     </row>
     <row r="5" spans="1:26" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="59"/>
+      <c r="B5" s="53"/>
       <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
@@ -29748,35 +29754,35 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="72" t="s">
+      <c r="B8" s="75" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="74">
+      <c r="C8" s="86">
         <v>17.579999999999998</v>
       </c>
-      <c r="D8" s="74">
+      <c r="D8" s="86">
         <v>23.9</v>
       </c>
-      <c r="E8" s="76">
+      <c r="E8" s="82">
         <v>3</v>
       </c>
-      <c r="F8" s="76">
+      <c r="F8" s="82">
         <v>100</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="84">
         <v>300</v>
       </c>
-      <c r="H8" s="84">
+      <c r="H8" s="77">
         <v>4</v>
       </c>
-      <c r="I8" s="85" t="s">
+      <c r="I8" s="79" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="86">
+      <c r="J8" s="81">
         <v>1400</v>
       </c>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -29794,17 +29800,17 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="73"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="78"/>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="87"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="71"/>
-      <c r="L9" s="71"/>
+      <c r="B9" s="76"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="76"/>
+      <c r="E9" s="83"/>
+      <c r="F9" s="83"/>
+      <c r="G9" s="85"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="74"/>
+      <c r="L9" s="74"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -30128,13 +30134,13 @@
       <c r="G16" s="13">
         <v>400</v>
       </c>
-      <c r="H16" s="90">
+      <c r="H16" s="41">
         <v>4</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="J16" s="92">
+      <c r="J16" s="43">
         <v>1400</v>
       </c>
       <c r="K16" s="19"/>
@@ -30261,13 +30267,13 @@
       <c r="D19" s="18">
         <v>25.3</v>
       </c>
-      <c r="E19" s="81">
+      <c r="E19" s="39">
         <v>5</v>
       </c>
-      <c r="F19" s="81">
+      <c r="F19" s="39">
         <v>100</v>
       </c>
-      <c r="G19" s="82">
+      <c r="G19" s="40">
         <v>500</v>
       </c>
       <c r="H19" s="13">
@@ -30413,9 +30419,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
+      <c r="J22" s="71"/>
+      <c r="K22" s="71"/>
+      <c r="L22" s="71"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -30461,11 +30467,11 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="69" t="s">
+      <c r="B24" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
+      <c r="C24" s="72"/>
+      <c r="D24" s="72"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -30495,11 +30501,11 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="67" t="s">
+      <c r="J25" s="70" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
+      <c r="K25" s="70"/>
+      <c r="L25" s="70"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -30525,11 +30531,11 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="80" t="s">
+      <c r="J26" s="68" t="s">
         <v>75</v>
       </c>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
+      <c r="K26" s="68"/>
+      <c r="L26" s="68"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -30555,11 +30561,11 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="80" t="s">
+      <c r="J27" s="68" t="s">
         <v>76</v>
       </c>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
+      <c r="K27" s="68"/>
+      <c r="L27" s="68"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -30585,11 +30591,11 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="83" t="s">
+      <c r="J28" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="83"/>
-      <c r="L28" s="83"/>
+      <c r="K28" s="69"/>
+      <c r="L28" s="69"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -30615,11 +30621,11 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="83" t="s">
+      <c r="J29" s="69" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="83"/>
-      <c r="L29" s="83"/>
+      <c r="K29" s="69"/>
+      <c r="L29" s="69"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -30645,11 +30651,11 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="89" t="s">
+      <c r="J30" s="67" t="s">
         <v>79</v>
       </c>
-      <c r="K30" s="89"/>
-      <c r="L30" s="89"/>
+      <c r="K30" s="67"/>
+      <c r="L30" s="67"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -30675,11 +30681,11 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="89" t="s">
+      <c r="J31" s="67" t="s">
         <v>80</v>
       </c>
-      <c r="K31" s="89"/>
-      <c r="L31" s="89"/>
+      <c r="K31" s="67"/>
+      <c r="L31" s="67"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -30705,11 +30711,11 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="93" t="s">
+      <c r="J32" s="94" t="s">
         <v>81</v>
       </c>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
+      <c r="K32" s="94"/>
+      <c r="L32" s="94"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -30735,9 +30741,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="94"/>
+      <c r="L33" s="94"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -30763,9 +30769,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
+      <c r="J34" s="94"/>
+      <c r="K34" s="94"/>
+      <c r="L34" s="94"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -57718,13 +57724,14 @@
       <c r="Z996" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
+  <mergeCells count="27">
+    <mergeCell ref="J32:L34"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="B24:D24"/>
@@ -57739,12 +57746,12 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -57756,7 +57763,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -57770,20 +57777,20 @@
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1"/>
     <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1"/>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="93" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="75" t="s">
+      <c r="B3" s="93" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="75" t="s">
+      <c r="C3" s="93" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75" t="s">
+      <c r="D3" s="93"/>
+      <c r="E3" s="93" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="75"/>
+      <c r="F3" s="93"/>
       <c r="G3" s="27" t="s">
         <v>16</v>
       </c>
@@ -57798,8 +57805,8 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
+      <c r="A4" s="93"/>
+      <c r="B4" s="93"/>
       <c r="C4" s="27" t="s">
         <v>63</v>
       </c>
@@ -57826,433 +57833,433 @@
       </c>
     </row>
     <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A5" s="94">
+      <c r="A5" s="44">
         <v>1</v>
       </c>
-      <c r="B5" s="94" t="s">
+      <c r="B5" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="94">
+      <c r="C5" s="44">
         <v>8</v>
       </c>
-      <c r="D5" s="94">
+      <c r="D5" s="44">
         <v>4</v>
       </c>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="94"/>
-      <c r="H5" s="94">
-        <f t="shared" ref="H5:H11" si="0">(C5*100+D5*200)+(E5*100+F5*600)+G5</f>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
+      <c r="G5" s="44"/>
+      <c r="H5" s="44">
+        <f t="shared" ref="H5:H10" si="0">(C5*100+D5*200)+(E5*100+F5*600)+G5</f>
         <v>1600</v>
       </c>
-      <c r="I5" s="94">
+      <c r="I5" s="44">
         <v>127</v>
       </c>
-      <c r="J5" s="94">
+      <c r="J5" s="95">
         <f t="shared" ref="J5:J13" si="1">H5/I5</f>
         <v>12.598425196850394</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A6" s="94">
+      <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="44" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="94">
+      <c r="C6" s="44">
         <v>13</v>
       </c>
-      <c r="D6" s="94"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="94"/>
-      <c r="H6" s="94">
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="I6" s="94">
+      <c r="I6" s="44">
         <v>127</v>
       </c>
-      <c r="J6" s="94">
+      <c r="J6" s="95">
         <f t="shared" si="1"/>
         <v>10.236220472440944</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A7" s="94">
+      <c r="A7" s="44">
         <v>3</v>
       </c>
-      <c r="B7" s="94" t="s">
+      <c r="B7" s="44" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94">
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44">
         <v>3</v>
       </c>
-      <c r="F7" s="94">
+      <c r="F7" s="44">
         <v>3</v>
       </c>
-      <c r="G7" s="94"/>
-      <c r="H7" s="94">
+      <c r="G7" s="44"/>
+      <c r="H7" s="44">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="44">
         <v>127</v>
       </c>
-      <c r="J7" s="94">
+      <c r="J7" s="95">
         <f t="shared" si="1"/>
         <v>16.535433070866141</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A8" s="94">
+      <c r="A8" s="44">
         <v>4</v>
       </c>
-      <c r="B8" s="94" t="s">
+      <c r="B8" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94">
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44">
         <v>1</v>
       </c>
-      <c r="F8" s="94">
+      <c r="F8" s="44">
         <v>3</v>
       </c>
-      <c r="G8" s="94"/>
-      <c r="H8" s="94">
+      <c r="G8" s="44"/>
+      <c r="H8" s="44">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8" s="44">
         <v>127</v>
       </c>
-      <c r="J8" s="94">
+      <c r="J8" s="95">
         <f t="shared" si="1"/>
         <v>14.960629921259843</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A9" s="94">
+      <c r="A9" s="44">
         <v>5</v>
       </c>
-      <c r="B9" s="94" t="s">
+      <c r="B9" s="44" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44">
         <v>2</v>
       </c>
-      <c r="F9" s="94">
+      <c r="F9" s="44">
         <v>3</v>
       </c>
-      <c r="G9" s="94"/>
-      <c r="H9" s="94">
+      <c r="G9" s="44"/>
+      <c r="H9" s="44">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="44">
         <v>127</v>
       </c>
-      <c r="J9" s="94">
+      <c r="J9" s="95">
         <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A10" s="94">
+      <c r="A10" s="44">
         <v>6</v>
       </c>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="44" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94">
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44">
         <v>1</v>
       </c>
-      <c r="F10" s="94">
+      <c r="F10" s="44">
         <v>4</v>
       </c>
-      <c r="G10" s="94"/>
-      <c r="H10" s="94">
+      <c r="G10" s="44"/>
+      <c r="H10" s="44">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="I10" s="94">
+      <c r="I10" s="44">
         <v>127</v>
       </c>
-      <c r="J10" s="94">
+      <c r="J10" s="95">
         <f t="shared" si="1"/>
         <v>19.685039370078741</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A11" s="94">
+      <c r="A11" s="44">
         <v>7</v>
       </c>
-      <c r="B11" s="94" t="s">
+      <c r="B11" s="44" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94">
+      <c r="C11" s="44"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44">
         <v>2</v>
       </c>
-      <c r="F11" s="94">
+      <c r="F11" s="44">
         <v>3</v>
       </c>
-      <c r="G11" s="94"/>
-      <c r="H11" s="94">
+      <c r="G11" s="44"/>
+      <c r="H11" s="44">
         <f>(C11*100+D11*200)+(E11*100+F11*600)+G11</f>
         <v>2000</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="44">
         <v>127</v>
       </c>
-      <c r="J11" s="94">
+      <c r="J11" s="95">
         <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A12" s="94">
+      <c r="A12" s="44">
         <v>8</v>
       </c>
-      <c r="B12" s="94" t="s">
+      <c r="B12" s="44" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94">
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44">
         <v>2</v>
       </c>
-      <c r="F12" s="94">
+      <c r="F12" s="44">
         <v>3</v>
       </c>
-      <c r="G12" s="94"/>
-      <c r="H12" s="94">
+      <c r="G12" s="44"/>
+      <c r="H12" s="44">
         <f>(C12*100+D12*200)+(E12*100+F12*600)+G12</f>
         <v>2000</v>
       </c>
-      <c r="I12" s="94">
+      <c r="I12" s="44">
         <v>127</v>
       </c>
-      <c r="J12" s="94">
+      <c r="J12" s="95">
         <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A13" s="94">
+      <c r="A13" s="44">
         <v>9</v>
       </c>
-      <c r="B13" s="94" t="s">
+      <c r="B13" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94">
+      <c r="C13" s="44"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44">
         <v>2</v>
       </c>
-      <c r="F13" s="94">
+      <c r="F13" s="44">
         <v>3</v>
       </c>
-      <c r="G13" s="94"/>
-      <c r="H13" s="94">
+      <c r="G13" s="44"/>
+      <c r="H13" s="44">
         <f>(C13*100+D13*200)+(E13*100+F13*600)+G13</f>
         <v>2000</v>
       </c>
-      <c r="I13" s="94">
+      <c r="I13" s="44">
         <v>127</v>
       </c>
-      <c r="J13" s="94">
+      <c r="J13" s="95">
         <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A14" s="94">
+      <c r="A14" s="44">
         <v>10</v>
       </c>
-      <c r="B14" s="94" t="s">
+      <c r="B14" s="44" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94">
+      <c r="C14" s="44"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44">
         <v>5400</v>
       </c>
-      <c r="H14" s="94">
+      <c r="H14" s="44">
         <f>(C14*100+D14*200)+(E14*100+F14*600)+G14</f>
         <v>5400</v>
       </c>
-      <c r="I14" s="94">
+      <c r="I14" s="44">
         <v>220</v>
       </c>
-      <c r="J14" s="94">
+      <c r="J14" s="95">
         <f>H14/I14</f>
         <v>24.545454545454547</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A15" s="94">
+      <c r="A15" s="44">
         <v>11</v>
       </c>
-      <c r="B15" s="94" t="s">
+      <c r="B15" s="44" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="94"/>
-      <c r="D15" s="94"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="94"/>
-      <c r="G15" s="94">
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
+      <c r="G15" s="44">
         <v>5400</v>
       </c>
-      <c r="H15" s="94">
+      <c r="H15" s="44">
         <f t="shared" ref="H15:H20" si="2">(C15*100+D15*200)+(E15*100+F15*600)+G15</f>
         <v>5400</v>
       </c>
-      <c r="I15" s="94">
+      <c r="I15" s="44">
         <v>220</v>
       </c>
-      <c r="J15" s="94">
+      <c r="J15" s="95">
         <f>H15/I15</f>
         <v>24.545454545454547</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A16" s="94">
+      <c r="A16" s="44">
         <v>12</v>
       </c>
-      <c r="B16" s="94" t="s">
+      <c r="B16" s="44" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="94"/>
-      <c r="D16" s="94"/>
-      <c r="E16" s="94"/>
-      <c r="F16" s="94"/>
-      <c r="G16" s="94">
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44">
         <v>2625</v>
       </c>
-      <c r="H16" s="94">
+      <c r="H16" s="44">
         <f t="shared" si="2"/>
         <v>2625</v>
       </c>
-      <c r="I16" s="94">
+      <c r="I16" s="44">
         <v>220</v>
       </c>
-      <c r="J16" s="94">
+      <c r="J16" s="95">
         <f>H16/I16</f>
         <v>11.931818181818182</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A17" s="94">
+      <c r="A17" s="44">
         <v>13</v>
       </c>
-      <c r="B17" s="94" t="s">
+      <c r="B17" s="44" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94">
+      <c r="C17" s="44"/>
+      <c r="D17" s="44"/>
+      <c r="E17" s="44"/>
+      <c r="F17" s="44"/>
+      <c r="G17" s="44">
         <v>1650</v>
       </c>
-      <c r="H17" s="94">
+      <c r="H17" s="44">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-      <c r="I17" s="94">
+      <c r="I17" s="44">
         <v>220</v>
       </c>
-      <c r="J17" s="94">
+      <c r="J17" s="95">
         <f t="shared" ref="J17:J20" si="3">H17/I17</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A18" s="94">
+      <c r="A18" s="44">
         <v>14</v>
       </c>
-      <c r="B18" s="94" t="s">
+      <c r="B18" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94">
+      <c r="C18" s="44"/>
+      <c r="D18" s="44"/>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44"/>
+      <c r="G18" s="44">
         <v>1650</v>
       </c>
-      <c r="H18" s="94">
+      <c r="H18" s="44">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-      <c r="I18" s="94">
+      <c r="I18" s="44">
         <v>220</v>
       </c>
-      <c r="J18" s="94">
+      <c r="J18" s="95">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A19" s="94">
+      <c r="A19" s="44">
         <v>15</v>
       </c>
-      <c r="B19" s="94" t="s">
+      <c r="B19" s="44" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
+      <c r="C19" s="44"/>
+      <c r="D19" s="44"/>
+      <c r="E19" s="44"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="14">
         <v>246</v>
       </c>
-      <c r="H19" s="94">
+      <c r="H19" s="44">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="I19" s="94">
+      <c r="I19" s="44">
         <v>127</v>
       </c>
-      <c r="J19" s="94">
+      <c r="J19" s="95">
         <f t="shared" si="3"/>
         <v>1.9370078740157479</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A20" s="94">
+      <c r="A20" s="44">
         <v>16</v>
       </c>
-      <c r="B20" s="94" t="s">
+      <c r="B20" s="44" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="94"/>
-      <c r="D20" s="94"/>
-      <c r="E20" s="94"/>
-      <c r="F20" s="94"/>
+      <c r="C20" s="44"/>
+      <c r="D20" s="44"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="19">
         <v>1760</v>
       </c>
-      <c r="H20" s="94">
+      <c r="H20" s="44">
         <f t="shared" si="2"/>
         <v>1760</v>
       </c>
-      <c r="I20" s="94">
+      <c r="I20" s="44">
         <v>220</v>
       </c>
-      <c r="J20" s="94">
+      <c r="J20" s="95">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
@@ -58263,35 +58270,35 @@
       </c>
       <c r="B21" s="27"/>
       <c r="C21" s="27">
-        <f>SUM(C5:C20)</f>
+        <f t="shared" ref="C21:J21" si="4">SUM(C5:C20)</f>
         <v>21</v>
       </c>
       <c r="D21" s="27">
-        <f>SUM(D5:D20)</f>
+        <f t="shared" si="4"/>
         <v>4</v>
       </c>
       <c r="E21" s="27">
-        <f>SUM(E5:E20)</f>
+        <f t="shared" si="4"/>
         <v>13</v>
       </c>
       <c r="F21" s="27">
-        <f>SUM(F5:F20)</f>
+        <f t="shared" si="4"/>
         <v>22</v>
       </c>
       <c r="G21" s="27">
-        <f>SUM(G5:G20)</f>
+        <f t="shared" si="4"/>
         <v>18731</v>
       </c>
       <c r="H21" s="27">
-        <f>SUM(H5:H20)</f>
+        <f t="shared" si="4"/>
         <v>36131</v>
       </c>
       <c r="I21" s="27">
-        <f>SUM(I5:I20)</f>
+        <f t="shared" si="4"/>
         <v>2590</v>
       </c>
-      <c r="J21" s="27">
-        <f>SUM(J5:J20)</f>
+      <c r="J21" s="96">
+        <f t="shared" si="4"/>
         <v>222.96760916249107</v>
       </c>
     </row>

--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\Outros\IC\Github\Instel-I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Documents\GitHub\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1EEE08-9B79-48C2-B21E-C183FF7350B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E666C4F6-4E9E-47A0-86A4-B4AE047936A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -577,7 +577,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="23">
+  <borders count="36">
     <border>
       <left/>
       <right/>
@@ -821,11 +821,200 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -955,6 +1144,39 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -967,50 +1189,31 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1061,30 +1264,73 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="13" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1318,14 +1564,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="54" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="62"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="56"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1348,14 +1594,14 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="62"/>
+      <c r="C2" s="55"/>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="56"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1406,16 +1652,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="64" t="s">
+      <c r="B4" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="64" t="s">
+      <c r="C4" s="59"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="58" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="55"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="48"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1438,17 +1684,17 @@
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="54" t="s">
+      <c r="B5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="55"/>
+      <c r="C5" s="48"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="55"/>
+      <c r="F5" s="48"/>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1474,17 +1720,17 @@
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="54" t="s">
+      <c r="B6" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="55"/>
+      <c r="C6" s="48"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="66" t="s">
+      <c r="E6" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="F6" s="55"/>
+      <c r="F6" s="48"/>
       <c r="G6" s="30" t="s">
         <v>61</v>
       </c>
@@ -1510,17 +1756,17 @@
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="66" t="s">
+      <c r="B7" s="47" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="55"/>
+      <c r="C7" s="48"/>
       <c r="D7" s="30" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="66" t="s">
+      <c r="E7" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="48"/>
       <c r="G7" s="30" t="s">
         <v>62</v>
       </c>
@@ -1546,15 +1792,15 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="66" t="s">
+      <c r="B8" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="55"/>
+      <c r="C8" s="48"/>
       <c r="D8" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="54"/>
-      <c r="F8" s="55"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="48"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
@@ -1578,15 +1824,15 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="54" t="s">
+      <c r="B9" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="55"/>
+      <c r="C9" s="48"/>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="54"/>
-      <c r="F9" s="55"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="48"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
@@ -1610,15 +1856,15 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="48" t="s">
+      <c r="B10" s="63" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="49"/>
-      <c r="D10" s="52" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="66" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="55"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="48"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
@@ -1642,11 +1888,11 @@
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="53"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="55"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="67"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="48"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
@@ -1670,11 +1916,11 @@
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="55"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="48"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="55"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="48"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1698,11 +1944,11 @@
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="57"/>
-      <c r="C13" s="49"/>
+      <c r="B13" s="49"/>
+      <c r="C13" s="50"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="50"/>
       <c r="G13" s="32"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1726,11 +1972,11 @@
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="58"/>
-      <c r="F14" s="59"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="52"/>
       <c r="G14" s="33"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -1810,14 +2056,14 @@
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="60" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="45"/>
-      <c r="F17" s="45"/>
-      <c r="G17" s="45"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="60"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="60"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -1840,14 +2086,14 @@
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="56" t="s">
+      <c r="B18" s="68" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="56"/>
+      <c r="C18" s="68"/>
+      <c r="D18" s="68"/>
+      <c r="E18" s="68"/>
+      <c r="F18" s="68"/>
+      <c r="G18" s="68"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -1870,14 +2116,14 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="45"/>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="45"/>
-      <c r="G19" s="45"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="60"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -1900,14 +2146,14 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="60" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="45"/>
-      <c r="D20" s="45"/>
-      <c r="E20" s="45"/>
-      <c r="F20" s="45"/>
-      <c r="G20" s="45"/>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="60"/>
+      <c r="F20" s="60"/>
+      <c r="G20" s="60"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -1930,14 +2176,14 @@
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -29428,6 +29674,23 @@
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="E6:F6"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -29440,23 +29703,6 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -29467,8 +29713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J31" sqref="J31:L31"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8:J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -29510,19 +29756,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="87" t="s">
+      <c r="B2" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
-      <c r="G2" s="88"/>
-      <c r="H2" s="88"/>
-      <c r="I2" s="88"/>
-      <c r="J2" s="88"/>
-      <c r="K2" s="88"/>
-      <c r="L2" s="49"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="71"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="50"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -29540,17 +29786,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="50"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="89"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="89"/>
-      <c r="I3" s="89"/>
-      <c r="J3" s="89"/>
-      <c r="K3" s="89"/>
-      <c r="L3" s="51"/>
+      <c r="B3" s="64"/>
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="72"/>
+      <c r="I3" s="72"/>
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="65"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -29568,27 +29814,27 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="91" t="s">
+      <c r="C4" s="74" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="91" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="74" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="65"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="92" t="s">
+      <c r="F4" s="59"/>
+      <c r="G4" s="48"/>
+      <c r="H4" s="75" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="65"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="92" t="s">
+      <c r="I4" s="59"/>
+      <c r="J4" s="48"/>
+      <c r="K4" s="75" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="55"/>
+      <c r="L4" s="48"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -29606,7 +29852,7 @@
     </row>
     <row r="5" spans="1:26" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="53"/>
+      <c r="B5" s="67"/>
       <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
@@ -29754,35 +30000,35 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="75" t="s">
+      <c r="B8" s="81" t="s">
         <v>39</v>
       </c>
-      <c r="C8" s="86">
+      <c r="C8" s="92">
         <v>17.579999999999998</v>
       </c>
-      <c r="D8" s="86">
+      <c r="D8" s="92">
         <v>23.9</v>
       </c>
-      <c r="E8" s="82">
+      <c r="E8" s="88">
         <v>3</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="88">
         <v>100</v>
       </c>
-      <c r="G8" s="84">
+      <c r="G8" s="90">
         <v>300</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="83">
         <v>4</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="85" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="81">
+      <c r="J8" s="87">
         <v>1400</v>
       </c>
-      <c r="K8" s="73"/>
-      <c r="L8" s="73"/>
+      <c r="K8" s="79"/>
+      <c r="L8" s="79"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -29800,17 +30046,17 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="83"/>
-      <c r="F9" s="83"/>
-      <c r="G9" s="85"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="74"/>
-      <c r="L9" s="74"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="82"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="89"/>
+      <c r="G9" s="91"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="86"/>
+      <c r="J9" s="86"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="80"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -30419,9 +30665,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="71"/>
-      <c r="K22" s="71"/>
-      <c r="L22" s="71"/>
+      <c r="J22" s="77"/>
+      <c r="K22" s="77"/>
+      <c r="L22" s="77"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -30467,11 +30713,11 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="72" t="s">
+      <c r="B24" s="78" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="72"/>
-      <c r="D24" s="72"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="78"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
@@ -30501,11 +30747,11 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="70" t="s">
+      <c r="J25" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="K25" s="70"/>
-      <c r="L25" s="70"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -30531,11 +30777,11 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="68" t="s">
+      <c r="J26" s="94" t="s">
         <v>75</v>
       </c>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
+      <c r="K26" s="94"/>
+      <c r="L26" s="94"/>
       <c r="M26" s="1"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
@@ -30561,11 +30807,11 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="68" t="s">
+      <c r="J27" s="94" t="s">
         <v>76</v>
       </c>
-      <c r="K27" s="68"/>
-      <c r="L27" s="68"/>
+      <c r="K27" s="94"/>
+      <c r="L27" s="94"/>
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
@@ -30591,11 +30837,11 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="69" t="s">
+      <c r="J28" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="K28" s="69"/>
-      <c r="L28" s="69"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
       <c r="M28" s="1"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1"/>
@@ -30621,11 +30867,11 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="69" t="s">
+      <c r="J29" s="95" t="s">
         <v>78</v>
       </c>
-      <c r="K29" s="69"/>
-      <c r="L29" s="69"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
       <c r="M29" s="1"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1"/>
@@ -30651,11 +30897,11 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="67" t="s">
+      <c r="J30" s="93" t="s">
         <v>79</v>
       </c>
-      <c r="K30" s="67"/>
-      <c r="L30" s="67"/>
+      <c r="K30" s="93"/>
+      <c r="L30" s="93"/>
       <c r="M30" s="1"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
@@ -30681,11 +30927,11 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="67" t="s">
+      <c r="J31" s="93" t="s">
         <v>80</v>
       </c>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
+      <c r="K31" s="93"/>
+      <c r="L31" s="93"/>
       <c r="M31" s="1"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
@@ -30711,11 +30957,11 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="94" t="s">
+      <c r="J32" s="69" t="s">
         <v>81</v>
       </c>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
+      <c r="K32" s="69"/>
+      <c r="L32" s="69"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -30741,9 +30987,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="94"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
+      <c r="J33" s="69"/>
+      <c r="K33" s="69"/>
+      <c r="L33" s="69"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -30769,9 +31015,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="94"/>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
+      <c r="J34" s="69"/>
+      <c r="K34" s="69"/>
+      <c r="L34" s="69"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -57725,6 +57971,17 @@
     </row>
   </sheetData>
   <mergeCells count="27">
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
     <mergeCell ref="J32:L34"/>
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="B4:B5"/>
@@ -57741,17 +57998,6 @@
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="J29:L29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -57763,7 +58009,7 @@
   <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -57775,26 +58021,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.100000000000001" customHeight="1"/>
-    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1"/>
+    <row r="2" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A3" s="93" t="s">
+      <c r="A3" s="96" t="s">
         <v>69</v>
       </c>
-      <c r="B3" s="93" t="s">
+      <c r="B3" s="97" t="s">
         <v>82</v>
       </c>
-      <c r="C3" s="93" t="s">
+      <c r="C3" s="102" t="s">
         <v>70</v>
       </c>
-      <c r="D3" s="93"/>
-      <c r="E3" s="93" t="s">
+      <c r="D3" s="103"/>
+      <c r="E3" s="102" t="s">
         <v>71</v>
       </c>
-      <c r="F3" s="93"/>
-      <c r="G3" s="27" t="s">
+      <c r="F3" s="103"/>
+      <c r="G3" s="110" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="27" t="s">
+      <c r="H3" s="100" t="s">
         <v>72</v>
       </c>
       <c r="I3" s="27" t="s">
@@ -57805,24 +58051,24 @@
       </c>
     </row>
     <row r="4" spans="1:10" ht="20.100000000000001" customHeight="1">
-      <c r="A4" s="93"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="27" t="s">
+      <c r="A4" s="96"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="105" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="104" t="s">
         <v>63</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="105" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G4" s="111" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H4" s="100" t="s">
         <v>66</v>
       </c>
       <c r="I4" s="27" t="s">
@@ -57836,26 +58082,26 @@
       <c r="A5" s="44">
         <v>1</v>
       </c>
-      <c r="B5" s="44" t="s">
+      <c r="B5" s="99" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="44">
+      <c r="C5" s="106">
         <v>8</v>
       </c>
-      <c r="D5" s="44">
+      <c r="D5" s="107">
         <v>4</v>
       </c>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
-      <c r="G5" s="44"/>
-      <c r="H5" s="44">
+      <c r="E5" s="106"/>
+      <c r="F5" s="107"/>
+      <c r="G5" s="112"/>
+      <c r="H5" s="101">
         <f t="shared" ref="H5:H10" si="0">(C5*100+D5*200)+(E5*100+F5*600)+G5</f>
         <v>1600</v>
       </c>
       <c r="I5" s="44">
         <v>127</v>
       </c>
-      <c r="J5" s="95">
+      <c r="J5" s="45">
         <f t="shared" ref="J5:J13" si="1">H5/I5</f>
         <v>12.598425196850394</v>
       </c>
@@ -57864,24 +58110,24 @@
       <c r="A6" s="44">
         <v>2</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="99" t="s">
         <v>84</v>
       </c>
-      <c r="C6" s="44">
+      <c r="C6" s="106">
         <v>13</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44">
+      <c r="D6" s="107"/>
+      <c r="E6" s="106"/>
+      <c r="F6" s="107"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="101">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
       <c r="I6" s="44">
         <v>127</v>
       </c>
-      <c r="J6" s="95">
+      <c r="J6" s="45">
         <f t="shared" si="1"/>
         <v>10.236220472440944</v>
       </c>
@@ -57890,26 +58136,26 @@
       <c r="A7" s="44">
         <v>3</v>
       </c>
-      <c r="B7" s="44" t="s">
+      <c r="B7" s="99" t="s">
         <v>92</v>
       </c>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44">
+      <c r="C7" s="106"/>
+      <c r="D7" s="107"/>
+      <c r="E7" s="106">
         <v>3</v>
       </c>
-      <c r="F7" s="44">
+      <c r="F7" s="107">
         <v>3</v>
       </c>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44">
+      <c r="G7" s="112"/>
+      <c r="H7" s="101">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
       <c r="I7" s="44">
         <v>127</v>
       </c>
-      <c r="J7" s="95">
+      <c r="J7" s="45">
         <f t="shared" si="1"/>
         <v>16.535433070866141</v>
       </c>
@@ -57918,26 +58164,26 @@
       <c r="A8" s="44">
         <v>4</v>
       </c>
-      <c r="B8" s="44" t="s">
+      <c r="B8" s="99" t="s">
         <v>98</v>
       </c>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44">
+      <c r="C8" s="106"/>
+      <c r="D8" s="107"/>
+      <c r="E8" s="106">
         <v>1</v>
       </c>
-      <c r="F8" s="44">
+      <c r="F8" s="107">
         <v>3</v>
       </c>
-      <c r="G8" s="44"/>
-      <c r="H8" s="44">
+      <c r="G8" s="112"/>
+      <c r="H8" s="101">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
       <c r="I8" s="44">
         <v>127</v>
       </c>
-      <c r="J8" s="95">
+      <c r="J8" s="45">
         <f t="shared" si="1"/>
         <v>14.960629921259843</v>
       </c>
@@ -57946,26 +58192,26 @@
       <c r="A9" s="44">
         <v>5</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="99" t="s">
         <v>93</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44">
+      <c r="C9" s="106"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="106">
         <v>2</v>
       </c>
-      <c r="F9" s="44">
+      <c r="F9" s="107">
         <v>3</v>
       </c>
-      <c r="G9" s="44"/>
-      <c r="H9" s="44">
+      <c r="G9" s="112"/>
+      <c r="H9" s="101">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="I9" s="44">
         <v>127</v>
       </c>
-      <c r="J9" s="95">
+      <c r="J9" s="45">
         <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
@@ -57974,26 +58220,26 @@
       <c r="A10" s="44">
         <v>6</v>
       </c>
-      <c r="B10" s="44" t="s">
+      <c r="B10" s="99" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44">
+      <c r="C10" s="106"/>
+      <c r="D10" s="107"/>
+      <c r="E10" s="106">
         <v>1</v>
       </c>
-      <c r="F10" s="44">
+      <c r="F10" s="107">
         <v>4</v>
       </c>
-      <c r="G10" s="44"/>
-      <c r="H10" s="44">
+      <c r="G10" s="112"/>
+      <c r="H10" s="101">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="I10" s="44">
         <v>127</v>
       </c>
-      <c r="J10" s="95">
+      <c r="J10" s="45">
         <f t="shared" si="1"/>
         <v>19.685039370078741</v>
       </c>
@@ -58002,26 +58248,26 @@
       <c r="A11" s="44">
         <v>7</v>
       </c>
-      <c r="B11" s="44" t="s">
+      <c r="B11" s="99" t="s">
         <v>94</v>
       </c>
-      <c r="C11" s="44"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44">
+      <c r="C11" s="106"/>
+      <c r="D11" s="107"/>
+      <c r="E11" s="106">
         <v>2</v>
       </c>
-      <c r="F11" s="44">
+      <c r="F11" s="107">
         <v>3</v>
       </c>
-      <c r="G11" s="44"/>
-      <c r="H11" s="44">
+      <c r="G11" s="112"/>
+      <c r="H11" s="101">
         <f>(C11*100+D11*200)+(E11*100+F11*600)+G11</f>
         <v>2000</v>
       </c>
       <c r="I11" s="44">
         <v>127</v>
       </c>
-      <c r="J11" s="95">
+      <c r="J11" s="45">
         <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
@@ -58030,26 +58276,26 @@
       <c r="A12" s="44">
         <v>8</v>
       </c>
-      <c r="B12" s="44" t="s">
+      <c r="B12" s="99" t="s">
         <v>95</v>
       </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44">
+      <c r="C12" s="106"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="106">
         <v>2</v>
       </c>
-      <c r="F12" s="44">
+      <c r="F12" s="107">
         <v>3</v>
       </c>
-      <c r="G12" s="44"/>
-      <c r="H12" s="44">
+      <c r="G12" s="112"/>
+      <c r="H12" s="101">
         <f>(C12*100+D12*200)+(E12*100+F12*600)+G12</f>
         <v>2000</v>
       </c>
       <c r="I12" s="44">
         <v>127</v>
       </c>
-      <c r="J12" s="95">
+      <c r="J12" s="45">
         <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
@@ -58058,26 +58304,26 @@
       <c r="A13" s="44">
         <v>9</v>
       </c>
-      <c r="B13" s="44" t="s">
+      <c r="B13" s="99" t="s">
         <v>97</v>
       </c>
-      <c r="C13" s="44"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44">
+      <c r="C13" s="106"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="106">
         <v>2</v>
       </c>
-      <c r="F13" s="44">
+      <c r="F13" s="107">
         <v>3</v>
       </c>
-      <c r="G13" s="44"/>
-      <c r="H13" s="44">
+      <c r="G13" s="112"/>
+      <c r="H13" s="101">
         <f>(C13*100+D13*200)+(E13*100+F13*600)+G13</f>
         <v>2000</v>
       </c>
       <c r="I13" s="44">
         <v>127</v>
       </c>
-      <c r="J13" s="95">
+      <c r="J13" s="45">
         <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
@@ -58086,24 +58332,24 @@
       <c r="A14" s="44">
         <v>10</v>
       </c>
-      <c r="B14" s="44" t="s">
+      <c r="B14" s="99" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="44"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
-      <c r="G14" s="44">
+      <c r="C14" s="106"/>
+      <c r="D14" s="107"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="107"/>
+      <c r="G14" s="112">
         <v>5400</v>
       </c>
-      <c r="H14" s="44">
+      <c r="H14" s="101">
         <f>(C14*100+D14*200)+(E14*100+F14*600)+G14</f>
         <v>5400</v>
       </c>
       <c r="I14" s="44">
         <v>220</v>
       </c>
-      <c r="J14" s="95">
+      <c r="J14" s="45">
         <f>H14/I14</f>
         <v>24.545454545454547</v>
       </c>
@@ -58112,24 +58358,24 @@
       <c r="A15" s="44">
         <v>11</v>
       </c>
-      <c r="B15" s="44" t="s">
+      <c r="B15" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44">
+      <c r="C15" s="106"/>
+      <c r="D15" s="107"/>
+      <c r="E15" s="106"/>
+      <c r="F15" s="107"/>
+      <c r="G15" s="112">
         <v>5400</v>
       </c>
-      <c r="H15" s="44">
+      <c r="H15" s="101">
         <f t="shared" ref="H15:H20" si="2">(C15*100+D15*200)+(E15*100+F15*600)+G15</f>
         <v>5400</v>
       </c>
       <c r="I15" s="44">
         <v>220</v>
       </c>
-      <c r="J15" s="95">
+      <c r="J15" s="45">
         <f>H15/I15</f>
         <v>24.545454545454547</v>
       </c>
@@ -58138,24 +58384,24 @@
       <c r="A16" s="44">
         <v>12</v>
       </c>
-      <c r="B16" s="44" t="s">
+      <c r="B16" s="99" t="s">
         <v>87</v>
       </c>
-      <c r="C16" s="44"/>
-      <c r="D16" s="44"/>
-      <c r="E16" s="44"/>
-      <c r="F16" s="44"/>
-      <c r="G16" s="44">
+      <c r="C16" s="106"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="106"/>
+      <c r="F16" s="107"/>
+      <c r="G16" s="112">
         <v>2625</v>
       </c>
-      <c r="H16" s="44">
+      <c r="H16" s="101">
         <f t="shared" si="2"/>
         <v>2625</v>
       </c>
       <c r="I16" s="44">
         <v>220</v>
       </c>
-      <c r="J16" s="95">
+      <c r="J16" s="45">
         <f>H16/I16</f>
         <v>11.931818181818182</v>
       </c>
@@ -58164,24 +58410,24 @@
       <c r="A17" s="44">
         <v>13</v>
       </c>
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="99" t="s">
         <v>88</v>
       </c>
-      <c r="C17" s="44"/>
-      <c r="D17" s="44"/>
-      <c r="E17" s="44"/>
-      <c r="F17" s="44"/>
-      <c r="G17" s="44">
+      <c r="C17" s="106"/>
+      <c r="D17" s="107"/>
+      <c r="E17" s="106"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="112">
         <v>1650</v>
       </c>
-      <c r="H17" s="44">
+      <c r="H17" s="101">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
       <c r="I17" s="44">
         <v>220</v>
       </c>
-      <c r="J17" s="95">
+      <c r="J17" s="45">
         <f t="shared" ref="J17:J20" si="3">H17/I17</f>
         <v>7.5</v>
       </c>
@@ -58190,24 +58436,24 @@
       <c r="A18" s="44">
         <v>14</v>
       </c>
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="99" t="s">
         <v>89</v>
       </c>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="44"/>
-      <c r="G18" s="44">
+      <c r="C18" s="106"/>
+      <c r="D18" s="107"/>
+      <c r="E18" s="106"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="112">
         <v>1650</v>
       </c>
-      <c r="H18" s="44">
+      <c r="H18" s="101">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
       <c r="I18" s="44">
         <v>220</v>
       </c>
-      <c r="J18" s="95">
+      <c r="J18" s="45">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
@@ -58216,24 +58462,24 @@
       <c r="A19" s="44">
         <v>15</v>
       </c>
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="99" t="s">
         <v>90</v>
       </c>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="14">
+      <c r="C19" s="106"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="106"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="113">
         <v>246</v>
       </c>
-      <c r="H19" s="44">
+      <c r="H19" s="101">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
       <c r="I19" s="44">
         <v>127</v>
       </c>
-      <c r="J19" s="95">
+      <c r="J19" s="45">
         <f t="shared" si="3"/>
         <v>1.9370078740157479</v>
       </c>
@@ -58242,54 +58488,54 @@
       <c r="A20" s="44">
         <v>16</v>
       </c>
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="99" t="s">
         <v>91</v>
       </c>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="19">
+      <c r="C20" s="106"/>
+      <c r="D20" s="107"/>
+      <c r="E20" s="106"/>
+      <c r="F20" s="107"/>
+      <c r="G20" s="114">
         <v>1760</v>
       </c>
-      <c r="H20" s="44">
+      <c r="H20" s="101">
         <f t="shared" si="2"/>
         <v>1760</v>
       </c>
       <c r="I20" s="44">
         <v>220</v>
       </c>
-      <c r="J20" s="95">
+      <c r="J20" s="45">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1">
+    <row r="21" spans="1:10" ht="20.100000000000001" customHeight="1" thickBot="1">
       <c r="A21" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="27"/>
-      <c r="C21" s="27">
+      <c r="B21" s="98"/>
+      <c r="C21" s="108">
         <f t="shared" ref="C21:J21" si="4">SUM(C5:C20)</f>
         <v>21</v>
       </c>
-      <c r="D21" s="27">
+      <c r="D21" s="109">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="E21" s="27">
+      <c r="E21" s="108">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="109">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="G21" s="27">
+      <c r="G21" s="115">
         <f t="shared" si="4"/>
         <v>18731</v>
       </c>
-      <c r="H21" s="27">
+      <c r="H21" s="100">
         <f t="shared" si="4"/>
         <v>36131</v>
       </c>
@@ -58297,7 +58543,7 @@
         <f t="shared" si="4"/>
         <v>2590</v>
       </c>
-      <c r="J21" s="96">
+      <c r="J21" s="46">
         <f t="shared" si="4"/>
         <v>222.96760916249107</v>
       </c>

--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\GitHub\Instel I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F29ADA5D-3FAA-43F4-86E0-A59559F32964}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2CEAE79-E1B4-451E-9548-FF590755C88F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação_Informações" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="94">
   <si>
     <t>Alunos: Gabriel Schettino Lucas e Ramon Rodrigues Morello</t>
   </si>
@@ -183,9 +183,6 @@
     <t>Suíte</t>
   </si>
   <si>
-    <t>DESTACADO DE VERMELHO = DÚVIDA! TÁ CERTO?</t>
-  </si>
-  <si>
     <t>3:600 e 3:100</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
   </si>
   <si>
     <t>TOTAL</t>
-  </si>
-  <si>
-    <t>2:600 e 2:100</t>
   </si>
   <si>
     <t>Potência (VA)*</t>
@@ -301,27 +295,6 @@
     <t>CORRENTE</t>
   </si>
   <si>
-    <t>acho que ta certo, pela norma, a gnt vai ter: https://neoipsum.com.br/previsao-de-cargas-de-iluminacao-de-acordo-com-a-nbr-5410/</t>
-  </si>
-  <si>
-    <t>(6m2 = 100VA )+ (11,58m2 / 4) = 2,895 arredondado pra 3 x 60VA = 280 VA no total, arredondado pra 3 pontos com 100VA cada</t>
-  </si>
-  <si>
-    <t>Seguindo o mesmo caso da de cima, temos:</t>
-  </si>
-  <si>
-    <t>30,23m2 - 6m2 = 24,23m2, dividido por 4 = 6 aproximadamente, então no final: (100 + (6 x 60)) = 460 (será q da pra arredondar pra 500??)</t>
-  </si>
-  <si>
-    <t>Esse aqui eu acho q deveriam ser 5, tirando daqui: https://neoipsum.com.br/numero-minimo-de-tomadas-nbr-5410-projetos-eletricos-residenciais/</t>
-  </si>
-  <si>
-    <t>no caso o perimetro é 23,9, dividido por 5 = 4,78 e arredondando pra cima, 5 tomadas</t>
-  </si>
-  <si>
-    <t>Pelo que eu vi a norma define apenas 1 TUG(mínimo) para garagem, varanda, hall e corredor</t>
-  </si>
-  <si>
     <t>DESCRIÇÃO</t>
   </si>
   <si>
@@ -391,12 +364,6 @@
     </r>
   </si>
   <si>
-    <t>✔</t>
-  </si>
-  <si>
-    <t>arredondar é instrução do professor</t>
-  </si>
-  <si>
     <t>Os valores de potência total foram arredondados para o próximo valor multiplo de 100.</t>
   </si>
   <si>
@@ -424,6 +391,9 @@
       </rPr>
       <t>.</t>
     </r>
+  </si>
+  <si>
+    <t>Área de lazer e corredor frontal, será considerado com área tampada.</t>
   </si>
 </sst>
 </file>
@@ -548,7 +518,7 @@
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -575,37 +545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF00B0F0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF7030A0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1118,7 +1058,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1196,10 +1136,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="12" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="12" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1223,46 +1163,31 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="11" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="12" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="5" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1271,16 +1196,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1292,36 +1217,46 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1334,36 +1269,44 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1379,9 +1322,6 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1394,87 +1334,67 @@
     <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1707,14 +1627,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="70" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="72"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1737,14 +1657,14 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="73" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="72"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1795,16 +1715,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="78"/>
-      <c r="D4" s="68"/>
-      <c r="E4" s="77" t="s">
+      <c r="C4" s="75"/>
+      <c r="D4" s="64"/>
+      <c r="E4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="68"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="64"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1827,17 +1747,17 @@
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="67" t="s">
+      <c r="B5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="68"/>
+      <c r="C5" s="64"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="68"/>
+      <c r="F5" s="64"/>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1863,19 +1783,19 @@
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="67" t="s">
+      <c r="B6" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="68"/>
+      <c r="C6" s="64"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="79" t="s">
-        <v>56</v>
+      <c r="E6" s="63" t="s">
+        <v>54</v>
       </c>
-      <c r="F6" s="68"/>
+      <c r="F6" s="64"/>
       <c r="G6" s="30" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="4"/>
@@ -1899,19 +1819,19 @@
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="79" t="s">
-        <v>49</v>
+      <c r="B7" s="63" t="s">
+        <v>47</v>
       </c>
-      <c r="C7" s="68"/>
+      <c r="C7" s="64"/>
       <c r="D7" s="30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
-      <c r="E7" s="79" t="s">
-        <v>57</v>
+      <c r="E7" s="63" t="s">
+        <v>55</v>
       </c>
-      <c r="F7" s="68"/>
+      <c r="F7" s="64"/>
       <c r="G7" s="30" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="4"/>
@@ -1935,15 +1855,15 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="79" t="s">
-        <v>50</v>
+      <c r="B8" s="63" t="s">
+        <v>48</v>
       </c>
-      <c r="C8" s="68"/>
+      <c r="C8" s="64"/>
       <c r="D8" s="34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="64"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
@@ -1967,15 +1887,15 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="67" t="s">
+      <c r="B9" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="68"/>
+      <c r="C9" s="64"/>
       <c r="D9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="67"/>
-      <c r="F9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="64"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
@@ -1999,15 +1919,15 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="62"/>
-      <c r="D10" s="65" t="s">
-        <v>46</v>
+      <c r="C10" s="66"/>
+      <c r="D10" s="82" t="s">
+        <v>44</v>
       </c>
-      <c r="E10" s="67"/>
-      <c r="F10" s="68"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
@@ -2031,11 +1951,11 @@
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="66"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="68"/>
+      <c r="B11" s="80"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="64"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
@@ -2059,11 +1979,11 @@
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="69"/>
+      <c r="C12" s="64"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="67"/>
-      <c r="F12" s="68"/>
+      <c r="E12" s="69"/>
+      <c r="F12" s="64"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2087,11 +2007,11 @@
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="62"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="62"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="66"/>
       <c r="G13" s="32"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2115,11 +2035,11 @@
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
+      <c r="B14" s="67"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="33"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
+      <c r="E14" s="67"/>
+      <c r="F14" s="68"/>
       <c r="G14" s="33"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2199,14 +2119,14 @@
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="111" t="s">
-        <v>51</v>
+      <c r="B17" s="84" t="s">
+        <v>49</v>
       </c>
-      <c r="C17" s="112"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="113"/>
+      <c r="C17" s="85"/>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="85"/>
+      <c r="G17" s="86"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2229,14 +2149,14 @@
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="114" t="s">
-        <v>48</v>
+      <c r="B18" s="87" t="s">
+        <v>46</v>
       </c>
-      <c r="C18" s="69"/>
-      <c r="D18" s="69"/>
-      <c r="E18" s="69"/>
-      <c r="F18" s="69"/>
-      <c r="G18" s="115"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="88"/>
+      <c r="E18" s="88"/>
+      <c r="F18" s="88"/>
+      <c r="G18" s="89"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2259,14 +2179,14 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="116" t="s">
-        <v>47</v>
+      <c r="B19" s="57" t="s">
+        <v>45</v>
       </c>
-      <c r="C19" s="60"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="60"/>
-      <c r="F19" s="60"/>
-      <c r="G19" s="117"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="59"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2289,14 +2209,14 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="116" t="s">
-        <v>58</v>
+      <c r="B20" s="57" t="s">
+        <v>56</v>
       </c>
-      <c r="C20" s="60"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="60"/>
-      <c r="F20" s="60"/>
-      <c r="G20" s="117"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58"/>
+      <c r="F20" s="58"/>
+      <c r="G20" s="59"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2319,14 +2239,14 @@
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="118" t="s">
-        <v>59</v>
+      <c r="B21" s="76" t="s">
+        <v>57</v>
       </c>
-      <c r="C21" s="119"/>
-      <c r="D21" s="119"/>
-      <c r="E21" s="119"/>
-      <c r="F21" s="119"/>
-      <c r="G21" s="120"/>
+      <c r="C21" s="77"/>
+      <c r="D21" s="77"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="77"/>
+      <c r="G21" s="78"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2349,14 +2269,14 @@
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="116" t="s">
-        <v>98</v>
+      <c r="B22" s="57" t="s">
+        <v>89</v>
       </c>
-      <c r="C22" s="60"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
-      <c r="G22" s="117"/>
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="59"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2379,12 +2299,12 @@
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="60"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
-      <c r="F23" s="60"/>
-      <c r="G23" s="117"/>
+      <c r="B23" s="57"/>
+      <c r="C23" s="58"/>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="58"/>
+      <c r="G23" s="59"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2407,16 +2327,16 @@
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="121" t="s">
-        <v>99</v>
+      <c r="B24" s="60" t="s">
+        <v>90</v>
       </c>
-      <c r="C24" s="122"/>
-      <c r="D24" s="122"/>
-      <c r="E24" s="122"/>
-      <c r="F24" s="122"/>
-      <c r="G24" s="123"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
+      <c r="G24" s="62"/>
       <c r="H24" s="1"/>
-      <c r="I24" s="110"/>
+      <c r="I24" s="55"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -29821,6 +29741,22 @@
     </row>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
@@ -29836,23 +29772,7 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E14:F14"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -29863,8 +29783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z996"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32:L34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -29906,19 +29826,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="62"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="66"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -29936,17 +29856,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="92"/>
-      <c r="D3" s="92"/>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92"/>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="92"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="64"/>
+      <c r="B3" s="80"/>
+      <c r="C3" s="93"/>
+      <c r="D3" s="93"/>
+      <c r="E3" s="93"/>
+      <c r="F3" s="93"/>
+      <c r="G3" s="93"/>
+      <c r="H3" s="93"/>
+      <c r="I3" s="93"/>
+      <c r="J3" s="93"/>
+      <c r="K3" s="93"/>
+      <c r="L3" s="81"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -29964,27 +29884,27 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="95" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="68"/>
-      <c r="E4" s="94" t="s">
+      <c r="D4" s="64"/>
+      <c r="E4" s="95" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="78"/>
-      <c r="G4" s="68"/>
-      <c r="H4" s="95" t="s">
+      <c r="F4" s="75"/>
+      <c r="G4" s="64"/>
+      <c r="H4" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="I4" s="78"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="95" t="s">
+      <c r="I4" s="75"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="96" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="68"/>
+      <c r="L4" s="64"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -30002,7 +29922,7 @@
     </row>
     <row r="5" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="66"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="7" t="s">
         <v>17</v>
       </c>
@@ -30031,7 +29951,7 @@
         <v>22</v>
       </c>
       <c r="L5" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="1"/>
@@ -30078,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="K6" s="24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L6" s="14">
         <v>246</v>
@@ -30128,7 +30048,7 @@
         <v>1800</v>
       </c>
       <c r="K7" s="24" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="L7" s="13">
         <v>2625</v>
@@ -30151,30 +30071,30 @@
     <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
-      <c r="C8" s="87">
+      <c r="C8" s="102">
         <v>17.579999999999998</v>
       </c>
-      <c r="D8" s="87">
+      <c r="D8" s="102">
         <v>23.9</v>
       </c>
-      <c r="E8" s="83">
+      <c r="E8" s="107">
         <v>3</v>
       </c>
-      <c r="F8" s="83">
+      <c r="F8" s="107">
         <v>100</v>
       </c>
-      <c r="G8" s="85">
+      <c r="G8" s="108">
         <v>300</v>
       </c>
-      <c r="H8" s="101">
+      <c r="H8" s="108">
         <v>4</v>
       </c>
-      <c r="I8" s="103" t="s">
-        <v>37</v>
+      <c r="I8" s="109" t="s">
+        <v>36</v>
       </c>
-      <c r="J8" s="105">
+      <c r="J8" s="107">
         <v>200</v>
       </c>
       <c r="K8" s="98"/>
@@ -30196,15 +30116,15 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="102"/>
-      <c r="I9" s="104"/>
-      <c r="J9" s="104"/>
+      <c r="B9" s="101"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="111"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
       <c r="K9" s="99"/>
       <c r="L9" s="99"/>
       <c r="M9" s="1"/>
@@ -30225,7 +30145,7 @@
     <row r="10" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="25" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="15">
         <v>21.83</v>
@@ -30484,13 +30404,13 @@
         <v>6</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J15" s="19">
         <v>2100</v>
       </c>
       <c r="K15" s="23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="L15" s="19">
         <v>1760</v>
@@ -30530,14 +30450,14 @@
       <c r="G16" s="13">
         <v>400</v>
       </c>
-      <c r="H16" s="38">
-        <v>4</v>
+      <c r="H16" s="112">
+        <v>1</v>
       </c>
-      <c r="I16" s="39" t="s">
-        <v>42</v>
+      <c r="I16" s="113">
+        <v>600</v>
       </c>
-      <c r="J16" s="40">
-        <v>1400</v>
+      <c r="J16" s="114">
+        <v>600</v>
       </c>
       <c r="K16" s="19"/>
       <c r="L16" s="19"/>
@@ -30626,13 +30546,13 @@
         <v>3</v>
       </c>
       <c r="I18" s="23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J18" s="19">
         <v>1900</v>
       </c>
       <c r="K18" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L18" s="19">
         <v>1650</v>
@@ -30663,26 +30583,26 @@
       <c r="D19" s="18">
         <v>25.3</v>
       </c>
-      <c r="E19" s="36">
+      <c r="E19" s="114">
         <v>5</v>
       </c>
-      <c r="F19" s="36">
+      <c r="F19" s="114">
         <v>100</v>
       </c>
-      <c r="G19" s="37">
+      <c r="G19" s="112">
         <v>500</v>
       </c>
       <c r="H19" s="13">
         <v>5</v>
       </c>
       <c r="I19" s="23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J19" s="19">
         <v>2000</v>
       </c>
       <c r="K19" s="23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L19" s="19">
         <v>1650</v>
@@ -30726,7 +30646,7 @@
         <v>5</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J20" s="13">
         <v>2000</v>
@@ -30751,7 +30671,7 @@
     <row r="21" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="28">
         <f t="shared" ref="C21:J21" si="0">SUM(C6:C20)</f>
@@ -30775,15 +30695,15 @@
       </c>
       <c r="H21" s="28">
         <f t="shared" si="0"/>
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="I21" s="28">
         <f t="shared" si="0"/>
-        <v>3600</v>
+        <v>4200</v>
       </c>
       <c r="J21" s="28">
         <f t="shared" si="0"/>
-        <v>14400</v>
+        <v>13600</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="28">
@@ -30835,13 +30755,13 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="127" t="s">
-        <v>103</v>
+      <c r="B23" s="90" t="s">
+        <v>92</v>
       </c>
-      <c r="C23" s="127"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="127"/>
-      <c r="F23" s="127"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="90"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -30864,19 +30784,21 @@
     </row>
     <row r="24" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="128" t="s">
-        <v>102</v>
+      <c r="B24" s="56" t="s">
+        <v>91</v>
       </c>
-      <c r="C24" s="128"/>
-      <c r="D24" s="128"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-      <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="116"/>
+      <c r="M24" s="116"/>
+      <c r="N24" s="116"/>
+      <c r="O24" s="116"/>
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
       <c r="R24" s="1"/>
@@ -30891,23 +30813,21 @@
     </row>
     <row r="25" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
-      <c r="B25" s="128" t="s">
-        <v>44</v>
+      <c r="B25" s="56" t="s">
+        <v>42</v>
       </c>
-      <c r="C25" s="128"/>
-      <c r="D25" s="128"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="96" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="96"/>
-      <c r="L25" s="96"/>
-      <c r="M25" s="1"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1"/>
+      <c r="J25" s="117"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="116"/>
+      <c r="N25" s="116"/>
+      <c r="O25" s="116"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
       <c r="R25" s="1"/>
@@ -30922,24 +30842,22 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
+      <c r="B26" s="90" t="s">
+        <v>93</v>
+      </c>
+      <c r="C26" s="90"/>
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="124" t="s">
-        <v>100</v>
-      </c>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1"/>
+      <c r="J26" s="118"/>
+      <c r="K26" s="118"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="119"/>
+      <c r="N26" s="116"/>
+      <c r="O26" s="116"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
@@ -30962,14 +30880,12 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="125"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
+      <c r="J27" s="118"/>
+      <c r="K27" s="118"/>
+      <c r="L27" s="118"/>
+      <c r="M27" s="120"/>
+      <c r="N27" s="116"/>
+      <c r="O27" s="116"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
       <c r="R27" s="1"/>
@@ -30992,16 +30908,12 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="K28" s="82"/>
-      <c r="L28" s="82"/>
-      <c r="M28" s="126" t="s">
-        <v>101</v>
-      </c>
-      <c r="N28" s="126"/>
-      <c r="O28" s="126"/>
+      <c r="J28" s="118"/>
+      <c r="K28" s="118"/>
+      <c r="L28" s="118"/>
+      <c r="M28" s="121"/>
+      <c r="N28" s="121"/>
+      <c r="O28" s="121"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -31024,14 +30936,12 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="82" t="s">
-        <v>77</v>
-      </c>
-      <c r="K29" s="82"/>
-      <c r="L29" s="82"/>
-      <c r="M29" s="126"/>
-      <c r="N29" s="126"/>
-      <c r="O29" s="126"/>
+      <c r="J29" s="118"/>
+      <c r="K29" s="118"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="121"/>
+      <c r="N29" s="121"/>
+      <c r="O29" s="121"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -31054,16 +30964,12 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="80" t="s">
-        <v>78</v>
-      </c>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="124" t="s">
-        <v>100</v>
-      </c>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1"/>
+      <c r="J30" s="118"/>
+      <c r="K30" s="118"/>
+      <c r="L30" s="118"/>
+      <c r="M30" s="119"/>
+      <c r="N30" s="116"/>
+      <c r="O30" s="116"/>
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
       <c r="R30" s="1"/>
@@ -31086,14 +30992,12 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="80" t="s">
-        <v>79</v>
-      </c>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1"/>
+      <c r="J31" s="118"/>
+      <c r="K31" s="118"/>
+      <c r="L31" s="118"/>
+      <c r="M31" s="120"/>
+      <c r="N31" s="116"/>
+      <c r="O31" s="116"/>
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="R31" s="1"/>
@@ -31116,14 +31020,12 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="89" t="s">
-        <v>80</v>
-      </c>
-      <c r="K32" s="89"/>
-      <c r="L32" s="89"/>
-      <c r="M32" s="1"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="122"/>
+      <c r="M32" s="116"/>
+      <c r="N32" s="116"/>
+      <c r="O32" s="116"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
       <c r="R32" s="1"/>
@@ -31146,12 +31048,12 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="89"/>
-      <c r="K33" s="89"/>
-      <c r="L33" s="89"/>
-      <c r="M33" s="1"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="122"/>
+      <c r="M33" s="116"/>
+      <c r="N33" s="116"/>
+      <c r="O33" s="116"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
       <c r="R33" s="1"/>
@@ -31174,12 +31076,12 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="89"/>
-      <c r="K34" s="89"/>
-      <c r="L34" s="89"/>
-      <c r="M34" s="1"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="122"/>
+      <c r="M34" s="116"/>
+      <c r="N34" s="116"/>
+      <c r="O34" s="116"/>
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
       <c r="R34" s="1"/>
@@ -58129,19 +58031,7 @@
       <c r="Z996" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="M30:M31"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M28:O29"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="J32:L34"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="J25:L25"/>
+  <mergeCells count="31">
     <mergeCell ref="J22:L22"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="L8:L9"/>
@@ -58154,12 +58044,25 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M28:O29"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="J32:L34"/>
+    <mergeCell ref="J25:L25"/>
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="J31:L31"/>
     <mergeCell ref="J26:L26"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="J28:L28"/>
     <mergeCell ref="J29:L29"/>
+    <mergeCell ref="B26:F26"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
@@ -58170,7 +58073,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398C07AF-3B06-4C71-BE66-D657F989F064}">
   <dimension ref="B1:K35"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
@@ -58186,519 +58089,519 @@
     <row r="1" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="2" spans="2:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="106" t="s">
+      <c r="B3" s="103" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="104" t="s">
+        <v>72</v>
+      </c>
+      <c r="D3" s="105" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="106"/>
+      <c r="F3" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="C3" s="107" t="s">
-        <v>81</v>
+      <c r="G3" s="106"/>
+      <c r="H3" s="49" t="s">
+        <v>16</v>
       </c>
-      <c r="D3" s="108" t="s">
+      <c r="I3" s="41" t="s">
         <v>69</v>
       </c>
-      <c r="E3" s="109"/>
-      <c r="F3" s="108" t="s">
+      <c r="J3" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="G3" s="109"/>
-      <c r="H3" s="54" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="46" t="s">
+      <c r="K3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="J3" s="27" t="s">
-        <v>72</v>
+    </row>
+    <row r="4" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="103"/>
+      <c r="C4" s="104"/>
+      <c r="D4" s="43" t="s">
+        <v>60</v>
       </c>
-      <c r="K3" s="27" t="s">
+      <c r="E4" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>63</v>
+      </c>
+      <c r="I4" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="36">
+        <v>1</v>
+      </c>
+      <c r="C5" s="40" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="4" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="106"/>
-      <c r="C4" s="107"/>
-      <c r="D4" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="E4" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F4" s="48" t="s">
-        <v>62</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="46" t="s">
-        <v>65</v>
-      </c>
-      <c r="J4" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="41">
-        <v>1</v>
-      </c>
-      <c r="C5" s="45" t="s">
-        <v>82</v>
-      </c>
-      <c r="D5" s="50">
+      <c r="D5" s="45">
         <v>8</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="46">
         <v>4</v>
       </c>
-      <c r="F5" s="50"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="56"/>
-      <c r="I5" s="47">
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="42">
         <f t="shared" ref="I5:I10" si="0">(D5*100+E5*200)+(F5*100+G5*600)+H5</f>
         <v>1600</v>
       </c>
-      <c r="J5" s="41">
+      <c r="J5" s="36">
         <v>127</v>
       </c>
-      <c r="K5" s="42">
+      <c r="K5" s="37">
         <f t="shared" ref="K5:K13" si="1">I5/J5</f>
         <v>12.598425196850394</v>
       </c>
     </row>
     <row r="6" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="41">
+      <c r="B6" s="36">
         <v>2</v>
       </c>
-      <c r="C6" s="45" t="s">
-        <v>83</v>
+      <c r="C6" s="40" t="s">
+        <v>74</v>
       </c>
-      <c r="D6" s="50">
+      <c r="D6" s="45">
         <v>13</v>
       </c>
-      <c r="E6" s="51"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="56"/>
-      <c r="I6" s="47">
+      <c r="E6" s="46"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="42">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="J6" s="41">
+      <c r="J6" s="36">
         <v>127</v>
       </c>
-      <c r="K6" s="42">
+      <c r="K6" s="37">
         <f t="shared" si="1"/>
         <v>10.236220472440944</v>
       </c>
     </row>
     <row r="7" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="41">
+      <c r="B7" s="36">
         <v>3</v>
       </c>
-      <c r="C7" s="45" t="s">
-        <v>91</v>
+      <c r="C7" s="40" t="s">
+        <v>82</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="50">
+      <c r="D7" s="45"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="45">
         <v>3</v>
       </c>
-      <c r="G7" s="51">
+      <c r="G7" s="46">
         <v>3</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="47">
+      <c r="H7" s="51"/>
+      <c r="I7" s="42">
         <f t="shared" si="0"/>
         <v>2100</v>
       </c>
-      <c r="J7" s="41">
+      <c r="J7" s="36">
         <v>127</v>
       </c>
-      <c r="K7" s="42">
+      <c r="K7" s="37">
         <f t="shared" si="1"/>
         <v>16.535433070866141</v>
       </c>
     </row>
     <row r="8" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B8" s="41">
+      <c r="B8" s="36">
         <v>4</v>
       </c>
-      <c r="C8" s="45" t="s">
-        <v>97</v>
+      <c r="C8" s="40" t="s">
+        <v>88</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="50">
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="45">
         <v>1</v>
       </c>
-      <c r="G8" s="51">
+      <c r="G8" s="46">
         <v>3</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="47">
+      <c r="H8" s="51"/>
+      <c r="I8" s="42">
         <f t="shared" si="0"/>
         <v>1900</v>
       </c>
-      <c r="J8" s="41">
+      <c r="J8" s="36">
         <v>127</v>
       </c>
-      <c r="K8" s="42">
+      <c r="K8" s="37">
         <f t="shared" si="1"/>
         <v>14.960629921259843</v>
       </c>
     </row>
     <row r="9" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="41">
+      <c r="B9" s="36">
         <v>5</v>
       </c>
-      <c r="C9" s="45" t="s">
-        <v>92</v>
+      <c r="C9" s="40" t="s">
+        <v>83</v>
       </c>
-      <c r="D9" s="50"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="50">
+      <c r="D9" s="45"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="45">
         <v>2</v>
       </c>
-      <c r="G9" s="51">
+      <c r="G9" s="46">
         <v>3</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="47">
+      <c r="H9" s="51"/>
+      <c r="I9" s="42">
         <f t="shared" si="0"/>
         <v>2000</v>
       </c>
-      <c r="J9" s="41">
+      <c r="J9" s="36">
         <v>127</v>
       </c>
-      <c r="K9" s="42">
+      <c r="K9" s="37">
         <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
     </row>
     <row r="10" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="41">
+      <c r="B10" s="36">
         <v>6</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>95</v>
+      <c r="C10" s="40" t="s">
+        <v>86</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="50">
+      <c r="D10" s="45"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="45">
         <v>1</v>
       </c>
-      <c r="G10" s="51">
+      <c r="G10" s="46">
         <v>4</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="47">
+      <c r="H10" s="51"/>
+      <c r="I10" s="42">
         <f t="shared" si="0"/>
         <v>2500</v>
       </c>
-      <c r="J10" s="41">
+      <c r="J10" s="36">
         <v>127</v>
       </c>
-      <c r="K10" s="42">
+      <c r="K10" s="37">
         <f t="shared" si="1"/>
         <v>19.685039370078741</v>
       </c>
     </row>
     <row r="11" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="41">
+      <c r="B11" s="36">
         <v>7</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>93</v>
+      <c r="C11" s="40" t="s">
+        <v>84</v>
       </c>
-      <c r="D11" s="50"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="50">
+      <c r="D11" s="45"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="45">
         <v>2</v>
       </c>
-      <c r="G11" s="51">
+      <c r="G11" s="46">
         <v>3</v>
       </c>
-      <c r="H11" s="56"/>
-      <c r="I11" s="47">
+      <c r="H11" s="51"/>
+      <c r="I11" s="42">
         <f>(D11*100+E11*200)+(F11*100+G11*600)+H11</f>
         <v>2000</v>
       </c>
-      <c r="J11" s="41">
+      <c r="J11" s="36">
         <v>127</v>
       </c>
-      <c r="K11" s="42">
+      <c r="K11" s="37">
         <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
     </row>
     <row r="12" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B12" s="41">
+      <c r="B12" s="36">
         <v>8</v>
       </c>
-      <c r="C12" s="45" t="s">
-        <v>94</v>
+      <c r="C12" s="40" t="s">
+        <v>85</v>
       </c>
-      <c r="D12" s="50"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="50">
+      <c r="D12" s="45"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="45">
         <v>2</v>
       </c>
-      <c r="G12" s="51">
+      <c r="G12" s="46">
         <v>3</v>
       </c>
-      <c r="H12" s="56"/>
-      <c r="I12" s="47">
+      <c r="H12" s="51"/>
+      <c r="I12" s="42">
         <f>(D12*100+E12*200)+(F12*100+G12*600)+H12</f>
         <v>2000</v>
       </c>
-      <c r="J12" s="41">
+      <c r="J12" s="36">
         <v>127</v>
       </c>
-      <c r="K12" s="42">
+      <c r="K12" s="37">
         <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="41">
+      <c r="B13" s="36">
         <v>9</v>
       </c>
-      <c r="C13" s="45" t="s">
-        <v>96</v>
+      <c r="C13" s="40" t="s">
+        <v>87</v>
       </c>
-      <c r="D13" s="50"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="50">
+      <c r="D13" s="45"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="45">
         <v>2</v>
       </c>
-      <c r="G13" s="51">
+      <c r="G13" s="46">
         <v>3</v>
       </c>
-      <c r="H13" s="56"/>
-      <c r="I13" s="47">
+      <c r="H13" s="51"/>
+      <c r="I13" s="42">
         <f>(D13*100+E13*200)+(F13*100+G13*600)+H13</f>
         <v>2000</v>
       </c>
-      <c r="J13" s="41">
+      <c r="J13" s="36">
         <v>127</v>
       </c>
-      <c r="K13" s="42">
+      <c r="K13" s="37">
         <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
     </row>
     <row r="14" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="41">
+      <c r="B14" s="36">
         <v>10</v>
       </c>
-      <c r="C14" s="45" t="s">
-        <v>84</v>
+      <c r="C14" s="40" t="s">
+        <v>75</v>
       </c>
-      <c r="D14" s="50"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="51"/>
-      <c r="H14" s="56">
+      <c r="D14" s="45"/>
+      <c r="E14" s="46"/>
+      <c r="F14" s="45"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="51">
         <v>5400</v>
       </c>
-      <c r="I14" s="47">
+      <c r="I14" s="42">
         <f>(D14*100+E14*200)+(F14*100+G14*600)+H14</f>
         <v>5400</v>
       </c>
-      <c r="J14" s="41">
+      <c r="J14" s="36">
         <v>220</v>
       </c>
-      <c r="K14" s="42">
+      <c r="K14" s="37">
         <f>I14/J14</f>
         <v>24.545454545454547</v>
       </c>
     </row>
     <row r="15" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="41">
+      <c r="B15" s="36">
         <v>11</v>
       </c>
-      <c r="C15" s="45" t="s">
-        <v>85</v>
+      <c r="C15" s="40" t="s">
+        <v>76</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="56">
+      <c r="D15" s="45"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="45"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="51">
         <v>5400</v>
       </c>
-      <c r="I15" s="47">
+      <c r="I15" s="42">
         <f t="shared" ref="I15:I20" si="2">(D15*100+E15*200)+(F15*100+G15*600)+H15</f>
         <v>5400</v>
       </c>
-      <c r="J15" s="41">
+      <c r="J15" s="36">
         <v>220</v>
       </c>
-      <c r="K15" s="42">
+      <c r="K15" s="37">
         <f>I15/J15</f>
         <v>24.545454545454547</v>
       </c>
     </row>
     <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="41">
+      <c r="B16" s="36">
         <v>12</v>
       </c>
-      <c r="C16" s="45" t="s">
-        <v>86</v>
+      <c r="C16" s="40" t="s">
+        <v>77</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="56">
+      <c r="D16" s="45"/>
+      <c r="E16" s="46"/>
+      <c r="F16" s="45"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="51">
         <v>2625</v>
       </c>
-      <c r="I16" s="47">
+      <c r="I16" s="42">
         <f t="shared" si="2"/>
         <v>2625</v>
       </c>
-      <c r="J16" s="41">
+      <c r="J16" s="36">
         <v>220</v>
       </c>
-      <c r="K16" s="42">
+      <c r="K16" s="37">
         <f>I16/J16</f>
         <v>11.931818181818182</v>
       </c>
     </row>
     <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="41">
+      <c r="B17" s="36">
         <v>13</v>
       </c>
-      <c r="C17" s="45" t="s">
-        <v>87</v>
+      <c r="C17" s="40" t="s">
+        <v>78</v>
       </c>
-      <c r="D17" s="50"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="56">
+      <c r="D17" s="45"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="45"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="51">
         <v>1650</v>
       </c>
-      <c r="I17" s="47">
+      <c r="I17" s="42">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-      <c r="J17" s="41">
+      <c r="J17" s="36">
         <v>220</v>
       </c>
-      <c r="K17" s="42">
+      <c r="K17" s="37">
         <f t="shared" ref="K17:K20" si="3">I17/J17</f>
         <v>7.5</v>
       </c>
     </row>
     <row r="18" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B18" s="41">
+      <c r="B18" s="36">
         <v>14</v>
       </c>
-      <c r="C18" s="45" t="s">
-        <v>88</v>
+      <c r="C18" s="40" t="s">
+        <v>79</v>
       </c>
-      <c r="D18" s="50"/>
-      <c r="E18" s="51"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="51"/>
-      <c r="H18" s="56">
+      <c r="D18" s="45"/>
+      <c r="E18" s="46"/>
+      <c r="F18" s="45"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="51">
         <v>1650</v>
       </c>
-      <c r="I18" s="47">
+      <c r="I18" s="42">
         <f t="shared" si="2"/>
         <v>1650</v>
       </c>
-      <c r="J18" s="41">
+      <c r="J18" s="36">
         <v>220</v>
       </c>
-      <c r="K18" s="42">
+      <c r="K18" s="37">
         <f t="shared" si="3"/>
         <v>7.5</v>
       </c>
     </row>
     <row r="19" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="41">
+      <c r="B19" s="36">
         <v>15</v>
       </c>
-      <c r="C19" s="45" t="s">
-        <v>89</v>
+      <c r="C19" s="40" t="s">
+        <v>80</v>
       </c>
-      <c r="D19" s="50"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="57">
+      <c r="D19" s="45"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="52">
         <v>246</v>
       </c>
-      <c r="I19" s="47">
+      <c r="I19" s="42">
         <f t="shared" si="2"/>
         <v>246</v>
       </c>
-      <c r="J19" s="41">
+      <c r="J19" s="36">
         <v>127</v>
       </c>
-      <c r="K19" s="42">
+      <c r="K19" s="37">
         <f t="shared" si="3"/>
         <v>1.9370078740157479</v>
       </c>
     </row>
     <row r="20" spans="2:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B20" s="41">
+      <c r="B20" s="36">
         <v>16</v>
       </c>
-      <c r="C20" s="45" t="s">
-        <v>90</v>
+      <c r="C20" s="40" t="s">
+        <v>81</v>
       </c>
-      <c r="D20" s="50"/>
-      <c r="E20" s="51"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="51"/>
-      <c r="H20" s="58">
+      <c r="D20" s="45"/>
+      <c r="E20" s="46"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="53">
         <v>1760</v>
       </c>
-      <c r="I20" s="47">
+      <c r="I20" s="42">
         <f t="shared" si="2"/>
         <v>1760</v>
       </c>
-      <c r="J20" s="41">
+      <c r="J20" s="36">
         <v>220</v>
       </c>
-      <c r="K20" s="42">
+      <c r="K20" s="37">
         <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="2:11" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B21" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
-      <c r="C21" s="44"/>
-      <c r="D21" s="52">
+      <c r="C21" s="39"/>
+      <c r="D21" s="47">
         <f t="shared" ref="D21:K21" si="4">SUM(D5:D20)</f>
         <v>21</v>
       </c>
-      <c r="E21" s="53">
+      <c r="E21" s="48">
         <f t="shared" si="4"/>
         <v>4</v>
       </c>
-      <c r="F21" s="52">
+      <c r="F21" s="47">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="G21" s="53">
+      <c r="G21" s="48">
         <f t="shared" si="4"/>
         <v>22</v>
       </c>
-      <c r="H21" s="59">
+      <c r="H21" s="54">
         <f t="shared" si="4"/>
         <v>18731</v>
       </c>
-      <c r="I21" s="46">
+      <c r="I21" s="41">
         <f t="shared" si="4"/>
         <v>36131</v>
       </c>
@@ -58706,7 +58609,7 @@
         <f t="shared" si="4"/>
         <v>2590</v>
       </c>
-      <c r="K21" s="43">
+      <c r="K21" s="38">
         <f t="shared" si="4"/>
         <v>222.96760916249107</v>
       </c>

--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\GitHub\Instel I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5645B002-861E-4558-9DC7-029E35206DA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5144C92-016B-4CD9-8B4F-9A63A6AFA89D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação_Informações" sheetId="1" r:id="rId1"/>
@@ -30,40 +30,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Ramon</author>
-  </authors>
-  <commentList>
-    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{8ED6060C-FE48-4C15-A7C7-671BABF06469}">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Ramon:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Segoe UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-A campainha deve tá no circuito que faz a iluminação do Hall de entrada</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -451,7 +417,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -541,19 +507,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Segoe UI"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1240,35 +1193,20 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1281,34 +1219,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1323,18 +1272,22 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1579,14 +1532,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="66" t="s">
+      <c r="B1" s="59" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="60"/>
+      <c r="G1" s="61"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1609,14 +1562,14 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
-      <c r="B2" s="69" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="61"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1667,16 +1620,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="71"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="70" t="s">
+      <c r="C4" s="64"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1699,17 +1652,17 @@
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="51" t="s">
+      <c r="B5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="52"/>
+      <c r="C5" s="58"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="51" t="s">
+      <c r="E5" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="52"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1735,17 +1688,17 @@
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="52"/>
+      <c r="C6" s="58"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="52"/>
+      <c r="F6" s="58"/>
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1771,17 +1724,17 @@
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
-      <c r="B7" s="51" t="s">
+      <c r="B7" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="52"/>
+      <c r="C7" s="58"/>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="51" t="s">
+      <c r="E7" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="52"/>
+      <c r="F7" s="58"/>
       <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1807,15 +1760,15 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="51" t="s">
+      <c r="B8" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="52"/>
+      <c r="C8" s="58"/>
       <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="51"/>
-      <c r="F8" s="52"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="58"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
@@ -1839,15 +1792,15 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="52"/>
+      <c r="C9" s="58"/>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="51"/>
-      <c r="F9" s="52"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
@@ -1871,15 +1824,15 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="51" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="74" t="s">
+      <c r="C10" s="52"/>
+      <c r="D10" s="55" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="52"/>
+      <c r="E10" s="57"/>
+      <c r="F10" s="58"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
@@ -1903,11 +1856,11 @@
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="73"/>
-      <c r="C11" s="58"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
@@ -1931,11 +1884,11 @@
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="52"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="58"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="52"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -1959,11 +1912,11 @@
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="71"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="60"/>
+      <c r="E13" s="70"/>
+      <c r="F13" s="71"/>
       <c r="G13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1987,11 +1940,11 @@
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="52"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="58"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="52"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
       <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2071,14 +2024,14 @@
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="72" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="62"/>
-      <c r="D17" s="62"/>
-      <c r="E17" s="62"/>
-      <c r="F17" s="62"/>
-      <c r="G17" s="63"/>
+      <c r="C17" s="73"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="73"/>
+      <c r="G17" s="52"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2101,14 +2054,14 @@
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
-      <c r="B18" s="64" t="s">
+      <c r="B18" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="54"/>
-      <c r="D18" s="54"/>
-      <c r="E18" s="54"/>
-      <c r="F18" s="54"/>
-      <c r="G18" s="55"/>
+      <c r="C18" s="66"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2131,14 +2084,14 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="54"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
+      <c r="C19" s="66"/>
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2161,14 +2114,14 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
-      <c r="B20" s="53" t="s">
+      <c r="B20" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="54"/>
-      <c r="D20" s="54"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
+      <c r="C20" s="66"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2191,14 +2144,14 @@
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
-      <c r="B21" s="65" t="s">
+      <c r="B21" s="75" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="54"/>
-      <c r="D21" s="54"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
+      <c r="C21" s="66"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2221,14 +2174,14 @@
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="54"/>
-      <c r="D22" s="54"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
+      <c r="C22" s="66"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2251,12 +2204,12 @@
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="53"/>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
-      <c r="G23" s="55"/>
+      <c r="B23" s="65"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2279,14 +2232,14 @@
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
-      <c r="B24" s="56" t="s">
+      <c r="B24" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C24" s="57"/>
-      <c r="D24" s="57"/>
-      <c r="E24" s="57"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
+      <c r="C24" s="69"/>
+      <c r="D24" s="69"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="69"/>
+      <c r="G24" s="54"/>
       <c r="H24" s="1"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1"/>
@@ -8685,24 +8638,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
@@ -8717,6 +8652,24 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8727,8 +8680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8773,16 +8726,16 @@
       <c r="B2" s="84" t="s">
         <v>26</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-      <c r="H2" s="62"/>
-      <c r="I2" s="62"/>
-      <c r="J2" s="62"/>
-      <c r="K2" s="62"/>
-      <c r="L2" s="63"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="73"/>
+      <c r="H2" s="73"/>
+      <c r="I2" s="73"/>
+      <c r="J2" s="73"/>
+      <c r="K2" s="73"/>
+      <c r="L2" s="52"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -8800,17 +8753,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="58"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="54"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -8834,21 +8787,21 @@
       <c r="C4" s="86" t="s">
         <v>28</v>
       </c>
-      <c r="D4" s="52"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="86" t="s">
         <v>29</v>
       </c>
-      <c r="F4" s="71"/>
-      <c r="G4" s="52"/>
+      <c r="F4" s="64"/>
+      <c r="G4" s="58"/>
       <c r="H4" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="71"/>
-      <c r="J4" s="52"/>
+      <c r="I4" s="64"/>
+      <c r="J4" s="58"/>
       <c r="K4" s="87" t="s">
         <v>31</v>
       </c>
-      <c r="L4" s="52"/>
+      <c r="L4" s="58"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -8866,7 +8819,7 @@
     </row>
     <row r="5" spans="1:26" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
-      <c r="B5" s="75"/>
+      <c r="B5" s="56"/>
       <c r="C5" s="9" t="s">
         <v>32</v>
       </c>
@@ -9014,13 +8967,13 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
-      <c r="B8" s="91" t="s">
+      <c r="B8" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="93">
+      <c r="C8" s="83">
         <v>17.579999999999998</v>
       </c>
-      <c r="D8" s="93">
+      <c r="D8" s="83">
         <v>23.9</v>
       </c>
       <c r="E8" s="79">
@@ -9029,10 +8982,10 @@
       <c r="F8" s="79">
         <v>100</v>
       </c>
-      <c r="G8" s="89">
+      <c r="G8" s="77">
         <v>300</v>
       </c>
-      <c r="H8" s="89">
+      <c r="H8" s="77">
         <v>4</v>
       </c>
       <c r="I8" s="79" t="s">
@@ -9060,13 +9013,13 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="92"/>
+      <c r="B9" s="82"/>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
       <c r="F9" s="80"/>
-      <c r="G9" s="90"/>
-      <c r="H9" s="90"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
       <c r="I9" s="80"/>
       <c r="J9" s="80"/>
       <c r="K9" s="80"/>
@@ -9683,9 +9636,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="81"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
+      <c r="J22" s="91"/>
+      <c r="K22" s="73"/>
+      <c r="L22" s="73"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -9703,13 +9656,13 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
-      <c r="B23" s="88" t="s">
+      <c r="B23" s="76" t="s">
         <v>62</v>
       </c>
-      <c r="C23" s="54"/>
-      <c r="D23" s="54"/>
-      <c r="E23" s="54"/>
-      <c r="F23" s="54"/>
+      <c r="C23" s="66"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="66"/>
+      <c r="F23" s="66"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -9768,9 +9721,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="82"/>
-      <c r="K25" s="54"/>
-      <c r="L25" s="54"/>
+      <c r="J25" s="92"/>
+      <c r="K25" s="66"/>
+      <c r="L25" s="66"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -9788,20 +9741,20 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
-      <c r="B26" s="88" t="s">
+      <c r="B26" s="76" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
+      <c r="C26" s="66"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="77"/>
-      <c r="K26" s="54"/>
-      <c r="L26" s="54"/>
-      <c r="M26" s="76"/>
+      <c r="J26" s="89"/>
+      <c r="K26" s="66"/>
+      <c r="L26" s="66"/>
+      <c r="M26" s="88"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -9826,10 +9779,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="77"/>
-      <c r="K27" s="54"/>
-      <c r="L27" s="54"/>
-      <c r="M27" s="54"/>
+      <c r="J27" s="89"/>
+      <c r="K27" s="66"/>
+      <c r="L27" s="66"/>
+      <c r="M27" s="66"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -9854,12 +9807,12 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="77"/>
-      <c r="K28" s="54"/>
-      <c r="L28" s="54"/>
-      <c r="M28" s="83"/>
-      <c r="N28" s="54"/>
-      <c r="O28" s="54"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="66"/>
+      <c r="L28" s="66"/>
+      <c r="M28" s="93"/>
+      <c r="N28" s="66"/>
+      <c r="O28" s="66"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -9882,12 +9835,12 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="77"/>
-      <c r="K29" s="54"/>
-      <c r="L29" s="54"/>
-      <c r="M29" s="54"/>
-      <c r="N29" s="54"/>
-      <c r="O29" s="54"/>
+      <c r="J29" s="89"/>
+      <c r="K29" s="66"/>
+      <c r="L29" s="66"/>
+      <c r="M29" s="66"/>
+      <c r="N29" s="66"/>
+      <c r="O29" s="66"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -9910,10 +9863,10 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="77"/>
-      <c r="K30" s="54"/>
-      <c r="L30" s="54"/>
-      <c r="M30" s="76"/>
+      <c r="J30" s="89"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="66"/>
+      <c r="M30" s="88"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -9938,10 +9891,10 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="77"/>
-      <c r="K31" s="54"/>
-      <c r="L31" s="54"/>
-      <c r="M31" s="54"/>
+      <c r="J31" s="89"/>
+      <c r="K31" s="66"/>
+      <c r="L31" s="66"/>
+      <c r="M31" s="66"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -9966,9 +9919,9 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="78"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="54"/>
+      <c r="J32" s="90"/>
+      <c r="K32" s="66"/>
+      <c r="L32" s="66"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -9994,9 +9947,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="54"/>
-      <c r="K33" s="54"/>
-      <c r="L33" s="54"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="66"/>
+      <c r="L33" s="66"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -10022,9 +9975,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="54"/>
-      <c r="K34" s="54"/>
-      <c r="L34" s="54"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="66"/>
+      <c r="L34" s="66"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -16192,23 +16145,6 @@
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="J32:L34"/>
@@ -16223,6 +16159,23 @@
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="J31:L31"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -16230,11 +16183,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1003"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16348,7 +16301,7 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
-      <c r="B4" s="75"/>
+      <c r="B4" s="56"/>
       <c r="C4" s="96"/>
       <c r="D4" s="32" t="s">
         <v>73</v>
@@ -44659,6 +44612,5 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\GitHub\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A66BB6E6-A082-4092-8FA7-ABD1266037CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD629833-662B-48D6-BD96-1F4358C3A54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação_Informações" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Quadro_de_cargas" sheetId="3" r:id="rId3"/>
     <sheet name="Secção Mínima" sheetId="4" r:id="rId4"/>
     <sheet name="Capacidade de Corrente" sheetId="5" r:id="rId5"/>
+    <sheet name="Limite de Queda de Tensão" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
   <si>
     <t>Alunos: Gabriel Schettino Lucas e Ramon Rodrigues Morello</t>
   </si>
@@ -482,14 +483,61 @@
     <t xml:space="preserve">Como usar o FCA no nosso caso? R: considerar o condutor por onde o circuito mais tem contato com outros cabos. </t>
   </si>
   <si>
-    <t>Ex.: em um trecho o circuito 1, está junto de outros 4 circuitos, logo o FCA desse trecho é o que vale</t>
+    <t>Ex.: em um trecho o circuito 1, está junto de outros 4 circuitos, logo o FCA desse trecho é o que vale para todos</t>
+  </si>
+  <si>
+    <t>Para os circuitos reservas foi suposto que eles vão se agrupar nos eletrodutos que já possuem 5 cabos, passando no máximo para 6 cabos.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">considerando a suposição acima, eu deveria considerar um circuito a mais em todos os eletrodutos, visando que um dia pode ser colocado um circuito extra? </t>
+  </si>
+  <si>
+    <t>opinião: gasto desnecessário, se em ocasião futura for adicionado um dos circuitos reservas, deverá quebrar a parede e trocar todos os cabos por cabos maiores. Outra, duvido que ele tenha tempo para verificar 1 por 1.</t>
+  </si>
+  <si>
+    <t>ALIMENTADOR</t>
+  </si>
+  <si>
+    <t>CAPACIDADE DE CORRENTE [IC]</t>
+  </si>
+  <si>
+    <t>REFERÊNCIAS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">[1]: Tabela de capacidade de condução de corrente em ampéres (Referência B1/3 condutores carregados) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="18"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>[Inserir as tabela como imagem nessa planilha]</t>
+    </r>
+  </si>
+  <si>
+    <t>[mm²]</t>
+  </si>
+  <si>
+    <t>CAPACIDADE DE CORRENTE TABELADA [IC']*[1]</t>
+  </si>
+  <si>
+    <t>RESULTADO DO CRITÉRIO DA CAP. CORRENTE</t>
+  </si>
+  <si>
+    <t>WHAT?</t>
+  </si>
+  <si>
+    <t>[IC']:  Capacidade de corrente que será usada para dimensionar eletrodutos</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -594,21 +642,51 @@
       <family val="1"/>
     </font>
     <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
       <b/>
-      <sz val="22"/>
+      <sz val="28"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="36"/>
+      <sz val="28"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
       <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,8 +711,20 @@
         <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="44">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1155,11 +1245,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="146">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1307,20 +1523,59 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1333,45 +1588,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1386,22 +1630,18 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1415,48 +1655,120 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1675,8 +1987,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -1689,14 +2001,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="61"/>
+      <c r="C1" s="75"/>
+      <c r="D1" s="75"/>
+      <c r="E1" s="75"/>
+      <c r="F1" s="75"/>
+      <c r="G1" s="76"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -1719,14 +2031,14 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="77" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="60"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="61"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="75"/>
+      <c r="G2" s="76"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -1777,16 +2089,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="64"/>
-      <c r="D4" s="58"/>
-      <c r="E4" s="63" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="60"/>
+      <c r="E4" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="58"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -1809,17 +2121,17 @@
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="60"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="58"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
@@ -1845,17 +2157,17 @@
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="58"/>
+      <c r="F6" s="60"/>
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
@@ -1881,17 +2193,17 @@
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="58"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1917,15 +2229,15 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="57"/>
-      <c r="F8" s="58"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
@@ -1949,15 +2261,15 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="58"/>
+      <c r="C9" s="60"/>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
@@ -1981,15 +2293,15 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="80" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="52"/>
-      <c r="D10" s="55" t="s">
+      <c r="C10" s="71"/>
+      <c r="D10" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="57"/>
-      <c r="F10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
@@ -2013,11 +2325,11 @@
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="66"/>
+      <c r="D11" s="83"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
@@ -2041,11 +2353,11 @@
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="58"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="60"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2069,11 +2381,11 @@
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="70"/>
-      <c r="C13" s="71"/>
+      <c r="B13" s="67"/>
+      <c r="C13" s="68"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="71"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="68"/>
       <c r="G13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2097,11 +2409,11 @@
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="58"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="60"/>
       <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2181,14 +2493,14 @@
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="69" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="73"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="73"/>
-      <c r="F17" s="73"/>
-      <c r="G17" s="52"/>
+      <c r="C17" s="70"/>
+      <c r="D17" s="70"/>
+      <c r="E17" s="70"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="71"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2211,14 +2523,14 @@
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="74" t="s">
+      <c r="B18" s="72" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="66"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="66"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="67"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="63"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2241,14 +2553,14 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="65" t="s">
+      <c r="B19" s="61" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="66"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="66"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="67"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="63"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2271,14 +2583,14 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="65" t="s">
+      <c r="B20" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="66"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="67"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2301,14 +2613,14 @@
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="75" t="s">
+      <c r="B21" s="73" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="66"/>
-      <c r="D21" s="66"/>
-      <c r="E21" s="66"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="67"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="63"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2331,14 +2643,14 @@
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="65" t="s">
+      <c r="B22" s="61" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="66"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="67"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="63"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2361,12 +2673,12 @@
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="65"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="67"/>
+      <c r="B23" s="61"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="63"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2389,14 +2701,14 @@
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="68" t="s">
+      <c r="B24" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="69"/>
-      <c r="D24" s="69"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="54"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="65"/>
+      <c r="E24" s="65"/>
+      <c r="F24" s="65"/>
+      <c r="G24" s="66"/>
       <c r="H24" s="1"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1"/>
@@ -8795,6 +9107,24 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
@@ -8809,24 +9139,6 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -8880,19 +9192,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="84" t="s">
+      <c r="B2" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
-      <c r="H2" s="73"/>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="52"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="K2" s="70"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -8910,17 +9222,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="54"/>
+      <c r="B3" s="81"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="65"/>
+      <c r="H3" s="65"/>
+      <c r="I3" s="65"/>
+      <c r="J3" s="65"/>
+      <c r="K3" s="65"/>
+      <c r="L3" s="66"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -8938,27 +9250,27 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="85" t="s">
+      <c r="B4" s="93" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="58"/>
-      <c r="E4" s="86" t="s">
+      <c r="D4" s="60"/>
+      <c r="E4" s="94" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="64"/>
-      <c r="G4" s="58"/>
-      <c r="H4" s="87" t="s">
+      <c r="F4" s="79"/>
+      <c r="G4" s="60"/>
+      <c r="H4" s="95" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="87" t="s">
+      <c r="I4" s="79"/>
+      <c r="J4" s="60"/>
+      <c r="K4" s="95" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="58"/>
+      <c r="L4" s="60"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -8976,7 +9288,7 @@
     </row>
     <row r="5" spans="1:26" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="56"/>
+      <c r="B5" s="83"/>
       <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
@@ -9124,35 +9436,35 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="83">
+      <c r="C8" s="101">
         <v>17.579999999999998</v>
       </c>
-      <c r="D8" s="83">
+      <c r="D8" s="101">
         <v>23.9</v>
       </c>
-      <c r="E8" s="79">
+      <c r="E8" s="87">
         <v>3</v>
       </c>
-      <c r="F8" s="79">
+      <c r="F8" s="87">
         <v>100</v>
       </c>
-      <c r="G8" s="77">
+      <c r="G8" s="97">
         <v>300</v>
       </c>
-      <c r="H8" s="77">
+      <c r="H8" s="97">
         <v>4</v>
       </c>
-      <c r="I8" s="79" t="s">
+      <c r="I8" s="87" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="79">
+      <c r="J8" s="87">
         <v>200</v>
       </c>
-      <c r="K8" s="79"/>
-      <c r="L8" s="79"/>
+      <c r="K8" s="87"/>
+      <c r="L8" s="87"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -9170,17 +9482,17 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="80"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="78"/>
-      <c r="H9" s="78"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="80"/>
-      <c r="K9" s="80"/>
-      <c r="L9" s="80"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="88"/>
+      <c r="E9" s="88"/>
+      <c r="F9" s="88"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="98"/>
+      <c r="I9" s="88"/>
+      <c r="J9" s="88"/>
+      <c r="K9" s="88"/>
+      <c r="L9" s="88"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -9793,9 +10105,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="91"/>
-      <c r="K22" s="73"/>
-      <c r="L22" s="73"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="70"/>
+      <c r="L22" s="70"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -9813,13 +10125,13 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="76" t="s">
+      <c r="B23" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -9878,9 +10190,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="92"/>
-      <c r="K25" s="66"/>
-      <c r="L25" s="66"/>
+      <c r="J25" s="90"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -9898,20 +10210,20 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="76" t="s">
+      <c r="B26" s="96" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="66"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="89"/>
-      <c r="K26" s="66"/>
-      <c r="L26" s="66"/>
-      <c r="M26" s="88"/>
+      <c r="J26" s="85"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="84"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -9936,10 +10248,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="89"/>
-      <c r="K27" s="66"/>
-      <c r="L27" s="66"/>
-      <c r="M27" s="66"/>
+      <c r="J27" s="85"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -9964,12 +10276,12 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="89"/>
-      <c r="K28" s="66"/>
-      <c r="L28" s="66"/>
-      <c r="M28" s="93"/>
-      <c r="N28" s="66"/>
-      <c r="O28" s="66"/>
+      <c r="J28" s="85"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="91"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -9992,12 +10304,12 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="89"/>
-      <c r="K29" s="66"/>
-      <c r="L29" s="66"/>
-      <c r="M29" s="66"/>
-      <c r="N29" s="66"/>
-      <c r="O29" s="66"/>
+      <c r="J29" s="85"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -10020,10 +10332,10 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="89"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="66"/>
-      <c r="M30" s="88"/>
+      <c r="J30" s="85"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="84"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -10048,10 +10360,10 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="89"/>
-      <c r="K31" s="66"/>
-      <c r="L31" s="66"/>
-      <c r="M31" s="66"/>
+      <c r="J31" s="85"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -10076,9 +10388,9 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="90"/>
-      <c r="K32" s="66"/>
-      <c r="L32" s="66"/>
+      <c r="J32" s="86"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -10104,9 +10416,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="66"/>
-      <c r="L33" s="66"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -10132,9 +10444,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="66"/>
-      <c r="L34" s="66"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -16302,6 +16614,23 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="J32:L34"/>
@@ -16316,23 +16645,6 @@
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="J31:L31"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -16343,8 +16655,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView showGridLines="0" topLeftCell="F10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5:I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16414,20 +16726,20 @@
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="94" t="s">
+      <c r="B3" s="102" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="103" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="105" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="98"/>
-      <c r="F3" s="97" t="s">
+      <c r="E3" s="106"/>
+      <c r="F3" s="105" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="98"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="30" t="s">
         <v>30</v>
       </c>
@@ -16458,8 +16770,8 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="56"/>
-      <c r="C4" s="96"/>
+      <c r="B4" s="83"/>
+      <c r="C4" s="104"/>
       <c r="D4" s="32" t="s">
         <v>72</v>
       </c>
@@ -44878,263 +45190,263 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6759B52-4959-44EC-8CDD-E150AEF41805}">
   <dimension ref="B4:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="99"/>
-    <col min="2" max="2" width="15.7109375" style="99" customWidth="1"/>
-    <col min="3" max="3" width="70.7109375" style="99" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" style="99" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="99"/>
+    <col min="1" max="1" width="9.140625" style="51"/>
+    <col min="2" max="2" width="15.7109375" style="51" customWidth="1"/>
+    <col min="3" max="3" width="70.7109375" style="51" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" style="51" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="51"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="100" t="s">
+      <c r="B4" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="103" t="s">
+      <c r="D4" s="109" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="104"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="110"/>
     </row>
     <row r="6" spans="2:4">
-      <c r="B6" s="102">
+      <c r="B6" s="53">
         <v>1</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="105">
+      <c r="D6" s="54">
         <v>1.5</v>
       </c>
     </row>
     <row r="7" spans="2:4">
-      <c r="B7" s="102">
+      <c r="B7" s="53">
         <v>2</v>
       </c>
-      <c r="C7" s="102" t="s">
+      <c r="C7" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D7" s="105">
+      <c r="D7" s="54">
         <v>1.5</v>
       </c>
     </row>
     <row r="8" spans="2:4">
-      <c r="B8" s="102">
+      <c r="B8" s="53">
         <v>3</v>
       </c>
-      <c r="C8" s="105" t="s">
+      <c r="C8" s="54" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="105">
+      <c r="D8" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="2:4">
-      <c r="B9" s="102">
+      <c r="B9" s="53">
         <v>4</v>
       </c>
-      <c r="C9" s="105" t="s">
+      <c r="C9" s="54" t="s">
         <v>99</v>
       </c>
-      <c r="D9" s="105">
+      <c r="D9" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="10" spans="2:4">
-      <c r="B10" s="102">
+      <c r="B10" s="53">
         <v>5</v>
       </c>
-      <c r="C10" s="105" t="s">
+      <c r="C10" s="54" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="105">
+      <c r="D10" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="11" spans="2:4">
-      <c r="B11" s="102">
+      <c r="B11" s="53">
         <v>6</v>
       </c>
-      <c r="C11" s="105" t="s">
+      <c r="C11" s="54" t="s">
         <v>101</v>
       </c>
-      <c r="D11" s="105">
+      <c r="D11" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="12" spans="2:4">
-      <c r="B12" s="102">
+      <c r="B12" s="53">
         <v>7</v>
       </c>
-      <c r="C12" s="105" t="s">
+      <c r="C12" s="54" t="s">
         <v>102</v>
       </c>
-      <c r="D12" s="105">
+      <c r="D12" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="13" spans="2:4">
-      <c r="B13" s="102">
+      <c r="B13" s="53">
         <v>8</v>
       </c>
-      <c r="C13" s="105" t="s">
+      <c r="C13" s="54" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="105">
+      <c r="D13" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="14" spans="2:4">
-      <c r="B14" s="102">
+      <c r="B14" s="53">
         <v>9</v>
       </c>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="54" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="105">
+      <c r="D14" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="15" spans="2:4">
-      <c r="B15" s="102">
+      <c r="B15" s="53">
         <v>10</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="54" t="s">
         <v>105</v>
       </c>
-      <c r="D15" s="105">
+      <c r="D15" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="16" spans="2:4">
-      <c r="B16" s="102">
+      <c r="B16" s="53">
         <v>11</v>
       </c>
-      <c r="C16" s="105" t="s">
+      <c r="C16" s="54" t="s">
         <v>106</v>
       </c>
-      <c r="D16" s="105">
+      <c r="D16" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="17" spans="2:4">
-      <c r="B17" s="102">
+      <c r="B17" s="53">
         <v>12</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="C17" s="54" t="s">
         <v>107</v>
       </c>
-      <c r="D17" s="105">
+      <c r="D17" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="18" spans="2:4">
-      <c r="B18" s="102">
+      <c r="B18" s="53">
         <v>13</v>
       </c>
-      <c r="C18" s="105" t="s">
+      <c r="C18" s="54" t="s">
         <v>108</v>
       </c>
-      <c r="D18" s="105">
+      <c r="D18" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="19" spans="2:4">
-      <c r="B19" s="102">
+      <c r="B19" s="53">
         <v>14</v>
       </c>
-      <c r="C19" s="105" t="s">
+      <c r="C19" s="54" t="s">
         <v>109</v>
       </c>
-      <c r="D19" s="105">
+      <c r="D19" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="20" spans="2:4">
-      <c r="B20" s="102">
+      <c r="B20" s="53">
         <v>15</v>
       </c>
-      <c r="C20" s="105" t="s">
+      <c r="C20" s="54" t="s">
         <v>110</v>
       </c>
-      <c r="D20" s="105">
+      <c r="D20" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="21" spans="2:4">
-      <c r="B21" s="102">
+      <c r="B21" s="53">
         <v>16</v>
       </c>
-      <c r="C21" s="105" t="s">
+      <c r="C21" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="D21" s="105">
+      <c r="D21" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="22" spans="2:4">
-      <c r="B22" s="102">
+      <c r="B22" s="53">
         <v>17</v>
       </c>
-      <c r="C22" s="105" t="s">
+      <c r="C22" s="54" t="s">
         <v>112</v>
       </c>
-      <c r="D22" s="105">
+      <c r="D22" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="23" spans="2:4">
-      <c r="B23" s="102">
+      <c r="B23" s="53">
         <v>18</v>
       </c>
-      <c r="C23" s="102" t="s">
+      <c r="C23" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D23" s="105">
+      <c r="D23" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="24" spans="2:4">
-      <c r="B24" s="102">
+      <c r="B24" s="53">
         <v>19</v>
       </c>
-      <c r="C24" s="102" t="s">
+      <c r="C24" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D24" s="105">
+      <c r="D24" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="25" spans="2:4">
-      <c r="B25" s="102">
+      <c r="B25" s="53">
         <v>20</v>
       </c>
-      <c r="C25" s="102" t="s">
+      <c r="C25" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="105">
+      <c r="D25" s="54">
         <v>2.5</v>
       </c>
     </row>
     <row r="26" spans="2:4">
-      <c r="B26" s="102">
+      <c r="B26" s="53">
         <v>21</v>
       </c>
-      <c r="C26" s="102" t="s">
+      <c r="C26" s="53" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="105">
+      <c r="D26" s="54">
         <v>2.5</v>
       </c>
     </row>
@@ -45151,1043 +45463,1748 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36D55B-3867-4EF4-9271-23288EED3B45}">
-  <dimension ref="B1:N40"/>
+  <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R22" sqref="R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="107"/>
-    <col min="2" max="2" width="15.7109375" style="107" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" style="107" customWidth="1"/>
-    <col min="4" max="5" width="10.7109375" style="107" customWidth="1"/>
-    <col min="6" max="14" width="15.7109375" style="107" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="107"/>
+    <col min="1" max="1" width="9.140625" style="55"/>
+    <col min="2" max="2" width="15.7109375" style="55" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="55" customWidth="1"/>
+    <col min="4" max="5" width="10.7109375" style="55" customWidth="1"/>
+    <col min="6" max="14" width="15.7109375" style="55" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" style="55" customWidth="1"/>
+    <col min="16" max="16" width="26.28515625" style="55" customWidth="1"/>
+    <col min="17" max="17" width="21.42578125" style="55" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" style="55" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="55"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14">
-      <c r="B1" s="100" t="s">
+    <row r="1" spans="2:17">
+      <c r="B1" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="100" t="s">
+      <c r="C1" s="107" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="100" t="s">
+      <c r="D1" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="100"/>
-      <c r="F1" s="100" t="s">
+      <c r="E1" s="133"/>
+      <c r="F1" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="100"/>
-      <c r="H1" s="100" t="s">
+      <c r="G1" s="133"/>
+      <c r="H1" s="129" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="107" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="107" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="103" t="s">
+      <c r="K1" s="109" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="103" t="s">
+      <c r="L1" s="109" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="103" t="s">
+      <c r="M1" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="103" t="s">
+      <c r="N1" s="109" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="2" spans="2:14">
-      <c r="B2" s="100"/>
-      <c r="C2" s="100"/>
-      <c r="D2" s="100"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="103"/>
-      <c r="L2" s="103"/>
-      <c r="M2" s="103"/>
-      <c r="N2" s="103"/>
-    </row>
-    <row r="3" spans="2:14">
-      <c r="B3" s="100"/>
-      <c r="C3" s="100"/>
-      <c r="D3" s="100"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="103"/>
-      <c r="L3" s="103"/>
-      <c r="M3" s="103"/>
-      <c r="N3" s="103"/>
-    </row>
-    <row r="4" spans="2:14">
-      <c r="B4" s="100"/>
-      <c r="C4" s="100"/>
-      <c r="D4" s="108" t="s">
+      <c r="O1" s="109" t="s">
+        <v>126</v>
+      </c>
+      <c r="P1" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q1" s="109" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="134"/>
+      <c r="E2" s="135"/>
+      <c r="F2" s="134"/>
+      <c r="G2" s="135"/>
+      <c r="H2" s="130"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="109"/>
+      <c r="L2" s="109"/>
+      <c r="M2" s="109"/>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+    </row>
+    <row r="3" spans="2:17" ht="31.5" customHeight="1">
+      <c r="B3" s="107"/>
+      <c r="C3" s="107"/>
+      <c r="D3" s="136"/>
+      <c r="E3" s="137"/>
+      <c r="F3" s="136"/>
+      <c r="G3" s="137"/>
+      <c r="H3" s="131"/>
+      <c r="I3" s="107"/>
+      <c r="J3" s="107"/>
+      <c r="K3" s="109"/>
+      <c r="L3" s="109"/>
+      <c r="M3" s="109"/>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="107"/>
+      <c r="C4" s="107"/>
+      <c r="D4" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="52" t="s">
         <v>73</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="52" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="52" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="I4" s="108" t="s">
+      <c r="I4" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="108" t="s">
+      <c r="K4" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="111" t="s">
+      <c r="L4" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="111" t="s">
+      <c r="M4" s="58" t="s">
         <v>114</v>
       </c>
-      <c r="N4" s="111" t="s">
+      <c r="N4" s="58" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="5" spans="2:14">
-      <c r="B5" s="102">
+      <c r="O4" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q4" s="58" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="53">
         <v>1</v>
       </c>
-      <c r="C5" s="102" t="s">
+      <c r="C5" s="53" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="102">
+      <c r="D5" s="53">
         <v>8</v>
       </c>
-      <c r="E5" s="102">
+      <c r="E5" s="53">
         <v>2</v>
       </c>
-      <c r="F5" s="102"/>
-      <c r="G5" s="102"/>
-      <c r="H5" s="102"/>
-      <c r="I5" s="102">
-        <f t="shared" ref="I5:I21" si="0">(D5*100+E5*200)+(F5*100+G5*600)+H5</f>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="53"/>
+      <c r="I5" s="53">
+        <f>(D5*100+E5*200)+(F5*100+G5*600)+H5</f>
         <v>1200</v>
       </c>
-      <c r="J5" s="102">
+      <c r="J5" s="53">
         <v>127</v>
       </c>
-      <c r="K5" s="109">
-        <f t="shared" ref="K5:L25" si="1">I5/J5</f>
+      <c r="K5" s="56">
+        <f t="shared" ref="K5:K25" si="0">I5/J5</f>
         <v>9.4488188976377945</v>
       </c>
-      <c r="L5" s="109"/>
-      <c r="M5" s="109">
+      <c r="L5" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="M5" s="56">
         <v>1</v>
       </c>
-      <c r="N5" s="109">
+      <c r="N5" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="2:14">
-      <c r="B6" s="102">
+      <c r="O5" s="56">
+        <f>K5/L5*M5*N5</f>
+        <v>15.748031496062991</v>
+      </c>
+      <c r="P5" s="56">
+        <v>21</v>
+      </c>
+      <c r="Q5" s="56">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="53">
         <v>2</v>
       </c>
-      <c r="C6" s="102" t="s">
+      <c r="C6" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="102">
+      <c r="D6" s="53">
         <v>13</v>
       </c>
-      <c r="E6" s="102">
+      <c r="E6" s="53">
         <v>2</v>
       </c>
-      <c r="F6" s="102"/>
-      <c r="G6" s="102"/>
-      <c r="H6" s="102"/>
-      <c r="I6" s="102">
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53">
+        <f>(D6*100+E6*200)+(F6*100+G6*600)+H6</f>
+        <v>1700</v>
+      </c>
+      <c r="J6" s="53">
+        <v>127</v>
+      </c>
+      <c r="K6" s="56">
         <f t="shared" si="0"/>
-        <v>1700</v>
-      </c>
-      <c r="J6" s="102">
+        <v>13.385826771653543</v>
+      </c>
+      <c r="L6" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="M6" s="56">
+        <v>1</v>
+      </c>
+      <c r="N6" s="56">
+        <v>1</v>
+      </c>
+      <c r="O6" s="56">
+        <f>K6/L6*M6*N6</f>
+        <v>22.309711286089239</v>
+      </c>
+      <c r="P6" s="56">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="53">
+        <v>3</v>
+      </c>
+      <c r="C7" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53">
+        <v>3</v>
+      </c>
+      <c r="G7" s="53">
+        <v>3</v>
+      </c>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53">
+        <f>(D7*100+E7*200)+(F7*100+G7*600)+H7</f>
+        <v>2100</v>
+      </c>
+      <c r="J7" s="53">
         <v>127</v>
       </c>
-      <c r="K6" s="109">
+      <c r="K7" s="56">
+        <f t="shared" si="0"/>
+        <v>16.535433070866141</v>
+      </c>
+      <c r="L7" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="M7" s="56">
+        <v>1</v>
+      </c>
+      <c r="N7" s="56">
+        <v>1</v>
+      </c>
+      <c r="O7" s="56">
+        <f t="shared" ref="O7:O25" si="1">K7/L7*M7*N7</f>
+        <v>27.559055118110237</v>
+      </c>
+      <c r="P7" s="56">
+        <v>28</v>
+      </c>
+      <c r="Q7" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="53">
+        <v>4</v>
+      </c>
+      <c r="C8" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53">
+        <v>1</v>
+      </c>
+      <c r="G8" s="53">
+        <v>3</v>
+      </c>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53">
+        <f>(D8*100+E8*200)+(F8*100+G8*600)+H8</f>
+        <v>1900</v>
+      </c>
+      <c r="J8" s="53">
+        <v>127</v>
+      </c>
+      <c r="K8" s="56">
+        <f t="shared" si="0"/>
+        <v>14.960629921259843</v>
+      </c>
+      <c r="L8" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="M8" s="56">
+        <v>1</v>
+      </c>
+      <c r="N8" s="56">
+        <v>1</v>
+      </c>
+      <c r="O8" s="56">
         <f t="shared" si="1"/>
-        <v>13.385826771653543</v>
-      </c>
-      <c r="L6" s="109">
+        <v>24.934383202099738</v>
+      </c>
+      <c r="P8" s="56">
+        <v>28</v>
+      </c>
+      <c r="Q8" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="53">
+        <v>5</v>
+      </c>
+      <c r="C9" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53">
+        <v>1</v>
+      </c>
+      <c r="G9" s="53">
+        <v>3</v>
+      </c>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53">
+        <f>(D9*100+E9*200)+(F9*100+G9*600)+H9</f>
+        <v>1900</v>
+      </c>
+      <c r="J9" s="53">
+        <v>127</v>
+      </c>
+      <c r="K9" s="56">
+        <f t="shared" si="0"/>
+        <v>14.960629921259843</v>
+      </c>
+      <c r="L9" s="56">
         <v>0.6</v>
       </c>
-      <c r="M6" s="109">
+      <c r="M9" s="56">
         <v>1</v>
       </c>
-      <c r="N6" s="109">
+      <c r="N9" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="2:14">
-      <c r="B7" s="102">
+      <c r="O9" s="56">
+        <f t="shared" si="1"/>
+        <v>24.934383202099738</v>
+      </c>
+      <c r="P9" s="56">
+        <v>28</v>
+      </c>
+      <c r="Q9" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="53">
+        <v>6</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53">
+        <v>1</v>
+      </c>
+      <c r="G10" s="53">
+        <v>4</v>
+      </c>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53">
+        <f>(D10*100+E10*200)+(F10*100+G10*600)+H10</f>
+        <v>2500</v>
+      </c>
+      <c r="J10" s="53">
+        <v>127</v>
+      </c>
+      <c r="K10" s="56">
+        <f t="shared" si="0"/>
+        <v>19.685039370078741</v>
+      </c>
+      <c r="L10" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="M10" s="56">
+        <v>1</v>
+      </c>
+      <c r="N10" s="56">
+        <v>1</v>
+      </c>
+      <c r="O10" s="56">
+        <f t="shared" si="1"/>
+        <v>32.808398950131235</v>
+      </c>
+      <c r="P10" s="56">
+        <v>36</v>
+      </c>
+      <c r="Q10" s="56">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="53">
+        <v>7</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53">
+        <v>2</v>
+      </c>
+      <c r="G11" s="53">
         <v>3</v>
       </c>
-      <c r="C7" s="102" t="s">
-        <v>80</v>
-      </c>
-      <c r="D7" s="102"/>
-      <c r="E7" s="102"/>
-      <c r="F7" s="102">
+      <c r="H11" s="53"/>
+      <c r="I11" s="53">
+        <f>(D11*100+E11*200)+(F11*100+G11*600)+H11</f>
+        <v>2000</v>
+      </c>
+      <c r="J11" s="53">
+        <v>127</v>
+      </c>
+      <c r="K11" s="56">
+        <f t="shared" si="0"/>
+        <v>15.748031496062993</v>
+      </c>
+      <c r="L11" s="56">
+        <v>0.65</v>
+      </c>
+      <c r="M11" s="56">
+        <v>1</v>
+      </c>
+      <c r="N11" s="56">
+        <v>1</v>
+      </c>
+      <c r="O11" s="56">
+        <f t="shared" si="1"/>
+        <v>24.227740763173834</v>
+      </c>
+      <c r="P11" s="56">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="53">
+        <v>8</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53">
+        <v>2</v>
+      </c>
+      <c r="G12" s="53">
         <v>3</v>
       </c>
-      <c r="G7" s="102">
+      <c r="H12" s="53"/>
+      <c r="I12" s="53">
+        <f>(D12*100+E12*200)+(F12*100+G12*600)+H12</f>
+        <v>2000</v>
+      </c>
+      <c r="J12" s="53">
+        <v>127</v>
+      </c>
+      <c r="K12" s="56">
+        <f t="shared" si="0"/>
+        <v>15.748031496062993</v>
+      </c>
+      <c r="L12" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="M12" s="56">
+        <v>1</v>
+      </c>
+      <c r="N12" s="56">
+        <v>1</v>
+      </c>
+      <c r="O12" s="56">
+        <f t="shared" si="1"/>
+        <v>26.246719160104988</v>
+      </c>
+      <c r="P12" s="56">
+        <v>28</v>
+      </c>
+      <c r="Q12" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="B13" s="53">
+        <v>9</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53">
+        <v>2</v>
+      </c>
+      <c r="G13" s="53">
         <v>3</v>
       </c>
-      <c r="H7" s="102"/>
-      <c r="I7" s="102">
+      <c r="H13" s="53"/>
+      <c r="I13" s="53">
+        <f>(D13*100+E13*200)+(F13*100+G13*600)+H13</f>
+        <v>2000</v>
+      </c>
+      <c r="J13" s="53">
+        <v>127</v>
+      </c>
+      <c r="K13" s="56">
         <f t="shared" si="0"/>
-        <v>2100</v>
-      </c>
-      <c r="J7" s="102">
+        <v>15.748031496062993</v>
+      </c>
+      <c r="L13" s="56">
+        <v>0.65</v>
+      </c>
+      <c r="M13" s="56">
+        <v>1</v>
+      </c>
+      <c r="N13" s="56">
+        <v>1</v>
+      </c>
+      <c r="O13" s="56">
+        <f t="shared" si="1"/>
+        <v>24.227740763173834</v>
+      </c>
+      <c r="P13" s="56">
+        <v>28</v>
+      </c>
+      <c r="Q13" s="56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="53">
+        <v>10</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53">
+        <v>5400</v>
+      </c>
+      <c r="I14" s="53">
+        <f>(D14*100+E14*200)+(F14*100+G14*600)+H14</f>
+        <v>5400</v>
+      </c>
+      <c r="J14" s="53">
+        <v>220</v>
+      </c>
+      <c r="K14" s="56">
+        <f t="shared" si="0"/>
+        <v>24.545454545454547</v>
+      </c>
+      <c r="L14" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="M14" s="56">
+        <v>1</v>
+      </c>
+      <c r="N14" s="56">
+        <v>1</v>
+      </c>
+      <c r="O14" s="56">
+        <f t="shared" si="1"/>
+        <v>40.909090909090914</v>
+      </c>
+      <c r="P14" s="56">
+        <v>50</v>
+      </c>
+      <c r="Q14" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="53">
+        <v>11</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53">
+        <v>5400</v>
+      </c>
+      <c r="I15" s="53">
+        <f>(D15*100+E15*200)+(F15*100+G15*600)+H15</f>
+        <v>5400</v>
+      </c>
+      <c r="J15" s="53">
+        <v>220</v>
+      </c>
+      <c r="K15" s="56">
+        <f t="shared" si="0"/>
+        <v>24.545454545454547</v>
+      </c>
+      <c r="L15" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="M15" s="56">
+        <v>1</v>
+      </c>
+      <c r="N15" s="56">
+        <v>1</v>
+      </c>
+      <c r="O15" s="56">
+        <f t="shared" si="1"/>
+        <v>40.909090909090914</v>
+      </c>
+      <c r="P15" s="56">
+        <v>50</v>
+      </c>
+      <c r="Q15" s="56">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="B16" s="53">
+        <v>12</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="53"/>
+      <c r="E16" s="53"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="53"/>
+      <c r="H16" s="53">
+        <v>2625</v>
+      </c>
+      <c r="I16" s="53">
+        <f>(D16*100+E16*200)+(F16*100+G16*600)+H16</f>
+        <v>2625</v>
+      </c>
+      <c r="J16" s="53">
+        <v>220</v>
+      </c>
+      <c r="K16" s="56">
+        <f t="shared" si="0"/>
+        <v>11.931818181818182</v>
+      </c>
+      <c r="L16" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="M16" s="56">
+        <v>1</v>
+      </c>
+      <c r="N16" s="56">
+        <v>1</v>
+      </c>
+      <c r="O16" s="56">
+        <f t="shared" si="1"/>
+        <v>19.886363636363637</v>
+      </c>
+      <c r="P16" s="56">
+        <v>21</v>
+      </c>
+      <c r="Q16" s="56">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="53">
+        <v>13</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="53"/>
+      <c r="E17" s="53"/>
+      <c r="F17" s="53"/>
+      <c r="G17" s="53"/>
+      <c r="H17" s="53">
+        <v>1650</v>
+      </c>
+      <c r="I17" s="53">
+        <f>(D17*100+E17*200)+(F17*100+G17*600)+H17</f>
+        <v>1650</v>
+      </c>
+      <c r="J17" s="53">
+        <v>220</v>
+      </c>
+      <c r="K17" s="56">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="L17" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="M17" s="56">
+        <v>1</v>
+      </c>
+      <c r="N17" s="56">
+        <v>1</v>
+      </c>
+      <c r="O17" s="56">
+        <f t="shared" si="1"/>
+        <v>12.5</v>
+      </c>
+      <c r="P17" s="56">
+        <v>15.5</v>
+      </c>
+      <c r="Q17" s="126">
+        <v>1.5</v>
+      </c>
+      <c r="R17" s="127" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="B18" s="53">
+        <v>14</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D18" s="53"/>
+      <c r="E18" s="53"/>
+      <c r="F18" s="53"/>
+      <c r="G18" s="53"/>
+      <c r="H18" s="53">
+        <v>1650</v>
+      </c>
+      <c r="I18" s="53">
+        <f>(D18*100+E18*200)+(F18*100+G18*600)+H18</f>
+        <v>1650</v>
+      </c>
+      <c r="J18" s="53">
+        <v>220</v>
+      </c>
+      <c r="K18" s="56">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+      <c r="L18" s="56">
+        <v>0.65</v>
+      </c>
+      <c r="M18" s="56">
+        <v>1</v>
+      </c>
+      <c r="N18" s="56">
+        <v>1</v>
+      </c>
+      <c r="O18" s="56">
+        <f t="shared" si="1"/>
+        <v>11.538461538461538</v>
+      </c>
+      <c r="P18" s="56">
+        <v>12</v>
+      </c>
+      <c r="Q18" s="128">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="B19" s="53">
+        <v>15</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53">
+        <v>400</v>
+      </c>
+      <c r="I19" s="53">
+        <f>(D19*100+E19*200)+(F19*100+G19*600)+H19</f>
+        <v>400</v>
+      </c>
+      <c r="J19" s="53">
         <v>127</v>
       </c>
-      <c r="K7" s="109">
+      <c r="K19" s="56">
+        <f t="shared" si="0"/>
+        <v>3.1496062992125986</v>
+      </c>
+      <c r="L19" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="M19" s="56">
+        <v>1</v>
+      </c>
+      <c r="N19" s="56">
+        <v>1</v>
+      </c>
+      <c r="O19" s="56">
         <f t="shared" si="1"/>
-        <v>16.535433070866141</v>
-      </c>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109">
+        <v>5.2493438320209975</v>
+      </c>
+      <c r="P19" s="56">
+        <v>8</v>
+      </c>
+      <c r="Q19" s="128">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="B20" s="53">
+        <v>16</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53"/>
+      <c r="H20" s="57">
+        <v>1760</v>
+      </c>
+      <c r="I20" s="53">
+        <f>(D20*100+E20*200)+(F20*100+G20*600)+H20</f>
+        <v>1760</v>
+      </c>
+      <c r="J20" s="53">
+        <v>220</v>
+      </c>
+      <c r="K20" s="56">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="L20" s="56">
+        <v>0.6</v>
+      </c>
+      <c r="M20" s="56">
         <v>1</v>
       </c>
-      <c r="N7" s="109">
+      <c r="N20" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="2:14">
-      <c r="B8" s="102">
-        <v>4</v>
-      </c>
-      <c r="C8" s="102" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="102"/>
-      <c r="E8" s="102"/>
-      <c r="F8" s="102">
+      <c r="O20" s="56">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="P20" s="56">
+        <v>15.5</v>
+      </c>
+      <c r="Q20" s="128">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="B21" s="53">
+        <v>17</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="53"/>
+      <c r="E21" s="53"/>
+      <c r="F21" s="53"/>
+      <c r="G21" s="53"/>
+      <c r="H21" s="57">
+        <v>300</v>
+      </c>
+      <c r="I21" s="53">
+        <f>(D21*100+E21*200)+(F21*100+G21*600)+H21</f>
+        <v>300</v>
+      </c>
+      <c r="J21" s="53">
+        <v>220</v>
+      </c>
+      <c r="K21" s="56">
+        <f t="shared" si="0"/>
+        <v>1.3636363636363635</v>
+      </c>
+      <c r="L21" s="56">
+        <v>0.65</v>
+      </c>
+      <c r="M21" s="56">
         <v>1</v>
       </c>
-      <c r="G8" s="102">
-        <v>3</v>
-      </c>
-      <c r="H8" s="102"/>
-      <c r="I8" s="102">
+      <c r="N21" s="56">
+        <v>1</v>
+      </c>
+      <c r="O21" s="56">
+        <f t="shared" si="1"/>
+        <v>2.0979020979020975</v>
+      </c>
+      <c r="P21" s="56">
+        <v>8</v>
+      </c>
+      <c r="Q21" s="128">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:18">
+      <c r="B22" s="53">
+        <v>18</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53">
+        <v>1</v>
+      </c>
+      <c r="H22" s="57"/>
+      <c r="I22" s="53">
+        <v>600</v>
+      </c>
+      <c r="J22" s="53">
+        <v>127</v>
+      </c>
+      <c r="K22" s="56">
         <f t="shared" si="0"/>
-        <v>1900</v>
-      </c>
-      <c r="J8" s="102">
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="L22" s="56">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M22" s="56">
+        <v>1</v>
+      </c>
+      <c r="N22" s="56">
+        <v>1</v>
+      </c>
+      <c r="O22" s="56">
+        <f t="shared" si="1"/>
+        <v>8.2884376295068378</v>
+      </c>
+      <c r="P22" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q22" s="56">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18">
+      <c r="B23" s="53">
+        <v>19</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="53">
+        <v>1</v>
+      </c>
+      <c r="H23" s="57"/>
+      <c r="I23" s="53">
+        <v>600</v>
+      </c>
+      <c r="J23" s="53">
         <v>127</v>
       </c>
-      <c r="K8" s="109">
+      <c r="K23" s="56">
+        <f t="shared" si="0"/>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="L23" s="56">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M23" s="56">
+        <v>1</v>
+      </c>
+      <c r="N23" s="56">
+        <v>1</v>
+      </c>
+      <c r="O23" s="56">
         <f t="shared" si="1"/>
-        <v>14.960629921259843</v>
-      </c>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109">
+        <v>8.2884376295068378</v>
+      </c>
+      <c r="P23" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q23" s="56">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18">
+      <c r="B24" s="53">
+        <v>20</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="53">
         <v>1</v>
       </c>
-      <c r="N8" s="109">
+      <c r="H24" s="57"/>
+      <c r="I24" s="53">
+        <v>600</v>
+      </c>
+      <c r="J24" s="53">
+        <v>127</v>
+      </c>
+      <c r="K24" s="56">
+        <f t="shared" si="0"/>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="L24" s="56">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M24" s="56">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="2:14">
-      <c r="B9" s="102">
-        <v>5</v>
-      </c>
-      <c r="C9" s="102" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102">
+      <c r="N24" s="56">
         <v>1</v>
       </c>
-      <c r="G9" s="102">
-        <v>3</v>
-      </c>
-      <c r="H9" s="102"/>
-      <c r="I9" s="102">
+      <c r="O24" s="56">
+        <f t="shared" si="1"/>
+        <v>8.2884376295068378</v>
+      </c>
+      <c r="P24" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q24" s="56">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18">
+      <c r="B25" s="53">
+        <v>21</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="53">
+        <v>1</v>
+      </c>
+      <c r="H25" s="57"/>
+      <c r="I25" s="53">
+        <v>600</v>
+      </c>
+      <c r="J25" s="53">
+        <v>127</v>
+      </c>
+      <c r="K25" s="56">
         <f t="shared" si="0"/>
-        <v>1900</v>
-      </c>
-      <c r="J9" s="102">
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="L25" s="56">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="M25" s="56">
+        <v>1</v>
+      </c>
+      <c r="N25" s="56">
+        <v>1</v>
+      </c>
+      <c r="O25" s="56">
+        <f t="shared" si="1"/>
+        <v>8.2884376295068378</v>
+      </c>
+      <c r="P25" s="56">
+        <v>10</v>
+      </c>
+      <c r="Q25" s="56">
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18">
+      <c r="B26" s="122">
+        <v>22</v>
+      </c>
+      <c r="C26" s="122" t="s">
+        <v>125</v>
+      </c>
+      <c r="D26" s="122"/>
+      <c r="E26" s="122"/>
+      <c r="F26" s="122"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="122">
+        <f>SUM(I5:I25)</f>
+        <v>38885</v>
+      </c>
+      <c r="J26" s="122"/>
+      <c r="K26" s="124"/>
+      <c r="L26" s="124"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="124"/>
+      <c r="O26" s="124"/>
+      <c r="P26" s="124"/>
+      <c r="Q26" s="124"/>
+    </row>
+    <row r="28" spans="2:18" ht="31.5" customHeight="1">
+      <c r="B28" s="138" t="s">
         <v>127</v>
       </c>
-      <c r="K9" s="109">
-        <f t="shared" si="1"/>
-        <v>14.960629921259843</v>
-      </c>
-      <c r="L9" s="109"/>
-      <c r="M9" s="109">
-        <v>1</v>
-      </c>
-      <c r="N9" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:14">
-      <c r="B10" s="102">
-        <v>6</v>
-      </c>
-      <c r="C10" s="102" t="s">
-        <v>83</v>
-      </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="102">
-        <v>1</v>
-      </c>
-      <c r="G10" s="102">
-        <v>4</v>
-      </c>
-      <c r="H10" s="102"/>
-      <c r="I10" s="102">
-        <f t="shared" si="0"/>
-        <v>2500</v>
-      </c>
-      <c r="J10" s="102">
-        <v>127</v>
-      </c>
-      <c r="K10" s="109">
-        <f t="shared" si="1"/>
-        <v>19.685039370078741</v>
-      </c>
-      <c r="L10" s="109"/>
-      <c r="M10" s="109">
-        <v>1</v>
-      </c>
-      <c r="N10" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="2:14">
-      <c r="B11" s="102">
-        <v>7</v>
-      </c>
-      <c r="C11" s="102" t="s">
-        <v>84</v>
-      </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="102">
-        <v>2</v>
-      </c>
-      <c r="G11" s="102">
-        <v>3</v>
-      </c>
-      <c r="H11" s="102"/>
-      <c r="I11" s="102">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="J11" s="102">
-        <v>127</v>
-      </c>
-      <c r="K11" s="109">
-        <f t="shared" si="1"/>
-        <v>15.748031496062993</v>
-      </c>
-      <c r="L11" s="109"/>
-      <c r="M11" s="109">
-        <v>1</v>
-      </c>
-      <c r="N11" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="2:14">
-      <c r="B12" s="102">
-        <v>8</v>
-      </c>
-      <c r="C12" s="102" t="s">
-        <v>85</v>
-      </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="102">
-        <v>2</v>
-      </c>
-      <c r="G12" s="102">
-        <v>3</v>
-      </c>
-      <c r="H12" s="102"/>
-      <c r="I12" s="102">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="J12" s="102">
-        <v>127</v>
-      </c>
-      <c r="K12" s="109">
-        <f t="shared" si="1"/>
-        <v>15.748031496062993</v>
-      </c>
-      <c r="L12" s="109"/>
-      <c r="M12" s="109">
-        <v>1</v>
-      </c>
-      <c r="N12" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="2:14">
-      <c r="B13" s="102">
-        <v>9</v>
-      </c>
-      <c r="C13" s="102" t="s">
-        <v>86</v>
-      </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="102">
-        <v>2</v>
-      </c>
-      <c r="G13" s="102">
-        <v>3</v>
-      </c>
-      <c r="H13" s="102"/>
-      <c r="I13" s="102">
-        <f t="shared" si="0"/>
-        <v>2000</v>
-      </c>
-      <c r="J13" s="102">
-        <v>127</v>
-      </c>
-      <c r="K13" s="109">
-        <f t="shared" si="1"/>
-        <v>15.748031496062993</v>
-      </c>
-      <c r="L13" s="109"/>
-      <c r="M13" s="109">
-        <v>1</v>
-      </c>
-      <c r="N13" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:14">
-      <c r="B14" s="102">
-        <v>10</v>
-      </c>
-      <c r="C14" s="102" t="s">
-        <v>87</v>
-      </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="102"/>
-      <c r="H14" s="102">
-        <v>5400</v>
-      </c>
-      <c r="I14" s="102">
-        <f t="shared" si="0"/>
-        <v>5400</v>
-      </c>
-      <c r="J14" s="102">
-        <v>220</v>
-      </c>
-      <c r="K14" s="109">
-        <f t="shared" si="1"/>
-        <v>24.545454545454547</v>
-      </c>
-      <c r="L14" s="109"/>
-      <c r="M14" s="109">
-        <v>1</v>
-      </c>
-      <c r="N14" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="2:14">
-      <c r="B15" s="102">
-        <v>11</v>
-      </c>
-      <c r="C15" s="102" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102">
-        <v>5400</v>
-      </c>
-      <c r="I15" s="102">
-        <f t="shared" si="0"/>
-        <v>5400</v>
-      </c>
-      <c r="J15" s="102">
-        <v>220</v>
-      </c>
-      <c r="K15" s="109">
-        <f t="shared" si="1"/>
-        <v>24.545454545454547</v>
-      </c>
-      <c r="L15" s="109"/>
-      <c r="M15" s="109">
-        <v>1</v>
-      </c>
-      <c r="N15" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:14">
-      <c r="B16" s="102">
-        <v>12</v>
-      </c>
-      <c r="C16" s="102" t="s">
-        <v>89</v>
-      </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="102"/>
-      <c r="H16" s="102">
-        <v>2625</v>
-      </c>
-      <c r="I16" s="102">
-        <f t="shared" si="0"/>
-        <v>2625</v>
-      </c>
-      <c r="J16" s="102">
-        <v>220</v>
-      </c>
-      <c r="K16" s="109">
-        <f t="shared" si="1"/>
-        <v>11.931818181818182</v>
-      </c>
-      <c r="L16" s="109"/>
-      <c r="M16" s="109">
-        <v>1</v>
-      </c>
-      <c r="N16" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14">
-      <c r="B17" s="102">
-        <v>13</v>
-      </c>
-      <c r="C17" s="102" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="102"/>
-      <c r="H17" s="102">
-        <v>1650</v>
-      </c>
-      <c r="I17" s="102">
-        <f t="shared" si="0"/>
-        <v>1650</v>
-      </c>
-      <c r="J17" s="102">
-        <v>220</v>
-      </c>
-      <c r="K17" s="109">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="L17" s="109"/>
-      <c r="M17" s="109">
-        <v>1</v>
-      </c>
-      <c r="N17" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14">
-      <c r="B18" s="102">
-        <v>14</v>
-      </c>
-      <c r="C18" s="102" t="s">
-        <v>91</v>
-      </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="102"/>
-      <c r="H18" s="102">
-        <v>1650</v>
-      </c>
-      <c r="I18" s="102">
-        <f t="shared" si="0"/>
-        <v>1650</v>
-      </c>
-      <c r="J18" s="102">
-        <v>220</v>
-      </c>
-      <c r="K18" s="109">
-        <f t="shared" si="1"/>
-        <v>7.5</v>
-      </c>
-      <c r="L18" s="109"/>
-      <c r="M18" s="109">
-        <v>1</v>
-      </c>
-      <c r="N18" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14">
-      <c r="B19" s="102">
-        <v>15</v>
-      </c>
-      <c r="C19" s="102" t="s">
-        <v>92</v>
-      </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102">
-        <v>400</v>
-      </c>
-      <c r="I19" s="102">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="J19" s="102">
-        <v>127</v>
-      </c>
-      <c r="K19" s="109">
-        <f t="shared" si="1"/>
-        <v>3.1496062992125986</v>
-      </c>
-      <c r="L19" s="109"/>
-      <c r="M19" s="109">
-        <v>1</v>
-      </c>
-      <c r="N19" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14">
-      <c r="B20" s="102">
-        <v>16</v>
-      </c>
-      <c r="C20" s="102" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="102"/>
-      <c r="H20" s="110">
-        <v>1760</v>
-      </c>
-      <c r="I20" s="102">
-        <f t="shared" si="0"/>
-        <v>1760</v>
-      </c>
-      <c r="J20" s="102">
-        <v>220</v>
-      </c>
-      <c r="K20" s="109">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="L20" s="109"/>
-      <c r="M20" s="109">
-        <v>1</v>
-      </c>
-      <c r="N20" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14">
-      <c r="B21" s="102">
-        <v>17</v>
-      </c>
-      <c r="C21" s="102" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="102"/>
-      <c r="H21" s="110">
-        <v>300</v>
-      </c>
-      <c r="I21" s="102">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="J21" s="102">
-        <v>220</v>
-      </c>
-      <c r="K21" s="109">
-        <f t="shared" si="1"/>
-        <v>1.3636363636363635</v>
-      </c>
-      <c r="L21" s="109"/>
-      <c r="M21" s="109">
-        <v>1</v>
-      </c>
-      <c r="N21" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14">
-      <c r="B22" s="102">
-        <v>18</v>
-      </c>
-      <c r="C22" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="102">
-        <v>1</v>
-      </c>
-      <c r="H22" s="110"/>
-      <c r="I22" s="102">
-        <v>600</v>
-      </c>
-      <c r="J22" s="102">
-        <v>127</v>
-      </c>
-      <c r="K22" s="109">
-        <f t="shared" si="1"/>
-        <v>4.7244094488188972</v>
-      </c>
-      <c r="L22" s="109"/>
-      <c r="M22" s="109">
-        <v>1</v>
-      </c>
-      <c r="N22" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14">
-      <c r="B23" s="102">
-        <v>19</v>
-      </c>
-      <c r="C23" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="102">
-        <v>1</v>
-      </c>
-      <c r="H23" s="110"/>
-      <c r="I23" s="102">
-        <v>600</v>
-      </c>
-      <c r="J23" s="102">
-        <v>127</v>
-      </c>
-      <c r="K23" s="109">
-        <f t="shared" si="1"/>
-        <v>4.7244094488188972</v>
-      </c>
-      <c r="L23" s="109"/>
-      <c r="M23" s="109">
-        <v>1</v>
-      </c>
-      <c r="N23" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14">
-      <c r="B24" s="102">
-        <v>20</v>
-      </c>
-      <c r="C24" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="102">
-        <v>1</v>
-      </c>
-      <c r="H24" s="110"/>
-      <c r="I24" s="102">
-        <v>600</v>
-      </c>
-      <c r="J24" s="102">
-        <v>127</v>
-      </c>
-      <c r="K24" s="109">
-        <f t="shared" si="1"/>
-        <v>4.7244094488188972</v>
-      </c>
-      <c r="L24" s="109"/>
-      <c r="M24" s="109">
-        <v>1</v>
-      </c>
-      <c r="N24" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="2:14">
-      <c r="B25" s="102">
-        <v>21</v>
-      </c>
-      <c r="C25" s="102" t="s">
-        <v>95</v>
-      </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="102">
-        <v>1</v>
-      </c>
-      <c r="H25" s="110"/>
-      <c r="I25" s="102">
-        <v>600</v>
-      </c>
-      <c r="J25" s="102">
-        <v>127</v>
-      </c>
-      <c r="K25" s="109">
-        <f t="shared" si="1"/>
-        <v>4.7244094488188972</v>
-      </c>
-      <c r="L25" s="109"/>
-      <c r="M25" s="109">
-        <v>1</v>
-      </c>
-      <c r="N25" s="109">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="47.25" customHeight="1">
-      <c r="B28" s="112" t="s">
+      <c r="C28" s="139"/>
+      <c r="D28" s="139"/>
+      <c r="E28" s="139"/>
+      <c r="F28" s="139"/>
+      <c r="G28" s="139"/>
+      <c r="H28" s="139"/>
+      <c r="I28" s="139"/>
+      <c r="J28" s="139"/>
+      <c r="K28" s="139"/>
+      <c r="L28" s="139"/>
+      <c r="M28" s="139"/>
+      <c r="N28" s="139"/>
+      <c r="O28" s="140"/>
+    </row>
+    <row r="29" spans="2:18" s="115" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B29" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="C29" s="114"/>
+      <c r="D29" s="114"/>
+      <c r="E29" s="114"/>
+      <c r="F29" s="114"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="114"/>
+      <c r="I29" s="114"/>
+      <c r="J29" s="114"/>
+      <c r="K29" s="114"/>
+      <c r="L29" s="114"/>
+      <c r="M29" s="114"/>
+      <c r="N29" s="114"/>
+      <c r="O29" s="142"/>
+    </row>
+    <row r="30" spans="2:18" s="115" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B30" s="141" t="s">
+        <v>133</v>
+      </c>
+      <c r="C30" s="114"/>
+      <c r="D30" s="114"/>
+      <c r="E30" s="114"/>
+      <c r="F30" s="114"/>
+      <c r="G30" s="114"/>
+      <c r="H30" s="114"/>
+      <c r="I30" s="114"/>
+      <c r="J30" s="114"/>
+      <c r="K30" s="114"/>
+      <c r="L30" s="114"/>
+      <c r="M30" s="114"/>
+      <c r="N30" s="114"/>
+      <c r="O30" s="142"/>
+    </row>
+    <row r="31" spans="2:18" s="115" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B31" s="141"/>
+      <c r="C31" s="114"/>
+      <c r="D31" s="114"/>
+      <c r="E31" s="114"/>
+      <c r="F31" s="114"/>
+      <c r="G31" s="114"/>
+      <c r="H31" s="114"/>
+      <c r="I31" s="114"/>
+      <c r="J31" s="114"/>
+      <c r="K31" s="114"/>
+      <c r="L31" s="114"/>
+      <c r="M31" s="114"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="142"/>
+    </row>
+    <row r="32" spans="2:18" s="115" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B32" s="141"/>
+      <c r="C32" s="114"/>
+      <c r="D32" s="114"/>
+      <c r="E32" s="114"/>
+      <c r="F32" s="114"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="114"/>
+      <c r="I32" s="114"/>
+      <c r="J32" s="114"/>
+      <c r="K32" s="114"/>
+      <c r="L32" s="114"/>
+      <c r="M32" s="114"/>
+      <c r="N32" s="114"/>
+      <c r="O32" s="142"/>
+    </row>
+    <row r="33" spans="1:16" s="115" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B33" s="143"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+      <c r="H33" s="144"/>
+      <c r="I33" s="144"/>
+      <c r="J33" s="144"/>
+      <c r="K33" s="144"/>
+      <c r="L33" s="144"/>
+      <c r="M33" s="144"/>
+      <c r="N33" s="144"/>
+      <c r="O33" s="145"/>
+    </row>
+    <row r="34" spans="1:16" s="115" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="125"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="125"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="125"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="125"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="125"/>
+      <c r="M34" s="125"/>
+      <c r="N34" s="125"/>
+      <c r="O34" s="125"/>
+    </row>
+    <row r="35" spans="1:16" ht="16.5" thickBot="1">
+      <c r="A35" s="120"/>
+      <c r="B35" s="120"/>
+      <c r="C35" s="120"/>
+      <c r="D35" s="120"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="120"/>
+      <c r="G35" s="120"/>
+      <c r="H35" s="120"/>
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="120"/>
+      <c r="M35" s="120"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="120"/>
+    </row>
+    <row r="36" spans="1:16" ht="47.25" customHeight="1">
+      <c r="A36" s="118" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="113" t="s">
+      <c r="B36" s="118"/>
+      <c r="C36" s="118"/>
+      <c r="D36" s="119" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="29" spans="2:14">
-      <c r="B29" s="106"/>
-      <c r="C29" s="106"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="106"/>
-      <c r="F29" s="106"/>
-      <c r="G29" s="106"/>
-      <c r="H29" s="106"/>
-      <c r="I29" s="106"/>
-      <c r="J29" s="106"/>
-      <c r="K29" s="106"/>
-      <c r="L29" s="106"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="106"/>
-    </row>
-    <row r="30" spans="2:14">
-      <c r="B30" s="106" t="s">
+      <c r="E36" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="F36" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" s="119"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="B37" s="111"/>
+      <c r="C37" s="111"/>
+      <c r="D37" s="111"/>
+      <c r="E37" s="111"/>
+      <c r="F37" s="111"/>
+      <c r="G37" s="111"/>
+      <c r="H37" s="111"/>
+      <c r="I37" s="111"/>
+      <c r="J37" s="111"/>
+      <c r="K37" s="111"/>
+      <c r="L37" s="111"/>
+      <c r="M37" s="111"/>
+      <c r="N37" s="111"/>
+    </row>
+    <row r="38" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A38" s="117" t="s">
         <v>120</v>
       </c>
-      <c r="C30" s="106"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="106"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="106"/>
-      <c r="H30" s="106"/>
-      <c r="I30" s="106"/>
-      <c r="J30" s="106"/>
-      <c r="K30" s="106"/>
-      <c r="L30" s="106"/>
-      <c r="M30" s="106"/>
-      <c r="N30" s="106"/>
-    </row>
-    <row r="31" spans="2:14">
-      <c r="B31" s="106" t="s">
+      <c r="B38" s="117"/>
+      <c r="C38" s="117"/>
+      <c r="D38" s="117"/>
+      <c r="E38" s="117"/>
+      <c r="F38" s="117"/>
+      <c r="G38" s="117"/>
+      <c r="H38" s="117"/>
+      <c r="I38" s="117"/>
+      <c r="J38" s="117"/>
+      <c r="K38" s="117"/>
+      <c r="L38" s="117"/>
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+    </row>
+    <row r="39" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A39" s="117" t="s">
         <v>121</v>
       </c>
-      <c r="C31" s="106"/>
-      <c r="D31" s="106"/>
-      <c r="E31" s="106"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="106"/>
-      <c r="H31" s="106"/>
-      <c r="I31" s="106"/>
-      <c r="J31" s="106"/>
-      <c r="K31" s="106"/>
-      <c r="L31" s="106"/>
-      <c r="M31" s="106"/>
-      <c r="N31" s="106"/>
-    </row>
-    <row r="32" spans="2:14">
-      <c r="B32" s="106"/>
-      <c r="C32" s="106"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="106"/>
-      <c r="F32" s="106"/>
-      <c r="G32" s="106"/>
-      <c r="H32" s="106"/>
-      <c r="I32" s="106"/>
-      <c r="J32" s="106"/>
-      <c r="K32" s="106"/>
-      <c r="L32" s="106"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="106"/>
-    </row>
-    <row r="33" spans="2:14">
-      <c r="B33" s="106"/>
-      <c r="C33" s="106"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="106"/>
-      <c r="I33" s="106"/>
-      <c r="J33" s="106"/>
-      <c r="K33" s="106"/>
-      <c r="L33" s="106"/>
-      <c r="M33" s="106"/>
-      <c r="N33" s="106"/>
-    </row>
-    <row r="34" spans="2:14">
-      <c r="B34" s="106"/>
-      <c r="C34" s="106"/>
-      <c r="D34" s="106"/>
-      <c r="E34" s="106"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="106"/>
-      <c r="H34" s="106"/>
-      <c r="I34" s="106"/>
-      <c r="J34" s="106"/>
-      <c r="K34" s="106"/>
-      <c r="L34" s="106"/>
-      <c r="M34" s="106"/>
-      <c r="N34" s="106"/>
-    </row>
-    <row r="35" spans="2:14">
-      <c r="B35" s="106"/>
-      <c r="C35" s="106"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="106"/>
-      <c r="G35" s="106"/>
-      <c r="H35" s="106"/>
-      <c r="I35" s="106"/>
-      <c r="J35" s="106"/>
-      <c r="K35" s="106"/>
-      <c r="L35" s="106"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="106"/>
-    </row>
-    <row r="36" spans="2:14">
-      <c r="B36" s="106"/>
-      <c r="C36" s="106"/>
-      <c r="D36" s="106"/>
-      <c r="E36" s="106"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="106"/>
-      <c r="H36" s="106"/>
-      <c r="I36" s="106"/>
-      <c r="J36" s="106"/>
-      <c r="K36" s="106"/>
-      <c r="L36" s="106"/>
-      <c r="M36" s="106"/>
-      <c r="N36" s="106"/>
-    </row>
-    <row r="37" spans="2:14">
-      <c r="B37" s="106"/>
-      <c r="C37" s="106"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="106"/>
-      <c r="F37" s="106"/>
-      <c r="G37" s="106"/>
-      <c r="H37" s="106"/>
-      <c r="I37" s="106"/>
-      <c r="J37" s="106"/>
-      <c r="K37" s="106"/>
-      <c r="L37" s="106"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-    </row>
-    <row r="38" spans="2:14">
-      <c r="B38" s="106"/>
-      <c r="C38" s="106"/>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="106"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="106"/>
-    </row>
-    <row r="39" spans="2:14">
-      <c r="B39" s="106"/>
-      <c r="C39" s="106"/>
-      <c r="D39" s="106"/>
-      <c r="E39" s="106"/>
-      <c r="F39" s="106"/>
-      <c r="G39" s="106"/>
-      <c r="H39" s="106"/>
-      <c r="I39" s="106"/>
-      <c r="J39" s="106"/>
-      <c r="K39" s="106"/>
-      <c r="L39" s="106"/>
-      <c r="M39" s="106"/>
-      <c r="N39" s="106"/>
-    </row>
-    <row r="40" spans="2:14">
-      <c r="B40" s="106"/>
-      <c r="C40" s="106"/>
-      <c r="D40" s="106"/>
-      <c r="E40" s="106"/>
-      <c r="F40" s="106"/>
-      <c r="G40" s="106"/>
-      <c r="H40" s="106"/>
-      <c r="I40" s="106"/>
-      <c r="J40" s="106"/>
-      <c r="K40" s="106"/>
-      <c r="L40" s="106"/>
-      <c r="M40" s="106"/>
-      <c r="N40" s="106"/>
+      <c r="B39" s="117"/>
+      <c r="C39" s="117"/>
+      <c r="D39" s="117"/>
+      <c r="E39" s="117"/>
+      <c r="F39" s="117"/>
+      <c r="G39" s="117"/>
+      <c r="H39" s="117"/>
+      <c r="I39" s="117"/>
+      <c r="J39" s="117"/>
+      <c r="K39" s="117"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+    </row>
+    <row r="40" spans="1:16" ht="26.25">
+      <c r="B40" s="113"/>
+      <c r="C40" s="113"/>
+      <c r="D40" s="113"/>
+      <c r="E40" s="113"/>
+      <c r="F40" s="113"/>
+      <c r="G40" s="113"/>
+      <c r="H40" s="113"/>
+      <c r="I40" s="113"/>
+      <c r="J40" s="113"/>
+      <c r="K40" s="113"/>
+      <c r="L40" s="113"/>
+      <c r="M40" s="113"/>
+      <c r="N40" s="113"/>
+    </row>
+    <row r="41" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A41" s="116" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="116"/>
+      <c r="C41" s="116"/>
+      <c r="D41" s="116"/>
+      <c r="E41" s="116"/>
+      <c r="F41" s="116"/>
+      <c r="G41" s="116"/>
+      <c r="H41" s="116"/>
+      <c r="I41" s="116"/>
+      <c r="J41" s="116"/>
+      <c r="K41" s="116"/>
+      <c r="L41" s="116"/>
+      <c r="M41" s="116"/>
+      <c r="N41" s="121"/>
+    </row>
+    <row r="42" spans="1:16" ht="39.75" customHeight="1">
+      <c r="A42" s="116" t="s">
+        <v>123</v>
+      </c>
+      <c r="B42" s="116"/>
+      <c r="C42" s="116"/>
+      <c r="D42" s="116"/>
+      <c r="E42" s="116"/>
+      <c r="F42" s="116"/>
+      <c r="G42" s="116"/>
+      <c r="H42" s="116"/>
+      <c r="I42" s="116"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="116"/>
+      <c r="M42" s="116"/>
+      <c r="N42" s="116"/>
+      <c r="O42" s="112"/>
+      <c r="P42" s="112"/>
+    </row>
+    <row r="43" spans="1:16" ht="60.75" customHeight="1">
+      <c r="A43" s="116" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="116"/>
+      <c r="C43" s="116"/>
+      <c r="D43" s="116"/>
+      <c r="E43" s="116"/>
+      <c r="F43" s="116"/>
+      <c r="G43" s="116"/>
+      <c r="H43" s="116"/>
+      <c r="I43" s="116"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="116"/>
+      <c r="M43" s="116"/>
+      <c r="N43" s="116"/>
+      <c r="O43" s="112"/>
+      <c r="P43" s="112"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="111"/>
+      <c r="B44" s="111"/>
+      <c r="C44" s="111"/>
+      <c r="D44" s="111"/>
+      <c r="E44" s="111"/>
+      <c r="F44" s="111"/>
+      <c r="G44" s="111"/>
+      <c r="H44" s="111"/>
+      <c r="I44" s="111"/>
+      <c r="J44" s="111"/>
+      <c r="K44" s="111"/>
+      <c r="L44" s="111"/>
+      <c r="M44" s="111"/>
+      <c r="N44" s="111"/>
+      <c r="O44" s="112"/>
+      <c r="P44" s="112"/>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="111"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="111"/>
+      <c r="D45" s="111"/>
+      <c r="E45" s="111"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="111"/>
+      <c r="I45" s="111"/>
+      <c r="J45" s="111"/>
+      <c r="K45" s="111"/>
+      <c r="L45" s="111"/>
+      <c r="M45" s="111"/>
+      <c r="N45" s="111"/>
+      <c r="O45" s="112"/>
+      <c r="P45" s="112"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="111"/>
+      <c r="B46" s="111"/>
+      <c r="C46" s="111"/>
+      <c r="D46" s="111"/>
+      <c r="E46" s="111"/>
+      <c r="F46" s="111"/>
+      <c r="G46" s="111"/>
+      <c r="H46" s="111"/>
+      <c r="I46" s="111"/>
+      <c r="J46" s="111"/>
+      <c r="K46" s="111"/>
+      <c r="L46" s="111"/>
+      <c r="M46" s="111"/>
+      <c r="N46" s="111"/>
+      <c r="O46" s="112"/>
+      <c r="P46" s="112"/>
+    </row>
+    <row r="47" spans="1:16">
+      <c r="A47" s="111"/>
+      <c r="B47" s="111"/>
+      <c r="C47" s="111"/>
+      <c r="D47" s="111"/>
+      <c r="E47" s="111"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="111"/>
+      <c r="I47" s="111"/>
+      <c r="J47" s="111"/>
+      <c r="K47" s="111"/>
+      <c r="L47" s="111"/>
+      <c r="M47" s="111"/>
+      <c r="N47" s="111"/>
+      <c r="O47" s="112"/>
+      <c r="P47" s="112"/>
+    </row>
+    <row r="48" spans="1:16">
+      <c r="A48" s="111"/>
+      <c r="B48" s="111"/>
+      <c r="C48" s="111"/>
+      <c r="D48" s="111"/>
+      <c r="E48" s="111"/>
+      <c r="F48" s="111"/>
+      <c r="G48" s="111"/>
+      <c r="H48" s="111"/>
+      <c r="I48" s="111"/>
+      <c r="J48" s="111"/>
+      <c r="K48" s="111"/>
+      <c r="L48" s="111"/>
+      <c r="M48" s="111"/>
+      <c r="N48" s="111"/>
+      <c r="O48" s="112"/>
+      <c r="P48" s="112"/>
+    </row>
+    <row r="49" spans="1:16">
+      <c r="A49" s="111"/>
+      <c r="B49" s="111"/>
+      <c r="C49" s="111"/>
+      <c r="D49" s="111"/>
+      <c r="E49" s="111"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="111"/>
+      <c r="I49" s="111"/>
+      <c r="J49" s="111"/>
+      <c r="K49" s="111"/>
+      <c r="L49" s="111"/>
+      <c r="M49" s="111"/>
+      <c r="N49" s="111"/>
+      <c r="O49" s="112"/>
+      <c r="P49" s="112"/>
+    </row>
+    <row r="50" spans="1:16">
+      <c r="A50" s="111"/>
+      <c r="B50" s="111"/>
+      <c r="C50" s="111"/>
+      <c r="D50" s="111"/>
+      <c r="E50" s="111"/>
+      <c r="F50" s="111"/>
+      <c r="G50" s="111"/>
+      <c r="H50" s="111"/>
+      <c r="I50" s="111"/>
+      <c r="J50" s="111"/>
+      <c r="K50" s="111"/>
+      <c r="L50" s="111"/>
+      <c r="M50" s="111"/>
+      <c r="N50" s="111"/>
+      <c r="O50" s="112"/>
+      <c r="P50" s="112"/>
+    </row>
+    <row r="51" spans="1:16">
+      <c r="A51" s="111"/>
+      <c r="B51" s="111"/>
+      <c r="C51" s="111"/>
+      <c r="D51" s="111"/>
+      <c r="E51" s="111"/>
+      <c r="F51" s="111"/>
+      <c r="G51" s="111"/>
+      <c r="H51" s="111"/>
+      <c r="I51" s="111"/>
+      <c r="J51" s="111"/>
+      <c r="K51" s="111"/>
+      <c r="L51" s="111"/>
+      <c r="M51" s="111"/>
+      <c r="N51" s="111"/>
+      <c r="O51" s="112"/>
+      <c r="P51" s="112"/>
+    </row>
+    <row r="52" spans="1:16">
+      <c r="A52" s="111"/>
+      <c r="B52" s="111"/>
+      <c r="C52" s="111"/>
+      <c r="D52" s="111"/>
+      <c r="E52" s="111"/>
+      <c r="F52" s="111"/>
+      <c r="G52" s="111"/>
+      <c r="H52" s="111"/>
+      <c r="I52" s="111"/>
+      <c r="J52" s="111"/>
+      <c r="K52" s="111"/>
+      <c r="L52" s="111"/>
+      <c r="M52" s="111"/>
+      <c r="N52" s="111"/>
+      <c r="O52" s="112"/>
+      <c r="P52" s="112"/>
+    </row>
+    <row r="53" spans="1:16">
+      <c r="A53" s="111"/>
+      <c r="B53" s="111"/>
+      <c r="C53" s="111"/>
+      <c r="D53" s="111"/>
+      <c r="E53" s="111"/>
+      <c r="F53" s="111"/>
+      <c r="G53" s="111"/>
+      <c r="H53" s="111"/>
+      <c r="I53" s="111"/>
+      <c r="J53" s="111"/>
+      <c r="K53" s="111"/>
+      <c r="L53" s="111"/>
+      <c r="M53" s="111"/>
+      <c r="N53" s="111"/>
+      <c r="O53" s="112"/>
+      <c r="P53" s="112"/>
+    </row>
+    <row r="54" spans="1:16">
+      <c r="A54" s="111"/>
+      <c r="B54" s="111"/>
+      <c r="C54" s="111"/>
+      <c r="D54" s="111"/>
+      <c r="E54" s="111"/>
+      <c r="F54" s="111"/>
+      <c r="G54" s="111"/>
+      <c r="H54" s="111"/>
+      <c r="I54" s="111"/>
+      <c r="J54" s="111"/>
+      <c r="K54" s="111"/>
+      <c r="L54" s="111"/>
+      <c r="M54" s="111"/>
+      <c r="N54" s="111"/>
+      <c r="O54" s="112"/>
+      <c r="P54" s="112"/>
+    </row>
+    <row r="55" spans="1:16">
+      <c r="A55" s="111"/>
+      <c r="B55" s="111"/>
+      <c r="C55" s="111"/>
+      <c r="D55" s="111"/>
+      <c r="E55" s="111"/>
+      <c r="F55" s="111"/>
+      <c r="G55" s="111"/>
+      <c r="H55" s="111"/>
+      <c r="I55" s="111"/>
+      <c r="J55" s="111"/>
+      <c r="K55" s="111"/>
+      <c r="L55" s="111"/>
+      <c r="M55" s="111"/>
+      <c r="N55" s="111"/>
+      <c r="O55" s="112"/>
+      <c r="P55" s="112"/>
+    </row>
+    <row r="56" spans="1:16">
+      <c r="A56" s="111"/>
+      <c r="B56" s="111"/>
+      <c r="C56" s="111"/>
+      <c r="D56" s="111"/>
+      <c r="E56" s="111"/>
+      <c r="F56" s="111"/>
+      <c r="G56" s="111"/>
+      <c r="H56" s="111"/>
+      <c r="I56" s="111"/>
+      <c r="J56" s="111"/>
+      <c r="K56" s="111"/>
+      <c r="L56" s="111"/>
+      <c r="M56" s="111"/>
+      <c r="N56" s="111"/>
+      <c r="O56" s="112"/>
+      <c r="P56" s="112"/>
+    </row>
+    <row r="57" spans="1:16">
+      <c r="A57" s="111"/>
+      <c r="B57" s="111"/>
+      <c r="C57" s="111"/>
+      <c r="D57" s="111"/>
+      <c r="E57" s="111"/>
+      <c r="F57" s="111"/>
+      <c r="G57" s="111"/>
+      <c r="H57" s="111"/>
+      <c r="I57" s="111"/>
+      <c r="J57" s="111"/>
+      <c r="K57" s="111"/>
+      <c r="L57" s="111"/>
+      <c r="M57" s="111"/>
+      <c r="N57" s="111"/>
+      <c r="O57" s="112"/>
+      <c r="P57" s="112"/>
+    </row>
+    <row r="58" spans="1:16">
+      <c r="A58" s="111"/>
+      <c r="B58" s="111"/>
+      <c r="C58" s="111"/>
+      <c r="D58" s="111"/>
+      <c r="E58" s="111"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="111"/>
+      <c r="I58" s="111"/>
+      <c r="J58" s="111"/>
+      <c r="K58" s="111"/>
+      <c r="L58" s="111"/>
+      <c r="M58" s="111"/>
+      <c r="N58" s="111"/>
+      <c r="O58" s="112"/>
+      <c r="P58" s="112"/>
+    </row>
+    <row r="59" spans="1:16">
+      <c r="A59" s="111"/>
+      <c r="B59" s="111"/>
+      <c r="C59" s="111"/>
+      <c r="D59" s="111"/>
+      <c r="E59" s="111"/>
+      <c r="F59" s="111"/>
+      <c r="G59" s="111"/>
+      <c r="H59" s="111"/>
+      <c r="I59" s="111"/>
+      <c r="J59" s="111"/>
+      <c r="K59" s="111"/>
+      <c r="L59" s="111"/>
+      <c r="M59" s="111"/>
+      <c r="N59" s="111"/>
+      <c r="O59" s="112"/>
+      <c r="P59" s="112"/>
+    </row>
+    <row r="60" spans="1:16">
+      <c r="A60" s="112"/>
+      <c r="B60" s="112"/>
+      <c r="C60" s="112"/>
+      <c r="D60" s="112"/>
+      <c r="E60" s="112"/>
+      <c r="F60" s="112"/>
+      <c r="G60" s="112"/>
+      <c r="H60" s="112"/>
+      <c r="I60" s="112"/>
+      <c r="J60" s="112"/>
+      <c r="K60" s="112"/>
+      <c r="L60" s="112"/>
+      <c r="M60" s="112"/>
+      <c r="N60" s="112"/>
+      <c r="O60" s="112"/>
+      <c r="P60" s="112"/>
     </row>
   </sheetData>
-  <mergeCells count="24">
-    <mergeCell ref="B40:N40"/>
-    <mergeCell ref="B34:N34"/>
-    <mergeCell ref="B35:N35"/>
-    <mergeCell ref="B36:N36"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="B38:N38"/>
-    <mergeCell ref="B39:N39"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:N29"/>
-    <mergeCell ref="B30:N30"/>
-    <mergeCell ref="B31:N31"/>
-    <mergeCell ref="B32:N32"/>
-    <mergeCell ref="B33:N33"/>
+  <mergeCells count="43">
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A36:C36"/>
+    <mergeCell ref="O1:O3"/>
+    <mergeCell ref="A55:N55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="A50:N50"/>
+    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="A53:N53"/>
+    <mergeCell ref="A54:N54"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="B1:B4"/>
@@ -46199,7 +47216,34 @@
     <mergeCell ref="D1:E3"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="H1:H3"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A49:N49"/>
   </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE09EFEF-EC0B-4984-B180-595A6EF1BBAD}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="20.7109375" style="51"/>
+  </cols>
+  <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\GitHub\Instel-I\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\GitHub\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD629833-662B-48D6-BD96-1F4358C3A54F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9D2E8A-B620-42EC-BC7D-0F2127962940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação_Informações" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
   <si>
     <t>Alunos: Gabriel Schettino Lucas e Ramon Rodrigues Morello</t>
   </si>
@@ -532,12 +532,21 @@
   <si>
     <t>[IC']:  Capacidade de corrente que será usada para dimensionar eletrodutos</t>
   </si>
+  <si>
+    <t>OBSERVAÇÕES</t>
+  </si>
+  <si>
+    <t>1) O cálculo do método "limte de queda de tensão" utilizará a corrente de projeto já calculada na planinha "Capacidade de Corrente", as colunas estão relacionadas!</t>
+  </si>
+  <si>
+    <t>2) No projeto um circuito pode estar passando por mais de um caminho, logo nesse cálculo será considerado o pior dos caminhos que o circuito está fazendo.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -682,6 +691,14 @@
     <font>
       <sz val="18"/>
       <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -1375,7 +1392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="146">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1547,35 +1564,59 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="17" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1588,34 +1629,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1630,18 +1682,22 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,19 +1721,31 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1689,44 +1757,8 @@
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1746,28 +1778,28 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2001,14 +2033,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="74" t="s">
+      <c r="B1" s="80" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="75"/>
-      <c r="D1" s="75"/>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="76"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="82"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2031,14 +2063,14 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="77" t="s">
+      <c r="B2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="75"/>
-      <c r="G2" s="76"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="82"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2089,16 +2121,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="78" t="s">
+      <c r="B4" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="79"/>
-      <c r="D4" s="60"/>
-      <c r="E4" s="78" t="s">
+      <c r="C4" s="85"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="60"/>
+      <c r="F4" s="85"/>
+      <c r="G4" s="79"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2121,17 +2153,17 @@
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="59" t="s">
+      <c r="B5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="60"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="59" t="s">
+      <c r="E5" s="78" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="60"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2157,17 +2189,17 @@
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="78" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="60"/>
+      <c r="C6" s="79"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="59" t="s">
+      <c r="E6" s="78" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="60"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2193,17 +2225,17 @@
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="59" t="s">
+      <c r="B7" s="78" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="60"/>
+      <c r="C7" s="79"/>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="59" t="s">
+      <c r="E7" s="78" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="60"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
@@ -2229,15 +2261,15 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="60"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
@@ -2261,15 +2293,15 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="60"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="79"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
@@ -2293,15 +2325,15 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="80" t="s">
+      <c r="B10" s="72" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="71"/>
-      <c r="D10" s="82" t="s">
+      <c r="C10" s="73"/>
+      <c r="D10" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
+      <c r="E10" s="78"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
@@ -2325,11 +2357,11 @@
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="81"/>
-      <c r="C11" s="66"/>
-      <c r="D11" s="83"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="77"/>
+      <c r="E11" s="78"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
@@ -2353,11 +2385,11 @@
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
+      <c r="B12" s="78"/>
+      <c r="C12" s="79"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="60"/>
+      <c r="E12" s="78"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2381,11 +2413,11 @@
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="67"/>
-      <c r="C13" s="68"/>
+      <c r="B13" s="91"/>
+      <c r="C13" s="92"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="68"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2409,11 +2441,11 @@
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="60"/>
+      <c r="B14" s="78"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="60"/>
+      <c r="E14" s="78"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2493,14 +2525,14 @@
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="69" t="s">
+      <c r="B17" s="93" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="70"/>
-      <c r="D17" s="70"/>
-      <c r="E17" s="70"/>
-      <c r="F17" s="70"/>
-      <c r="G17" s="71"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="73"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2523,14 +2555,14 @@
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="95" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="63"/>
+      <c r="C18" s="87"/>
+      <c r="D18" s="87"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="88"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2553,14 +2585,14 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="86" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="63"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="88"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2583,14 +2615,14 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
+      <c r="C20" s="87"/>
+      <c r="D20" s="87"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="88"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2613,14 +2645,14 @@
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="73" t="s">
+      <c r="B21" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
+      <c r="C21" s="87"/>
+      <c r="D21" s="87"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="88"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2643,14 +2675,14 @@
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="86" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
+      <c r="C22" s="87"/>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="88"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2673,12 +2705,12 @@
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="61"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="88"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2701,14 +2733,14 @@
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="64" t="s">
+      <c r="B24" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="65"/>
-      <c r="D24" s="65"/>
-      <c r="E24" s="65"/>
-      <c r="F24" s="65"/>
-      <c r="G24" s="66"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="90"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="75"/>
       <c r="H24" s="1"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1"/>
@@ -9107,24 +9139,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
@@ -9139,6 +9153,24 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9192,19 +9224,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="92" t="s">
+      <c r="B2" s="105" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="K2" s="70"/>
-      <c r="L2" s="71"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="94"/>
+      <c r="F2" s="94"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="73"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -9222,17 +9254,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="81"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="65"/>
-      <c r="H3" s="65"/>
-      <c r="I3" s="65"/>
-      <c r="J3" s="65"/>
-      <c r="K3" s="65"/>
-      <c r="L3" s="66"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="90"/>
+      <c r="I3" s="90"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="75"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -9250,27 +9282,27 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="93" t="s">
+      <c r="B4" s="106" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="94" t="s">
+      <c r="C4" s="107" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="94" t="s">
+      <c r="D4" s="79"/>
+      <c r="E4" s="107" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="79"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="95" t="s">
+      <c r="F4" s="85"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="108" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="79"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="95" t="s">
+      <c r="I4" s="85"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="108" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="60"/>
+      <c r="L4" s="79"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -9288,7 +9320,7 @@
     </row>
     <row r="5" spans="1:26" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="83"/>
+      <c r="B5" s="77"/>
       <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
@@ -9436,35 +9468,35 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="102" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="101">
+      <c r="C8" s="104">
         <v>17.579999999999998</v>
       </c>
-      <c r="D8" s="101">
+      <c r="D8" s="104">
         <v>23.9</v>
       </c>
-      <c r="E8" s="87">
+      <c r="E8" s="100">
         <v>3</v>
       </c>
-      <c r="F8" s="87">
+      <c r="F8" s="100">
         <v>100</v>
       </c>
-      <c r="G8" s="97">
+      <c r="G8" s="98">
         <v>300</v>
       </c>
-      <c r="H8" s="97">
+      <c r="H8" s="98">
         <v>4</v>
       </c>
-      <c r="I8" s="87" t="s">
+      <c r="I8" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="87">
+      <c r="J8" s="100">
         <v>200</v>
       </c>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -9482,17 +9514,17 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="88"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="98"/>
-      <c r="H9" s="98"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="88"/>
+      <c r="B9" s="103"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="101"/>
+      <c r="F9" s="101"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="101"/>
+      <c r="K9" s="101"/>
+      <c r="L9" s="101"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -10105,9 +10137,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="89"/>
-      <c r="K22" s="70"/>
-      <c r="L22" s="70"/>
+      <c r="J22" s="112"/>
+      <c r="K22" s="94"/>
+      <c r="L22" s="94"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -10125,13 +10157,13 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="96" t="s">
+      <c r="B23" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -10190,9 +10222,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="90"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
+      <c r="J25" s="113"/>
+      <c r="K25" s="87"/>
+      <c r="L25" s="87"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -10210,20 +10242,20 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="96" t="s">
+      <c r="B26" s="97" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
+      <c r="C26" s="87"/>
+      <c r="D26" s="87"/>
+      <c r="E26" s="87"/>
+      <c r="F26" s="87"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="85"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="84"/>
+      <c r="J26" s="110"/>
+      <c r="K26" s="87"/>
+      <c r="L26" s="87"/>
+      <c r="M26" s="109"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -10248,10 +10280,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="85"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
+      <c r="J27" s="110"/>
+      <c r="K27" s="87"/>
+      <c r="L27" s="87"/>
+      <c r="M27" s="87"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -10276,12 +10308,12 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="85"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="91"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
+      <c r="J28" s="110"/>
+      <c r="K28" s="87"/>
+      <c r="L28" s="87"/>
+      <c r="M28" s="114"/>
+      <c r="N28" s="87"/>
+      <c r="O28" s="87"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -10304,12 +10336,12 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="85"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="87"/>
+      <c r="L29" s="87"/>
+      <c r="M29" s="87"/>
+      <c r="N29" s="87"/>
+      <c r="O29" s="87"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -10332,10 +10364,10 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="85"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="84"/>
+      <c r="J30" s="110"/>
+      <c r="K30" s="87"/>
+      <c r="L30" s="87"/>
+      <c r="M30" s="109"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -10360,10 +10392,10 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="85"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
+      <c r="J31" s="110"/>
+      <c r="K31" s="87"/>
+      <c r="L31" s="87"/>
+      <c r="M31" s="87"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -10388,9 +10420,9 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="86"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -10416,9 +10448,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -10444,9 +10476,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -16614,23 +16646,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="J32:L34"/>
@@ -16645,6 +16660,23 @@
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="J31:L31"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -16726,20 +16758,20 @@
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="102" t="s">
+      <c r="B3" s="115" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="103" t="s">
+      <c r="C3" s="116" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="118" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="106"/>
-      <c r="F3" s="105" t="s">
+      <c r="E3" s="119"/>
+      <c r="F3" s="118" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="106"/>
+      <c r="G3" s="119"/>
       <c r="H3" s="30" t="s">
         <v>30</v>
       </c>
@@ -16770,8 +16802,8 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="83"/>
-      <c r="C4" s="104"/>
+      <c r="B4" s="77"/>
+      <c r="C4" s="117"/>
       <c r="D4" s="32" t="s">
         <v>72</v>
       </c>
@@ -45204,20 +45236,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="109" t="s">
+      <c r="D4" s="122" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="110"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="123"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="53">
@@ -45465,8 +45497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36D55B-3867-4EF4-9271-23288EED3B45}">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R22" sqref="R22"/>
+    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -45484,90 +45516,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="B1" s="107" t="s">
+      <c r="B1" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="132" t="s">
+      <c r="D1" s="137" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="133"/>
-      <c r="F1" s="132" t="s">
+      <c r="E1" s="138"/>
+      <c r="F1" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="133"/>
-      <c r="H1" s="129" t="s">
+      <c r="G1" s="138"/>
+      <c r="H1" s="143" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="107" t="s">
+      <c r="I1" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="107" t="s">
+      <c r="J1" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="109" t="s">
+      <c r="K1" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="109" t="s">
+      <c r="L1" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="109" t="s">
+      <c r="M1" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="109" t="s">
+      <c r="N1" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="109" t="s">
+      <c r="O1" s="122" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="109" t="s">
+      <c r="P1" s="122" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" s="109" t="s">
+      <c r="Q1" s="122" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="107"/>
-      <c r="C2" s="107"/>
-      <c r="D2" s="134"/>
-      <c r="E2" s="135"/>
-      <c r="F2" s="134"/>
-      <c r="G2" s="135"/>
-      <c r="H2" s="130"/>
-      <c r="I2" s="107"/>
-      <c r="J2" s="107"/>
-      <c r="K2" s="109"/>
-      <c r="L2" s="109"/>
-      <c r="M2" s="109"/>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
+      <c r="B2" s="120"/>
+      <c r="C2" s="120"/>
+      <c r="D2" s="139"/>
+      <c r="E2" s="140"/>
+      <c r="F2" s="139"/>
+      <c r="G2" s="140"/>
+      <c r="H2" s="144"/>
+      <c r="I2" s="120"/>
+      <c r="J2" s="120"/>
+      <c r="K2" s="122"/>
+      <c r="L2" s="122"/>
+      <c r="M2" s="122"/>
+      <c r="N2" s="122"/>
+      <c r="O2" s="122"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
     </row>
     <row r="3" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B3" s="107"/>
-      <c r="C3" s="107"/>
-      <c r="D3" s="136"/>
-      <c r="E3" s="137"/>
-      <c r="F3" s="136"/>
-      <c r="G3" s="137"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="107"/>
-      <c r="J3" s="107"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="109"/>
-      <c r="M3" s="109"/>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="141"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="141"/>
+      <c r="G3" s="142"/>
+      <c r="H3" s="145"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="107"/>
-      <c r="C4" s="107"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
       <c r="D4" s="52" t="s">
         <v>72</v>
       </c>
@@ -45628,14 +45660,14 @@
       <c r="G5" s="53"/>
       <c r="H5" s="53"/>
       <c r="I5" s="53">
-        <f>(D5*100+E5*200)+(F5*100+G5*600)+H5</f>
+        <f t="shared" ref="I5:I21" si="0">(D5*100+E5*200)+(F5*100+G5*600)+H5</f>
         <v>1200</v>
       </c>
       <c r="J5" s="53">
         <v>127</v>
       </c>
       <c r="K5" s="56">
-        <f t="shared" ref="K5:K25" si="0">I5/J5</f>
+        <f t="shared" ref="K5:K25" si="1">I5/J5</f>
         <v>9.4488188976377945</v>
       </c>
       <c r="L5" s="56">
@@ -45675,14 +45707,14 @@
       <c r="G6" s="53"/>
       <c r="H6" s="53"/>
       <c r="I6" s="53">
-        <f>(D6*100+E6*200)+(F6*100+G6*600)+H6</f>
+        <f t="shared" si="0"/>
         <v>1700</v>
       </c>
       <c r="J6" s="53">
         <v>127</v>
       </c>
       <c r="K6" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>13.385826771653543</v>
       </c>
       <c r="L6" s="56">
@@ -45722,14 +45754,14 @@
       </c>
       <c r="H7" s="53"/>
       <c r="I7" s="53">
-        <f>(D7*100+E7*200)+(F7*100+G7*600)+H7</f>
+        <f t="shared" si="0"/>
         <v>2100</v>
       </c>
       <c r="J7" s="53">
         <v>127</v>
       </c>
       <c r="K7" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>16.535433070866141</v>
       </c>
       <c r="L7" s="56">
@@ -45742,7 +45774,7 @@
         <v>1</v>
       </c>
       <c r="O7" s="56">
-        <f t="shared" ref="O7:O25" si="1">K7/L7*M7*N7</f>
+        <f t="shared" ref="O7:O25" si="2">K7/L7*M7*N7</f>
         <v>27.559055118110237</v>
       </c>
       <c r="P7" s="56">
@@ -45769,14 +45801,14 @@
       </c>
       <c r="H8" s="53"/>
       <c r="I8" s="53">
-        <f>(D8*100+E8*200)+(F8*100+G8*600)+H8</f>
+        <f t="shared" si="0"/>
         <v>1900</v>
       </c>
       <c r="J8" s="53">
         <v>127</v>
       </c>
       <c r="K8" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.960629921259843</v>
       </c>
       <c r="L8" s="56">
@@ -45789,7 +45821,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.934383202099738</v>
       </c>
       <c r="P8" s="56">
@@ -45816,14 +45848,14 @@
       </c>
       <c r="H9" s="53"/>
       <c r="I9" s="53">
-        <f>(D9*100+E9*200)+(F9*100+G9*600)+H9</f>
+        <f t="shared" si="0"/>
         <v>1900</v>
       </c>
       <c r="J9" s="53">
         <v>127</v>
       </c>
       <c r="K9" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.960629921259843</v>
       </c>
       <c r="L9" s="56">
@@ -45836,7 +45868,7 @@
         <v>1</v>
       </c>
       <c r="O9" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.934383202099738</v>
       </c>
       <c r="P9" s="56">
@@ -45863,14 +45895,14 @@
       </c>
       <c r="H10" s="53"/>
       <c r="I10" s="53">
-        <f>(D10*100+E10*200)+(F10*100+G10*600)+H10</f>
+        <f t="shared" si="0"/>
         <v>2500</v>
       </c>
       <c r="J10" s="53">
         <v>127</v>
       </c>
       <c r="K10" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>19.685039370078741</v>
       </c>
       <c r="L10" s="56">
@@ -45883,7 +45915,7 @@
         <v>1</v>
       </c>
       <c r="O10" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>32.808398950131235</v>
       </c>
       <c r="P10" s="56">
@@ -45910,14 +45942,14 @@
       </c>
       <c r="H11" s="53"/>
       <c r="I11" s="53">
-        <f>(D11*100+E11*200)+(F11*100+G11*600)+H11</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="J11" s="53">
         <v>127</v>
       </c>
       <c r="K11" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
       <c r="L11" s="56">
@@ -45930,7 +45962,7 @@
         <v>1</v>
       </c>
       <c r="O11" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.227740763173834</v>
       </c>
       <c r="P11" s="56">
@@ -45957,14 +45989,14 @@
       </c>
       <c r="H12" s="53"/>
       <c r="I12" s="53">
-        <f>(D12*100+E12*200)+(F12*100+G12*600)+H12</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="J12" s="53">
         <v>127</v>
       </c>
       <c r="K12" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
       <c r="L12" s="56">
@@ -45977,7 +46009,7 @@
         <v>1</v>
       </c>
       <c r="O12" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>26.246719160104988</v>
       </c>
       <c r="P12" s="56">
@@ -46004,14 +46036,14 @@
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="53">
-        <f>(D13*100+E13*200)+(F13*100+G13*600)+H13</f>
+        <f t="shared" si="0"/>
         <v>2000</v>
       </c>
       <c r="J13" s="53">
         <v>127</v>
       </c>
       <c r="K13" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>15.748031496062993</v>
       </c>
       <c r="L13" s="56">
@@ -46024,7 +46056,7 @@
         <v>1</v>
       </c>
       <c r="O13" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>24.227740763173834</v>
       </c>
       <c r="P13" s="56">
@@ -46049,14 +46081,14 @@
         <v>5400</v>
       </c>
       <c r="I14" s="53">
-        <f>(D14*100+E14*200)+(F14*100+G14*600)+H14</f>
+        <f t="shared" si="0"/>
         <v>5400</v>
       </c>
       <c r="J14" s="53">
         <v>220</v>
       </c>
       <c r="K14" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.545454545454547</v>
       </c>
       <c r="L14" s="56">
@@ -46069,7 +46101,7 @@
         <v>1</v>
       </c>
       <c r="O14" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40.909090909090914</v>
       </c>
       <c r="P14" s="56">
@@ -46094,14 +46126,14 @@
         <v>5400</v>
       </c>
       <c r="I15" s="53">
-        <f>(D15*100+E15*200)+(F15*100+G15*600)+H15</f>
+        <f t="shared" si="0"/>
         <v>5400</v>
       </c>
       <c r="J15" s="53">
         <v>220</v>
       </c>
       <c r="K15" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>24.545454545454547</v>
       </c>
       <c r="L15" s="56">
@@ -46114,7 +46146,7 @@
         <v>1</v>
       </c>
       <c r="O15" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>40.909090909090914</v>
       </c>
       <c r="P15" s="56">
@@ -46139,14 +46171,14 @@
         <v>2625</v>
       </c>
       <c r="I16" s="53">
-        <f>(D16*100+E16*200)+(F16*100+G16*600)+H16</f>
+        <f t="shared" si="0"/>
         <v>2625</v>
       </c>
       <c r="J16" s="53">
         <v>220</v>
       </c>
       <c r="K16" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>11.931818181818182</v>
       </c>
       <c r="L16" s="56">
@@ -46159,7 +46191,7 @@
         <v>1</v>
       </c>
       <c r="O16" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>19.886363636363637</v>
       </c>
       <c r="P16" s="56">
@@ -46184,14 +46216,14 @@
         <v>1650</v>
       </c>
       <c r="I17" s="53">
-        <f>(D17*100+E17*200)+(F17*100+G17*600)+H17</f>
+        <f t="shared" si="0"/>
         <v>1650</v>
       </c>
       <c r="J17" s="53">
         <v>220</v>
       </c>
       <c r="K17" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="L17" s="56">
@@ -46204,16 +46236,16 @@
         <v>1</v>
       </c>
       <c r="O17" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.5</v>
       </c>
       <c r="P17" s="56">
         <v>15.5</v>
       </c>
-      <c r="Q17" s="126">
+      <c r="Q17" s="69">
         <v>1.5</v>
       </c>
-      <c r="R17" s="127" t="s">
+      <c r="R17" s="70" t="s">
         <v>132</v>
       </c>
     </row>
@@ -46232,14 +46264,14 @@
         <v>1650</v>
       </c>
       <c r="I18" s="53">
-        <f>(D18*100+E18*200)+(F18*100+G18*600)+H18</f>
+        <f t="shared" si="0"/>
         <v>1650</v>
       </c>
       <c r="J18" s="53">
         <v>220</v>
       </c>
       <c r="K18" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.5</v>
       </c>
       <c r="L18" s="56">
@@ -46252,13 +46284,13 @@
         <v>1</v>
       </c>
       <c r="O18" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.538461538461538</v>
       </c>
       <c r="P18" s="56">
         <v>12</v>
       </c>
-      <c r="Q18" s="128">
+      <c r="Q18" s="71">
         <v>1</v>
       </c>
     </row>
@@ -46277,14 +46309,14 @@
         <v>400</v>
       </c>
       <c r="I19" s="53">
-        <f>(D19*100+E19*200)+(F19*100+G19*600)+H19</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="J19" s="53">
         <v>127</v>
       </c>
       <c r="K19" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3.1496062992125986</v>
       </c>
       <c r="L19" s="56">
@@ -46297,13 +46329,13 @@
         <v>1</v>
       </c>
       <c r="O19" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>5.2493438320209975</v>
       </c>
       <c r="P19" s="56">
         <v>8</v>
       </c>
-      <c r="Q19" s="128">
+      <c r="Q19" s="71">
         <v>0.5</v>
       </c>
     </row>
@@ -46322,14 +46354,14 @@
         <v>1760</v>
       </c>
       <c r="I20" s="53">
-        <f>(D20*100+E20*200)+(F20*100+G20*600)+H20</f>
+        <f t="shared" si="0"/>
         <v>1760</v>
       </c>
       <c r="J20" s="53">
         <v>220</v>
       </c>
       <c r="K20" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
       <c r="L20" s="56">
@@ -46342,13 +46374,13 @@
         <v>1</v>
       </c>
       <c r="O20" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>13.333333333333334</v>
       </c>
       <c r="P20" s="56">
         <v>15.5</v>
       </c>
-      <c r="Q20" s="128">
+      <c r="Q20" s="71">
         <v>1.5</v>
       </c>
     </row>
@@ -46367,14 +46399,14 @@
         <v>300</v>
       </c>
       <c r="I21" s="53">
-        <f>(D21*100+E21*200)+(F21*100+G21*600)+H21</f>
+        <f t="shared" si="0"/>
         <v>300</v>
       </c>
       <c r="J21" s="53">
         <v>220</v>
       </c>
       <c r="K21" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1.3636363636363635</v>
       </c>
       <c r="L21" s="56">
@@ -46387,13 +46419,13 @@
         <v>1</v>
       </c>
       <c r="O21" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0979020979020975</v>
       </c>
       <c r="P21" s="56">
         <v>8</v>
       </c>
-      <c r="Q21" s="128">
+      <c r="Q21" s="71">
         <v>0.5</v>
       </c>
     </row>
@@ -46418,7 +46450,7 @@
         <v>127</v>
       </c>
       <c r="K22" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7244094488188972</v>
       </c>
       <c r="L22" s="56">
@@ -46431,7 +46463,7 @@
         <v>1</v>
       </c>
       <c r="O22" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2884376295068378</v>
       </c>
       <c r="P22" s="56">
@@ -46462,7 +46494,7 @@
         <v>127</v>
       </c>
       <c r="K23" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7244094488188972</v>
       </c>
       <c r="L23" s="56">
@@ -46475,7 +46507,7 @@
         <v>1</v>
       </c>
       <c r="O23" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2884376295068378</v>
       </c>
       <c r="P23" s="56">
@@ -46506,7 +46538,7 @@
         <v>127</v>
       </c>
       <c r="K24" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7244094488188972</v>
       </c>
       <c r="L24" s="56">
@@ -46519,7 +46551,7 @@
         <v>1</v>
       </c>
       <c r="O24" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2884376295068378</v>
       </c>
       <c r="P24" s="56">
@@ -46550,7 +46582,7 @@
         <v>127</v>
       </c>
       <c r="K25" s="56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.7244094488188972</v>
       </c>
       <c r="L25" s="56">
@@ -46563,7 +46595,7 @@
         <v>1</v>
       </c>
       <c r="O25" s="56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2884376295068378</v>
       </c>
       <c r="P25" s="56">
@@ -46574,637 +46606,638 @@
       </c>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="122">
+      <c r="B26" s="65">
         <v>22</v>
       </c>
-      <c r="C26" s="122" t="s">
+      <c r="C26" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="D26" s="122"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="122"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="123"/>
-      <c r="I26" s="122">
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="66"/>
+      <c r="I26" s="65">
         <f>SUM(I5:I25)</f>
         <v>38885</v>
       </c>
-      <c r="J26" s="122"/>
-      <c r="K26" s="124"/>
-      <c r="L26" s="124"/>
-      <c r="M26" s="124"/>
-      <c r="N26" s="124"/>
-      <c r="O26" s="124"/>
-      <c r="P26" s="124"/>
-      <c r="Q26" s="124"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="67"/>
+      <c r="L26" s="67"/>
+      <c r="M26" s="67"/>
+      <c r="N26" s="67"/>
+      <c r="O26" s="67"/>
+      <c r="P26" s="67"/>
+      <c r="Q26" s="67"/>
     </row>
     <row r="28" spans="2:18" ht="31.5" customHeight="1">
-      <c r="B28" s="138" t="s">
+      <c r="B28" s="130" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="139"/>
-      <c r="D28" s="139"/>
-      <c r="E28" s="139"/>
-      <c r="F28" s="139"/>
-      <c r="G28" s="139"/>
-      <c r="H28" s="139"/>
-      <c r="I28" s="139"/>
-      <c r="J28" s="139"/>
-      <c r="K28" s="139"/>
-      <c r="L28" s="139"/>
-      <c r="M28" s="139"/>
-      <c r="N28" s="139"/>
-      <c r="O28" s="140"/>
-    </row>
-    <row r="29" spans="2:18" s="115" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B29" s="141" t="s">
+      <c r="C28" s="131"/>
+      <c r="D28" s="131"/>
+      <c r="E28" s="131"/>
+      <c r="F28" s="131"/>
+      <c r="G28" s="131"/>
+      <c r="H28" s="131"/>
+      <c r="I28" s="131"/>
+      <c r="J28" s="131"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
+      <c r="M28" s="131"/>
+      <c r="N28" s="131"/>
+      <c r="O28" s="132"/>
+    </row>
+    <row r="29" spans="2:18" s="61" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B29" s="124" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="114"/>
-      <c r="D29" s="114"/>
-      <c r="E29" s="114"/>
-      <c r="F29" s="114"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="114"/>
-      <c r="J29" s="114"/>
-      <c r="K29" s="114"/>
-      <c r="L29" s="114"/>
-      <c r="M29" s="114"/>
-      <c r="N29" s="114"/>
-      <c r="O29" s="142"/>
-    </row>
-    <row r="30" spans="2:18" s="115" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B30" s="141" t="s">
+      <c r="C29" s="125"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="125"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="125"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="125"/>
+      <c r="J29" s="125"/>
+      <c r="K29" s="125"/>
+      <c r="L29" s="125"/>
+      <c r="M29" s="125"/>
+      <c r="N29" s="125"/>
+      <c r="O29" s="126"/>
+    </row>
+    <row r="30" spans="2:18" s="61" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B30" s="124" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="114"/>
-      <c r="D30" s="114"/>
-      <c r="E30" s="114"/>
-      <c r="F30" s="114"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="114"/>
-      <c r="I30" s="114"/>
-      <c r="J30" s="114"/>
-      <c r="K30" s="114"/>
-      <c r="L30" s="114"/>
-      <c r="M30" s="114"/>
-      <c r="N30" s="114"/>
-      <c r="O30" s="142"/>
-    </row>
-    <row r="31" spans="2:18" s="115" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B31" s="141"/>
-      <c r="C31" s="114"/>
-      <c r="D31" s="114"/>
-      <c r="E31" s="114"/>
-      <c r="F31" s="114"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="114"/>
-      <c r="I31" s="114"/>
-      <c r="J31" s="114"/>
-      <c r="K31" s="114"/>
-      <c r="L31" s="114"/>
-      <c r="M31" s="114"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="142"/>
-    </row>
-    <row r="32" spans="2:18" s="115" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B32" s="141"/>
-      <c r="C32" s="114"/>
-      <c r="D32" s="114"/>
-      <c r="E32" s="114"/>
-      <c r="F32" s="114"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="114"/>
-      <c r="J32" s="114"/>
-      <c r="K32" s="114"/>
-      <c r="L32" s="114"/>
-      <c r="M32" s="114"/>
-      <c r="N32" s="114"/>
-      <c r="O32" s="142"/>
-    </row>
-    <row r="33" spans="1:16" s="115" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B33" s="143"/>
-      <c r="C33" s="144"/>
-      <c r="D33" s="144"/>
-      <c r="E33" s="144"/>
-      <c r="F33" s="144"/>
-      <c r="G33" s="144"/>
-      <c r="H33" s="144"/>
-      <c r="I33" s="144"/>
-      <c r="J33" s="144"/>
-      <c r="K33" s="144"/>
-      <c r="L33" s="144"/>
-      <c r="M33" s="144"/>
-      <c r="N33" s="144"/>
-      <c r="O33" s="145"/>
-    </row>
-    <row r="34" spans="1:16" s="115" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="125"/>
-      <c r="C34" s="125"/>
-      <c r="D34" s="125"/>
-      <c r="E34" s="125"/>
-      <c r="F34" s="125"/>
-      <c r="G34" s="125"/>
-      <c r="H34" s="125"/>
-      <c r="I34" s="125"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="125"/>
-      <c r="M34" s="125"/>
-      <c r="N34" s="125"/>
-      <c r="O34" s="125"/>
+      <c r="C30" s="125"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="125"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="125"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="125"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="125"/>
+      <c r="M30" s="125"/>
+      <c r="N30" s="125"/>
+      <c r="O30" s="126"/>
+    </row>
+    <row r="31" spans="2:18" s="61" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B31" s="124"/>
+      <c r="C31" s="125"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="125"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="125"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="125"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="125"/>
+      <c r="M31" s="125"/>
+      <c r="N31" s="125"/>
+      <c r="O31" s="126"/>
+    </row>
+    <row r="32" spans="2:18" s="61" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B32" s="124"/>
+      <c r="C32" s="125"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="125"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="125"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="125"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="125"/>
+      <c r="L32" s="125"/>
+      <c r="M32" s="125"/>
+      <c r="N32" s="125"/>
+      <c r="O32" s="126"/>
+    </row>
+    <row r="33" spans="1:16" s="61" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B33" s="127"/>
+      <c r="C33" s="128"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="128"/>
+      <c r="G33" s="128"/>
+      <c r="H33" s="128"/>
+      <c r="I33" s="128"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="128"/>
+      <c r="L33" s="128"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="129"/>
+    </row>
+    <row r="34" spans="1:16" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="68"/>
+      <c r="C34" s="68"/>
+      <c r="D34" s="68"/>
+      <c r="E34" s="68"/>
+      <c r="F34" s="68"/>
+      <c r="G34" s="68"/>
+      <c r="H34" s="68"/>
+      <c r="I34" s="68"/>
+      <c r="J34" s="68"/>
+      <c r="K34" s="68"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="68"/>
+      <c r="N34" s="68"/>
+      <c r="O34" s="68"/>
     </row>
     <row r="35" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A35" s="120"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="120"/>
-      <c r="D35" s="120"/>
-      <c r="E35" s="120"/>
-      <c r="F35" s="120"/>
-      <c r="G35" s="120"/>
-      <c r="H35" s="120"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="120"/>
-      <c r="M35" s="120"/>
-      <c r="N35" s="120"/>
-      <c r="O35" s="120"/>
+      <c r="A35" s="64"/>
+      <c r="B35" s="64"/>
+      <c r="C35" s="64"/>
+      <c r="D35" s="64"/>
+      <c r="E35" s="64"/>
+      <c r="F35" s="64"/>
+      <c r="G35" s="64"/>
+      <c r="H35" s="64"/>
+      <c r="I35" s="64"/>
+      <c r="J35" s="64"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="64"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="64"/>
     </row>
     <row r="36" spans="1:16" ht="47.25" customHeight="1">
-      <c r="A36" s="118" t="s">
+      <c r="A36" s="135" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="118"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="119" t="s">
+      <c r="B36" s="135"/>
+      <c r="C36" s="135"/>
+      <c r="D36" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="119" t="s">
+      <c r="E36" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="F36" s="119" t="s">
+      <c r="F36" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="G36" s="119"/>
+      <c r="G36" s="63"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="B37" s="111"/>
-      <c r="C37" s="111"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="111"/>
-      <c r="F37" s="111"/>
-      <c r="G37" s="111"/>
-      <c r="H37" s="111"/>
-      <c r="I37" s="111"/>
-      <c r="J37" s="111"/>
-      <c r="K37" s="111"/>
-      <c r="L37" s="111"/>
-      <c r="M37" s="111"/>
-      <c r="N37" s="111"/>
+      <c r="B37" s="136"/>
+      <c r="C37" s="136"/>
+      <c r="D37" s="136"/>
+      <c r="E37" s="136"/>
+      <c r="F37" s="136"/>
+      <c r="G37" s="136"/>
+      <c r="H37" s="136"/>
+      <c r="I37" s="136"/>
+      <c r="J37" s="136"/>
+      <c r="K37" s="136"/>
+      <c r="L37" s="136"/>
+      <c r="M37" s="136"/>
+      <c r="N37" s="136"/>
     </row>
     <row r="38" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A38" s="117" t="s">
+      <c r="A38" s="134" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="117"/>
-      <c r="C38" s="117"/>
-      <c r="D38" s="117"/>
-      <c r="E38" s="117"/>
-      <c r="F38" s="117"/>
-      <c r="G38" s="117"/>
-      <c r="H38" s="117"/>
-      <c r="I38" s="117"/>
-      <c r="J38" s="117"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="117"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
+      <c r="B38" s="134"/>
+      <c r="C38" s="134"/>
+      <c r="D38" s="134"/>
+      <c r="E38" s="134"/>
+      <c r="F38" s="134"/>
+      <c r="G38" s="134"/>
+      <c r="H38" s="134"/>
+      <c r="I38" s="134"/>
+      <c r="J38" s="134"/>
+      <c r="K38" s="134"/>
+      <c r="L38" s="134"/>
+      <c r="M38" s="134"/>
+      <c r="N38" s="134"/>
     </row>
     <row r="39" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A39" s="117" t="s">
+      <c r="A39" s="134" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="117"/>
-      <c r="C39" s="117"/>
-      <c r="D39" s="117"/>
-      <c r="E39" s="117"/>
-      <c r="F39" s="117"/>
-      <c r="G39" s="117"/>
-      <c r="H39" s="117"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="117"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
+      <c r="B39" s="134"/>
+      <c r="C39" s="134"/>
+      <c r="D39" s="134"/>
+      <c r="E39" s="134"/>
+      <c r="F39" s="134"/>
+      <c r="G39" s="134"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="134"/>
+      <c r="J39" s="134"/>
+      <c r="K39" s="134"/>
+      <c r="L39" s="134"/>
+      <c r="M39" s="134"/>
+      <c r="N39" s="134"/>
     </row>
     <row r="40" spans="1:16" ht="26.25">
-      <c r="B40" s="113"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="113"/>
-      <c r="E40" s="113"/>
-      <c r="F40" s="113"/>
-      <c r="G40" s="113"/>
-      <c r="H40" s="113"/>
-      <c r="I40" s="113"/>
-      <c r="J40" s="113"/>
-      <c r="K40" s="113"/>
-      <c r="L40" s="113"/>
-      <c r="M40" s="113"/>
-      <c r="N40" s="113"/>
+      <c r="B40" s="60"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="60"/>
+      <c r="F40" s="60"/>
+      <c r="G40" s="60"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
+      <c r="J40" s="60"/>
+      <c r="K40" s="60"/>
+      <c r="L40" s="60"/>
+      <c r="M40" s="60"/>
+      <c r="N40" s="60"/>
     </row>
     <row r="41" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A41" s="116" t="s">
+      <c r="A41" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="116"/>
-      <c r="C41" s="116"/>
-      <c r="D41" s="116"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="116"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="116"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="116"/>
-      <c r="N41" s="121"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="133"/>
+      <c r="M41" s="133"/>
+      <c r="N41" s="62"/>
     </row>
     <row r="42" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A42" s="116" t="s">
+      <c r="A42" s="133" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="116"/>
-      <c r="C42" s="116"/>
-      <c r="D42" s="116"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="116"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="116"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="116"/>
-      <c r="M42" s="116"/>
-      <c r="N42" s="116"/>
-      <c r="O42" s="112"/>
-      <c r="P42" s="112"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="133"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
     </row>
     <row r="43" spans="1:16" ht="60.75" customHeight="1">
-      <c r="A43" s="116" t="s">
+      <c r="A43" s="133" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="116"/>
-      <c r="C43" s="116"/>
-      <c r="D43" s="116"/>
-      <c r="E43" s="116"/>
-      <c r="F43" s="116"/>
-      <c r="G43" s="116"/>
-      <c r="H43" s="116"/>
-      <c r="I43" s="116"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="116"/>
-      <c r="M43" s="116"/>
-      <c r="N43" s="116"/>
-      <c r="O43" s="112"/>
-      <c r="P43" s="112"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="133"/>
+      <c r="M43" s="133"/>
+      <c r="N43" s="133"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="111"/>
-      <c r="B44" s="111"/>
-      <c r="C44" s="111"/>
-      <c r="D44" s="111"/>
-      <c r="E44" s="111"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="111"/>
-      <c r="I44" s="111"/>
-      <c r="J44" s="111"/>
-      <c r="K44" s="111"/>
-      <c r="L44" s="111"/>
-      <c r="M44" s="111"/>
-      <c r="N44" s="111"/>
-      <c r="O44" s="112"/>
-      <c r="P44" s="112"/>
+      <c r="A44" s="136"/>
+      <c r="B44" s="136"/>
+      <c r="C44" s="136"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="136"/>
+      <c r="F44" s="136"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
+      <c r="J44" s="136"/>
+      <c r="K44" s="136"/>
+      <c r="L44" s="136"/>
+      <c r="M44" s="136"/>
+      <c r="N44" s="136"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="111"/>
-      <c r="B45" s="111"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="111"/>
-      <c r="J45" s="111"/>
-      <c r="K45" s="111"/>
-      <c r="L45" s="111"/>
-      <c r="M45" s="111"/>
-      <c r="N45" s="111"/>
-      <c r="O45" s="112"/>
-      <c r="P45" s="112"/>
+      <c r="A45" s="136"/>
+      <c r="B45" s="136"/>
+      <c r="C45" s="136"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="136"/>
+      <c r="I45" s="136"/>
+      <c r="J45" s="136"/>
+      <c r="K45" s="136"/>
+      <c r="L45" s="136"/>
+      <c r="M45" s="136"/>
+      <c r="N45" s="136"/>
+      <c r="O45" s="59"/>
+      <c r="P45" s="59"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="111"/>
-      <c r="B46" s="111"/>
-      <c r="C46" s="111"/>
-      <c r="D46" s="111"/>
-      <c r="E46" s="111"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="111"/>
-      <c r="I46" s="111"/>
-      <c r="J46" s="111"/>
-      <c r="K46" s="111"/>
-      <c r="L46" s="111"/>
-      <c r="M46" s="111"/>
-      <c r="N46" s="111"/>
-      <c r="O46" s="112"/>
-      <c r="P46" s="112"/>
+      <c r="A46" s="136"/>
+      <c r="B46" s="136"/>
+      <c r="C46" s="136"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="136"/>
+      <c r="F46" s="136"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
+      <c r="J46" s="136"/>
+      <c r="K46" s="136"/>
+      <c r="L46" s="136"/>
+      <c r="M46" s="136"/>
+      <c r="N46" s="136"/>
+      <c r="O46" s="59"/>
+      <c r="P46" s="59"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="111"/>
-      <c r="B47" s="111"/>
-      <c r="C47" s="111"/>
-      <c r="D47" s="111"/>
-      <c r="E47" s="111"/>
-      <c r="F47" s="111"/>
-      <c r="G47" s="111"/>
-      <c r="H47" s="111"/>
-      <c r="I47" s="111"/>
-      <c r="J47" s="111"/>
-      <c r="K47" s="111"/>
-      <c r="L47" s="111"/>
-      <c r="M47" s="111"/>
-      <c r="N47" s="111"/>
-      <c r="O47" s="112"/>
-      <c r="P47" s="112"/>
+      <c r="A47" s="136"/>
+      <c r="B47" s="136"/>
+      <c r="C47" s="136"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="136"/>
+      <c r="I47" s="136"/>
+      <c r="J47" s="136"/>
+      <c r="K47" s="136"/>
+      <c r="L47" s="136"/>
+      <c r="M47" s="136"/>
+      <c r="N47" s="136"/>
+      <c r="O47" s="59"/>
+      <c r="P47" s="59"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="111"/>
-      <c r="B48" s="111"/>
-      <c r="C48" s="111"/>
-      <c r="D48" s="111"/>
-      <c r="E48" s="111"/>
-      <c r="F48" s="111"/>
-      <c r="G48" s="111"/>
-      <c r="H48" s="111"/>
-      <c r="I48" s="111"/>
-      <c r="J48" s="111"/>
-      <c r="K48" s="111"/>
-      <c r="L48" s="111"/>
-      <c r="M48" s="111"/>
-      <c r="N48" s="111"/>
-      <c r="O48" s="112"/>
-      <c r="P48" s="112"/>
+      <c r="A48" s="136"/>
+      <c r="B48" s="136"/>
+      <c r="C48" s="136"/>
+      <c r="D48" s="136"/>
+      <c r="E48" s="136"/>
+      <c r="F48" s="136"/>
+      <c r="G48" s="136"/>
+      <c r="H48" s="136"/>
+      <c r="I48" s="136"/>
+      <c r="J48" s="136"/>
+      <c r="K48" s="136"/>
+      <c r="L48" s="136"/>
+      <c r="M48" s="136"/>
+      <c r="N48" s="136"/>
+      <c r="O48" s="59"/>
+      <c r="P48" s="59"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="111"/>
-      <c r="B49" s="111"/>
-      <c r="C49" s="111"/>
-      <c r="D49" s="111"/>
-      <c r="E49" s="111"/>
-      <c r="F49" s="111"/>
-      <c r="G49" s="111"/>
-      <c r="H49" s="111"/>
-      <c r="I49" s="111"/>
-      <c r="J49" s="111"/>
-      <c r="K49" s="111"/>
-      <c r="L49" s="111"/>
-      <c r="M49" s="111"/>
-      <c r="N49" s="111"/>
-      <c r="O49" s="112"/>
-      <c r="P49" s="112"/>
+      <c r="A49" s="136"/>
+      <c r="B49" s="136"/>
+      <c r="C49" s="136"/>
+      <c r="D49" s="136"/>
+      <c r="E49" s="136"/>
+      <c r="F49" s="136"/>
+      <c r="G49" s="136"/>
+      <c r="H49" s="136"/>
+      <c r="I49" s="136"/>
+      <c r="J49" s="136"/>
+      <c r="K49" s="136"/>
+      <c r="L49" s="136"/>
+      <c r="M49" s="136"/>
+      <c r="N49" s="136"/>
+      <c r="O49" s="59"/>
+      <c r="P49" s="59"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="111"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="111"/>
-      <c r="D50" s="111"/>
-      <c r="E50" s="111"/>
-      <c r="F50" s="111"/>
-      <c r="G50" s="111"/>
-      <c r="H50" s="111"/>
-      <c r="I50" s="111"/>
-      <c r="J50" s="111"/>
-      <c r="K50" s="111"/>
-      <c r="L50" s="111"/>
-      <c r="M50" s="111"/>
-      <c r="N50" s="111"/>
-      <c r="O50" s="112"/>
-      <c r="P50" s="112"/>
+      <c r="A50" s="136"/>
+      <c r="B50" s="136"/>
+      <c r="C50" s="136"/>
+      <c r="D50" s="136"/>
+      <c r="E50" s="136"/>
+      <c r="F50" s="136"/>
+      <c r="G50" s="136"/>
+      <c r="H50" s="136"/>
+      <c r="I50" s="136"/>
+      <c r="J50" s="136"/>
+      <c r="K50" s="136"/>
+      <c r="L50" s="136"/>
+      <c r="M50" s="136"/>
+      <c r="N50" s="136"/>
+      <c r="O50" s="59"/>
+      <c r="P50" s="59"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="111"/>
-      <c r="B51" s="111"/>
-      <c r="C51" s="111"/>
-      <c r="D51" s="111"/>
-      <c r="E51" s="111"/>
-      <c r="F51" s="111"/>
-      <c r="G51" s="111"/>
-      <c r="H51" s="111"/>
-      <c r="I51" s="111"/>
-      <c r="J51" s="111"/>
-      <c r="K51" s="111"/>
-      <c r="L51" s="111"/>
-      <c r="M51" s="111"/>
-      <c r="N51" s="111"/>
-      <c r="O51" s="112"/>
-      <c r="P51" s="112"/>
+      <c r="A51" s="136"/>
+      <c r="B51" s="136"/>
+      <c r="C51" s="136"/>
+      <c r="D51" s="136"/>
+      <c r="E51" s="136"/>
+      <c r="F51" s="136"/>
+      <c r="G51" s="136"/>
+      <c r="H51" s="136"/>
+      <c r="I51" s="136"/>
+      <c r="J51" s="136"/>
+      <c r="K51" s="136"/>
+      <c r="L51" s="136"/>
+      <c r="M51" s="136"/>
+      <c r="N51" s="136"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="111"/>
-      <c r="B52" s="111"/>
-      <c r="C52" s="111"/>
-      <c r="D52" s="111"/>
-      <c r="E52" s="111"/>
-      <c r="F52" s="111"/>
-      <c r="G52" s="111"/>
-      <c r="H52" s="111"/>
-      <c r="I52" s="111"/>
-      <c r="J52" s="111"/>
-      <c r="K52" s="111"/>
-      <c r="L52" s="111"/>
-      <c r="M52" s="111"/>
-      <c r="N52" s="111"/>
-      <c r="O52" s="112"/>
-      <c r="P52" s="112"/>
+      <c r="A52" s="136"/>
+      <c r="B52" s="136"/>
+      <c r="C52" s="136"/>
+      <c r="D52" s="136"/>
+      <c r="E52" s="136"/>
+      <c r="F52" s="136"/>
+      <c r="G52" s="136"/>
+      <c r="H52" s="136"/>
+      <c r="I52" s="136"/>
+      <c r="J52" s="136"/>
+      <c r="K52" s="136"/>
+      <c r="L52" s="136"/>
+      <c r="M52" s="136"/>
+      <c r="N52" s="136"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="111"/>
-      <c r="B53" s="111"/>
-      <c r="C53" s="111"/>
-      <c r="D53" s="111"/>
-      <c r="E53" s="111"/>
-      <c r="F53" s="111"/>
-      <c r="G53" s="111"/>
-      <c r="H53" s="111"/>
-      <c r="I53" s="111"/>
-      <c r="J53" s="111"/>
-      <c r="K53" s="111"/>
-      <c r="L53" s="111"/>
-      <c r="M53" s="111"/>
-      <c r="N53" s="111"/>
-      <c r="O53" s="112"/>
-      <c r="P53" s="112"/>
+      <c r="A53" s="136"/>
+      <c r="B53" s="136"/>
+      <c r="C53" s="136"/>
+      <c r="D53" s="136"/>
+      <c r="E53" s="136"/>
+      <c r="F53" s="136"/>
+      <c r="G53" s="136"/>
+      <c r="H53" s="136"/>
+      <c r="I53" s="136"/>
+      <c r="J53" s="136"/>
+      <c r="K53" s="136"/>
+      <c r="L53" s="136"/>
+      <c r="M53" s="136"/>
+      <c r="N53" s="136"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="111"/>
-      <c r="B54" s="111"/>
-      <c r="C54" s="111"/>
-      <c r="D54" s="111"/>
-      <c r="E54" s="111"/>
-      <c r="F54" s="111"/>
-      <c r="G54" s="111"/>
-      <c r="H54" s="111"/>
-      <c r="I54" s="111"/>
-      <c r="J54" s="111"/>
-      <c r="K54" s="111"/>
-      <c r="L54" s="111"/>
-      <c r="M54" s="111"/>
-      <c r="N54" s="111"/>
-      <c r="O54" s="112"/>
-      <c r="P54" s="112"/>
+      <c r="A54" s="136"/>
+      <c r="B54" s="136"/>
+      <c r="C54" s="136"/>
+      <c r="D54" s="136"/>
+      <c r="E54" s="136"/>
+      <c r="F54" s="136"/>
+      <c r="G54" s="136"/>
+      <c r="H54" s="136"/>
+      <c r="I54" s="136"/>
+      <c r="J54" s="136"/>
+      <c r="K54" s="136"/>
+      <c r="L54" s="136"/>
+      <c r="M54" s="136"/>
+      <c r="N54" s="136"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="111"/>
-      <c r="B55" s="111"/>
-      <c r="C55" s="111"/>
-      <c r="D55" s="111"/>
-      <c r="E55" s="111"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="111"/>
-      <c r="I55" s="111"/>
-      <c r="J55" s="111"/>
-      <c r="K55" s="111"/>
-      <c r="L55" s="111"/>
-      <c r="M55" s="111"/>
-      <c r="N55" s="111"/>
-      <c r="O55" s="112"/>
-      <c r="P55" s="112"/>
+      <c r="A55" s="136"/>
+      <c r="B55" s="136"/>
+      <c r="C55" s="136"/>
+      <c r="D55" s="136"/>
+      <c r="E55" s="136"/>
+      <c r="F55" s="136"/>
+      <c r="G55" s="136"/>
+      <c r="H55" s="136"/>
+      <c r="I55" s="136"/>
+      <c r="J55" s="136"/>
+      <c r="K55" s="136"/>
+      <c r="L55" s="136"/>
+      <c r="M55" s="136"/>
+      <c r="N55" s="136"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="111"/>
-      <c r="B56" s="111"/>
-      <c r="C56" s="111"/>
-      <c r="D56" s="111"/>
-      <c r="E56" s="111"/>
-      <c r="F56" s="111"/>
-      <c r="G56" s="111"/>
-      <c r="H56" s="111"/>
-      <c r="I56" s="111"/>
-      <c r="J56" s="111"/>
-      <c r="K56" s="111"/>
-      <c r="L56" s="111"/>
-      <c r="M56" s="111"/>
-      <c r="N56" s="111"/>
-      <c r="O56" s="112"/>
-      <c r="P56" s="112"/>
+      <c r="A56" s="136"/>
+      <c r="B56" s="136"/>
+      <c r="C56" s="136"/>
+      <c r="D56" s="136"/>
+      <c r="E56" s="136"/>
+      <c r="F56" s="136"/>
+      <c r="G56" s="136"/>
+      <c r="H56" s="136"/>
+      <c r="I56" s="136"/>
+      <c r="J56" s="136"/>
+      <c r="K56" s="136"/>
+      <c r="L56" s="136"/>
+      <c r="M56" s="136"/>
+      <c r="N56" s="136"/>
+      <c r="O56" s="59"/>
+      <c r="P56" s="59"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="111"/>
-      <c r="B57" s="111"/>
-      <c r="C57" s="111"/>
-      <c r="D57" s="111"/>
-      <c r="E57" s="111"/>
-      <c r="F57" s="111"/>
-      <c r="G57" s="111"/>
-      <c r="H57" s="111"/>
-      <c r="I57" s="111"/>
-      <c r="J57" s="111"/>
-      <c r="K57" s="111"/>
-      <c r="L57" s="111"/>
-      <c r="M57" s="111"/>
-      <c r="N57" s="111"/>
-      <c r="O57" s="112"/>
-      <c r="P57" s="112"/>
+      <c r="A57" s="136"/>
+      <c r="B57" s="136"/>
+      <c r="C57" s="136"/>
+      <c r="D57" s="136"/>
+      <c r="E57" s="136"/>
+      <c r="F57" s="136"/>
+      <c r="G57" s="136"/>
+      <c r="H57" s="136"/>
+      <c r="I57" s="136"/>
+      <c r="J57" s="136"/>
+      <c r="K57" s="136"/>
+      <c r="L57" s="136"/>
+      <c r="M57" s="136"/>
+      <c r="N57" s="136"/>
+      <c r="O57" s="59"/>
+      <c r="P57" s="59"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="111"/>
-      <c r="B58" s="111"/>
-      <c r="C58" s="111"/>
-      <c r="D58" s="111"/>
-      <c r="E58" s="111"/>
-      <c r="F58" s="111"/>
-      <c r="G58" s="111"/>
-      <c r="H58" s="111"/>
-      <c r="I58" s="111"/>
-      <c r="J58" s="111"/>
-      <c r="K58" s="111"/>
-      <c r="L58" s="111"/>
-      <c r="M58" s="111"/>
-      <c r="N58" s="111"/>
-      <c r="O58" s="112"/>
-      <c r="P58" s="112"/>
+      <c r="A58" s="136"/>
+      <c r="B58" s="136"/>
+      <c r="C58" s="136"/>
+      <c r="D58" s="136"/>
+      <c r="E58" s="136"/>
+      <c r="F58" s="136"/>
+      <c r="G58" s="136"/>
+      <c r="H58" s="136"/>
+      <c r="I58" s="136"/>
+      <c r="J58" s="136"/>
+      <c r="K58" s="136"/>
+      <c r="L58" s="136"/>
+      <c r="M58" s="136"/>
+      <c r="N58" s="136"/>
+      <c r="O58" s="59"/>
+      <c r="P58" s="59"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="111"/>
-      <c r="B59" s="111"/>
-      <c r="C59" s="111"/>
-      <c r="D59" s="111"/>
-      <c r="E59" s="111"/>
-      <c r="F59" s="111"/>
-      <c r="G59" s="111"/>
-      <c r="H59" s="111"/>
-      <c r="I59" s="111"/>
-      <c r="J59" s="111"/>
-      <c r="K59" s="111"/>
-      <c r="L59" s="111"/>
-      <c r="M59" s="111"/>
-      <c r="N59" s="111"/>
-      <c r="O59" s="112"/>
-      <c r="P59" s="112"/>
+      <c r="A59" s="136"/>
+      <c r="B59" s="136"/>
+      <c r="C59" s="136"/>
+      <c r="D59" s="136"/>
+      <c r="E59" s="136"/>
+      <c r="F59" s="136"/>
+      <c r="G59" s="136"/>
+      <c r="H59" s="136"/>
+      <c r="I59" s="136"/>
+      <c r="J59" s="136"/>
+      <c r="K59" s="136"/>
+      <c r="L59" s="136"/>
+      <c r="M59" s="136"/>
+      <c r="N59" s="136"/>
+      <c r="O59" s="59"/>
+      <c r="P59" s="59"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="112"/>
-      <c r="B60" s="112"/>
-      <c r="C60" s="112"/>
-      <c r="D60" s="112"/>
-      <c r="E60" s="112"/>
-      <c r="F60" s="112"/>
-      <c r="G60" s="112"/>
-      <c r="H60" s="112"/>
-      <c r="I60" s="112"/>
-      <c r="J60" s="112"/>
-      <c r="K60" s="112"/>
-      <c r="L60" s="112"/>
-      <c r="M60" s="112"/>
-      <c r="N60" s="112"/>
-      <c r="O60" s="112"/>
-      <c r="P60" s="112"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="59"/>
+      <c r="H60" s="59"/>
+      <c r="I60" s="59"/>
+      <c r="J60" s="59"/>
+      <c r="K60" s="59"/>
+      <c r="L60" s="59"/>
+      <c r="M60" s="59"/>
+      <c r="N60" s="59"/>
+      <c r="O60" s="59"/>
+      <c r="P60" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A49:N49"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A50:N50"/>
+    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="A53:N53"/>
+    <mergeCell ref="A54:N54"/>
+    <mergeCell ref="A55:N55"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="A59:N59"/>
     <mergeCell ref="A41:M41"/>
     <mergeCell ref="A38:N38"/>
     <mergeCell ref="A39:N39"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="O1:O3"/>
-    <mergeCell ref="A55:N55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="A57:N57"/>
-    <mergeCell ref="A58:N58"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="A50:N50"/>
-    <mergeCell ref="A51:N51"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="A53:N53"/>
-    <mergeCell ref="A54:N54"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
     <mergeCell ref="B1:B4"/>
@@ -47216,15 +47249,14 @@
     <mergeCell ref="D1:E3"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="H1:H3"/>
-    <mergeCell ref="A42:N42"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A46:N46"/>
-    <mergeCell ref="A47:N47"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A49:N49"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="B29:O29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -47233,17 +47265,551 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE09EFEF-EC0B-4984-B180-595A6EF1BBAD}">
-  <dimension ref="A1"/>
+  <dimension ref="B1:F31"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
-    <col min="1" max="16384" width="20.7109375" style="51"/>
+    <col min="1" max="1" width="20.7109375" style="51"/>
+    <col min="2" max="2" width="15.7109375" style="51" customWidth="1"/>
+    <col min="3" max="3" width="65.7109375" style="51" customWidth="1"/>
+    <col min="4" max="16384" width="20.7109375" style="51"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B1" s="147" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+    </row>
+    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="148" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="148"/>
+      <c r="D2" s="148"/>
+      <c r="E2" s="148"/>
+      <c r="F2" s="148"/>
+    </row>
+    <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="148"/>
+      <c r="C3" s="148"/>
+      <c r="D3" s="148"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="148"/>
+    </row>
+    <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="149" t="s">
+        <v>136</v>
+      </c>
+      <c r="C4" s="149"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="149"/>
+      <c r="F4" s="149"/>
+    </row>
+    <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
+      <c r="E5" s="150"/>
+      <c r="F5" s="150"/>
+    </row>
+    <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="120" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="120" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="120" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" s="122" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="120"/>
+      <c r="C7" s="120"/>
+      <c r="D7" s="120"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="122"/>
+    </row>
+    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="120"/>
+      <c r="C8" s="120"/>
+      <c r="D8" s="120"/>
+      <c r="E8" s="120"/>
+      <c r="F8" s="122"/>
+    </row>
+    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="120"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="52" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="52" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="53">
+        <v>1</v>
+      </c>
+      <c r="C10" s="53" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="54">
+        <f>'Capacidade de Corrente'!I5</f>
+        <v>1200</v>
+      </c>
+      <c r="E10" s="54">
+        <f>'Capacidade de Corrente'!J5</f>
+        <v>127</v>
+      </c>
+      <c r="F10" s="146">
+        <f>'Capacidade de Corrente'!K5</f>
+        <v>9.4488188976377945</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="53">
+        <v>2</v>
+      </c>
+      <c r="C11" s="53" t="s">
+        <v>79</v>
+      </c>
+      <c r="D11" s="54">
+        <f>'Capacidade de Corrente'!I6</f>
+        <v>1700</v>
+      </c>
+      <c r="E11" s="54">
+        <f>'Capacidade de Corrente'!J6</f>
+        <v>127</v>
+      </c>
+      <c r="F11" s="146">
+        <f>'Capacidade de Corrente'!K6</f>
+        <v>13.385826771653543</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="53">
+        <v>3</v>
+      </c>
+      <c r="C12" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D12" s="54">
+        <f>'Capacidade de Corrente'!I7</f>
+        <v>2100</v>
+      </c>
+      <c r="E12" s="54">
+        <f>'Capacidade de Corrente'!J7</f>
+        <v>127</v>
+      </c>
+      <c r="F12" s="146">
+        <f>'Capacidade de Corrente'!K7</f>
+        <v>16.535433070866141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="53">
+        <v>4</v>
+      </c>
+      <c r="C13" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D13" s="54">
+        <f>'Capacidade de Corrente'!I8</f>
+        <v>1900</v>
+      </c>
+      <c r="E13" s="54">
+        <f>'Capacidade de Corrente'!J8</f>
+        <v>127</v>
+      </c>
+      <c r="F13" s="146">
+        <f>'Capacidade de Corrente'!K8</f>
+        <v>14.960629921259843</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="53">
+        <v>5</v>
+      </c>
+      <c r="C14" s="53" t="s">
+        <v>82</v>
+      </c>
+      <c r="D14" s="54">
+        <f>'Capacidade de Corrente'!I9</f>
+        <v>1900</v>
+      </c>
+      <c r="E14" s="54">
+        <f>'Capacidade de Corrente'!J9</f>
+        <v>127</v>
+      </c>
+      <c r="F14" s="146">
+        <f>'Capacidade de Corrente'!K9</f>
+        <v>14.960629921259843</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="53">
+        <v>6</v>
+      </c>
+      <c r="C15" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="D15" s="54">
+        <f>'Capacidade de Corrente'!I10</f>
+        <v>2500</v>
+      </c>
+      <c r="E15" s="54">
+        <f>'Capacidade de Corrente'!J10</f>
+        <v>127</v>
+      </c>
+      <c r="F15" s="146">
+        <f>'Capacidade de Corrente'!K10</f>
+        <v>19.685039370078741</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="53">
+        <v>7</v>
+      </c>
+      <c r="C16" s="53" t="s">
+        <v>84</v>
+      </c>
+      <c r="D16" s="54">
+        <f>'Capacidade de Corrente'!I11</f>
+        <v>2000</v>
+      </c>
+      <c r="E16" s="54">
+        <f>'Capacidade de Corrente'!J11</f>
+        <v>127</v>
+      </c>
+      <c r="F16" s="146">
+        <f>'Capacidade de Corrente'!K11</f>
+        <v>15.748031496062993</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="53">
+        <v>8</v>
+      </c>
+      <c r="C17" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="54">
+        <f>'Capacidade de Corrente'!I12</f>
+        <v>2000</v>
+      </c>
+      <c r="E17" s="54">
+        <f>'Capacidade de Corrente'!J12</f>
+        <v>127</v>
+      </c>
+      <c r="F17" s="146">
+        <f>'Capacidade de Corrente'!K12</f>
+        <v>15.748031496062993</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="53">
+        <v>9</v>
+      </c>
+      <c r="C18" s="53" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="54">
+        <f>'Capacidade de Corrente'!I13</f>
+        <v>2000</v>
+      </c>
+      <c r="E18" s="54">
+        <f>'Capacidade de Corrente'!J13</f>
+        <v>127</v>
+      </c>
+      <c r="F18" s="146">
+        <f>'Capacidade de Corrente'!K13</f>
+        <v>15.748031496062993</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="53">
+        <v>10</v>
+      </c>
+      <c r="C19" s="53" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="54">
+        <f>'Capacidade de Corrente'!I14</f>
+        <v>5400</v>
+      </c>
+      <c r="E19" s="54">
+        <f>'Capacidade de Corrente'!J14</f>
+        <v>220</v>
+      </c>
+      <c r="F19" s="146">
+        <f>'Capacidade de Corrente'!K14</f>
+        <v>24.545454545454547</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="53">
+        <v>11</v>
+      </c>
+      <c r="C20" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="54">
+        <f>'Capacidade de Corrente'!I15</f>
+        <v>5400</v>
+      </c>
+      <c r="E20" s="54">
+        <f>'Capacidade de Corrente'!J15</f>
+        <v>220</v>
+      </c>
+      <c r="F20" s="146">
+        <f>'Capacidade de Corrente'!K15</f>
+        <v>24.545454545454547</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="53">
+        <v>12</v>
+      </c>
+      <c r="C21" s="53" t="s">
+        <v>89</v>
+      </c>
+      <c r="D21" s="54">
+        <f>'Capacidade de Corrente'!I16</f>
+        <v>2625</v>
+      </c>
+      <c r="E21" s="54">
+        <f>'Capacidade de Corrente'!J16</f>
+        <v>220</v>
+      </c>
+      <c r="F21" s="146">
+        <f>'Capacidade de Corrente'!K16</f>
+        <v>11.931818181818182</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="53">
+        <v>13</v>
+      </c>
+      <c r="C22" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="D22" s="54">
+        <f>'Capacidade de Corrente'!I17</f>
+        <v>1650</v>
+      </c>
+      <c r="E22" s="54">
+        <f>'Capacidade de Corrente'!J17</f>
+        <v>220</v>
+      </c>
+      <c r="F22" s="146">
+        <f>'Capacidade de Corrente'!K17</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="53">
+        <v>14</v>
+      </c>
+      <c r="C23" s="53" t="s">
+        <v>91</v>
+      </c>
+      <c r="D23" s="54">
+        <f>'Capacidade de Corrente'!I18</f>
+        <v>1650</v>
+      </c>
+      <c r="E23" s="54">
+        <f>'Capacidade de Corrente'!J18</f>
+        <v>220</v>
+      </c>
+      <c r="F23" s="146">
+        <f>'Capacidade de Corrente'!K18</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="53">
+        <v>15</v>
+      </c>
+      <c r="C24" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="D24" s="54">
+        <f>'Capacidade de Corrente'!I19</f>
+        <v>400</v>
+      </c>
+      <c r="E24" s="54">
+        <f>'Capacidade de Corrente'!J19</f>
+        <v>127</v>
+      </c>
+      <c r="F24" s="146">
+        <f>'Capacidade de Corrente'!K19</f>
+        <v>3.1496062992125986</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="53">
+        <v>16</v>
+      </c>
+      <c r="C25" s="53" t="s">
+        <v>93</v>
+      </c>
+      <c r="D25" s="54">
+        <f>'Capacidade de Corrente'!I20</f>
+        <v>1760</v>
+      </c>
+      <c r="E25" s="54">
+        <f>'Capacidade de Corrente'!J20</f>
+        <v>220</v>
+      </c>
+      <c r="F25" s="146">
+        <f>'Capacidade de Corrente'!K20</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="53">
+        <v>17</v>
+      </c>
+      <c r="C26" s="53" t="s">
+        <v>94</v>
+      </c>
+      <c r="D26" s="54">
+        <f>'Capacidade de Corrente'!I21</f>
+        <v>300</v>
+      </c>
+      <c r="E26" s="54">
+        <f>'Capacidade de Corrente'!J21</f>
+        <v>220</v>
+      </c>
+      <c r="F26" s="146">
+        <f>'Capacidade de Corrente'!K21</f>
+        <v>1.3636363636363635</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="53">
+        <v>18</v>
+      </c>
+      <c r="C27" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D27" s="54">
+        <f>'Capacidade de Corrente'!I22</f>
+        <v>600</v>
+      </c>
+      <c r="E27" s="54">
+        <f>'Capacidade de Corrente'!J22</f>
+        <v>127</v>
+      </c>
+      <c r="F27" s="146">
+        <f>'Capacidade de Corrente'!K22</f>
+        <v>4.7244094488188972</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="53">
+        <v>19</v>
+      </c>
+      <c r="C28" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D28" s="54">
+        <f>'Capacidade de Corrente'!I23</f>
+        <v>600</v>
+      </c>
+      <c r="E28" s="54">
+        <f>'Capacidade de Corrente'!J23</f>
+        <v>127</v>
+      </c>
+      <c r="F28" s="146">
+        <f>'Capacidade de Corrente'!K23</f>
+        <v>4.7244094488188972</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="53">
+        <v>20</v>
+      </c>
+      <c r="C29" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="54">
+        <f>'Capacidade de Corrente'!I24</f>
+        <v>600</v>
+      </c>
+      <c r="E29" s="54">
+        <f>'Capacidade de Corrente'!J24</f>
+        <v>127</v>
+      </c>
+      <c r="F29" s="146">
+        <f>'Capacidade de Corrente'!K24</f>
+        <v>4.7244094488188972</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="53">
+        <v>21</v>
+      </c>
+      <c r="C30" s="53" t="s">
+        <v>95</v>
+      </c>
+      <c r="D30" s="54">
+        <f>'Capacidade de Corrente'!I25</f>
+        <v>600</v>
+      </c>
+      <c r="E30" s="54">
+        <f>'Capacidade de Corrente'!J25</f>
+        <v>127</v>
+      </c>
+      <c r="F30" s="146">
+        <f>'Capacidade de Corrente'!K25</f>
+        <v>4.7244094488188972</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="65">
+        <v>22</v>
+      </c>
+      <c r="C31" s="65" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" s="54">
+        <f>'Capacidade de Corrente'!I26</f>
+        <v>38885</v>
+      </c>
+      <c r="E31" s="54"/>
+      <c r="F31" s="146"/>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="B2:F3"/>
+    <mergeCell ref="B4:F5"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="C6:C9"/>
+    <mergeCell ref="D6:D8"/>
+    <mergeCell ref="E6:E8"/>
+    <mergeCell ref="F6:F8"/>
+  </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\GitHub\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B9D2E8A-B620-42EC-BC7D-0F2127962940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A1B253-BAC9-4545-B1B7-E0E780B41ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação_Informações" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
   <si>
     <t>Alunos: Gabriel Schettino Lucas e Ramon Rodrigues Morello</t>
   </si>
@@ -539,14 +539,152 @@
     <t>1) O cálculo do método "limte de queda de tensão" utilizará a corrente de projeto já calculada na planinha "Capacidade de Corrente", as colunas estão relacionadas!</t>
   </si>
   <si>
-    <t>2) No projeto um circuito pode estar passando por mais de um caminho, logo nesse cálculo será considerado o pior dos caminhos que o circuito está fazendo.</t>
+    <t>LEGENDA</t>
+  </si>
+  <si>
+    <t>PL: Ponto de Luz</t>
+  </si>
+  <si>
+    <t>TM: Tomada</t>
+  </si>
+  <si>
+    <t>TRECHO</t>
+  </si>
+  <si>
+    <t>Potência aparente do trecho (VA)</t>
+  </si>
+  <si>
+    <t>Corrente de projeto (A)</t>
+  </si>
+  <si>
+    <t>Comprimento do circuito (m)</t>
+  </si>
+  <si>
+    <t>Comprimento do circuito (km)</t>
+  </si>
+  <si>
+    <t>Δe_trecho (%)</t>
+  </si>
+  <si>
+    <t>Δe_acumulado (%)</t>
+  </si>
+  <si>
+    <t>EXEMPLO</t>
+  </si>
+  <si>
+    <t>QDC até ponto de luz A = QDC - PL(A)</t>
+  </si>
+  <si>
+    <t>Ponto de luz A até tomada 8 = PL(A) - TM(8)</t>
+  </si>
+  <si>
+    <t>QDC - PL(B1)</t>
+  </si>
+  <si>
+    <t>PL(B1) - PL(B2)</t>
+  </si>
+  <si>
+    <t>PL(B2) - PL(B3)</t>
+  </si>
+  <si>
+    <t>PL(B3) - PL(B4)</t>
+  </si>
+  <si>
+    <t>QDC - PL(I)</t>
+  </si>
+  <si>
+    <t>PL(I) - PL(J)</t>
+  </si>
+  <si>
+    <t>ANOTAÇÃO  EXTRA</t>
+  </si>
+  <si>
+    <t>Se houver mais um de um ponto de luz com mesma letra, eles serão numerados conforme proximadade do QDC, onde PL(A1) é o ponto de luz A mais proximo do QDC.</t>
+  </si>
+  <si>
+    <t>PL(I) - PL(K1)</t>
+  </si>
+  <si>
+    <t>PL(K1) - PL(K2)</t>
+  </si>
+  <si>
+    <t>PL(N1) - PL(N2)</t>
+  </si>
+  <si>
+    <t>PL(N2) - PL(N3)</t>
+  </si>
+  <si>
+    <t>Secção sugerida (mm²)</t>
+  </si>
+  <si>
+    <t>PL(N3) - PL(O)</t>
+  </si>
+  <si>
+    <t>QDC - PL(N1)</t>
+  </si>
+  <si>
+    <t>ΔV                (V/A*km) [2]</t>
+  </si>
+  <si>
+    <t>2) Os valores de "ΔV" utlizado nas tabelas a seguir será escolhido baseando-se na secção sugerida pelo método "Capacidade de Corrente" e com FP = 0.8</t>
+  </si>
+  <si>
+    <t>Tensão                    (V)</t>
+  </si>
+  <si>
+    <t>PL(M1) - PL(M2)</t>
+  </si>
+  <si>
+    <t>QDC - PL(M1)</t>
+  </si>
+  <si>
+    <t>QDC - PL(Q1)</t>
+  </si>
+  <si>
+    <t>PL(Q1) - PL(Q2)</t>
+  </si>
+  <si>
+    <t>PL(Q1) - PL(P1)</t>
+  </si>
+  <si>
+    <t>PL(P1) - PL(P2)</t>
+  </si>
+  <si>
+    <t>CIRCUITO 1: ILUMINAÇÃO EXTERNA</t>
+  </si>
+  <si>
+    <t>CIRCUITO 2: ILUMINAÇÃO INTERNA</t>
+  </si>
+  <si>
+    <t>QDC - PL(H)</t>
+  </si>
+  <si>
+    <t>PL(H) - PL(G)</t>
+  </si>
+  <si>
+    <t>PL(G) - PL(F)</t>
+  </si>
+  <si>
+    <t>PL(E) - PL(D)</t>
+  </si>
+  <si>
+    <t>PL(F) - PL(E)</t>
+  </si>
+  <si>
+    <t>PL(E) - PL(C.)</t>
+  </si>
+  <si>
+    <t>PL(B1) - PL(A)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="26">
+  <numFmts count="1">
+    <numFmt numFmtId="174" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -702,8 +840,15 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -740,8 +885,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="59">
     <border>
       <left/>
       <right/>
@@ -1388,11 +1539,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="151">
+  <cellXfs count="179">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1603,20 +1791,38 @@
     <xf numFmtId="2" fontId="1" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1629,45 +1835,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1682,22 +1877,18 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1721,32 +1912,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1755,9 +1922,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1787,13 +1951,31 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1801,6 +1983,96 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="174" fontId="16" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2033,14 +2305,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="80" t="s">
+      <c r="B1" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="82"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="90"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2063,14 +2335,14 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="91" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="82"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="89"/>
+      <c r="G2" s="90"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2121,16 +2393,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="84" t="s">
+      <c r="B4" s="92" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="85"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="84" t="s">
+      <c r="C4" s="93"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="92" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="79"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="74"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2153,17 +2425,17 @@
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="78" t="s">
+      <c r="B5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="79"/>
+      <c r="C5" s="74"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="78" t="s">
+      <c r="E5" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="79"/>
+      <c r="F5" s="74"/>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2189,17 +2461,17 @@
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="78" t="s">
+      <c r="B6" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="79"/>
+      <c r="C6" s="74"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="78" t="s">
+      <c r="E6" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="79"/>
+      <c r="F6" s="74"/>
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2225,17 +2497,17 @@
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="78" t="s">
+      <c r="B7" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="79"/>
+      <c r="C7" s="74"/>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="78" t="s">
+      <c r="E7" s="73" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="79"/>
+      <c r="F7" s="74"/>
       <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
@@ -2261,15 +2533,15 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="73" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="74"/>
       <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="78"/>
-      <c r="F8" s="79"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="74"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
@@ -2293,15 +2565,15 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="78" t="s">
+      <c r="B9" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="74"/>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="78"/>
-      <c r="F9" s="79"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="74"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
@@ -2325,15 +2597,15 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="73"/>
-      <c r="D10" s="76" t="s">
+      <c r="C10" s="85"/>
+      <c r="D10" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="78"/>
-      <c r="F10" s="79"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
@@ -2357,11 +2629,11 @@
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="77"/>
-      <c r="E11" s="78"/>
-      <c r="F11" s="79"/>
+      <c r="B11" s="95"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
@@ -2385,11 +2657,11 @@
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="79"/>
+      <c r="B12" s="73"/>
+      <c r="C12" s="74"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="78"/>
-      <c r="F12" s="79"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2413,11 +2685,11 @@
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="91"/>
-      <c r="C13" s="92"/>
+      <c r="B13" s="81"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="92"/>
+      <c r="E13" s="81"/>
+      <c r="F13" s="82"/>
       <c r="G13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2441,11 +2713,11 @@
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="79"/>
+      <c r="B14" s="73"/>
+      <c r="C14" s="74"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="78"/>
-      <c r="F14" s="79"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2525,14 +2797,14 @@
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="93" t="s">
+      <c r="B17" s="83" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="73"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="85"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2555,14 +2827,14 @@
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="95" t="s">
+      <c r="B18" s="86" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="87"/>
-      <c r="D18" s="87"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="88"/>
+      <c r="C18" s="76"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="76"/>
+      <c r="F18" s="76"/>
+      <c r="G18" s="77"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2585,14 +2857,14 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="86" t="s">
+      <c r="B19" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="88"/>
+      <c r="C19" s="76"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="77"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2615,14 +2887,14 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="75" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="87"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="88"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="77"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2645,14 +2917,14 @@
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="96" t="s">
+      <c r="B21" s="87" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="87"/>
-      <c r="D21" s="87"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="88"/>
+      <c r="C21" s="76"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="76"/>
+      <c r="G21" s="77"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2675,14 +2947,14 @@
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="86" t="s">
+      <c r="B22" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="87"/>
-      <c r="D22" s="87"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="88"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="76"/>
+      <c r="G22" s="77"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2705,12 +2977,12 @@
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="88"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2733,14 +3005,14 @@
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="89" t="s">
+      <c r="B24" s="78" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="90"/>
-      <c r="D24" s="90"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="75"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="1"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1"/>
@@ -9139,6 +9411,24 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
@@ -9153,24 +9443,6 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9181,7 +9453,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B26" sqref="B26:F26"/>
     </sheetView>
   </sheetViews>
@@ -9224,19 +9496,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="105" t="s">
+      <c r="B2" s="106" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="94"/>
-      <c r="F2" s="94"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="94"/>
-      <c r="K2" s="94"/>
-      <c r="L2" s="73"/>
+      <c r="C2" s="84"/>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="85"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -9254,17 +9526,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="90"/>
-      <c r="H3" s="90"/>
-      <c r="I3" s="90"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="75"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="79"/>
+      <c r="L3" s="80"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -9282,27 +9554,27 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="106" t="s">
+      <c r="B4" s="107" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="107" t="s">
+      <c r="C4" s="108" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="79"/>
-      <c r="E4" s="107" t="s">
+      <c r="D4" s="74"/>
+      <c r="E4" s="108" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="85"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="108" t="s">
+      <c r="F4" s="93"/>
+      <c r="G4" s="74"/>
+      <c r="H4" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="85"/>
-      <c r="J4" s="79"/>
-      <c r="K4" s="108" t="s">
+      <c r="I4" s="93"/>
+      <c r="J4" s="74"/>
+      <c r="K4" s="109" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="79"/>
+      <c r="L4" s="74"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -9320,7 +9592,7 @@
     </row>
     <row r="5" spans="1:26" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="77"/>
+      <c r="B5" s="97"/>
       <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
@@ -9468,35 +9740,35 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="102" t="s">
+      <c r="B8" s="113" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="104">
+      <c r="C8" s="115">
         <v>17.579999999999998</v>
       </c>
-      <c r="D8" s="104">
+      <c r="D8" s="115">
         <v>23.9</v>
       </c>
-      <c r="E8" s="100">
+      <c r="E8" s="101">
         <v>3</v>
       </c>
-      <c r="F8" s="100">
+      <c r="F8" s="101">
         <v>100</v>
       </c>
-      <c r="G8" s="98">
+      <c r="G8" s="111">
         <v>300</v>
       </c>
-      <c r="H8" s="98">
+      <c r="H8" s="111">
         <v>4</v>
       </c>
-      <c r="I8" s="100" t="s">
+      <c r="I8" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="100">
+      <c r="J8" s="101">
         <v>200</v>
       </c>
-      <c r="K8" s="100"/>
-      <c r="L8" s="100"/>
+      <c r="K8" s="101"/>
+      <c r="L8" s="101"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -9514,17 +9786,17 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="103"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="99"/>
-      <c r="I9" s="101"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101"/>
+      <c r="B9" s="114"/>
+      <c r="C9" s="102"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="102"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="102"/>
+      <c r="J9" s="102"/>
+      <c r="K9" s="102"/>
+      <c r="L9" s="102"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -10137,9 +10409,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="112"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
+      <c r="J22" s="103"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="84"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -10157,13 +10429,13 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="97" t="s">
+      <c r="B23" s="110" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
+      <c r="C23" s="76"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="76"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -10222,9 +10494,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="113"/>
-      <c r="K25" s="87"/>
-      <c r="L25" s="87"/>
+      <c r="J25" s="104"/>
+      <c r="K25" s="76"/>
+      <c r="L25" s="76"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -10242,20 +10514,20 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="110" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="87"/>
-      <c r="D26" s="87"/>
-      <c r="E26" s="87"/>
-      <c r="F26" s="87"/>
+      <c r="C26" s="76"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="76"/>
+      <c r="F26" s="76"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="110"/>
-      <c r="K26" s="87"/>
-      <c r="L26" s="87"/>
-      <c r="M26" s="109"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="76"/>
+      <c r="L26" s="76"/>
+      <c r="M26" s="98"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -10280,10 +10552,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="87"/>
-      <c r="L27" s="87"/>
-      <c r="M27" s="87"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="76"/>
+      <c r="L27" s="76"/>
+      <c r="M27" s="76"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -10308,12 +10580,12 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="110"/>
-      <c r="K28" s="87"/>
-      <c r="L28" s="87"/>
-      <c r="M28" s="114"/>
-      <c r="N28" s="87"/>
-      <c r="O28" s="87"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="76"/>
+      <c r="L28" s="76"/>
+      <c r="M28" s="105"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="76"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -10336,12 +10608,12 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="87"/>
-      <c r="L29" s="87"/>
-      <c r="M29" s="87"/>
-      <c r="N29" s="87"/>
-      <c r="O29" s="87"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="76"/>
+      <c r="L29" s="76"/>
+      <c r="M29" s="76"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="76"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -10364,10 +10636,10 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="110"/>
-      <c r="K30" s="87"/>
-      <c r="L30" s="87"/>
-      <c r="M30" s="109"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="76"/>
+      <c r="L30" s="76"/>
+      <c r="M30" s="98"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -10392,10 +10664,10 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="110"/>
-      <c r="K31" s="87"/>
-      <c r="L31" s="87"/>
-      <c r="M31" s="87"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="76"/>
+      <c r="L31" s="76"/>
+      <c r="M31" s="76"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -10420,9 +10692,9 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="111"/>
-      <c r="K32" s="87"/>
-      <c r="L32" s="87"/>
+      <c r="J32" s="100"/>
+      <c r="K32" s="76"/>
+      <c r="L32" s="76"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -10448,9 +10720,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="87"/>
-      <c r="K33" s="87"/>
-      <c r="L33" s="87"/>
+      <c r="J33" s="76"/>
+      <c r="K33" s="76"/>
+      <c r="L33" s="76"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -10476,9 +10748,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="87"/>
-      <c r="K34" s="87"/>
-      <c r="L34" s="87"/>
+      <c r="J34" s="76"/>
+      <c r="K34" s="76"/>
+      <c r="L34" s="76"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -16646,6 +16918,23 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="J32:L34"/>
@@ -16660,23 +16949,6 @@
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="J31:L31"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -16687,8 +16959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:Z1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="F10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5:I25"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -16758,20 +17030,20 @@
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="115" t="s">
+      <c r="B3" s="116" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="116" t="s">
+      <c r="C3" s="117" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="118" t="s">
+      <c r="D3" s="119" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="119"/>
-      <c r="F3" s="118" t="s">
+      <c r="E3" s="120"/>
+      <c r="F3" s="119" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="119"/>
+      <c r="G3" s="120"/>
       <c r="H3" s="30" t="s">
         <v>30</v>
       </c>
@@ -16802,8 +17074,8 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="77"/>
-      <c r="C4" s="117"/>
+      <c r="B4" s="97"/>
+      <c r="C4" s="118"/>
       <c r="D4" s="32" t="s">
         <v>72</v>
       </c>
@@ -45222,7 +45494,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6759B52-4959-44EC-8CDD-E150AEF41805}">
   <dimension ref="B4:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -45236,20 +45508,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="123" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="123"/>
+      <c r="B5" s="122"/>
+      <c r="C5" s="122"/>
+      <c r="D5" s="124"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="53">
@@ -45497,8 +45769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36D55B-3867-4EF4-9271-23288EED3B45}">
   <dimension ref="A1:R60"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A13" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -45516,90 +45788,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="121" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="120" t="s">
+      <c r="C1" s="121" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="138"/>
-      <c r="F1" s="137" t="s">
+      <c r="E1" s="130"/>
+      <c r="F1" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="138"/>
-      <c r="H1" s="143" t="s">
+      <c r="G1" s="130"/>
+      <c r="H1" s="135" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="120" t="s">
+      <c r="J1" s="121" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="122" t="s">
+      <c r="K1" s="123" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="122" t="s">
+      <c r="L1" s="123" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="122" t="s">
+      <c r="M1" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="122" t="s">
+      <c r="N1" s="123" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="122" t="s">
+      <c r="O1" s="123" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="122" t="s">
+      <c r="P1" s="123" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" s="122" t="s">
+      <c r="Q1" s="123" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="120"/>
-      <c r="C2" s="120"/>
-      <c r="D2" s="139"/>
-      <c r="E2" s="140"/>
-      <c r="F2" s="139"/>
-      <c r="G2" s="140"/>
-      <c r="H2" s="144"/>
-      <c r="I2" s="120"/>
-      <c r="J2" s="120"/>
-      <c r="K2" s="122"/>
-      <c r="L2" s="122"/>
-      <c r="M2" s="122"/>
-      <c r="N2" s="122"/>
-      <c r="O2" s="122"/>
-      <c r="P2" s="122"/>
-      <c r="Q2" s="122"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="136"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="123"/>
+      <c r="L2" s="123"/>
+      <c r="M2" s="123"/>
+      <c r="N2" s="123"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="123"/>
+      <c r="Q2" s="123"/>
     </row>
     <row r="3" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="141"/>
-      <c r="E3" s="142"/>
-      <c r="F3" s="141"/>
-      <c r="G3" s="142"/>
-      <c r="H3" s="145"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
+      <c r="B3" s="121"/>
+      <c r="C3" s="121"/>
+      <c r="D3" s="133"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="133"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="137"/>
+      <c r="I3" s="121"/>
+      <c r="J3" s="121"/>
+      <c r="K3" s="123"/>
+      <c r="L3" s="123"/>
+      <c r="M3" s="123"/>
+      <c r="N3" s="123"/>
+      <c r="O3" s="123"/>
+      <c r="P3" s="123"/>
+      <c r="Q3" s="123"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
+      <c r="B4" s="121"/>
+      <c r="C4" s="121"/>
       <c r="D4" s="52" t="s">
         <v>72</v>
       </c>
@@ -46631,106 +46903,106 @@
       <c r="Q26" s="67"/>
     </row>
     <row r="28" spans="2:18" ht="31.5" customHeight="1">
-      <c r="B28" s="130" t="s">
+      <c r="B28" s="144" t="s">
         <v>127</v>
       </c>
-      <c r="C28" s="131"/>
-      <c r="D28" s="131"/>
-      <c r="E28" s="131"/>
-      <c r="F28" s="131"/>
-      <c r="G28" s="131"/>
-      <c r="H28" s="131"/>
-      <c r="I28" s="131"/>
-      <c r="J28" s="131"/>
-      <c r="K28" s="131"/>
-      <c r="L28" s="131"/>
-      <c r="M28" s="131"/>
-      <c r="N28" s="131"/>
-      <c r="O28" s="132"/>
+      <c r="C28" s="145"/>
+      <c r="D28" s="145"/>
+      <c r="E28" s="145"/>
+      <c r="F28" s="145"/>
+      <c r="G28" s="145"/>
+      <c r="H28" s="145"/>
+      <c r="I28" s="145"/>
+      <c r="J28" s="145"/>
+      <c r="K28" s="145"/>
+      <c r="L28" s="145"/>
+      <c r="M28" s="145"/>
+      <c r="N28" s="145"/>
+      <c r="O28" s="146"/>
     </row>
     <row r="29" spans="2:18" s="61" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B29" s="124" t="s">
+      <c r="B29" s="138" t="s">
         <v>128</v>
       </c>
-      <c r="C29" s="125"/>
-      <c r="D29" s="125"/>
-      <c r="E29" s="125"/>
-      <c r="F29" s="125"/>
-      <c r="G29" s="125"/>
-      <c r="H29" s="125"/>
-      <c r="I29" s="125"/>
-      <c r="J29" s="125"/>
-      <c r="K29" s="125"/>
-      <c r="L29" s="125"/>
-      <c r="M29" s="125"/>
-      <c r="N29" s="125"/>
-      <c r="O29" s="126"/>
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="139"/>
+      <c r="K29" s="139"/>
+      <c r="L29" s="139"/>
+      <c r="M29" s="139"/>
+      <c r="N29" s="139"/>
+      <c r="O29" s="140"/>
     </row>
     <row r="30" spans="2:18" s="61" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B30" s="124" t="s">
+      <c r="B30" s="138" t="s">
         <v>133</v>
       </c>
-      <c r="C30" s="125"/>
-      <c r="D30" s="125"/>
-      <c r="E30" s="125"/>
-      <c r="F30" s="125"/>
-      <c r="G30" s="125"/>
-      <c r="H30" s="125"/>
-      <c r="I30" s="125"/>
-      <c r="J30" s="125"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="125"/>
-      <c r="M30" s="125"/>
-      <c r="N30" s="125"/>
-      <c r="O30" s="126"/>
+      <c r="C30" s="139"/>
+      <c r="D30" s="139"/>
+      <c r="E30" s="139"/>
+      <c r="F30" s="139"/>
+      <c r="G30" s="139"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="139"/>
+      <c r="K30" s="139"/>
+      <c r="L30" s="139"/>
+      <c r="M30" s="139"/>
+      <c r="N30" s="139"/>
+      <c r="O30" s="140"/>
     </row>
     <row r="31" spans="2:18" s="61" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B31" s="124"/>
-      <c r="C31" s="125"/>
-      <c r="D31" s="125"/>
-      <c r="E31" s="125"/>
-      <c r="F31" s="125"/>
-      <c r="G31" s="125"/>
-      <c r="H31" s="125"/>
-      <c r="I31" s="125"/>
-      <c r="J31" s="125"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="125"/>
-      <c r="M31" s="125"/>
-      <c r="N31" s="125"/>
-      <c r="O31" s="126"/>
+      <c r="B31" s="138"/>
+      <c r="C31" s="139"/>
+      <c r="D31" s="139"/>
+      <c r="E31" s="139"/>
+      <c r="F31" s="139"/>
+      <c r="G31" s="139"/>
+      <c r="H31" s="139"/>
+      <c r="I31" s="139"/>
+      <c r="J31" s="139"/>
+      <c r="K31" s="139"/>
+      <c r="L31" s="139"/>
+      <c r="M31" s="139"/>
+      <c r="N31" s="139"/>
+      <c r="O31" s="140"/>
     </row>
     <row r="32" spans="2:18" s="61" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B32" s="124"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="125"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="125"/>
-      <c r="L32" s="125"/>
-      <c r="M32" s="125"/>
-      <c r="N32" s="125"/>
-      <c r="O32" s="126"/>
+      <c r="B32" s="138"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="139"/>
+      <c r="E32" s="139"/>
+      <c r="F32" s="139"/>
+      <c r="G32" s="139"/>
+      <c r="H32" s="139"/>
+      <c r="I32" s="139"/>
+      <c r="J32" s="139"/>
+      <c r="K32" s="139"/>
+      <c r="L32" s="139"/>
+      <c r="M32" s="139"/>
+      <c r="N32" s="139"/>
+      <c r="O32" s="140"/>
     </row>
     <row r="33" spans="1:16" s="61" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B33" s="127"/>
-      <c r="C33" s="128"/>
-      <c r="D33" s="128"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="129"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="142"/>
+      <c r="I33" s="142"/>
+      <c r="J33" s="142"/>
+      <c r="K33" s="142"/>
+      <c r="L33" s="142"/>
+      <c r="M33" s="142"/>
+      <c r="N33" s="142"/>
+      <c r="O33" s="143"/>
     </row>
     <row r="34" spans="1:16" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="68"/>
@@ -46766,11 +47038,11 @@
       <c r="O35" s="64"/>
     </row>
     <row r="36" spans="1:16" ht="47.25" customHeight="1">
-      <c r="A36" s="135" t="s">
+      <c r="A36" s="128" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="135"/>
-      <c r="C36" s="135"/>
+      <c r="B36" s="128"/>
+      <c r="C36" s="128"/>
       <c r="D36" s="63" t="s">
         <v>119</v>
       </c>
@@ -46783,55 +47055,55 @@
       <c r="G36" s="63"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="B37" s="136"/>
-      <c r="C37" s="136"/>
-      <c r="D37" s="136"/>
-      <c r="E37" s="136"/>
-      <c r="F37" s="136"/>
-      <c r="G37" s="136"/>
-      <c r="H37" s="136"/>
-      <c r="I37" s="136"/>
-      <c r="J37" s="136"/>
-      <c r="K37" s="136"/>
-      <c r="L37" s="136"/>
-      <c r="M37" s="136"/>
-      <c r="N37" s="136"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="125"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="125"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="125"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="125"/>
+      <c r="J37" s="125"/>
+      <c r="K37" s="125"/>
+      <c r="L37" s="125"/>
+      <c r="M37" s="125"/>
+      <c r="N37" s="125"/>
     </row>
     <row r="38" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A38" s="134" t="s">
+      <c r="A38" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="134"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="134"/>
+      <c r="B38" s="127"/>
+      <c r="C38" s="127"/>
+      <c r="D38" s="127"/>
+      <c r="E38" s="127"/>
+      <c r="F38" s="127"/>
+      <c r="G38" s="127"/>
+      <c r="H38" s="127"/>
+      <c r="I38" s="127"/>
+      <c r="J38" s="127"/>
+      <c r="K38" s="127"/>
+      <c r="L38" s="127"/>
+      <c r="M38" s="127"/>
+      <c r="N38" s="127"/>
     </row>
     <row r="39" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A39" s="134" t="s">
+      <c r="A39" s="127" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="134"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="134"/>
+      <c r="B39" s="127"/>
+      <c r="C39" s="127"/>
+      <c r="D39" s="127"/>
+      <c r="E39" s="127"/>
+      <c r="F39" s="127"/>
+      <c r="G39" s="127"/>
+      <c r="H39" s="127"/>
+      <c r="I39" s="127"/>
+      <c r="J39" s="127"/>
+      <c r="K39" s="127"/>
+      <c r="L39" s="127"/>
+      <c r="M39" s="127"/>
+      <c r="N39" s="127"/>
     </row>
     <row r="40" spans="1:16" ht="26.25">
       <c r="B40" s="60"/>
@@ -46849,348 +47121,348 @@
       <c r="N40" s="60"/>
     </row>
     <row r="41" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A41" s="133" t="s">
+      <c r="A41" s="126" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="133"/>
-      <c r="C41" s="133"/>
-      <c r="D41" s="133"/>
-      <c r="E41" s="133"/>
-      <c r="F41" s="133"/>
-      <c r="G41" s="133"/>
-      <c r="H41" s="133"/>
-      <c r="I41" s="133"/>
-      <c r="J41" s="133"/>
-      <c r="K41" s="133"/>
-      <c r="L41" s="133"/>
-      <c r="M41" s="133"/>
+      <c r="B41" s="126"/>
+      <c r="C41" s="126"/>
+      <c r="D41" s="126"/>
+      <c r="E41" s="126"/>
+      <c r="F41" s="126"/>
+      <c r="G41" s="126"/>
+      <c r="H41" s="126"/>
+      <c r="I41" s="126"/>
+      <c r="J41" s="126"/>
+      <c r="K41" s="126"/>
+      <c r="L41" s="126"/>
+      <c r="M41" s="126"/>
       <c r="N41" s="62"/>
     </row>
     <row r="42" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A42" s="133" t="s">
+      <c r="A42" s="126" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="133"/>
-      <c r="C42" s="133"/>
-      <c r="D42" s="133"/>
-      <c r="E42" s="133"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133"/>
-      <c r="H42" s="133"/>
-      <c r="I42" s="133"/>
-      <c r="J42" s="133"/>
-      <c r="K42" s="133"/>
-      <c r="L42" s="133"/>
-      <c r="M42" s="133"/>
-      <c r="N42" s="133"/>
+      <c r="B42" s="126"/>
+      <c r="C42" s="126"/>
+      <c r="D42" s="126"/>
+      <c r="E42" s="126"/>
+      <c r="F42" s="126"/>
+      <c r="G42" s="126"/>
+      <c r="H42" s="126"/>
+      <c r="I42" s="126"/>
+      <c r="J42" s="126"/>
+      <c r="K42" s="126"/>
+      <c r="L42" s="126"/>
+      <c r="M42" s="126"/>
+      <c r="N42" s="126"/>
       <c r="O42" s="59"/>
       <c r="P42" s="59"/>
     </row>
     <row r="43" spans="1:16" ht="60.75" customHeight="1">
-      <c r="A43" s="133" t="s">
+      <c r="A43" s="126" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="133"/>
-      <c r="C43" s="133"/>
-      <c r="D43" s="133"/>
-      <c r="E43" s="133"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="133"/>
-      <c r="H43" s="133"/>
-      <c r="I43" s="133"/>
-      <c r="J43" s="133"/>
-      <c r="K43" s="133"/>
-      <c r="L43" s="133"/>
-      <c r="M43" s="133"/>
-      <c r="N43" s="133"/>
+      <c r="B43" s="126"/>
+      <c r="C43" s="126"/>
+      <c r="D43" s="126"/>
+      <c r="E43" s="126"/>
+      <c r="F43" s="126"/>
+      <c r="G43" s="126"/>
+      <c r="H43" s="126"/>
+      <c r="I43" s="126"/>
+      <c r="J43" s="126"/>
+      <c r="K43" s="126"/>
+      <c r="L43" s="126"/>
+      <c r="M43" s="126"/>
+      <c r="N43" s="126"/>
       <c r="O43" s="59"/>
       <c r="P43" s="59"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="136"/>
-      <c r="B44" s="136"/>
-      <c r="C44" s="136"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="136"/>
-      <c r="F44" s="136"/>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
-      <c r="J44" s="136"/>
-      <c r="K44" s="136"/>
-      <c r="L44" s="136"/>
-      <c r="M44" s="136"/>
-      <c r="N44" s="136"/>
+      <c r="A44" s="125"/>
+      <c r="B44" s="125"/>
+      <c r="C44" s="125"/>
+      <c r="D44" s="125"/>
+      <c r="E44" s="125"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125"/>
+      <c r="H44" s="125"/>
+      <c r="I44" s="125"/>
+      <c r="J44" s="125"/>
+      <c r="K44" s="125"/>
+      <c r="L44" s="125"/>
+      <c r="M44" s="125"/>
+      <c r="N44" s="125"/>
       <c r="O44" s="59"/>
       <c r="P44" s="59"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="136"/>
-      <c r="B45" s="136"/>
-      <c r="C45" s="136"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="136"/>
-      <c r="I45" s="136"/>
-      <c r="J45" s="136"/>
-      <c r="K45" s="136"/>
-      <c r="L45" s="136"/>
-      <c r="M45" s="136"/>
-      <c r="N45" s="136"/>
+      <c r="A45" s="125"/>
+      <c r="B45" s="125"/>
+      <c r="C45" s="125"/>
+      <c r="D45" s="125"/>
+      <c r="E45" s="125"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="125"/>
+      <c r="H45" s="125"/>
+      <c r="I45" s="125"/>
+      <c r="J45" s="125"/>
+      <c r="K45" s="125"/>
+      <c r="L45" s="125"/>
+      <c r="M45" s="125"/>
+      <c r="N45" s="125"/>
       <c r="O45" s="59"/>
       <c r="P45" s="59"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="136"/>
-      <c r="B46" s="136"/>
-      <c r="C46" s="136"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="136"/>
-      <c r="F46" s="136"/>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-      <c r="J46" s="136"/>
-      <c r="K46" s="136"/>
-      <c r="L46" s="136"/>
-      <c r="M46" s="136"/>
-      <c r="N46" s="136"/>
+      <c r="A46" s="125"/>
+      <c r="B46" s="125"/>
+      <c r="C46" s="125"/>
+      <c r="D46" s="125"/>
+      <c r="E46" s="125"/>
+      <c r="F46" s="125"/>
+      <c r="G46" s="125"/>
+      <c r="H46" s="125"/>
+      <c r="I46" s="125"/>
+      <c r="J46" s="125"/>
+      <c r="K46" s="125"/>
+      <c r="L46" s="125"/>
+      <c r="M46" s="125"/>
+      <c r="N46" s="125"/>
       <c r="O46" s="59"/>
       <c r="P46" s="59"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="136"/>
-      <c r="B47" s="136"/>
-      <c r="C47" s="136"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
-      <c r="H47" s="136"/>
-      <c r="I47" s="136"/>
-      <c r="J47" s="136"/>
-      <c r="K47" s="136"/>
-      <c r="L47" s="136"/>
-      <c r="M47" s="136"/>
-      <c r="N47" s="136"/>
+      <c r="A47" s="125"/>
+      <c r="B47" s="125"/>
+      <c r="C47" s="125"/>
+      <c r="D47" s="125"/>
+      <c r="E47" s="125"/>
+      <c r="F47" s="125"/>
+      <c r="G47" s="125"/>
+      <c r="H47" s="125"/>
+      <c r="I47" s="125"/>
+      <c r="J47" s="125"/>
+      <c r="K47" s="125"/>
+      <c r="L47" s="125"/>
+      <c r="M47" s="125"/>
+      <c r="N47" s="125"/>
       <c r="O47" s="59"/>
       <c r="P47" s="59"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="136"/>
-      <c r="B48" s="136"/>
-      <c r="C48" s="136"/>
-      <c r="D48" s="136"/>
-      <c r="E48" s="136"/>
-      <c r="F48" s="136"/>
-      <c r="G48" s="136"/>
-      <c r="H48" s="136"/>
-      <c r="I48" s="136"/>
-      <c r="J48" s="136"/>
-      <c r="K48" s="136"/>
-      <c r="L48" s="136"/>
-      <c r="M48" s="136"/>
-      <c r="N48" s="136"/>
+      <c r="A48" s="125"/>
+      <c r="B48" s="125"/>
+      <c r="C48" s="125"/>
+      <c r="D48" s="125"/>
+      <c r="E48" s="125"/>
+      <c r="F48" s="125"/>
+      <c r="G48" s="125"/>
+      <c r="H48" s="125"/>
+      <c r="I48" s="125"/>
+      <c r="J48" s="125"/>
+      <c r="K48" s="125"/>
+      <c r="L48" s="125"/>
+      <c r="M48" s="125"/>
+      <c r="N48" s="125"/>
       <c r="O48" s="59"/>
       <c r="P48" s="59"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="136"/>
-      <c r="B49" s="136"/>
-      <c r="C49" s="136"/>
-      <c r="D49" s="136"/>
-      <c r="E49" s="136"/>
-      <c r="F49" s="136"/>
-      <c r="G49" s="136"/>
-      <c r="H49" s="136"/>
-      <c r="I49" s="136"/>
-      <c r="J49" s="136"/>
-      <c r="K49" s="136"/>
-      <c r="L49" s="136"/>
-      <c r="M49" s="136"/>
-      <c r="N49" s="136"/>
+      <c r="A49" s="125"/>
+      <c r="B49" s="125"/>
+      <c r="C49" s="125"/>
+      <c r="D49" s="125"/>
+      <c r="E49" s="125"/>
+      <c r="F49" s="125"/>
+      <c r="G49" s="125"/>
+      <c r="H49" s="125"/>
+      <c r="I49" s="125"/>
+      <c r="J49" s="125"/>
+      <c r="K49" s="125"/>
+      <c r="L49" s="125"/>
+      <c r="M49" s="125"/>
+      <c r="N49" s="125"/>
       <c r="O49" s="59"/>
       <c r="P49" s="59"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="136"/>
-      <c r="B50" s="136"/>
-      <c r="C50" s="136"/>
-      <c r="D50" s="136"/>
-      <c r="E50" s="136"/>
-      <c r="F50" s="136"/>
-      <c r="G50" s="136"/>
-      <c r="H50" s="136"/>
-      <c r="I50" s="136"/>
-      <c r="J50" s="136"/>
-      <c r="K50" s="136"/>
-      <c r="L50" s="136"/>
-      <c r="M50" s="136"/>
-      <c r="N50" s="136"/>
+      <c r="A50" s="125"/>
+      <c r="B50" s="125"/>
+      <c r="C50" s="125"/>
+      <c r="D50" s="125"/>
+      <c r="E50" s="125"/>
+      <c r="F50" s="125"/>
+      <c r="G50" s="125"/>
+      <c r="H50" s="125"/>
+      <c r="I50" s="125"/>
+      <c r="J50" s="125"/>
+      <c r="K50" s="125"/>
+      <c r="L50" s="125"/>
+      <c r="M50" s="125"/>
+      <c r="N50" s="125"/>
       <c r="O50" s="59"/>
       <c r="P50" s="59"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="136"/>
-      <c r="B51" s="136"/>
-      <c r="C51" s="136"/>
-      <c r="D51" s="136"/>
-      <c r="E51" s="136"/>
-      <c r="F51" s="136"/>
-      <c r="G51" s="136"/>
-      <c r="H51" s="136"/>
-      <c r="I51" s="136"/>
-      <c r="J51" s="136"/>
-      <c r="K51" s="136"/>
-      <c r="L51" s="136"/>
-      <c r="M51" s="136"/>
-      <c r="N51" s="136"/>
+      <c r="A51" s="125"/>
+      <c r="B51" s="125"/>
+      <c r="C51" s="125"/>
+      <c r="D51" s="125"/>
+      <c r="E51" s="125"/>
+      <c r="F51" s="125"/>
+      <c r="G51" s="125"/>
+      <c r="H51" s="125"/>
+      <c r="I51" s="125"/>
+      <c r="J51" s="125"/>
+      <c r="K51" s="125"/>
+      <c r="L51" s="125"/>
+      <c r="M51" s="125"/>
+      <c r="N51" s="125"/>
       <c r="O51" s="59"/>
       <c r="P51" s="59"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="136"/>
-      <c r="B52" s="136"/>
-      <c r="C52" s="136"/>
-      <c r="D52" s="136"/>
-      <c r="E52" s="136"/>
-      <c r="F52" s="136"/>
-      <c r="G52" s="136"/>
-      <c r="H52" s="136"/>
-      <c r="I52" s="136"/>
-      <c r="J52" s="136"/>
-      <c r="K52" s="136"/>
-      <c r="L52" s="136"/>
-      <c r="M52" s="136"/>
-      <c r="N52" s="136"/>
+      <c r="A52" s="125"/>
+      <c r="B52" s="125"/>
+      <c r="C52" s="125"/>
+      <c r="D52" s="125"/>
+      <c r="E52" s="125"/>
+      <c r="F52" s="125"/>
+      <c r="G52" s="125"/>
+      <c r="H52" s="125"/>
+      <c r="I52" s="125"/>
+      <c r="J52" s="125"/>
+      <c r="K52" s="125"/>
+      <c r="L52" s="125"/>
+      <c r="M52" s="125"/>
+      <c r="N52" s="125"/>
       <c r="O52" s="59"/>
       <c r="P52" s="59"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="136"/>
-      <c r="B53" s="136"/>
-      <c r="C53" s="136"/>
-      <c r="D53" s="136"/>
-      <c r="E53" s="136"/>
-      <c r="F53" s="136"/>
-      <c r="G53" s="136"/>
-      <c r="H53" s="136"/>
-      <c r="I53" s="136"/>
-      <c r="J53" s="136"/>
-      <c r="K53" s="136"/>
-      <c r="L53" s="136"/>
-      <c r="M53" s="136"/>
-      <c r="N53" s="136"/>
+      <c r="A53" s="125"/>
+      <c r="B53" s="125"/>
+      <c r="C53" s="125"/>
+      <c r="D53" s="125"/>
+      <c r="E53" s="125"/>
+      <c r="F53" s="125"/>
+      <c r="G53" s="125"/>
+      <c r="H53" s="125"/>
+      <c r="I53" s="125"/>
+      <c r="J53" s="125"/>
+      <c r="K53" s="125"/>
+      <c r="L53" s="125"/>
+      <c r="M53" s="125"/>
+      <c r="N53" s="125"/>
       <c r="O53" s="59"/>
       <c r="P53" s="59"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="136"/>
-      <c r="B54" s="136"/>
-      <c r="C54" s="136"/>
-      <c r="D54" s="136"/>
-      <c r="E54" s="136"/>
-      <c r="F54" s="136"/>
-      <c r="G54" s="136"/>
-      <c r="H54" s="136"/>
-      <c r="I54" s="136"/>
-      <c r="J54" s="136"/>
-      <c r="K54" s="136"/>
-      <c r="L54" s="136"/>
-      <c r="M54" s="136"/>
-      <c r="N54" s="136"/>
+      <c r="A54" s="125"/>
+      <c r="B54" s="125"/>
+      <c r="C54" s="125"/>
+      <c r="D54" s="125"/>
+      <c r="E54" s="125"/>
+      <c r="F54" s="125"/>
+      <c r="G54" s="125"/>
+      <c r="H54" s="125"/>
+      <c r="I54" s="125"/>
+      <c r="J54" s="125"/>
+      <c r="K54" s="125"/>
+      <c r="L54" s="125"/>
+      <c r="M54" s="125"/>
+      <c r="N54" s="125"/>
       <c r="O54" s="59"/>
       <c r="P54" s="59"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="136"/>
-      <c r="B55" s="136"/>
-      <c r="C55" s="136"/>
-      <c r="D55" s="136"/>
-      <c r="E55" s="136"/>
-      <c r="F55" s="136"/>
-      <c r="G55" s="136"/>
-      <c r="H55" s="136"/>
-      <c r="I55" s="136"/>
-      <c r="J55" s="136"/>
-      <c r="K55" s="136"/>
-      <c r="L55" s="136"/>
-      <c r="M55" s="136"/>
-      <c r="N55" s="136"/>
+      <c r="A55" s="125"/>
+      <c r="B55" s="125"/>
+      <c r="C55" s="125"/>
+      <c r="D55" s="125"/>
+      <c r="E55" s="125"/>
+      <c r="F55" s="125"/>
+      <c r="G55" s="125"/>
+      <c r="H55" s="125"/>
+      <c r="I55" s="125"/>
+      <c r="J55" s="125"/>
+      <c r="K55" s="125"/>
+      <c r="L55" s="125"/>
+      <c r="M55" s="125"/>
+      <c r="N55" s="125"/>
       <c r="O55" s="59"/>
       <c r="P55" s="59"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="136"/>
-      <c r="B56" s="136"/>
-      <c r="C56" s="136"/>
-      <c r="D56" s="136"/>
-      <c r="E56" s="136"/>
-      <c r="F56" s="136"/>
-      <c r="G56" s="136"/>
-      <c r="H56" s="136"/>
-      <c r="I56" s="136"/>
-      <c r="J56" s="136"/>
-      <c r="K56" s="136"/>
-      <c r="L56" s="136"/>
-      <c r="M56" s="136"/>
-      <c r="N56" s="136"/>
+      <c r="A56" s="125"/>
+      <c r="B56" s="125"/>
+      <c r="C56" s="125"/>
+      <c r="D56" s="125"/>
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="125"/>
+      <c r="H56" s="125"/>
+      <c r="I56" s="125"/>
+      <c r="J56" s="125"/>
+      <c r="K56" s="125"/>
+      <c r="L56" s="125"/>
+      <c r="M56" s="125"/>
+      <c r="N56" s="125"/>
       <c r="O56" s="59"/>
       <c r="P56" s="59"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="136"/>
-      <c r="B57" s="136"/>
-      <c r="C57" s="136"/>
-      <c r="D57" s="136"/>
-      <c r="E57" s="136"/>
-      <c r="F57" s="136"/>
-      <c r="G57" s="136"/>
-      <c r="H57" s="136"/>
-      <c r="I57" s="136"/>
-      <c r="J57" s="136"/>
-      <c r="K57" s="136"/>
-      <c r="L57" s="136"/>
-      <c r="M57" s="136"/>
-      <c r="N57" s="136"/>
+      <c r="A57" s="125"/>
+      <c r="B57" s="125"/>
+      <c r="C57" s="125"/>
+      <c r="D57" s="125"/>
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="125"/>
+      <c r="H57" s="125"/>
+      <c r="I57" s="125"/>
+      <c r="J57" s="125"/>
+      <c r="K57" s="125"/>
+      <c r="L57" s="125"/>
+      <c r="M57" s="125"/>
+      <c r="N57" s="125"/>
       <c r="O57" s="59"/>
       <c r="P57" s="59"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="136"/>
-      <c r="B58" s="136"/>
-      <c r="C58" s="136"/>
-      <c r="D58" s="136"/>
-      <c r="E58" s="136"/>
-      <c r="F58" s="136"/>
-      <c r="G58" s="136"/>
-      <c r="H58" s="136"/>
-      <c r="I58" s="136"/>
-      <c r="J58" s="136"/>
-      <c r="K58" s="136"/>
-      <c r="L58" s="136"/>
-      <c r="M58" s="136"/>
-      <c r="N58" s="136"/>
+      <c r="A58" s="125"/>
+      <c r="B58" s="125"/>
+      <c r="C58" s="125"/>
+      <c r="D58" s="125"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="125"/>
+      <c r="H58" s="125"/>
+      <c r="I58" s="125"/>
+      <c r="J58" s="125"/>
+      <c r="K58" s="125"/>
+      <c r="L58" s="125"/>
+      <c r="M58" s="125"/>
+      <c r="N58" s="125"/>
       <c r="O58" s="59"/>
       <c r="P58" s="59"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="136"/>
-      <c r="B59" s="136"/>
-      <c r="C59" s="136"/>
-      <c r="D59" s="136"/>
-      <c r="E59" s="136"/>
-      <c r="F59" s="136"/>
-      <c r="G59" s="136"/>
-      <c r="H59" s="136"/>
-      <c r="I59" s="136"/>
-      <c r="J59" s="136"/>
-      <c r="K59" s="136"/>
-      <c r="L59" s="136"/>
-      <c r="M59" s="136"/>
-      <c r="N59" s="136"/>
+      <c r="A59" s="125"/>
+      <c r="B59" s="125"/>
+      <c r="C59" s="125"/>
+      <c r="D59" s="125"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="125"/>
+      <c r="H59" s="125"/>
+      <c r="I59" s="125"/>
+      <c r="J59" s="125"/>
+      <c r="K59" s="125"/>
+      <c r="L59" s="125"/>
+      <c r="M59" s="125"/>
+      <c r="N59" s="125"/>
       <c r="O59" s="59"/>
       <c r="P59" s="59"/>
     </row>
@@ -47214,28 +47486,14 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="A46:N46"/>
-    <mergeCell ref="A47:N47"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A49:N49"/>
-    <mergeCell ref="A42:N42"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A50:N50"/>
-    <mergeCell ref="A51:N51"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="A53:N53"/>
-    <mergeCell ref="A54:N54"/>
-    <mergeCell ref="A55:N55"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="A57:N57"/>
-    <mergeCell ref="A58:N58"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="B29:O29"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="I1:I3"/>
@@ -47249,14 +47507,28 @@
     <mergeCell ref="D1:E3"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="H1:H3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="A53:N53"/>
+    <mergeCell ref="A54:N54"/>
+    <mergeCell ref="A55:N55"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A50:N50"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A49:N49"/>
+    <mergeCell ref="A42:N42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -47265,549 +47537,1216 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE09EFEF-EC0B-4984-B180-595A6EF1BBAD}">
-  <dimension ref="B1:F31"/>
+  <dimension ref="B2:K47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="20.7109375" style="51"/>
-    <col min="2" max="2" width="15.7109375" style="51" customWidth="1"/>
-    <col min="3" max="3" width="65.7109375" style="51" customWidth="1"/>
-    <col min="4" max="16384" width="20.7109375" style="51"/>
+    <col min="2" max="4" width="20.7109375" style="51" customWidth="1"/>
+    <col min="5" max="16384" width="20.7109375" style="51"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B1" s="147" t="s">
+    <row r="2" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="159" t="s">
         <v>134</v>
       </c>
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-    </row>
-    <row r="2" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="148" t="s">
+      <c r="C2" s="160"/>
+      <c r="D2" s="160"/>
+      <c r="E2" s="160"/>
+      <c r="F2" s="160"/>
+      <c r="G2" s="160"/>
+      <c r="H2" s="160"/>
+      <c r="I2" s="160"/>
+      <c r="J2" s="160"/>
+      <c r="K2" s="161"/>
+    </row>
+    <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="162" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="148"/>
-      <c r="D2" s="148"/>
-      <c r="E2" s="148"/>
-      <c r="F2" s="148"/>
-    </row>
-    <row r="3" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="148"/>
-      <c r="C3" s="148"/>
-      <c r="D3" s="148"/>
-      <c r="E3" s="148"/>
-      <c r="F3" s="148"/>
-    </row>
-    <row r="4" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="149" t="s">
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="147"/>
+      <c r="I3" s="147"/>
+      <c r="J3" s="147"/>
+      <c r="K3" s="163"/>
+    </row>
+    <row r="4" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="162" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="147"/>
+      <c r="I4" s="147"/>
+      <c r="J4" s="147"/>
+      <c r="K4" s="163"/>
+    </row>
+    <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="164"/>
+      <c r="C5" s="72"/>
+      <c r="D5" s="72"/>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="72"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="157"/>
+      <c r="J5" s="157"/>
+      <c r="K5" s="163"/>
+    </row>
+    <row r="6" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="165" t="s">
         <v>136</v>
       </c>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-    </row>
-    <row r="5" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="150"/>
-      <c r="C5" s="150"/>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-    </row>
-    <row r="6" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="120" t="s">
-        <v>65</v>
-      </c>
-      <c r="C6" s="120" t="s">
-        <v>66</v>
-      </c>
-      <c r="D6" s="120" t="s">
-        <v>69</v>
-      </c>
-      <c r="E6" s="120" t="s">
-        <v>70</v>
-      </c>
-      <c r="F6" s="122" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="120"/>
-      <c r="C7" s="120"/>
-      <c r="D7" s="120"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="122"/>
-    </row>
-    <row r="8" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="120"/>
-      <c r="C8" s="120"/>
-      <c r="D8" s="120"/>
-      <c r="E8" s="120"/>
-      <c r="F8" s="122"/>
-    </row>
-    <row r="9" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="120"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="52" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="52" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="52" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="53">
-        <v>1</v>
-      </c>
-      <c r="C10" s="53" t="s">
-        <v>78</v>
-      </c>
-      <c r="D10" s="54">
-        <f>'Capacidade de Corrente'!I5</f>
-        <v>1200</v>
-      </c>
-      <c r="E10" s="54">
-        <f>'Capacidade de Corrente'!J5</f>
+      <c r="C6" s="154"/>
+      <c r="D6" s="151" t="s">
+        <v>146</v>
+      </c>
+      <c r="E6" s="151"/>
+      <c r="F6" s="151"/>
+      <c r="G6" s="151" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="151"/>
+      <c r="I6" s="157"/>
+      <c r="J6" s="157"/>
+      <c r="K6" s="163"/>
+    </row>
+    <row r="7" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="166" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="150"/>
+      <c r="D7" s="156" t="s">
+        <v>147</v>
+      </c>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="147" t="s">
+        <v>156</v>
+      </c>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="163"/>
+    </row>
+    <row r="8" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="166" t="s">
+        <v>138</v>
+      </c>
+      <c r="C8" s="150"/>
+      <c r="D8" s="156" t="s">
+        <v>148</v>
+      </c>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="163"/>
+    </row>
+    <row r="9" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="167"/>
+      <c r="C9" s="168"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="169"/>
+      <c r="G9" s="148"/>
+      <c r="H9" s="148"/>
+      <c r="I9" s="148"/>
+      <c r="J9" s="148"/>
+      <c r="K9" s="170"/>
+    </row>
+    <row r="10" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="149"/>
+      <c r="C10" s="149"/>
+      <c r="D10" s="149"/>
+      <c r="E10" s="149"/>
+      <c r="F10" s="149"/>
+      <c r="G10" s="149"/>
+      <c r="H10" s="149"/>
+    </row>
+    <row r="11" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="152" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="152"/>
+      <c r="K11" s="152"/>
+    </row>
+    <row r="12" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="155" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="155" t="s">
+        <v>140</v>
+      </c>
+      <c r="D12" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="E12" s="155" t="s">
+        <v>141</v>
+      </c>
+      <c r="F12" s="155" t="s">
+        <v>142</v>
+      </c>
+      <c r="G12" s="155" t="s">
+        <v>143</v>
+      </c>
+      <c r="H12" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="I12" s="155" t="s">
+        <v>144</v>
+      </c>
+      <c r="J12" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="K12" s="155" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="153"/>
+      <c r="C13" s="153"/>
+      <c r="D13" s="153"/>
+      <c r="E13" s="153"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="153"/>
+      <c r="H13" s="153"/>
+      <c r="I13" s="153"/>
+      <c r="J13" s="153"/>
+      <c r="K13" s="153"/>
+    </row>
+    <row r="14" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="54" t="s">
+        <v>163</v>
+      </c>
+      <c r="C14" s="54">
+        <v>400</v>
+      </c>
+      <c r="D14" s="171">
         <v>127</v>
       </c>
-      <c r="F10" s="146">
-        <f>'Capacidade de Corrente'!K5</f>
-        <v>9.4488188976377945</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="53">
-        <v>2</v>
-      </c>
-      <c r="C11" s="53" t="s">
-        <v>79</v>
-      </c>
-      <c r="D11" s="54">
-        <f>'Capacidade de Corrente'!I6</f>
-        <v>1700</v>
-      </c>
-      <c r="E11" s="54">
-        <f>'Capacidade de Corrente'!J6</f>
+      <c r="E14" s="158">
+        <f>C14/D14</f>
+        <v>3.1496062992125986</v>
+      </c>
+      <c r="F14" s="158">
+        <v>14.629899999999999</v>
+      </c>
+      <c r="G14" s="158">
+        <f>F14/1000</f>
+        <v>1.46299E-2</v>
+      </c>
+      <c r="H14" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I14" s="158">
+        <f>H14*E14*G14*100/D14</f>
+        <v>0.51883581127162259</v>
+      </c>
+      <c r="J14" s="158">
+        <f>I14</f>
+        <v>0.51883581127162259</v>
+      </c>
+      <c r="K14" s="176">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B15" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="54">
+        <v>300</v>
+      </c>
+      <c r="D15" s="171">
         <v>127</v>
       </c>
-      <c r="F11" s="146">
-        <f>'Capacidade de Corrente'!K6</f>
-        <v>13.385826771653543</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="53">
-        <v>3</v>
-      </c>
-      <c r="C12" s="53" t="s">
-        <v>80</v>
-      </c>
-      <c r="D12" s="54">
-        <f>'Capacidade de Corrente'!I7</f>
-        <v>2100</v>
-      </c>
-      <c r="E12" s="54">
-        <f>'Capacidade de Corrente'!J7</f>
+      <c r="E15" s="158">
+        <f t="shared" ref="E15:E17" si="0">C15/D15</f>
+        <v>2.3622047244094486</v>
+      </c>
+      <c r="F15" s="158">
+        <v>4.0477999999999996</v>
+      </c>
+      <c r="G15" s="158">
+        <f t="shared" ref="G15:G25" si="1">F15/1000</f>
+        <v>4.0477999999999998E-3</v>
+      </c>
+      <c r="H15" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I15" s="158">
+        <f t="shared" ref="I15:I25" si="2">H15*E15*G15*100/D15</f>
+        <v>0.10766359972719945</v>
+      </c>
+      <c r="J15" s="158">
+        <f>I14+I15</f>
+        <v>0.626499410998822</v>
+      </c>
+      <c r="K15" s="177"/>
+    </row>
+    <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B16" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C16" s="54">
+        <v>200</v>
+      </c>
+      <c r="D16" s="171">
         <v>127</v>
       </c>
-      <c r="F12" s="146">
-        <f>'Capacidade de Corrente'!K7</f>
-        <v>16.535433070866141</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="53">
-        <v>4</v>
-      </c>
-      <c r="C13" s="53" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="54">
-        <f>'Capacidade de Corrente'!I8</f>
-        <v>1900</v>
-      </c>
-      <c r="E13" s="54">
-        <f>'Capacidade de Corrente'!J8</f>
+      <c r="E16" s="158">
+        <f t="shared" si="0"/>
+        <v>1.5748031496062993</v>
+      </c>
+      <c r="F16" s="158">
+        <v>4.4528999999999996</v>
+      </c>
+      <c r="G16" s="158">
+        <f t="shared" si="1"/>
+        <v>4.4528999999999992E-3</v>
+      </c>
+      <c r="H16" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I16" s="158">
+        <f t="shared" si="2"/>
+        <v>7.8958980717961438E-2</v>
+      </c>
+      <c r="J16" s="158">
+        <f>SUM(I14:I16)</f>
+        <v>0.70545839171678348</v>
+      </c>
+      <c r="K16" s="177"/>
+    </row>
+    <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B17" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="54">
+        <v>100</v>
+      </c>
+      <c r="D17" s="171">
         <v>127</v>
       </c>
-      <c r="F13" s="146">
-        <f>'Capacidade de Corrente'!K8</f>
-        <v>14.960629921259843</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="53">
-        <v>5</v>
-      </c>
-      <c r="C14" s="53" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="54">
-        <f>'Capacidade de Corrente'!I9</f>
-        <v>1900</v>
-      </c>
-      <c r="E14" s="54">
-        <f>'Capacidade de Corrente'!J9</f>
+      <c r="E17" s="158">
+        <f t="shared" si="0"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F17" s="158">
+        <v>4.1230000000000002</v>
+      </c>
+      <c r="G17" s="158">
+        <f t="shared" si="1"/>
+        <v>4.1229999999999999E-3</v>
+      </c>
+      <c r="H17" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I17" s="158">
+        <f t="shared" si="2"/>
+        <v>3.6554591109182216E-2</v>
+      </c>
+      <c r="J17" s="158">
+        <f>SUM(I14:I17)</f>
+        <v>0.74201298282596573</v>
+      </c>
+      <c r="K17" s="178"/>
+    </row>
+    <row r="18" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B18" s="172"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="173"/>
+      <c r="G18" s="173"/>
+      <c r="H18" s="173"/>
+      <c r="I18" s="173"/>
+      <c r="J18" s="173"/>
+      <c r="K18" s="174"/>
+    </row>
+    <row r="19" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B19" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C19" s="54">
+        <v>200</v>
+      </c>
+      <c r="D19" s="171">
         <v>127</v>
       </c>
-      <c r="F14" s="146">
-        <f>'Capacidade de Corrente'!K9</f>
-        <v>14.960629921259843</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B15" s="53">
-        <v>6</v>
-      </c>
-      <c r="C15" s="53" t="s">
-        <v>83</v>
-      </c>
-      <c r="D15" s="54">
-        <f>'Capacidade de Corrente'!I10</f>
-        <v>2500</v>
-      </c>
-      <c r="E15" s="54">
-        <f>'Capacidade de Corrente'!J10</f>
+      <c r="E19" s="158">
+        <f>C19/D19</f>
+        <v>1.5748031496062993</v>
+      </c>
+      <c r="F19" s="158">
+        <v>9.98</v>
+      </c>
+      <c r="G19" s="158">
+        <f t="shared" si="1"/>
+        <v>9.980000000000001E-3</v>
+      </c>
+      <c r="H19" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I19" s="158">
+        <f t="shared" si="2"/>
+        <v>0.1769657139314279</v>
+      </c>
+      <c r="J19" s="158">
+        <f>I19</f>
+        <v>0.1769657139314279</v>
+      </c>
+      <c r="K19" s="176">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B20" s="54" t="s">
+        <v>167</v>
+      </c>
+      <c r="C20" s="54">
+        <v>100</v>
+      </c>
+      <c r="D20" s="171">
         <v>127</v>
       </c>
-      <c r="F15" s="146">
-        <f>'Capacidade de Corrente'!K10</f>
-        <v>19.685039370078741</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B16" s="53">
-        <v>7</v>
-      </c>
-      <c r="C16" s="53" t="s">
-        <v>84</v>
-      </c>
-      <c r="D16" s="54">
-        <f>'Capacidade de Corrente'!I11</f>
-        <v>2000</v>
-      </c>
-      <c r="E16" s="54">
-        <f>'Capacidade de Corrente'!J11</f>
+      <c r="E20" s="158">
+        <f>C20/D20</f>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F20" s="158">
+        <v>3.3422999999999998</v>
+      </c>
+      <c r="G20" s="158">
+        <f t="shared" si="1"/>
+        <v>3.3422999999999999E-3</v>
+      </c>
+      <c r="H20" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I20" s="158">
+        <f t="shared" si="2"/>
+        <v>2.9632891065782135E-2</v>
+      </c>
+      <c r="J20" s="158">
+        <f>I19+I20</f>
+        <v>0.20659860499721003</v>
+      </c>
+      <c r="K20" s="178"/>
+    </row>
+    <row r="21" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B21" s="172"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
+      <c r="E21" s="173"/>
+      <c r="F21" s="173"/>
+      <c r="G21" s="173"/>
+      <c r="H21" s="173"/>
+      <c r="I21" s="173"/>
+      <c r="J21" s="173"/>
+      <c r="K21" s="174"/>
+    </row>
+    <row r="22" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B22" s="54" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" s="54">
+        <v>600</v>
+      </c>
+      <c r="D22" s="171">
         <v>127</v>
       </c>
-      <c r="F16" s="146">
-        <f>'Capacidade de Corrente'!K11</f>
-        <v>15.748031496062993</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B17" s="53">
-        <v>8</v>
-      </c>
-      <c r="C17" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="D17" s="54">
-        <f>'Capacidade de Corrente'!I12</f>
-        <v>2000</v>
-      </c>
-      <c r="E17" s="54">
-        <f>'Capacidade de Corrente'!J12</f>
+      <c r="E22" s="158">
+        <f t="shared" ref="E22:E25" si="3">C22/D22</f>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="F22" s="158">
+        <v>8.1341999999999999</v>
+      </c>
+      <c r="G22" s="158">
+        <f t="shared" si="1"/>
+        <v>8.1341999999999994E-3</v>
+      </c>
+      <c r="H22" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I22" s="158">
+        <f t="shared" si="2"/>
+        <v>0.43270776861553717</v>
+      </c>
+      <c r="J22" s="158">
+        <f>I22</f>
+        <v>0.43270776861553717</v>
+      </c>
+      <c r="K22" s="176">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B23" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C23" s="54">
+        <v>100</v>
+      </c>
+      <c r="D23" s="171">
         <v>127</v>
       </c>
-      <c r="F17" s="146">
-        <f>'Capacidade de Corrente'!K12</f>
-        <v>15.748031496062993</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="53">
-        <v>9</v>
-      </c>
-      <c r="C18" s="53" t="s">
-        <v>86</v>
-      </c>
-      <c r="D18" s="54">
-        <f>'Capacidade de Corrente'!I13</f>
-        <v>2000</v>
-      </c>
-      <c r="E18" s="54">
-        <f>'Capacidade de Corrente'!J13</f>
+      <c r="E23" s="158">
+        <f t="shared" si="3"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F23" s="158">
+        <v>4.5681000000000003</v>
+      </c>
+      <c r="G23" s="158">
+        <f t="shared" si="1"/>
+        <v>4.5681000000000003E-3</v>
+      </c>
+      <c r="H23" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I23" s="158">
+        <f t="shared" si="2"/>
+        <v>4.0500855601711211E-2</v>
+      </c>
+      <c r="J23" s="158">
+        <f>I22+I23</f>
+        <v>0.47320862421724841</v>
+      </c>
+      <c r="K23" s="177"/>
+    </row>
+    <row r="24" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B24" s="54" t="s">
+        <v>171</v>
+      </c>
+      <c r="C24" s="54">
+        <v>400</v>
+      </c>
+      <c r="D24" s="171">
         <v>127</v>
       </c>
-      <c r="F18" s="146">
-        <f>'Capacidade de Corrente'!K13</f>
-        <v>15.748031496062993</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B19" s="53">
-        <v>10</v>
-      </c>
-      <c r="C19" s="53" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="54">
-        <f>'Capacidade de Corrente'!I14</f>
-        <v>5400</v>
-      </c>
-      <c r="E19" s="54">
-        <f>'Capacidade de Corrente'!J14</f>
-        <v>220</v>
-      </c>
-      <c r="F19" s="146">
-        <f>'Capacidade de Corrente'!K14</f>
-        <v>24.545454545454547</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="53">
-        <v>11</v>
-      </c>
-      <c r="C20" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="54">
-        <f>'Capacidade de Corrente'!I15</f>
-        <v>5400</v>
-      </c>
-      <c r="E20" s="54">
-        <f>'Capacidade de Corrente'!J15</f>
-        <v>220</v>
-      </c>
-      <c r="F20" s="146">
-        <f>'Capacidade de Corrente'!K15</f>
-        <v>24.545454545454547</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="53">
-        <v>12</v>
-      </c>
-      <c r="C21" s="53" t="s">
-        <v>89</v>
-      </c>
-      <c r="D21" s="54">
-        <f>'Capacidade de Corrente'!I16</f>
-        <v>2625</v>
-      </c>
-      <c r="E21" s="54">
-        <f>'Capacidade de Corrente'!J16</f>
-        <v>220</v>
-      </c>
-      <c r="F21" s="146">
-        <f>'Capacidade de Corrente'!K16</f>
-        <v>11.931818181818182</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B22" s="53">
-        <v>13</v>
-      </c>
-      <c r="C22" s="53" t="s">
-        <v>90</v>
-      </c>
-      <c r="D22" s="54">
-        <f>'Capacidade de Corrente'!I17</f>
-        <v>1650</v>
-      </c>
-      <c r="E22" s="54">
-        <f>'Capacidade de Corrente'!J17</f>
-        <v>220</v>
-      </c>
-      <c r="F22" s="146">
-        <f>'Capacidade de Corrente'!K17</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B23" s="53">
-        <v>14</v>
-      </c>
-      <c r="C23" s="53" t="s">
-        <v>91</v>
-      </c>
-      <c r="D23" s="54">
-        <f>'Capacidade de Corrente'!I18</f>
-        <v>1650</v>
-      </c>
-      <c r="E23" s="54">
-        <f>'Capacidade de Corrente'!J18</f>
-        <v>220</v>
-      </c>
-      <c r="F23" s="146">
-        <f>'Capacidade de Corrente'!K18</f>
-        <v>7.5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="53">
-        <v>15</v>
-      </c>
-      <c r="C24" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="D24" s="54">
-        <f>'Capacidade de Corrente'!I19</f>
+      <c r="E24" s="158">
+        <f t="shared" si="3"/>
+        <v>3.1496062992125986</v>
+      </c>
+      <c r="F24" s="158">
+        <v>4.7576999999999998</v>
+      </c>
+      <c r="G24" s="158">
+        <f t="shared" si="1"/>
+        <v>4.7577000000000001E-3</v>
+      </c>
+      <c r="H24" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I24" s="158">
+        <f t="shared" si="2"/>
+        <v>0.16872741025482052</v>
+      </c>
+      <c r="J24" s="158">
+        <f>I22+I23+I24</f>
+        <v>0.64193603447206893</v>
+      </c>
+      <c r="K24" s="177"/>
+    </row>
+    <row r="25" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B25" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C25" s="54">
+        <v>200</v>
+      </c>
+      <c r="D25" s="171">
+        <v>127</v>
+      </c>
+      <c r="E25" s="158">
+        <f t="shared" si="3"/>
+        <v>1.5748031496062993</v>
+      </c>
+      <c r="F25" s="158">
+        <v>11.351800000000001</v>
+      </c>
+      <c r="G25" s="158">
+        <f t="shared" si="1"/>
+        <v>1.13518E-2</v>
+      </c>
+      <c r="H25" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I25" s="158">
+        <f t="shared" si="2"/>
+        <v>0.20129052018104041</v>
+      </c>
+      <c r="J25" s="158">
+        <f>I22+I23+I24+I25</f>
+        <v>0.84322655465310936</v>
+      </c>
+      <c r="K25" s="178"/>
+    </row>
+    <row r="28" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="152" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="152"/>
+      <c r="D28" s="152"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="152"/>
+      <c r="H28" s="152"/>
+      <c r="I28" s="152"/>
+      <c r="J28" s="152"/>
+      <c r="K28" s="152"/>
+    </row>
+    <row r="29" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="155" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="155" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" s="155" t="s">
+        <v>166</v>
+      </c>
+      <c r="E29" s="155" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="155" t="s">
+        <v>142</v>
+      </c>
+      <c r="G29" s="155" t="s">
+        <v>143</v>
+      </c>
+      <c r="H29" s="155" t="s">
+        <v>164</v>
+      </c>
+      <c r="I29" s="155" t="s">
+        <v>144</v>
+      </c>
+      <c r="J29" s="155" t="s">
+        <v>145</v>
+      </c>
+      <c r="K29" s="155" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="30" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B30" s="153"/>
+      <c r="C30" s="153"/>
+      <c r="D30" s="153"/>
+      <c r="E30" s="153"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="153"/>
+      <c r="H30" s="153"/>
+      <c r="I30" s="153"/>
+      <c r="J30" s="153"/>
+      <c r="K30" s="153"/>
+    </row>
+    <row r="31" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B31" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="C31" s="54">
+        <v>600</v>
+      </c>
+      <c r="D31" s="171">
+        <v>127</v>
+      </c>
+      <c r="E31" s="158">
+        <f>C31/D31</f>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="F31" s="158">
+        <v>1.7907</v>
+      </c>
+      <c r="G31" s="158">
+        <f>F31/1000</f>
+        <v>1.7906999999999999E-3</v>
+      </c>
+      <c r="H31" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I31" s="158">
+        <f>H31*E31*G31*100/D31</f>
+        <v>9.5258267716535422E-2</v>
+      </c>
+      <c r="J31" s="158">
+        <f>I31</f>
+        <v>9.5258267716535422E-2</v>
+      </c>
+      <c r="K31" s="176">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B32" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C32" s="54">
         <v>400</v>
       </c>
-      <c r="E24" s="54">
-        <f>'Capacidade de Corrente'!J19</f>
+      <c r="D32" s="171">
         <v>127</v>
       </c>
-      <c r="F24" s="146">
-        <f>'Capacidade de Corrente'!K19</f>
+      <c r="E32" s="158">
+        <f t="shared" ref="E32:E34" si="4">C32/D32</f>
         <v>3.1496062992125986</v>
       </c>
-    </row>
-    <row r="25" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="53">
-        <v>16</v>
-      </c>
-      <c r="C25" s="53" t="s">
-        <v>93</v>
-      </c>
-      <c r="D25" s="54">
-        <f>'Capacidade de Corrente'!I20</f>
-        <v>1760</v>
-      </c>
-      <c r="E25" s="54">
-        <f>'Capacidade de Corrente'!J20</f>
-        <v>220</v>
-      </c>
-      <c r="F25" s="146">
-        <f>'Capacidade de Corrente'!K20</f>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="53">
-        <v>17</v>
-      </c>
-      <c r="C26" s="53" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="54">
-        <f>'Capacidade de Corrente'!I21</f>
+      <c r="F32" s="158">
+        <v>3.5156999999999998</v>
+      </c>
+      <c r="G32" s="158">
+        <f t="shared" ref="G32:G47" si="5">F32/1000</f>
+        <v>3.5156999999999996E-3</v>
+      </c>
+      <c r="H32" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I32" s="158">
+        <f t="shared" ref="I32:I34" si="6">H32*E32*G32*100/D32</f>
+        <v>0.12468103416206831</v>
+      </c>
+      <c r="J32" s="158">
+        <f>I32+I31</f>
+        <v>0.21993930187860372</v>
+      </c>
+      <c r="K32" s="177"/>
+    </row>
+    <row r="33" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B33" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="54">
+        <v>200</v>
+      </c>
+      <c r="D33" s="171">
+        <v>127</v>
+      </c>
+      <c r="E33" s="158">
+        <f t="shared" si="4"/>
+        <v>1.5748031496062993</v>
+      </c>
+      <c r="F33" s="158">
+        <v>3.3047</v>
+      </c>
+      <c r="G33" s="158">
+        <f t="shared" si="5"/>
+        <v>3.3046999999999998E-3</v>
+      </c>
+      <c r="H33" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I33" s="158">
+        <f t="shared" si="6"/>
+        <v>5.8599057598115199E-2</v>
+      </c>
+      <c r="J33" s="158">
+        <f>I31+I32+I33</f>
+        <v>0.2785383594767189</v>
+      </c>
+      <c r="K33" s="177"/>
+    </row>
+    <row r="34" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B34" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="54">
+        <v>100</v>
+      </c>
+      <c r="D34" s="171">
+        <v>127</v>
+      </c>
+      <c r="E34" s="158">
+        <f t="shared" si="4"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F34" s="158">
+        <v>2.2797000000000001</v>
+      </c>
+      <c r="G34" s="158">
+        <f t="shared" si="5"/>
+        <v>2.2797E-3</v>
+      </c>
+      <c r="H34" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I34" s="158">
+        <f t="shared" si="6"/>
+        <v>2.0211860623721253E-2</v>
+      </c>
+      <c r="J34" s="158">
+        <f>I31+I32+I33+I34</f>
+        <v>0.29875022010044017</v>
+      </c>
+      <c r="K34" s="178"/>
+    </row>
+    <row r="35" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B35" s="172"/>
+      <c r="C35" s="173"/>
+      <c r="D35" s="173"/>
+      <c r="E35" s="173"/>
+      <c r="F35" s="173"/>
+      <c r="G35" s="173"/>
+      <c r="H35" s="173"/>
+      <c r="I35" s="173"/>
+      <c r="J35" s="173"/>
+      <c r="K35" s="174"/>
+    </row>
+    <row r="36" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="54" t="s">
+        <v>175</v>
+      </c>
+      <c r="C36" s="54">
+        <v>600</v>
+      </c>
+      <c r="D36" s="171">
+        <v>127</v>
+      </c>
+      <c r="E36" s="158">
+        <f>C36/D36</f>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="F36" s="158">
+        <v>2.3816999999999999</v>
+      </c>
+      <c r="G36" s="158">
+        <f t="shared" si="5"/>
+        <v>2.3817E-3</v>
+      </c>
+      <c r="H36" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I36" s="158">
+        <f t="shared" ref="I36:I37" si="7">H36*E36*G36*100/D36</f>
+        <v>0.12669716659433319</v>
+      </c>
+      <c r="J36" s="158">
+        <f>I36</f>
+        <v>0.12669716659433319</v>
+      </c>
+      <c r="K36" s="176">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B37" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C37" s="54">
+        <v>500</v>
+      </c>
+      <c r="D37" s="171">
+        <v>127</v>
+      </c>
+      <c r="E37" s="158">
+        <f>C37/D37</f>
+        <v>3.9370078740157481</v>
+      </c>
+      <c r="F37" s="158">
+        <v>2.3018999999999998</v>
+      </c>
+      <c r="G37" s="158">
+        <f t="shared" si="5"/>
+        <v>2.3019E-3</v>
+      </c>
+      <c r="H37" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I37" s="158">
+        <f t="shared" si="7"/>
+        <v>0.10204343108686219</v>
+      </c>
+      <c r="J37" s="158">
+        <f>I36+I37</f>
+        <v>0.22874059768119537</v>
+      </c>
+      <c r="K37" s="177"/>
+    </row>
+    <row r="38" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B38" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C38" s="54">
+        <v>400</v>
+      </c>
+      <c r="D38" s="171">
+        <v>127</v>
+      </c>
+      <c r="E38" s="158">
+        <f t="shared" ref="E38:E41" si="8">C38/D38</f>
+        <v>3.1496062992125986</v>
+      </c>
+      <c r="F38" s="158">
+        <v>2.0811999999999999</v>
+      </c>
+      <c r="G38" s="158">
+        <f t="shared" si="5"/>
+        <v>2.0812000000000001E-3</v>
+      </c>
+      <c r="H38" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I38" s="158">
+        <f t="shared" ref="I38:I46" si="9">H38*E38*G38*100/D38</f>
+        <v>7.3807824415648843E-2</v>
+      </c>
+      <c r="J38" s="158">
+        <f>SUM(I36:I38)</f>
+        <v>0.30254842209684418</v>
+      </c>
+      <c r="K38" s="177"/>
+    </row>
+    <row r="39" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B39" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C39" s="54">
         <v>300</v>
       </c>
-      <c r="E26" s="54">
-        <f>'Capacidade de Corrente'!J21</f>
-        <v>220</v>
-      </c>
-      <c r="F26" s="146">
-        <f>'Capacidade de Corrente'!K21</f>
-        <v>1.3636363636363635</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="53">
-        <v>18</v>
-      </c>
-      <c r="C27" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D27" s="54">
-        <f>'Capacidade de Corrente'!I22</f>
-        <v>600</v>
-      </c>
-      <c r="E27" s="54">
-        <f>'Capacidade de Corrente'!J22</f>
+      <c r="D39" s="171">
         <v>127</v>
       </c>
-      <c r="F27" s="146">
-        <f>'Capacidade de Corrente'!K22</f>
-        <v>4.7244094488188972</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="53">
-        <v>19</v>
-      </c>
-      <c r="C28" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D28" s="54">
-        <f>'Capacidade de Corrente'!I23</f>
-        <v>600</v>
-      </c>
-      <c r="E28" s="54">
-        <f>'Capacidade de Corrente'!J23</f>
+      <c r="E39" s="158">
+        <f t="shared" si="8"/>
+        <v>2.3622047244094486</v>
+      </c>
+      <c r="F39" s="158">
+        <v>1.9261999999999999</v>
+      </c>
+      <c r="G39" s="158">
+        <f t="shared" si="5"/>
+        <v>1.9261999999999999E-3</v>
+      </c>
+      <c r="H39" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I39" s="158">
+        <f t="shared" si="9"/>
+        <v>5.1233170066340129E-2</v>
+      </c>
+      <c r="J39" s="158">
+        <f>SUM(I36:I39)</f>
+        <v>0.35378159216318433</v>
+      </c>
+      <c r="K39" s="177"/>
+    </row>
+    <row r="40" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B40" s="54" t="s">
+        <v>178</v>
+      </c>
+      <c r="C40" s="54">
+        <v>100</v>
+      </c>
+      <c r="D40" s="171">
         <v>127</v>
       </c>
-      <c r="F28" s="146">
-        <f>'Capacidade de Corrente'!K23</f>
-        <v>4.7244094488188972</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="53">
-        <v>20</v>
-      </c>
-      <c r="C29" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D29" s="54">
-        <f>'Capacidade de Corrente'!I24</f>
-        <v>600</v>
-      </c>
-      <c r="E29" s="54">
-        <f>'Capacidade de Corrente'!J24</f>
+      <c r="E40" s="158">
+        <f t="shared" si="8"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F40" s="158">
+        <v>2.5341</v>
+      </c>
+      <c r="G40" s="158">
+        <f t="shared" si="5"/>
+        <v>2.5341000000000001E-3</v>
+      </c>
+      <c r="H40" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I40" s="158">
+        <f t="shared" si="9"/>
+        <v>2.2467375534751075E-2</v>
+      </c>
+      <c r="J40" s="158">
+        <f>SUM(I36:I40)</f>
+        <v>0.37624896769793542</v>
+      </c>
+      <c r="K40" s="177"/>
+    </row>
+    <row r="41" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B41" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="54">
+        <v>100</v>
+      </c>
+      <c r="D41" s="171">
         <v>127</v>
       </c>
-      <c r="F29" s="146">
-        <f>'Capacidade de Corrente'!K24</f>
-        <v>4.7244094488188972</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="53">
-        <v>21</v>
-      </c>
-      <c r="C30" s="53" t="s">
-        <v>95</v>
-      </c>
-      <c r="D30" s="54">
-        <f>'Capacidade de Corrente'!I25</f>
-        <v>600</v>
-      </c>
-      <c r="E30" s="54">
-        <f>'Capacidade de Corrente'!J25</f>
+      <c r="E41" s="158">
+        <f t="shared" si="8"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F41" s="158">
+        <v>3.4512999999999998</v>
+      </c>
+      <c r="G41" s="158">
+        <f t="shared" si="5"/>
+        <v>3.4513E-3</v>
+      </c>
+      <c r="H41" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I41" s="158">
+        <f t="shared" si="9"/>
+        <v>3.0599286998574001E-2</v>
+      </c>
+      <c r="J41" s="158">
+        <f>SUM(I36:I41)</f>
+        <v>0.40684825469650943</v>
+      </c>
+      <c r="K41" s="178"/>
+    </row>
+    <row r="42" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="172"/>
+      <c r="C42" s="173"/>
+      <c r="D42" s="173"/>
+      <c r="E42" s="173"/>
+      <c r="F42" s="173"/>
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="173"/>
+      <c r="J42" s="173"/>
+      <c r="K42" s="174"/>
+    </row>
+    <row r="43" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B43" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="C43" s="54">
+        <v>500</v>
+      </c>
+      <c r="D43" s="171">
         <v>127</v>
       </c>
-      <c r="F30" s="146">
-        <f>'Capacidade de Corrente'!K25</f>
-        <v>4.7244094488188972</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" ht="20.100000000000001" customHeight="1">
-      <c r="B31" s="65">
-        <v>22</v>
-      </c>
-      <c r="C31" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="D31" s="54">
-        <f>'Capacidade de Corrente'!I26</f>
-        <v>38885</v>
-      </c>
-      <c r="E31" s="54"/>
-      <c r="F31" s="146"/>
+      <c r="E43" s="158">
+        <f>C43/D43</f>
+        <v>3.9370078740157481</v>
+      </c>
+      <c r="F43" s="158">
+        <v>1.8081</v>
+      </c>
+      <c r="G43" s="158">
+        <f t="shared" si="5"/>
+        <v>1.8081E-3</v>
+      </c>
+      <c r="H43" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I43" s="158">
+        <f t="shared" si="9"/>
+        <v>8.015323330646662E-2</v>
+      </c>
+      <c r="J43" s="158">
+        <f>I43</f>
+        <v>8.015323330646662E-2</v>
+      </c>
+      <c r="K43" s="175">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="44" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B44" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C44" s="54">
+        <v>100</v>
+      </c>
+      <c r="D44" s="171">
+        <v>127</v>
+      </c>
+      <c r="E44" s="158">
+        <f>C44/D44</f>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F44" s="158">
+        <v>1.9812000000000001</v>
+      </c>
+      <c r="G44" s="158">
+        <f t="shared" si="5"/>
+        <v>1.9812000000000002E-3</v>
+      </c>
+      <c r="H44" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I44" s="158">
+        <f t="shared" si="9"/>
+        <v>1.7565354330708664E-2</v>
+      </c>
+      <c r="J44" s="158">
+        <f>SUM(I43:I44)</f>
+        <v>9.771858763717528E-2</v>
+      </c>
+      <c r="K44" s="175"/>
+    </row>
+    <row r="45" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B45" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="C45" s="54">
+        <v>300</v>
+      </c>
+      <c r="D45" s="171">
+        <v>127</v>
+      </c>
+      <c r="E45" s="158">
+        <f t="shared" ref="E45:E47" si="10">C45/D45</f>
+        <v>2.3622047244094486</v>
+      </c>
+      <c r="F45" s="158">
+        <v>1.5363</v>
+      </c>
+      <c r="G45" s="158">
+        <f t="shared" si="5"/>
+        <v>1.5363E-3</v>
+      </c>
+      <c r="H45" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I45" s="158">
+        <f t="shared" ref="I45:I47" si="11">H45*E45*G45*100/D45</f>
+        <v>4.0862589125178254E-2</v>
+      </c>
+      <c r="J45" s="158">
+        <f>SUM(I43:I45)</f>
+        <v>0.13858117676235354</v>
+      </c>
+      <c r="K45" s="175"/>
+    </row>
+    <row r="46" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C46" s="54">
+        <v>200</v>
+      </c>
+      <c r="D46" s="171">
+        <v>127</v>
+      </c>
+      <c r="E46" s="158">
+        <f t="shared" si="10"/>
+        <v>1.5748031496062993</v>
+      </c>
+      <c r="F46" s="158">
+        <v>1.2608999999999999</v>
+      </c>
+      <c r="G46" s="158">
+        <f t="shared" si="5"/>
+        <v>1.2608999999999999E-3</v>
+      </c>
+      <c r="H46" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I46" s="158">
+        <f t="shared" si="9"/>
+        <v>2.2358323516647034E-2</v>
+      </c>
+      <c r="J46" s="158">
+        <f>SUM(I43:I46)</f>
+        <v>0.16093950027900059</v>
+      </c>
+      <c r="K46" s="175"/>
+    </row>
+    <row r="47" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B47" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C47" s="54">
+        <v>100</v>
+      </c>
+      <c r="D47" s="171">
+        <v>127</v>
+      </c>
+      <c r="E47" s="158">
+        <f t="shared" si="10"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F47" s="158">
+        <v>1.5118</v>
+      </c>
+      <c r="G47" s="158">
+        <f t="shared" si="5"/>
+        <v>1.5118E-3</v>
+      </c>
+      <c r="H47" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I47" s="158">
+        <f t="shared" si="11"/>
+        <v>1.3403645607291216E-2</v>
+      </c>
+      <c r="J47" s="158">
+        <f>SUM(I43:I47)</f>
+        <v>0.17434314588629179</v>
+      </c>
+      <c r="K47" s="175"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="B4:F5"/>
-    <mergeCell ref="B6:B9"/>
-    <mergeCell ref="C6:C9"/>
-    <mergeCell ref="D6:D8"/>
-    <mergeCell ref="E6:E8"/>
-    <mergeCell ref="F6:F8"/>
+  <mergeCells count="42">
+    <mergeCell ref="B35:K35"/>
+    <mergeCell ref="K36:K41"/>
+    <mergeCell ref="B42:K42"/>
+    <mergeCell ref="K43:K47"/>
+    <mergeCell ref="K31:K34"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="B18:K18"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="K19:K20"/>
+    <mergeCell ref="K22:K25"/>
+    <mergeCell ref="B28:K28"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="K14:K17"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="G7:J9"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B10:H10"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\GitHub\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00A1B253-BAC9-4545-B1B7-E0E780B41ACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2A8699-9CDA-4518-8098-E05930468CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -682,9 +682,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="174" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,6 +847,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -887,12 +894,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="59">
+  <borders count="56">
     <border>
       <left/>
       <right/>
@@ -1539,43 +1546,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1794,35 +1764,59 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="16" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1835,34 +1829,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1877,18 +1882,22 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1912,14 +1921,32 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1951,32 +1978,32 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="26" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1984,94 +2011,37 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="174" fontId="16" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2305,14 +2275,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="88" t="s">
+      <c r="B1" s="94" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="90"/>
+      <c r="C1" s="95"/>
+      <c r="D1" s="95"/>
+      <c r="E1" s="95"/>
+      <c r="F1" s="95"/>
+      <c r="G1" s="96"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2335,14 +2305,14 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="91" t="s">
+      <c r="B2" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="89"/>
-      <c r="F2" s="89"/>
-      <c r="G2" s="90"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2393,16 +2363,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="92" t="s">
+      <c r="B4" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="93"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="92" t="s">
+      <c r="C4" s="99"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="98" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="74"/>
+      <c r="F4" s="99"/>
+      <c r="G4" s="93"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2425,17 +2395,17 @@
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="73" t="s">
+      <c r="B5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="74"/>
+      <c r="C5" s="93"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="73" t="s">
+      <c r="E5" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="74"/>
+      <c r="F5" s="93"/>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2461,17 +2431,17 @@
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="73" t="s">
+      <c r="B6" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="74"/>
+      <c r="C6" s="93"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="73" t="s">
+      <c r="E6" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="74"/>
+      <c r="F6" s="93"/>
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2497,17 +2467,17 @@
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="73" t="s">
+      <c r="B7" s="92" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="74"/>
+      <c r="C7" s="93"/>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="73" t="s">
+      <c r="E7" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="74"/>
+      <c r="F7" s="93"/>
       <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
@@ -2533,15 +2503,15 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="73" t="s">
+      <c r="B8" s="92" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="74"/>
+      <c r="C8" s="93"/>
       <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="73"/>
-      <c r="F8" s="74"/>
+      <c r="E8" s="92"/>
+      <c r="F8" s="93"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
@@ -2565,15 +2535,15 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="73" t="s">
+      <c r="B9" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="74"/>
+      <c r="C9" s="93"/>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
@@ -2597,15 +2567,15 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="94" t="s">
+      <c r="B10" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="85"/>
-      <c r="D10" s="96" t="s">
+      <c r="C10" s="87"/>
+      <c r="D10" s="90" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="73"/>
-      <c r="F10" s="74"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="93"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
@@ -2629,11 +2599,11 @@
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="95"/>
-      <c r="C11" s="80"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="73"/>
-      <c r="F11" s="74"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="91"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="93"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
@@ -2657,11 +2627,11 @@
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="73"/>
-      <c r="C12" s="74"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="93"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="74"/>
+      <c r="E12" s="92"/>
+      <c r="F12" s="93"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2685,11 +2655,11 @@
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="81"/>
-      <c r="C13" s="82"/>
+      <c r="B13" s="105"/>
+      <c r="C13" s="106"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="106"/>
       <c r="G13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2713,11 +2683,11 @@
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="73"/>
-      <c r="C14" s="74"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="93"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="73"/>
-      <c r="F14" s="74"/>
+      <c r="E14" s="92"/>
+      <c r="F14" s="93"/>
       <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2797,14 +2767,14 @@
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="83" t="s">
+      <c r="B17" s="107" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="84"/>
-      <c r="D17" s="84"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="84"/>
-      <c r="G17" s="85"/>
+      <c r="C17" s="108"/>
+      <c r="D17" s="108"/>
+      <c r="E17" s="108"/>
+      <c r="F17" s="108"/>
+      <c r="G17" s="87"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2827,14 +2797,14 @@
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="86" t="s">
+      <c r="B18" s="109" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="77"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="101"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="102"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2857,14 +2827,14 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="75" t="s">
+      <c r="B19" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="76"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="76"/>
-      <c r="F19" s="76"/>
-      <c r="G19" s="77"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="102"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2887,14 +2857,14 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="75" t="s">
+      <c r="B20" s="100" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="77"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="102"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2917,14 +2887,14 @@
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="87" t="s">
+      <c r="B21" s="110" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="76"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="76"/>
-      <c r="F21" s="76"/>
-      <c r="G21" s="77"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="102"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2947,14 +2917,14 @@
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="75" t="s">
+      <c r="B22" s="100" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
-      <c r="F22" s="76"/>
-      <c r="G22" s="77"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="102"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2977,12 +2947,12 @@
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="75"/>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="102"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3005,14 +2975,14 @@
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="78" t="s">
+      <c r="B24" s="103" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="79"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="80"/>
+      <c r="C24" s="104"/>
+      <c r="D24" s="104"/>
+      <c r="E24" s="104"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="89"/>
       <c r="H24" s="1"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1"/>
@@ -9411,24 +9381,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
@@ -9443,6 +9395,24 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9496,19 +9466,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="106" t="s">
+      <c r="B2" s="119" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="84"/>
-      <c r="J2" s="84"/>
-      <c r="K2" s="84"/>
-      <c r="L2" s="85"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="87"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -9526,17 +9496,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="79"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="79"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="79"/>
-      <c r="L3" s="80"/>
+      <c r="B3" s="88"/>
+      <c r="C3" s="104"/>
+      <c r="D3" s="104"/>
+      <c r="E3" s="104"/>
+      <c r="F3" s="104"/>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="L3" s="89"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -9554,27 +9524,27 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="107" t="s">
+      <c r="B4" s="120" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="74"/>
-      <c r="E4" s="108" t="s">
+      <c r="D4" s="93"/>
+      <c r="E4" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="93"/>
-      <c r="G4" s="74"/>
-      <c r="H4" s="109" t="s">
+      <c r="F4" s="99"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="122" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="93"/>
-      <c r="J4" s="74"/>
-      <c r="K4" s="109" t="s">
+      <c r="I4" s="99"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="122" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="74"/>
+      <c r="L4" s="93"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -9592,7 +9562,7 @@
     </row>
     <row r="5" spans="1:26" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="97"/>
+      <c r="B5" s="91"/>
       <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
@@ -9740,35 +9710,35 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="113" t="s">
+      <c r="B8" s="116" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="115">
+      <c r="C8" s="118">
         <v>17.579999999999998</v>
       </c>
-      <c r="D8" s="115">
+      <c r="D8" s="118">
         <v>23.9</v>
       </c>
-      <c r="E8" s="101">
+      <c r="E8" s="114">
         <v>3</v>
       </c>
-      <c r="F8" s="101">
+      <c r="F8" s="114">
         <v>100</v>
       </c>
-      <c r="G8" s="111">
+      <c r="G8" s="112">
         <v>300</v>
       </c>
-      <c r="H8" s="111">
+      <c r="H8" s="112">
         <v>4</v>
       </c>
-      <c r="I8" s="101" t="s">
+      <c r="I8" s="114" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="101">
+      <c r="J8" s="114">
         <v>200</v>
       </c>
-      <c r="K8" s="101"/>
-      <c r="L8" s="101"/>
+      <c r="K8" s="114"/>
+      <c r="L8" s="114"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -9786,17 +9756,17 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="114"/>
-      <c r="C9" s="102"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="102"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="102"/>
-      <c r="J9" s="102"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="102"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="113"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -10409,9 +10379,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="103"/>
-      <c r="K22" s="84"/>
-      <c r="L22" s="84"/>
+      <c r="J22" s="126"/>
+      <c r="K22" s="108"/>
+      <c r="L22" s="108"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -10429,13 +10399,13 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="110" t="s">
+      <c r="B23" s="111" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="76"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="76"/>
-      <c r="F23" s="76"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -10494,9 +10464,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="104"/>
-      <c r="K25" s="76"/>
-      <c r="L25" s="76"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="101"/>
+      <c r="L25" s="101"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -10514,20 +10484,20 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="110" t="s">
+      <c r="B26" s="111" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="99"/>
-      <c r="K26" s="76"/>
-      <c r="L26" s="76"/>
-      <c r="M26" s="98"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="101"/>
+      <c r="L26" s="101"/>
+      <c r="M26" s="123"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -10552,10 +10522,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="76"/>
-      <c r="L27" s="76"/>
-      <c r="M27" s="76"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="101"/>
+      <c r="L27" s="101"/>
+      <c r="M27" s="101"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -10580,12 +10550,12 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="99"/>
-      <c r="K28" s="76"/>
-      <c r="L28" s="76"/>
-      <c r="M28" s="105"/>
-      <c r="N28" s="76"/>
-      <c r="O28" s="76"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="101"/>
+      <c r="L28" s="101"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="101"/>
+      <c r="O28" s="101"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -10608,12 +10578,12 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="99"/>
-      <c r="K29" s="76"/>
-      <c r="L29" s="76"/>
-      <c r="M29" s="76"/>
-      <c r="N29" s="76"/>
-      <c r="O29" s="76"/>
+      <c r="J29" s="124"/>
+      <c r="K29" s="101"/>
+      <c r="L29" s="101"/>
+      <c r="M29" s="101"/>
+      <c r="N29" s="101"/>
+      <c r="O29" s="101"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -10636,10 +10606,10 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="99"/>
-      <c r="K30" s="76"/>
-      <c r="L30" s="76"/>
-      <c r="M30" s="98"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="101"/>
+      <c r="L30" s="101"/>
+      <c r="M30" s="123"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -10664,10 +10634,10 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="76"/>
-      <c r="L31" s="76"/>
-      <c r="M31" s="76"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="101"/>
+      <c r="L31" s="101"/>
+      <c r="M31" s="101"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -10692,9 +10662,9 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="100"/>
-      <c r="K32" s="76"/>
-      <c r="L32" s="76"/>
+      <c r="J32" s="125"/>
+      <c r="K32" s="101"/>
+      <c r="L32" s="101"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -10720,9 +10690,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="76"/>
-      <c r="K33" s="76"/>
-      <c r="L33" s="76"/>
+      <c r="J33" s="101"/>
+      <c r="K33" s="101"/>
+      <c r="L33" s="101"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -10748,9 +10718,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="76"/>
-      <c r="K34" s="76"/>
-      <c r="L34" s="76"/>
+      <c r="J34" s="101"/>
+      <c r="K34" s="101"/>
+      <c r="L34" s="101"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -16918,23 +16888,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="J32:L34"/>
@@ -16949,6 +16902,23 @@
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="J31:L31"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -17030,20 +17000,20 @@
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="116" t="s">
+      <c r="B3" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="117" t="s">
+      <c r="C3" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="119" t="s">
+      <c r="D3" s="132" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="120"/>
-      <c r="F3" s="119" t="s">
+      <c r="E3" s="133"/>
+      <c r="F3" s="132" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="120"/>
+      <c r="G3" s="133"/>
       <c r="H3" s="30" t="s">
         <v>30</v>
       </c>
@@ -17074,8 +17044,8 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="97"/>
-      <c r="C4" s="118"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="131"/>
       <c r="D4" s="32" t="s">
         <v>72</v>
       </c>
@@ -45508,20 +45478,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="121" t="s">
+      <c r="B4" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="123" t="s">
+      <c r="D4" s="136" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="122"/>
-      <c r="C5" s="122"/>
-      <c r="D5" s="124"/>
+      <c r="B5" s="135"/>
+      <c r="C5" s="135"/>
+      <c r="D5" s="137"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="53">
@@ -45788,90 +45758,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="B1" s="121" t="s">
+      <c r="B1" s="134" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="121" t="s">
+      <c r="C1" s="134" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="148" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="130"/>
-      <c r="F1" s="129" t="s">
+      <c r="E1" s="149"/>
+      <c r="F1" s="148" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="130"/>
-      <c r="H1" s="135" t="s">
+      <c r="G1" s="149"/>
+      <c r="H1" s="154" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="121" t="s">
+      <c r="I1" s="134" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="121" t="s">
+      <c r="J1" s="134" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="123" t="s">
+      <c r="K1" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="123" t="s">
+      <c r="L1" s="136" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="123" t="s">
+      <c r="M1" s="136" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="123" t="s">
+      <c r="N1" s="136" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="123" t="s">
+      <c r="O1" s="136" t="s">
         <v>126</v>
       </c>
-      <c r="P1" s="123" t="s">
+      <c r="P1" s="136" t="s">
         <v>130</v>
       </c>
-      <c r="Q1" s="123" t="s">
+      <c r="Q1" s="136" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="136"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="123"/>
-      <c r="L2" s="123"/>
-      <c r="M2" s="123"/>
-      <c r="N2" s="123"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="123"/>
-      <c r="Q2" s="123"/>
+      <c r="B2" s="134"/>
+      <c r="C2" s="134"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="155"/>
+      <c r="I2" s="134"/>
+      <c r="J2" s="134"/>
+      <c r="K2" s="136"/>
+      <c r="L2" s="136"/>
+      <c r="M2" s="136"/>
+      <c r="N2" s="136"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
     </row>
     <row r="3" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B3" s="121"/>
-      <c r="C3" s="121"/>
-      <c r="D3" s="133"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="133"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="137"/>
-      <c r="I3" s="121"/>
-      <c r="J3" s="121"/>
-      <c r="K3" s="123"/>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123"/>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123"/>
-      <c r="P3" s="123"/>
-      <c r="Q3" s="123"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="156"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="136"/>
+      <c r="L3" s="136"/>
+      <c r="M3" s="136"/>
+      <c r="N3" s="136"/>
+      <c r="O3" s="136"/>
+      <c r="P3" s="136"/>
+      <c r="Q3" s="136"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="121"/>
-      <c r="C4" s="121"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
       <c r="D4" s="52" t="s">
         <v>72</v>
       </c>
@@ -47038,11 +47008,11 @@
       <c r="O35" s="64"/>
     </row>
     <row r="36" spans="1:16" ht="47.25" customHeight="1">
-      <c r="A36" s="128" t="s">
+      <c r="A36" s="147" t="s">
         <v>118</v>
       </c>
-      <c r="B36" s="128"/>
-      <c r="C36" s="128"/>
+      <c r="B36" s="147"/>
+      <c r="C36" s="147"/>
       <c r="D36" s="63" t="s">
         <v>119</v>
       </c>
@@ -47055,55 +47025,55 @@
       <c r="G36" s="63"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="B37" s="125"/>
-      <c r="C37" s="125"/>
-      <c r="D37" s="125"/>
-      <c r="E37" s="125"/>
-      <c r="F37" s="125"/>
-      <c r="G37" s="125"/>
-      <c r="H37" s="125"/>
-      <c r="I37" s="125"/>
-      <c r="J37" s="125"/>
-      <c r="K37" s="125"/>
-      <c r="L37" s="125"/>
-      <c r="M37" s="125"/>
-      <c r="N37" s="125"/>
+      <c r="B37" s="157"/>
+      <c r="C37" s="157"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="157"/>
+      <c r="F37" s="157"/>
+      <c r="G37" s="157"/>
+      <c r="H37" s="157"/>
+      <c r="I37" s="157"/>
+      <c r="J37" s="157"/>
+      <c r="K37" s="157"/>
+      <c r="L37" s="157"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="157"/>
     </row>
     <row r="38" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A38" s="127" t="s">
+      <c r="A38" s="159" t="s">
         <v>120</v>
       </c>
-      <c r="B38" s="127"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="127"/>
-      <c r="E38" s="127"/>
-      <c r="F38" s="127"/>
-      <c r="G38" s="127"/>
-      <c r="H38" s="127"/>
-      <c r="I38" s="127"/>
-      <c r="J38" s="127"/>
-      <c r="K38" s="127"/>
-      <c r="L38" s="127"/>
-      <c r="M38" s="127"/>
-      <c r="N38" s="127"/>
+      <c r="B38" s="159"/>
+      <c r="C38" s="159"/>
+      <c r="D38" s="159"/>
+      <c r="E38" s="159"/>
+      <c r="F38" s="159"/>
+      <c r="G38" s="159"/>
+      <c r="H38" s="159"/>
+      <c r="I38" s="159"/>
+      <c r="J38" s="159"/>
+      <c r="K38" s="159"/>
+      <c r="L38" s="159"/>
+      <c r="M38" s="159"/>
+      <c r="N38" s="159"/>
     </row>
     <row r="39" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A39" s="127" t="s">
+      <c r="A39" s="159" t="s">
         <v>121</v>
       </c>
-      <c r="B39" s="127"/>
-      <c r="C39" s="127"/>
-      <c r="D39" s="127"/>
-      <c r="E39" s="127"/>
-      <c r="F39" s="127"/>
-      <c r="G39" s="127"/>
-      <c r="H39" s="127"/>
-      <c r="I39" s="127"/>
-      <c r="J39" s="127"/>
-      <c r="K39" s="127"/>
-      <c r="L39" s="127"/>
-      <c r="M39" s="127"/>
-      <c r="N39" s="127"/>
+      <c r="B39" s="159"/>
+      <c r="C39" s="159"/>
+      <c r="D39" s="159"/>
+      <c r="E39" s="159"/>
+      <c r="F39" s="159"/>
+      <c r="G39" s="159"/>
+      <c r="H39" s="159"/>
+      <c r="I39" s="159"/>
+      <c r="J39" s="159"/>
+      <c r="K39" s="159"/>
+      <c r="L39" s="159"/>
+      <c r="M39" s="159"/>
+      <c r="N39" s="159"/>
     </row>
     <row r="40" spans="1:16" ht="26.25">
       <c r="B40" s="60"/>
@@ -47121,348 +47091,348 @@
       <c r="N40" s="60"/>
     </row>
     <row r="41" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A41" s="126" t="s">
+      <c r="A41" s="158" t="s">
         <v>122</v>
       </c>
-      <c r="B41" s="126"/>
-      <c r="C41" s="126"/>
-      <c r="D41" s="126"/>
-      <c r="E41" s="126"/>
-      <c r="F41" s="126"/>
-      <c r="G41" s="126"/>
-      <c r="H41" s="126"/>
-      <c r="I41" s="126"/>
-      <c r="J41" s="126"/>
-      <c r="K41" s="126"/>
-      <c r="L41" s="126"/>
-      <c r="M41" s="126"/>
+      <c r="B41" s="158"/>
+      <c r="C41" s="158"/>
+      <c r="D41" s="158"/>
+      <c r="E41" s="158"/>
+      <c r="F41" s="158"/>
+      <c r="G41" s="158"/>
+      <c r="H41" s="158"/>
+      <c r="I41" s="158"/>
+      <c r="J41" s="158"/>
+      <c r="K41" s="158"/>
+      <c r="L41" s="158"/>
+      <c r="M41" s="158"/>
       <c r="N41" s="62"/>
     </row>
     <row r="42" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A42" s="126" t="s">
+      <c r="A42" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="B42" s="126"/>
-      <c r="C42" s="126"/>
-      <c r="D42" s="126"/>
-      <c r="E42" s="126"/>
-      <c r="F42" s="126"/>
-      <c r="G42" s="126"/>
-      <c r="H42" s="126"/>
-      <c r="I42" s="126"/>
-      <c r="J42" s="126"/>
-      <c r="K42" s="126"/>
-      <c r="L42" s="126"/>
-      <c r="M42" s="126"/>
-      <c r="N42" s="126"/>
+      <c r="B42" s="158"/>
+      <c r="C42" s="158"/>
+      <c r="D42" s="158"/>
+      <c r="E42" s="158"/>
+      <c r="F42" s="158"/>
+      <c r="G42" s="158"/>
+      <c r="H42" s="158"/>
+      <c r="I42" s="158"/>
+      <c r="J42" s="158"/>
+      <c r="K42" s="158"/>
+      <c r="L42" s="158"/>
+      <c r="M42" s="158"/>
+      <c r="N42" s="158"/>
       <c r="O42" s="59"/>
       <c r="P42" s="59"/>
     </row>
     <row r="43" spans="1:16" ht="60.75" customHeight="1">
-      <c r="A43" s="126" t="s">
+      <c r="A43" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="B43" s="126"/>
-      <c r="C43" s="126"/>
-      <c r="D43" s="126"/>
-      <c r="E43" s="126"/>
-      <c r="F43" s="126"/>
-      <c r="G43" s="126"/>
-      <c r="H43" s="126"/>
-      <c r="I43" s="126"/>
-      <c r="J43" s="126"/>
-      <c r="K43" s="126"/>
-      <c r="L43" s="126"/>
-      <c r="M43" s="126"/>
-      <c r="N43" s="126"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="158"/>
+      <c r="D43" s="158"/>
+      <c r="E43" s="158"/>
+      <c r="F43" s="158"/>
+      <c r="G43" s="158"/>
+      <c r="H43" s="158"/>
+      <c r="I43" s="158"/>
+      <c r="J43" s="158"/>
+      <c r="K43" s="158"/>
+      <c r="L43" s="158"/>
+      <c r="M43" s="158"/>
+      <c r="N43" s="158"/>
       <c r="O43" s="59"/>
       <c r="P43" s="59"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="125"/>
-      <c r="B44" s="125"/>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="125"/>
-      <c r="J44" s="125"/>
-      <c r="K44" s="125"/>
-      <c r="L44" s="125"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="125"/>
+      <c r="A44" s="157"/>
+      <c r="B44" s="157"/>
+      <c r="C44" s="157"/>
+      <c r="D44" s="157"/>
+      <c r="E44" s="157"/>
+      <c r="F44" s="157"/>
+      <c r="G44" s="157"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="157"/>
+      <c r="J44" s="157"/>
+      <c r="K44" s="157"/>
+      <c r="L44" s="157"/>
+      <c r="M44" s="157"/>
+      <c r="N44" s="157"/>
       <c r="O44" s="59"/>
       <c r="P44" s="59"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="125"/>
-      <c r="B45" s="125"/>
-      <c r="C45" s="125"/>
-      <c r="D45" s="125"/>
-      <c r="E45" s="125"/>
-      <c r="F45" s="125"/>
-      <c r="G45" s="125"/>
-      <c r="H45" s="125"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="125"/>
-      <c r="K45" s="125"/>
-      <c r="L45" s="125"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="125"/>
+      <c r="A45" s="157"/>
+      <c r="B45" s="157"/>
+      <c r="C45" s="157"/>
+      <c r="D45" s="157"/>
+      <c r="E45" s="157"/>
+      <c r="F45" s="157"/>
+      <c r="G45" s="157"/>
+      <c r="H45" s="157"/>
+      <c r="I45" s="157"/>
+      <c r="J45" s="157"/>
+      <c r="K45" s="157"/>
+      <c r="L45" s="157"/>
+      <c r="M45" s="157"/>
+      <c r="N45" s="157"/>
       <c r="O45" s="59"/>
       <c r="P45" s="59"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="125"/>
-      <c r="B46" s="125"/>
-      <c r="C46" s="125"/>
-      <c r="D46" s="125"/>
-      <c r="E46" s="125"/>
-      <c r="F46" s="125"/>
-      <c r="G46" s="125"/>
-      <c r="H46" s="125"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="125"/>
-      <c r="K46" s="125"/>
-      <c r="L46" s="125"/>
-      <c r="M46" s="125"/>
-      <c r="N46" s="125"/>
+      <c r="A46" s="157"/>
+      <c r="B46" s="157"/>
+      <c r="C46" s="157"/>
+      <c r="D46" s="157"/>
+      <c r="E46" s="157"/>
+      <c r="F46" s="157"/>
+      <c r="G46" s="157"/>
+      <c r="H46" s="157"/>
+      <c r="I46" s="157"/>
+      <c r="J46" s="157"/>
+      <c r="K46" s="157"/>
+      <c r="L46" s="157"/>
+      <c r="M46" s="157"/>
+      <c r="N46" s="157"/>
       <c r="O46" s="59"/>
       <c r="P46" s="59"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="125"/>
-      <c r="B47" s="125"/>
-      <c r="C47" s="125"/>
-      <c r="D47" s="125"/>
-      <c r="E47" s="125"/>
-      <c r="F47" s="125"/>
-      <c r="G47" s="125"/>
-      <c r="H47" s="125"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="125"/>
-      <c r="K47" s="125"/>
-      <c r="L47" s="125"/>
-      <c r="M47" s="125"/>
-      <c r="N47" s="125"/>
+      <c r="A47" s="157"/>
+      <c r="B47" s="157"/>
+      <c r="C47" s="157"/>
+      <c r="D47" s="157"/>
+      <c r="E47" s="157"/>
+      <c r="F47" s="157"/>
+      <c r="G47" s="157"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="157"/>
+      <c r="J47" s="157"/>
+      <c r="K47" s="157"/>
+      <c r="L47" s="157"/>
+      <c r="M47" s="157"/>
+      <c r="N47" s="157"/>
       <c r="O47" s="59"/>
       <c r="P47" s="59"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="125"/>
-      <c r="B48" s="125"/>
-      <c r="C48" s="125"/>
-      <c r="D48" s="125"/>
-      <c r="E48" s="125"/>
-      <c r="F48" s="125"/>
-      <c r="G48" s="125"/>
-      <c r="H48" s="125"/>
-      <c r="I48" s="125"/>
-      <c r="J48" s="125"/>
-      <c r="K48" s="125"/>
-      <c r="L48" s="125"/>
-      <c r="M48" s="125"/>
-      <c r="N48" s="125"/>
+      <c r="A48" s="157"/>
+      <c r="B48" s="157"/>
+      <c r="C48" s="157"/>
+      <c r="D48" s="157"/>
+      <c r="E48" s="157"/>
+      <c r="F48" s="157"/>
+      <c r="G48" s="157"/>
+      <c r="H48" s="157"/>
+      <c r="I48" s="157"/>
+      <c r="J48" s="157"/>
+      <c r="K48" s="157"/>
+      <c r="L48" s="157"/>
+      <c r="M48" s="157"/>
+      <c r="N48" s="157"/>
       <c r="O48" s="59"/>
       <c r="P48" s="59"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="125"/>
-      <c r="B49" s="125"/>
-      <c r="C49" s="125"/>
-      <c r="D49" s="125"/>
-      <c r="E49" s="125"/>
-      <c r="F49" s="125"/>
-      <c r="G49" s="125"/>
-      <c r="H49" s="125"/>
-      <c r="I49" s="125"/>
-      <c r="J49" s="125"/>
-      <c r="K49" s="125"/>
-      <c r="L49" s="125"/>
-      <c r="M49" s="125"/>
-      <c r="N49" s="125"/>
+      <c r="A49" s="157"/>
+      <c r="B49" s="157"/>
+      <c r="C49" s="157"/>
+      <c r="D49" s="157"/>
+      <c r="E49" s="157"/>
+      <c r="F49" s="157"/>
+      <c r="G49" s="157"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="157"/>
+      <c r="J49" s="157"/>
+      <c r="K49" s="157"/>
+      <c r="L49" s="157"/>
+      <c r="M49" s="157"/>
+      <c r="N49" s="157"/>
       <c r="O49" s="59"/>
       <c r="P49" s="59"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="125"/>
-      <c r="B50" s="125"/>
-      <c r="C50" s="125"/>
-      <c r="D50" s="125"/>
-      <c r="E50" s="125"/>
-      <c r="F50" s="125"/>
-      <c r="G50" s="125"/>
-      <c r="H50" s="125"/>
-      <c r="I50" s="125"/>
-      <c r="J50" s="125"/>
-      <c r="K50" s="125"/>
-      <c r="L50" s="125"/>
-      <c r="M50" s="125"/>
-      <c r="N50" s="125"/>
+      <c r="A50" s="157"/>
+      <c r="B50" s="157"/>
+      <c r="C50" s="157"/>
+      <c r="D50" s="157"/>
+      <c r="E50" s="157"/>
+      <c r="F50" s="157"/>
+      <c r="G50" s="157"/>
+      <c r="H50" s="157"/>
+      <c r="I50" s="157"/>
+      <c r="J50" s="157"/>
+      <c r="K50" s="157"/>
+      <c r="L50" s="157"/>
+      <c r="M50" s="157"/>
+      <c r="N50" s="157"/>
       <c r="O50" s="59"/>
       <c r="P50" s="59"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="125"/>
-      <c r="B51" s="125"/>
-      <c r="C51" s="125"/>
-      <c r="D51" s="125"/>
-      <c r="E51" s="125"/>
-      <c r="F51" s="125"/>
-      <c r="G51" s="125"/>
-      <c r="H51" s="125"/>
-      <c r="I51" s="125"/>
-      <c r="J51" s="125"/>
-      <c r="K51" s="125"/>
-      <c r="L51" s="125"/>
-      <c r="M51" s="125"/>
-      <c r="N51" s="125"/>
+      <c r="A51" s="157"/>
+      <c r="B51" s="157"/>
+      <c r="C51" s="157"/>
+      <c r="D51" s="157"/>
+      <c r="E51" s="157"/>
+      <c r="F51" s="157"/>
+      <c r="G51" s="157"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="157"/>
+      <c r="J51" s="157"/>
+      <c r="K51" s="157"/>
+      <c r="L51" s="157"/>
+      <c r="M51" s="157"/>
+      <c r="N51" s="157"/>
       <c r="O51" s="59"/>
       <c r="P51" s="59"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="125"/>
-      <c r="B52" s="125"/>
-      <c r="C52" s="125"/>
-      <c r="D52" s="125"/>
-      <c r="E52" s="125"/>
-      <c r="F52" s="125"/>
-      <c r="G52" s="125"/>
-      <c r="H52" s="125"/>
-      <c r="I52" s="125"/>
-      <c r="J52" s="125"/>
-      <c r="K52" s="125"/>
-      <c r="L52" s="125"/>
-      <c r="M52" s="125"/>
-      <c r="N52" s="125"/>
+      <c r="A52" s="157"/>
+      <c r="B52" s="157"/>
+      <c r="C52" s="157"/>
+      <c r="D52" s="157"/>
+      <c r="E52" s="157"/>
+      <c r="F52" s="157"/>
+      <c r="G52" s="157"/>
+      <c r="H52" s="157"/>
+      <c r="I52" s="157"/>
+      <c r="J52" s="157"/>
+      <c r="K52" s="157"/>
+      <c r="L52" s="157"/>
+      <c r="M52" s="157"/>
+      <c r="N52" s="157"/>
       <c r="O52" s="59"/>
       <c r="P52" s="59"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="125"/>
-      <c r="B53" s="125"/>
-      <c r="C53" s="125"/>
-      <c r="D53" s="125"/>
-      <c r="E53" s="125"/>
-      <c r="F53" s="125"/>
-      <c r="G53" s="125"/>
-      <c r="H53" s="125"/>
-      <c r="I53" s="125"/>
-      <c r="J53" s="125"/>
-      <c r="K53" s="125"/>
-      <c r="L53" s="125"/>
-      <c r="M53" s="125"/>
-      <c r="N53" s="125"/>
+      <c r="A53" s="157"/>
+      <c r="B53" s="157"/>
+      <c r="C53" s="157"/>
+      <c r="D53" s="157"/>
+      <c r="E53" s="157"/>
+      <c r="F53" s="157"/>
+      <c r="G53" s="157"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="157"/>
+      <c r="J53" s="157"/>
+      <c r="K53" s="157"/>
+      <c r="L53" s="157"/>
+      <c r="M53" s="157"/>
+      <c r="N53" s="157"/>
       <c r="O53" s="59"/>
       <c r="P53" s="59"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="125"/>
-      <c r="B54" s="125"/>
-      <c r="C54" s="125"/>
-      <c r="D54" s="125"/>
-      <c r="E54" s="125"/>
-      <c r="F54" s="125"/>
-      <c r="G54" s="125"/>
-      <c r="H54" s="125"/>
-      <c r="I54" s="125"/>
-      <c r="J54" s="125"/>
-      <c r="K54" s="125"/>
-      <c r="L54" s="125"/>
-      <c r="M54" s="125"/>
-      <c r="N54" s="125"/>
+      <c r="A54" s="157"/>
+      <c r="B54" s="157"/>
+      <c r="C54" s="157"/>
+      <c r="D54" s="157"/>
+      <c r="E54" s="157"/>
+      <c r="F54" s="157"/>
+      <c r="G54" s="157"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="157"/>
+      <c r="J54" s="157"/>
+      <c r="K54" s="157"/>
+      <c r="L54" s="157"/>
+      <c r="M54" s="157"/>
+      <c r="N54" s="157"/>
       <c r="O54" s="59"/>
       <c r="P54" s="59"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="125"/>
-      <c r="B55" s="125"/>
-      <c r="C55" s="125"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="125"/>
-      <c r="J55" s="125"/>
-      <c r="K55" s="125"/>
-      <c r="L55" s="125"/>
-      <c r="M55" s="125"/>
-      <c r="N55" s="125"/>
+      <c r="A55" s="157"/>
+      <c r="B55" s="157"/>
+      <c r="C55" s="157"/>
+      <c r="D55" s="157"/>
+      <c r="E55" s="157"/>
+      <c r="F55" s="157"/>
+      <c r="G55" s="157"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="157"/>
+      <c r="J55" s="157"/>
+      <c r="K55" s="157"/>
+      <c r="L55" s="157"/>
+      <c r="M55" s="157"/>
+      <c r="N55" s="157"/>
       <c r="O55" s="59"/>
       <c r="P55" s="59"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="125"/>
-      <c r="B56" s="125"/>
-      <c r="C56" s="125"/>
-      <c r="D56" s="125"/>
-      <c r="E56" s="125"/>
-      <c r="F56" s="125"/>
-      <c r="G56" s="125"/>
-      <c r="H56" s="125"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="125"/>
-      <c r="K56" s="125"/>
-      <c r="L56" s="125"/>
-      <c r="M56" s="125"/>
-      <c r="N56" s="125"/>
+      <c r="A56" s="157"/>
+      <c r="B56" s="157"/>
+      <c r="C56" s="157"/>
+      <c r="D56" s="157"/>
+      <c r="E56" s="157"/>
+      <c r="F56" s="157"/>
+      <c r="G56" s="157"/>
+      <c r="H56" s="157"/>
+      <c r="I56" s="157"/>
+      <c r="J56" s="157"/>
+      <c r="K56" s="157"/>
+      <c r="L56" s="157"/>
+      <c r="M56" s="157"/>
+      <c r="N56" s="157"/>
       <c r="O56" s="59"/>
       <c r="P56" s="59"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="125"/>
-      <c r="B57" s="125"/>
-      <c r="C57" s="125"/>
-      <c r="D57" s="125"/>
-      <c r="E57" s="125"/>
-      <c r="F57" s="125"/>
-      <c r="G57" s="125"/>
-      <c r="H57" s="125"/>
-      <c r="I57" s="125"/>
-      <c r="J57" s="125"/>
-      <c r="K57" s="125"/>
-      <c r="L57" s="125"/>
-      <c r="M57" s="125"/>
-      <c r="N57" s="125"/>
+      <c r="A57" s="157"/>
+      <c r="B57" s="157"/>
+      <c r="C57" s="157"/>
+      <c r="D57" s="157"/>
+      <c r="E57" s="157"/>
+      <c r="F57" s="157"/>
+      <c r="G57" s="157"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="157"/>
+      <c r="J57" s="157"/>
+      <c r="K57" s="157"/>
+      <c r="L57" s="157"/>
+      <c r="M57" s="157"/>
+      <c r="N57" s="157"/>
       <c r="O57" s="59"/>
       <c r="P57" s="59"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="125"/>
-      <c r="B58" s="125"/>
-      <c r="C58" s="125"/>
-      <c r="D58" s="125"/>
-      <c r="E58" s="125"/>
-      <c r="F58" s="125"/>
-      <c r="G58" s="125"/>
-      <c r="H58" s="125"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="125"/>
-      <c r="K58" s="125"/>
-      <c r="L58" s="125"/>
-      <c r="M58" s="125"/>
-      <c r="N58" s="125"/>
+      <c r="A58" s="157"/>
+      <c r="B58" s="157"/>
+      <c r="C58" s="157"/>
+      <c r="D58" s="157"/>
+      <c r="E58" s="157"/>
+      <c r="F58" s="157"/>
+      <c r="G58" s="157"/>
+      <c r="H58" s="157"/>
+      <c r="I58" s="157"/>
+      <c r="J58" s="157"/>
+      <c r="K58" s="157"/>
+      <c r="L58" s="157"/>
+      <c r="M58" s="157"/>
+      <c r="N58" s="157"/>
       <c r="O58" s="59"/>
       <c r="P58" s="59"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="125"/>
-      <c r="B59" s="125"/>
-      <c r="C59" s="125"/>
-      <c r="D59" s="125"/>
-      <c r="E59" s="125"/>
-      <c r="F59" s="125"/>
-      <c r="G59" s="125"/>
-      <c r="H59" s="125"/>
-      <c r="I59" s="125"/>
-      <c r="J59" s="125"/>
-      <c r="K59" s="125"/>
-      <c r="L59" s="125"/>
-      <c r="M59" s="125"/>
-      <c r="N59" s="125"/>
+      <c r="A59" s="157"/>
+      <c r="B59" s="157"/>
+      <c r="C59" s="157"/>
+      <c r="D59" s="157"/>
+      <c r="E59" s="157"/>
+      <c r="F59" s="157"/>
+      <c r="G59" s="157"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="157"/>
+      <c r="J59" s="157"/>
+      <c r="K59" s="157"/>
+      <c r="L59" s="157"/>
+      <c r="M59" s="157"/>
+      <c r="N59" s="157"/>
       <c r="O59" s="59"/>
       <c r="P59" s="59"/>
     </row>
@@ -47486,14 +47456,28 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B37:N37"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A50:N50"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A49:N49"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="A56:N56"/>
+    <mergeCell ref="A57:N57"/>
+    <mergeCell ref="A58:N58"/>
+    <mergeCell ref="A59:N59"/>
+    <mergeCell ref="A41:M41"/>
+    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="A53:N53"/>
+    <mergeCell ref="A54:N54"/>
+    <mergeCell ref="A55:N55"/>
     <mergeCell ref="A36:C36"/>
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="I1:I3"/>
@@ -47507,28 +47491,14 @@
     <mergeCell ref="D1:E3"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="H1:H3"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="A57:N57"/>
-    <mergeCell ref="A58:N58"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A51:N51"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="A53:N53"/>
-    <mergeCell ref="A54:N54"/>
-    <mergeCell ref="A55:N55"/>
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A50:N50"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A46:N46"/>
-    <mergeCell ref="A47:N47"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A49:N49"/>
-    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="B29:O29"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -47537,10 +47507,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE09EFEF-EC0B-4984-B180-595A6EF1BBAD}">
-  <dimension ref="B2:K47"/>
+  <dimension ref="B2:K43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29:K43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -47551,223 +47521,223 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="159" t="s">
+      <c r="B2" s="164" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="160"/>
-      <c r="D2" s="160"/>
-      <c r="E2" s="160"/>
-      <c r="F2" s="160"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="161"/>
+      <c r="C2" s="165"/>
+      <c r="D2" s="165"/>
+      <c r="E2" s="165"/>
+      <c r="F2" s="165"/>
+      <c r="G2" s="165"/>
+      <c r="H2" s="165"/>
+      <c r="I2" s="165"/>
+      <c r="J2" s="165"/>
+      <c r="K2" s="77"/>
     </row>
     <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="162" t="s">
+      <c r="B3" s="168" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
-      <c r="H3" s="147"/>
-      <c r="I3" s="147"/>
-      <c r="J3" s="147"/>
-      <c r="K3" s="163"/>
+      <c r="C3" s="166"/>
+      <c r="D3" s="166"/>
+      <c r="E3" s="166"/>
+      <c r="F3" s="166"/>
+      <c r="G3" s="166"/>
+      <c r="H3" s="166"/>
+      <c r="I3" s="166"/>
+      <c r="J3" s="166"/>
+      <c r="K3" s="79"/>
     </row>
     <row r="4" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="162" t="s">
+      <c r="B4" s="168" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="147"/>
-      <c r="I4" s="147"/>
-      <c r="J4" s="147"/>
-      <c r="K4" s="163"/>
+      <c r="C4" s="166"/>
+      <c r="D4" s="166"/>
+      <c r="E4" s="166"/>
+      <c r="F4" s="166"/>
+      <c r="G4" s="166"/>
+      <c r="H4" s="166"/>
+      <c r="I4" s="166"/>
+      <c r="J4" s="166"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="164"/>
+      <c r="B5" s="78"/>
       <c r="C5" s="72"/>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
       <c r="F5" s="72"/>
       <c r="G5" s="72"/>
       <c r="H5" s="72"/>
-      <c r="I5" s="157"/>
-      <c r="J5" s="157"/>
-      <c r="K5" s="163"/>
+      <c r="I5" s="75"/>
+      <c r="J5" s="75"/>
+      <c r="K5" s="79"/>
     </row>
     <row r="6" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="165" t="s">
+      <c r="B6" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="154"/>
-      <c r="D6" s="151" t="s">
+      <c r="C6" s="74"/>
+      <c r="D6" s="163" t="s">
         <v>146</v>
       </c>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151" t="s">
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="163" t="s">
         <v>155</v>
       </c>
-      <c r="H6" s="151"/>
-      <c r="I6" s="157"/>
-      <c r="J6" s="157"/>
-      <c r="K6" s="163"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="75"/>
+      <c r="J6" s="75"/>
+      <c r="K6" s="79"/>
     </row>
     <row r="7" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="81" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="156" t="s">
+      <c r="C7" s="73"/>
+      <c r="D7" s="169" t="s">
         <v>147</v>
       </c>
-      <c r="E7" s="156"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="147" t="s">
+      <c r="E7" s="169"/>
+      <c r="F7" s="169"/>
+      <c r="G7" s="166" t="s">
         <v>156</v>
       </c>
-      <c r="H7" s="147"/>
-      <c r="I7" s="147"/>
-      <c r="J7" s="147"/>
-      <c r="K7" s="163"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="79"/>
     </row>
     <row r="8" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="166" t="s">
+      <c r="B8" s="81" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="150"/>
-      <c r="D8" s="156" t="s">
+      <c r="C8" s="73"/>
+      <c r="D8" s="169" t="s">
         <v>148</v>
       </c>
-      <c r="E8" s="156"/>
-      <c r="F8" s="156"/>
-      <c r="G8" s="147"/>
-      <c r="H8" s="147"/>
-      <c r="I8" s="147"/>
-      <c r="J8" s="147"/>
-      <c r="K8" s="163"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="169"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="79"/>
     </row>
     <row r="9" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="167"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="169"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="169"/>
-      <c r="G9" s="148"/>
-      <c r="H9" s="148"/>
-      <c r="I9" s="148"/>
-      <c r="J9" s="148"/>
-      <c r="K9" s="170"/>
+      <c r="B9" s="82"/>
+      <c r="C9" s="83"/>
+      <c r="D9" s="170"/>
+      <c r="E9" s="170"/>
+      <c r="F9" s="170"/>
+      <c r="G9" s="167"/>
+      <c r="H9" s="167"/>
+      <c r="I9" s="167"/>
+      <c r="J9" s="167"/>
+      <c r="K9" s="84"/>
     </row>
     <row r="10" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="149"/>
-      <c r="C10" s="149"/>
-      <c r="D10" s="149"/>
-      <c r="E10" s="149"/>
-      <c r="F10" s="149"/>
-      <c r="G10" s="149"/>
-      <c r="H10" s="149"/>
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
     </row>
     <row r="11" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="152" t="s">
+      <c r="B11" s="162" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="152"/>
-      <c r="D11" s="152"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="152"/>
-      <c r="H11" s="152"/>
-      <c r="I11" s="152"/>
-      <c r="J11" s="152"/>
-      <c r="K11" s="152"/>
+      <c r="C11" s="162"/>
+      <c r="D11" s="162"/>
+      <c r="E11" s="162"/>
+      <c r="F11" s="162"/>
+      <c r="G11" s="162"/>
+      <c r="H11" s="162"/>
+      <c r="I11" s="162"/>
+      <c r="J11" s="162"/>
+      <c r="K11" s="162"/>
     </row>
     <row r="12" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="160" t="s">
         <v>139</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="160" t="s">
         <v>140</v>
       </c>
-      <c r="D12" s="155" t="s">
+      <c r="D12" s="160" t="s">
         <v>166</v>
       </c>
-      <c r="E12" s="155" t="s">
+      <c r="E12" s="160" t="s">
         <v>141</v>
       </c>
-      <c r="F12" s="155" t="s">
+      <c r="F12" s="160" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="155" t="s">
+      <c r="G12" s="160" t="s">
         <v>143</v>
       </c>
-      <c r="H12" s="155" t="s">
+      <c r="H12" s="160" t="s">
         <v>164</v>
       </c>
-      <c r="I12" s="155" t="s">
+      <c r="I12" s="160" t="s">
         <v>144</v>
       </c>
-      <c r="J12" s="155" t="s">
+      <c r="J12" s="160" t="s">
         <v>145</v>
       </c>
-      <c r="K12" s="155" t="s">
+      <c r="K12" s="160" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="13" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="153"/>
-      <c r="C13" s="153"/>
-      <c r="D13" s="153"/>
-      <c r="E13" s="153"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="153"/>
-      <c r="H13" s="153"/>
-      <c r="I13" s="153"/>
-      <c r="J13" s="153"/>
-      <c r="K13" s="153"/>
+      <c r="B13" s="161"/>
+      <c r="C13" s="161"/>
+      <c r="D13" s="161"/>
+      <c r="E13" s="161"/>
+      <c r="F13" s="161"/>
+      <c r="G13" s="161"/>
+      <c r="H13" s="161"/>
+      <c r="I13" s="161"/>
+      <c r="J13" s="161"/>
+      <c r="K13" s="161"/>
     </row>
     <row r="14" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="54" t="s">
+      <c r="B14" s="175" t="s">
         <v>163</v>
       </c>
       <c r="C14" s="54">
         <v>400</v>
       </c>
-      <c r="D14" s="171">
+      <c r="D14" s="85">
         <v>127</v>
       </c>
-      <c r="E14" s="158">
+      <c r="E14" s="76">
         <f>C14/D14</f>
         <v>3.1496062992125986</v>
       </c>
-      <c r="F14" s="158">
+      <c r="F14" s="76">
         <v>14.629899999999999</v>
       </c>
-      <c r="G14" s="158">
+      <c r="G14" s="76">
         <f>F14/1000</f>
         <v>1.46299E-2</v>
       </c>
       <c r="H14" s="54">
         <v>14.3</v>
       </c>
-      <c r="I14" s="158">
+      <c r="I14" s="76">
         <f>H14*E14*G14*100/D14</f>
         <v>0.51883581127162259</v>
       </c>
-      <c r="J14" s="158">
+      <c r="J14" s="76">
         <f>I14</f>
         <v>0.51883581127162259</v>
       </c>
-      <c r="K14" s="176">
+      <c r="K14" s="172">
         <v>2.5</v>
       </c>
     </row>
@@ -47778,32 +47748,32 @@
       <c r="C15" s="54">
         <v>300</v>
       </c>
-      <c r="D15" s="171">
+      <c r="D15" s="85">
         <v>127</v>
       </c>
-      <c r="E15" s="158">
+      <c r="E15" s="76">
         <f t="shared" ref="E15:E17" si="0">C15/D15</f>
         <v>2.3622047244094486</v>
       </c>
-      <c r="F15" s="158">
+      <c r="F15" s="76">
         <v>4.0477999999999996</v>
       </c>
-      <c r="G15" s="158">
-        <f t="shared" ref="G15:G25" si="1">F15/1000</f>
+      <c r="G15" s="76">
+        <f t="shared" ref="G15:G23" si="1">F15/1000</f>
         <v>4.0477999999999998E-3</v>
       </c>
       <c r="H15" s="54">
         <v>14.3</v>
       </c>
-      <c r="I15" s="158">
-        <f t="shared" ref="I15:I25" si="2">H15*E15*G15*100/D15</f>
+      <c r="I15" s="76">
+        <f t="shared" ref="I15:I23" si="2">H15*E15*G15*100/D15</f>
         <v>0.10766359972719945</v>
       </c>
-      <c r="J15" s="158">
-        <f>I14+I15</f>
+      <c r="J15" s="76">
+        <f>SUM(I14:I15)</f>
         <v>0.626499410998822</v>
       </c>
-      <c r="K15" s="177"/>
+      <c r="K15" s="173"/>
     </row>
     <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="54" t="s">
@@ -47812,32 +47782,32 @@
       <c r="C16" s="54">
         <v>200</v>
       </c>
-      <c r="D16" s="171">
+      <c r="D16" s="85">
         <v>127</v>
       </c>
-      <c r="E16" s="158">
+      <c r="E16" s="76">
         <f t="shared" si="0"/>
         <v>1.5748031496062993</v>
       </c>
-      <c r="F16" s="158">
+      <c r="F16" s="76">
         <v>4.4528999999999996</v>
       </c>
-      <c r="G16" s="158">
+      <c r="G16" s="76">
         <f t="shared" si="1"/>
         <v>4.4528999999999992E-3</v>
       </c>
       <c r="H16" s="54">
         <v>14.3</v>
       </c>
-      <c r="I16" s="158">
+      <c r="I16" s="76">
         <f t="shared" si="2"/>
         <v>7.8958980717961438E-2</v>
       </c>
-      <c r="J16" s="158">
+      <c r="J16" s="76">
         <f>SUM(I14:I16)</f>
         <v>0.70545839171678348</v>
       </c>
-      <c r="K16" s="177"/>
+      <c r="K16" s="173"/>
     </row>
     <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="54" t="s">
@@ -47846,890 +47816,809 @@
       <c r="C17" s="54">
         <v>100</v>
       </c>
-      <c r="D17" s="171">
+      <c r="D17" s="85">
         <v>127</v>
       </c>
-      <c r="E17" s="158">
+      <c r="E17" s="76">
         <f t="shared" si="0"/>
         <v>0.78740157480314965</v>
       </c>
-      <c r="F17" s="158">
+      <c r="F17" s="76">
         <v>4.1230000000000002</v>
       </c>
-      <c r="G17" s="158">
+      <c r="G17" s="76">
         <f t="shared" si="1"/>
         <v>4.1229999999999999E-3</v>
       </c>
       <c r="H17" s="54">
         <v>14.3</v>
       </c>
-      <c r="I17" s="158">
+      <c r="I17" s="76">
         <f t="shared" si="2"/>
         <v>3.6554591109182216E-2</v>
       </c>
-      <c r="J17" s="158">
+      <c r="J17" s="76">
         <f>SUM(I14:I17)</f>
         <v>0.74201298282596573</v>
       </c>
-      <c r="K17" s="178"/>
+      <c r="K17" s="173"/>
     </row>
     <row r="18" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="172"/>
-      <c r="C18" s="173"/>
-      <c r="D18" s="173"/>
-      <c r="E18" s="173"/>
-      <c r="F18" s="173"/>
-      <c r="G18" s="173"/>
-      <c r="H18" s="173"/>
-      <c r="I18" s="173"/>
-      <c r="J18" s="173"/>
-      <c r="K18" s="174"/>
+      <c r="B18" s="175" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="54">
+        <v>200</v>
+      </c>
+      <c r="D18" s="85">
+        <v>127</v>
+      </c>
+      <c r="E18" s="76">
+        <f>C18/D18</f>
+        <v>1.5748031496062993</v>
+      </c>
+      <c r="F18" s="76">
+        <v>9.98</v>
+      </c>
+      <c r="G18" s="76">
+        <f t="shared" si="1"/>
+        <v>9.980000000000001E-3</v>
+      </c>
+      <c r="H18" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I18" s="76">
+        <f t="shared" si="2"/>
+        <v>0.1769657139314279</v>
+      </c>
+      <c r="J18" s="76">
+        <f>SUM(I14:I18)</f>
+        <v>0.91897869675739363</v>
+      </c>
+      <c r="K18" s="173"/>
     </row>
     <row r="19" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="54" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C19" s="54">
-        <v>200</v>
-      </c>
-      <c r="D19" s="171">
+        <v>100</v>
+      </c>
+      <c r="D19" s="85">
         <v>127</v>
       </c>
-      <c r="E19" s="158">
+      <c r="E19" s="76">
         <f>C19/D19</f>
-        <v>1.5748031496062993</v>
-      </c>
-      <c r="F19" s="158">
-        <v>9.98</v>
-      </c>
-      <c r="G19" s="158">
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F19" s="76">
+        <v>3.3422999999999998</v>
+      </c>
+      <c r="G19" s="76">
         <f t="shared" si="1"/>
-        <v>9.980000000000001E-3</v>
+        <v>3.3422999999999999E-3</v>
       </c>
       <c r="H19" s="54">
         <v>14.3</v>
       </c>
-      <c r="I19" s="158">
+      <c r="I19" s="76">
         <f t="shared" si="2"/>
-        <v>0.1769657139314279</v>
-      </c>
-      <c r="J19" s="158">
-        <f>I19</f>
-        <v>0.1769657139314279</v>
-      </c>
-      <c r="K19" s="176">
-        <v>2.5</v>
-      </c>
+        <v>2.9632891065782135E-2</v>
+      </c>
+      <c r="J19" s="76">
+        <f>SUM(I14:I19)</f>
+        <v>0.94861158782317578</v>
+      </c>
+      <c r="K19" s="173"/>
     </row>
     <row r="20" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="54" t="s">
-        <v>167</v>
+      <c r="B20" s="175" t="s">
+        <v>169</v>
       </c>
       <c r="C20" s="54">
-        <v>100</v>
-      </c>
-      <c r="D20" s="171">
+        <v>600</v>
+      </c>
+      <c r="D20" s="85">
         <v>127</v>
       </c>
-      <c r="E20" s="158">
-        <f>C20/D20</f>
-        <v>0.78740157480314965</v>
-      </c>
-      <c r="F20" s="158">
-        <v>3.3422999999999998</v>
-      </c>
-      <c r="G20" s="158">
+      <c r="E20" s="76">
+        <f t="shared" ref="E20:E23" si="3">C20/D20</f>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="F20" s="76">
+        <v>8.1341999999999999</v>
+      </c>
+      <c r="G20" s="76">
         <f t="shared" si="1"/>
-        <v>3.3422999999999999E-3</v>
+        <v>8.1341999999999994E-3</v>
       </c>
       <c r="H20" s="54">
         <v>14.3</v>
       </c>
-      <c r="I20" s="158">
+      <c r="I20" s="76">
         <f t="shared" si="2"/>
-        <v>2.9632891065782135E-2</v>
-      </c>
-      <c r="J20" s="158">
-        <f>I19+I20</f>
-        <v>0.20659860499721003</v>
-      </c>
-      <c r="K20" s="178"/>
+        <v>0.43270776861553717</v>
+      </c>
+      <c r="J20" s="76">
+        <f>SUM(I14:I20)</f>
+        <v>1.381319356438713</v>
+      </c>
+      <c r="K20" s="173"/>
     </row>
     <row r="21" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B21" s="172"/>
-      <c r="C21" s="173"/>
-      <c r="D21" s="173"/>
-      <c r="E21" s="173"/>
-      <c r="F21" s="173"/>
-      <c r="G21" s="173"/>
-      <c r="H21" s="173"/>
-      <c r="I21" s="173"/>
-      <c r="J21" s="173"/>
-      <c r="K21" s="174"/>
+      <c r="B21" s="54" t="s">
+        <v>170</v>
+      </c>
+      <c r="C21" s="54">
+        <v>100</v>
+      </c>
+      <c r="D21" s="85">
+        <v>127</v>
+      </c>
+      <c r="E21" s="76">
+        <f t="shared" si="3"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F21" s="76">
+        <v>4.5681000000000003</v>
+      </c>
+      <c r="G21" s="76">
+        <f t="shared" si="1"/>
+        <v>4.5681000000000003E-3</v>
+      </c>
+      <c r="H21" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I21" s="76">
+        <f t="shared" si="2"/>
+        <v>4.0500855601711211E-2</v>
+      </c>
+      <c r="J21" s="76">
+        <f>SUM(I14:I21)</f>
+        <v>1.4218202120404242</v>
+      </c>
+      <c r="K21" s="173"/>
     </row>
     <row r="22" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="54" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C22" s="54">
-        <v>600</v>
-      </c>
-      <c r="D22" s="171">
+        <v>400</v>
+      </c>
+      <c r="D22" s="85">
         <v>127</v>
       </c>
-      <c r="E22" s="158">
-        <f t="shared" ref="E22:E25" si="3">C22/D22</f>
-        <v>4.7244094488188972</v>
-      </c>
-      <c r="F22" s="158">
-        <v>8.1341999999999999</v>
-      </c>
-      <c r="G22" s="158">
+      <c r="E22" s="76">
+        <f t="shared" si="3"/>
+        <v>3.1496062992125986</v>
+      </c>
+      <c r="F22" s="76">
+        <v>4.7576999999999998</v>
+      </c>
+      <c r="G22" s="76">
         <f t="shared" si="1"/>
-        <v>8.1341999999999994E-3</v>
+        <v>4.7577000000000001E-3</v>
       </c>
       <c r="H22" s="54">
         <v>14.3</v>
       </c>
-      <c r="I22" s="158">
+      <c r="I22" s="76">
         <f t="shared" si="2"/>
-        <v>0.43270776861553717</v>
-      </c>
-      <c r="J22" s="158">
-        <f>I22</f>
-        <v>0.43270776861553717</v>
-      </c>
-      <c r="K22" s="176">
-        <v>2.5</v>
-      </c>
+        <v>0.16872741025482052</v>
+      </c>
+      <c r="J22" s="76">
+        <f>SUM(I14:I22)</f>
+        <v>1.5905476222952446</v>
+      </c>
+      <c r="K22" s="173"/>
     </row>
     <row r="23" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="54" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C23" s="54">
-        <v>100</v>
-      </c>
-      <c r="D23" s="171">
+        <v>200</v>
+      </c>
+      <c r="D23" s="85">
         <v>127</v>
       </c>
-      <c r="E23" s="158">
+      <c r="E23" s="76">
         <f t="shared" si="3"/>
-        <v>0.78740157480314965</v>
-      </c>
-      <c r="F23" s="158">
-        <v>4.5681000000000003</v>
-      </c>
-      <c r="G23" s="158">
+        <v>1.5748031496062993</v>
+      </c>
+      <c r="F23" s="76">
+        <v>11.351800000000001</v>
+      </c>
+      <c r="G23" s="76">
         <f t="shared" si="1"/>
-        <v>4.5681000000000003E-3</v>
+        <v>1.13518E-2</v>
       </c>
       <c r="H23" s="54">
         <v>14.3</v>
       </c>
-      <c r="I23" s="158">
-        <f t="shared" si="2"/>
-        <v>4.0500855601711211E-2</v>
-      </c>
-      <c r="J23" s="158">
-        <f>I22+I23</f>
-        <v>0.47320862421724841</v>
-      </c>
-      <c r="K23" s="177"/>
-    </row>
-    <row r="24" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B24" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="C24" s="54">
-        <v>400</v>
-      </c>
-      <c r="D24" s="171">
-        <v>127</v>
-      </c>
-      <c r="E24" s="158">
-        <f t="shared" si="3"/>
-        <v>3.1496062992125986</v>
-      </c>
-      <c r="F24" s="158">
-        <v>4.7576999999999998</v>
-      </c>
-      <c r="G24" s="158">
-        <f t="shared" si="1"/>
-        <v>4.7577000000000001E-3</v>
-      </c>
-      <c r="H24" s="54">
-        <v>14.3</v>
-      </c>
-      <c r="I24" s="158">
-        <f t="shared" si="2"/>
-        <v>0.16872741025482052</v>
-      </c>
-      <c r="J24" s="158">
-        <f>I22+I23+I24</f>
-        <v>0.64193603447206893</v>
-      </c>
-      <c r="K24" s="177"/>
-    </row>
-    <row r="25" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B25" s="54" t="s">
-        <v>172</v>
-      </c>
-      <c r="C25" s="54">
-        <v>200</v>
-      </c>
-      <c r="D25" s="171">
-        <v>127</v>
-      </c>
-      <c r="E25" s="158">
-        <f t="shared" si="3"/>
-        <v>1.5748031496062993</v>
-      </c>
-      <c r="F25" s="158">
-        <v>11.351800000000001</v>
-      </c>
-      <c r="G25" s="158">
-        <f t="shared" si="1"/>
-        <v>1.13518E-2</v>
-      </c>
-      <c r="H25" s="54">
-        <v>14.3</v>
-      </c>
-      <c r="I25" s="158">
+      <c r="I23" s="76">
         <f t="shared" si="2"/>
         <v>0.20129052018104041</v>
       </c>
-      <c r="J25" s="158">
-        <f>I22+I23+I24+I25</f>
-        <v>0.84322655465310936</v>
-      </c>
-      <c r="K25" s="178"/>
+      <c r="J23" s="76">
+        <f>SUM(I14:I23)</f>
+        <v>1.791838142476285</v>
+      </c>
+      <c r="K23" s="174"/>
+    </row>
+    <row r="26" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B26" s="162" t="s">
+        <v>174</v>
+      </c>
+      <c r="C26" s="162"/>
+      <c r="D26" s="162"/>
+      <c r="E26" s="162"/>
+      <c r="F26" s="162"/>
+      <c r="G26" s="162"/>
+      <c r="H26" s="162"/>
+      <c r="I26" s="162"/>
+      <c r="J26" s="162"/>
+      <c r="K26" s="162"/>
+    </row>
+    <row r="27" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B27" s="160" t="s">
+        <v>139</v>
+      </c>
+      <c r="C27" s="160" t="s">
+        <v>140</v>
+      </c>
+      <c r="D27" s="160" t="s">
+        <v>166</v>
+      </c>
+      <c r="E27" s="160" t="s">
+        <v>141</v>
+      </c>
+      <c r="F27" s="160" t="s">
+        <v>142</v>
+      </c>
+      <c r="G27" s="160" t="s">
+        <v>143</v>
+      </c>
+      <c r="H27" s="160" t="s">
+        <v>164</v>
+      </c>
+      <c r="I27" s="160" t="s">
+        <v>144</v>
+      </c>
+      <c r="J27" s="160" t="s">
+        <v>145</v>
+      </c>
+      <c r="K27" s="160" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="28" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="152" t="s">
-        <v>174</v>
-      </c>
-      <c r="C28" s="152"/>
-      <c r="D28" s="152"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="152"/>
-      <c r="H28" s="152"/>
-      <c r="I28" s="152"/>
-      <c r="J28" s="152"/>
-      <c r="K28" s="152"/>
+      <c r="B28" s="161"/>
+      <c r="C28" s="161"/>
+      <c r="D28" s="161"/>
+      <c r="E28" s="161"/>
+      <c r="F28" s="161"/>
+      <c r="G28" s="161"/>
+      <c r="H28" s="161"/>
+      <c r="I28" s="161"/>
+      <c r="J28" s="161"/>
+      <c r="K28" s="161"/>
     </row>
     <row r="29" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="155" t="s">
-        <v>139</v>
-      </c>
-      <c r="C29" s="155" t="s">
-        <v>140</v>
-      </c>
-      <c r="D29" s="155" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="155" t="s">
-        <v>141</v>
-      </c>
-      <c r="F29" s="155" t="s">
-        <v>142</v>
-      </c>
-      <c r="G29" s="155" t="s">
-        <v>143</v>
-      </c>
-      <c r="H29" s="155" t="s">
-        <v>164</v>
-      </c>
-      <c r="I29" s="155" t="s">
-        <v>144</v>
-      </c>
-      <c r="J29" s="155" t="s">
-        <v>145</v>
-      </c>
-      <c r="K29" s="155" t="s">
-        <v>161</v>
+      <c r="B29" s="175" t="s">
+        <v>153</v>
+      </c>
+      <c r="C29" s="54">
+        <v>600</v>
+      </c>
+      <c r="D29" s="85">
+        <v>127</v>
+      </c>
+      <c r="E29" s="76">
+        <f>C29/D29</f>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="F29" s="76">
+        <v>1.7907</v>
+      </c>
+      <c r="G29" s="76">
+        <f>F29/1000</f>
+        <v>1.7906999999999999E-3</v>
+      </c>
+      <c r="H29" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I29" s="76">
+        <f>H29*E29*G29*100/D29</f>
+        <v>9.5258267716535422E-2</v>
+      </c>
+      <c r="J29" s="76">
+        <f>I29</f>
+        <v>9.5258267716535422E-2</v>
+      </c>
+      <c r="K29" s="176">
+        <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B30" s="153"/>
-      <c r="C30" s="153"/>
-      <c r="D30" s="153"/>
-      <c r="E30" s="153"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="153"/>
-      <c r="H30" s="153"/>
-      <c r="I30" s="153"/>
-      <c r="J30" s="153"/>
-      <c r="K30" s="153"/>
+      <c r="B30" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="C30" s="54">
+        <v>400</v>
+      </c>
+      <c r="D30" s="85">
+        <v>127</v>
+      </c>
+      <c r="E30" s="76">
+        <f t="shared" ref="E30:E32" si="4">C30/D30</f>
+        <v>3.1496062992125986</v>
+      </c>
+      <c r="F30" s="76">
+        <v>3.5156999999999998</v>
+      </c>
+      <c r="G30" s="76">
+        <f t="shared" ref="G30:G43" si="5">F30/1000</f>
+        <v>3.5156999999999996E-3</v>
+      </c>
+      <c r="H30" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I30" s="76">
+        <f t="shared" ref="I30:I32" si="6">H30*E30*G30*100/D30</f>
+        <v>0.12468103416206831</v>
+      </c>
+      <c r="J30" s="76">
+        <f>SUM(I29:I30)</f>
+        <v>0.21993930187860372</v>
+      </c>
+      <c r="K30" s="177"/>
     </row>
     <row r="31" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="54" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C31" s="54">
-        <v>600</v>
-      </c>
-      <c r="D31" s="171">
+        <v>200</v>
+      </c>
+      <c r="D31" s="85">
         <v>127</v>
       </c>
-      <c r="E31" s="158">
-        <f>C31/D31</f>
-        <v>4.7244094488188972</v>
-      </c>
-      <c r="F31" s="158">
-        <v>1.7907</v>
-      </c>
-      <c r="G31" s="158">
-        <f>F31/1000</f>
-        <v>1.7906999999999999E-3</v>
+      <c r="E31" s="76">
+        <f t="shared" si="4"/>
+        <v>1.5748031496062993</v>
+      </c>
+      <c r="F31" s="76">
+        <v>3.3047</v>
+      </c>
+      <c r="G31" s="76">
+        <f t="shared" si="5"/>
+        <v>3.3046999999999998E-3</v>
       </c>
       <c r="H31" s="54">
         <v>14.3</v>
       </c>
-      <c r="I31" s="158">
-        <f>H31*E31*G31*100/D31</f>
-        <v>9.5258267716535422E-2</v>
-      </c>
-      <c r="J31" s="158">
-        <f>I31</f>
-        <v>9.5258267716535422E-2</v>
-      </c>
-      <c r="K31" s="176">
-        <v>2.5</v>
-      </c>
+      <c r="I31" s="76">
+        <f t="shared" si="6"/>
+        <v>5.8599057598115199E-2</v>
+      </c>
+      <c r="J31" s="76">
+        <f>SUM(I29:I31)</f>
+        <v>0.2785383594767189</v>
+      </c>
+      <c r="K31" s="177"/>
     </row>
     <row r="32" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="54" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C32" s="54">
-        <v>400</v>
-      </c>
-      <c r="D32" s="171">
+        <v>100</v>
+      </c>
+      <c r="D32" s="85">
         <v>127</v>
       </c>
-      <c r="E32" s="158">
-        <f t="shared" ref="E32:E34" si="4">C32/D32</f>
-        <v>3.1496062992125986</v>
-      </c>
-      <c r="F32" s="158">
-        <v>3.5156999999999998</v>
-      </c>
-      <c r="G32" s="158">
-        <f t="shared" ref="G32:G47" si="5">F32/1000</f>
-        <v>3.5156999999999996E-3</v>
+      <c r="E32" s="76">
+        <f t="shared" si="4"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F32" s="76">
+        <v>2.2797000000000001</v>
+      </c>
+      <c r="G32" s="76">
+        <f t="shared" si="5"/>
+        <v>2.2797E-3</v>
       </c>
       <c r="H32" s="54">
         <v>14.3</v>
       </c>
-      <c r="I32" s="158">
-        <f t="shared" ref="I32:I34" si="6">H32*E32*G32*100/D32</f>
-        <v>0.12468103416206831</v>
-      </c>
-      <c r="J32" s="158">
-        <f>I32+I31</f>
-        <v>0.21993930187860372</v>
+      <c r="I32" s="76">
+        <f t="shared" si="6"/>
+        <v>2.0211860623721253E-2</v>
+      </c>
+      <c r="J32" s="76">
+        <f>SUM(I29:I32)</f>
+        <v>0.29875022010044017</v>
       </c>
       <c r="K32" s="177"/>
     </row>
     <row r="33" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="54" t="s">
-        <v>158</v>
+      <c r="B33" s="175" t="s">
+        <v>175</v>
       </c>
       <c r="C33" s="54">
-        <v>200</v>
-      </c>
-      <c r="D33" s="171">
+        <v>600</v>
+      </c>
+      <c r="D33" s="85">
         <v>127</v>
       </c>
-      <c r="E33" s="158">
-        <f t="shared" si="4"/>
-        <v>1.5748031496062993</v>
-      </c>
-      <c r="F33" s="158">
-        <v>3.3047</v>
-      </c>
-      <c r="G33" s="158">
+      <c r="E33" s="76">
+        <f>C33/D33</f>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="F33" s="76">
+        <v>2.3816999999999999</v>
+      </c>
+      <c r="G33" s="76">
         <f t="shared" si="5"/>
-        <v>3.3046999999999998E-3</v>
+        <v>2.3817E-3</v>
       </c>
       <c r="H33" s="54">
         <v>14.3</v>
       </c>
-      <c r="I33" s="158">
-        <f t="shared" si="6"/>
-        <v>5.8599057598115199E-2</v>
-      </c>
-      <c r="J33" s="158">
-        <f>I31+I32+I33</f>
-        <v>0.2785383594767189</v>
+      <c r="I33" s="76">
+        <f t="shared" ref="I33:I34" si="7">H33*E33*G33*100/D33</f>
+        <v>0.12669716659433319</v>
+      </c>
+      <c r="J33" s="76">
+        <f>SUM(I29:I33)</f>
+        <v>0.42544738669477333</v>
       </c>
       <c r="K33" s="177"/>
     </row>
     <row r="34" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="54" t="s">
-        <v>154</v>
+        <v>176</v>
       </c>
       <c r="C34" s="54">
-        <v>100</v>
-      </c>
-      <c r="D34" s="171">
+        <v>500</v>
+      </c>
+      <c r="D34" s="85">
         <v>127</v>
       </c>
-      <c r="E34" s="158">
-        <f t="shared" si="4"/>
-        <v>0.78740157480314965</v>
-      </c>
-      <c r="F34" s="158">
-        <v>2.2797000000000001</v>
-      </c>
-      <c r="G34" s="158">
+      <c r="E34" s="76">
+        <f>C34/D34</f>
+        <v>3.9370078740157481</v>
+      </c>
+      <c r="F34" s="76">
+        <v>2.3018999999999998</v>
+      </c>
+      <c r="G34" s="76">
         <f t="shared" si="5"/>
-        <v>2.2797E-3</v>
+        <v>2.3019E-3</v>
       </c>
       <c r="H34" s="54">
         <v>14.3</v>
       </c>
-      <c r="I34" s="158">
-        <f t="shared" si="6"/>
-        <v>2.0211860623721253E-2</v>
-      </c>
-      <c r="J34" s="158">
-        <f>I31+I32+I33+I34</f>
-        <v>0.29875022010044017</v>
-      </c>
-      <c r="K34" s="178"/>
+      <c r="I34" s="76">
+        <f t="shared" si="7"/>
+        <v>0.10204343108686219</v>
+      </c>
+      <c r="J34" s="76">
+        <f>SUM(I29:I34)</f>
+        <v>0.52749081778163553</v>
+      </c>
+      <c r="K34" s="177"/>
     </row>
     <row r="35" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B35" s="172"/>
-      <c r="C35" s="173"/>
-      <c r="D35" s="173"/>
-      <c r="E35" s="173"/>
-      <c r="F35" s="173"/>
-      <c r="G35" s="173"/>
-      <c r="H35" s="173"/>
-      <c r="I35" s="173"/>
-      <c r="J35" s="173"/>
-      <c r="K35" s="174"/>
+      <c r="B35" s="54" t="s">
+        <v>177</v>
+      </c>
+      <c r="C35" s="54">
+        <v>400</v>
+      </c>
+      <c r="D35" s="85">
+        <v>127</v>
+      </c>
+      <c r="E35" s="76">
+        <f t="shared" ref="E35:E38" si="8">C35/D35</f>
+        <v>3.1496062992125986</v>
+      </c>
+      <c r="F35" s="76">
+        <v>2.0811999999999999</v>
+      </c>
+      <c r="G35" s="76">
+        <f t="shared" si="5"/>
+        <v>2.0812000000000001E-3</v>
+      </c>
+      <c r="H35" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I35" s="76">
+        <f t="shared" ref="I35:I42" si="9">H35*E35*G35*100/D35</f>
+        <v>7.3807824415648843E-2</v>
+      </c>
+      <c r="J35" s="76">
+        <f>SUM(I29:I35)</f>
+        <v>0.60129864219728435</v>
+      </c>
+      <c r="K35" s="177"/>
     </row>
     <row r="36" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="54" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C36" s="54">
-        <v>600</v>
-      </c>
-      <c r="D36" s="171">
+        <v>300</v>
+      </c>
+      <c r="D36" s="85">
         <v>127</v>
       </c>
-      <c r="E36" s="158">
-        <f>C36/D36</f>
-        <v>4.7244094488188972</v>
-      </c>
-      <c r="F36" s="158">
-        <v>2.3816999999999999</v>
-      </c>
-      <c r="G36" s="158">
+      <c r="E36" s="76">
+        <f t="shared" si="8"/>
+        <v>2.3622047244094486</v>
+      </c>
+      <c r="F36" s="76">
+        <v>1.9261999999999999</v>
+      </c>
+      <c r="G36" s="76">
         <f t="shared" si="5"/>
-        <v>2.3817E-3</v>
+        <v>1.9261999999999999E-3</v>
       </c>
       <c r="H36" s="54">
         <v>14.3</v>
       </c>
-      <c r="I36" s="158">
-        <f t="shared" ref="I36:I37" si="7">H36*E36*G36*100/D36</f>
-        <v>0.12669716659433319</v>
-      </c>
-      <c r="J36" s="158">
-        <f>I36</f>
-        <v>0.12669716659433319</v>
-      </c>
-      <c r="K36" s="176">
-        <v>2.5</v>
-      </c>
+      <c r="I36" s="76">
+        <f t="shared" si="9"/>
+        <v>5.1233170066340129E-2</v>
+      </c>
+      <c r="J36" s="76">
+        <f>SUM(I29:I36)</f>
+        <v>0.65253181226362444</v>
+      </c>
+      <c r="K36" s="177"/>
     </row>
     <row r="37" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="54" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C37" s="54">
-        <v>500</v>
-      </c>
-      <c r="D37" s="171">
+        <v>100</v>
+      </c>
+      <c r="D37" s="85">
         <v>127</v>
       </c>
-      <c r="E37" s="158">
-        <f>C37/D37</f>
-        <v>3.9370078740157481</v>
-      </c>
-      <c r="F37" s="158">
-        <v>2.3018999999999998</v>
-      </c>
-      <c r="G37" s="158">
+      <c r="E37" s="76">
+        <f t="shared" si="8"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F37" s="76">
+        <v>2.5341</v>
+      </c>
+      <c r="G37" s="76">
         <f t="shared" si="5"/>
-        <v>2.3019E-3</v>
+        <v>2.5341000000000001E-3</v>
       </c>
       <c r="H37" s="54">
         <v>14.3</v>
       </c>
-      <c r="I37" s="158">
-        <f t="shared" si="7"/>
-        <v>0.10204343108686219</v>
-      </c>
-      <c r="J37" s="158">
-        <f>I36+I37</f>
-        <v>0.22874059768119537</v>
+      <c r="I37" s="76">
+        <f t="shared" si="9"/>
+        <v>2.2467375534751075E-2</v>
+      </c>
+      <c r="J37" s="76">
+        <f>SUM(I29:I37)</f>
+        <v>0.67499918779837553</v>
       </c>
       <c r="K37" s="177"/>
     </row>
     <row r="38" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="54" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C38" s="54">
-        <v>400</v>
-      </c>
-      <c r="D38" s="171">
+        <v>100</v>
+      </c>
+      <c r="D38" s="85">
         <v>127</v>
       </c>
-      <c r="E38" s="158">
-        <f t="shared" ref="E38:E41" si="8">C38/D38</f>
-        <v>3.1496062992125986</v>
-      </c>
-      <c r="F38" s="158">
-        <v>2.0811999999999999</v>
-      </c>
-      <c r="G38" s="158">
+      <c r="E38" s="76">
+        <f t="shared" si="8"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F38" s="76">
+        <v>3.4512999999999998</v>
+      </c>
+      <c r="G38" s="76">
         <f t="shared" si="5"/>
-        <v>2.0812000000000001E-3</v>
+        <v>3.4513E-3</v>
       </c>
       <c r="H38" s="54">
         <v>14.3</v>
       </c>
-      <c r="I38" s="158">
-        <f t="shared" ref="I38:I46" si="9">H38*E38*G38*100/D38</f>
-        <v>7.3807824415648843E-2</v>
-      </c>
-      <c r="J38" s="158">
-        <f>SUM(I36:I38)</f>
-        <v>0.30254842209684418</v>
+      <c r="I38" s="76">
+        <f t="shared" si="9"/>
+        <v>3.0599286998574001E-2</v>
+      </c>
+      <c r="J38" s="76">
+        <f>SUM(I29:I38)</f>
+        <v>0.70559847479694948</v>
       </c>
       <c r="K38" s="177"/>
     </row>
     <row r="39" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="54" t="s">
-        <v>179</v>
+      <c r="B39" s="175" t="s">
+        <v>149</v>
       </c>
       <c r="C39" s="54">
-        <v>300</v>
-      </c>
-      <c r="D39" s="171">
+        <v>500</v>
+      </c>
+      <c r="D39" s="85">
         <v>127</v>
       </c>
-      <c r="E39" s="158">
-        <f t="shared" si="8"/>
-        <v>2.3622047244094486</v>
-      </c>
-      <c r="F39" s="158">
-        <v>1.9261999999999999</v>
-      </c>
-      <c r="G39" s="158">
+      <c r="E39" s="76">
+        <f>C39/D39</f>
+        <v>3.9370078740157481</v>
+      </c>
+      <c r="F39" s="76">
+        <v>1.8081</v>
+      </c>
+      <c r="G39" s="76">
         <f t="shared" si="5"/>
-        <v>1.9261999999999999E-3</v>
+        <v>1.8081E-3</v>
       </c>
       <c r="H39" s="54">
         <v>14.3</v>
       </c>
-      <c r="I39" s="158">
+      <c r="I39" s="76">
         <f t="shared" si="9"/>
-        <v>5.1233170066340129E-2</v>
-      </c>
-      <c r="J39" s="158">
-        <f>SUM(I36:I39)</f>
-        <v>0.35378159216318433</v>
+        <v>8.015323330646662E-2</v>
+      </c>
+      <c r="J39" s="76">
+        <f>SUM(I29:I39)</f>
+        <v>0.7857517081034161</v>
       </c>
       <c r="K39" s="177"/>
     </row>
     <row r="40" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="54" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C40" s="54">
         <v>100</v>
       </c>
-      <c r="D40" s="171">
+      <c r="D40" s="85">
         <v>127</v>
       </c>
-      <c r="E40" s="158">
-        <f t="shared" si="8"/>
+      <c r="E40" s="76">
+        <f>C40/D40</f>
         <v>0.78740157480314965</v>
       </c>
-      <c r="F40" s="158">
-        <v>2.5341</v>
-      </c>
-      <c r="G40" s="158">
+      <c r="F40" s="76">
+        <v>1.9812000000000001</v>
+      </c>
+      <c r="G40" s="76">
         <f t="shared" si="5"/>
-        <v>2.5341000000000001E-3</v>
+        <v>1.9812000000000002E-3</v>
       </c>
       <c r="H40" s="54">
         <v>14.3</v>
       </c>
-      <c r="I40" s="158">
+      <c r="I40" s="76">
         <f t="shared" si="9"/>
-        <v>2.2467375534751075E-2</v>
-      </c>
-      <c r="J40" s="158">
-        <f>SUM(I36:I40)</f>
-        <v>0.37624896769793542</v>
+        <v>1.7565354330708664E-2</v>
+      </c>
+      <c r="J40" s="76">
+        <f>SUM(I29:I40)</f>
+        <v>0.80331706243412482</v>
       </c>
       <c r="K40" s="177"/>
     </row>
     <row r="41" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="54" t="s">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="C41" s="54">
-        <v>100</v>
-      </c>
-      <c r="D41" s="171">
+        <v>300</v>
+      </c>
+      <c r="D41" s="85">
         <v>127</v>
       </c>
-      <c r="E41" s="158">
-        <f t="shared" si="8"/>
-        <v>0.78740157480314965</v>
-      </c>
-      <c r="F41" s="158">
-        <v>3.4512999999999998</v>
-      </c>
-      <c r="G41" s="158">
+      <c r="E41" s="76">
+        <f t="shared" ref="E41:E43" si="10">C41/D41</f>
+        <v>2.3622047244094486</v>
+      </c>
+      <c r="F41" s="76">
+        <v>1.5363</v>
+      </c>
+      <c r="G41" s="76">
         <f t="shared" si="5"/>
-        <v>3.4513E-3</v>
+        <v>1.5363E-3</v>
       </c>
       <c r="H41" s="54">
         <v>14.3</v>
       </c>
-      <c r="I41" s="158">
+      <c r="I41" s="76">
+        <f t="shared" ref="I41:I43" si="11">H41*E41*G41*100/D41</f>
+        <v>4.0862589125178254E-2</v>
+      </c>
+      <c r="J41" s="76">
+        <f>SUM(I29:I41)</f>
+        <v>0.84417965155930308</v>
+      </c>
+      <c r="K41" s="177"/>
+    </row>
+    <row r="42" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B42" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" s="54">
+        <v>200</v>
+      </c>
+      <c r="D42" s="85">
+        <v>127</v>
+      </c>
+      <c r="E42" s="76">
+        <f t="shared" si="10"/>
+        <v>1.5748031496062993</v>
+      </c>
+      <c r="F42" s="76">
+        <v>1.2608999999999999</v>
+      </c>
+      <c r="G42" s="76">
+        <f t="shared" si="5"/>
+        <v>1.2608999999999999E-3</v>
+      </c>
+      <c r="H42" s="54">
+        <v>14.3</v>
+      </c>
+      <c r="I42" s="76">
         <f t="shared" si="9"/>
-        <v>3.0599286998574001E-2</v>
-      </c>
-      <c r="J41" s="158">
-        <f>SUM(I36:I41)</f>
-        <v>0.40684825469650943</v>
-      </c>
-      <c r="K41" s="178"/>
-    </row>
-    <row r="42" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B42" s="172"/>
-      <c r="C42" s="173"/>
-      <c r="D42" s="173"/>
-      <c r="E42" s="173"/>
-      <c r="F42" s="173"/>
-      <c r="G42" s="173"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="173"/>
-      <c r="J42" s="173"/>
-      <c r="K42" s="174"/>
+        <v>2.2358323516647034E-2</v>
+      </c>
+      <c r="J42" s="76">
+        <f>SUM(I29:I42)</f>
+        <v>0.8665379750759501</v>
+      </c>
+      <c r="K42" s="177"/>
     </row>
     <row r="43" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="54" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C43" s="54">
-        <v>500</v>
-      </c>
-      <c r="D43" s="171">
+        <v>100</v>
+      </c>
+      <c r="D43" s="85">
         <v>127</v>
       </c>
-      <c r="E43" s="158">
-        <f>C43/D43</f>
-        <v>3.9370078740157481</v>
-      </c>
-      <c r="F43" s="158">
-        <v>1.8081</v>
-      </c>
-      <c r="G43" s="158">
+      <c r="E43" s="76">
+        <f t="shared" si="10"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F43" s="76">
+        <v>1.5118</v>
+      </c>
+      <c r="G43" s="76">
         <f t="shared" si="5"/>
-        <v>1.8081E-3</v>
+        <v>1.5118E-3</v>
       </c>
       <c r="H43" s="54">
         <v>14.3</v>
       </c>
-      <c r="I43" s="158">
-        <f t="shared" si="9"/>
-        <v>8.015323330646662E-2</v>
-      </c>
-      <c r="J43" s="158">
-        <f>I43</f>
-        <v>8.015323330646662E-2</v>
-      </c>
-      <c r="K43" s="175">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="44" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B44" s="54" t="s">
-        <v>181</v>
-      </c>
-      <c r="C44" s="54">
-        <v>100</v>
-      </c>
-      <c r="D44" s="171">
-        <v>127</v>
-      </c>
-      <c r="E44" s="158">
-        <f>C44/D44</f>
-        <v>0.78740157480314965</v>
-      </c>
-      <c r="F44" s="158">
-        <v>1.9812000000000001</v>
-      </c>
-      <c r="G44" s="158">
-        <f t="shared" si="5"/>
-        <v>1.9812000000000002E-3</v>
-      </c>
-      <c r="H44" s="54">
-        <v>14.3</v>
-      </c>
-      <c r="I44" s="158">
-        <f t="shared" si="9"/>
-        <v>1.7565354330708664E-2</v>
-      </c>
-      <c r="J44" s="158">
-        <f>SUM(I43:I44)</f>
-        <v>9.771858763717528E-2</v>
-      </c>
-      <c r="K44" s="175"/>
-    </row>
-    <row r="45" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B45" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="C45" s="54">
-        <v>300</v>
-      </c>
-      <c r="D45" s="171">
-        <v>127</v>
-      </c>
-      <c r="E45" s="158">
-        <f t="shared" ref="E45:E47" si="10">C45/D45</f>
-        <v>2.3622047244094486</v>
-      </c>
-      <c r="F45" s="158">
-        <v>1.5363</v>
-      </c>
-      <c r="G45" s="158">
-        <f t="shared" si="5"/>
-        <v>1.5363E-3</v>
-      </c>
-      <c r="H45" s="54">
-        <v>14.3</v>
-      </c>
-      <c r="I45" s="158">
-        <f t="shared" ref="I45:I47" si="11">H45*E45*G45*100/D45</f>
-        <v>4.0862589125178254E-2</v>
-      </c>
-      <c r="J45" s="158">
-        <f>SUM(I43:I45)</f>
-        <v>0.13858117676235354</v>
-      </c>
-      <c r="K45" s="175"/>
-    </row>
-    <row r="46" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" s="54">
-        <v>200</v>
-      </c>
-      <c r="D46" s="171">
-        <v>127</v>
-      </c>
-      <c r="E46" s="158">
-        <f t="shared" si="10"/>
-        <v>1.5748031496062993</v>
-      </c>
-      <c r="F46" s="158">
-        <v>1.2608999999999999</v>
-      </c>
-      <c r="G46" s="158">
-        <f t="shared" si="5"/>
-        <v>1.2608999999999999E-3</v>
-      </c>
-      <c r="H46" s="54">
-        <v>14.3</v>
-      </c>
-      <c r="I46" s="158">
-        <f t="shared" si="9"/>
-        <v>2.2358323516647034E-2</v>
-      </c>
-      <c r="J46" s="158">
-        <f>SUM(I43:I46)</f>
-        <v>0.16093950027900059</v>
-      </c>
-      <c r="K46" s="175"/>
-    </row>
-    <row r="47" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="54" t="s">
-        <v>152</v>
-      </c>
-      <c r="C47" s="54">
-        <v>100</v>
-      </c>
-      <c r="D47" s="171">
-        <v>127</v>
-      </c>
-      <c r="E47" s="158">
-        <f t="shared" si="10"/>
-        <v>0.78740157480314965</v>
-      </c>
-      <c r="F47" s="158">
-        <v>1.5118</v>
-      </c>
-      <c r="G47" s="158">
-        <f t="shared" si="5"/>
-        <v>1.5118E-3</v>
-      </c>
-      <c r="H47" s="54">
-        <v>14.3</v>
-      </c>
-      <c r="I47" s="158">
+      <c r="I43" s="76">
         <f t="shared" si="11"/>
         <v>1.3403645607291216E-2</v>
       </c>
-      <c r="J47" s="158">
-        <f>SUM(I43:I47)</f>
-        <v>0.17434314588629179</v>
-      </c>
-      <c r="K47" s="175"/>
+      <c r="J43" s="76">
+        <f>SUM(I29:I43)</f>
+        <v>0.87994162068324133</v>
+      </c>
+      <c r="K43" s="178"/>
     </row>
   </sheetData>
-  <mergeCells count="42">
-    <mergeCell ref="B35:K35"/>
-    <mergeCell ref="K36:K41"/>
-    <mergeCell ref="B42:K42"/>
-    <mergeCell ref="K43:K47"/>
-    <mergeCell ref="K31:K34"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="B18:K18"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="K19:K20"/>
-    <mergeCell ref="K22:K25"/>
-    <mergeCell ref="B28:K28"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="K14:K17"/>
-    <mergeCell ref="G6:H6"/>
+  <mergeCells count="34">
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="G7:J9"/>
     <mergeCell ref="B3:J3"/>
@@ -48738,6 +48627,10 @@
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G6:H6"/>
     <mergeCell ref="I12:I13"/>
     <mergeCell ref="J12:J13"/>
     <mergeCell ref="C12:C13"/>
@@ -48747,6 +48640,19 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="B10:H10"/>
+    <mergeCell ref="K14:K23"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K29:K43"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\GitHub\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E2A8699-9CDA-4518-8098-E05930468CCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{496D0D16-A3EE-46A7-8D34-2FC157500130}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="212">
   <si>
     <t>Alunos: Gabriel Schettino Lucas e Ramon Rodrigues Morello</t>
   </si>
@@ -474,27 +474,6 @@
     <t>FCR</t>
   </si>
   <si>
-    <t>Anotações temporárias - REMOVER</t>
-  </si>
-  <si>
-    <t>↓</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Como usar o FCA no nosso caso? R: considerar o condutor por onde o circuito mais tem contato com outros cabos. </t>
-  </si>
-  <si>
-    <t>Ex.: em um trecho o circuito 1, está junto de outros 4 circuitos, logo o FCA desse trecho é o que vale para todos</t>
-  </si>
-  <si>
-    <t>Para os circuitos reservas foi suposto que eles vão se agrupar nos eletrodutos que já possuem 5 cabos, passando no máximo para 6 cabos.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">considerando a suposição acima, eu deveria considerar um circuito a mais em todos os eletrodutos, visando que um dia pode ser colocado um circuito extra? </t>
-  </si>
-  <si>
-    <t>opinião: gasto desnecessário, se em ocasião futura for adicionado um dos circuitos reservas, deverá quebrar a parede e trocar todos os cabos por cabos maiores. Outra, duvido que ele tenha tempo para verificar 1 por 1.</t>
-  </si>
-  <si>
     <t>ALIMENTADOR</t>
   </si>
   <si>
@@ -502,20 +481,6 @@
   </si>
   <si>
     <t>REFERÊNCIAS</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[1]: Tabela de capacidade de condução de corrente em ampéres (Referência B1/3 condutores carregados) </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="18"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>[Inserir as tabela como imagem nessa planilha]</t>
-    </r>
   </si>
   <si>
     <t>[mm²]</t>
@@ -527,16 +492,10 @@
     <t>RESULTADO DO CRITÉRIO DA CAP. CORRENTE</t>
   </si>
   <si>
-    <t>WHAT?</t>
-  </si>
-  <si>
     <t>[IC']:  Capacidade de corrente que será usada para dimensionar eletrodutos</t>
   </si>
   <si>
     <t>OBSERVAÇÕES</t>
-  </si>
-  <si>
-    <t>1) O cálculo do método "limte de queda de tensão" utilizará a corrente de projeto já calculada na planinha "Capacidade de Corrente", as colunas estão relacionadas!</t>
   </si>
   <si>
     <t>LEGENDA</t>
@@ -623,12 +582,6 @@
     <t>QDC - PL(N1)</t>
   </si>
   <si>
-    <t>ΔV                (V/A*km) [2]</t>
-  </si>
-  <si>
-    <t>2) Os valores de "ΔV" utlizado nas tabelas a seguir será escolhido baseando-se na secção sugerida pelo método "Capacidade de Corrente" e com FP = 0.8</t>
-  </si>
-  <si>
     <t>Tensão                    (V)</t>
   </si>
   <si>
@@ -676,15 +629,142 @@
   <si>
     <t>PL(B1) - PL(A)</t>
   </si>
+  <si>
+    <t>CIRCUITO 3: TOMADAS DA COZINHA</t>
+  </si>
+  <si>
+    <t>QDC - PL(E)</t>
+  </si>
+  <si>
+    <t>PL(E) - TM(3_1)</t>
+  </si>
+  <si>
+    <t>TM(3_1) - TM(3_2)</t>
+  </si>
+  <si>
+    <t>PL(E) - TM(3_3)</t>
+  </si>
+  <si>
+    <t>PL(E) - TM(3_4)</t>
+  </si>
+  <si>
+    <t>PL(E) - TM(3_5)</t>
+  </si>
+  <si>
+    <t>ΔV                (V/A*km) [1]</t>
+  </si>
+  <si>
+    <t>1) Os valores de "ΔV" utlizado nas tabelas a seguir será escolhido baseando-se na secção sugerida pelo método "Capacidade de Corrente" e com FP = 0.8</t>
+  </si>
+  <si>
+    <t>PL(E) - TM(4_1)</t>
+  </si>
+  <si>
+    <t>PL(C.) - TM(4_2)</t>
+  </si>
+  <si>
+    <t>PL(C.) - TM(4_3)</t>
+  </si>
+  <si>
+    <t>QDC - PL(Q2)</t>
+  </si>
+  <si>
+    <t>PL(Q2) - TM(5_1)</t>
+  </si>
+  <si>
+    <t>PL(Q2) - TM(5_2)</t>
+  </si>
+  <si>
+    <t>PL(Q2) - TM(5_3)</t>
+  </si>
+  <si>
+    <t>CIRCUITO 4: TOMADAS AREA DE SERVIÇO + BANHEIRO EXTERNO (TUG)</t>
+  </si>
+  <si>
+    <t>CIRCUITO 5: TOMADAS AREA DE LAZER + CORREDOR FRONTAL (TUG)</t>
+  </si>
+  <si>
+    <t>CIRCUITO 6: TOMADAS QUARTO + BANHEIRO INTERNO (TUG)</t>
+  </si>
+  <si>
+    <t>QDC - PL(G)</t>
+  </si>
+  <si>
+    <t>PL(G) - TM(6_1)</t>
+  </si>
+  <si>
+    <t>PL(G) - TM(6_2)</t>
+  </si>
+  <si>
+    <t>TM(6_2) - TM(6_3)</t>
+  </si>
+  <si>
+    <t>PL(F) - TM(6_4)</t>
+  </si>
+  <si>
+    <t>CIRCUITO 7: TOMADAS SUÍTE (TUG)</t>
+  </si>
+  <si>
+    <t>QDC - PL(J)</t>
+  </si>
+  <si>
+    <t>PL(J) - TM(7_1)</t>
+  </si>
+  <si>
+    <t>PL(J) - TM(7_2)</t>
+  </si>
+  <si>
+    <t>TM(7_2) - TM(7_3)</t>
+  </si>
+  <si>
+    <t>PL(J) - TM(7_4)</t>
+  </si>
+  <si>
+    <t>CIRCUITO 8: TOMADAS SALA (TUG)</t>
+  </si>
+  <si>
+    <t>TM(8_2) - TM(8_1)</t>
+  </si>
+  <si>
+    <t>TM(8_2) - TM(8_3)</t>
+  </si>
+  <si>
+    <t>QDC - TM(8_2)</t>
+  </si>
+  <si>
+    <t>QDC - TM(8_4)</t>
+  </si>
+  <si>
+    <t>CIRCUITO 9: TOMADAS BANHEIRO DA SUÍTE + GARAGEM (TUG)</t>
+  </si>
+  <si>
+    <t>QDC - PL(J2)</t>
+  </si>
+  <si>
+    <t>PL(J2) - TM(9_1)</t>
+  </si>
+  <si>
+    <t>PL(J2) - TM(9_2)</t>
+  </si>
+  <si>
+    <t>[1]: Tabela de capacidade de condução de corrente em ampéres (Referência B1/3 condutores carregados)</t>
+  </si>
+  <si>
+    <t>Tabela 2 - Queda de tensão unitária</t>
+  </si>
+  <si>
+    <t>Tabela 1: Capacidade de condução de Corrente</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -795,40 +875,14 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
     <font>
       <b/>
-      <sz val="28"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="28"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="18"/>
-      <color rgb="FFFF0000"/>
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
@@ -854,8 +908,22 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -888,18 +956,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="56">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -1421,15 +1483,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1550,7 +1603,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="179">
+  <cellXfs count="177">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1725,20 +1778,8 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1752,22 +1793,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="20" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1776,47 +1808,68 @@
     <xf numFmtId="164" fontId="16" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="16" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1829,45 +1882,34 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1882,22 +1924,18 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1921,43 +1959,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1966,7 +1980,7 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1975,53 +1989,71 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2029,20 +2061,35 @@
     <xf numFmtId="0" fontId="23" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="19" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="23" fillId="0" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2059,6 +2106,144 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>108856</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>217714</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406499</xdr:colOff>
+      <xdr:row>56</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BAE1ECC-681D-35CE-4DAB-3DAAC3F02D6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="721177" y="8354785"/>
+          <a:ext cx="10312501" cy="6055179"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>22412</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>89647</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>889187</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>193829</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6453E3D1-44A6-AC77-1787-25EB00B6257B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16562294" y="582706"/>
+          <a:ext cx="7758393" cy="4541711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2275,14 +2460,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="94" t="s">
+      <c r="B1" s="96" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="95"/>
-      <c r="D1" s="95"/>
-      <c r="E1" s="95"/>
-      <c r="F1" s="95"/>
-      <c r="G1" s="96"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="98"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2305,14 +2490,14 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="97" t="s">
+      <c r="B2" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="98"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2363,16 +2548,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="98" t="s">
+      <c r="B4" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="99"/>
-      <c r="D4" s="93"/>
-      <c r="E4" s="98" t="s">
+      <c r="C4" s="101"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="100" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="93"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="82"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -2395,17 +2580,17 @@
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="92" t="s">
+      <c r="B5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="93"/>
+      <c r="C5" s="82"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="92" t="s">
+      <c r="E5" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="93"/>
+      <c r="F5" s="82"/>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
@@ -2431,17 +2616,17 @@
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="92" t="s">
+      <c r="B6" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="93"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="92" t="s">
+      <c r="E6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="93"/>
+      <c r="F6" s="82"/>
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
@@ -2467,17 +2652,17 @@
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="92" t="s">
+      <c r="B7" s="81" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="93"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="92" t="s">
+      <c r="E7" s="81" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="93"/>
+      <c r="F7" s="82"/>
       <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
@@ -2503,15 +2688,15 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="92" t="s">
+      <c r="B8" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="93"/>
+      <c r="C8" s="82"/>
       <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="92"/>
-      <c r="F8" s="93"/>
+      <c r="E8" s="81"/>
+      <c r="F8" s="82"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
@@ -2535,15 +2720,15 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="92" t="s">
+      <c r="B9" s="81" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="93"/>
+      <c r="C9" s="82"/>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="92"/>
-      <c r="F9" s="93"/>
+      <c r="E9" s="81"/>
+      <c r="F9" s="82"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
@@ -2567,15 +2752,15 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="86" t="s">
+      <c r="B10" s="102" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="87"/>
-      <c r="D10" s="90" t="s">
+      <c r="C10" s="93"/>
+      <c r="D10" s="104" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="92"/>
-      <c r="F10" s="93"/>
+      <c r="E10" s="81"/>
+      <c r="F10" s="82"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
@@ -2599,11 +2784,11 @@
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="91"/>
-      <c r="E11" s="92"/>
-      <c r="F11" s="93"/>
+      <c r="B11" s="103"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="105"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
@@ -2627,11 +2812,11 @@
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="92"/>
-      <c r="C12" s="93"/>
+      <c r="B12" s="81"/>
+      <c r="C12" s="82"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="92"/>
-      <c r="F12" s="93"/>
+      <c r="E12" s="81"/>
+      <c r="F12" s="82"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2655,11 +2840,11 @@
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="105"/>
-      <c r="C13" s="106"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="106"/>
+      <c r="E13" s="89"/>
+      <c r="F13" s="90"/>
       <c r="G13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2683,11 +2868,11 @@
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="92"/>
-      <c r="C14" s="93"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="82"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="92"/>
-      <c r="F14" s="93"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
       <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2767,14 +2952,14 @@
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="107" t="s">
+      <c r="B17" s="91" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="108"/>
-      <c r="D17" s="108"/>
-      <c r="E17" s="108"/>
-      <c r="F17" s="108"/>
-      <c r="G17" s="87"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="92"/>
+      <c r="G17" s="93"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -2797,14 +2982,14 @@
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="109" t="s">
+      <c r="B18" s="94" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
-      <c r="G18" s="102"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="85"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -2827,14 +3012,14 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="100" t="s">
+      <c r="B19" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="101"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="102"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="84"/>
+      <c r="E19" s="84"/>
+      <c r="F19" s="84"/>
+      <c r="G19" s="85"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -2857,14 +3042,14 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="101"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="101"/>
-      <c r="F20" s="101"/>
-      <c r="G20" s="102"/>
+      <c r="C20" s="84"/>
+      <c r="D20" s="84"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="85"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -2887,14 +3072,14 @@
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="110" t="s">
+      <c r="B21" s="95" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="101"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="101"/>
-      <c r="F21" s="101"/>
-      <c r="G21" s="102"/>
+      <c r="C21" s="84"/>
+      <c r="D21" s="84"/>
+      <c r="E21" s="84"/>
+      <c r="F21" s="84"/>
+      <c r="G21" s="85"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -2917,14 +3102,14 @@
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="83" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="101"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="101"/>
-      <c r="F22" s="101"/>
-      <c r="G22" s="102"/>
+      <c r="C22" s="84"/>
+      <c r="D22" s="84"/>
+      <c r="E22" s="84"/>
+      <c r="F22" s="84"/>
+      <c r="G22" s="85"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -2947,12 +3132,12 @@
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
-      <c r="G23" s="102"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="85"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -2975,14 +3160,14 @@
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="103" t="s">
+      <c r="B24" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="104"/>
-      <c r="D24" s="104"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="89"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="88"/>
       <c r="H24" s="1"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1"/>
@@ -9381,6 +9566,24 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
@@ -9395,24 +9598,6 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9424,7 +9609,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26:F26"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -9466,19 +9651,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="114" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="87"/>
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="92"/>
+      <c r="F2" s="92"/>
+      <c r="G2" s="92"/>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="93"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -9496,17 +9681,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="88"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="89"/>
+      <c r="B3" s="103"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+      <c r="K3" s="87"/>
+      <c r="L3" s="88"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -9524,27 +9709,27 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="121" t="s">
+      <c r="C4" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="93"/>
-      <c r="E4" s="121" t="s">
+      <c r="D4" s="82"/>
+      <c r="E4" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="99"/>
-      <c r="G4" s="93"/>
-      <c r="H4" s="122" t="s">
+      <c r="F4" s="101"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="99"/>
-      <c r="J4" s="93"/>
-      <c r="K4" s="122" t="s">
+      <c r="I4" s="101"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="117" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="93"/>
+      <c r="L4" s="82"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -9562,7 +9747,7 @@
     </row>
     <row r="5" spans="1:26" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="91"/>
+      <c r="B5" s="105"/>
       <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
@@ -9710,35 +9895,35 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="116" t="s">
+      <c r="B8" s="121" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="118">
+      <c r="C8" s="123">
         <v>17.579999999999998</v>
       </c>
-      <c r="D8" s="118">
+      <c r="D8" s="123">
         <v>23.9</v>
       </c>
-      <c r="E8" s="114">
+      <c r="E8" s="109">
         <v>3</v>
       </c>
-      <c r="F8" s="114">
+      <c r="F8" s="109">
         <v>100</v>
       </c>
-      <c r="G8" s="112">
+      <c r="G8" s="119">
         <v>300</v>
       </c>
-      <c r="H8" s="112">
+      <c r="H8" s="119">
         <v>4</v>
       </c>
-      <c r="I8" s="114" t="s">
+      <c r="I8" s="109" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="114">
+      <c r="J8" s="109">
         <v>200</v>
       </c>
-      <c r="K8" s="114"/>
-      <c r="L8" s="114"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -9756,17 +9941,17 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="115"/>
-      <c r="D9" s="115"/>
-      <c r="E9" s="115"/>
-      <c r="F9" s="115"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="113"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="115"/>
-      <c r="L9" s="115"/>
+      <c r="B9" s="122"/>
+      <c r="C9" s="110"/>
+      <c r="D9" s="110"/>
+      <c r="E9" s="110"/>
+      <c r="F9" s="110"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="110"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="110"/>
+      <c r="L9" s="110"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -10091,13 +10276,13 @@
         <v>400</v>
       </c>
       <c r="H16" s="15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I16" s="24">
         <v>600</v>
       </c>
       <c r="J16" s="24">
-        <v>600</v>
+        <v>1200</v>
       </c>
       <c r="K16" s="24" t="s">
         <v>53</v>
@@ -10339,7 +10524,7 @@
       </c>
       <c r="H21" s="28">
         <f t="shared" si="0"/>
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I21" s="28">
         <f t="shared" si="0"/>
@@ -10347,7 +10532,7 @@
       </c>
       <c r="J21" s="28">
         <f t="shared" si="0"/>
-        <v>13000</v>
+        <v>13600</v>
       </c>
       <c r="K21" s="27"/>
       <c r="L21" s="28">
@@ -10379,9 +10564,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="126"/>
-      <c r="K22" s="108"/>
-      <c r="L22" s="108"/>
+      <c r="J22" s="111"/>
+      <c r="K22" s="92"/>
+      <c r="L22" s="92"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -10399,13 +10584,13 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="111" t="s">
+      <c r="B23" s="118" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="101"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="101"/>
-      <c r="F23" s="101"/>
+      <c r="C23" s="84"/>
+      <c r="D23" s="84"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -10464,9 +10649,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="101"/>
-      <c r="L25" s="101"/>
+      <c r="J25" s="112"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -10484,20 +10669,20 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="118" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="101"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="101"/>
-      <c r="F26" s="101"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="101"/>
-      <c r="L26" s="101"/>
-      <c r="M26" s="123"/>
+      <c r="J26" s="107"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="106"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -10522,10 +10707,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="101"/>
-      <c r="L27" s="101"/>
-      <c r="M27" s="101"/>
+      <c r="J27" s="107"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -10550,12 +10735,12 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
+      <c r="J28" s="107"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="113"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -10578,12 +10763,12 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="124"/>
-      <c r="K29" s="101"/>
-      <c r="L29" s="101"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="101"/>
-      <c r="O29" s="101"/>
+      <c r="J29" s="107"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -10606,10 +10791,10 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="101"/>
-      <c r="L30" s="101"/>
-      <c r="M30" s="123"/>
+      <c r="J30" s="107"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="106"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -10634,10 +10819,10 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="101"/>
-      <c r="L31" s="101"/>
-      <c r="M31" s="101"/>
+      <c r="J31" s="107"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -10662,9 +10847,9 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="125"/>
-      <c r="K32" s="101"/>
-      <c r="L32" s="101"/>
+      <c r="J32" s="108"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -10690,9 +10875,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="101"/>
-      <c r="K33" s="101"/>
-      <c r="L33" s="101"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -10718,9 +10903,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="101"/>
-      <c r="K34" s="101"/>
-      <c r="L34" s="101"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -16888,6 +17073,23 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="J32:L34"/>
@@ -16902,23 +17104,6 @@
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="J31:L31"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -16930,7 +17115,7 @@
   <dimension ref="A1:Z1005"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17000,20 +17185,20 @@
     </row>
     <row r="3" spans="1:26" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="124" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="130" t="s">
+      <c r="C3" s="125" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="132" t="s">
+      <c r="D3" s="127" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="133"/>
-      <c r="F3" s="132" t="s">
+      <c r="E3" s="128"/>
+      <c r="F3" s="127" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="133"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="30" t="s">
         <v>30</v>
       </c>
@@ -17044,8 +17229,8 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="131"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="126"/>
       <c r="D4" s="32" t="s">
         <v>72</v>
       </c>
@@ -17368,7 +17553,7 @@
       </c>
       <c r="H11" s="38"/>
       <c r="I11" s="18">
-        <f t="shared" si="0"/>
+        <f>(D11*100+E11*200)+(F11*100+G11*600)+H11</f>
         <v>2000</v>
       </c>
       <c r="J11" s="15">
@@ -17448,23 +17633,21 @@
       </c>
       <c r="D13" s="36"/>
       <c r="E13" s="37"/>
-      <c r="F13" s="36">
-        <v>2</v>
-      </c>
+      <c r="F13" s="36"/>
       <c r="G13" s="37">
         <v>3</v>
       </c>
       <c r="H13" s="38"/>
       <c r="I13" s="18">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="J13" s="15">
         <v>127</v>
       </c>
       <c r="K13" s="14">
         <f t="shared" si="1"/>
-        <v>15.748031496062993</v>
+        <v>14.173228346456693</v>
       </c>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
@@ -17998,7 +18181,7 @@
       </c>
       <c r="F26" s="42">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G26" s="43">
         <f t="shared" si="2"/>
@@ -18010,7 +18193,7 @@
       </c>
       <c r="I26" s="31">
         <f t="shared" si="2"/>
-        <v>38885</v>
+        <v>38685</v>
       </c>
       <c r="J26" s="27">
         <f t="shared" si="2"/>
@@ -18018,7 +18201,7 @@
       </c>
       <c r="K26" s="45">
         <f t="shared" si="2"/>
-        <v>243.65408017179678</v>
+        <v>242.07927702219044</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
@@ -45464,8 +45647,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6759B52-4959-44EC-8CDD-E150AEF41805}">
   <dimension ref="B4:D26"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -45478,20 +45661,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="134" t="s">
+      <c r="B4" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="134" t="s">
+      <c r="C4" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="136" t="s">
+      <c r="D4" s="131" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="135"/>
-      <c r="C5" s="135"/>
-      <c r="D5" s="137"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="132"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="53">
@@ -45737,10 +45920,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36D55B-3867-4EF4-9271-23288EED3B45}">
-  <dimension ref="A1:R60"/>
+  <dimension ref="A1:R62"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="A45" sqref="A45:N45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -45758,90 +45941,90 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="B1" s="134" t="s">
+      <c r="B1" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="148" t="s">
+      <c r="D1" s="134" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="149"/>
-      <c r="F1" s="148" t="s">
+      <c r="E1" s="135"/>
+      <c r="F1" s="134" t="s">
         <v>68</v>
       </c>
-      <c r="G1" s="149"/>
-      <c r="H1" s="154" t="s">
+      <c r="G1" s="135"/>
+      <c r="H1" s="140" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="J1" s="134" t="s">
+      <c r="J1" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="K1" s="136" t="s">
+      <c r="K1" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="L1" s="136" t="s">
+      <c r="L1" s="131" t="s">
         <v>115</v>
       </c>
-      <c r="M1" s="136" t="s">
+      <c r="M1" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="N1" s="136" t="s">
+      <c r="N1" s="131" t="s">
         <v>117</v>
       </c>
-      <c r="O1" s="136" t="s">
-        <v>126</v>
-      </c>
-      <c r="P1" s="136" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q1" s="136" t="s">
-        <v>131</v>
+      <c r="O1" s="131" t="s">
+        <v>119</v>
+      </c>
+      <c r="P1" s="131" t="s">
+        <v>122</v>
+      </c>
+      <c r="Q1" s="131" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="2:17">
-      <c r="B2" s="134"/>
-      <c r="C2" s="134"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="134"/>
-      <c r="J2" s="134"/>
-      <c r="K2" s="136"/>
-      <c r="L2" s="136"/>
-      <c r="M2" s="136"/>
-      <c r="N2" s="136"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
+      <c r="B2" s="129"/>
+      <c r="C2" s="129"/>
+      <c r="D2" s="136"/>
+      <c r="E2" s="137"/>
+      <c r="F2" s="136"/>
+      <c r="G2" s="137"/>
+      <c r="H2" s="141"/>
+      <c r="I2" s="129"/>
+      <c r="J2" s="129"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
     </row>
     <row r="3" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="153"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="153"/>
-      <c r="H3" s="156"/>
-      <c r="I3" s="134"/>
-      <c r="J3" s="134"/>
-      <c r="K3" s="136"/>
-      <c r="L3" s="136"/>
-      <c r="M3" s="136"/>
-      <c r="N3" s="136"/>
-      <c r="O3" s="136"/>
-      <c r="P3" s="136"/>
-      <c r="Q3" s="136"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="138"/>
+      <c r="E3" s="139"/>
+      <c r="F3" s="138"/>
+      <c r="G3" s="139"/>
+      <c r="H3" s="142"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="131"/>
+      <c r="L3" s="131"/>
+      <c r="M3" s="131"/>
+      <c r="N3" s="131"/>
+      <c r="O3" s="131"/>
+      <c r="P3" s="131"/>
+      <c r="Q3" s="131"/>
     </row>
     <row r="4" spans="2:17">
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
       <c r="D4" s="52" t="s">
         <v>72</v>
       </c>
@@ -45882,7 +46065,7 @@
         <v>77</v>
       </c>
       <c r="Q4" s="58" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="2:17">
@@ -46270,23 +46453,21 @@
       </c>
       <c r="D13" s="53"/>
       <c r="E13" s="53"/>
-      <c r="F13" s="53">
-        <v>2</v>
-      </c>
+      <c r="F13" s="53"/>
       <c r="G13" s="53">
         <v>3</v>
       </c>
       <c r="H13" s="53"/>
       <c r="I13" s="53">
         <f t="shared" si="0"/>
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="J13" s="53">
         <v>127</v>
       </c>
       <c r="K13" s="56">
         <f t="shared" si="1"/>
-        <v>15.748031496062993</v>
+        <v>14.173228346456693</v>
       </c>
       <c r="L13" s="56">
         <v>0.65</v>
@@ -46299,7 +46480,7 @@
       </c>
       <c r="O13" s="56">
         <f t="shared" si="2"/>
-        <v>24.227740763173834</v>
+        <v>21.804966686856449</v>
       </c>
       <c r="P13" s="56">
         <v>28</v>
@@ -46484,12 +46665,10 @@
       <c r="P17" s="56">
         <v>15.5</v>
       </c>
-      <c r="Q17" s="69">
+      <c r="Q17" s="168">
         <v>1.5</v>
       </c>
-      <c r="R17" s="70" t="s">
-        <v>132</v>
-      </c>
+      <c r="R17" s="169"/>
     </row>
     <row r="18" spans="2:18">
       <c r="B18" s="53">
@@ -46532,9 +46711,10 @@
       <c r="P18" s="56">
         <v>12</v>
       </c>
-      <c r="Q18" s="71">
+      <c r="Q18" s="170">
         <v>1</v>
       </c>
+      <c r="R18" s="169"/>
     </row>
     <row r="19" spans="2:18">
       <c r="B19" s="53">
@@ -46577,9 +46757,10 @@
       <c r="P19" s="56">
         <v>8</v>
       </c>
-      <c r="Q19" s="71">
+      <c r="Q19" s="170">
         <v>0.5</v>
       </c>
+      <c r="R19" s="169"/>
     </row>
     <row r="20" spans="2:18">
       <c r="B20" s="53">
@@ -46622,9 +46803,10 @@
       <c r="P20" s="56">
         <v>15.5</v>
       </c>
-      <c r="Q20" s="71">
+      <c r="Q20" s="170">
         <v>1.5</v>
       </c>
+      <c r="R20" s="169"/>
     </row>
     <row r="21" spans="2:18">
       <c r="B21" s="53">
@@ -46667,9 +46849,10 @@
       <c r="P21" s="56">
         <v>8</v>
       </c>
-      <c r="Q21" s="71">
+      <c r="Q21" s="170">
         <v>0.5</v>
       </c>
+      <c r="R21" s="169"/>
     </row>
     <row r="22" spans="2:18">
       <c r="B22" s="53">
@@ -46848,637 +47031,518 @@
       </c>
     </row>
     <row r="26" spans="2:18">
-      <c r="B26" s="65">
+      <c r="B26" s="61">
         <v>22</v>
       </c>
-      <c r="C26" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="D26" s="65"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="65"/>
-      <c r="H26" s="66"/>
-      <c r="I26" s="65">
+      <c r="C26" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="G26" s="61"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="61">
         <f>SUM(I5:I25)</f>
-        <v>38885</v>
-      </c>
-      <c r="J26" s="65"/>
-      <c r="K26" s="67"/>
-      <c r="L26" s="67"/>
-      <c r="M26" s="67"/>
-      <c r="N26" s="67"/>
-      <c r="O26" s="67"/>
-      <c r="P26" s="67"/>
-      <c r="Q26" s="67"/>
+        <v>38685</v>
+      </c>
+      <c r="J26" s="61"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
     </row>
     <row r="28" spans="2:18" ht="31.5" customHeight="1">
-      <c r="B28" s="144" t="s">
-        <v>127</v>
-      </c>
-      <c r="C28" s="145"/>
-      <c r="D28" s="145"/>
-      <c r="E28" s="145"/>
-      <c r="F28" s="145"/>
-      <c r="G28" s="145"/>
-      <c r="H28" s="145"/>
-      <c r="I28" s="145"/>
-      <c r="J28" s="145"/>
-      <c r="K28" s="145"/>
-      <c r="L28" s="145"/>
-      <c r="M28" s="145"/>
-      <c r="N28" s="145"/>
-      <c r="O28" s="146"/>
-    </row>
-    <row r="29" spans="2:18" s="61" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B29" s="138" t="s">
-        <v>128</v>
-      </c>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="139"/>
-      <c r="K29" s="139"/>
-      <c r="L29" s="139"/>
-      <c r="M29" s="139"/>
-      <c r="N29" s="139"/>
-      <c r="O29" s="140"/>
-    </row>
-    <row r="30" spans="2:18" s="61" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B30" s="138" t="s">
-        <v>133</v>
-      </c>
-      <c r="C30" s="139"/>
-      <c r="D30" s="139"/>
-      <c r="E30" s="139"/>
-      <c r="F30" s="139"/>
-      <c r="G30" s="139"/>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="139"/>
-      <c r="K30" s="139"/>
-      <c r="L30" s="139"/>
-      <c r="M30" s="139"/>
-      <c r="N30" s="139"/>
-      <c r="O30" s="140"/>
-    </row>
-    <row r="31" spans="2:18" s="61" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B31" s="138"/>
-      <c r="C31" s="139"/>
-      <c r="D31" s="139"/>
-      <c r="E31" s="139"/>
-      <c r="F31" s="139"/>
-      <c r="G31" s="139"/>
-      <c r="H31" s="139"/>
-      <c r="I31" s="139"/>
-      <c r="J31" s="139"/>
-      <c r="K31" s="139"/>
-      <c r="L31" s="139"/>
-      <c r="M31" s="139"/>
-      <c r="N31" s="139"/>
-      <c r="O31" s="140"/>
-    </row>
-    <row r="32" spans="2:18" s="61" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B32" s="138"/>
-      <c r="C32" s="139"/>
-      <c r="D32" s="139"/>
-      <c r="E32" s="139"/>
-      <c r="F32" s="139"/>
-      <c r="G32" s="139"/>
-      <c r="H32" s="139"/>
-      <c r="I32" s="139"/>
-      <c r="J32" s="139"/>
-      <c r="K32" s="139"/>
-      <c r="L32" s="139"/>
-      <c r="M32" s="139"/>
-      <c r="N32" s="139"/>
-      <c r="O32" s="140"/>
-    </row>
-    <row r="33" spans="1:16" s="61" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="142"/>
-      <c r="I33" s="142"/>
-      <c r="J33" s="142"/>
-      <c r="K33" s="142"/>
-      <c r="L33" s="142"/>
-      <c r="M33" s="142"/>
-      <c r="N33" s="142"/>
-      <c r="O33" s="143"/>
-    </row>
-    <row r="34" spans="1:16" s="61" customFormat="1" ht="20.100000000000001" customHeight="1">
-      <c r="B34" s="68"/>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-    </row>
-    <row r="35" spans="1:16" ht="16.5" thickBot="1">
-      <c r="A35" s="64"/>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="64"/>
-      <c r="H35" s="64"/>
-      <c r="I35" s="64"/>
-      <c r="J35" s="64"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="64"/>
-      <c r="M35" s="64"/>
-      <c r="N35" s="64"/>
-      <c r="O35" s="64"/>
-    </row>
-    <row r="36" spans="1:16" ht="47.25" customHeight="1">
-      <c r="A36" s="147" t="s">
-        <v>118</v>
-      </c>
-      <c r="B36" s="147"/>
-      <c r="C36" s="147"/>
-      <c r="D36" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="E36" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="F36" s="63" t="s">
-        <v>119</v>
-      </c>
-      <c r="G36" s="63"/>
+      <c r="B28" s="149" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="150"/>
+      <c r="G28" s="150"/>
+      <c r="H28" s="150"/>
+      <c r="I28" s="150"/>
+      <c r="J28" s="150"/>
+      <c r="K28" s="150"/>
+      <c r="L28" s="150"/>
+      <c r="M28" s="150"/>
+      <c r="N28" s="150"/>
+      <c r="O28" s="151"/>
+    </row>
+    <row r="29" spans="2:18" s="60" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B29" s="143" t="s">
+        <v>209</v>
+      </c>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+      <c r="H29" s="144"/>
+      <c r="I29" s="144"/>
+      <c r="J29" s="144"/>
+      <c r="K29" s="144"/>
+      <c r="L29" s="144"/>
+      <c r="M29" s="144"/>
+      <c r="N29" s="144"/>
+      <c r="O29" s="145"/>
+    </row>
+    <row r="30" spans="2:18" s="60" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B30" s="143" t="s">
+        <v>124</v>
+      </c>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+      <c r="H30" s="144"/>
+      <c r="I30" s="144"/>
+      <c r="J30" s="144"/>
+      <c r="K30" s="144"/>
+      <c r="L30" s="144"/>
+      <c r="M30" s="144"/>
+      <c r="N30" s="144"/>
+      <c r="O30" s="145"/>
+    </row>
+    <row r="31" spans="2:18" s="60" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B31" s="143"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+      <c r="H31" s="144"/>
+      <c r="I31" s="144"/>
+      <c r="J31" s="144"/>
+      <c r="K31" s="144"/>
+      <c r="L31" s="144"/>
+      <c r="M31" s="144"/>
+      <c r="N31" s="144"/>
+      <c r="O31" s="145"/>
+    </row>
+    <row r="32" spans="2:18" s="60" customFormat="1" ht="22.5" customHeight="1">
+      <c r="B32" s="143"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+      <c r="H32" s="144"/>
+      <c r="I32" s="144"/>
+      <c r="J32" s="144"/>
+      <c r="K32" s="144"/>
+      <c r="L32" s="144"/>
+      <c r="M32" s="144"/>
+      <c r="N32" s="144"/>
+      <c r="O32" s="145"/>
+    </row>
+    <row r="33" spans="1:16" s="60" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B33" s="146"/>
+      <c r="C33" s="147"/>
+      <c r="D33" s="147"/>
+      <c r="E33" s="147"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="147"/>
+      <c r="H33" s="147"/>
+      <c r="I33" s="147"/>
+      <c r="J33" s="147"/>
+      <c r="K33" s="147"/>
+      <c r="L33" s="147"/>
+      <c r="M33" s="147"/>
+      <c r="N33" s="147"/>
+      <c r="O33" s="148"/>
+    </row>
+    <row r="34" spans="1:16" s="60" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="79"/>
+      <c r="I34" s="79"/>
+      <c r="J34" s="79"/>
+      <c r="K34" s="79"/>
+      <c r="L34" s="79"/>
+      <c r="M34" s="79"/>
+      <c r="N34" s="79"/>
+      <c r="O34" s="79"/>
+    </row>
+    <row r="35" spans="1:16" s="60" customFormat="1" ht="23.25" customHeight="1">
+      <c r="B35" s="176" t="s">
+        <v>211</v>
+      </c>
+      <c r="C35" s="176"/>
+      <c r="D35" s="176"/>
+      <c r="E35" s="176"/>
+      <c r="F35" s="176"/>
+      <c r="G35" s="176"/>
+      <c r="H35" s="176"/>
+      <c r="I35" s="176"/>
+      <c r="J35" s="79"/>
+      <c r="K35" s="79"/>
+      <c r="L35" s="79"/>
+      <c r="M35" s="79"/>
+      <c r="N35" s="79"/>
+      <c r="O35" s="79"/>
+    </row>
+    <row r="36" spans="1:16" s="60" customFormat="1" ht="20.100000000000001" customHeight="1">
+      <c r="B36" s="64"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="64"/>
+      <c r="F36" s="64"/>
+      <c r="G36" s="64"/>
+      <c r="H36" s="64"/>
+      <c r="I36" s="64"/>
+      <c r="J36" s="64"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="64"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="64"/>
     </row>
     <row r="37" spans="1:16">
-      <c r="B37" s="157"/>
-      <c r="C37" s="157"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="157"/>
-      <c r="K37" s="157"/>
-      <c r="L37" s="157"/>
-      <c r="M37" s="157"/>
-      <c r="N37" s="157"/>
-    </row>
-    <row r="38" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A38" s="159" t="s">
-        <v>120</v>
-      </c>
-      <c r="B38" s="159"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="159"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="159"/>
-      <c r="G38" s="159"/>
-      <c r="H38" s="159"/>
-      <c r="I38" s="159"/>
-      <c r="J38" s="159"/>
-      <c r="K38" s="159"/>
-      <c r="L38" s="159"/>
-      <c r="M38" s="159"/>
-      <c r="N38" s="159"/>
-    </row>
-    <row r="39" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A39" s="159" t="s">
-        <v>121</v>
-      </c>
-      <c r="B39" s="159"/>
-      <c r="C39" s="159"/>
-      <c r="D39" s="159"/>
-      <c r="E39" s="159"/>
-      <c r="F39" s="159"/>
-      <c r="G39" s="159"/>
-      <c r="H39" s="159"/>
-      <c r="I39" s="159"/>
-      <c r="J39" s="159"/>
-      <c r="K39" s="159"/>
-      <c r="L39" s="159"/>
-      <c r="M39" s="159"/>
-      <c r="N39" s="159"/>
-    </row>
-    <row r="40" spans="1:16" ht="26.25">
-      <c r="B40" s="60"/>
-      <c r="C40" s="60"/>
-      <c r="D40" s="60"/>
-      <c r="E40" s="60"/>
-      <c r="F40" s="60"/>
-      <c r="G40" s="60"/>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
-      <c r="J40" s="60"/>
-      <c r="K40" s="60"/>
-      <c r="L40" s="60"/>
-      <c r="M40" s="60"/>
-      <c r="N40" s="60"/>
-    </row>
-    <row r="41" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A41" s="158" t="s">
-        <v>122</v>
-      </c>
-      <c r="B41" s="158"/>
-      <c r="C41" s="158"/>
-      <c r="D41" s="158"/>
-      <c r="E41" s="158"/>
-      <c r="F41" s="158"/>
-      <c r="G41" s="158"/>
-      <c r="H41" s="158"/>
-      <c r="I41" s="158"/>
-      <c r="J41" s="158"/>
-      <c r="K41" s="158"/>
-      <c r="L41" s="158"/>
-      <c r="M41" s="158"/>
-      <c r="N41" s="62"/>
-    </row>
-    <row r="42" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A42" s="158" t="s">
-        <v>123</v>
-      </c>
-      <c r="B42" s="158"/>
-      <c r="C42" s="158"/>
-      <c r="D42" s="158"/>
-      <c r="E42" s="158"/>
-      <c r="F42" s="158"/>
-      <c r="G42" s="158"/>
-      <c r="H42" s="158"/>
-      <c r="I42" s="158"/>
-      <c r="J42" s="158"/>
-      <c r="K42" s="158"/>
-      <c r="L42" s="158"/>
-      <c r="M42" s="158"/>
-      <c r="N42" s="158"/>
+      <c r="A37" s="133"/>
+      <c r="B37" s="133"/>
+      <c r="C37" s="133"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="133"/>
+      <c r="F37" s="133"/>
+      <c r="G37" s="133"/>
+      <c r="H37" s="133"/>
+      <c r="I37" s="133"/>
+      <c r="J37" s="133"/>
+      <c r="K37" s="133"/>
+      <c r="L37" s="133"/>
+      <c r="M37" s="133"/>
+      <c r="N37" s="133"/>
+      <c r="O37" s="59"/>
+    </row>
+    <row r="38" spans="1:16" ht="47.25" customHeight="1">
+      <c r="A38" s="133"/>
+      <c r="B38" s="133"/>
+      <c r="C38" s="133"/>
+      <c r="D38" s="133"/>
+      <c r="E38" s="133"/>
+      <c r="F38" s="133"/>
+      <c r="G38" s="133"/>
+      <c r="H38" s="133"/>
+      <c r="I38" s="133"/>
+      <c r="J38" s="133"/>
+      <c r="K38" s="133"/>
+      <c r="L38" s="133"/>
+      <c r="M38" s="133"/>
+      <c r="N38" s="133"/>
+      <c r="O38" s="59"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="133"/>
+      <c r="B39" s="133"/>
+      <c r="C39" s="133"/>
+      <c r="D39" s="133"/>
+      <c r="E39" s="133"/>
+      <c r="F39" s="133"/>
+      <c r="G39" s="133"/>
+      <c r="H39" s="133"/>
+      <c r="I39" s="133"/>
+      <c r="J39" s="133"/>
+      <c r="K39" s="133"/>
+      <c r="L39" s="133"/>
+      <c r="M39" s="133"/>
+      <c r="N39" s="133"/>
+      <c r="O39" s="59"/>
+    </row>
+    <row r="40" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A40" s="133"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="133"/>
+      <c r="E40" s="133"/>
+      <c r="F40" s="133"/>
+      <c r="G40" s="133"/>
+      <c r="H40" s="133"/>
+      <c r="I40" s="133"/>
+      <c r="J40" s="133"/>
+      <c r="K40" s="133"/>
+      <c r="L40" s="133"/>
+      <c r="M40" s="133"/>
+      <c r="N40" s="133"/>
+      <c r="O40" s="59"/>
+    </row>
+    <row r="41" spans="1:16" ht="26.25" customHeight="1">
+      <c r="A41" s="133"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="133"/>
+      <c r="D41" s="133"/>
+      <c r="E41" s="133"/>
+      <c r="F41" s="133"/>
+      <c r="G41" s="133"/>
+      <c r="H41" s="133"/>
+      <c r="I41" s="133"/>
+      <c r="J41" s="133"/>
+      <c r="K41" s="133"/>
+      <c r="L41" s="133"/>
+      <c r="M41" s="133"/>
+      <c r="N41" s="133"/>
+      <c r="O41" s="59"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="133"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="133"/>
+      <c r="D42" s="133"/>
+      <c r="E42" s="133"/>
+      <c r="F42" s="133"/>
+      <c r="G42" s="133"/>
+      <c r="H42" s="133"/>
+      <c r="I42" s="133"/>
+      <c r="J42" s="133"/>
+      <c r="K42" s="133"/>
+      <c r="L42" s="133"/>
+      <c r="M42" s="133"/>
+      <c r="N42" s="133"/>
       <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-    </row>
-    <row r="43" spans="1:16" ht="60.75" customHeight="1">
-      <c r="A43" s="158" t="s">
-        <v>124</v>
-      </c>
-      <c r="B43" s="158"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="158"/>
-      <c r="F43" s="158"/>
-      <c r="G43" s="158"/>
-      <c r="H43" s="158"/>
-      <c r="I43" s="158"/>
-      <c r="J43" s="158"/>
-      <c r="K43" s="158"/>
-      <c r="L43" s="158"/>
-      <c r="M43" s="158"/>
-      <c r="N43" s="158"/>
+    </row>
+    <row r="43" spans="1:16" ht="38.25" customHeight="1">
+      <c r="A43" s="133"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="133"/>
+      <c r="D43" s="133"/>
+      <c r="E43" s="133"/>
+      <c r="F43" s="133"/>
+      <c r="G43" s="133"/>
+      <c r="H43" s="133"/>
+      <c r="I43" s="133"/>
+      <c r="J43" s="133"/>
+      <c r="K43" s="133"/>
+      <c r="L43" s="133"/>
+      <c r="M43" s="133"/>
+      <c r="N43" s="133"/>
       <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-    </row>
-    <row r="44" spans="1:16">
-      <c r="A44" s="157"/>
-      <c r="B44" s="157"/>
-      <c r="C44" s="157"/>
-      <c r="D44" s="157"/>
-      <c r="E44" s="157"/>
-      <c r="F44" s="157"/>
-      <c r="G44" s="157"/>
-      <c r="H44" s="157"/>
-      <c r="I44" s="157"/>
-      <c r="J44" s="157"/>
-      <c r="K44" s="157"/>
-      <c r="L44" s="157"/>
-      <c r="M44" s="157"/>
-      <c r="N44" s="157"/>
+    </row>
+    <row r="44" spans="1:16" ht="39.75" customHeight="1">
+      <c r="A44" s="133"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="133"/>
+      <c r="D44" s="133"/>
+      <c r="E44" s="133"/>
+      <c r="F44" s="133"/>
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+      <c r="J44" s="133"/>
+      <c r="K44" s="133"/>
+      <c r="L44" s="133"/>
+      <c r="M44" s="133"/>
+      <c r="N44" s="133"/>
       <c r="O44" s="59"/>
       <c r="P44" s="59"/>
     </row>
-    <row r="45" spans="1:16">
-      <c r="A45" s="157"/>
-      <c r="B45" s="157"/>
-      <c r="C45" s="157"/>
-      <c r="D45" s="157"/>
-      <c r="E45" s="157"/>
-      <c r="F45" s="157"/>
-      <c r="G45" s="157"/>
-      <c r="H45" s="157"/>
-      <c r="I45" s="157"/>
-      <c r="J45" s="157"/>
-      <c r="K45" s="157"/>
-      <c r="L45" s="157"/>
-      <c r="M45" s="157"/>
-      <c r="N45" s="157"/>
+    <row r="45" spans="1:16" ht="60.75" customHeight="1">
+      <c r="A45" s="133"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="133"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
+      <c r="H45" s="133"/>
+      <c r="I45" s="133"/>
+      <c r="J45" s="133"/>
+      <c r="K45" s="133"/>
+      <c r="L45" s="133"/>
+      <c r="M45" s="133"/>
+      <c r="N45" s="133"/>
       <c r="O45" s="59"/>
       <c r="P45" s="59"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="157"/>
-      <c r="B46" s="157"/>
-      <c r="C46" s="157"/>
-      <c r="D46" s="157"/>
-      <c r="E46" s="157"/>
-      <c r="F46" s="157"/>
-      <c r="G46" s="157"/>
-      <c r="H46" s="157"/>
-      <c r="I46" s="157"/>
-      <c r="J46" s="157"/>
-      <c r="K46" s="157"/>
-      <c r="L46" s="157"/>
-      <c r="M46" s="157"/>
-      <c r="N46" s="157"/>
+      <c r="A46" s="133"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="133"/>
+      <c r="D46" s="133"/>
+      <c r="E46" s="133"/>
+      <c r="F46" s="133"/>
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+      <c r="J46" s="133"/>
+      <c r="K46" s="133"/>
+      <c r="L46" s="133"/>
+      <c r="M46" s="133"/>
+      <c r="N46" s="133"/>
       <c r="O46" s="59"/>
       <c r="P46" s="59"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="157"/>
-      <c r="B47" s="157"/>
-      <c r="C47" s="157"/>
-      <c r="D47" s="157"/>
-      <c r="E47" s="157"/>
-      <c r="F47" s="157"/>
-      <c r="G47" s="157"/>
-      <c r="H47" s="157"/>
-      <c r="I47" s="157"/>
-      <c r="J47" s="157"/>
-      <c r="K47" s="157"/>
-      <c r="L47" s="157"/>
-      <c r="M47" s="157"/>
-      <c r="N47" s="157"/>
+      <c r="A47" s="133"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="133"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
+      <c r="H47" s="133"/>
+      <c r="I47" s="133"/>
+      <c r="J47" s="133"/>
+      <c r="K47" s="133"/>
+      <c r="L47" s="133"/>
+      <c r="M47" s="133"/>
+      <c r="N47" s="133"/>
       <c r="O47" s="59"/>
       <c r="P47" s="59"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="157"/>
-      <c r="B48" s="157"/>
-      <c r="C48" s="157"/>
-      <c r="D48" s="157"/>
-      <c r="E48" s="157"/>
-      <c r="F48" s="157"/>
-      <c r="G48" s="157"/>
-      <c r="H48" s="157"/>
-      <c r="I48" s="157"/>
-      <c r="J48" s="157"/>
-      <c r="K48" s="157"/>
-      <c r="L48" s="157"/>
-      <c r="M48" s="157"/>
-      <c r="N48" s="157"/>
+      <c r="A48" s="133"/>
+      <c r="B48" s="133"/>
+      <c r="C48" s="133"/>
+      <c r="D48" s="133"/>
+      <c r="E48" s="133"/>
+      <c r="F48" s="133"/>
+      <c r="G48" s="133"/>
+      <c r="H48" s="133"/>
+      <c r="I48" s="133"/>
+      <c r="J48" s="133"/>
+      <c r="K48" s="133"/>
+      <c r="L48" s="133"/>
+      <c r="M48" s="133"/>
+      <c r="N48" s="133"/>
       <c r="O48" s="59"/>
       <c r="P48" s="59"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="157"/>
-      <c r="B49" s="157"/>
-      <c r="C49" s="157"/>
-      <c r="D49" s="157"/>
-      <c r="E49" s="157"/>
-      <c r="F49" s="157"/>
-      <c r="G49" s="157"/>
-      <c r="H49" s="157"/>
-      <c r="I49" s="157"/>
-      <c r="J49" s="157"/>
-      <c r="K49" s="157"/>
-      <c r="L49" s="157"/>
-      <c r="M49" s="157"/>
-      <c r="N49" s="157"/>
+      <c r="A49" s="133"/>
+      <c r="B49" s="133"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="133"/>
+      <c r="K49" s="133"/>
+      <c r="L49" s="133"/>
+      <c r="M49" s="133"/>
+      <c r="N49" s="133"/>
       <c r="O49" s="59"/>
       <c r="P49" s="59"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="157"/>
-      <c r="B50" s="157"/>
-      <c r="C50" s="157"/>
-      <c r="D50" s="157"/>
-      <c r="E50" s="157"/>
-      <c r="F50" s="157"/>
-      <c r="G50" s="157"/>
-      <c r="H50" s="157"/>
-      <c r="I50" s="157"/>
-      <c r="J50" s="157"/>
-      <c r="K50" s="157"/>
-      <c r="L50" s="157"/>
-      <c r="M50" s="157"/>
-      <c r="N50" s="157"/>
+      <c r="A50" s="133"/>
+      <c r="B50" s="133"/>
+      <c r="C50" s="133"/>
+      <c r="D50" s="133"/>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+      <c r="J50" s="133"/>
+      <c r="K50" s="133"/>
+      <c r="L50" s="133"/>
+      <c r="M50" s="133"/>
+      <c r="N50" s="133"/>
       <c r="O50" s="59"/>
       <c r="P50" s="59"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="157"/>
-      <c r="B51" s="157"/>
-      <c r="C51" s="157"/>
-      <c r="D51" s="157"/>
-      <c r="E51" s="157"/>
-      <c r="F51" s="157"/>
-      <c r="G51" s="157"/>
-      <c r="H51" s="157"/>
-      <c r="I51" s="157"/>
-      <c r="J51" s="157"/>
-      <c r="K51" s="157"/>
-      <c r="L51" s="157"/>
-      <c r="M51" s="157"/>
-      <c r="N51" s="157"/>
+      <c r="A51" s="133"/>
+      <c r="B51" s="133"/>
+      <c r="C51" s="133"/>
+      <c r="D51" s="133"/>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+      <c r="J51" s="133"/>
+      <c r="K51" s="133"/>
+      <c r="L51" s="133"/>
+      <c r="M51" s="133"/>
+      <c r="N51" s="133"/>
       <c r="O51" s="59"/>
       <c r="P51" s="59"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="157"/>
-      <c r="B52" s="157"/>
-      <c r="C52" s="157"/>
-      <c r="D52" s="157"/>
-      <c r="E52" s="157"/>
-      <c r="F52" s="157"/>
-      <c r="G52" s="157"/>
-      <c r="H52" s="157"/>
-      <c r="I52" s="157"/>
-      <c r="J52" s="157"/>
-      <c r="K52" s="157"/>
-      <c r="L52" s="157"/>
-      <c r="M52" s="157"/>
-      <c r="N52" s="157"/>
+      <c r="A52" s="133"/>
+      <c r="B52" s="133"/>
+      <c r="C52" s="133"/>
+      <c r="D52" s="133"/>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+      <c r="J52" s="133"/>
+      <c r="K52" s="133"/>
+      <c r="L52" s="133"/>
+      <c r="M52" s="133"/>
+      <c r="N52" s="133"/>
       <c r="O52" s="59"/>
       <c r="P52" s="59"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="157"/>
-      <c r="B53" s="157"/>
-      <c r="C53" s="157"/>
-      <c r="D53" s="157"/>
-      <c r="E53" s="157"/>
-      <c r="F53" s="157"/>
-      <c r="G53" s="157"/>
-      <c r="H53" s="157"/>
-      <c r="I53" s="157"/>
-      <c r="J53" s="157"/>
-      <c r="K53" s="157"/>
-      <c r="L53" s="157"/>
-      <c r="M53" s="157"/>
-      <c r="N53" s="157"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
+      <c r="E53" s="59"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="59"/>
+      <c r="H53" s="59"/>
+      <c r="I53" s="59"/>
+      <c r="J53" s="59"/>
+      <c r="K53" s="59"/>
+      <c r="L53" s="59"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="59"/>
       <c r="O53" s="59"/>
       <c r="P53" s="59"/>
     </row>
     <row r="54" spans="1:16">
-      <c r="A54" s="157"/>
-      <c r="B54" s="157"/>
-      <c r="C54" s="157"/>
-      <c r="D54" s="157"/>
-      <c r="E54" s="157"/>
-      <c r="F54" s="157"/>
-      <c r="G54" s="157"/>
-      <c r="H54" s="157"/>
-      <c r="I54" s="157"/>
-      <c r="J54" s="157"/>
-      <c r="K54" s="157"/>
-      <c r="L54" s="157"/>
-      <c r="M54" s="157"/>
-      <c r="N54" s="157"/>
-      <c r="O54" s="59"/>
       <c r="P54" s="59"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="157"/>
-      <c r="B55" s="157"/>
-      <c r="C55" s="157"/>
-      <c r="D55" s="157"/>
-      <c r="E55" s="157"/>
-      <c r="F55" s="157"/>
-      <c r="G55" s="157"/>
-      <c r="H55" s="157"/>
-      <c r="I55" s="157"/>
-      <c r="J55" s="157"/>
-      <c r="K55" s="157"/>
-      <c r="L55" s="157"/>
-      <c r="M55" s="157"/>
-      <c r="N55" s="157"/>
-      <c r="O55" s="59"/>
       <c r="P55" s="59"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="157"/>
-      <c r="B56" s="157"/>
-      <c r="C56" s="157"/>
-      <c r="D56" s="157"/>
-      <c r="E56" s="157"/>
-      <c r="F56" s="157"/>
-      <c r="G56" s="157"/>
-      <c r="H56" s="157"/>
-      <c r="I56" s="157"/>
-      <c r="J56" s="157"/>
-      <c r="K56" s="157"/>
-      <c r="L56" s="157"/>
-      <c r="M56" s="157"/>
-      <c r="N56" s="157"/>
-      <c r="O56" s="59"/>
       <c r="P56" s="59"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="157"/>
-      <c r="B57" s="157"/>
-      <c r="C57" s="157"/>
-      <c r="D57" s="157"/>
-      <c r="E57" s="157"/>
-      <c r="F57" s="157"/>
-      <c r="G57" s="157"/>
-      <c r="H57" s="157"/>
-      <c r="I57" s="157"/>
-      <c r="J57" s="157"/>
-      <c r="K57" s="157"/>
-      <c r="L57" s="157"/>
-      <c r="M57" s="157"/>
-      <c r="N57" s="157"/>
-      <c r="O57" s="59"/>
       <c r="P57" s="59"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="157"/>
-      <c r="B58" s="157"/>
-      <c r="C58" s="157"/>
-      <c r="D58" s="157"/>
-      <c r="E58" s="157"/>
-      <c r="F58" s="157"/>
-      <c r="G58" s="157"/>
-      <c r="H58" s="157"/>
-      <c r="I58" s="157"/>
-      <c r="J58" s="157"/>
-      <c r="K58" s="157"/>
-      <c r="L58" s="157"/>
-      <c r="M58" s="157"/>
-      <c r="N58" s="157"/>
-      <c r="O58" s="59"/>
       <c r="P58" s="59"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="157"/>
-      <c r="B59" s="157"/>
-      <c r="C59" s="157"/>
-      <c r="D59" s="157"/>
-      <c r="E59" s="157"/>
-      <c r="F59" s="157"/>
-      <c r="G59" s="157"/>
-      <c r="H59" s="157"/>
-      <c r="I59" s="157"/>
-      <c r="J59" s="157"/>
-      <c r="K59" s="157"/>
-      <c r="L59" s="157"/>
-      <c r="M59" s="157"/>
-      <c r="N59" s="157"/>
-      <c r="O59" s="59"/>
       <c r="P59" s="59"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="59"/>
-      <c r="B60" s="59"/>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="59"/>
-      <c r="H60" s="59"/>
-      <c r="I60" s="59"/>
-      <c r="J60" s="59"/>
-      <c r="K60" s="59"/>
-      <c r="L60" s="59"/>
-      <c r="M60" s="59"/>
-      <c r="N60" s="59"/>
-      <c r="O60" s="59"/>
       <c r="P60" s="59"/>
     </row>
+    <row r="61" spans="1:16">
+      <c r="P61" s="59"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="P62" s="59"/>
+    </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="B37:N37"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A50:N50"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A46:N46"/>
-    <mergeCell ref="A47:N47"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A49:N49"/>
-    <mergeCell ref="A42:N42"/>
-    <mergeCell ref="A56:N56"/>
-    <mergeCell ref="A57:N57"/>
-    <mergeCell ref="A58:N58"/>
-    <mergeCell ref="A59:N59"/>
-    <mergeCell ref="A41:M41"/>
-    <mergeCell ref="A51:N51"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="A53:N53"/>
-    <mergeCell ref="A54:N54"/>
-    <mergeCell ref="A55:N55"/>
-    <mergeCell ref="A36:C36"/>
+  <mergeCells count="37">
+    <mergeCell ref="Q1:Q3"/>
+    <mergeCell ref="B30:O30"/>
+    <mergeCell ref="B31:O31"/>
+    <mergeCell ref="B32:O32"/>
+    <mergeCell ref="B33:O33"/>
+    <mergeCell ref="B28:O28"/>
+    <mergeCell ref="P1:P3"/>
+    <mergeCell ref="B29:O29"/>
     <mergeCell ref="O1:O3"/>
     <mergeCell ref="I1:I3"/>
     <mergeCell ref="J1:J3"/>
@@ -47491,26 +47555,36 @@
     <mergeCell ref="D1:E3"/>
     <mergeCell ref="F1:G3"/>
     <mergeCell ref="H1:H3"/>
-    <mergeCell ref="Q1:Q3"/>
-    <mergeCell ref="B30:O30"/>
-    <mergeCell ref="B31:O31"/>
-    <mergeCell ref="B32:O32"/>
-    <mergeCell ref="B33:O33"/>
-    <mergeCell ref="B28:O28"/>
-    <mergeCell ref="P1:P3"/>
-    <mergeCell ref="B29:O29"/>
+    <mergeCell ref="B35:I35"/>
+    <mergeCell ref="A49:N49"/>
+    <mergeCell ref="A50:N50"/>
+    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A37:N37"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A42:N42"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE09EFEF-EC0B-4984-B180-595A6EF1BBAD}">
-  <dimension ref="B2:K43"/>
+  <dimension ref="B2:Q111"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K29" sqref="K29:K43"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:Q2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -47520,1113 +47594,2750 @@
     <col min="5" max="16384" width="20.7109375" style="51"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="164" t="s">
+    <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B2" s="152" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="70"/>
+      <c r="M2" s="175" t="s">
+        <v>210</v>
+      </c>
+      <c r="N2" s="175"/>
+      <c r="O2" s="175"/>
+      <c r="P2" s="175"/>
+      <c r="Q2" s="175"/>
+    </row>
+    <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B3" s="156" t="s">
+        <v>178</v>
+      </c>
+      <c r="C3" s="154"/>
+      <c r="D3" s="154"/>
+      <c r="E3" s="154"/>
+      <c r="F3" s="154"/>
+      <c r="G3" s="154"/>
+      <c r="H3" s="154"/>
+      <c r="I3" s="154"/>
+      <c r="J3" s="154"/>
+      <c r="K3" s="72"/>
+    </row>
+    <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B4" s="156"/>
+      <c r="C4" s="154"/>
+      <c r="D4" s="154"/>
+      <c r="E4" s="154"/>
+      <c r="F4" s="154"/>
+      <c r="G4" s="154"/>
+      <c r="H4" s="154"/>
+      <c r="I4" s="154"/>
+      <c r="J4" s="154"/>
+      <c r="K4" s="72"/>
+    </row>
+    <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B5" s="71"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="68"/>
+      <c r="J5" s="68"/>
+      <c r="K5" s="72"/>
+    </row>
+    <row r="6" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B6" s="73" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="67"/>
+      <c r="D6" s="159" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="159"/>
+      <c r="F6" s="159"/>
+      <c r="G6" s="159" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="159"/>
+      <c r="I6" s="68"/>
+      <c r="J6" s="68"/>
+      <c r="K6" s="72"/>
+    </row>
+    <row r="7" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B7" s="74" t="s">
+        <v>127</v>
+      </c>
+      <c r="C7" s="66"/>
+      <c r="D7" s="157" t="s">
+        <v>137</v>
+      </c>
+      <c r="E7" s="157"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="154" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="154"/>
+      <c r="I7" s="154"/>
+      <c r="J7" s="154"/>
+      <c r="K7" s="72"/>
+    </row>
+    <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B8" s="74" t="s">
+        <v>128</v>
+      </c>
+      <c r="C8" s="66"/>
+      <c r="D8" s="157" t="s">
+        <v>138</v>
+      </c>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+      <c r="K8" s="72"/>
+    </row>
+    <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B9" s="75"/>
+      <c r="C9" s="76"/>
+      <c r="D9" s="158"/>
+      <c r="E9" s="158"/>
+      <c r="F9" s="158"/>
+      <c r="G9" s="155"/>
+      <c r="H9" s="155"/>
+      <c r="I9" s="155"/>
+      <c r="J9" s="155"/>
+      <c r="K9" s="77"/>
+    </row>
+    <row r="10" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B10" s="163"/>
+      <c r="C10" s="163"/>
+      <c r="D10" s="163"/>
+      <c r="E10" s="163"/>
+      <c r="F10" s="163"/>
+      <c r="G10" s="163"/>
+      <c r="H10" s="163"/>
+    </row>
+    <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B11" s="160" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="160"/>
+      <c r="D11" s="160"/>
+      <c r="E11" s="160"/>
+      <c r="F11" s="160"/>
+      <c r="G11" s="160"/>
+      <c r="H11" s="160"/>
+      <c r="I11" s="160"/>
+      <c r="J11" s="160"/>
+      <c r="K11" s="160"/>
+    </row>
+    <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B12" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="D12" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="F12" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="I12" s="161" t="s">
         <v>134</v>
       </c>
-      <c r="C2" s="165"/>
-      <c r="D2" s="165"/>
-      <c r="E2" s="165"/>
-      <c r="F2" s="165"/>
-      <c r="G2" s="165"/>
-      <c r="H2" s="165"/>
-      <c r="I2" s="165"/>
-      <c r="J2" s="165"/>
-      <c r="K2" s="77"/>
-    </row>
-    <row r="3" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="168" t="s">
+      <c r="J12" s="161" t="s">
         <v>135</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
-      <c r="E3" s="166"/>
-      <c r="F3" s="166"/>
-      <c r="G3" s="166"/>
-      <c r="H3" s="166"/>
-      <c r="I3" s="166"/>
-      <c r="J3" s="166"/>
-      <c r="K3" s="79"/>
-    </row>
-    <row r="4" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="168" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="166"/>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="79"/>
-    </row>
-    <row r="5" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B5" s="78"/>
-      <c r="C5" s="72"/>
-      <c r="D5" s="72"/>
-      <c r="E5" s="72"/>
-      <c r="F5" s="72"/>
-      <c r="G5" s="72"/>
-      <c r="H5" s="72"/>
-      <c r="I5" s="75"/>
-      <c r="J5" s="75"/>
-      <c r="K5" s="79"/>
-    </row>
-    <row r="6" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B6" s="80" t="s">
-        <v>136</v>
-      </c>
-      <c r="C6" s="74"/>
-      <c r="D6" s="163" t="s">
-        <v>146</v>
-      </c>
-      <c r="E6" s="163"/>
-      <c r="F6" s="163"/>
-      <c r="G6" s="163" t="s">
-        <v>155</v>
-      </c>
-      <c r="H6" s="163"/>
-      <c r="I6" s="75"/>
-      <c r="J6" s="75"/>
-      <c r="K6" s="79"/>
-    </row>
-    <row r="7" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B7" s="81" t="s">
-        <v>137</v>
-      </c>
-      <c r="C7" s="73"/>
-      <c r="D7" s="169" t="s">
-        <v>147</v>
-      </c>
-      <c r="E7" s="169"/>
-      <c r="F7" s="169"/>
-      <c r="G7" s="166" t="s">
-        <v>156</v>
-      </c>
-      <c r="H7" s="166"/>
-      <c r="I7" s="166"/>
-      <c r="J7" s="166"/>
-      <c r="K7" s="79"/>
-    </row>
-    <row r="8" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B8" s="81" t="s">
-        <v>138</v>
-      </c>
-      <c r="C8" s="73"/>
-      <c r="D8" s="169" t="s">
-        <v>148</v>
-      </c>
-      <c r="E8" s="169"/>
-      <c r="F8" s="169"/>
-      <c r="G8" s="166"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="166"/>
-      <c r="J8" s="166"/>
-      <c r="K8" s="79"/>
-    </row>
-    <row r="9" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B9" s="82"/>
-      <c r="C9" s="83"/>
-      <c r="D9" s="170"/>
-      <c r="E9" s="170"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="167"/>
-      <c r="J9" s="167"/>
-      <c r="K9" s="84"/>
-    </row>
-    <row r="10" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="171"/>
-      <c r="C10" s="171"/>
-      <c r="D10" s="171"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="171"/>
-      <c r="G10" s="171"/>
-      <c r="H10" s="171"/>
-    </row>
-    <row r="11" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="162" t="s">
-        <v>173</v>
-      </c>
-      <c r="C11" s="162"/>
-      <c r="D11" s="162"/>
-      <c r="E11" s="162"/>
-      <c r="F11" s="162"/>
-      <c r="G11" s="162"/>
-      <c r="H11" s="162"/>
-      <c r="I11" s="162"/>
-      <c r="J11" s="162"/>
-      <c r="K11" s="162"/>
-    </row>
-    <row r="12" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="160" t="s">
-        <v>139</v>
-      </c>
-      <c r="C12" s="160" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" s="160" t="s">
-        <v>166</v>
-      </c>
-      <c r="E12" s="160" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="160" t="s">
-        <v>142</v>
-      </c>
-      <c r="G12" s="160" t="s">
-        <v>143</v>
-      </c>
-      <c r="H12" s="160" t="s">
-        <v>164</v>
-      </c>
-      <c r="I12" s="160" t="s">
-        <v>144</v>
-      </c>
-      <c r="J12" s="160" t="s">
-        <v>145</v>
-      </c>
-      <c r="K12" s="160" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="161"/>
-      <c r="C13" s="161"/>
-      <c r="D13" s="161"/>
-      <c r="E13" s="161"/>
-      <c r="F13" s="161"/>
-      <c r="G13" s="161"/>
-      <c r="H13" s="161"/>
-      <c r="I13" s="161"/>
-      <c r="J13" s="161"/>
-      <c r="K13" s="161"/>
-    </row>
-    <row r="14" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B14" s="175" t="s">
-        <v>163</v>
+      <c r="K12" s="161" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B13" s="162"/>
+      <c r="C13" s="162"/>
+      <c r="D13" s="162"/>
+      <c r="E13" s="162"/>
+      <c r="F13" s="162"/>
+      <c r="G13" s="162"/>
+      <c r="H13" s="162"/>
+      <c r="I13" s="162"/>
+      <c r="J13" s="162"/>
+      <c r="K13" s="162"/>
+    </row>
+    <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1">
+      <c r="B14" s="80" t="s">
+        <v>153</v>
       </c>
       <c r="C14" s="54">
         <v>400</v>
       </c>
-      <c r="D14" s="85">
+      <c r="D14" s="78">
         <v>127</v>
       </c>
-      <c r="E14" s="76">
+      <c r="E14" s="69">
         <f>C14/D14</f>
         <v>3.1496062992125986</v>
       </c>
-      <c r="F14" s="76">
+      <c r="F14" s="69">
         <v>14.629899999999999</v>
       </c>
-      <c r="G14" s="76">
+      <c r="G14" s="69">
         <f>F14/1000</f>
         <v>1.46299E-2</v>
       </c>
       <c r="H14" s="54">
         <v>14.3</v>
       </c>
-      <c r="I14" s="76">
+      <c r="I14" s="69">
         <f>H14*E14*G14*100/D14</f>
         <v>0.51883581127162259</v>
       </c>
-      <c r="J14" s="76">
+      <c r="J14" s="69">
         <f>I14</f>
         <v>0.51883581127162259</v>
       </c>
-      <c r="K14" s="172">
+      <c r="K14" s="164">
         <v>2.5</v>
       </c>
     </row>
-    <row r="15" spans="2:11" ht="20.100000000000001" customHeight="1">
+    <row r="15" spans="2:17" ht="20.100000000000001" customHeight="1">
       <c r="B15" s="54" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="C15" s="54">
         <v>300</v>
       </c>
-      <c r="D15" s="85">
+      <c r="D15" s="78">
         <v>127</v>
       </c>
-      <c r="E15" s="76">
+      <c r="E15" s="69">
         <f t="shared" ref="E15:E17" si="0">C15/D15</f>
         <v>2.3622047244094486</v>
       </c>
-      <c r="F15" s="76">
+      <c r="F15" s="69">
         <v>4.0477999999999996</v>
       </c>
-      <c r="G15" s="76">
+      <c r="G15" s="69">
         <f t="shared" ref="G15:G23" si="1">F15/1000</f>
         <v>4.0477999999999998E-3</v>
       </c>
       <c r="H15" s="54">
         <v>14.3</v>
       </c>
-      <c r="I15" s="76">
+      <c r="I15" s="69">
         <f t="shared" ref="I15:I23" si="2">H15*E15*G15*100/D15</f>
         <v>0.10766359972719945</v>
       </c>
-      <c r="J15" s="76">
+      <c r="J15" s="69">
         <f>SUM(I14:I15)</f>
         <v>0.626499410998822</v>
       </c>
-      <c r="K15" s="173"/>
-    </row>
-    <row r="16" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="K15" s="165"/>
+    </row>
+    <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="54" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="C16" s="54">
         <v>200</v>
       </c>
-      <c r="D16" s="85">
+      <c r="D16" s="78">
         <v>127</v>
       </c>
-      <c r="E16" s="76">
+      <c r="E16" s="69">
         <f t="shared" si="0"/>
         <v>1.5748031496062993</v>
       </c>
-      <c r="F16" s="76">
+      <c r="F16" s="69">
         <v>4.4528999999999996</v>
       </c>
-      <c r="G16" s="76">
+      <c r="G16" s="69">
         <f t="shared" si="1"/>
         <v>4.4528999999999992E-3</v>
       </c>
       <c r="H16" s="54">
         <v>14.3</v>
       </c>
-      <c r="I16" s="76">
+      <c r="I16" s="69">
         <f t="shared" si="2"/>
         <v>7.8958980717961438E-2</v>
       </c>
-      <c r="J16" s="76">
+      <c r="J16" s="69">
         <f>SUM(I14:I16)</f>
         <v>0.70545839171678348</v>
       </c>
-      <c r="K16" s="173"/>
+      <c r="K16" s="165"/>
     </row>
     <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="54" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="C17" s="54">
         <v>100</v>
       </c>
-      <c r="D17" s="85">
+      <c r="D17" s="78">
         <v>127</v>
       </c>
-      <c r="E17" s="76">
+      <c r="E17" s="69">
         <f t="shared" si="0"/>
         <v>0.78740157480314965</v>
       </c>
-      <c r="F17" s="76">
+      <c r="F17" s="69">
         <v>4.1230000000000002</v>
       </c>
-      <c r="G17" s="76">
+      <c r="G17" s="69">
         <f t="shared" si="1"/>
         <v>4.1229999999999999E-3</v>
       </c>
       <c r="H17" s="54">
         <v>14.3</v>
       </c>
-      <c r="I17" s="76">
+      <c r="I17" s="69">
         <f t="shared" si="2"/>
         <v>3.6554591109182216E-2</v>
       </c>
-      <c r="J17" s="76">
+      <c r="J17" s="69">
         <f>SUM(I14:I17)</f>
         <v>0.74201298282596573</v>
       </c>
-      <c r="K17" s="173"/>
+      <c r="K17" s="165"/>
     </row>
     <row r="18" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B18" s="175" t="s">
-        <v>168</v>
+      <c r="B18" s="80" t="s">
+        <v>156</v>
       </c>
       <c r="C18" s="54">
         <v>200</v>
       </c>
-      <c r="D18" s="85">
+      <c r="D18" s="78">
         <v>127</v>
       </c>
-      <c r="E18" s="76">
+      <c r="E18" s="69">
         <f>C18/D18</f>
         <v>1.5748031496062993</v>
       </c>
-      <c r="F18" s="76">
+      <c r="F18" s="69">
         <v>9.98</v>
       </c>
-      <c r="G18" s="76">
+      <c r="G18" s="69">
         <f t="shared" si="1"/>
         <v>9.980000000000001E-3</v>
       </c>
       <c r="H18" s="54">
         <v>14.3</v>
       </c>
-      <c r="I18" s="76">
+      <c r="I18" s="69">
         <f t="shared" si="2"/>
         <v>0.1769657139314279</v>
       </c>
-      <c r="J18" s="76">
+      <c r="J18" s="69">
         <f>SUM(I14:I18)</f>
         <v>0.91897869675739363</v>
       </c>
-      <c r="K18" s="173"/>
+      <c r="K18" s="165"/>
     </row>
     <row r="19" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="54" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="C19" s="54">
         <v>100</v>
       </c>
-      <c r="D19" s="85">
+      <c r="D19" s="78">
         <v>127</v>
       </c>
-      <c r="E19" s="76">
+      <c r="E19" s="69">
         <f>C19/D19</f>
         <v>0.78740157480314965</v>
       </c>
-      <c r="F19" s="76">
+      <c r="F19" s="69">
         <v>3.3422999999999998</v>
       </c>
-      <c r="G19" s="76">
+      <c r="G19" s="69">
         <f t="shared" si="1"/>
         <v>3.3422999999999999E-3</v>
       </c>
       <c r="H19" s="54">
         <v>14.3</v>
       </c>
-      <c r="I19" s="76">
+      <c r="I19" s="69">
         <f t="shared" si="2"/>
         <v>2.9632891065782135E-2</v>
       </c>
-      <c r="J19" s="76">
+      <c r="J19" s="69">
         <f>SUM(I14:I19)</f>
         <v>0.94861158782317578</v>
       </c>
-      <c r="K19" s="173"/>
+      <c r="K19" s="165"/>
     </row>
     <row r="20" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B20" s="175" t="s">
-        <v>169</v>
+      <c r="B20" s="80" t="s">
+        <v>157</v>
       </c>
       <c r="C20" s="54">
         <v>600</v>
       </c>
-      <c r="D20" s="85">
+      <c r="D20" s="78">
         <v>127</v>
       </c>
-      <c r="E20" s="76">
+      <c r="E20" s="69">
         <f t="shared" ref="E20:E23" si="3">C20/D20</f>
         <v>4.7244094488188972</v>
       </c>
-      <c r="F20" s="76">
+      <c r="F20" s="69">
         <v>8.1341999999999999</v>
       </c>
-      <c r="G20" s="76">
+      <c r="G20" s="69">
         <f t="shared" si="1"/>
         <v>8.1341999999999994E-3</v>
       </c>
       <c r="H20" s="54">
         <v>14.3</v>
       </c>
-      <c r="I20" s="76">
+      <c r="I20" s="69">
         <f t="shared" si="2"/>
         <v>0.43270776861553717</v>
       </c>
-      <c r="J20" s="76">
+      <c r="J20" s="69">
         <f>SUM(I14:I20)</f>
         <v>1.381319356438713</v>
       </c>
-      <c r="K20" s="173"/>
+      <c r="K20" s="165"/>
     </row>
     <row r="21" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="54" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="C21" s="54">
         <v>100</v>
       </c>
-      <c r="D21" s="85">
+      <c r="D21" s="78">
         <v>127</v>
       </c>
-      <c r="E21" s="76">
+      <c r="E21" s="69">
         <f t="shared" si="3"/>
         <v>0.78740157480314965</v>
       </c>
-      <c r="F21" s="76">
+      <c r="F21" s="69">
         <v>4.5681000000000003</v>
       </c>
-      <c r="G21" s="76">
+      <c r="G21" s="69">
         <f t="shared" si="1"/>
         <v>4.5681000000000003E-3</v>
       </c>
       <c r="H21" s="54">
         <v>14.3</v>
       </c>
-      <c r="I21" s="76">
+      <c r="I21" s="69">
         <f t="shared" si="2"/>
         <v>4.0500855601711211E-2</v>
       </c>
-      <c r="J21" s="76">
+      <c r="J21" s="69">
         <f>SUM(I14:I21)</f>
         <v>1.4218202120404242</v>
       </c>
-      <c r="K21" s="173"/>
+      <c r="K21" s="165"/>
     </row>
     <row r="22" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="54" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="C22" s="54">
         <v>400</v>
       </c>
-      <c r="D22" s="85">
+      <c r="D22" s="78">
         <v>127</v>
       </c>
-      <c r="E22" s="76">
+      <c r="E22" s="69">
         <f t="shared" si="3"/>
         <v>3.1496062992125986</v>
       </c>
-      <c r="F22" s="76">
+      <c r="F22" s="69">
         <v>4.7576999999999998</v>
       </c>
-      <c r="G22" s="76">
+      <c r="G22" s="69">
         <f t="shared" si="1"/>
         <v>4.7577000000000001E-3</v>
       </c>
       <c r="H22" s="54">
         <v>14.3</v>
       </c>
-      <c r="I22" s="76">
+      <c r="I22" s="69">
         <f t="shared" si="2"/>
         <v>0.16872741025482052</v>
       </c>
-      <c r="J22" s="76">
+      <c r="J22" s="69">
         <f>SUM(I14:I22)</f>
         <v>1.5905476222952446</v>
       </c>
-      <c r="K22" s="173"/>
+      <c r="K22" s="165"/>
     </row>
     <row r="23" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="54" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="C23" s="54">
         <v>200</v>
       </c>
-      <c r="D23" s="85">
+      <c r="D23" s="78">
         <v>127</v>
       </c>
-      <c r="E23" s="76">
+      <c r="E23" s="69">
         <f t="shared" si="3"/>
         <v>1.5748031496062993</v>
       </c>
-      <c r="F23" s="76">
+      <c r="F23" s="69">
         <v>11.351800000000001</v>
       </c>
-      <c r="G23" s="76">
+      <c r="G23" s="69">
         <f t="shared" si="1"/>
         <v>1.13518E-2</v>
       </c>
       <c r="H23" s="54">
         <v>14.3</v>
       </c>
-      <c r="I23" s="76">
+      <c r="I23" s="69">
         <f t="shared" si="2"/>
         <v>0.20129052018104041</v>
       </c>
-      <c r="J23" s="76">
+      <c r="J23" s="69">
         <f>SUM(I14:I23)</f>
         <v>1.791838142476285</v>
       </c>
-      <c r="K23" s="174"/>
+      <c r="K23" s="166"/>
     </row>
     <row r="26" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="162" t="s">
-        <v>174</v>
-      </c>
-      <c r="C26" s="162"/>
-      <c r="D26" s="162"/>
-      <c r="E26" s="162"/>
-      <c r="F26" s="162"/>
-      <c r="G26" s="162"/>
-      <c r="H26" s="162"/>
-      <c r="I26" s="162"/>
-      <c r="J26" s="162"/>
-      <c r="K26" s="162"/>
+      <c r="B26" s="160" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="160"/>
+      <c r="D26" s="160"/>
+      <c r="E26" s="160"/>
+      <c r="F26" s="160"/>
+      <c r="G26" s="160"/>
+      <c r="H26" s="160"/>
+      <c r="I26" s="160"/>
+      <c r="J26" s="160"/>
+      <c r="K26" s="160"/>
     </row>
     <row r="27" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="160" t="s">
-        <v>139</v>
-      </c>
-      <c r="C27" s="160" t="s">
-        <v>140</v>
-      </c>
-      <c r="D27" s="160" t="s">
-        <v>166</v>
-      </c>
-      <c r="E27" s="160" t="s">
-        <v>141</v>
-      </c>
-      <c r="F27" s="160" t="s">
-        <v>142</v>
-      </c>
-      <c r="G27" s="160" t="s">
+      <c r="B27" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="C27" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="D27" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="E27" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="F27" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="G27" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="H27" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="I27" s="161" t="s">
+        <v>134</v>
+      </c>
+      <c r="J27" s="161" t="s">
+        <v>135</v>
+      </c>
+      <c r="K27" s="161" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B28" s="162"/>
+      <c r="C28" s="162"/>
+      <c r="D28" s="162"/>
+      <c r="E28" s="162"/>
+      <c r="F28" s="162"/>
+      <c r="G28" s="162"/>
+      <c r="H28" s="162"/>
+      <c r="I28" s="162"/>
+      <c r="J28" s="162"/>
+      <c r="K28" s="162"/>
+    </row>
+    <row r="29" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B29" s="80" t="s">
         <v>143</v>
-      </c>
-      <c r="H27" s="160" t="s">
-        <v>164</v>
-      </c>
-      <c r="I27" s="160" t="s">
-        <v>144</v>
-      </c>
-      <c r="J27" s="160" t="s">
-        <v>145</v>
-      </c>
-      <c r="K27" s="160" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="28" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="161"/>
-      <c r="C28" s="161"/>
-      <c r="D28" s="161"/>
-      <c r="E28" s="161"/>
-      <c r="F28" s="161"/>
-      <c r="G28" s="161"/>
-      <c r="H28" s="161"/>
-      <c r="I28" s="161"/>
-      <c r="J28" s="161"/>
-      <c r="K28" s="161"/>
-    </row>
-    <row r="29" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B29" s="175" t="s">
-        <v>153</v>
       </c>
       <c r="C29" s="54">
         <v>600</v>
       </c>
-      <c r="D29" s="85">
+      <c r="D29" s="78">
         <v>127</v>
       </c>
-      <c r="E29" s="76">
+      <c r="E29" s="69">
         <f>C29/D29</f>
         <v>4.7244094488188972</v>
       </c>
-      <c r="F29" s="76">
+      <c r="F29" s="69">
         <v>1.7907</v>
       </c>
-      <c r="G29" s="76">
+      <c r="G29" s="69">
         <f>F29/1000</f>
         <v>1.7906999999999999E-3</v>
       </c>
       <c r="H29" s="54">
         <v>14.3</v>
       </c>
-      <c r="I29" s="76">
+      <c r="I29" s="69">
         <f>H29*E29*G29*100/D29</f>
         <v>9.5258267716535422E-2</v>
       </c>
-      <c r="J29" s="76">
+      <c r="J29" s="69">
         <f>I29</f>
         <v>9.5258267716535422E-2</v>
       </c>
-      <c r="K29" s="176">
+      <c r="K29" s="164">
         <v>2.5</v>
       </c>
     </row>
     <row r="30" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B30" s="54" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C30" s="54">
         <v>400</v>
       </c>
-      <c r="D30" s="85">
+      <c r="D30" s="78">
         <v>127</v>
       </c>
-      <c r="E30" s="76">
+      <c r="E30" s="69">
         <f t="shared" ref="E30:E32" si="4">C30/D30</f>
         <v>3.1496062992125986</v>
       </c>
-      <c r="F30" s="76">
+      <c r="F30" s="69">
         <v>3.5156999999999998</v>
       </c>
-      <c r="G30" s="76">
+      <c r="G30" s="69">
         <f t="shared" ref="G30:G43" si="5">F30/1000</f>
         <v>3.5156999999999996E-3</v>
       </c>
       <c r="H30" s="54">
         <v>14.3</v>
       </c>
-      <c r="I30" s="76">
+      <c r="I30" s="69">
         <f t="shared" ref="I30:I32" si="6">H30*E30*G30*100/D30</f>
         <v>0.12468103416206831</v>
       </c>
-      <c r="J30" s="76">
+      <c r="J30" s="69">
         <f>SUM(I29:I30)</f>
         <v>0.21993930187860372</v>
       </c>
-      <c r="K30" s="177"/>
+      <c r="K30" s="165"/>
     </row>
     <row r="31" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="54" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="C31" s="54">
         <v>200</v>
       </c>
-      <c r="D31" s="85">
+      <c r="D31" s="78">
         <v>127</v>
       </c>
-      <c r="E31" s="76">
+      <c r="E31" s="69">
         <f t="shared" si="4"/>
         <v>1.5748031496062993</v>
       </c>
-      <c r="F31" s="76">
+      <c r="F31" s="69">
         <v>3.3047</v>
       </c>
-      <c r="G31" s="76">
+      <c r="G31" s="69">
         <f t="shared" si="5"/>
         <v>3.3046999999999998E-3</v>
       </c>
       <c r="H31" s="54">
         <v>14.3</v>
       </c>
-      <c r="I31" s="76">
+      <c r="I31" s="69">
         <f t="shared" si="6"/>
         <v>5.8599057598115199E-2</v>
       </c>
-      <c r="J31" s="76">
+      <c r="J31" s="69">
         <f>SUM(I29:I31)</f>
         <v>0.2785383594767189</v>
       </c>
-      <c r="K31" s="177"/>
+      <c r="K31" s="165"/>
     </row>
     <row r="32" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="54" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C32" s="54">
         <v>100</v>
       </c>
-      <c r="D32" s="85">
+      <c r="D32" s="78">
         <v>127</v>
       </c>
-      <c r="E32" s="76">
+      <c r="E32" s="69">
         <f t="shared" si="4"/>
         <v>0.78740157480314965</v>
       </c>
-      <c r="F32" s="76">
+      <c r="F32" s="69">
         <v>2.2797000000000001</v>
       </c>
-      <c r="G32" s="76">
+      <c r="G32" s="69">
         <f t="shared" si="5"/>
         <v>2.2797E-3</v>
       </c>
       <c r="H32" s="54">
         <v>14.3</v>
       </c>
-      <c r="I32" s="76">
+      <c r="I32" s="69">
         <f t="shared" si="6"/>
         <v>2.0211860623721253E-2</v>
       </c>
-      <c r="J32" s="76">
+      <c r="J32" s="69">
         <f>SUM(I29:I32)</f>
         <v>0.29875022010044017</v>
       </c>
-      <c r="K32" s="177"/>
+      <c r="K32" s="165"/>
     </row>
     <row r="33" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B33" s="175" t="s">
-        <v>175</v>
+      <c r="B33" s="80" t="s">
+        <v>163</v>
       </c>
       <c r="C33" s="54">
         <v>600</v>
       </c>
-      <c r="D33" s="85">
+      <c r="D33" s="78">
         <v>127</v>
       </c>
-      <c r="E33" s="76">
+      <c r="E33" s="69">
         <f>C33/D33</f>
         <v>4.7244094488188972</v>
       </c>
-      <c r="F33" s="76">
+      <c r="F33" s="69">
         <v>2.3816999999999999</v>
       </c>
-      <c r="G33" s="76">
+      <c r="G33" s="69">
         <f t="shared" si="5"/>
         <v>2.3817E-3</v>
       </c>
       <c r="H33" s="54">
         <v>14.3</v>
       </c>
-      <c r="I33" s="76">
+      <c r="I33" s="69">
         <f t="shared" ref="I33:I34" si="7">H33*E33*G33*100/D33</f>
         <v>0.12669716659433319</v>
       </c>
-      <c r="J33" s="76">
+      <c r="J33" s="69">
         <f>SUM(I29:I33)</f>
         <v>0.42544738669477333</v>
       </c>
-      <c r="K33" s="177"/>
+      <c r="K33" s="165"/>
     </row>
     <row r="34" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="54" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="C34" s="54">
         <v>500</v>
       </c>
-      <c r="D34" s="85">
+      <c r="D34" s="78">
         <v>127</v>
       </c>
-      <c r="E34" s="76">
+      <c r="E34" s="69">
         <f>C34/D34</f>
         <v>3.9370078740157481</v>
       </c>
-      <c r="F34" s="76">
+      <c r="F34" s="69">
         <v>2.3018999999999998</v>
       </c>
-      <c r="G34" s="76">
+      <c r="G34" s="69">
         <f t="shared" si="5"/>
         <v>2.3019E-3</v>
       </c>
       <c r="H34" s="54">
         <v>14.3</v>
       </c>
-      <c r="I34" s="76">
+      <c r="I34" s="69">
         <f t="shared" si="7"/>
         <v>0.10204343108686219</v>
       </c>
-      <c r="J34" s="76">
+      <c r="J34" s="69">
         <f>SUM(I29:I34)</f>
         <v>0.52749081778163553</v>
       </c>
-      <c r="K34" s="177"/>
+      <c r="K34" s="165"/>
     </row>
     <row r="35" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="54" t="s">
-        <v>177</v>
+        <v>165</v>
       </c>
       <c r="C35" s="54">
         <v>400</v>
       </c>
-      <c r="D35" s="85">
+      <c r="D35" s="78">
         <v>127</v>
       </c>
-      <c r="E35" s="76">
+      <c r="E35" s="69">
         <f t="shared" ref="E35:E38" si="8">C35/D35</f>
         <v>3.1496062992125986</v>
       </c>
-      <c r="F35" s="76">
+      <c r="F35" s="69">
         <v>2.0811999999999999</v>
       </c>
-      <c r="G35" s="76">
+      <c r="G35" s="69">
         <f t="shared" si="5"/>
         <v>2.0812000000000001E-3</v>
       </c>
       <c r="H35" s="54">
         <v>14.3</v>
       </c>
-      <c r="I35" s="76">
+      <c r="I35" s="69">
         <f t="shared" ref="I35:I42" si="9">H35*E35*G35*100/D35</f>
         <v>7.3807824415648843E-2</v>
       </c>
-      <c r="J35" s="76">
+      <c r="J35" s="69">
         <f>SUM(I29:I35)</f>
         <v>0.60129864219728435</v>
       </c>
-      <c r="K35" s="177"/>
+      <c r="K35" s="165"/>
     </row>
     <row r="36" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="54" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C36" s="54">
         <v>300</v>
       </c>
-      <c r="D36" s="85">
+      <c r="D36" s="78">
         <v>127</v>
       </c>
-      <c r="E36" s="76">
+      <c r="E36" s="69">
         <f t="shared" si="8"/>
         <v>2.3622047244094486</v>
       </c>
-      <c r="F36" s="76">
+      <c r="F36" s="69">
         <v>1.9261999999999999</v>
       </c>
-      <c r="G36" s="76">
+      <c r="G36" s="69">
         <f t="shared" si="5"/>
         <v>1.9261999999999999E-3</v>
       </c>
       <c r="H36" s="54">
         <v>14.3</v>
       </c>
-      <c r="I36" s="76">
+      <c r="I36" s="69">
         <f t="shared" si="9"/>
         <v>5.1233170066340129E-2</v>
       </c>
-      <c r="J36" s="76">
+      <c r="J36" s="69">
         <f>SUM(I29:I36)</f>
         <v>0.65253181226362444</v>
       </c>
-      <c r="K36" s="177"/>
+      <c r="K36" s="165"/>
     </row>
     <row r="37" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="54" t="s">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C37" s="54">
         <v>100</v>
       </c>
-      <c r="D37" s="85">
+      <c r="D37" s="78">
         <v>127</v>
       </c>
-      <c r="E37" s="76">
+      <c r="E37" s="69">
         <f t="shared" si="8"/>
         <v>0.78740157480314965</v>
       </c>
-      <c r="F37" s="76">
+      <c r="F37" s="69">
         <v>2.5341</v>
       </c>
-      <c r="G37" s="76">
+      <c r="G37" s="69">
         <f t="shared" si="5"/>
         <v>2.5341000000000001E-3</v>
       </c>
       <c r="H37" s="54">
         <v>14.3</v>
       </c>
-      <c r="I37" s="76">
+      <c r="I37" s="69">
         <f t="shared" si="9"/>
         <v>2.2467375534751075E-2</v>
       </c>
-      <c r="J37" s="76">
+      <c r="J37" s="69">
         <f>SUM(I29:I37)</f>
         <v>0.67499918779837553</v>
       </c>
-      <c r="K37" s="177"/>
+      <c r="K37" s="165"/>
     </row>
     <row r="38" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="54" t="s">
-        <v>180</v>
+        <v>168</v>
       </c>
       <c r="C38" s="54">
         <v>100</v>
       </c>
-      <c r="D38" s="85">
+      <c r="D38" s="78">
         <v>127</v>
       </c>
-      <c r="E38" s="76">
+      <c r="E38" s="69">
         <f t="shared" si="8"/>
         <v>0.78740157480314965</v>
       </c>
-      <c r="F38" s="76">
+      <c r="F38" s="69">
         <v>3.4512999999999998</v>
       </c>
-      <c r="G38" s="76">
+      <c r="G38" s="69">
         <f t="shared" si="5"/>
         <v>3.4513E-3</v>
       </c>
       <c r="H38" s="54">
         <v>14.3</v>
       </c>
-      <c r="I38" s="76">
+      <c r="I38" s="69">
         <f t="shared" si="9"/>
         <v>3.0599286998574001E-2</v>
       </c>
-      <c r="J38" s="76">
+      <c r="J38" s="69">
         <f>SUM(I29:I38)</f>
         <v>0.70559847479694948</v>
       </c>
-      <c r="K38" s="177"/>
+      <c r="K38" s="165"/>
     </row>
     <row r="39" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B39" s="175" t="s">
-        <v>149</v>
+      <c r="B39" s="80" t="s">
+        <v>139</v>
       </c>
       <c r="C39" s="54">
         <v>500</v>
       </c>
-      <c r="D39" s="85">
+      <c r="D39" s="78">
         <v>127</v>
       </c>
-      <c r="E39" s="76">
+      <c r="E39" s="69">
         <f>C39/D39</f>
         <v>3.9370078740157481</v>
       </c>
-      <c r="F39" s="76">
+      <c r="F39" s="69">
         <v>1.8081</v>
       </c>
-      <c r="G39" s="76">
+      <c r="G39" s="69">
         <f t="shared" si="5"/>
         <v>1.8081E-3</v>
       </c>
       <c r="H39" s="54">
         <v>14.3</v>
       </c>
-      <c r="I39" s="76">
+      <c r="I39" s="69">
         <f t="shared" si="9"/>
         <v>8.015323330646662E-2</v>
       </c>
-      <c r="J39" s="76">
+      <c r="J39" s="69">
         <f>SUM(I29:I39)</f>
         <v>0.7857517081034161</v>
       </c>
-      <c r="K39" s="177"/>
+      <c r="K39" s="165"/>
     </row>
     <row r="40" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="54" t="s">
-        <v>181</v>
+        <v>169</v>
       </c>
       <c r="C40" s="54">
         <v>100</v>
       </c>
-      <c r="D40" s="85">
+      <c r="D40" s="78">
         <v>127</v>
       </c>
-      <c r="E40" s="76">
+      <c r="E40" s="69">
         <f>C40/D40</f>
         <v>0.78740157480314965</v>
       </c>
-      <c r="F40" s="76">
+      <c r="F40" s="69">
         <v>1.9812000000000001</v>
       </c>
-      <c r="G40" s="76">
+      <c r="G40" s="69">
         <f t="shared" si="5"/>
         <v>1.9812000000000002E-3</v>
       </c>
       <c r="H40" s="54">
         <v>14.3</v>
       </c>
-      <c r="I40" s="76">
+      <c r="I40" s="69">
         <f t="shared" si="9"/>
         <v>1.7565354330708664E-2</v>
       </c>
-      <c r="J40" s="76">
+      <c r="J40" s="69">
         <f>SUM(I29:I40)</f>
         <v>0.80331706243412482</v>
       </c>
-      <c r="K40" s="177"/>
+      <c r="K40" s="165"/>
     </row>
     <row r="41" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="54" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="C41" s="54">
         <v>300</v>
       </c>
-      <c r="D41" s="85">
+      <c r="D41" s="78">
         <v>127</v>
       </c>
-      <c r="E41" s="76">
+      <c r="E41" s="69">
         <f t="shared" ref="E41:E43" si="10">C41/D41</f>
         <v>2.3622047244094486</v>
       </c>
-      <c r="F41" s="76">
+      <c r="F41" s="69">
         <v>1.5363</v>
       </c>
-      <c r="G41" s="76">
+      <c r="G41" s="69">
         <f t="shared" si="5"/>
         <v>1.5363E-3</v>
       </c>
       <c r="H41" s="54">
         <v>14.3</v>
       </c>
-      <c r="I41" s="76">
+      <c r="I41" s="69">
         <f t="shared" ref="I41:I43" si="11">H41*E41*G41*100/D41</f>
         <v>4.0862589125178254E-2</v>
       </c>
-      <c r="J41" s="76">
+      <c r="J41" s="69">
         <f>SUM(I29:I41)</f>
         <v>0.84417965155930308</v>
       </c>
-      <c r="K41" s="177"/>
+      <c r="K41" s="165"/>
     </row>
     <row r="42" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="54" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="C42" s="54">
         <v>200</v>
       </c>
-      <c r="D42" s="85">
+      <c r="D42" s="78">
         <v>127</v>
       </c>
-      <c r="E42" s="76">
+      <c r="E42" s="69">
         <f t="shared" si="10"/>
         <v>1.5748031496062993</v>
       </c>
-      <c r="F42" s="76">
+      <c r="F42" s="69">
         <v>1.2608999999999999</v>
       </c>
-      <c r="G42" s="76">
+      <c r="G42" s="69">
         <f t="shared" si="5"/>
         <v>1.2608999999999999E-3</v>
       </c>
       <c r="H42" s="54">
         <v>14.3</v>
       </c>
-      <c r="I42" s="76">
+      <c r="I42" s="69">
         <f t="shared" si="9"/>
         <v>2.2358323516647034E-2</v>
       </c>
-      <c r="J42" s="76">
+      <c r="J42" s="69">
         <f>SUM(I29:I42)</f>
         <v>0.8665379750759501</v>
       </c>
-      <c r="K42" s="177"/>
+      <c r="K42" s="165"/>
     </row>
     <row r="43" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="54" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="C43" s="54">
         <v>100</v>
       </c>
-      <c r="D43" s="85">
+      <c r="D43" s="78">
         <v>127</v>
       </c>
-      <c r="E43" s="76">
+      <c r="E43" s="69">
         <f t="shared" si="10"/>
         <v>0.78740157480314965</v>
       </c>
-      <c r="F43" s="76">
+      <c r="F43" s="69">
         <v>1.5118</v>
       </c>
-      <c r="G43" s="76">
+      <c r="G43" s="69">
         <f t="shared" si="5"/>
         <v>1.5118E-3</v>
       </c>
       <c r="H43" s="54">
         <v>14.3</v>
       </c>
-      <c r="I43" s="76">
+      <c r="I43" s="69">
         <f t="shared" si="11"/>
         <v>1.3403645607291216E-2</v>
       </c>
-      <c r="J43" s="76">
+      <c r="J43" s="69">
         <f>SUM(I29:I43)</f>
         <v>0.87994162068324133</v>
       </c>
-      <c r="K43" s="178"/>
+      <c r="K43" s="166"/>
+    </row>
+    <row r="46" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B46" s="160" t="s">
+        <v>170</v>
+      </c>
+      <c r="C46" s="160"/>
+      <c r="D46" s="160"/>
+      <c r="E46" s="160"/>
+      <c r="F46" s="160"/>
+      <c r="G46" s="160"/>
+      <c r="H46" s="160"/>
+      <c r="I46" s="160"/>
+      <c r="J46" s="160"/>
+      <c r="K46" s="160"/>
+    </row>
+    <row r="47" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B47" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="C47" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="D47" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="F47" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="G47" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="I47" s="161" t="s">
+        <v>134</v>
+      </c>
+      <c r="J47" s="161" t="s">
+        <v>135</v>
+      </c>
+      <c r="K47" s="161" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="48" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B48" s="162"/>
+      <c r="C48" s="162"/>
+      <c r="D48" s="162"/>
+      <c r="E48" s="162"/>
+      <c r="F48" s="162"/>
+      <c r="G48" s="162"/>
+      <c r="H48" s="162"/>
+      <c r="I48" s="162"/>
+      <c r="J48" s="162"/>
+      <c r="K48" s="162"/>
+    </row>
+    <row r="49" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B49" s="167" t="s">
+        <v>171</v>
+      </c>
+      <c r="C49" s="54">
+        <v>2100</v>
+      </c>
+      <c r="D49" s="78">
+        <v>127</v>
+      </c>
+      <c r="E49" s="69">
+        <f>C49/D49</f>
+        <v>16.535433070866141</v>
+      </c>
+      <c r="F49" s="69">
+        <v>9.9913000000000007</v>
+      </c>
+      <c r="G49" s="69">
+        <f>F49/1000</f>
+        <v>9.9913000000000016E-3</v>
+      </c>
+      <c r="H49" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I49" s="69">
+        <f>H49*E49*G49*100/D49</f>
+        <v>1.1655793961187926</v>
+      </c>
+      <c r="J49" s="69">
+        <f>I49</f>
+        <v>1.1655793961187926</v>
+      </c>
+      <c r="K49" s="173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B50" s="54" t="s">
+        <v>172</v>
+      </c>
+      <c r="C50" s="54">
+        <v>200</v>
+      </c>
+      <c r="D50" s="78">
+        <v>127</v>
+      </c>
+      <c r="E50" s="69">
+        <f t="shared" ref="E50:E52" si="12">C50/D50</f>
+        <v>1.5748031496062993</v>
+      </c>
+      <c r="F50" s="69">
+        <v>0.87180000000000002</v>
+      </c>
+      <c r="G50" s="69">
+        <f t="shared" ref="G50:G54" si="13">F50/1000</f>
+        <v>8.7180000000000005E-4</v>
+      </c>
+      <c r="H50" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I50" s="69">
+        <f t="shared" ref="I50:I54" si="14">H50*E50*G50*100/D50</f>
+        <v>9.6860660921321857E-3</v>
+      </c>
+      <c r="J50" s="69">
+        <f>SUM(I49:I50)</f>
+        <v>1.1752654622109249</v>
+      </c>
+      <c r="K50" s="173"/>
+    </row>
+    <row r="51" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B51" s="54" t="s">
+        <v>173</v>
+      </c>
+      <c r="C51" s="54">
+        <v>100</v>
+      </c>
+      <c r="D51" s="78">
+        <v>127</v>
+      </c>
+      <c r="E51" s="69">
+        <f t="shared" si="12"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F51" s="69">
+        <v>1.2166999999999999</v>
+      </c>
+      <c r="G51" s="69">
+        <f t="shared" si="13"/>
+        <v>1.2166999999999998E-3</v>
+      </c>
+      <c r="H51" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I51" s="69">
+        <f t="shared" si="14"/>
+        <v>6.7590253580507168E-3</v>
+      </c>
+      <c r="J51" s="69">
+        <f>SUM(I49:I51)</f>
+        <v>1.1820244875689756</v>
+      </c>
+      <c r="K51" s="173"/>
+    </row>
+    <row r="52" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B52" s="54" t="s">
+        <v>174</v>
+      </c>
+      <c r="C52" s="54">
+        <v>100</v>
+      </c>
+      <c r="D52" s="78">
+        <v>127</v>
+      </c>
+      <c r="E52" s="69">
+        <f t="shared" si="12"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F52" s="69">
+        <v>1.0286999999999999</v>
+      </c>
+      <c r="G52" s="69">
+        <f t="shared" si="13"/>
+        <v>1.0287E-3</v>
+      </c>
+      <c r="H52" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I52" s="69">
+        <f t="shared" si="14"/>
+        <v>5.7146456692913393E-3</v>
+      </c>
+      <c r="J52" s="69">
+        <f>SUM(I49:I52)</f>
+        <v>1.187739133238267</v>
+      </c>
+      <c r="K52" s="173"/>
+    </row>
+    <row r="53" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B53" s="167" t="s">
+        <v>175</v>
+      </c>
+      <c r="C53" s="54">
+        <v>1200</v>
+      </c>
+      <c r="D53" s="78">
+        <v>127</v>
+      </c>
+      <c r="E53" s="69">
+        <f>C53/D53</f>
+        <v>9.4488188976377945</v>
+      </c>
+      <c r="F53" s="69">
+        <v>1.3718999999999999</v>
+      </c>
+      <c r="G53" s="69">
+        <f t="shared" si="13"/>
+        <v>1.3718999999999999E-3</v>
+      </c>
+      <c r="H53" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I53" s="69">
+        <f t="shared" si="14"/>
+        <v>9.1454329468658946E-2</v>
+      </c>
+      <c r="J53" s="69">
+        <f>SUM(I49:I53)</f>
+        <v>1.2791934627069259</v>
+      </c>
+      <c r="K53" s="173"/>
+    </row>
+    <row r="54" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B54" s="54" t="s">
+        <v>176</v>
+      </c>
+      <c r="C54" s="54">
+        <v>600</v>
+      </c>
+      <c r="D54" s="78">
+        <v>127</v>
+      </c>
+      <c r="E54" s="69">
+        <f>C54/D54</f>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="F54" s="69">
+        <v>0.81059999999999999</v>
+      </c>
+      <c r="G54" s="69">
+        <f t="shared" si="13"/>
+        <v>8.1059999999999997E-4</v>
+      </c>
+      <c r="H54" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I54" s="69">
+        <f t="shared" si="14"/>
+        <v>2.7018324756649514E-2</v>
+      </c>
+      <c r="J54" s="69">
+        <f>SUM(I49:I54)</f>
+        <v>1.3062117874635755</v>
+      </c>
+      <c r="K54" s="173"/>
+    </row>
+    <row r="57" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B57" s="160" t="s">
+        <v>186</v>
+      </c>
+      <c r="C57" s="160"/>
+      <c r="D57" s="160"/>
+      <c r="E57" s="160"/>
+      <c r="F57" s="160"/>
+      <c r="G57" s="160"/>
+      <c r="H57" s="160"/>
+      <c r="I57" s="160"/>
+      <c r="J57" s="160"/>
+      <c r="K57" s="160"/>
+    </row>
+    <row r="58" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B58" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="C58" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="D58" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="E58" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="F58" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="G58" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="H58" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="I58" s="161" t="s">
+        <v>134</v>
+      </c>
+      <c r="J58" s="161" t="s">
+        <v>135</v>
+      </c>
+      <c r="K58" s="161" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="59" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B59" s="162"/>
+      <c r="C59" s="162"/>
+      <c r="D59" s="162"/>
+      <c r="E59" s="162"/>
+      <c r="F59" s="162"/>
+      <c r="G59" s="162"/>
+      <c r="H59" s="162"/>
+      <c r="I59" s="162"/>
+      <c r="J59" s="162"/>
+      <c r="K59" s="162"/>
+    </row>
+    <row r="60" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B60" s="167" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="54">
+        <v>1900</v>
+      </c>
+      <c r="D60" s="78">
+        <v>127</v>
+      </c>
+      <c r="E60" s="69">
+        <f>C60/D60</f>
+        <v>14.960629921259843</v>
+      </c>
+      <c r="F60" s="69">
+        <v>9.9913000000000007</v>
+      </c>
+      <c r="G60" s="69">
+        <f>F60/1000</f>
+        <v>9.9913000000000016E-3</v>
+      </c>
+      <c r="H60" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I60" s="69">
+        <f>H60*E60*G60*100/D60</f>
+        <v>1.0545718345836694</v>
+      </c>
+      <c r="J60" s="69">
+        <f>I60</f>
+        <v>1.0545718345836694</v>
+      </c>
+      <c r="K60" s="171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B61" s="54" t="s">
+        <v>179</v>
+      </c>
+      <c r="C61" s="54">
+        <v>600</v>
+      </c>
+      <c r="D61" s="78">
+        <v>127</v>
+      </c>
+      <c r="E61" s="69">
+        <f t="shared" ref="E61:E63" si="15">C61/D61</f>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="F61" s="69">
+        <v>2.5581</v>
+      </c>
+      <c r="G61" s="69">
+        <f t="shared" ref="G61:G64" si="16">F61/1000</f>
+        <v>2.5581000000000002E-3</v>
+      </c>
+      <c r="H61" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I61" s="69">
+        <f t="shared" ref="I61:I64" si="17">H61*E61*G61*100/D61</f>
+        <v>8.5264713249426513E-2</v>
+      </c>
+      <c r="J61" s="69">
+        <f>SUM(I60:I61)</f>
+        <v>1.1398365478330958</v>
+      </c>
+      <c r="K61" s="172"/>
+    </row>
+    <row r="62" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B62" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C62" s="54">
+        <v>1300</v>
+      </c>
+      <c r="D62" s="78">
+        <v>127</v>
+      </c>
+      <c r="E62" s="69">
+        <f t="shared" si="15"/>
+        <v>10.236220472440944</v>
+      </c>
+      <c r="F62" s="69">
+        <v>3.4512999999999998</v>
+      </c>
+      <c r="G62" s="69">
+        <f t="shared" si="16"/>
+        <v>3.4513E-3</v>
+      </c>
+      <c r="H62" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I62" s="69">
+        <f t="shared" si="17"/>
+        <v>0.24924510137020278</v>
+      </c>
+      <c r="J62" s="69">
+        <f>SUM(I60:I62)</f>
+        <v>1.3890816492032987</v>
+      </c>
+      <c r="K62" s="172"/>
+    </row>
+    <row r="63" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B63" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C63" s="54">
+        <v>100</v>
+      </c>
+      <c r="D63" s="78">
+        <v>127</v>
+      </c>
+      <c r="E63" s="69">
+        <f t="shared" si="15"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F63" s="69">
+        <v>0.89280000000000004</v>
+      </c>
+      <c r="G63" s="69">
+        <f t="shared" si="16"/>
+        <v>8.9280000000000002E-4</v>
+      </c>
+      <c r="H63" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I63" s="69">
+        <f t="shared" si="17"/>
+        <v>4.9596924793849596E-3</v>
+      </c>
+      <c r="J63" s="69">
+        <f>SUM(I60:I63)</f>
+        <v>1.3940413416826836</v>
+      </c>
+      <c r="K63" s="172"/>
+    </row>
+    <row r="64" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B64" s="54" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="54">
+        <v>1200</v>
+      </c>
+      <c r="D64" s="78">
+        <v>127</v>
+      </c>
+      <c r="E64" s="69">
+        <f>C64/D64</f>
+        <v>9.4488188976377945</v>
+      </c>
+      <c r="F64" s="69">
+        <v>0.42609999999999998</v>
+      </c>
+      <c r="G64" s="69">
+        <f t="shared" si="16"/>
+        <v>4.261E-4</v>
+      </c>
+      <c r="H64" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I64" s="69">
+        <f t="shared" si="17"/>
+        <v>2.8404905449810901E-2</v>
+      </c>
+      <c r="J64" s="69">
+        <f>SUM(I60:I64)</f>
+        <v>1.4224462471324946</v>
+      </c>
+      <c r="K64" s="174"/>
+    </row>
+    <row r="67" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B67" s="160" t="s">
+        <v>187</v>
+      </c>
+      <c r="C67" s="160"/>
+      <c r="D67" s="160"/>
+      <c r="E67" s="160"/>
+      <c r="F67" s="160"/>
+      <c r="G67" s="160"/>
+      <c r="H67" s="160"/>
+      <c r="I67" s="160"/>
+      <c r="J67" s="160"/>
+      <c r="K67" s="160"/>
+    </row>
+    <row r="68" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B68" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="C68" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="E68" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="F68" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="G68" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="H68" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="I68" s="161" t="s">
+        <v>134</v>
+      </c>
+      <c r="J68" s="161" t="s">
+        <v>135</v>
+      </c>
+      <c r="K68" s="161" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B69" s="162"/>
+      <c r="C69" s="162"/>
+      <c r="D69" s="162"/>
+      <c r="E69" s="162"/>
+      <c r="F69" s="162"/>
+      <c r="G69" s="162"/>
+      <c r="H69" s="162"/>
+      <c r="I69" s="162"/>
+      <c r="J69" s="162"/>
+      <c r="K69" s="162"/>
+    </row>
+    <row r="70" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B70" s="167" t="s">
+        <v>182</v>
+      </c>
+      <c r="C70" s="54">
+        <v>1900</v>
+      </c>
+      <c r="D70" s="78">
+        <v>127</v>
+      </c>
+      <c r="E70" s="69">
+        <f>C70/D70</f>
+        <v>14.960629921259843</v>
+      </c>
+      <c r="F70" s="69">
+        <v>9.7752999999999997</v>
+      </c>
+      <c r="G70" s="69">
+        <f>F70/1000</f>
+        <v>9.7752999999999989E-3</v>
+      </c>
+      <c r="H70" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I70" s="69">
+        <f>H70*E70*G70*100/D70</f>
+        <v>1.0317732481864963</v>
+      </c>
+      <c r="J70" s="69">
+        <f>I70</f>
+        <v>1.0317732481864963</v>
+      </c>
+      <c r="K70" s="173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B71" s="54" t="s">
+        <v>183</v>
+      </c>
+      <c r="C71" s="54">
+        <v>600</v>
+      </c>
+      <c r="D71" s="78">
+        <v>127</v>
+      </c>
+      <c r="E71" s="69">
+        <f t="shared" ref="E71:E73" si="18">C71/D71</f>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="F71" s="69">
+        <v>1.3594999999999999</v>
+      </c>
+      <c r="G71" s="69">
+        <f t="shared" ref="G71:G73" si="19">F71/1000</f>
+        <v>1.3595E-3</v>
+      </c>
+      <c r="H71" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I71" s="69">
+        <f t="shared" ref="I71:I73" si="20">H71*E71*G71*100/D71</f>
+        <v>4.5313857027714059E-2</v>
+      </c>
+      <c r="J71" s="69">
+        <f>SUM(I70:I71)</f>
+        <v>1.0770871052142104</v>
+      </c>
+      <c r="K71" s="173"/>
+    </row>
+    <row r="72" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B72" s="54" t="s">
+        <v>184</v>
+      </c>
+      <c r="C72" s="54">
+        <v>100</v>
+      </c>
+      <c r="D72" s="78">
+        <v>127</v>
+      </c>
+      <c r="E72" s="69">
+        <f t="shared" si="18"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F72" s="69">
+        <v>1.1982999999999999</v>
+      </c>
+      <c r="G72" s="69">
+        <f t="shared" si="19"/>
+        <v>1.1983E-3</v>
+      </c>
+      <c r="H72" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I72" s="69">
+        <f t="shared" si="20"/>
+        <v>6.6568094736189484E-3</v>
+      </c>
+      <c r="J72" s="69">
+        <f>SUM(I70:I72)</f>
+        <v>1.0837439146878294</v>
+      </c>
+      <c r="K72" s="173"/>
+    </row>
+    <row r="73" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B73" s="54" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" s="54">
+        <v>1200</v>
+      </c>
+      <c r="D73" s="78">
+        <v>127</v>
+      </c>
+      <c r="E73" s="69">
+        <f t="shared" si="18"/>
+        <v>9.4488188976377945</v>
+      </c>
+      <c r="F73" s="69">
+        <v>1.9548000000000001</v>
+      </c>
+      <c r="G73" s="69">
+        <f t="shared" si="19"/>
+        <v>1.9548E-3</v>
+      </c>
+      <c r="H73" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I73" s="69">
+        <f t="shared" si="20"/>
+        <v>0.13031192014384027</v>
+      </c>
+      <c r="J73" s="69">
+        <f>SUM(I70:I73)</f>
+        <v>1.2140558348316697</v>
+      </c>
+      <c r="K73" s="173"/>
+    </row>
+    <row r="76" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B76" s="160" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="160"/>
+      <c r="D76" s="160"/>
+      <c r="E76" s="160"/>
+      <c r="F76" s="160"/>
+      <c r="G76" s="160"/>
+      <c r="H76" s="160"/>
+      <c r="I76" s="160"/>
+      <c r="J76" s="160"/>
+      <c r="K76" s="160"/>
+    </row>
+    <row r="77" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B77" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="C77" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="D77" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="E77" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="F77" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="G77" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="H77" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="I77" s="161" t="s">
+        <v>134</v>
+      </c>
+      <c r="J77" s="161" t="s">
+        <v>135</v>
+      </c>
+      <c r="K77" s="161" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B78" s="162"/>
+      <c r="C78" s="162"/>
+      <c r="D78" s="162"/>
+      <c r="E78" s="162"/>
+      <c r="F78" s="162"/>
+      <c r="G78" s="162"/>
+      <c r="H78" s="162"/>
+      <c r="I78" s="162"/>
+      <c r="J78" s="162"/>
+      <c r="K78" s="162"/>
+    </row>
+    <row r="79" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B79" s="167" t="s">
+        <v>189</v>
+      </c>
+      <c r="C79" s="54">
+        <v>2500</v>
+      </c>
+      <c r="D79" s="78">
+        <v>127</v>
+      </c>
+      <c r="E79" s="69">
+        <f>C79/D79</f>
+        <v>19.685039370078741</v>
+      </c>
+      <c r="F79" s="69">
+        <v>4.6836000000000002</v>
+      </c>
+      <c r="G79" s="69">
+        <f>F79/1000</f>
+        <v>4.6836000000000004E-3</v>
+      </c>
+      <c r="H79" s="54">
+        <v>6.03</v>
+      </c>
+      <c r="I79" s="69">
+        <f>H79*E79*G79*100/D79</f>
+        <v>0.4377535495070991</v>
+      </c>
+      <c r="J79" s="69">
+        <f>I79</f>
+        <v>0.4377535495070991</v>
+      </c>
+      <c r="K79" s="171">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B80" s="54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="54">
+        <v>1200</v>
+      </c>
+      <c r="D80" s="78">
+        <v>127</v>
+      </c>
+      <c r="E80" s="69">
+        <f t="shared" ref="E80:E82" si="21">C80/D80</f>
+        <v>9.4488188976377945</v>
+      </c>
+      <c r="F80" s="69">
+        <v>1.748</v>
+      </c>
+      <c r="G80" s="69">
+        <f t="shared" ref="G80:G82" si="22">F80/1000</f>
+        <v>1.748E-3</v>
+      </c>
+      <c r="H80" s="54">
+        <v>6.03</v>
+      </c>
+      <c r="I80" s="69">
+        <f t="shared" ref="I80:I82" si="23">H80*E80*G80*100/D80</f>
+        <v>7.8421030442060877E-2</v>
+      </c>
+      <c r="J80" s="69">
+        <f>SUM(I79:I80)</f>
+        <v>0.51617457994915994</v>
+      </c>
+      <c r="K80" s="172"/>
+    </row>
+    <row r="81" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B81" s="54" t="s">
+        <v>191</v>
+      </c>
+      <c r="C81" s="54">
+        <v>700</v>
+      </c>
+      <c r="D81" s="78">
+        <v>127</v>
+      </c>
+      <c r="E81" s="69">
+        <f t="shared" si="21"/>
+        <v>5.5118110236220472</v>
+      </c>
+      <c r="F81" s="69">
+        <v>1.7113</v>
+      </c>
+      <c r="G81" s="69">
+        <f t="shared" si="22"/>
+        <v>1.7113E-3</v>
+      </c>
+      <c r="H81" s="54">
+        <v>6.03</v>
+      </c>
+      <c r="I81" s="69">
+        <f t="shared" si="23"/>
+        <v>4.4785152830305666E-2</v>
+      </c>
+      <c r="J81" s="69">
+        <f>SUM(I79:I81)</f>
+        <v>0.56095973277946565</v>
+      </c>
+      <c r="K81" s="172"/>
+    </row>
+    <row r="82" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B82" s="54" t="s">
+        <v>192</v>
+      </c>
+      <c r="C82" s="54">
+        <v>100</v>
+      </c>
+      <c r="D82" s="78">
+        <v>127</v>
+      </c>
+      <c r="E82" s="69">
+        <f t="shared" si="21"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F82" s="69">
+        <v>2.0503999999999998</v>
+      </c>
+      <c r="G82" s="69">
+        <f t="shared" si="22"/>
+        <v>2.0504E-3</v>
+      </c>
+      <c r="H82" s="54">
+        <v>6.03</v>
+      </c>
+      <c r="I82" s="69">
+        <f t="shared" si="23"/>
+        <v>7.6656407712815426E-3</v>
+      </c>
+      <c r="J82" s="69">
+        <f>SUM(I79:I82)</f>
+        <v>0.56862537355074716</v>
+      </c>
+      <c r="K82" s="172"/>
+    </row>
+    <row r="83" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B83" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83" s="54">
+        <v>600</v>
+      </c>
+      <c r="D83" s="78">
+        <v>127</v>
+      </c>
+      <c r="E83" s="69">
+        <f t="shared" ref="E83:E84" si="24">C83/D83</f>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="F83" s="69">
+        <v>2.0811999999999999</v>
+      </c>
+      <c r="G83" s="69">
+        <f t="shared" ref="G83:G84" si="25">F83/1000</f>
+        <v>2.0812000000000001E-3</v>
+      </c>
+      <c r="H83" s="54">
+        <v>6.03</v>
+      </c>
+      <c r="I83" s="69">
+        <f t="shared" ref="I83:I84" si="26">H83*E83*G83*100/D83</f>
+        <v>4.6684739289478576E-2</v>
+      </c>
+      <c r="J83" s="69">
+        <f>SUM(I79:I83)</f>
+        <v>0.61531011284022574</v>
+      </c>
+      <c r="K83" s="172"/>
+    </row>
+    <row r="84" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B84" s="54" t="s">
+        <v>193</v>
+      </c>
+      <c r="C84" s="54">
+        <v>600</v>
+      </c>
+      <c r="D84" s="78">
+        <v>127</v>
+      </c>
+      <c r="E84" s="69">
+        <f t="shared" si="24"/>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="F84" s="69">
+        <v>1.8289</v>
+      </c>
+      <c r="G84" s="69">
+        <f t="shared" si="25"/>
+        <v>1.8289000000000001E-3</v>
+      </c>
+      <c r="H84" s="54">
+        <v>6.03</v>
+      </c>
+      <c r="I84" s="69">
+        <f t="shared" si="26"/>
+        <v>4.1025235290470585E-2</v>
+      </c>
+      <c r="J84" s="69">
+        <f>SUM(I79:I84)</f>
+        <v>0.65633534813069638</v>
+      </c>
+      <c r="K84" s="174"/>
+    </row>
+    <row r="87" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B87" s="160" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="160"/>
+      <c r="D87" s="160"/>
+      <c r="E87" s="160"/>
+      <c r="F87" s="160"/>
+      <c r="G87" s="160"/>
+      <c r="H87" s="160"/>
+      <c r="I87" s="160"/>
+      <c r="J87" s="160"/>
+      <c r="K87" s="160"/>
+    </row>
+    <row r="88" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B88" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="C88" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="D88" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="E88" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="F88" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="G88" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="H88" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="I88" s="161" t="s">
+        <v>134</v>
+      </c>
+      <c r="J88" s="161" t="s">
+        <v>135</v>
+      </c>
+      <c r="K88" s="161" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B89" s="162"/>
+      <c r="C89" s="162"/>
+      <c r="D89" s="162"/>
+      <c r="E89" s="162"/>
+      <c r="F89" s="162"/>
+      <c r="G89" s="162"/>
+      <c r="H89" s="162"/>
+      <c r="I89" s="162"/>
+      <c r="J89" s="162"/>
+      <c r="K89" s="162"/>
+    </row>
+    <row r="90" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B90" s="167" t="s">
+        <v>195</v>
+      </c>
+      <c r="C90" s="54">
+        <v>2000</v>
+      </c>
+      <c r="D90" s="78">
+        <v>127</v>
+      </c>
+      <c r="E90" s="69">
+        <f>C90/D90</f>
+        <v>15.748031496062993</v>
+      </c>
+      <c r="F90" s="69">
+        <v>4.0702999999999996</v>
+      </c>
+      <c r="G90" s="69">
+        <f>F90/1000</f>
+        <v>4.0702999999999998E-3</v>
+      </c>
+      <c r="H90" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I90" s="69">
+        <f>H90*E90*G90*100/D90</f>
+        <v>0.45222751565503133</v>
+      </c>
+      <c r="J90" s="69">
+        <f>I90</f>
+        <v>0.45222751565503133</v>
+      </c>
+      <c r="K90" s="173">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B91" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C91" s="54">
+        <v>1200</v>
+      </c>
+      <c r="D91" s="78">
+        <v>127</v>
+      </c>
+      <c r="E91" s="69">
+        <f t="shared" ref="E91:E94" si="27">C91/D91</f>
+        <v>9.4488188976377945</v>
+      </c>
+      <c r="F91" s="69">
+        <v>1.1891</v>
+      </c>
+      <c r="G91" s="69">
+        <f t="shared" ref="G91:G94" si="28">F91/1000</f>
+        <v>1.1891E-3</v>
+      </c>
+      <c r="H91" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I91" s="69">
+        <f t="shared" ref="I91:I94" si="29">H91*E91*G91*100/D91</f>
+        <v>7.9268418376836763E-2</v>
+      </c>
+      <c r="J91" s="69">
+        <f>SUM(I90:I91)</f>
+        <v>0.53149593403186812</v>
+      </c>
+      <c r="K91" s="173"/>
+    </row>
+    <row r="92" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B92" s="54" t="s">
+        <v>197</v>
+      </c>
+      <c r="C92" s="54">
+        <v>700</v>
+      </c>
+      <c r="D92" s="78">
+        <v>127</v>
+      </c>
+      <c r="E92" s="69">
+        <f t="shared" si="27"/>
+        <v>5.5118110236220472</v>
+      </c>
+      <c r="F92" s="69">
+        <v>1.3409</v>
+      </c>
+      <c r="G92" s="69">
+        <f t="shared" si="28"/>
+        <v>1.3408999999999999E-3</v>
+      </c>
+      <c r="H92" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I92" s="69">
+        <f t="shared" si="29"/>
+        <v>5.2142878045756097E-2</v>
+      </c>
+      <c r="J92" s="69">
+        <f>SUM(I90:I92)</f>
+        <v>0.58363881207762425</v>
+      </c>
+      <c r="K92" s="173"/>
+    </row>
+    <row r="93" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B93" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C93" s="54">
+        <v>100</v>
+      </c>
+      <c r="D93" s="78">
+        <v>127</v>
+      </c>
+      <c r="E93" s="69">
+        <f t="shared" si="27"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F93" s="69">
+        <v>1.8905000000000001</v>
+      </c>
+      <c r="G93" s="69">
+        <f t="shared" si="28"/>
+        <v>1.8905E-3</v>
+      </c>
+      <c r="H93" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I93" s="69">
+        <f t="shared" si="29"/>
+        <v>1.050212660425321E-2</v>
+      </c>
+      <c r="J93" s="69">
+        <f>SUM(I90:I93)</f>
+        <v>0.59414093868187745</v>
+      </c>
+      <c r="K93" s="173"/>
+    </row>
+    <row r="94" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B94" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="C94" s="54">
+        <v>100</v>
+      </c>
+      <c r="D94" s="78">
+        <v>127</v>
+      </c>
+      <c r="E94" s="69">
+        <f t="shared" si="27"/>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F94" s="69">
+        <v>2.9588000000000001</v>
+      </c>
+      <c r="G94" s="69">
+        <f t="shared" si="28"/>
+        <v>2.9588000000000001E-3</v>
+      </c>
+      <c r="H94" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I94" s="69">
+        <f t="shared" si="29"/>
+        <v>1.6436758633517269E-2</v>
+      </c>
+      <c r="J94" s="69">
+        <f>SUM(I90:I94)</f>
+        <v>0.61057769731539469</v>
+      </c>
+      <c r="K94" s="173"/>
+    </row>
+    <row r="97" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B97" s="160" t="s">
+        <v>200</v>
+      </c>
+      <c r="C97" s="160"/>
+      <c r="D97" s="160"/>
+      <c r="E97" s="160"/>
+      <c r="F97" s="160"/>
+      <c r="G97" s="160"/>
+      <c r="H97" s="160"/>
+      <c r="I97" s="160"/>
+      <c r="J97" s="160"/>
+      <c r="K97" s="160"/>
+    </row>
+    <row r="98" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B98" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="C98" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="D98" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="E98" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="F98" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="G98" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="H98" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="I98" s="161" t="s">
+        <v>134</v>
+      </c>
+      <c r="J98" s="161" t="s">
+        <v>135</v>
+      </c>
+      <c r="K98" s="161" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B99" s="162"/>
+      <c r="C99" s="162"/>
+      <c r="D99" s="162"/>
+      <c r="E99" s="162"/>
+      <c r="F99" s="162"/>
+      <c r="G99" s="162"/>
+      <c r="H99" s="162"/>
+      <c r="I99" s="162"/>
+      <c r="J99" s="162"/>
+      <c r="K99" s="162"/>
+    </row>
+    <row r="100" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B100" s="167" t="s">
+        <v>203</v>
+      </c>
+      <c r="C100" s="54">
+        <v>800</v>
+      </c>
+      <c r="D100" s="78">
+        <v>127</v>
+      </c>
+      <c r="E100" s="69">
+        <f>C100/D100</f>
+        <v>6.2992125984251972</v>
+      </c>
+      <c r="F100" s="69">
+        <v>3.7176</v>
+      </c>
+      <c r="G100" s="69">
+        <f>F100/1000</f>
+        <v>3.7176000000000002E-3</v>
+      </c>
+      <c r="H100" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I100" s="69">
+        <f>H100*E100*G100*100/D100</f>
+        <v>0.16521642259284522</v>
+      </c>
+      <c r="J100" s="69">
+        <f>I100</f>
+        <v>0.16521642259284522</v>
+      </c>
+      <c r="K100" s="171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B101" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="54">
+        <v>100</v>
+      </c>
+      <c r="D101" s="78">
+        <v>127</v>
+      </c>
+      <c r="E101" s="69">
+        <f t="shared" ref="E101:E103" si="30">C101/D101</f>
+        <v>0.78740157480314965</v>
+      </c>
+      <c r="F101" s="69">
+        <v>2.0099</v>
+      </c>
+      <c r="G101" s="69">
+        <f t="shared" ref="G101:G103" si="31">F101/1000</f>
+        <v>2.0099000000000002E-3</v>
+      </c>
+      <c r="H101" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I101" s="69">
+        <f t="shared" ref="I101:I103" si="32">H101*E101*G101*100/D101</f>
+        <v>1.1165418810837624E-2</v>
+      </c>
+      <c r="J101" s="69">
+        <f>SUM(I100:I101)</f>
+        <v>0.17638184140368285</v>
+      </c>
+      <c r="K101" s="172"/>
+    </row>
+    <row r="102" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B102" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="C102" s="54">
+        <v>600</v>
+      </c>
+      <c r="D102" s="78">
+        <v>127</v>
+      </c>
+      <c r="E102" s="69">
+        <f t="shared" si="30"/>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="F102" s="69">
+        <v>2.9255</v>
+      </c>
+      <c r="G102" s="69">
+        <f t="shared" si="31"/>
+        <v>2.9255000000000001E-3</v>
+      </c>
+      <c r="H102" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I102" s="69">
+        <f t="shared" si="32"/>
+        <v>9.7510620621241245E-2</v>
+      </c>
+      <c r="J102" s="69">
+        <f>SUM(I100:I102)</f>
+        <v>0.27389246202492412</v>
+      </c>
+      <c r="K102" s="172"/>
+    </row>
+    <row r="103" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B103" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="C103" s="54">
+        <v>1200</v>
+      </c>
+      <c r="D103" s="78">
+        <v>127</v>
+      </c>
+      <c r="E103" s="69">
+        <f t="shared" si="30"/>
+        <v>9.4488188976377945</v>
+      </c>
+      <c r="F103" s="69">
+        <v>2.6255000000000002</v>
+      </c>
+      <c r="G103" s="69">
+        <f t="shared" si="31"/>
+        <v>2.6255000000000002E-3</v>
+      </c>
+      <c r="H103" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I103" s="69">
+        <f t="shared" si="32"/>
+        <v>0.17502248124496253</v>
+      </c>
+      <c r="J103" s="69">
+        <f>SUM(I100:I103)</f>
+        <v>0.44891494326988668</v>
+      </c>
+      <c r="K103" s="174"/>
+    </row>
+    <row r="106" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B106" s="160" t="s">
+        <v>205</v>
+      </c>
+      <c r="C106" s="160"/>
+      <c r="D106" s="160"/>
+      <c r="E106" s="160"/>
+      <c r="F106" s="160"/>
+      <c r="G106" s="160"/>
+      <c r="H106" s="160"/>
+      <c r="I106" s="160"/>
+      <c r="J106" s="160"/>
+      <c r="K106" s="160"/>
+    </row>
+    <row r="107" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B107" s="161" t="s">
+        <v>129</v>
+      </c>
+      <c r="C107" s="161" t="s">
+        <v>130</v>
+      </c>
+      <c r="D107" s="161" t="s">
+        <v>154</v>
+      </c>
+      <c r="E107" s="161" t="s">
+        <v>131</v>
+      </c>
+      <c r="F107" s="161" t="s">
+        <v>132</v>
+      </c>
+      <c r="G107" s="161" t="s">
+        <v>133</v>
+      </c>
+      <c r="H107" s="161" t="s">
+        <v>177</v>
+      </c>
+      <c r="I107" s="161" t="s">
+        <v>134</v>
+      </c>
+      <c r="J107" s="161" t="s">
+        <v>135</v>
+      </c>
+      <c r="K107" s="161" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="108" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B108" s="162"/>
+      <c r="C108" s="162"/>
+      <c r="D108" s="162"/>
+      <c r="E108" s="162"/>
+      <c r="F108" s="162"/>
+      <c r="G108" s="162"/>
+      <c r="H108" s="162"/>
+      <c r="I108" s="162"/>
+      <c r="J108" s="162"/>
+      <c r="K108" s="162"/>
+    </row>
+    <row r="109" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B109" s="167" t="s">
+        <v>206</v>
+      </c>
+      <c r="C109" s="54">
+        <v>1800</v>
+      </c>
+      <c r="D109" s="78">
+        <v>127</v>
+      </c>
+      <c r="E109" s="69">
+        <f>C109/D109</f>
+        <v>14.173228346456693</v>
+      </c>
+      <c r="F109" s="69">
+        <v>4.0702999999999996</v>
+      </c>
+      <c r="G109" s="69">
+        <f>F109/1000</f>
+        <v>4.0702999999999998E-3</v>
+      </c>
+      <c r="H109" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I109" s="69">
+        <f>H109*E109*G109*100/D109</f>
+        <v>0.40700476408952818</v>
+      </c>
+      <c r="J109" s="69">
+        <f>I109</f>
+        <v>0.40700476408952818</v>
+      </c>
+      <c r="K109" s="171">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="110" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B110" s="54" t="s">
+        <v>207</v>
+      </c>
+      <c r="C110" s="54">
+        <v>1200</v>
+      </c>
+      <c r="D110" s="78">
+        <v>127</v>
+      </c>
+      <c r="E110" s="69">
+        <f t="shared" ref="E110:E111" si="33">C110/D110</f>
+        <v>9.4488188976377945</v>
+      </c>
+      <c r="F110" s="69">
+        <v>1.7958000000000001</v>
+      </c>
+      <c r="G110" s="69">
+        <f t="shared" ref="G110:G111" si="34">F110/1000</f>
+        <v>1.7958E-3</v>
+      </c>
+      <c r="H110" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I110" s="69">
+        <f t="shared" ref="I110:I111" si="35">H110*E110*G110*100/D110</f>
+        <v>0.1197125773451547</v>
+      </c>
+      <c r="J110" s="69">
+        <f>SUM(I109:I110)</f>
+        <v>0.52671734143468285</v>
+      </c>
+      <c r="K110" s="172"/>
+    </row>
+    <row r="111" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B111" s="54" t="s">
+        <v>208</v>
+      </c>
+      <c r="C111" s="54">
+        <v>600</v>
+      </c>
+      <c r="D111" s="78">
+        <v>127</v>
+      </c>
+      <c r="E111" s="69">
+        <f t="shared" si="33"/>
+        <v>4.7244094488188972</v>
+      </c>
+      <c r="F111" s="69">
+        <v>4.2610000000000001</v>
+      </c>
+      <c r="G111" s="69">
+        <f t="shared" si="34"/>
+        <v>4.261E-3</v>
+      </c>
+      <c r="H111" s="54">
+        <v>8.9600000000000009</v>
+      </c>
+      <c r="I111" s="69">
+        <f t="shared" si="35"/>
+        <v>0.14202452724905451</v>
+      </c>
+      <c r="J111" s="69">
+        <f>SUM(I109:I111)</f>
+        <v>0.66874186868373742</v>
+      </c>
+      <c r="K111" s="174"/>
     </row>
   </sheetData>
-  <mergeCells count="34">
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="G7:J9"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D6:F6"/>
+  <mergeCells count="119">
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="K100:K103"/>
+    <mergeCell ref="B106:K106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="K90:K94"/>
+    <mergeCell ref="B97:K97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="B87:K87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="K79:K84"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="B67:K67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="K49:K54"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="K29:K43"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="K14:K23"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K27:K28"/>
     <mergeCell ref="B11:K11"/>
     <mergeCell ref="K12:K13"/>
     <mergeCell ref="E12:E13"/>
@@ -48640,21 +50351,17 @@
     <mergeCell ref="G12:G13"/>
     <mergeCell ref="H12:H13"/>
     <mergeCell ref="B10:H10"/>
-    <mergeCell ref="K14:K23"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K29:K43"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="G7:J9"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\GitHub\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CA4014E-0F0D-4395-B365-35D4789C56A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F771BC19-DB2D-4FA9-A9E8-BF1FEEE06775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação_Informações" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,9 @@
     <sheet name="Secção Mínima" sheetId="4" r:id="rId4"/>
     <sheet name="Capacidade de Corrente" sheetId="5" r:id="rId5"/>
     <sheet name="Limite de Queda de Tensão" sheetId="6" r:id="rId6"/>
-    <sheet name="Classif. da unidade Consumidora" sheetId="7" r:id="rId7"/>
+    <sheet name="Dimensionamento de Eletrodutos" sheetId="9" r:id="rId7"/>
+    <sheet name="Dimensionamento de Disjuntores" sheetId="10" r:id="rId8"/>
+    <sheet name="Classif. da unidade Consumidora" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="302">
   <si>
     <t>Alunos: Gabriel Schettino Lucas e Ramon Rodrigues Morello</t>
   </si>
@@ -835,22 +837,196 @@
     <t>FORNECIMENTO DE ENERGIA ELÉTRICA EM TENSÃO SECUNDÁRIA EDIFICAÇÕES INDIVIDUAIS - EDP ESPÍRITO SANTO - PT.DT.PDN.000061 - V.12 06/04/2023</t>
   </si>
   <si>
-    <t>ILUMINAÇÃO INTERNA + EXTERNA</t>
-  </si>
-  <si>
     <t>CARACTERÍSTICAS</t>
-  </si>
-  <si>
-    <t>CÁLCULO DA POTÊNCIA INSTALADA (kW)</t>
-  </si>
-  <si>
-    <t>POTÊNCIA (kW)</t>
   </si>
   <si>
     <t>POTÊNCIA (VA)</t>
   </si>
   <si>
-    <t>TUG's em função da área construida</t>
+    <t>Área coberta* = 130,13 m²</t>
+  </si>
+  <si>
+    <t>*: Área em que efetivamente há tomadas.</t>
+  </si>
+  <si>
+    <t>POTÊNCIA (W)</t>
+  </si>
+  <si>
+    <t>CÁLCULO DA POTÊNCIA INSTALADA</t>
+  </si>
+  <si>
+    <t>2900 VA</t>
+  </si>
+  <si>
+    <t>Chuveiros</t>
+  </si>
+  <si>
+    <t>Iluminação interna + externa</t>
+  </si>
+  <si>
+    <t>QUANTIDADE</t>
+  </si>
+  <si>
+    <t>Máquina de lavar</t>
+  </si>
+  <si>
+    <t>Forno microondas</t>
+  </si>
+  <si>
+    <t>Motor do portão</t>
+  </si>
+  <si>
+    <t>2625 (FP = 0.8)</t>
+  </si>
+  <si>
+    <t>TUG's em função da área construida [Tabela 2]</t>
+  </si>
+  <si>
+    <t>TUE'S [Tabelas 3,4]</t>
+  </si>
+  <si>
+    <t>1650 (FP = 0.8)</t>
+  </si>
+  <si>
+    <t>Valor da Tabela 3</t>
+  </si>
+  <si>
+    <t>Bomba da piscina (1/2 CV)</t>
+  </si>
+  <si>
+    <t>Valor da Tabela 4</t>
+  </si>
+  <si>
+    <t>DIMENSIONAMENTO DA CATEGORIA</t>
+  </si>
+  <si>
+    <t>Carga instalada (kW)</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>T1</t>
+  </si>
+  <si>
+    <t>Proteção de entrada principal</t>
+  </si>
+  <si>
+    <t>63 A</t>
+  </si>
+  <si>
+    <t>Tipo de Fornecimento</t>
+  </si>
+  <si>
+    <t>3 Fases (Neutro)</t>
+  </si>
+  <si>
+    <t>Ramal de ligação Aéreo</t>
+  </si>
+  <si>
+    <t>16 mm²</t>
+  </si>
+  <si>
+    <t>Condutor de entrada (até o medidor)</t>
+  </si>
+  <si>
+    <t>Responsabilidade da EDP</t>
+  </si>
+  <si>
+    <t>Condutor de entrada (após o medidor)</t>
+  </si>
+  <si>
+    <t>Cobre isolado 16 mm²</t>
+  </si>
+  <si>
+    <t>Condutor de entrada (Classe)</t>
+  </si>
+  <si>
+    <t>Tipo de caixa</t>
+  </si>
+  <si>
+    <t>Caixa policarbonato padrão individual</t>
+  </si>
+  <si>
+    <t>Eletroduto de entrada</t>
+  </si>
+  <si>
+    <t>PVC 50 mm ou Aço di-40 mm</t>
+  </si>
+  <si>
+    <t>Terra - condutor cobre</t>
+  </si>
+  <si>
+    <t>10 mm²</t>
+  </si>
+  <si>
+    <t>Terra - eletroduto</t>
+  </si>
+  <si>
+    <t>PVC 20 mm ou Aço di-15 mm</t>
+  </si>
+  <si>
+    <t>Motor - Maior motor</t>
+  </si>
+  <si>
+    <t>7,5 CV</t>
+  </si>
+  <si>
+    <t>Motor - Partida</t>
+  </si>
+  <si>
+    <t>C.E.T</t>
+  </si>
+  <si>
+    <t>As tabelas demonstadas nessa planinha foram tiradas do arquivo citado no hiperlink ao lado.</t>
+  </si>
+  <si>
+    <t>RAMAL DE LIGAÇÃO, POSTES E PONTALETES</t>
+  </si>
+  <si>
+    <t>Tipo de fornecimento</t>
+  </si>
+  <si>
+    <t>T1,T2</t>
+  </si>
+  <si>
+    <t>Ramal de ligação (Multiplex)</t>
+  </si>
+  <si>
+    <t>Q16 e Q25 (mm²)</t>
+  </si>
+  <si>
+    <t>Engastamento</t>
+  </si>
+  <si>
+    <t>Nota 3</t>
+  </si>
+  <si>
+    <t>Diâmetro para engastamento e Concretagem de base do poste</t>
+  </si>
+  <si>
+    <t>Base + 0,3</t>
+  </si>
+  <si>
+    <t>Poste de aço Galvanizado Altura 7,0 m:    Diamentro externo (pol) x Espessura (mm)</t>
+  </si>
+  <si>
+    <t>76 (3") x 3,35</t>
+  </si>
+  <si>
+    <t>CIRCUITO 22: ALIMENTADOR</t>
+  </si>
+  <si>
+    <t>MEDIDOR - QDC</t>
+  </si>
+  <si>
+    <t>FASE: 35</t>
+  </si>
+  <si>
+    <t>NEUTRO: 25</t>
+  </si>
+  <si>
+    <t>PE: 25</t>
   </si>
 </sst>
 </file>
@@ -861,11 +1037,18 @@
     <numFmt numFmtId="164" formatCode="0.0000"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1040,8 +1223,14 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1090,8 +1279,14 @@
         <bgColor rgb="FFCFE2F3"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="48">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -1552,43 +1747,6 @@
       </left>
       <right/>
       <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -1623,275 +1781,279 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="198">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="10" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="11" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="19" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1900,278 +2062,335 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="21" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="16" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="7" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="17" fillId="5" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="40" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="36" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="31" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="37" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="41" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="18" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2305,6 +2524,203 @@
         <a:xfrm>
           <a:off x="16562294" y="582706"/>
           <a:ext cx="7758393" cy="4541711"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>33131</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>41412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>28435</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>186977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9A03C8E-488C-ACA2-B604-D5A4749DDA32}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9781761" y="1432890"/>
+          <a:ext cx="5760000" cy="4320000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>41412</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57978</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>36716</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>203543</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Imagem 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AFEE0708-385C-BD18-97A2-BE7227361B8C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9790042" y="6087717"/>
+          <a:ext cx="5760000" cy="4320000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="38100" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="000000"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="50800" dist="38100" dir="2700000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="43000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>57980</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>215347</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>53284</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>104738</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Imagem 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0227B3E0-DE6D-C092-52AA-AA606B0158C9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0">
+          <a:picLocks/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9806610" y="10651434"/>
+          <a:ext cx="5760000" cy="3600000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2531,27 +2947,29 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9:C9"/>
+      <selection activeCell="E7" sqref="E7:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="9.140625" customWidth="1"/>
-    <col min="2" max="7" width="22.7109375" customWidth="1"/>
+    <col min="2" max="5" width="22.7109375" customWidth="1"/>
+    <col min="6" max="6" width="25.7109375" customWidth="1"/>
+    <col min="7" max="7" width="22.7109375" customWidth="1"/>
     <col min="8" max="9" width="9.140625" customWidth="1"/>
     <col min="10" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="73" t="s">
+      <c r="B1" s="86" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="74"/>
-      <c r="D1" s="74"/>
-      <c r="E1" s="74"/>
-      <c r="F1" s="74"/>
-      <c r="G1" s="75"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="88"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2574,14 +2992,14 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="76" t="s">
+      <c r="B2" s="89" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="75"/>
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="87"/>
+      <c r="F2" s="87"/>
+      <c r="G2" s="88"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -2632,15 +3050,15 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="77" t="s">
+      <c r="B4" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="78"/>
+      <c r="C4" s="91"/>
       <c r="D4" s="72"/>
-      <c r="E4" s="77" t="s">
+      <c r="E4" s="90" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="78"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="72"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
@@ -2707,7 +3125,7 @@
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="71" t="s">
+      <c r="E6" s="196" t="s">
         <v>8</v>
       </c>
       <c r="F6" s="72"/>
@@ -2836,11 +3254,11 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="65" t="s">
+      <c r="B10" s="92" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="66"/>
-      <c r="D10" s="69" t="s">
+      <c r="C10" s="83"/>
+      <c r="D10" s="94" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="71"/>
@@ -2868,9 +3286,9 @@
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="67"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="70"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="71"/>
       <c r="F11" s="72"/>
       <c r="G11" s="3"/>
@@ -2924,11 +3342,11 @@
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="84"/>
-      <c r="C13" s="85"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="84"/>
-      <c r="F13" s="85"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -3036,14 +3454,14 @@
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="86" t="s">
+      <c r="B17" s="81" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="87"/>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="66"/>
+      <c r="C17" s="82"/>
+      <c r="D17" s="82"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="83"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3066,14 +3484,14 @@
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="88" t="s">
+      <c r="B18" s="84" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="80"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="80"/>
-      <c r="G18" s="81"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="75"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3096,14 +3514,14 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="79" t="s">
+      <c r="B19" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="80"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="80"/>
-      <c r="G19" s="81"/>
+      <c r="C19" s="74"/>
+      <c r="D19" s="74"/>
+      <c r="E19" s="74"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="75"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3126,14 +3544,14 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="79" t="s">
+      <c r="B20" s="73" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="80"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="80"/>
-      <c r="G20" s="81"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="75"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3156,14 +3574,14 @@
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="89" t="s">
+      <c r="B21" s="85" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="80"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="80"/>
-      <c r="G21" s="81"/>
+      <c r="C21" s="74"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="75"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3186,14 +3604,14 @@
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="79" t="s">
+      <c r="B22" s="73" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="80"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="80"/>
-      <c r="G22" s="81"/>
+      <c r="C22" s="74"/>
+      <c r="D22" s="74"/>
+      <c r="E22" s="74"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="75"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3216,12 +3634,12 @@
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="79"/>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
-      <c r="G23" s="81"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="75"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3244,14 +3662,14 @@
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="82" t="s">
+      <c r="B24" s="76" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="83"/>
-      <c r="D24" s="83"/>
-      <c r="E24" s="83"/>
-      <c r="F24" s="83"/>
-      <c r="G24" s="68"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="78"/>
       <c r="H24" s="1"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1"/>
@@ -9650,6 +10068,24 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
@@ -9664,24 +10100,6 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -9735,19 +10153,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="98" t="s">
+      <c r="B2" s="104" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="87"/>
-      <c r="H2" s="87"/>
-      <c r="I2" s="87"/>
-      <c r="J2" s="87"/>
-      <c r="K2" s="87"/>
-      <c r="L2" s="66"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="82"/>
+      <c r="H2" s="82"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="83"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -9765,17 +10183,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="83"/>
-      <c r="D3" s="83"/>
-      <c r="E3" s="83"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="83"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="83"/>
-      <c r="K3" s="83"/>
-      <c r="L3" s="68"/>
+      <c r="B3" s="93"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="78"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -9793,24 +10211,24 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="105" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="100" t="s">
+      <c r="C4" s="106" t="s">
         <v>27</v>
       </c>
       <c r="D4" s="72"/>
-      <c r="E4" s="100" t="s">
+      <c r="E4" s="106" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="78"/>
+      <c r="F4" s="91"/>
       <c r="G4" s="72"/>
-      <c r="H4" s="101" t="s">
+      <c r="H4" s="107" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="78"/>
+      <c r="I4" s="91"/>
       <c r="J4" s="72"/>
-      <c r="K4" s="101" t="s">
+      <c r="K4" s="107" t="s">
         <v>30</v>
       </c>
       <c r="L4" s="72"/>
@@ -9831,7 +10249,7 @@
     </row>
     <row r="5" spans="1:26" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="70"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
@@ -9979,35 +10397,35 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="95" t="s">
+      <c r="B8" s="111" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="97">
+      <c r="C8" s="113">
         <v>17.579999999999998</v>
       </c>
-      <c r="D8" s="97">
+      <c r="D8" s="113">
         <v>23.9</v>
       </c>
-      <c r="E8" s="93">
+      <c r="E8" s="99">
         <v>3</v>
       </c>
-      <c r="F8" s="93">
+      <c r="F8" s="99">
         <v>100</v>
       </c>
-      <c r="G8" s="91">
+      <c r="G8" s="109">
         <v>300</v>
       </c>
-      <c r="H8" s="91">
+      <c r="H8" s="109">
         <v>4</v>
       </c>
-      <c r="I8" s="93" t="s">
+      <c r="I8" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="93">
+      <c r="J8" s="99">
         <v>200</v>
       </c>
-      <c r="K8" s="93"/>
-      <c r="L8" s="93"/>
+      <c r="K8" s="99"/>
+      <c r="L8" s="99"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -10025,17 +10443,17 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="96"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="92"/>
-      <c r="H9" s="92"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="94"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="110"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="100"/>
+      <c r="J9" s="100"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="100"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -10648,9 +11066,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="105"/>
-      <c r="K22" s="87"/>
-      <c r="L22" s="87"/>
+      <c r="J22" s="101"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -10668,13 +11086,13 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="90" t="s">
+      <c r="B23" s="108" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="80"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="80"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
+      <c r="F23" s="74"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -10733,9 +11151,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="106"/>
-      <c r="K25" s="80"/>
-      <c r="L25" s="80"/>
+      <c r="J25" s="102"/>
+      <c r="K25" s="74"/>
+      <c r="L25" s="74"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -10753,20 +11171,20 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="90" t="s">
+      <c r="B26" s="108" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="74"/>
+      <c r="E26" s="74"/>
+      <c r="F26" s="74"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="80"/>
-      <c r="L26" s="80"/>
-      <c r="M26" s="102"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="74"/>
+      <c r="L26" s="74"/>
+      <c r="M26" s="96"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -10791,10 +11209,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="80"/>
-      <c r="L27" s="80"/>
-      <c r="M27" s="80"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="74"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="74"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -10819,12 +11237,12 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="80"/>
-      <c r="L28" s="80"/>
-      <c r="M28" s="107"/>
-      <c r="N28" s="80"/>
-      <c r="O28" s="80"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="74"/>
+      <c r="L28" s="74"/>
+      <c r="M28" s="103"/>
+      <c r="N28" s="74"/>
+      <c r="O28" s="74"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -10847,12 +11265,12 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="80"/>
-      <c r="L29" s="80"/>
-      <c r="M29" s="80"/>
-      <c r="N29" s="80"/>
-      <c r="O29" s="80"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="74"/>
+      <c r="L29" s="74"/>
+      <c r="M29" s="74"/>
+      <c r="N29" s="74"/>
+      <c r="O29" s="74"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -10875,10 +11293,10 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="80"/>
-      <c r="L30" s="80"/>
-      <c r="M30" s="102"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="74"/>
+      <c r="L30" s="74"/>
+      <c r="M30" s="96"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -10903,10 +11321,10 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="80"/>
-      <c r="L31" s="80"/>
-      <c r="M31" s="80"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="74"/>
+      <c r="L31" s="74"/>
+      <c r="M31" s="74"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -10931,9 +11349,9 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="104"/>
-      <c r="K32" s="80"/>
-      <c r="L32" s="80"/>
+      <c r="J32" s="98"/>
+      <c r="K32" s="74"/>
+      <c r="L32" s="74"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -10959,9 +11377,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="80"/>
-      <c r="K33" s="80"/>
-      <c r="L33" s="80"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="74"/>
+      <c r="L33" s="74"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -10987,9 +11405,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="80"/>
-      <c r="K34" s="80"/>
-      <c r="L34" s="80"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="74"/>
+      <c r="L34" s="74"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -17157,6 +17575,23 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="J32:L34"/>
@@ -17171,23 +17606,6 @@
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="J31:L31"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -17198,8 +17616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AA1005"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q26" sqref="Q26:Q28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -17273,20 +17691,20 @@
     </row>
     <row r="3" spans="1:27" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="108" t="s">
+      <c r="B3" s="117" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="109" t="s">
+      <c r="C3" s="118" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="111" t="s">
+      <c r="D3" s="120" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="112"/>
-      <c r="F3" s="111" t="s">
+      <c r="E3" s="121"/>
+      <c r="F3" s="120" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="112"/>
+      <c r="G3" s="121"/>
       <c r="H3" s="35" t="s">
         <v>30</v>
       </c>
@@ -17299,20 +17717,20 @@
       <c r="K3" s="27" t="s">
         <v>71</v>
       </c>
-      <c r="L3" s="169" t="s">
+      <c r="L3" s="69" t="s">
         <v>230</v>
       </c>
-      <c r="M3" s="169" t="s">
+      <c r="M3" s="69" t="s">
         <v>228</v>
       </c>
-      <c r="N3" s="169" t="s">
+      <c r="N3" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="O3" s="171" t="s">
+      <c r="O3" s="114" t="s">
         <v>232</v>
       </c>
-      <c r="P3" s="172"/>
-      <c r="Q3" s="173"/>
+      <c r="P3" s="115"/>
+      <c r="Q3" s="116"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -17326,8 +17744,8 @@
     </row>
     <row r="4" spans="1:27" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="70"/>
-      <c r="C4" s="110"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="119"/>
       <c r="D4" s="35" t="s">
         <v>72</v>
       </c>
@@ -17352,22 +17770,22 @@
       <c r="K4" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="169" t="s">
+      <c r="L4" s="69" t="s">
         <v>114</v>
       </c>
-      <c r="M4" s="169" t="s">
+      <c r="M4" s="69" t="s">
         <v>229</v>
       </c>
-      <c r="N4" s="169" t="s">
+      <c r="N4" s="69" t="s">
         <v>77</v>
       </c>
-      <c r="O4" s="169" t="s">
+      <c r="O4" s="69" t="s">
         <v>233</v>
       </c>
-      <c r="P4" s="169" t="s">
+      <c r="P4" s="69" t="s">
         <v>234</v>
       </c>
-      <c r="Q4" s="169" t="s">
+      <c r="Q4" s="69" t="s">
         <v>235</v>
       </c>
       <c r="R4" s="1"/>
@@ -18336,39 +18754,39 @@
     </row>
     <row r="25" spans="1:27" ht="19.5" customHeight="1">
       <c r="A25" s="1"/>
-      <c r="B25" s="163">
+      <c r="B25" s="65">
         <v>21</v>
       </c>
-      <c r="C25" s="164" t="s">
+      <c r="C25" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="36"/>
-      <c r="E25" s="36"/>
-      <c r="F25" s="36"/>
-      <c r="G25" s="36">
+      <c r="D25" s="211"/>
+      <c r="E25" s="211"/>
+      <c r="F25" s="211"/>
+      <c r="G25" s="211">
         <v>1</v>
       </c>
-      <c r="H25" s="40"/>
-      <c r="I25" s="165">
+      <c r="H25" s="212"/>
+      <c r="I25" s="67">
         <v>600</v>
       </c>
-      <c r="J25" s="163">
+      <c r="J25" s="65">
         <v>127</v>
       </c>
-      <c r="K25" s="166">
+      <c r="K25" s="68">
         <f t="shared" si="1"/>
         <v>4.7244094488188972</v>
       </c>
-      <c r="L25" s="166">
+      <c r="L25" s="68">
         <v>0.8</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M25" s="68">
         <v>2.5</v>
       </c>
-      <c r="N25" s="14"/>
-      <c r="O25" s="14"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="14"/>
+      <c r="N25" s="68"/>
+      <c r="O25" s="68"/>
+      <c r="P25" s="68"/>
+      <c r="Q25" s="68"/>
       <c r="R25" s="1"/>
       <c r="S25" s="1"/>
       <c r="T25" s="1"/>
@@ -18382,36 +18800,38 @@
     </row>
     <row r="26" spans="1:27" ht="19.5" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="44">
+      <c r="B26" s="213">
         <v>22</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="213" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="167"/>
-      <c r="E26" s="167"/>
-      <c r="F26" s="167"/>
-      <c r="G26" s="167"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="44">
+      <c r="D26" s="214"/>
+      <c r="E26" s="214"/>
+      <c r="F26" s="214"/>
+      <c r="G26" s="214"/>
+      <c r="H26" s="214"/>
+      <c r="I26" s="213">
         <f>SUM(I5:I25)</f>
         <v>38685</v>
       </c>
-      <c r="J26" s="44">
+      <c r="J26" s="213">
         <v>380</v>
       </c>
-      <c r="K26" s="46">
+      <c r="K26" s="215">
         <f>SUM(K5:K25)</f>
         <v>242.07927702219044</v>
       </c>
-      <c r="L26" s="46">
+      <c r="L26" s="215">
         <v>0.8</v>
       </c>
-      <c r="M26" s="170"/>
+      <c r="M26" s="46" t="s">
+        <v>299</v>
+      </c>
       <c r="N26" s="46"/>
-      <c r="O26" s="174"/>
-      <c r="P26" s="175"/>
-      <c r="Q26" s="176"/>
+      <c r="O26" s="216"/>
+      <c r="P26" s="216"/>
+      <c r="Q26" s="216"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -18425,22 +18845,24 @@
     </row>
     <row r="27" spans="1:27" ht="19.5" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1"/>
-      <c r="J27" s="1"/>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="1"/>
-      <c r="Q27" s="1"/>
+      <c r="B27" s="213"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="214"/>
+      <c r="E27" s="214"/>
+      <c r="F27" s="214"/>
+      <c r="G27" s="214"/>
+      <c r="H27" s="214"/>
+      <c r="I27" s="213"/>
+      <c r="J27" s="213"/>
+      <c r="K27" s="215"/>
+      <c r="L27" s="215"/>
+      <c r="M27" s="46" t="s">
+        <v>300</v>
+      </c>
+      <c r="N27" s="46"/>
+      <c r="O27" s="217"/>
+      <c r="P27" s="217"/>
+      <c r="Q27" s="217"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -18454,22 +18876,24 @@
     </row>
     <row r="28" spans="1:27" ht="19.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1"/>
-      <c r="J28" s="1"/>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="1"/>
-      <c r="Q28" s="1"/>
+      <c r="B28" s="213"/>
+      <c r="C28" s="213"/>
+      <c r="D28" s="214"/>
+      <c r="E28" s="214"/>
+      <c r="F28" s="214"/>
+      <c r="G28" s="214"/>
+      <c r="H28" s="214"/>
+      <c r="I28" s="213"/>
+      <c r="J28" s="213"/>
+      <c r="K28" s="215"/>
+      <c r="L28" s="215"/>
+      <c r="M28" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="N28" s="46"/>
+      <c r="O28" s="218"/>
+      <c r="P28" s="218"/>
+      <c r="Q28" s="218"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -46815,13 +47239,22 @@
       <c r="AA1005" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="15">
+    <mergeCell ref="O26:O28"/>
+    <mergeCell ref="P26:P28"/>
+    <mergeCell ref="Q26:Q28"/>
     <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="O26:Q26"/>
     <mergeCell ref="B3:B4"/>
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="F3:G3"/>
+    <mergeCell ref="L26:L28"/>
+    <mergeCell ref="K26:K28"/>
+    <mergeCell ref="J26:J28"/>
+    <mergeCell ref="I26:I28"/>
+    <mergeCell ref="D26:H28"/>
+    <mergeCell ref="C26:C28"/>
+    <mergeCell ref="B26:B28"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -46846,20 +47279,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="111" t="s">
+      <c r="B4" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="111" t="s">
+      <c r="C4" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="113" t="s">
+      <c r="D4" s="122" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="114"/>
+      <c r="B5" s="121"/>
+      <c r="C5" s="121"/>
+      <c r="D5" s="123"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="36">
@@ -47108,7 +47541,7 @@
   <dimension ref="A2:Q63"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="P28" sqref="P28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -47126,90 +47559,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="111" t="s">
+      <c r="B2" s="120" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="111" t="s">
+      <c r="C2" s="120" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="124" t="s">
+      <c r="D2" s="125" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="125"/>
-      <c r="F2" s="124" t="s">
+      <c r="E2" s="126"/>
+      <c r="F2" s="125" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="125"/>
-      <c r="H2" s="130" t="s">
+      <c r="G2" s="126"/>
+      <c r="H2" s="131" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="111" t="s">
+      <c r="I2" s="120" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="111" t="s">
+      <c r="J2" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="113" t="s">
+      <c r="K2" s="122" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="113" t="s">
+      <c r="L2" s="122" t="s">
         <v>115</v>
       </c>
-      <c r="M2" s="113" t="s">
+      <c r="M2" s="122" t="s">
         <v>116</v>
       </c>
-      <c r="N2" s="113" t="s">
+      <c r="N2" s="122" t="s">
         <v>117</v>
       </c>
-      <c r="O2" s="113" t="s">
+      <c r="O2" s="122" t="s">
         <v>119</v>
       </c>
-      <c r="P2" s="113" t="s">
+      <c r="P2" s="122" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="113" t="s">
+      <c r="Q2" s="122" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="111"/>
-      <c r="C3" s="111"/>
-      <c r="D3" s="126"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="126"/>
-      <c r="G3" s="127"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="113"/>
-      <c r="L3" s="113"/>
-      <c r="M3" s="113"/>
-      <c r="N3" s="113"/>
-      <c r="O3" s="113"/>
-      <c r="P3" s="113"/>
-      <c r="Q3" s="113"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="132"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="122"/>
+      <c r="L3" s="122"/>
+      <c r="M3" s="122"/>
+      <c r="N3" s="122"/>
+      <c r="O3" s="122"/>
+      <c r="P3" s="122"/>
+      <c r="Q3" s="122"/>
     </row>
     <row r="4" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B4" s="111"/>
-      <c r="C4" s="111"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="111"/>
-      <c r="J4" s="111"/>
-      <c r="K4" s="113"/>
-      <c r="L4" s="113"/>
-      <c r="M4" s="113"/>
-      <c r="N4" s="113"/>
-      <c r="O4" s="113"/>
-      <c r="P4" s="113"/>
-      <c r="Q4" s="113"/>
+      <c r="B4" s="120"/>
+      <c r="C4" s="120"/>
+      <c r="D4" s="129"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="133"/>
+      <c r="I4" s="120"/>
+      <c r="J4" s="120"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="122"/>
+      <c r="M4" s="122"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="122"/>
+      <c r="P4" s="122"/>
+      <c r="Q4" s="122"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="111"/>
-      <c r="C5" s="111"/>
+      <c r="B5" s="120"/>
+      <c r="C5" s="120"/>
       <c r="D5" s="35" t="s">
         <v>72</v>
       </c>
@@ -47384,7 +47817,7 @@
         <v>1</v>
       </c>
       <c r="O8" s="39">
-        <f t="shared" ref="O8:O26" si="2">K8/L8*M8*N8</f>
+        <f t="shared" ref="O8:O27" si="2">K8/L8*M8*N8</f>
         <v>27.559055118110237</v>
       </c>
       <c r="P8" s="39">
@@ -48226,116 +48659,134 @@
         <f>SUM(I6:I26)</f>
         <v>38685</v>
       </c>
-      <c r="J27" s="44"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="46"/>
-      <c r="M27" s="46"/>
-      <c r="N27" s="46"/>
-      <c r="O27" s="46"/>
-      <c r="P27" s="46"/>
-      <c r="Q27" s="46"/>
+      <c r="J27" s="44">
+        <v>380</v>
+      </c>
+      <c r="K27" s="46">
+        <f>I27/J27</f>
+        <v>101.80263157894737</v>
+      </c>
+      <c r="L27" s="46">
+        <v>1</v>
+      </c>
+      <c r="M27" s="46">
+        <v>1</v>
+      </c>
+      <c r="N27" s="46">
+        <v>1</v>
+      </c>
+      <c r="O27" s="46">
+        <f t="shared" si="2"/>
+        <v>101.80263157894737</v>
+      </c>
+      <c r="P27" s="46">
+        <v>110</v>
+      </c>
+      <c r="Q27" s="46">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B29" s="121" t="s">
+      <c r="B29" s="141" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="122"/>
-      <c r="D29" s="122"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="122"/>
-      <c r="G29" s="122"/>
-      <c r="H29" s="122"/>
-      <c r="I29" s="122"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="122"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="122"/>
-      <c r="O29" s="123"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="142"/>
+      <c r="I29" s="142"/>
+      <c r="J29" s="142"/>
+      <c r="K29" s="142"/>
+      <c r="L29" s="142"/>
+      <c r="M29" s="142"/>
+      <c r="N29" s="142"/>
+      <c r="O29" s="143"/>
     </row>
     <row r="30" spans="2:17" s="43" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B30" s="115" t="s">
+      <c r="B30" s="135" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="116"/>
-      <c r="D30" s="116"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="116"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="116"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="116"/>
-      <c r="M30" s="116"/>
-      <c r="N30" s="116"/>
-      <c r="O30" s="117"/>
+      <c r="C30" s="136"/>
+      <c r="D30" s="136"/>
+      <c r="E30" s="136"/>
+      <c r="F30" s="136"/>
+      <c r="G30" s="136"/>
+      <c r="H30" s="136"/>
+      <c r="I30" s="136"/>
+      <c r="J30" s="136"/>
+      <c r="K30" s="136"/>
+      <c r="L30" s="136"/>
+      <c r="M30" s="136"/>
+      <c r="N30" s="136"/>
+      <c r="O30" s="137"/>
     </row>
     <row r="31" spans="2:17" s="43" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B31" s="115" t="s">
+      <c r="B31" s="135" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="116"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="116"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="116"/>
-      <c r="M31" s="116"/>
-      <c r="N31" s="116"/>
-      <c r="O31" s="117"/>
+      <c r="C31" s="136"/>
+      <c r="D31" s="136"/>
+      <c r="E31" s="136"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="136"/>
+      <c r="H31" s="136"/>
+      <c r="I31" s="136"/>
+      <c r="J31" s="136"/>
+      <c r="K31" s="136"/>
+      <c r="L31" s="136"/>
+      <c r="M31" s="136"/>
+      <c r="N31" s="136"/>
+      <c r="O31" s="137"/>
     </row>
     <row r="32" spans="2:17" s="43" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B32" s="115"/>
-      <c r="C32" s="116"/>
-      <c r="D32" s="116"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="116"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="116"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="116"/>
-      <c r="M32" s="116"/>
-      <c r="N32" s="116"/>
-      <c r="O32" s="117"/>
+      <c r="B32" s="135"/>
+      <c r="C32" s="136"/>
+      <c r="D32" s="136"/>
+      <c r="E32" s="136"/>
+      <c r="F32" s="136"/>
+      <c r="G32" s="136"/>
+      <c r="H32" s="136"/>
+      <c r="I32" s="136"/>
+      <c r="J32" s="136"/>
+      <c r="K32" s="136"/>
+      <c r="L32" s="136"/>
+      <c r="M32" s="136"/>
+      <c r="N32" s="136"/>
+      <c r="O32" s="137"/>
     </row>
     <row r="33" spans="1:16" s="43" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B33" s="115"/>
-      <c r="C33" s="116"/>
-      <c r="D33" s="116"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="116"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="116"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="116"/>
-      <c r="M33" s="116"/>
-      <c r="N33" s="116"/>
-      <c r="O33" s="117"/>
+      <c r="B33" s="135"/>
+      <c r="C33" s="136"/>
+      <c r="D33" s="136"/>
+      <c r="E33" s="136"/>
+      <c r="F33" s="136"/>
+      <c r="G33" s="136"/>
+      <c r="H33" s="136"/>
+      <c r="I33" s="136"/>
+      <c r="J33" s="136"/>
+      <c r="K33" s="136"/>
+      <c r="L33" s="136"/>
+      <c r="M33" s="136"/>
+      <c r="N33" s="136"/>
+      <c r="O33" s="137"/>
     </row>
     <row r="34" spans="1:16" s="43" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B34" s="118"/>
-      <c r="C34" s="119"/>
-      <c r="D34" s="119"/>
-      <c r="E34" s="119"/>
-      <c r="F34" s="119"/>
-      <c r="G34" s="119"/>
-      <c r="H34" s="119"/>
-      <c r="I34" s="119"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="119"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="119"/>
-      <c r="O34" s="120"/>
+      <c r="B34" s="138"/>
+      <c r="C34" s="139"/>
+      <c r="D34" s="139"/>
+      <c r="E34" s="139"/>
+      <c r="F34" s="139"/>
+      <c r="G34" s="139"/>
+      <c r="H34" s="139"/>
+      <c r="I34" s="139"/>
+      <c r="J34" s="139"/>
+      <c r="K34" s="139"/>
+      <c r="L34" s="139"/>
+      <c r="M34" s="139"/>
+      <c r="N34" s="139"/>
+      <c r="O34" s="140"/>
     </row>
     <row r="35" spans="1:16" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="B35" s="62"/>
@@ -48354,16 +48805,16 @@
       <c r="O35" s="62"/>
     </row>
     <row r="36" spans="1:16" s="43" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B36" s="133" t="s">
+      <c r="B36" s="134" t="s">
         <v>211</v>
       </c>
-      <c r="C36" s="133"/>
-      <c r="D36" s="133"/>
-      <c r="E36" s="133"/>
-      <c r="F36" s="133"/>
-      <c r="G36" s="133"/>
-      <c r="H36" s="133"/>
-      <c r="I36" s="133"/>
+      <c r="C36" s="134"/>
+      <c r="D36" s="134"/>
+      <c r="E36" s="134"/>
+      <c r="F36" s="134"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="134"/>
+      <c r="I36" s="134"/>
       <c r="J36" s="62"/>
       <c r="K36" s="62"/>
       <c r="L36" s="62"/>
@@ -48388,283 +48839,283 @@
       <c r="O37" s="47"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="134"/>
-      <c r="B38" s="134"/>
-      <c r="C38" s="134"/>
-      <c r="D38" s="134"/>
-      <c r="E38" s="134"/>
-      <c r="F38" s="134"/>
-      <c r="G38" s="134"/>
-      <c r="H38" s="134"/>
-      <c r="I38" s="134"/>
-      <c r="J38" s="134"/>
-      <c r="K38" s="134"/>
-      <c r="L38" s="134"/>
-      <c r="M38" s="134"/>
-      <c r="N38" s="134"/>
+      <c r="A38" s="124"/>
+      <c r="B38" s="124"/>
+      <c r="C38" s="124"/>
+      <c r="D38" s="124"/>
+      <c r="E38" s="124"/>
+      <c r="F38" s="124"/>
+      <c r="G38" s="124"/>
+      <c r="H38" s="124"/>
+      <c r="I38" s="124"/>
+      <c r="J38" s="124"/>
+      <c r="K38" s="124"/>
+      <c r="L38" s="124"/>
+      <c r="M38" s="124"/>
+      <c r="N38" s="124"/>
       <c r="O38" s="42"/>
     </row>
     <row r="39" spans="1:16" ht="47.25" customHeight="1">
-      <c r="A39" s="134"/>
-      <c r="B39" s="134"/>
-      <c r="C39" s="134"/>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="134"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
-      <c r="K39" s="134"/>
-      <c r="L39" s="134"/>
-      <c r="M39" s="134"/>
-      <c r="N39" s="134"/>
+      <c r="A39" s="124"/>
+      <c r="B39" s="124"/>
+      <c r="C39" s="124"/>
+      <c r="D39" s="124"/>
+      <c r="E39" s="124"/>
+      <c r="F39" s="124"/>
+      <c r="G39" s="124"/>
+      <c r="H39" s="124"/>
+      <c r="I39" s="124"/>
+      <c r="J39" s="124"/>
+      <c r="K39" s="124"/>
+      <c r="L39" s="124"/>
+      <c r="M39" s="124"/>
+      <c r="N39" s="124"/>
       <c r="O39" s="42"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="134"/>
-      <c r="B40" s="134"/>
-      <c r="C40" s="134"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="134"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="134"/>
-      <c r="H40" s="134"/>
-      <c r="I40" s="134"/>
-      <c r="J40" s="134"/>
-      <c r="K40" s="134"/>
-      <c r="L40" s="134"/>
-      <c r="M40" s="134"/>
-      <c r="N40" s="134"/>
+      <c r="A40" s="124"/>
+      <c r="B40" s="124"/>
+      <c r="C40" s="124"/>
+      <c r="D40" s="124"/>
+      <c r="E40" s="124"/>
+      <c r="F40" s="124"/>
+      <c r="G40" s="124"/>
+      <c r="H40" s="124"/>
+      <c r="I40" s="124"/>
+      <c r="J40" s="124"/>
+      <c r="K40" s="124"/>
+      <c r="L40" s="124"/>
+      <c r="M40" s="124"/>
+      <c r="N40" s="124"/>
       <c r="O40" s="42"/>
     </row>
     <row r="41" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A41" s="134"/>
-      <c r="B41" s="134"/>
-      <c r="C41" s="134"/>
-      <c r="D41" s="134"/>
-      <c r="E41" s="134"/>
-      <c r="F41" s="134"/>
-      <c r="G41" s="134"/>
-      <c r="H41" s="134"/>
-      <c r="I41" s="134"/>
-      <c r="J41" s="134"/>
-      <c r="K41" s="134"/>
-      <c r="L41" s="134"/>
-      <c r="M41" s="134"/>
-      <c r="N41" s="134"/>
+      <c r="A41" s="124"/>
+      <c r="B41" s="124"/>
+      <c r="C41" s="124"/>
+      <c r="D41" s="124"/>
+      <c r="E41" s="124"/>
+      <c r="F41" s="124"/>
+      <c r="G41" s="124"/>
+      <c r="H41" s="124"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="124"/>
+      <c r="K41" s="124"/>
+      <c r="L41" s="124"/>
+      <c r="M41" s="124"/>
+      <c r="N41" s="124"/>
       <c r="O41" s="42"/>
     </row>
     <row r="42" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A42" s="134"/>
-      <c r="B42" s="134"/>
-      <c r="C42" s="134"/>
-      <c r="D42" s="134"/>
-      <c r="E42" s="134"/>
-      <c r="F42" s="134"/>
-      <c r="G42" s="134"/>
-      <c r="H42" s="134"/>
-      <c r="I42" s="134"/>
-      <c r="J42" s="134"/>
-      <c r="K42" s="134"/>
-      <c r="L42" s="134"/>
-      <c r="M42" s="134"/>
-      <c r="N42" s="134"/>
+      <c r="A42" s="124"/>
+      <c r="B42" s="124"/>
+      <c r="C42" s="124"/>
+      <c r="D42" s="124"/>
+      <c r="E42" s="124"/>
+      <c r="F42" s="124"/>
+      <c r="G42" s="124"/>
+      <c r="H42" s="124"/>
+      <c r="I42" s="124"/>
+      <c r="J42" s="124"/>
+      <c r="K42" s="124"/>
+      <c r="L42" s="124"/>
+      <c r="M42" s="124"/>
+      <c r="N42" s="124"/>
       <c r="O42" s="42"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="134"/>
-      <c r="B43" s="134"/>
-      <c r="C43" s="134"/>
-      <c r="D43" s="134"/>
-      <c r="E43" s="134"/>
-      <c r="F43" s="134"/>
-      <c r="G43" s="134"/>
-      <c r="H43" s="134"/>
-      <c r="I43" s="134"/>
-      <c r="J43" s="134"/>
-      <c r="K43" s="134"/>
-      <c r="L43" s="134"/>
-      <c r="M43" s="134"/>
-      <c r="N43" s="134"/>
+      <c r="A43" s="124"/>
+      <c r="B43" s="124"/>
+      <c r="C43" s="124"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="124"/>
+      <c r="G43" s="124"/>
+      <c r="H43" s="124"/>
+      <c r="I43" s="124"/>
+      <c r="J43" s="124"/>
+      <c r="K43" s="124"/>
+      <c r="L43" s="124"/>
+      <c r="M43" s="124"/>
+      <c r="N43" s="124"/>
       <c r="O43" s="42"/>
     </row>
     <row r="44" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A44" s="134"/>
-      <c r="B44" s="134"/>
-      <c r="C44" s="134"/>
-      <c r="D44" s="134"/>
-      <c r="E44" s="134"/>
-      <c r="F44" s="134"/>
-      <c r="G44" s="134"/>
-      <c r="H44" s="134"/>
-      <c r="I44" s="134"/>
-      <c r="J44" s="134"/>
-      <c r="K44" s="134"/>
-      <c r="L44" s="134"/>
-      <c r="M44" s="134"/>
-      <c r="N44" s="134"/>
+      <c r="A44" s="124"/>
+      <c r="B44" s="124"/>
+      <c r="C44" s="124"/>
+      <c r="D44" s="124"/>
+      <c r="E44" s="124"/>
+      <c r="F44" s="124"/>
+      <c r="G44" s="124"/>
+      <c r="H44" s="124"/>
+      <c r="I44" s="124"/>
+      <c r="J44" s="124"/>
+      <c r="K44" s="124"/>
+      <c r="L44" s="124"/>
+      <c r="M44" s="124"/>
+      <c r="N44" s="124"/>
       <c r="O44" s="42"/>
     </row>
     <row r="45" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A45" s="134"/>
-      <c r="B45" s="134"/>
-      <c r="C45" s="134"/>
-      <c r="D45" s="134"/>
-      <c r="E45" s="134"/>
-      <c r="F45" s="134"/>
-      <c r="G45" s="134"/>
-      <c r="H45" s="134"/>
-      <c r="I45" s="134"/>
-      <c r="J45" s="134"/>
-      <c r="K45" s="134"/>
-      <c r="L45" s="134"/>
-      <c r="M45" s="134"/>
-      <c r="N45" s="134"/>
+      <c r="A45" s="124"/>
+      <c r="B45" s="124"/>
+      <c r="C45" s="124"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="124"/>
+      <c r="J45" s="124"/>
+      <c r="K45" s="124"/>
+      <c r="L45" s="124"/>
+      <c r="M45" s="124"/>
+      <c r="N45" s="124"/>
       <c r="O45" s="42"/>
       <c r="P45" s="42"/>
     </row>
     <row r="46" spans="1:16" ht="60.75" customHeight="1">
-      <c r="A46" s="134"/>
-      <c r="B46" s="134"/>
-      <c r="C46" s="134"/>
-      <c r="D46" s="134"/>
-      <c r="E46" s="134"/>
-      <c r="F46" s="134"/>
-      <c r="G46" s="134"/>
-      <c r="H46" s="134"/>
-      <c r="I46" s="134"/>
-      <c r="J46" s="134"/>
-      <c r="K46" s="134"/>
-      <c r="L46" s="134"/>
-      <c r="M46" s="134"/>
-      <c r="N46" s="134"/>
+      <c r="A46" s="124"/>
+      <c r="B46" s="124"/>
+      <c r="C46" s="124"/>
+      <c r="D46" s="124"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="124"/>
+      <c r="J46" s="124"/>
+      <c r="K46" s="124"/>
+      <c r="L46" s="124"/>
+      <c r="M46" s="124"/>
+      <c r="N46" s="124"/>
       <c r="O46" s="42"/>
       <c r="P46" s="42"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="134"/>
-      <c r="B47" s="134"/>
-      <c r="C47" s="134"/>
-      <c r="D47" s="134"/>
-      <c r="E47" s="134"/>
-      <c r="F47" s="134"/>
-      <c r="G47" s="134"/>
-      <c r="H47" s="134"/>
-      <c r="I47" s="134"/>
-      <c r="J47" s="134"/>
-      <c r="K47" s="134"/>
-      <c r="L47" s="134"/>
-      <c r="M47" s="134"/>
-      <c r="N47" s="134"/>
+      <c r="A47" s="124"/>
+      <c r="B47" s="124"/>
+      <c r="C47" s="124"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="124"/>
+      <c r="J47" s="124"/>
+      <c r="K47" s="124"/>
+      <c r="L47" s="124"/>
+      <c r="M47" s="124"/>
+      <c r="N47" s="124"/>
       <c r="O47" s="42"/>
       <c r="P47" s="42"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="134"/>
-      <c r="B48" s="134"/>
-      <c r="C48" s="134"/>
-      <c r="D48" s="134"/>
-      <c r="E48" s="134"/>
-      <c r="F48" s="134"/>
-      <c r="G48" s="134"/>
-      <c r="H48" s="134"/>
-      <c r="I48" s="134"/>
-      <c r="J48" s="134"/>
-      <c r="K48" s="134"/>
-      <c r="L48" s="134"/>
-      <c r="M48" s="134"/>
-      <c r="N48" s="134"/>
+      <c r="A48" s="124"/>
+      <c r="B48" s="124"/>
+      <c r="C48" s="124"/>
+      <c r="D48" s="124"/>
+      <c r="E48" s="124"/>
+      <c r="F48" s="124"/>
+      <c r="G48" s="124"/>
+      <c r="H48" s="124"/>
+      <c r="I48" s="124"/>
+      <c r="J48" s="124"/>
+      <c r="K48" s="124"/>
+      <c r="L48" s="124"/>
+      <c r="M48" s="124"/>
+      <c r="N48" s="124"/>
       <c r="O48" s="42"/>
       <c r="P48" s="42"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="134"/>
-      <c r="B49" s="134"/>
-      <c r="C49" s="134"/>
-      <c r="D49" s="134"/>
-      <c r="E49" s="134"/>
-      <c r="F49" s="134"/>
-      <c r="G49" s="134"/>
-      <c r="H49" s="134"/>
-      <c r="I49" s="134"/>
-      <c r="J49" s="134"/>
-      <c r="K49" s="134"/>
-      <c r="L49" s="134"/>
-      <c r="M49" s="134"/>
-      <c r="N49" s="134"/>
+      <c r="A49" s="124"/>
+      <c r="B49" s="124"/>
+      <c r="C49" s="124"/>
+      <c r="D49" s="124"/>
+      <c r="E49" s="124"/>
+      <c r="F49" s="124"/>
+      <c r="G49" s="124"/>
+      <c r="H49" s="124"/>
+      <c r="I49" s="124"/>
+      <c r="J49" s="124"/>
+      <c r="K49" s="124"/>
+      <c r="L49" s="124"/>
+      <c r="M49" s="124"/>
+      <c r="N49" s="124"/>
       <c r="O49" s="42"/>
       <c r="P49" s="42"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="134"/>
-      <c r="B50" s="134"/>
-      <c r="C50" s="134"/>
-      <c r="D50" s="134"/>
-      <c r="E50" s="134"/>
-      <c r="F50" s="134"/>
-      <c r="G50" s="134"/>
-      <c r="H50" s="134"/>
-      <c r="I50" s="134"/>
-      <c r="J50" s="134"/>
-      <c r="K50" s="134"/>
-      <c r="L50" s="134"/>
-      <c r="M50" s="134"/>
-      <c r="N50" s="134"/>
+      <c r="A50" s="124"/>
+      <c r="B50" s="124"/>
+      <c r="C50" s="124"/>
+      <c r="D50" s="124"/>
+      <c r="E50" s="124"/>
+      <c r="F50" s="124"/>
+      <c r="G50" s="124"/>
+      <c r="H50" s="124"/>
+      <c r="I50" s="124"/>
+      <c r="J50" s="124"/>
+      <c r="K50" s="124"/>
+      <c r="L50" s="124"/>
+      <c r="M50" s="124"/>
+      <c r="N50" s="124"/>
       <c r="O50" s="42"/>
       <c r="P50" s="42"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="134"/>
-      <c r="B51" s="134"/>
-      <c r="C51" s="134"/>
-      <c r="D51" s="134"/>
-      <c r="E51" s="134"/>
-      <c r="F51" s="134"/>
-      <c r="G51" s="134"/>
-      <c r="H51" s="134"/>
-      <c r="I51" s="134"/>
-      <c r="J51" s="134"/>
-      <c r="K51" s="134"/>
-      <c r="L51" s="134"/>
-      <c r="M51" s="134"/>
-      <c r="N51" s="134"/>
+      <c r="A51" s="124"/>
+      <c r="B51" s="124"/>
+      <c r="C51" s="124"/>
+      <c r="D51" s="124"/>
+      <c r="E51" s="124"/>
+      <c r="F51" s="124"/>
+      <c r="G51" s="124"/>
+      <c r="H51" s="124"/>
+      <c r="I51" s="124"/>
+      <c r="J51" s="124"/>
+      <c r="K51" s="124"/>
+      <c r="L51" s="124"/>
+      <c r="M51" s="124"/>
+      <c r="N51" s="124"/>
       <c r="O51" s="42"/>
       <c r="P51" s="42"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="134"/>
-      <c r="B52" s="134"/>
-      <c r="C52" s="134"/>
-      <c r="D52" s="134"/>
-      <c r="E52" s="134"/>
-      <c r="F52" s="134"/>
-      <c r="G52" s="134"/>
-      <c r="H52" s="134"/>
-      <c r="I52" s="134"/>
-      <c r="J52" s="134"/>
-      <c r="K52" s="134"/>
-      <c r="L52" s="134"/>
-      <c r="M52" s="134"/>
-      <c r="N52" s="134"/>
+      <c r="A52" s="124"/>
+      <c r="B52" s="124"/>
+      <c r="C52" s="124"/>
+      <c r="D52" s="124"/>
+      <c r="E52" s="124"/>
+      <c r="F52" s="124"/>
+      <c r="G52" s="124"/>
+      <c r="H52" s="124"/>
+      <c r="I52" s="124"/>
+      <c r="J52" s="124"/>
+      <c r="K52" s="124"/>
+      <c r="L52" s="124"/>
+      <c r="M52" s="124"/>
+      <c r="N52" s="124"/>
       <c r="O52" s="42"/>
       <c r="P52" s="42"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="134"/>
-      <c r="B53" s="134"/>
-      <c r="C53" s="134"/>
-      <c r="D53" s="134"/>
-      <c r="E53" s="134"/>
-      <c r="F53" s="134"/>
-      <c r="G53" s="134"/>
-      <c r="H53" s="134"/>
-      <c r="I53" s="134"/>
-      <c r="J53" s="134"/>
-      <c r="K53" s="134"/>
-      <c r="L53" s="134"/>
-      <c r="M53" s="134"/>
-      <c r="N53" s="134"/>
+      <c r="A53" s="124"/>
+      <c r="B53" s="124"/>
+      <c r="C53" s="124"/>
+      <c r="D53" s="124"/>
+      <c r="E53" s="124"/>
+      <c r="F53" s="124"/>
+      <c r="G53" s="124"/>
+      <c r="H53" s="124"/>
+      <c r="I53" s="124"/>
+      <c r="J53" s="124"/>
+      <c r="K53" s="124"/>
+      <c r="L53" s="124"/>
+      <c r="M53" s="124"/>
+      <c r="N53" s="124"/>
       <c r="O53" s="42"/>
       <c r="P53" s="42"/>
     </row>
@@ -48715,27 +49166,6 @@
     </row>
   </sheetData>
   <mergeCells count="37">
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="A42:N42"/>
-    <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A50:N50"/>
-    <mergeCell ref="A51:N51"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="A53:N53"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A46:N46"/>
-    <mergeCell ref="A47:N47"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A49:N49"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B36:I36"/>
     <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="B31:O31"/>
     <mergeCell ref="B32:O32"/>
@@ -48752,6 +49182,27 @@
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="K2:K4"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A50:N50"/>
+    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="A53:N53"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A49:N49"/>
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="A43:N43"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -48761,10 +49212,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE09EFEF-EC0B-4984-B180-595A6EF1BBAD}">
-  <dimension ref="B2:Q167"/>
+  <dimension ref="B2:Q174"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M119" sqref="M119"/>
+    <sheetView showGridLines="0" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K175" sqref="K175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -48775,50 +49226,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="148" t="s">
+      <c r="B2" s="157" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
+      <c r="C2" s="158"/>
+      <c r="D2" s="158"/>
+      <c r="E2" s="158"/>
+      <c r="F2" s="158"/>
+      <c r="G2" s="158"/>
+      <c r="H2" s="158"/>
+      <c r="I2" s="158"/>
+      <c r="J2" s="158"/>
       <c r="K2" s="53"/>
-      <c r="M2" s="138" t="s">
+      <c r="M2" s="171" t="s">
         <v>210</v>
       </c>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
+      <c r="N2" s="171"/>
+      <c r="O2" s="171"/>
+      <c r="P2" s="171"/>
+      <c r="Q2" s="171"/>
     </row>
     <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="152" t="s">
+      <c r="B3" s="161" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
-      <c r="G3" s="150"/>
-      <c r="H3" s="150"/>
-      <c r="I3" s="150"/>
-      <c r="J3" s="150"/>
+      <c r="C3" s="159"/>
+      <c r="D3" s="159"/>
+      <c r="E3" s="159"/>
+      <c r="F3" s="159"/>
+      <c r="G3" s="159"/>
+      <c r="H3" s="159"/>
+      <c r="I3" s="159"/>
+      <c r="J3" s="159"/>
       <c r="K3" s="55"/>
     </row>
     <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="152"/>
-      <c r="C4" s="150"/>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
+      <c r="B4" s="161"/>
+      <c r="C4" s="159"/>
+      <c r="D4" s="159"/>
+      <c r="E4" s="159"/>
+      <c r="F4" s="159"/>
+      <c r="G4" s="159"/>
+      <c r="H4" s="159"/>
+      <c r="I4" s="159"/>
+      <c r="J4" s="159"/>
       <c r="K4" s="55"/>
     </row>
     <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1">
@@ -48838,15 +49289,15 @@
         <v>126</v>
       </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="146" t="s">
+      <c r="D6" s="164" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146" t="s">
+      <c r="E6" s="164"/>
+      <c r="F6" s="164"/>
+      <c r="G6" s="164" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="146"/>
+      <c r="H6" s="164"/>
       <c r="I6" s="51"/>
       <c r="J6" s="51"/>
       <c r="K6" s="55"/>
@@ -48856,17 +49307,17 @@
         <v>127</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="153" t="s">
+      <c r="D7" s="162" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="153"/>
-      <c r="F7" s="153"/>
-      <c r="G7" s="150" t="s">
+      <c r="E7" s="162"/>
+      <c r="F7" s="162"/>
+      <c r="G7" s="159" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="150"/>
-      <c r="I7" s="150"/>
-      <c r="J7" s="150"/>
+      <c r="H7" s="159"/>
+      <c r="I7" s="159"/>
+      <c r="J7" s="159"/>
       <c r="K7" s="55"/>
     </row>
     <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1">
@@ -48874,95 +49325,95 @@
         <v>128</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="153" t="s">
+      <c r="D8" s="162" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="153"/>
-      <c r="F8" s="153"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="162"/>
+      <c r="G8" s="159"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="159"/>
+      <c r="J8" s="159"/>
       <c r="K8" s="55"/>
     </row>
     <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="58"/>
       <c r="C9" s="59"/>
-      <c r="D9" s="154"/>
-      <c r="E9" s="154"/>
-      <c r="F9" s="154"/>
-      <c r="G9" s="151"/>
-      <c r="H9" s="151"/>
-      <c r="I9" s="151"/>
-      <c r="J9" s="151"/>
+      <c r="D9" s="163"/>
+      <c r="E9" s="163"/>
+      <c r="F9" s="163"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
       <c r="K9" s="60"/>
     </row>
     <row r="10" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="147"/>
-      <c r="C10" s="147"/>
-      <c r="D10" s="147"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="147"/>
-      <c r="H10" s="147"/>
+      <c r="B10" s="165"/>
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="F10" s="165"/>
+      <c r="G10" s="165"/>
+      <c r="H10" s="165"/>
     </row>
     <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="139" t="s">
+      <c r="B11" s="154" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="139"/>
-      <c r="D11" s="139"/>
-      <c r="E11" s="139"/>
-      <c r="F11" s="139"/>
-      <c r="G11" s="139"/>
-      <c r="H11" s="139"/>
-      <c r="I11" s="139"/>
-      <c r="J11" s="139"/>
-      <c r="K11" s="139"/>
+      <c r="C11" s="154"/>
+      <c r="D11" s="154"/>
+      <c r="E11" s="154"/>
+      <c r="F11" s="154"/>
+      <c r="G11" s="154"/>
+      <c r="H11" s="154"/>
+      <c r="I11" s="154"/>
+      <c r="J11" s="154"/>
+      <c r="K11" s="154"/>
     </row>
     <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="140" t="s">
+      <c r="B12" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="140" t="s">
+      <c r="C12" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="140" t="s">
+      <c r="D12" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="140" t="s">
+      <c r="E12" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="140" t="s">
+      <c r="F12" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="140" t="s">
+      <c r="G12" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="140" t="s">
+      <c r="H12" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I12" s="140" t="s">
+      <c r="I12" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J12" s="140" t="s">
+      <c r="J12" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K12" s="140" t="s">
+      <c r="K12" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="141"/>
-      <c r="C13" s="141"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="141"/>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="141"/>
-      <c r="J13" s="141"/>
-      <c r="K13" s="141"/>
+      <c r="B13" s="156"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="156"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="156"/>
+      <c r="K13" s="156"/>
     </row>
     <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="63" t="s">
@@ -48996,7 +49447,7 @@
         <f>I14</f>
         <v>0.51883581127162259</v>
       </c>
-      <c r="K14" s="143">
+      <c r="K14" s="166">
         <v>2.5</v>
       </c>
     </row>
@@ -49032,7 +49483,7 @@
         <f>SUM(I14:I15)</f>
         <v>0.626499410998822</v>
       </c>
-      <c r="K15" s="144"/>
+      <c r="K15" s="167"/>
     </row>
     <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37" t="s">
@@ -49066,7 +49517,7 @@
         <f>SUM(I14:I16)</f>
         <v>0.70545839171678348</v>
       </c>
-      <c r="K16" s="144"/>
+      <c r="K16" s="167"/>
     </row>
     <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="37" t="s">
@@ -49100,7 +49551,7 @@
         <f>SUM(I14:I17)</f>
         <v>0.74201298282596573</v>
       </c>
-      <c r="K17" s="144"/>
+      <c r="K17" s="167"/>
     </row>
     <row r="18" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="63" t="s">
@@ -49134,7 +49585,7 @@
         <f>SUM(I14:I18)</f>
         <v>0.91897869675739363</v>
       </c>
-      <c r="K18" s="144"/>
+      <c r="K18" s="167"/>
     </row>
     <row r="19" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="37" t="s">
@@ -49168,7 +49619,7 @@
         <f>SUM(I14:I19)</f>
         <v>0.94861158782317578</v>
       </c>
-      <c r="K19" s="144"/>
+      <c r="K19" s="167"/>
     </row>
     <row r="20" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="63" t="s">
@@ -49202,7 +49653,7 @@
         <f>SUM(I14:I20)</f>
         <v>1.381319356438713</v>
       </c>
-      <c r="K20" s="144"/>
+      <c r="K20" s="167"/>
     </row>
     <row r="21" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="37" t="s">
@@ -49236,7 +49687,7 @@
         <f>SUM(I14:I21)</f>
         <v>1.4218202120404242</v>
       </c>
-      <c r="K21" s="144"/>
+      <c r="K21" s="167"/>
     </row>
     <row r="22" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="37" t="s">
@@ -49270,7 +49721,7 @@
         <f>SUM(I14:I22)</f>
         <v>1.5905476222952446</v>
       </c>
-      <c r="K22" s="144"/>
+      <c r="K22" s="167"/>
     </row>
     <row r="23" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="37" t="s">
@@ -49304,65 +49755,65 @@
         <f>SUM(I14:I23)</f>
         <v>1.791838142476285</v>
       </c>
-      <c r="K23" s="145"/>
+      <c r="K23" s="168"/>
     </row>
     <row r="26" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="139" t="s">
+      <c r="B26" s="154" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="139"/>
-      <c r="D26" s="139"/>
-      <c r="E26" s="139"/>
-      <c r="F26" s="139"/>
-      <c r="G26" s="139"/>
-      <c r="H26" s="139"/>
-      <c r="I26" s="139"/>
-      <c r="J26" s="139"/>
-      <c r="K26" s="139"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="154"/>
+      <c r="G26" s="154"/>
+      <c r="H26" s="154"/>
+      <c r="I26" s="154"/>
+      <c r="J26" s="154"/>
+      <c r="K26" s="154"/>
     </row>
     <row r="27" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="140" t="s">
+      <c r="B27" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="140" t="s">
+      <c r="C27" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="140" t="s">
+      <c r="D27" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="140" t="s">
+      <c r="E27" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="140" t="s">
+      <c r="F27" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="140" t="s">
+      <c r="G27" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H27" s="140" t="s">
+      <c r="H27" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I27" s="140" t="s">
+      <c r="I27" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J27" s="140" t="s">
+      <c r="J27" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="140" t="s">
+      <c r="K27" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="141"/>
-      <c r="C28" s="141"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="141"/>
-      <c r="F28" s="141"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="141"/>
-      <c r="I28" s="141"/>
-      <c r="J28" s="141"/>
-      <c r="K28" s="141"/>
+      <c r="B28" s="156"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="156"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="156"/>
+      <c r="K28" s="156"/>
     </row>
     <row r="29" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="63" t="s">
@@ -49396,7 +49847,7 @@
         <f>I29</f>
         <v>9.5258267716535422E-2</v>
       </c>
-      <c r="K29" s="143">
+      <c r="K29" s="166">
         <v>2.5</v>
       </c>
     </row>
@@ -49432,7 +49883,7 @@
         <f>SUM(I29:I30)</f>
         <v>0.21993930187860372</v>
       </c>
-      <c r="K30" s="144"/>
+      <c r="K30" s="167"/>
     </row>
     <row r="31" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="37" t="s">
@@ -49466,7 +49917,7 @@
         <f>SUM(I29:I31)</f>
         <v>0.2785383594767189</v>
       </c>
-      <c r="K31" s="144"/>
+      <c r="K31" s="167"/>
     </row>
     <row r="32" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="37" t="s">
@@ -49500,7 +49951,7 @@
         <f>SUM(I29:I32)</f>
         <v>0.29875022010044017</v>
       </c>
-      <c r="K32" s="144"/>
+      <c r="K32" s="167"/>
     </row>
     <row r="33" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="63" t="s">
@@ -49534,7 +49985,7 @@
         <f>SUM(I29:I33)</f>
         <v>0.42544738669477333</v>
       </c>
-      <c r="K33" s="144"/>
+      <c r="K33" s="167"/>
     </row>
     <row r="34" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="37" t="s">
@@ -49568,7 +50019,7 @@
         <f>SUM(I29:I34)</f>
         <v>0.52749081778163553</v>
       </c>
-      <c r="K34" s="144"/>
+      <c r="K34" s="167"/>
     </row>
     <row r="35" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="37" t="s">
@@ -49602,7 +50053,7 @@
         <f>SUM(I29:I35)</f>
         <v>0.60129864219728435</v>
       </c>
-      <c r="K35" s="144"/>
+      <c r="K35" s="167"/>
     </row>
     <row r="36" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="37" t="s">
@@ -49636,7 +50087,7 @@
         <f>SUM(I29:I36)</f>
         <v>0.65253181226362444</v>
       </c>
-      <c r="K36" s="144"/>
+      <c r="K36" s="167"/>
     </row>
     <row r="37" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="37" t="s">
@@ -49670,7 +50121,7 @@
         <f>SUM(I29:I37)</f>
         <v>0.67499918779837553</v>
       </c>
-      <c r="K37" s="144"/>
+      <c r="K37" s="167"/>
     </row>
     <row r="38" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="37" t="s">
@@ -49704,7 +50155,7 @@
         <f>SUM(I29:I38)</f>
         <v>0.70559847479694948</v>
       </c>
-      <c r="K38" s="144"/>
+      <c r="K38" s="167"/>
     </row>
     <row r="39" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="63" t="s">
@@ -49738,7 +50189,7 @@
         <f>SUM(I29:I39)</f>
         <v>0.7857517081034161</v>
       </c>
-      <c r="K39" s="144"/>
+      <c r="K39" s="167"/>
     </row>
     <row r="40" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="37" t="s">
@@ -49772,7 +50223,7 @@
         <f>SUM(I29:I40)</f>
         <v>0.80331706243412482</v>
       </c>
-      <c r="K40" s="144"/>
+      <c r="K40" s="167"/>
     </row>
     <row r="41" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="37" t="s">
@@ -49806,7 +50257,7 @@
         <f>SUM(I29:I41)</f>
         <v>0.84417965155930308</v>
       </c>
-      <c r="K41" s="144"/>
+      <c r="K41" s="167"/>
     </row>
     <row r="42" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="37" t="s">
@@ -49840,7 +50291,7 @@
         <f>SUM(I29:I42)</f>
         <v>0.8665379750759501</v>
       </c>
-      <c r="K42" s="144"/>
+      <c r="K42" s="167"/>
     </row>
     <row r="43" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="37" t="s">
@@ -49874,65 +50325,65 @@
         <f>SUM(I29:I43)</f>
         <v>0.87994162068324133</v>
       </c>
-      <c r="K43" s="145"/>
+      <c r="K43" s="168"/>
     </row>
     <row r="46" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="139" t="s">
+      <c r="B46" s="154" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="139"/>
-      <c r="D46" s="139"/>
-      <c r="E46" s="139"/>
-      <c r="F46" s="139"/>
-      <c r="G46" s="139"/>
-      <c r="H46" s="139"/>
-      <c r="I46" s="139"/>
-      <c r="J46" s="139"/>
-      <c r="K46" s="139"/>
+      <c r="C46" s="154"/>
+      <c r="D46" s="154"/>
+      <c r="E46" s="154"/>
+      <c r="F46" s="154"/>
+      <c r="G46" s="154"/>
+      <c r="H46" s="154"/>
+      <c r="I46" s="154"/>
+      <c r="J46" s="154"/>
+      <c r="K46" s="154"/>
     </row>
     <row r="47" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="140" t="s">
+      <c r="B47" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="140" t="s">
+      <c r="C47" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="140" t="s">
+      <c r="D47" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E47" s="140" t="s">
+      <c r="E47" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F47" s="140" t="s">
+      <c r="F47" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G47" s="140" t="s">
+      <c r="G47" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H47" s="140" t="s">
+      <c r="H47" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I47" s="140" t="s">
+      <c r="I47" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J47" s="140" t="s">
+      <c r="J47" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K47" s="140" t="s">
+      <c r="K47" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="141"/>
-      <c r="C48" s="141"/>
-      <c r="D48" s="141"/>
-      <c r="E48" s="141"/>
-      <c r="F48" s="141"/>
-      <c r="G48" s="141"/>
-      <c r="H48" s="141"/>
-      <c r="I48" s="141"/>
-      <c r="J48" s="141"/>
-      <c r="K48" s="141"/>
+      <c r="B48" s="156"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="156"/>
+      <c r="H48" s="156"/>
+      <c r="I48" s="156"/>
+      <c r="J48" s="156"/>
+      <c r="K48" s="156"/>
     </row>
     <row r="49" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="37" t="s">
@@ -49966,7 +50417,7 @@
         <f>I49</f>
         <v>1.1655793961187926</v>
       </c>
-      <c r="K49" s="142">
+      <c r="K49" s="169">
         <v>4</v>
       </c>
     </row>
@@ -50002,7 +50453,7 @@
         <f>SUM(I49:I50)</f>
         <v>1.1752654622109249</v>
       </c>
-      <c r="K50" s="142"/>
+      <c r="K50" s="169"/>
     </row>
     <row r="51" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="37" t="s">
@@ -50036,7 +50487,7 @@
         <f>SUM(I49:I51)</f>
         <v>1.1820244875689756</v>
       </c>
-      <c r="K51" s="142"/>
+      <c r="K51" s="169"/>
     </row>
     <row r="52" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="37" t="s">
@@ -50070,7 +50521,7 @@
         <f>SUM(I49:I52)</f>
         <v>1.187739133238267</v>
       </c>
-      <c r="K52" s="142"/>
+      <c r="K52" s="169"/>
     </row>
     <row r="53" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="37" t="s">
@@ -50104,7 +50555,7 @@
         <f>SUM(I49:I53)</f>
         <v>1.2791934627069259</v>
       </c>
-      <c r="K53" s="142"/>
+      <c r="K53" s="169"/>
     </row>
     <row r="54" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B54" s="37" t="s">
@@ -50138,65 +50589,65 @@
         <f>SUM(I49:I54)</f>
         <v>1.3062117874635755</v>
       </c>
-      <c r="K54" s="142"/>
+      <c r="K54" s="169"/>
     </row>
     <row r="57" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="139" t="s">
+      <c r="B57" s="154" t="s">
         <v>186</v>
       </c>
-      <c r="C57" s="139"/>
-      <c r="D57" s="139"/>
-      <c r="E57" s="139"/>
-      <c r="F57" s="139"/>
-      <c r="G57" s="139"/>
-      <c r="H57" s="139"/>
-      <c r="I57" s="139"/>
-      <c r="J57" s="139"/>
-      <c r="K57" s="139"/>
+      <c r="C57" s="154"/>
+      <c r="D57" s="154"/>
+      <c r="E57" s="154"/>
+      <c r="F57" s="154"/>
+      <c r="G57" s="154"/>
+      <c r="H57" s="154"/>
+      <c r="I57" s="154"/>
+      <c r="J57" s="154"/>
+      <c r="K57" s="154"/>
     </row>
     <row r="58" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="140" t="s">
+      <c r="B58" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="140" t="s">
+      <c r="C58" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="140" t="s">
+      <c r="D58" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E58" s="140" t="s">
+      <c r="E58" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F58" s="140" t="s">
+      <c r="F58" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G58" s="140" t="s">
+      <c r="G58" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H58" s="140" t="s">
+      <c r="H58" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I58" s="140" t="s">
+      <c r="I58" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J58" s="140" t="s">
+      <c r="J58" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K58" s="140" t="s">
+      <c r="K58" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="141"/>
-      <c r="C59" s="141"/>
-      <c r="D59" s="141"/>
-      <c r="E59" s="141"/>
-      <c r="F59" s="141"/>
-      <c r="G59" s="141"/>
-      <c r="H59" s="141"/>
-      <c r="I59" s="141"/>
-      <c r="J59" s="141"/>
-      <c r="K59" s="141"/>
+      <c r="B59" s="156"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="156"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="156"/>
+      <c r="K59" s="156"/>
     </row>
     <row r="60" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B60" s="37" t="s">
@@ -50230,7 +50681,7 @@
         <f>I60</f>
         <v>1.0545718345836694</v>
       </c>
-      <c r="K60" s="135">
+      <c r="K60" s="144">
         <v>4</v>
       </c>
     </row>
@@ -50266,7 +50717,7 @@
         <f>SUM(I60:I61)</f>
         <v>1.1398365478330958</v>
       </c>
-      <c r="K61" s="136"/>
+      <c r="K61" s="170"/>
     </row>
     <row r="62" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="37" t="s">
@@ -50300,7 +50751,7 @@
         <f>SUM(I60:I62)</f>
         <v>1.3890816492032987</v>
       </c>
-      <c r="K62" s="136"/>
+      <c r="K62" s="170"/>
     </row>
     <row r="63" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="37" t="s">
@@ -50334,7 +50785,7 @@
         <f>SUM(I60:I63)</f>
         <v>1.3940413416826836</v>
       </c>
-      <c r="K63" s="136"/>
+      <c r="K63" s="170"/>
     </row>
     <row r="64" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B64" s="37" t="s">
@@ -50368,65 +50819,65 @@
         <f>SUM(I60:I64)</f>
         <v>1.4224462471324946</v>
       </c>
-      <c r="K64" s="137"/>
+      <c r="K64" s="145"/>
     </row>
     <row r="67" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B67" s="139" t="s">
+      <c r="B67" s="154" t="s">
         <v>187</v>
       </c>
-      <c r="C67" s="139"/>
-      <c r="D67" s="139"/>
-      <c r="E67" s="139"/>
-      <c r="F67" s="139"/>
-      <c r="G67" s="139"/>
-      <c r="H67" s="139"/>
-      <c r="I67" s="139"/>
-      <c r="J67" s="139"/>
-      <c r="K67" s="139"/>
+      <c r="C67" s="154"/>
+      <c r="D67" s="154"/>
+      <c r="E67" s="154"/>
+      <c r="F67" s="154"/>
+      <c r="G67" s="154"/>
+      <c r="H67" s="154"/>
+      <c r="I67" s="154"/>
+      <c r="J67" s="154"/>
+      <c r="K67" s="154"/>
     </row>
     <row r="68" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B68" s="140" t="s">
+      <c r="B68" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="140" t="s">
+      <c r="C68" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="140" t="s">
+      <c r="D68" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E68" s="140" t="s">
+      <c r="E68" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F68" s="140" t="s">
+      <c r="F68" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G68" s="140" t="s">
+      <c r="G68" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H68" s="140" t="s">
+      <c r="H68" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I68" s="140" t="s">
+      <c r="I68" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J68" s="140" t="s">
+      <c r="J68" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K68" s="140" t="s">
+      <c r="K68" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B69" s="141"/>
-      <c r="C69" s="141"/>
-      <c r="D69" s="141"/>
-      <c r="E69" s="141"/>
-      <c r="F69" s="141"/>
-      <c r="G69" s="141"/>
-      <c r="H69" s="141"/>
-      <c r="I69" s="141"/>
-      <c r="J69" s="141"/>
-      <c r="K69" s="141"/>
+      <c r="B69" s="156"/>
+      <c r="C69" s="156"/>
+      <c r="D69" s="156"/>
+      <c r="E69" s="156"/>
+      <c r="F69" s="156"/>
+      <c r="G69" s="156"/>
+      <c r="H69" s="156"/>
+      <c r="I69" s="156"/>
+      <c r="J69" s="156"/>
+      <c r="K69" s="156"/>
     </row>
     <row r="70" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B70" s="37" t="s">
@@ -50460,7 +50911,7 @@
         <f>I70</f>
         <v>1.0317732481864963</v>
       </c>
-      <c r="K70" s="142">
+      <c r="K70" s="169">
         <v>4</v>
       </c>
     </row>
@@ -50496,7 +50947,7 @@
         <f>SUM(I70:I71)</f>
         <v>1.0770871052142104</v>
       </c>
-      <c r="K71" s="142"/>
+      <c r="K71" s="169"/>
     </row>
     <row r="72" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B72" s="37" t="s">
@@ -50530,7 +50981,7 @@
         <f>SUM(I70:I72)</f>
         <v>1.0837439146878294</v>
       </c>
-      <c r="K72" s="142"/>
+      <c r="K72" s="169"/>
     </row>
     <row r="73" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B73" s="37" t="s">
@@ -50564,65 +51015,65 @@
         <f>SUM(I70:I73)</f>
         <v>1.2140558348316697</v>
       </c>
-      <c r="K73" s="142"/>
+      <c r="K73" s="169"/>
     </row>
     <row r="76" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B76" s="139" t="s">
+      <c r="B76" s="154" t="s">
         <v>188</v>
       </c>
-      <c r="C76" s="139"/>
-      <c r="D76" s="139"/>
-      <c r="E76" s="139"/>
-      <c r="F76" s="139"/>
-      <c r="G76" s="139"/>
-      <c r="H76" s="139"/>
-      <c r="I76" s="139"/>
-      <c r="J76" s="139"/>
-      <c r="K76" s="139"/>
+      <c r="C76" s="154"/>
+      <c r="D76" s="154"/>
+      <c r="E76" s="154"/>
+      <c r="F76" s="154"/>
+      <c r="G76" s="154"/>
+      <c r="H76" s="154"/>
+      <c r="I76" s="154"/>
+      <c r="J76" s="154"/>
+      <c r="K76" s="154"/>
     </row>
     <row r="77" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B77" s="140" t="s">
+      <c r="B77" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="140" t="s">
+      <c r="C77" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="140" t="s">
+      <c r="D77" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E77" s="140" t="s">
+      <c r="E77" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F77" s="140" t="s">
+      <c r="F77" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G77" s="140" t="s">
+      <c r="G77" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H77" s="140" t="s">
+      <c r="H77" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I77" s="140" t="s">
+      <c r="I77" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J77" s="140" t="s">
+      <c r="J77" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K77" s="140" t="s">
+      <c r="K77" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="78" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B78" s="141"/>
-      <c r="C78" s="141"/>
-      <c r="D78" s="141"/>
-      <c r="E78" s="141"/>
-      <c r="F78" s="141"/>
-      <c r="G78" s="141"/>
-      <c r="H78" s="141"/>
-      <c r="I78" s="141"/>
-      <c r="J78" s="141"/>
-      <c r="K78" s="141"/>
+      <c r="B78" s="156"/>
+      <c r="C78" s="156"/>
+      <c r="D78" s="156"/>
+      <c r="E78" s="156"/>
+      <c r="F78" s="156"/>
+      <c r="G78" s="156"/>
+      <c r="H78" s="156"/>
+      <c r="I78" s="156"/>
+      <c r="J78" s="156"/>
+      <c r="K78" s="156"/>
     </row>
     <row r="79" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B79" s="37" t="s">
@@ -50656,7 +51107,7 @@
         <f>I79</f>
         <v>0.4377535495070991</v>
       </c>
-      <c r="K79" s="135">
+      <c r="K79" s="144">
         <v>6</v>
       </c>
     </row>
@@ -50692,7 +51143,7 @@
         <f>SUM(I79:I80)</f>
         <v>0.51617457994915994</v>
       </c>
-      <c r="K80" s="136"/>
+      <c r="K80" s="170"/>
     </row>
     <row r="81" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B81" s="37" t="s">
@@ -50726,7 +51177,7 @@
         <f>SUM(I79:I81)</f>
         <v>0.56095973277946565</v>
       </c>
-      <c r="K81" s="136"/>
+      <c r="K81" s="170"/>
     </row>
     <row r="82" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B82" s="37" t="s">
@@ -50760,7 +51211,7 @@
         <f>SUM(I79:I82)</f>
         <v>0.56862537355074716</v>
       </c>
-      <c r="K82" s="136"/>
+      <c r="K82" s="170"/>
     </row>
     <row r="83" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B83" s="37" t="s">
@@ -50794,7 +51245,7 @@
         <f>SUM(I79:I83)</f>
         <v>0.61531011284022574</v>
       </c>
-      <c r="K83" s="136"/>
+      <c r="K83" s="170"/>
     </row>
     <row r="84" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B84" s="37" t="s">
@@ -50828,65 +51279,65 @@
         <f>SUM(I79:I84)</f>
         <v>0.65633534813069638</v>
       </c>
-      <c r="K84" s="137"/>
+      <c r="K84" s="145"/>
     </row>
     <row r="87" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B87" s="139" t="s">
+      <c r="B87" s="154" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="139"/>
-      <c r="D87" s="139"/>
-      <c r="E87" s="139"/>
-      <c r="F87" s="139"/>
-      <c r="G87" s="139"/>
-      <c r="H87" s="139"/>
-      <c r="I87" s="139"/>
-      <c r="J87" s="139"/>
-      <c r="K87" s="139"/>
+      <c r="C87" s="154"/>
+      <c r="D87" s="154"/>
+      <c r="E87" s="154"/>
+      <c r="F87" s="154"/>
+      <c r="G87" s="154"/>
+      <c r="H87" s="154"/>
+      <c r="I87" s="154"/>
+      <c r="J87" s="154"/>
+      <c r="K87" s="154"/>
     </row>
     <row r="88" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B88" s="140" t="s">
+      <c r="B88" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C88" s="140" t="s">
+      <c r="C88" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D88" s="140" t="s">
+      <c r="D88" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E88" s="140" t="s">
+      <c r="E88" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F88" s="140" t="s">
+      <c r="F88" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G88" s="140" t="s">
+      <c r="G88" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H88" s="140" t="s">
+      <c r="H88" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I88" s="140" t="s">
+      <c r="I88" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J88" s="140" t="s">
+      <c r="J88" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K88" s="140" t="s">
+      <c r="K88" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="89" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B89" s="141"/>
-      <c r="C89" s="141"/>
-      <c r="D89" s="141"/>
-      <c r="E89" s="141"/>
-      <c r="F89" s="141"/>
-      <c r="G89" s="141"/>
-      <c r="H89" s="141"/>
-      <c r="I89" s="141"/>
-      <c r="J89" s="141"/>
-      <c r="K89" s="141"/>
+      <c r="B89" s="156"/>
+      <c r="C89" s="156"/>
+      <c r="D89" s="156"/>
+      <c r="E89" s="156"/>
+      <c r="F89" s="156"/>
+      <c r="G89" s="156"/>
+      <c r="H89" s="156"/>
+      <c r="I89" s="156"/>
+      <c r="J89" s="156"/>
+      <c r="K89" s="156"/>
     </row>
     <row r="90" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B90" s="37" t="s">
@@ -50920,7 +51371,7 @@
         <f>I90</f>
         <v>0.45222751565503133</v>
       </c>
-      <c r="K90" s="142">
+      <c r="K90" s="169">
         <v>4</v>
       </c>
     </row>
@@ -50956,7 +51407,7 @@
         <f>SUM(I90:I91)</f>
         <v>0.53149593403186812</v>
       </c>
-      <c r="K91" s="142"/>
+      <c r="K91" s="169"/>
     </row>
     <row r="92" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B92" s="37" t="s">
@@ -50990,7 +51441,7 @@
         <f>SUM(I90:I92)</f>
         <v>0.58363881207762425</v>
       </c>
-      <c r="K92" s="142"/>
+      <c r="K92" s="169"/>
     </row>
     <row r="93" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B93" s="37" t="s">
@@ -51024,7 +51475,7 @@
         <f>SUM(I90:I93)</f>
         <v>0.59414093868187745</v>
       </c>
-      <c r="K93" s="142"/>
+      <c r="K93" s="169"/>
     </row>
     <row r="94" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B94" s="37" t="s">
@@ -51058,65 +51509,65 @@
         <f>SUM(I90:I94)</f>
         <v>0.61057769731539469</v>
       </c>
-      <c r="K94" s="142"/>
+      <c r="K94" s="169"/>
     </row>
     <row r="97" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B97" s="139" t="s">
+      <c r="B97" s="154" t="s">
         <v>200</v>
       </c>
-      <c r="C97" s="139"/>
-      <c r="D97" s="139"/>
-      <c r="E97" s="139"/>
-      <c r="F97" s="139"/>
-      <c r="G97" s="139"/>
-      <c r="H97" s="139"/>
-      <c r="I97" s="139"/>
-      <c r="J97" s="139"/>
-      <c r="K97" s="139"/>
+      <c r="C97" s="154"/>
+      <c r="D97" s="154"/>
+      <c r="E97" s="154"/>
+      <c r="F97" s="154"/>
+      <c r="G97" s="154"/>
+      <c r="H97" s="154"/>
+      <c r="I97" s="154"/>
+      <c r="J97" s="154"/>
+      <c r="K97" s="154"/>
     </row>
     <row r="98" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B98" s="140" t="s">
+      <c r="B98" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C98" s="140" t="s">
+      <c r="C98" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D98" s="140" t="s">
+      <c r="D98" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E98" s="140" t="s">
+      <c r="E98" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F98" s="140" t="s">
+      <c r="F98" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G98" s="140" t="s">
+      <c r="G98" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H98" s="140" t="s">
+      <c r="H98" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I98" s="140" t="s">
+      <c r="I98" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J98" s="140" t="s">
+      <c r="J98" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K98" s="140" t="s">
+      <c r="K98" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="99" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B99" s="141"/>
-      <c r="C99" s="141"/>
-      <c r="D99" s="141"/>
-      <c r="E99" s="141"/>
-      <c r="F99" s="141"/>
-      <c r="G99" s="141"/>
-      <c r="H99" s="141"/>
-      <c r="I99" s="141"/>
-      <c r="J99" s="141"/>
-      <c r="K99" s="141"/>
+      <c r="B99" s="156"/>
+      <c r="C99" s="156"/>
+      <c r="D99" s="156"/>
+      <c r="E99" s="156"/>
+      <c r="F99" s="156"/>
+      <c r="G99" s="156"/>
+      <c r="H99" s="156"/>
+      <c r="I99" s="156"/>
+      <c r="J99" s="156"/>
+      <c r="K99" s="156"/>
     </row>
     <row r="100" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B100" s="37" t="s">
@@ -51150,7 +51601,7 @@
         <f>I100</f>
         <v>0.16521642259284522</v>
       </c>
-      <c r="K100" s="135">
+      <c r="K100" s="144">
         <v>4</v>
       </c>
     </row>
@@ -51186,7 +51637,7 @@
         <f>SUM(I100:I101)</f>
         <v>0.17638184140368285</v>
       </c>
-      <c r="K101" s="136"/>
+      <c r="K101" s="170"/>
     </row>
     <row r="102" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B102" s="37" t="s">
@@ -51220,7 +51671,7 @@
         <f>SUM(I100:I102)</f>
         <v>0.27389246202492412</v>
       </c>
-      <c r="K102" s="136"/>
+      <c r="K102" s="170"/>
     </row>
     <row r="103" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B103" s="37" t="s">
@@ -51254,65 +51705,65 @@
         <f>SUM(I100:I103)</f>
         <v>0.44891494326988668</v>
       </c>
-      <c r="K103" s="137"/>
+      <c r="K103" s="145"/>
     </row>
     <row r="106" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B106" s="139" t="s">
+      <c r="B106" s="154" t="s">
         <v>205</v>
       </c>
-      <c r="C106" s="139"/>
-      <c r="D106" s="139"/>
-      <c r="E106" s="139"/>
-      <c r="F106" s="139"/>
-      <c r="G106" s="139"/>
-      <c r="H106" s="139"/>
-      <c r="I106" s="139"/>
-      <c r="J106" s="139"/>
-      <c r="K106" s="139"/>
+      <c r="C106" s="154"/>
+      <c r="D106" s="154"/>
+      <c r="E106" s="154"/>
+      <c r="F106" s="154"/>
+      <c r="G106" s="154"/>
+      <c r="H106" s="154"/>
+      <c r="I106" s="154"/>
+      <c r="J106" s="154"/>
+      <c r="K106" s="154"/>
     </row>
     <row r="107" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B107" s="140" t="s">
+      <c r="B107" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C107" s="140" t="s">
+      <c r="C107" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D107" s="140" t="s">
+      <c r="D107" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E107" s="140" t="s">
+      <c r="E107" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F107" s="140" t="s">
+      <c r="F107" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G107" s="140" t="s">
+      <c r="G107" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H107" s="140" t="s">
+      <c r="H107" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I107" s="140" t="s">
+      <c r="I107" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J107" s="140" t="s">
+      <c r="J107" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K107" s="140" t="s">
+      <c r="K107" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B108" s="141"/>
-      <c r="C108" s="141"/>
-      <c r="D108" s="141"/>
-      <c r="E108" s="141"/>
-      <c r="F108" s="141"/>
-      <c r="G108" s="141"/>
-      <c r="H108" s="141"/>
-      <c r="I108" s="141"/>
-      <c r="J108" s="141"/>
-      <c r="K108" s="141"/>
+      <c r="B108" s="156"/>
+      <c r="C108" s="156"/>
+      <c r="D108" s="156"/>
+      <c r="E108" s="156"/>
+      <c r="F108" s="156"/>
+      <c r="G108" s="156"/>
+      <c r="H108" s="156"/>
+      <c r="I108" s="156"/>
+      <c r="J108" s="156"/>
+      <c r="K108" s="156"/>
     </row>
     <row r="109" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B109" s="37" t="s">
@@ -51346,7 +51797,7 @@
         <f>I109</f>
         <v>0.40700476408952818</v>
       </c>
-      <c r="K109" s="135">
+      <c r="K109" s="144">
         <v>4</v>
       </c>
     </row>
@@ -51382,7 +51833,7 @@
         <f>SUM(I109:I110)</f>
         <v>0.52671734143468285</v>
       </c>
-      <c r="K110" s="136"/>
+      <c r="K110" s="170"/>
     </row>
     <row r="111" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B111" s="37" t="s">
@@ -51416,1025 +51867,1081 @@
         <f>SUM(I109:I111)</f>
         <v>0.66874186868373742</v>
       </c>
-      <c r="K111" s="137"/>
+      <c r="K111" s="145"/>
     </row>
     <row r="114" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B114" s="139" t="s">
+      <c r="B114" s="154" t="s">
         <v>212</v>
       </c>
-      <c r="C114" s="139"/>
-      <c r="D114" s="139"/>
-      <c r="E114" s="139"/>
-      <c r="F114" s="139"/>
-      <c r="G114" s="139"/>
-      <c r="H114" s="139"/>
-      <c r="I114" s="139"/>
-      <c r="J114" s="139"/>
-      <c r="K114" s="139"/>
+      <c r="C114" s="154"/>
+      <c r="D114" s="154"/>
+      <c r="E114" s="154"/>
+      <c r="F114" s="154"/>
+      <c r="G114" s="154"/>
+      <c r="H114" s="154"/>
+      <c r="I114" s="154"/>
+      <c r="J114" s="154"/>
+      <c r="K114" s="154"/>
     </row>
     <row r="115" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B115" s="140" t="s">
+      <c r="B115" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C115" s="140" t="s">
+      <c r="C115" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D115" s="140" t="s">
+      <c r="D115" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E115" s="140" t="s">
+      <c r="E115" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F115" s="140" t="s">
+      <c r="F115" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G115" s="140" t="s">
+      <c r="G115" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H115" s="140" t="s">
+      <c r="H115" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I115" s="140" t="s">
+      <c r="I115" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J115" s="140" t="s">
+      <c r="J115" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K115" s="140" t="s">
+      <c r="K115" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="116" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B116" s="141"/>
-      <c r="C116" s="141"/>
-      <c r="D116" s="141"/>
-      <c r="E116" s="141"/>
-      <c r="F116" s="141"/>
-      <c r="G116" s="141"/>
-      <c r="H116" s="141"/>
-      <c r="I116" s="141"/>
-      <c r="J116" s="141"/>
-      <c r="K116" s="141"/>
+      <c r="B116" s="156"/>
+      <c r="C116" s="156"/>
+      <c r="D116" s="156"/>
+      <c r="E116" s="156"/>
+      <c r="F116" s="156"/>
+      <c r="G116" s="156"/>
+      <c r="H116" s="156"/>
+      <c r="I116" s="156"/>
+      <c r="J116" s="156"/>
+      <c r="K116" s="156"/>
     </row>
     <row r="117" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B117" s="157" t="s">
+      <c r="B117" s="146" t="s">
         <v>213</v>
       </c>
-      <c r="C117" s="155">
+      <c r="C117" s="148">
         <v>5400</v>
       </c>
-      <c r="D117" s="161">
+      <c r="D117" s="150">
         <v>220</v>
       </c>
-      <c r="E117" s="159">
+      <c r="E117" s="152">
         <f>C117/D117</f>
         <v>24.545454545454547</v>
       </c>
-      <c r="F117" s="159">
+      <c r="F117" s="152">
         <v>3.5453999999999999</v>
       </c>
-      <c r="G117" s="159">
+      <c r="G117" s="152">
         <f>F117/1000</f>
         <v>3.5453999999999998E-3</v>
       </c>
-      <c r="H117" s="155">
+      <c r="H117" s="148">
         <v>3.63</v>
       </c>
-      <c r="I117" s="159">
+      <c r="I117" s="152">
         <f>H117*E117*G117*100/D117</f>
         <v>0.14358870000000001</v>
       </c>
-      <c r="J117" s="159">
+      <c r="J117" s="152">
         <f>I117</f>
         <v>0.14358870000000001</v>
       </c>
-      <c r="K117" s="135">
+      <c r="K117" s="144">
         <v>10</v>
       </c>
     </row>
     <row r="118" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B118" s="158"/>
-      <c r="C118" s="156"/>
-      <c r="D118" s="162"/>
-      <c r="E118" s="160"/>
-      <c r="F118" s="160"/>
-      <c r="G118" s="160"/>
-      <c r="H118" s="156"/>
-      <c r="I118" s="160"/>
-      <c r="J118" s="160"/>
-      <c r="K118" s="137"/>
+      <c r="B118" s="147"/>
+      <c r="C118" s="149"/>
+      <c r="D118" s="151"/>
+      <c r="E118" s="153"/>
+      <c r="F118" s="153"/>
+      <c r="G118" s="153"/>
+      <c r="H118" s="149"/>
+      <c r="I118" s="153"/>
+      <c r="J118" s="153"/>
+      <c r="K118" s="145"/>
     </row>
     <row r="121" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B121" s="139" t="s">
+      <c r="B121" s="154" t="s">
         <v>214</v>
       </c>
-      <c r="C121" s="139"/>
-      <c r="D121" s="139"/>
-      <c r="E121" s="139"/>
-      <c r="F121" s="139"/>
-      <c r="G121" s="139"/>
-      <c r="H121" s="139"/>
-      <c r="I121" s="139"/>
-      <c r="J121" s="139"/>
-      <c r="K121" s="139"/>
+      <c r="C121" s="154"/>
+      <c r="D121" s="154"/>
+      <c r="E121" s="154"/>
+      <c r="F121" s="154"/>
+      <c r="G121" s="154"/>
+      <c r="H121" s="154"/>
+      <c r="I121" s="154"/>
+      <c r="J121" s="154"/>
+      <c r="K121" s="154"/>
     </row>
     <row r="122" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B122" s="140" t="s">
+      <c r="B122" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C122" s="140" t="s">
+      <c r="C122" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D122" s="140" t="s">
+      <c r="D122" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E122" s="140" t="s">
+      <c r="E122" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F122" s="140" t="s">
+      <c r="F122" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G122" s="140" t="s">
+      <c r="G122" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H122" s="140" t="s">
+      <c r="H122" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I122" s="140" t="s">
+      <c r="I122" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J122" s="140" t="s">
+      <c r="J122" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K122" s="140" t="s">
+      <c r="K122" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="123" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B123" s="141"/>
-      <c r="C123" s="141"/>
-      <c r="D123" s="141"/>
-      <c r="E123" s="141"/>
-      <c r="F123" s="141"/>
-      <c r="G123" s="141"/>
-      <c r="H123" s="141"/>
-      <c r="I123" s="141"/>
-      <c r="J123" s="141"/>
-      <c r="K123" s="141"/>
+      <c r="B123" s="156"/>
+      <c r="C123" s="156"/>
+      <c r="D123" s="156"/>
+      <c r="E123" s="156"/>
+      <c r="F123" s="156"/>
+      <c r="G123" s="156"/>
+      <c r="H123" s="156"/>
+      <c r="I123" s="156"/>
+      <c r="J123" s="156"/>
+      <c r="K123" s="156"/>
     </row>
     <row r="124" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B124" s="157" t="s">
+      <c r="B124" s="146" t="s">
         <v>215</v>
       </c>
-      <c r="C124" s="155">
+      <c r="C124" s="148">
         <v>5400</v>
       </c>
-      <c r="D124" s="161">
+      <c r="D124" s="150">
         <v>220</v>
       </c>
-      <c r="E124" s="159">
+      <c r="E124" s="152">
         <f>C124/D124</f>
         <v>24.545454545454547</v>
       </c>
-      <c r="F124" s="159">
+      <c r="F124" s="152">
         <v>8.3941999999999997</v>
       </c>
-      <c r="G124" s="159">
+      <c r="G124" s="152">
         <f>F124/1000</f>
         <v>8.3941999999999992E-3</v>
       </c>
-      <c r="H124" s="155">
+      <c r="H124" s="148">
         <v>3.63</v>
       </c>
-      <c r="I124" s="159">
+      <c r="I124" s="152">
         <f>H124*E124*G124*100/D124</f>
         <v>0.33996510000000002</v>
       </c>
-      <c r="J124" s="159">
+      <c r="J124" s="152">
         <f>I124</f>
         <v>0.33996510000000002</v>
       </c>
-      <c r="K124" s="135">
+      <c r="K124" s="144">
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B125" s="158"/>
-      <c r="C125" s="156"/>
-      <c r="D125" s="162"/>
-      <c r="E125" s="160"/>
-      <c r="F125" s="160"/>
-      <c r="G125" s="160"/>
-      <c r="H125" s="156"/>
-      <c r="I125" s="160"/>
-      <c r="J125" s="160"/>
-      <c r="K125" s="137"/>
+      <c r="B125" s="147"/>
+      <c r="C125" s="149"/>
+      <c r="D125" s="151"/>
+      <c r="E125" s="153"/>
+      <c r="F125" s="153"/>
+      <c r="G125" s="153"/>
+      <c r="H125" s="149"/>
+      <c r="I125" s="153"/>
+      <c r="J125" s="153"/>
+      <c r="K125" s="145"/>
     </row>
     <row r="128" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B128" s="139" t="s">
+      <c r="B128" s="154" t="s">
         <v>216</v>
       </c>
-      <c r="C128" s="139"/>
-      <c r="D128" s="139"/>
-      <c r="E128" s="139"/>
-      <c r="F128" s="139"/>
-      <c r="G128" s="139"/>
-      <c r="H128" s="139"/>
-      <c r="I128" s="139"/>
-      <c r="J128" s="139"/>
-      <c r="K128" s="139"/>
+      <c r="C128" s="154"/>
+      <c r="D128" s="154"/>
+      <c r="E128" s="154"/>
+      <c r="F128" s="154"/>
+      <c r="G128" s="154"/>
+      <c r="H128" s="154"/>
+      <c r="I128" s="154"/>
+      <c r="J128" s="154"/>
+      <c r="K128" s="154"/>
     </row>
     <row r="129" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B129" s="140" t="s">
+      <c r="B129" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C129" s="140" t="s">
+      <c r="C129" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D129" s="140" t="s">
+      <c r="D129" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E129" s="140" t="s">
+      <c r="E129" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F129" s="140" t="s">
+      <c r="F129" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G129" s="140" t="s">
+      <c r="G129" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H129" s="140" t="s">
+      <c r="H129" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I129" s="140" t="s">
+      <c r="I129" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J129" s="140" t="s">
+      <c r="J129" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K129" s="140" t="s">
+      <c r="K129" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="130" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B130" s="141"/>
-      <c r="C130" s="141"/>
-      <c r="D130" s="141"/>
-      <c r="E130" s="141"/>
-      <c r="F130" s="141"/>
-      <c r="G130" s="141"/>
-      <c r="H130" s="141"/>
-      <c r="I130" s="141"/>
-      <c r="J130" s="141"/>
-      <c r="K130" s="141"/>
+      <c r="B130" s="156"/>
+      <c r="C130" s="156"/>
+      <c r="D130" s="156"/>
+      <c r="E130" s="156"/>
+      <c r="F130" s="156"/>
+      <c r="G130" s="156"/>
+      <c r="H130" s="156"/>
+      <c r="I130" s="156"/>
+      <c r="J130" s="156"/>
+      <c r="K130" s="156"/>
     </row>
     <row r="131" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="157" t="s">
+      <c r="B131" s="146" t="s">
         <v>217</v>
       </c>
-      <c r="C131" s="155">
+      <c r="C131" s="148">
         <v>2625</v>
       </c>
-      <c r="D131" s="161">
+      <c r="D131" s="150">
         <v>220</v>
       </c>
-      <c r="E131" s="159">
+      <c r="E131" s="152">
         <f>C131/D131</f>
         <v>11.931818181818182</v>
       </c>
-      <c r="F131" s="159">
+      <c r="F131" s="152">
         <v>12.476699999999999</v>
       </c>
-      <c r="G131" s="159">
+      <c r="G131" s="152">
         <f>F131/1000</f>
         <v>1.2476699999999999E-2</v>
       </c>
-      <c r="H131" s="155">
+      <c r="H131" s="148">
         <v>14.3</v>
       </c>
-      <c r="I131" s="159">
+      <c r="I131" s="152">
         <f>H131*E131*G131*100/D131</f>
         <v>0.96765315340909075</v>
       </c>
-      <c r="J131" s="159">
+      <c r="J131" s="152">
         <f>I131</f>
         <v>0.96765315340909075</v>
       </c>
-      <c r="K131" s="135">
+      <c r="K131" s="144">
         <v>2.5</v>
       </c>
     </row>
     <row r="132" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="158"/>
-      <c r="C132" s="156"/>
-      <c r="D132" s="162"/>
-      <c r="E132" s="160"/>
-      <c r="F132" s="160"/>
-      <c r="G132" s="160"/>
-      <c r="H132" s="156"/>
-      <c r="I132" s="160"/>
-      <c r="J132" s="160"/>
-      <c r="K132" s="137"/>
+      <c r="B132" s="147"/>
+      <c r="C132" s="149"/>
+      <c r="D132" s="151"/>
+      <c r="E132" s="153"/>
+      <c r="F132" s="153"/>
+      <c r="G132" s="153"/>
+      <c r="H132" s="149"/>
+      <c r="I132" s="153"/>
+      <c r="J132" s="153"/>
+      <c r="K132" s="145"/>
     </row>
     <row r="135" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="139" t="s">
+      <c r="B135" s="154" t="s">
         <v>218</v>
       </c>
-      <c r="C135" s="139"/>
-      <c r="D135" s="139"/>
-      <c r="E135" s="139"/>
-      <c r="F135" s="139"/>
-      <c r="G135" s="139"/>
-      <c r="H135" s="139"/>
-      <c r="I135" s="139"/>
-      <c r="J135" s="139"/>
-      <c r="K135" s="139"/>
+      <c r="C135" s="154"/>
+      <c r="D135" s="154"/>
+      <c r="E135" s="154"/>
+      <c r="F135" s="154"/>
+      <c r="G135" s="154"/>
+      <c r="H135" s="154"/>
+      <c r="I135" s="154"/>
+      <c r="J135" s="154"/>
+      <c r="K135" s="154"/>
     </row>
     <row r="136" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="140" t="s">
+      <c r="B136" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C136" s="140" t="s">
+      <c r="C136" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D136" s="140" t="s">
+      <c r="D136" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E136" s="140" t="s">
+      <c r="E136" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F136" s="140" t="s">
+      <c r="F136" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G136" s="140" t="s">
+      <c r="G136" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H136" s="140" t="s">
+      <c r="H136" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I136" s="140" t="s">
+      <c r="I136" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J136" s="140" t="s">
+      <c r="J136" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K136" s="140" t="s">
+      <c r="K136" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="137" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="141"/>
-      <c r="C137" s="141"/>
-      <c r="D137" s="141"/>
-      <c r="E137" s="141"/>
-      <c r="F137" s="141"/>
-      <c r="G137" s="141"/>
-      <c r="H137" s="141"/>
-      <c r="I137" s="141"/>
-      <c r="J137" s="141"/>
-      <c r="K137" s="141"/>
+      <c r="B137" s="156"/>
+      <c r="C137" s="156"/>
+      <c r="D137" s="156"/>
+      <c r="E137" s="156"/>
+      <c r="F137" s="156"/>
+      <c r="G137" s="156"/>
+      <c r="H137" s="156"/>
+      <c r="I137" s="156"/>
+      <c r="J137" s="156"/>
+      <c r="K137" s="156"/>
     </row>
     <row r="138" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="157" t="s">
+      <c r="B138" s="146" t="s">
         <v>221</v>
       </c>
-      <c r="C138" s="155">
+      <c r="C138" s="148">
         <v>1650</v>
       </c>
-      <c r="D138" s="161">
+      <c r="D138" s="150">
         <v>220</v>
       </c>
-      <c r="E138" s="159">
+      <c r="E138" s="152">
         <f>C138/D138</f>
         <v>7.5</v>
       </c>
-      <c r="F138" s="159">
+      <c r="F138" s="152">
         <v>8.0559999999999992</v>
       </c>
-      <c r="G138" s="159">
+      <c r="G138" s="152">
         <f>F138/1000</f>
         <v>8.0559999999999989E-3</v>
       </c>
-      <c r="H138" s="155">
+      <c r="H138" s="148">
         <v>23.3</v>
       </c>
-      <c r="I138" s="159">
+      <c r="I138" s="152">
         <f>H138*E138*G138*100/D138</f>
         <v>0.63990272727272723</v>
       </c>
-      <c r="J138" s="159">
+      <c r="J138" s="152">
         <f>I138</f>
         <v>0.63990272727272723</v>
       </c>
-      <c r="K138" s="135">
+      <c r="K138" s="144">
         <v>1.5</v>
       </c>
     </row>
     <row r="139" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="158"/>
-      <c r="C139" s="156"/>
-      <c r="D139" s="162"/>
-      <c r="E139" s="160"/>
-      <c r="F139" s="160"/>
-      <c r="G139" s="160"/>
-      <c r="H139" s="156"/>
-      <c r="I139" s="160"/>
-      <c r="J139" s="160"/>
-      <c r="K139" s="137"/>
+      <c r="B139" s="147"/>
+      <c r="C139" s="149"/>
+      <c r="D139" s="151"/>
+      <c r="E139" s="153"/>
+      <c r="F139" s="153"/>
+      <c r="G139" s="153"/>
+      <c r="H139" s="149"/>
+      <c r="I139" s="153"/>
+      <c r="J139" s="153"/>
+      <c r="K139" s="145"/>
     </row>
     <row r="142" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="139" t="s">
+      <c r="B142" s="154" t="s">
         <v>219</v>
       </c>
-      <c r="C142" s="139"/>
-      <c r="D142" s="139"/>
-      <c r="E142" s="139"/>
-      <c r="F142" s="139"/>
-      <c r="G142" s="139"/>
-      <c r="H142" s="139"/>
-      <c r="I142" s="139"/>
-      <c r="J142" s="139"/>
-      <c r="K142" s="139"/>
+      <c r="C142" s="154"/>
+      <c r="D142" s="154"/>
+      <c r="E142" s="154"/>
+      <c r="F142" s="154"/>
+      <c r="G142" s="154"/>
+      <c r="H142" s="154"/>
+      <c r="I142" s="154"/>
+      <c r="J142" s="154"/>
+      <c r="K142" s="154"/>
     </row>
     <row r="143" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="140" t="s">
+      <c r="B143" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C143" s="140" t="s">
+      <c r="C143" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D143" s="140" t="s">
+      <c r="D143" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E143" s="140" t="s">
+      <c r="E143" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F143" s="140" t="s">
+      <c r="F143" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G143" s="140" t="s">
+      <c r="G143" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H143" s="140" t="s">
+      <c r="H143" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I143" s="140" t="s">
+      <c r="I143" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J143" s="140" t="s">
+      <c r="J143" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K143" s="140" t="s">
+      <c r="K143" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="144" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="141"/>
-      <c r="C144" s="141"/>
-      <c r="D144" s="141"/>
-      <c r="E144" s="141"/>
-      <c r="F144" s="141"/>
-      <c r="G144" s="141"/>
-      <c r="H144" s="141"/>
-      <c r="I144" s="141"/>
-      <c r="J144" s="141"/>
-      <c r="K144" s="141"/>
+      <c r="B144" s="156"/>
+      <c r="C144" s="156"/>
+      <c r="D144" s="156"/>
+      <c r="E144" s="156"/>
+      <c r="F144" s="156"/>
+      <c r="G144" s="156"/>
+      <c r="H144" s="156"/>
+      <c r="I144" s="156"/>
+      <c r="J144" s="156"/>
+      <c r="K144" s="156"/>
     </row>
     <row r="145" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="157" t="s">
+      <c r="B145" s="146" t="s">
         <v>220</v>
       </c>
-      <c r="C145" s="155">
+      <c r="C145" s="148">
         <v>1650</v>
       </c>
-      <c r="D145" s="161">
+      <c r="D145" s="150">
         <v>220</v>
       </c>
-      <c r="E145" s="159">
+      <c r="E145" s="152">
         <f>C145/D145</f>
         <v>7.5</v>
       </c>
-      <c r="F145" s="159">
+      <c r="F145" s="152">
         <v>5.7344999999999997</v>
       </c>
-      <c r="G145" s="159">
+      <c r="G145" s="152">
         <f>F145/1000</f>
         <v>5.7345E-3</v>
       </c>
-      <c r="H145" s="155">
+      <c r="H145" s="148">
         <v>23.3</v>
       </c>
-      <c r="I145" s="159">
+      <c r="I145" s="152">
         <f>H145*E145*G145*100/D145</f>
         <v>0.45550176136363635</v>
       </c>
-      <c r="J145" s="159">
+      <c r="J145" s="152">
         <f>I145</f>
         <v>0.45550176136363635</v>
       </c>
-      <c r="K145" s="135">
+      <c r="K145" s="144">
         <v>1.5</v>
       </c>
     </row>
     <row r="146" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="158"/>
-      <c r="C146" s="156"/>
-      <c r="D146" s="162"/>
-      <c r="E146" s="160"/>
-      <c r="F146" s="160"/>
-      <c r="G146" s="160"/>
-      <c r="H146" s="156"/>
-      <c r="I146" s="160"/>
-      <c r="J146" s="160"/>
-      <c r="K146" s="137"/>
+      <c r="B146" s="147"/>
+      <c r="C146" s="149"/>
+      <c r="D146" s="151"/>
+      <c r="E146" s="153"/>
+      <c r="F146" s="153"/>
+      <c r="G146" s="153"/>
+      <c r="H146" s="149"/>
+      <c r="I146" s="153"/>
+      <c r="J146" s="153"/>
+      <c r="K146" s="145"/>
     </row>
     <row r="149" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="139" t="s">
+      <c r="B149" s="154" t="s">
         <v>222</v>
       </c>
-      <c r="C149" s="139"/>
-      <c r="D149" s="139"/>
-      <c r="E149" s="139"/>
-      <c r="F149" s="139"/>
-      <c r="G149" s="139"/>
-      <c r="H149" s="139"/>
-      <c r="I149" s="139"/>
-      <c r="J149" s="139"/>
-      <c r="K149" s="139"/>
+      <c r="C149" s="154"/>
+      <c r="D149" s="154"/>
+      <c r="E149" s="154"/>
+      <c r="F149" s="154"/>
+      <c r="G149" s="154"/>
+      <c r="H149" s="154"/>
+      <c r="I149" s="154"/>
+      <c r="J149" s="154"/>
+      <c r="K149" s="154"/>
     </row>
     <row r="150" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="140" t="s">
+      <c r="B150" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C150" s="140" t="s">
+      <c r="C150" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D150" s="140" t="s">
+      <c r="D150" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E150" s="140" t="s">
+      <c r="E150" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F150" s="140" t="s">
+      <c r="F150" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G150" s="140" t="s">
+      <c r="G150" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H150" s="140" t="s">
+      <c r="H150" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I150" s="140" t="s">
+      <c r="I150" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J150" s="140" t="s">
+      <c r="J150" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K150" s="140" t="s">
+      <c r="K150" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="151" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="141"/>
-      <c r="C151" s="141"/>
-      <c r="D151" s="141"/>
-      <c r="E151" s="141"/>
-      <c r="F151" s="141"/>
-      <c r="G151" s="141"/>
-      <c r="H151" s="141"/>
-      <c r="I151" s="141"/>
-      <c r="J151" s="141"/>
-      <c r="K151" s="141"/>
+      <c r="B151" s="156"/>
+      <c r="C151" s="156"/>
+      <c r="D151" s="156"/>
+      <c r="E151" s="156"/>
+      <c r="F151" s="156"/>
+      <c r="G151" s="156"/>
+      <c r="H151" s="156"/>
+      <c r="I151" s="156"/>
+      <c r="J151" s="156"/>
+      <c r="K151" s="156"/>
     </row>
     <row r="152" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="157" t="s">
+      <c r="B152" s="146" t="s">
         <v>223</v>
       </c>
-      <c r="C152" s="155">
+      <c r="C152" s="148">
         <v>400</v>
       </c>
-      <c r="D152" s="161">
+      <c r="D152" s="150">
         <v>127</v>
       </c>
-      <c r="E152" s="159">
+      <c r="E152" s="152">
         <f>C152/D152</f>
         <v>3.1496062992125986</v>
       </c>
-      <c r="F152" s="159">
+      <c r="F152" s="152">
         <v>25.872699999999998</v>
       </c>
-      <c r="G152" s="159">
+      <c r="G152" s="152">
         <f>F152/1000</f>
         <v>2.5872699999999998E-2</v>
       </c>
-      <c r="H152" s="155">
+      <c r="H152" s="148">
         <v>23.3</v>
       </c>
-      <c r="I152" s="159">
+      <c r="I152" s="152">
         <f>H152*E152*G152*100/D152</f>
         <v>1.4950310868621739</v>
       </c>
-      <c r="J152" s="159">
+      <c r="J152" s="152">
         <f>I152</f>
         <v>1.4950310868621739</v>
       </c>
-      <c r="K152" s="135">
+      <c r="K152" s="144">
         <v>1.5</v>
       </c>
     </row>
     <row r="153" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="158"/>
-      <c r="C153" s="156"/>
-      <c r="D153" s="162"/>
-      <c r="E153" s="160"/>
-      <c r="F153" s="160"/>
-      <c r="G153" s="160"/>
-      <c r="H153" s="156"/>
-      <c r="I153" s="160"/>
-      <c r="J153" s="160"/>
-      <c r="K153" s="137"/>
+      <c r="B153" s="147"/>
+      <c r="C153" s="149"/>
+      <c r="D153" s="151"/>
+      <c r="E153" s="153"/>
+      <c r="F153" s="153"/>
+      <c r="G153" s="153"/>
+      <c r="H153" s="149"/>
+      <c r="I153" s="153"/>
+      <c r="J153" s="153"/>
+      <c r="K153" s="145"/>
     </row>
     <row r="156" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="139" t="s">
+      <c r="B156" s="154" t="s">
         <v>224</v>
       </c>
-      <c r="C156" s="139"/>
-      <c r="D156" s="139"/>
-      <c r="E156" s="139"/>
-      <c r="F156" s="139"/>
-      <c r="G156" s="139"/>
-      <c r="H156" s="139"/>
-      <c r="I156" s="139"/>
-      <c r="J156" s="139"/>
-      <c r="K156" s="139"/>
+      <c r="C156" s="154"/>
+      <c r="D156" s="154"/>
+      <c r="E156" s="154"/>
+      <c r="F156" s="154"/>
+      <c r="G156" s="154"/>
+      <c r="H156" s="154"/>
+      <c r="I156" s="154"/>
+      <c r="J156" s="154"/>
+      <c r="K156" s="154"/>
     </row>
     <row r="157" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="140" t="s">
+      <c r="B157" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C157" s="140" t="s">
+      <c r="C157" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D157" s="140" t="s">
+      <c r="D157" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E157" s="140" t="s">
+      <c r="E157" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F157" s="140" t="s">
+      <c r="F157" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G157" s="140" t="s">
+      <c r="G157" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H157" s="140" t="s">
+      <c r="H157" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I157" s="140" t="s">
+      <c r="I157" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J157" s="140" t="s">
+      <c r="J157" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K157" s="140" t="s">
+      <c r="K157" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="158" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B158" s="141"/>
-      <c r="C158" s="141"/>
-      <c r="D158" s="141"/>
-      <c r="E158" s="141"/>
-      <c r="F158" s="141"/>
-      <c r="G158" s="141"/>
-      <c r="H158" s="141"/>
-      <c r="I158" s="141"/>
-      <c r="J158" s="141"/>
-      <c r="K158" s="141"/>
+      <c r="B158" s="156"/>
+      <c r="C158" s="156"/>
+      <c r="D158" s="156"/>
+      <c r="E158" s="156"/>
+      <c r="F158" s="156"/>
+      <c r="G158" s="156"/>
+      <c r="H158" s="156"/>
+      <c r="I158" s="156"/>
+      <c r="J158" s="156"/>
+      <c r="K158" s="156"/>
     </row>
     <row r="159" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B159" s="157" t="s">
+      <c r="B159" s="146" t="s">
         <v>225</v>
       </c>
-      <c r="C159" s="155">
+      <c r="C159" s="148">
         <v>1760</v>
       </c>
-      <c r="D159" s="161">
+      <c r="D159" s="150">
         <v>220</v>
       </c>
-      <c r="E159" s="159">
+      <c r="E159" s="152">
         <f>C159/D159</f>
         <v>8</v>
       </c>
-      <c r="F159" s="159">
+      <c r="F159" s="152">
         <v>11.7094</v>
       </c>
-      <c r="G159" s="159">
+      <c r="G159" s="152">
         <f>F159/1000</f>
         <v>1.17094E-2</v>
       </c>
-      <c r="H159" s="155">
+      <c r="H159" s="148">
         <v>23.3</v>
       </c>
-      <c r="I159" s="159">
+      <c r="I159" s="152">
         <f>H159*E159*G159*100/D159</f>
         <v>0.99210552727272738</v>
       </c>
-      <c r="J159" s="159">
+      <c r="J159" s="152">
         <f>I159</f>
         <v>0.99210552727272738</v>
       </c>
-      <c r="K159" s="135">
+      <c r="K159" s="144">
         <v>1.5</v>
       </c>
     </row>
     <row r="160" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="158"/>
-      <c r="C160" s="156"/>
-      <c r="D160" s="162"/>
-      <c r="E160" s="160"/>
-      <c r="F160" s="160"/>
-      <c r="G160" s="160"/>
-      <c r="H160" s="156"/>
-      <c r="I160" s="160"/>
-      <c r="J160" s="160"/>
-      <c r="K160" s="137"/>
+      <c r="B160" s="147"/>
+      <c r="C160" s="149"/>
+      <c r="D160" s="151"/>
+      <c r="E160" s="153"/>
+      <c r="F160" s="153"/>
+      <c r="G160" s="153"/>
+      <c r="H160" s="149"/>
+      <c r="I160" s="153"/>
+      <c r="J160" s="153"/>
+      <c r="K160" s="145"/>
     </row>
     <row r="163" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="139" t="s">
+      <c r="B163" s="154" t="s">
         <v>226</v>
       </c>
-      <c r="C163" s="139"/>
-      <c r="D163" s="139"/>
-      <c r="E163" s="139"/>
-      <c r="F163" s="139"/>
-      <c r="G163" s="139"/>
-      <c r="H163" s="139"/>
-      <c r="I163" s="139"/>
-      <c r="J163" s="139"/>
-      <c r="K163" s="139"/>
+      <c r="C163" s="154"/>
+      <c r="D163" s="154"/>
+      <c r="E163" s="154"/>
+      <c r="F163" s="154"/>
+      <c r="G163" s="154"/>
+      <c r="H163" s="154"/>
+      <c r="I163" s="154"/>
+      <c r="J163" s="154"/>
+      <c r="K163" s="154"/>
     </row>
     <row r="164" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B164" s="140" t="s">
+      <c r="B164" s="155" t="s">
         <v>129</v>
       </c>
-      <c r="C164" s="140" t="s">
+      <c r="C164" s="155" t="s">
         <v>130</v>
       </c>
-      <c r="D164" s="140" t="s">
+      <c r="D164" s="155" t="s">
         <v>154</v>
       </c>
-      <c r="E164" s="140" t="s">
+      <c r="E164" s="155" t="s">
         <v>131</v>
       </c>
-      <c r="F164" s="140" t="s">
+      <c r="F164" s="155" t="s">
         <v>132</v>
       </c>
-      <c r="G164" s="140" t="s">
+      <c r="G164" s="155" t="s">
         <v>133</v>
       </c>
-      <c r="H164" s="140" t="s">
+      <c r="H164" s="155" t="s">
         <v>177</v>
       </c>
-      <c r="I164" s="140" t="s">
+      <c r="I164" s="155" t="s">
         <v>134</v>
       </c>
-      <c r="J164" s="140" t="s">
+      <c r="J164" s="155" t="s">
         <v>135</v>
       </c>
-      <c r="K164" s="140" t="s">
+      <c r="K164" s="155" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="165" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B165" s="141"/>
-      <c r="C165" s="141"/>
-      <c r="D165" s="141"/>
-      <c r="E165" s="141"/>
-      <c r="F165" s="141"/>
-      <c r="G165" s="141"/>
-      <c r="H165" s="141"/>
-      <c r="I165" s="141"/>
-      <c r="J165" s="141"/>
-      <c r="K165" s="141"/>
+      <c r="B165" s="156"/>
+      <c r="C165" s="156"/>
+      <c r="D165" s="156"/>
+      <c r="E165" s="156"/>
+      <c r="F165" s="156"/>
+      <c r="G165" s="156"/>
+      <c r="H165" s="156"/>
+      <c r="I165" s="156"/>
+      <c r="J165" s="156"/>
+      <c r="K165" s="156"/>
     </row>
     <row r="166" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B166" s="157" t="s">
+      <c r="B166" s="146" t="s">
         <v>227</v>
       </c>
-      <c r="C166" s="155">
+      <c r="C166" s="148">
         <v>300</v>
       </c>
-      <c r="D166" s="161">
+      <c r="D166" s="150">
         <v>220</v>
       </c>
-      <c r="E166" s="159">
+      <c r="E166" s="152">
         <f>C166/D166</f>
         <v>1.3636363636363635</v>
       </c>
-      <c r="F166" s="159">
+      <c r="F166" s="152">
         <v>13.804600000000001</v>
       </c>
-      <c r="G166" s="159">
+      <c r="G166" s="152">
         <f>F166/1000</f>
         <v>1.38046E-2</v>
       </c>
-      <c r="H166" s="155">
+      <c r="H166" s="148">
         <v>23.3</v>
       </c>
-      <c r="I166" s="159">
+      <c r="I166" s="152">
         <f>H166*E166*G166*100/D166</f>
         <v>0.19936808677685947</v>
       </c>
-      <c r="J166" s="159">
+      <c r="J166" s="152">
         <f>I166</f>
         <v>0.19936808677685947</v>
       </c>
-      <c r="K166" s="135">
+      <c r="K166" s="144">
         <v>1.5</v>
       </c>
     </row>
     <row r="167" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B167" s="158"/>
-      <c r="C167" s="156"/>
-      <c r="D167" s="162"/>
-      <c r="E167" s="160"/>
-      <c r="F167" s="160"/>
-      <c r="G167" s="160"/>
-      <c r="H167" s="156"/>
-      <c r="I167" s="160"/>
-      <c r="J167" s="160"/>
-      <c r="K167" s="137"/>
+      <c r="B167" s="147"/>
+      <c r="C167" s="149"/>
+      <c r="D167" s="151"/>
+      <c r="E167" s="153"/>
+      <c r="F167" s="153"/>
+      <c r="G167" s="153"/>
+      <c r="H167" s="149"/>
+      <c r="I167" s="153"/>
+      <c r="J167" s="153"/>
+      <c r="K167" s="145"/>
+    </row>
+    <row r="170" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B170" s="154" t="s">
+        <v>297</v>
+      </c>
+      <c r="C170" s="154"/>
+      <c r="D170" s="154"/>
+      <c r="E170" s="154"/>
+      <c r="F170" s="154"/>
+      <c r="G170" s="154"/>
+      <c r="H170" s="154"/>
+      <c r="I170" s="154"/>
+      <c r="J170" s="154"/>
+      <c r="K170" s="154"/>
+    </row>
+    <row r="171" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B171" s="155" t="s">
+        <v>129</v>
+      </c>
+      <c r="C171" s="155" t="s">
+        <v>130</v>
+      </c>
+      <c r="D171" s="155" t="s">
+        <v>154</v>
+      </c>
+      <c r="E171" s="155" t="s">
+        <v>131</v>
+      </c>
+      <c r="F171" s="155" t="s">
+        <v>132</v>
+      </c>
+      <c r="G171" s="155" t="s">
+        <v>133</v>
+      </c>
+      <c r="H171" s="155" t="s">
+        <v>177</v>
+      </c>
+      <c r="I171" s="155" t="s">
+        <v>134</v>
+      </c>
+      <c r="J171" s="155" t="s">
+        <v>135</v>
+      </c>
+      <c r="K171" s="155" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="172" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B172" s="156"/>
+      <c r="C172" s="156"/>
+      <c r="D172" s="156"/>
+      <c r="E172" s="156"/>
+      <c r="F172" s="156"/>
+      <c r="G172" s="156"/>
+      <c r="H172" s="156"/>
+      <c r="I172" s="156"/>
+      <c r="J172" s="156"/>
+      <c r="K172" s="156"/>
+    </row>
+    <row r="173" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B173" s="146" t="s">
+        <v>298</v>
+      </c>
+      <c r="C173" s="148">
+        <v>38685</v>
+      </c>
+      <c r="D173" s="150">
+        <v>380</v>
+      </c>
+      <c r="E173" s="152">
+        <f>C173/D173</f>
+        <v>101.80263157894737</v>
+      </c>
+      <c r="F173" s="152">
+        <v>9.2635000000000005</v>
+      </c>
+      <c r="G173" s="152">
+        <f>F173/1000</f>
+        <v>9.2635000000000009E-3</v>
+      </c>
+      <c r="H173" s="148">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="I173" s="152">
+        <f>H173*E173*G173*100/D173</f>
+        <v>0.27795118919667594</v>
+      </c>
+      <c r="J173" s="152">
+        <f>I173</f>
+        <v>0.27795118919667594</v>
+      </c>
+      <c r="K173" s="144">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="174" spans="2:11" ht="20.100000000000001" customHeight="1">
+      <c r="B174" s="147"/>
+      <c r="C174" s="149"/>
+      <c r="D174" s="151"/>
+      <c r="E174" s="153"/>
+      <c r="F174" s="153"/>
+      <c r="G174" s="153"/>
+      <c r="H174" s="149"/>
+      <c r="I174" s="153"/>
+      <c r="J174" s="153"/>
+      <c r="K174" s="145"/>
     </row>
   </sheetData>
-  <mergeCells count="287">
-    <mergeCell ref="K166:K167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="J166:J167"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="B163:K163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="G164:G165"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="J164:J165"/>
-    <mergeCell ref="K164:K165"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="B156:K156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="H152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="B149:K149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="B142:K142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="B135:K135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="K136:K137"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="B128:K128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="J129:J130"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="B121:K121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
+  <mergeCells count="308">
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="J173:J174"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="K109:K111"/>
+    <mergeCell ref="M2:Q2"/>
+    <mergeCell ref="K100:K103"/>
+    <mergeCell ref="B106:K106"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="H107:H108"/>
+    <mergeCell ref="I107:I108"/>
+    <mergeCell ref="J107:J108"/>
+    <mergeCell ref="K107:K108"/>
+    <mergeCell ref="K90:K94"/>
+    <mergeCell ref="B97:K97"/>
+    <mergeCell ref="B98:B99"/>
+    <mergeCell ref="C98:C99"/>
+    <mergeCell ref="D98:D99"/>
+    <mergeCell ref="E98:E99"/>
+    <mergeCell ref="F98:F99"/>
+    <mergeCell ref="G98:G99"/>
+    <mergeCell ref="H98:H99"/>
+    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="B87:K87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="K88:K89"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="K79:K84"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="B67:K67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K49:K54"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="K29:K43"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="G7:J9"/>
     <mergeCell ref="B3:J3"/>
@@ -52459,102 +52966,173 @@
     <mergeCell ref="B10:H10"/>
     <mergeCell ref="K14:K23"/>
     <mergeCell ref="B26:K26"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K49:K54"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="K29:K43"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="K79:K84"/>
-    <mergeCell ref="K70:K73"/>
-    <mergeCell ref="B67:K67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="B87:K87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="K109:K111"/>
-    <mergeCell ref="M2:Q2"/>
-    <mergeCell ref="K100:K103"/>
-    <mergeCell ref="B106:K106"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="C107:C108"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="H107:H108"/>
-    <mergeCell ref="I107:I108"/>
-    <mergeCell ref="J107:J108"/>
-    <mergeCell ref="K107:K108"/>
-    <mergeCell ref="K90:K94"/>
-    <mergeCell ref="B97:K97"/>
-    <mergeCell ref="B98:B99"/>
-    <mergeCell ref="C98:C99"/>
-    <mergeCell ref="D98:D99"/>
-    <mergeCell ref="E98:E99"/>
-    <mergeCell ref="F98:F99"/>
-    <mergeCell ref="G98:G99"/>
-    <mergeCell ref="H98:H99"/>
-    <mergeCell ref="I98:I99"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="B121:K121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="B128:K128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="B135:K135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="K136:K137"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="B142:K142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="B149:K149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="B156:K156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="B163:K163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="G164:G165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="K164:K165"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="K166:K167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="J166:J167"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -52563,188 +53141,615 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13360EA9-9ED4-48BC-90E6-B3BDA83A8D5D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D34" sqref="D34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="15.7109375" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="15.7109375" style="34"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5DD30DA-6D23-4C37-93B4-82B8DA836735}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
+  <cols>
+    <col min="1" max="16384" width="20.7109375" style="34"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEF36A6-5DD3-4F51-BC82-46BE92CCC810}">
-  <dimension ref="C2:K26"/>
+  <dimension ref="C2:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="2" width="9.140625" style="34"/>
-    <col min="3" max="7" width="23.28515625" style="34" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="34"/>
+    <col min="3" max="4" width="23.28515625" style="34" customWidth="1"/>
+    <col min="5" max="5" width="25.7109375" style="34" customWidth="1"/>
+    <col min="6" max="7" width="23.28515625" style="34" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="34"/>
+    <col min="9" max="10" width="18.28515625" style="34" customWidth="1"/>
+    <col min="11" max="12" width="15.7109375" style="34" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:7" ht="18" customHeight="1">
-      <c r="C2" s="178" t="s">
+    <row r="2" spans="3:13" ht="18" customHeight="1">
+      <c r="C2" s="172" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="179"/>
-      <c r="E2" s="179"/>
-      <c r="F2" s="179"/>
-      <c r="G2" s="180"/>
-    </row>
-    <row r="3" spans="3:7" ht="18" customHeight="1">
-      <c r="C3" s="181" t="s">
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="173"/>
+      <c r="I2" s="157" t="s">
+        <v>125</v>
+      </c>
+      <c r="J2" s="158"/>
+      <c r="K2" s="189"/>
+      <c r="L2" s="189"/>
+      <c r="M2" s="53"/>
+    </row>
+    <row r="3" spans="3:13" ht="18" customHeight="1">
+      <c r="C3" s="175" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="182"/>
-      <c r="E3" s="182"/>
-      <c r="F3" s="182"/>
-      <c r="G3" s="183"/>
-    </row>
-    <row r="4" spans="3:7" ht="18" customHeight="1">
-      <c r="C4" s="184"/>
-      <c r="D4" s="185"/>
-      <c r="E4" s="185"/>
-      <c r="F4" s="185"/>
-      <c r="G4" s="186"/>
-    </row>
-    <row r="5" spans="3:7" ht="18" customHeight="1">
-      <c r="C5" s="187"/>
-      <c r="D5" s="188"/>
-      <c r="E5" s="188"/>
-      <c r="F5" s="188"/>
-      <c r="G5" s="189"/>
-    </row>
-    <row r="6" spans="3:7" ht="18" customHeight="1">
-      <c r="C6" s="190" t="s">
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="177"/>
+      <c r="I3" s="191" t="s">
+        <v>241</v>
+      </c>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="55"/>
+    </row>
+    <row r="4" spans="3:13" ht="18" customHeight="1">
+      <c r="C4" s="178"/>
+      <c r="D4" s="179"/>
+      <c r="E4" s="179"/>
+      <c r="F4" s="179"/>
+      <c r="G4" s="180"/>
+      <c r="I4" s="202" t="s">
+        <v>285</v>
+      </c>
+      <c r="J4" s="203"/>
+      <c r="K4" s="203"/>
+      <c r="L4" s="203"/>
+      <c r="M4" s="204"/>
+    </row>
+    <row r="5" spans="3:13" ht="18" customHeight="1">
+      <c r="C5" s="181"/>
+      <c r="D5" s="182"/>
+      <c r="E5" s="182"/>
+      <c r="F5" s="182"/>
+      <c r="G5" s="183"/>
+      <c r="I5" s="205"/>
+      <c r="J5" s="206"/>
+      <c r="K5" s="206"/>
+      <c r="L5" s="206"/>
+      <c r="M5" s="207"/>
+    </row>
+    <row r="6" spans="3:13" ht="18" customHeight="1">
+      <c r="C6" s="186" t="s">
+        <v>243</v>
+      </c>
+      <c r="D6" s="187"/>
+      <c r="E6" s="187"/>
+      <c r="F6" s="187"/>
+      <c r="G6" s="188"/>
+    </row>
+    <row r="7" spans="3:13" ht="18" customHeight="1">
+      <c r="C7" s="184" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="185"/>
+      <c r="E7" s="184" t="s">
+        <v>238</v>
+      </c>
+      <c r="F7" s="185"/>
+      <c r="G7" s="44" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="3:13" ht="18" customHeight="1">
+      <c r="C8" s="194" t="s">
+        <v>246</v>
+      </c>
+      <c r="D8" s="195"/>
+      <c r="E8" s="194" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="195"/>
+      <c r="G8" s="37">
+        <v>2900</v>
+      </c>
+    </row>
+    <row r="9" spans="3:13" ht="18" customHeight="1">
+      <c r="C9" s="194" t="s">
+        <v>252</v>
+      </c>
+      <c r="D9" s="195"/>
+      <c r="E9" s="194" t="s">
         <v>240</v>
       </c>
-      <c r="D6" s="191"/>
-      <c r="E6" s="191"/>
-      <c r="F6" s="191"/>
-      <c r="G6" s="192"/>
-    </row>
-    <row r="7" spans="3:7" ht="18" customHeight="1">
-      <c r="C7" s="196" t="s">
-        <v>65</v>
-      </c>
-      <c r="D7" s="197"/>
-      <c r="E7" s="44" t="s">
+      <c r="F9" s="195"/>
+      <c r="G9" s="37">
+        <v>2800</v>
+      </c>
+    </row>
+    <row r="10" spans="3:13" ht="18" customHeight="1">
+      <c r="C10" s="184" t="s">
+        <v>253</v>
+      </c>
+      <c r="D10" s="185"/>
+      <c r="E10" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="F7" s="44" t="s">
+      <c r="F10" s="44" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" s="44" t="s">
         <v>242</v>
       </c>
-      <c r="G7" s="44" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="8" spans="3:7" ht="18" customHeight="1">
-      <c r="C8" s="194" t="s">
-        <v>238</v>
-      </c>
-      <c r="D8" s="195"/>
-      <c r="E8" s="193" t="s">
+    </row>
+    <row r="11" spans="3:13" ht="18" customHeight="1">
+      <c r="C11" s="194" t="s">
+        <v>245</v>
+      </c>
+      <c r="D11" s="195"/>
+      <c r="E11" s="37">
+        <v>5400</v>
+      </c>
+      <c r="F11" s="37">
+        <v>2</v>
+      </c>
+      <c r="G11" s="37">
+        <f>E11*F11</f>
+        <v>10800</v>
+      </c>
+    </row>
+    <row r="12" spans="3:13" ht="18" customHeight="1">
+      <c r="C12" s="194" t="s">
+        <v>248</v>
+      </c>
+      <c r="D12" s="195"/>
+      <c r="E12" s="37" t="s">
+        <v>251</v>
+      </c>
+      <c r="F12" s="37">
+        <v>1</v>
+      </c>
+      <c r="G12" s="37">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13" ht="18" customHeight="1">
+      <c r="C13" s="194" t="s">
+        <v>57</v>
+      </c>
+      <c r="D13" s="195"/>
+      <c r="E13" s="37" t="s">
+        <v>254</v>
+      </c>
+      <c r="F13" s="37">
+        <v>2</v>
+      </c>
+      <c r="G13" s="37">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13" ht="18" customHeight="1">
+      <c r="C14" s="194" t="s">
+        <v>256</v>
+      </c>
+      <c r="D14" s="195"/>
+      <c r="E14" s="197" t="s">
+        <v>255</v>
+      </c>
+      <c r="F14" s="37">
+        <v>1</v>
+      </c>
+      <c r="G14" s="37">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13" ht="18" customHeight="1">
+      <c r="C15" s="194" t="s">
+        <v>249</v>
+      </c>
+      <c r="D15" s="195"/>
+      <c r="E15" s="197" t="s">
+        <v>257</v>
+      </c>
+      <c r="F15" s="37">
+        <v>1</v>
+      </c>
+      <c r="G15" s="37">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13" ht="18" customHeight="1">
+      <c r="C16" s="194" t="s">
+        <v>250</v>
+      </c>
+      <c r="D16" s="195"/>
+      <c r="E16" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="F8" s="193">
-        <v>2900</v>
-      </c>
-      <c r="G8" s="193">
-        <v>2900</v>
-      </c>
-    </row>
-    <row r="9" spans="3:7" ht="18" customHeight="1">
-      <c r="C9" s="194" t="s">
-        <v>243</v>
-      </c>
-      <c r="D9" s="195"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-    </row>
-    <row r="10" spans="3:7" ht="18" customHeight="1">
-      <c r="C10" s="194"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="193"/>
-      <c r="G10" s="193"/>
-    </row>
-    <row r="11" spans="3:7" ht="18" customHeight="1">
-      <c r="C11" s="194"/>
-      <c r="D11" s="195"/>
-      <c r="E11" s="193"/>
-      <c r="F11" s="193"/>
-      <c r="G11" s="193"/>
-    </row>
-    <row r="12" spans="3:7" ht="18" customHeight="1">
-      <c r="C12" s="194"/>
-      <c r="D12" s="195"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-    </row>
-    <row r="13" spans="3:7" ht="18" customHeight="1">
-      <c r="C13" s="194"/>
-      <c r="D13" s="195"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-    </row>
-    <row r="14" spans="3:7" ht="18" customHeight="1">
-      <c r="C14" s="194"/>
-      <c r="D14" s="195"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-    </row>
-    <row r="15" spans="3:7" ht="18" customHeight="1">
-      <c r="C15" s="194"/>
-      <c r="D15" s="195"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-    </row>
-    <row r="16" spans="3:7" ht="18" customHeight="1">
-      <c r="C16" s="194"/>
-      <c r="D16" s="195"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="193"/>
-      <c r="G16" s="193"/>
-    </row>
-    <row r="17" spans="3:11" ht="18" customHeight="1">
-      <c r="C17" s="194"/>
-      <c r="D17" s="195"/>
+      <c r="F16" s="37">
+        <v>1</v>
+      </c>
+      <c r="G16" s="37">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="3:11" s="51" customFormat="1" ht="18" customHeight="1">
+      <c r="C17" s="193" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="193"/>
       <c r="E17" s="193"/>
       <c r="F17" s="193"/>
-      <c r="G17" s="193"/>
-    </row>
-    <row r="18" spans="3:11" ht="18" customHeight="1">
-      <c r="C18" s="194"/>
-      <c r="D18" s="195"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-    </row>
-    <row r="19" spans="3:11" ht="18" customHeight="1">
-      <c r="C19" s="194"/>
-      <c r="D19" s="195"/>
-      <c r="E19" s="193"/>
-      <c r="F19" s="193"/>
-      <c r="G19" s="193"/>
+      <c r="G17" s="44">
+        <f>SUM(G11:G16:G8:G9)</f>
+        <v>23830</v>
+      </c>
+    </row>
+    <row r="18" spans="3:11" s="51" customFormat="1" ht="18" customHeight="1">
+      <c r="C18" s="190"/>
+      <c r="D18" s="190"/>
+    </row>
+    <row r="19" spans="3:11" s="51" customFormat="1" ht="18" customHeight="1">
+      <c r="C19" s="190"/>
+      <c r="D19" s="190"/>
+    </row>
+    <row r="20" spans="3:11" ht="18" customHeight="1">
+      <c r="C20" s="193" t="s">
+        <v>258</v>
+      </c>
+      <c r="D20" s="193"/>
+      <c r="E20" s="193"/>
+      <c r="F20" s="193"/>
+    </row>
+    <row r="21" spans="3:11" ht="18" customHeight="1">
+      <c r="C21" s="193" t="s">
+        <v>259</v>
+      </c>
+      <c r="D21" s="193"/>
+      <c r="E21" s="193">
+        <f>G17/1000</f>
+        <v>23.83</v>
+      </c>
+      <c r="F21" s="193"/>
+    </row>
+    <row r="22" spans="3:11" ht="18" customHeight="1">
+      <c r="C22" s="198" t="s">
+        <v>260</v>
+      </c>
+      <c r="D22" s="198"/>
+      <c r="E22" s="198" t="s">
+        <v>261</v>
+      </c>
+      <c r="F22" s="198"/>
+    </row>
+    <row r="23" spans="3:11" ht="18" customHeight="1">
+      <c r="C23" s="198" t="s">
+        <v>262</v>
+      </c>
+      <c r="D23" s="198"/>
+      <c r="E23" s="198" t="s">
+        <v>263</v>
+      </c>
+      <c r="F23" s="198"/>
+    </row>
+    <row r="24" spans="3:11" ht="18" customHeight="1">
+      <c r="C24" s="198" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" s="198"/>
+      <c r="E24" s="198" t="s">
+        <v>265</v>
+      </c>
+      <c r="F24" s="198"/>
+    </row>
+    <row r="25" spans="3:11" ht="18" customHeight="1">
+      <c r="C25" s="198" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="198"/>
+      <c r="E25" s="198" t="s">
+        <v>267</v>
+      </c>
+      <c r="F25" s="198"/>
     </row>
     <row r="26" spans="3:11" ht="18" customHeight="1">
-      <c r="C26" s="177"/>
-      <c r="D26" s="177"/>
-      <c r="E26" s="177"/>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="177"/>
+      <c r="C26" s="198" t="s">
+        <v>268</v>
+      </c>
+      <c r="D26" s="198"/>
+      <c r="E26" s="198" t="s">
+        <v>269</v>
+      </c>
+      <c r="F26" s="198"/>
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+      <c r="K26" s="70"/>
+    </row>
+    <row r="27" spans="3:11" ht="18" customHeight="1">
+      <c r="C27" s="198" t="s">
+        <v>270</v>
+      </c>
+      <c r="D27" s="198"/>
+      <c r="E27" s="198" t="s">
+        <v>271</v>
+      </c>
+      <c r="F27" s="198"/>
+    </row>
+    <row r="28" spans="3:11" ht="18" customHeight="1">
+      <c r="C28" s="198" t="s">
+        <v>272</v>
+      </c>
+      <c r="D28" s="198"/>
+      <c r="E28" s="198">
+        <v>2</v>
+      </c>
+      <c r="F28" s="198"/>
+    </row>
+    <row r="29" spans="3:11" ht="18" customHeight="1">
+      <c r="C29" s="199" t="s">
+        <v>273</v>
+      </c>
+      <c r="D29" s="199"/>
+      <c r="E29" s="199" t="s">
+        <v>274</v>
+      </c>
+      <c r="F29" s="199"/>
+    </row>
+    <row r="30" spans="3:11" ht="18" customHeight="1">
+      <c r="C30" s="199"/>
+      <c r="D30" s="199"/>
+      <c r="E30" s="199"/>
+      <c r="F30" s="199"/>
+    </row>
+    <row r="31" spans="3:11" ht="18" customHeight="1">
+      <c r="C31" s="198" t="s">
+        <v>275</v>
+      </c>
+      <c r="D31" s="198"/>
+      <c r="E31" s="198" t="s">
+        <v>276</v>
+      </c>
+      <c r="F31" s="198"/>
+    </row>
+    <row r="32" spans="3:11" ht="18" customHeight="1">
+      <c r="C32" s="198" t="s">
+        <v>277</v>
+      </c>
+      <c r="D32" s="198"/>
+      <c r="E32" s="198" t="s">
+        <v>278</v>
+      </c>
+      <c r="F32" s="198"/>
+    </row>
+    <row r="33" spans="3:6" ht="18" customHeight="1">
+      <c r="C33" s="198" t="s">
+        <v>279</v>
+      </c>
+      <c r="D33" s="198"/>
+      <c r="E33" s="198" t="s">
+        <v>280</v>
+      </c>
+      <c r="F33" s="198"/>
+    </row>
+    <row r="34" spans="3:6" ht="18" customHeight="1">
+      <c r="C34" s="198" t="s">
+        <v>281</v>
+      </c>
+      <c r="D34" s="198"/>
+      <c r="E34" s="198" t="s">
+        <v>282</v>
+      </c>
+      <c r="F34" s="198"/>
+    </row>
+    <row r="35" spans="3:6" ht="18" customHeight="1">
+      <c r="C35" s="198" t="s">
+        <v>283</v>
+      </c>
+      <c r="D35" s="198"/>
+      <c r="E35" s="198" t="s">
+        <v>284</v>
+      </c>
+      <c r="F35" s="198"/>
+    </row>
+    <row r="37" spans="3:6" ht="18" customHeight="1">
+      <c r="C37" s="208"/>
+    </row>
+    <row r="39" spans="3:6" ht="18" customHeight="1">
+      <c r="C39" s="193" t="s">
+        <v>286</v>
+      </c>
+      <c r="D39" s="193"/>
+      <c r="E39" s="193"/>
+      <c r="F39" s="193"/>
+    </row>
+    <row r="40" spans="3:6" ht="18" customHeight="1">
+      <c r="C40" s="198" t="s">
+        <v>287</v>
+      </c>
+      <c r="D40" s="198"/>
+      <c r="E40" s="198" t="s">
+        <v>288</v>
+      </c>
+      <c r="F40" s="198"/>
+    </row>
+    <row r="41" spans="3:6" ht="18" customHeight="1">
+      <c r="C41" s="198" t="s">
+        <v>289</v>
+      </c>
+      <c r="D41" s="198"/>
+      <c r="E41" s="198" t="s">
+        <v>290</v>
+      </c>
+      <c r="F41" s="198"/>
+    </row>
+    <row r="42" spans="3:6" ht="18" customHeight="1">
+      <c r="C42" s="198" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42" s="198"/>
+      <c r="E42" s="198" t="s">
+        <v>292</v>
+      </c>
+      <c r="F42" s="198"/>
+    </row>
+    <row r="43" spans="3:6" ht="18" customHeight="1">
+      <c r="C43" s="209" t="s">
+        <v>293</v>
+      </c>
+      <c r="D43" s="210"/>
+      <c r="E43" s="209" t="s">
+        <v>294</v>
+      </c>
+      <c r="F43" s="210"/>
+    </row>
+    <row r="44" spans="3:6" ht="18" customHeight="1">
+      <c r="C44" s="200"/>
+      <c r="D44" s="201"/>
+      <c r="E44" s="200"/>
+      <c r="F44" s="201"/>
+    </row>
+    <row r="45" spans="3:6" ht="18" customHeight="1">
+      <c r="C45" s="199" t="s">
+        <v>295</v>
+      </c>
+      <c r="D45" s="199"/>
+      <c r="E45" s="199" t="s">
+        <v>296</v>
+      </c>
+      <c r="F45" s="199"/>
+    </row>
+    <row r="46" spans="3:6" ht="18" customHeight="1">
+      <c r="C46" s="199"/>
+      <c r="D46" s="199"/>
+      <c r="E46" s="199"/>
+      <c r="F46" s="199"/>
+    </row>
+    <row r="47" spans="3:6" ht="18" customHeight="1">
+      <c r="C47" s="199"/>
+      <c r="D47" s="199"/>
+      <c r="E47" s="199"/>
+      <c r="F47" s="199"/>
+    </row>
+    <row r="48" spans="3:6" ht="18" customHeight="1">
+      <c r="C48" s="190"/>
+      <c r="D48" s="190"/>
+      <c r="E48" s="190"/>
+      <c r="F48" s="190"/>
+    </row>
+    <row r="49" spans="3:6" ht="18" customHeight="1">
+      <c r="C49" s="190"/>
+      <c r="D49" s="190"/>
+      <c r="E49" s="190"/>
+      <c r="F49" s="190"/>
+    </row>
+    <row r="50" spans="3:6" ht="18" customHeight="1">
+      <c r="C50" s="190"/>
+      <c r="D50" s="190"/>
+      <c r="E50" s="190"/>
+      <c r="F50" s="190"/>
+    </row>
+    <row r="51" spans="3:6" ht="18" customHeight="1">
+      <c r="C51" s="190"/>
+      <c r="D51" s="190"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="C17:D17"/>
+  <mergeCells count="69">
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="E41:F41"/>
+    <mergeCell ref="E42:F42"/>
+    <mergeCell ref="E48:F48"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="C43:D44"/>
+    <mergeCell ref="E43:F44"/>
+    <mergeCell ref="C45:D47"/>
+    <mergeCell ref="E45:F47"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
     <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:M5"/>
     <mergeCell ref="C19:D19"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="C9:D9"/>
@@ -52752,14 +53757,15 @@
     <mergeCell ref="C11:D11"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3:G5" r:id="rId1" display="FORNECIMENTO DE ENERGIA ELÉTRICA EM TENSÃO SECUNDÁRIA EDIFICAÇÕES INDIVIDUAIS - EDP ESPÍRITO SANTO - PT.DT.PDN.000061 - V.12 06/04/2023" xr:uid="{3973E550-14C2-4504-A338-CA2A62DB75F3}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\GitHub\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F771BC19-DB2D-4FA9-A9E8-BF1FEEE06775}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC3237E-B55C-41A9-B528-586CAAF44D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação_Informações" sheetId="1" r:id="rId1"/>
@@ -1991,34 +1991,35 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2032,34 +2033,45 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2074,19 +2086,32 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2108,14 +2133,47 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="21" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="4" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2147,32 +2205,8 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="24" fillId="0" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2213,6 +2247,24 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2240,31 +2292,49 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="34" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="35" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2294,55 +2364,16 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2361,37 +2392,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="21" fillId="5" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="5" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="18" fillId="5" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2962,14 +2962,14 @@
   <sheetData>
     <row r="1" spans="1:26" ht="30" customHeight="1">
       <c r="A1" s="1"/>
-      <c r="B1" s="86" t="s">
+      <c r="B1" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
-      <c r="F1" s="87"/>
-      <c r="G1" s="88"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="87"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -2992,14 +2992,14 @@
     </row>
     <row r="2" spans="1:26" ht="20.25" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="87"/>
-      <c r="F2" s="87"/>
-      <c r="G2" s="88"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="87"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -3050,16 +3050,16 @@
     </row>
     <row r="4" spans="1:26" ht="15.75" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="90" t="s">
+      <c r="B4" s="89" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="91"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="90" t="s">
+      <c r="C4" s="90"/>
+      <c r="D4" s="83"/>
+      <c r="E4" s="89" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="72"/>
+      <c r="F4" s="90"/>
+      <c r="G4" s="83"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -3082,17 +3082,17 @@
     </row>
     <row r="5" spans="1:26" ht="19.5" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="71" t="s">
+      <c r="B5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="72"/>
+      <c r="C5" s="83"/>
       <c r="D5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E5" s="71" t="s">
+      <c r="E5" s="82" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="72"/>
+      <c r="F5" s="83"/>
       <c r="G5" s="3" t="s">
         <v>5</v>
       </c>
@@ -3118,17 +3118,17 @@
     </row>
     <row r="6" spans="1:26" ht="19.5" customHeight="1">
       <c r="A6" s="1"/>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="82" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="72"/>
+      <c r="C6" s="83"/>
       <c r="D6" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="196" t="s">
+      <c r="E6" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="72"/>
+      <c r="F6" s="83"/>
       <c r="G6" s="3" t="s">
         <v>9</v>
       </c>
@@ -3154,17 +3154,17 @@
     </row>
     <row r="7" spans="1:26" ht="19.5" customHeight="1">
       <c r="A7" s="1"/>
-      <c r="B7" s="71" t="s">
+      <c r="B7" s="82" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="72"/>
+      <c r="C7" s="83"/>
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="71" t="s">
+      <c r="E7" s="82" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="72"/>
+      <c r="F7" s="83"/>
       <c r="G7" s="3" t="s">
         <v>13</v>
       </c>
@@ -3190,15 +3190,15 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="82" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="72"/>
+      <c r="C8" s="83"/>
       <c r="D8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="71"/>
-      <c r="F8" s="72"/>
+      <c r="E8" s="82"/>
+      <c r="F8" s="83"/>
       <c r="G8" s="3"/>
       <c r="H8" s="1"/>
       <c r="I8" s="4"/>
@@ -3222,15 +3222,15 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="82" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="72"/>
+      <c r="C9" s="83"/>
       <c r="D9" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="71"/>
-      <c r="F9" s="72"/>
+      <c r="E9" s="82"/>
+      <c r="F9" s="83"/>
       <c r="G9" s="3"/>
       <c r="H9" s="1"/>
       <c r="I9" s="4"/>
@@ -3254,15 +3254,15 @@
     </row>
     <row r="10" spans="1:26" ht="19.5" customHeight="1">
       <c r="A10" s="1"/>
-      <c r="B10" s="92" t="s">
+      <c r="B10" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="83"/>
-      <c r="D10" s="94" t="s">
+      <c r="C10" s="77"/>
+      <c r="D10" s="80" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="71"/>
-      <c r="F10" s="72"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="83"/>
       <c r="G10" s="3"/>
       <c r="H10" s="1"/>
       <c r="I10" s="4"/>
@@ -3286,11 +3286,11 @@
     </row>
     <row r="11" spans="1:26" ht="19.5" customHeight="1">
       <c r="A11" s="1"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="95"/>
-      <c r="E11" s="71"/>
-      <c r="F11" s="72"/>
+      <c r="B11" s="78"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="83"/>
       <c r="G11" s="3"/>
       <c r="H11" s="1"/>
       <c r="I11" s="4"/>
@@ -3314,11 +3314,11 @@
     </row>
     <row r="12" spans="1:26" ht="19.5" customHeight="1">
       <c r="A12" s="1"/>
-      <c r="B12" s="71"/>
-      <c r="C12" s="72"/>
+      <c r="B12" s="82"/>
+      <c r="C12" s="83"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="72"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="83"/>
       <c r="G12" s="3"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -3342,11 +3342,11 @@
     </row>
     <row r="13" spans="1:26" ht="19.5" customHeight="1">
       <c r="A13" s="1"/>
-      <c r="B13" s="79"/>
-      <c r="C13" s="80"/>
+      <c r="B13" s="96"/>
+      <c r="C13" s="97"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="80"/>
+      <c r="E13" s="96"/>
+      <c r="F13" s="97"/>
       <c r="G13" s="7"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -3370,11 +3370,11 @@
     </row>
     <row r="14" spans="1:26" ht="19.5" customHeight="1">
       <c r="A14" s="1"/>
-      <c r="B14" s="71"/>
-      <c r="C14" s="72"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="83"/>
       <c r="D14" s="5"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="72"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="83"/>
       <c r="G14" s="5"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3454,14 +3454,14 @@
     </row>
     <row r="17" spans="1:26" ht="19.5" customHeight="1">
       <c r="A17" s="1"/>
-      <c r="B17" s="81" t="s">
+      <c r="B17" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="C17" s="82"/>
-      <c r="D17" s="82"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="83"/>
+      <c r="C17" s="99"/>
+      <c r="D17" s="99"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="99"/>
+      <c r="G17" s="77"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -3484,14 +3484,14 @@
     </row>
     <row r="18" spans="1:26" ht="19.5" customHeight="1">
       <c r="A18" s="1"/>
-      <c r="B18" s="84" t="s">
+      <c r="B18" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="75"/>
+      <c r="C18" s="92"/>
+      <c r="D18" s="92"/>
+      <c r="E18" s="92"/>
+      <c r="F18" s="92"/>
+      <c r="G18" s="93"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -3514,14 +3514,14 @@
     </row>
     <row r="19" spans="1:26" ht="19.5" customHeight="1">
       <c r="A19" s="1"/>
-      <c r="B19" s="73" t="s">
+      <c r="B19" s="91" t="s">
         <v>21</v>
       </c>
-      <c r="C19" s="74"/>
-      <c r="D19" s="74"/>
-      <c r="E19" s="74"/>
-      <c r="F19" s="74"/>
-      <c r="G19" s="75"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="92"/>
+      <c r="E19" s="92"/>
+      <c r="F19" s="92"/>
+      <c r="G19" s="93"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -3544,14 +3544,14 @@
     </row>
     <row r="20" spans="1:26" ht="19.5" customHeight="1">
       <c r="A20" s="1"/>
-      <c r="B20" s="73" t="s">
+      <c r="B20" s="91" t="s">
         <v>22</v>
       </c>
-      <c r="C20" s="74"/>
-      <c r="D20" s="74"/>
-      <c r="E20" s="74"/>
-      <c r="F20" s="74"/>
-      <c r="G20" s="75"/>
+      <c r="C20" s="92"/>
+      <c r="D20" s="92"/>
+      <c r="E20" s="92"/>
+      <c r="F20" s="92"/>
+      <c r="G20" s="93"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -3574,14 +3574,14 @@
     </row>
     <row r="21" spans="1:26" ht="19.5" customHeight="1">
       <c r="A21" s="1"/>
-      <c r="B21" s="85" t="s">
+      <c r="B21" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="74"/>
-      <c r="F21" s="74"/>
-      <c r="G21" s="75"/>
+      <c r="C21" s="92"/>
+      <c r="D21" s="92"/>
+      <c r="E21" s="92"/>
+      <c r="F21" s="92"/>
+      <c r="G21" s="93"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -3604,14 +3604,14 @@
     </row>
     <row r="22" spans="1:26" ht="19.5" customHeight="1">
       <c r="A22" s="1"/>
-      <c r="B22" s="73" t="s">
+      <c r="B22" s="91" t="s">
         <v>24</v>
       </c>
-      <c r="C22" s="74"/>
-      <c r="D22" s="74"/>
-      <c r="E22" s="74"/>
-      <c r="F22" s="74"/>
-      <c r="G22" s="75"/>
+      <c r="C22" s="92"/>
+      <c r="D22" s="92"/>
+      <c r="E22" s="92"/>
+      <c r="F22" s="92"/>
+      <c r="G22" s="93"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -3634,12 +3634,12 @@
     </row>
     <row r="23" spans="1:26" ht="19.5" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
-      <c r="G23" s="75"/>
+      <c r="B23" s="91"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="93"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -3662,14 +3662,14 @@
     </row>
     <row r="24" spans="1:26" ht="19.5" customHeight="1">
       <c r="A24" s="1"/>
-      <c r="B24" s="76" t="s">
+      <c r="B24" s="94" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="77"/>
-      <c r="G24" s="78"/>
+      <c r="C24" s="95"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="95"/>
+      <c r="F24" s="95"/>
+      <c r="G24" s="79"/>
       <c r="H24" s="1"/>
       <c r="I24" s="8"/>
       <c r="J24" s="1"/>
@@ -10068,24 +10068,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="B1:G1"/>
-    <mergeCell ref="B2:G2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="E5:F5"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
@@ -10100,6 +10082,24 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="E14:F14"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -10153,19 +10153,19 @@
     </row>
     <row r="2" spans="1:26" ht="15.75" customHeight="1">
       <c r="A2" s="1"/>
-      <c r="B2" s="104" t="s">
+      <c r="B2" s="110" t="s">
         <v>25</v>
       </c>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="82"/>
-      <c r="H2" s="82"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="83"/>
+      <c r="C2" s="99"/>
+      <c r="D2" s="99"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="99"/>
+      <c r="L2" s="77"/>
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
       <c r="O2" s="1"/>
@@ -10183,17 +10183,17 @@
     </row>
     <row r="3" spans="1:26" ht="15.75" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="78"/>
+      <c r="B3" s="78"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="95"/>
+      <c r="F3" s="95"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="95"/>
+      <c r="I3" s="95"/>
+      <c r="J3" s="95"/>
+      <c r="K3" s="95"/>
+      <c r="L3" s="79"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -10211,27 +10211,27 @@
     </row>
     <row r="4" spans="1:26" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="105" t="s">
+      <c r="B4" s="111" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="106" t="s">
+      <c r="C4" s="112" t="s">
         <v>27</v>
       </c>
-      <c r="D4" s="72"/>
-      <c r="E4" s="106" t="s">
+      <c r="D4" s="83"/>
+      <c r="E4" s="112" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="91"/>
-      <c r="G4" s="72"/>
-      <c r="H4" s="107" t="s">
+      <c r="F4" s="90"/>
+      <c r="G4" s="83"/>
+      <c r="H4" s="113" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="91"/>
-      <c r="J4" s="72"/>
-      <c r="K4" s="107" t="s">
+      <c r="I4" s="90"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="113" t="s">
         <v>30</v>
       </c>
-      <c r="L4" s="72"/>
+      <c r="L4" s="83"/>
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
       <c r="O4" s="1"/>
@@ -10249,7 +10249,7 @@
     </row>
     <row r="5" spans="1:26" ht="39.75" customHeight="1">
       <c r="A5" s="1"/>
-      <c r="B5" s="95"/>
+      <c r="B5" s="81"/>
       <c r="C5" s="9" t="s">
         <v>31</v>
       </c>
@@ -10397,35 +10397,35 @@
     </row>
     <row r="8" spans="1:26" ht="19.5" customHeight="1">
       <c r="A8" s="1"/>
-      <c r="B8" s="111" t="s">
+      <c r="B8" s="107" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="113">
+      <c r="C8" s="109">
         <v>17.579999999999998</v>
       </c>
-      <c r="D8" s="113">
+      <c r="D8" s="109">
         <v>23.9</v>
       </c>
-      <c r="E8" s="99">
+      <c r="E8" s="105">
         <v>3</v>
       </c>
-      <c r="F8" s="99">
+      <c r="F8" s="105">
         <v>100</v>
       </c>
-      <c r="G8" s="109">
+      <c r="G8" s="103">
         <v>300</v>
       </c>
-      <c r="H8" s="109">
+      <c r="H8" s="103">
         <v>4</v>
       </c>
-      <c r="I8" s="99" t="s">
+      <c r="I8" s="105" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="99">
+      <c r="J8" s="105">
         <v>200</v>
       </c>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
+      <c r="K8" s="105"/>
+      <c r="L8" s="105"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
       <c r="O8" s="1"/>
@@ -10443,17 +10443,17 @@
     </row>
     <row r="9" spans="1:26" ht="19.5" customHeight="1">
       <c r="A9" s="1"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="100"/>
-      <c r="F9" s="100"/>
-      <c r="G9" s="110"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="100"/>
-      <c r="J9" s="100"/>
-      <c r="K9" s="100"/>
-      <c r="L9" s="100"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="106"/>
+      <c r="D9" s="106"/>
+      <c r="E9" s="106"/>
+      <c r="F9" s="106"/>
+      <c r="G9" s="104"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="106"/>
+      <c r="J9" s="106"/>
+      <c r="K9" s="106"/>
+      <c r="L9" s="106"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
       <c r="O9" s="1"/>
@@ -11066,9 +11066,9 @@
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="82"/>
-      <c r="L22" s="82"/>
+      <c r="J22" s="117"/>
+      <c r="K22" s="99"/>
+      <c r="L22" s="99"/>
       <c r="M22" s="1"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1"/>
@@ -11086,13 +11086,13 @@
     </row>
     <row r="23" spans="1:26" ht="15.75" customHeight="1">
       <c r="A23" s="1"/>
-      <c r="B23" s="108" t="s">
+      <c r="B23" s="102" t="s">
         <v>61</v>
       </c>
-      <c r="C23" s="74"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="74"/>
-      <c r="F23" s="74"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -11151,9 +11151,9 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-      <c r="J25" s="102"/>
-      <c r="K25" s="74"/>
-      <c r="L25" s="74"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="92"/>
+      <c r="L25" s="92"/>
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1"/>
@@ -11171,20 +11171,20 @@
     </row>
     <row r="26" spans="1:26" ht="15.75" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="108" t="s">
+      <c r="B26" s="102" t="s">
         <v>64</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="74"/>
-      <c r="F26" s="74"/>
+      <c r="C26" s="92"/>
+      <c r="D26" s="92"/>
+      <c r="E26" s="92"/>
+      <c r="F26" s="92"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="74"/>
-      <c r="L26" s="74"/>
-      <c r="M26" s="96"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="92"/>
+      <c r="L26" s="92"/>
+      <c r="M26" s="114"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
@@ -11209,10 +11209,10 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="74"/>
-      <c r="M27" s="74"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="92"/>
+      <c r="L27" s="92"/>
+      <c r="M27" s="92"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
@@ -11237,12 +11237,12 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="74"/>
-      <c r="L28" s="74"/>
-      <c r="M28" s="103"/>
-      <c r="N28" s="74"/>
-      <c r="O28" s="74"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="92"/>
+      <c r="L28" s="92"/>
+      <c r="M28" s="119"/>
+      <c r="N28" s="92"/>
+      <c r="O28" s="92"/>
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
       <c r="R28" s="1"/>
@@ -11265,12 +11265,12 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="74"/>
-      <c r="L29" s="74"/>
-      <c r="M29" s="74"/>
-      <c r="N29" s="74"/>
-      <c r="O29" s="74"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="92"/>
+      <c r="L29" s="92"/>
+      <c r="M29" s="92"/>
+      <c r="N29" s="92"/>
+      <c r="O29" s="92"/>
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
       <c r="R29" s="1"/>
@@ -11293,10 +11293,10 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="74"/>
-      <c r="L30" s="74"/>
-      <c r="M30" s="96"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="92"/>
+      <c r="L30" s="92"/>
+      <c r="M30" s="114"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1"/>
       <c r="P30" s="1"/>
@@ -11321,10 +11321,10 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="74"/>
-      <c r="L31" s="74"/>
-      <c r="M31" s="74"/>
+      <c r="J31" s="115"/>
+      <c r="K31" s="92"/>
+      <c r="L31" s="92"/>
+      <c r="M31" s="92"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1"/>
       <c r="P31" s="1"/>
@@ -11349,9 +11349,9 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
-      <c r="J32" s="98"/>
-      <c r="K32" s="74"/>
-      <c r="L32" s="74"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="92"/>
+      <c r="L32" s="92"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -11377,9 +11377,9 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="74"/>
-      <c r="K33" s="74"/>
-      <c r="L33" s="74"/>
+      <c r="J33" s="92"/>
+      <c r="K33" s="92"/>
+      <c r="L33" s="92"/>
       <c r="M33" s="1"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1"/>
@@ -11405,9 +11405,9 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
-      <c r="J34" s="74"/>
-      <c r="K34" s="74"/>
-      <c r="L34" s="74"/>
+      <c r="J34" s="92"/>
+      <c r="K34" s="92"/>
+      <c r="L34" s="92"/>
       <c r="M34" s="1"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1"/>
@@ -17575,23 +17575,6 @@
     <row r="1000" ht="15.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B26:F26"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B2:L3"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:G4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="K4:L4"/>
     <mergeCell ref="M26:M27"/>
     <mergeCell ref="J27:L27"/>
     <mergeCell ref="J32:L34"/>
@@ -17606,6 +17589,23 @@
     <mergeCell ref="J30:L30"/>
     <mergeCell ref="M30:M31"/>
     <mergeCell ref="J31:L31"/>
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:G4"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="B26:F26"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B23:F23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -17691,20 +17691,20 @@
     </row>
     <row r="3" spans="1:27" ht="19.5" customHeight="1">
       <c r="A3" s="1"/>
-      <c r="B3" s="117" t="s">
+      <c r="B3" s="126" t="s">
         <v>65</v>
       </c>
-      <c r="C3" s="118" t="s">
+      <c r="C3" s="127" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="121"/>
-      <c r="F3" s="120" t="s">
+      <c r="E3" s="130"/>
+      <c r="F3" s="129" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="121"/>
+      <c r="G3" s="130"/>
       <c r="H3" s="35" t="s">
         <v>30</v>
       </c>
@@ -17726,11 +17726,11 @@
       <c r="N3" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="O3" s="114" t="s">
+      <c r="O3" s="123" t="s">
         <v>232</v>
       </c>
-      <c r="P3" s="115"/>
-      <c r="Q3" s="116"/>
+      <c r="P3" s="124"/>
+      <c r="Q3" s="125"/>
       <c r="R3" s="1"/>
       <c r="S3" s="1"/>
       <c r="T3" s="1"/>
@@ -17744,8 +17744,8 @@
     </row>
     <row r="4" spans="1:27" ht="19.5" customHeight="1">
       <c r="A4" s="1"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="119"/>
+      <c r="B4" s="81"/>
+      <c r="C4" s="128"/>
       <c r="D4" s="35" t="s">
         <v>72</v>
       </c>
@@ -18760,13 +18760,13 @@
       <c r="C25" s="66" t="s">
         <v>95</v>
       </c>
-      <c r="D25" s="211"/>
-      <c r="E25" s="211"/>
-      <c r="F25" s="211"/>
-      <c r="G25" s="211">
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="74">
         <v>1</v>
       </c>
-      <c r="H25" s="212"/>
+      <c r="H25" s="75"/>
       <c r="I25" s="67">
         <v>600</v>
       </c>
@@ -18800,38 +18800,38 @@
     </row>
     <row r="26" spans="1:27" ht="19.5" customHeight="1">
       <c r="A26" s="1"/>
-      <c r="B26" s="213">
+      <c r="B26" s="132">
         <v>22</v>
       </c>
-      <c r="C26" s="213" t="s">
+      <c r="C26" s="132" t="s">
         <v>118</v>
       </c>
-      <c r="D26" s="214"/>
-      <c r="E26" s="214"/>
-      <c r="F26" s="214"/>
-      <c r="G26" s="214"/>
-      <c r="H26" s="214"/>
-      <c r="I26" s="213">
+      <c r="D26" s="133"/>
+      <c r="E26" s="133"/>
+      <c r="F26" s="133"/>
+      <c r="G26" s="133"/>
+      <c r="H26" s="133"/>
+      <c r="I26" s="132">
         <f>SUM(I5:I25)</f>
         <v>38685</v>
       </c>
-      <c r="J26" s="213">
+      <c r="J26" s="132">
         <v>380</v>
       </c>
-      <c r="K26" s="215">
+      <c r="K26" s="131">
         <f>SUM(K5:K25)</f>
         <v>242.07927702219044</v>
       </c>
-      <c r="L26" s="215">
+      <c r="L26" s="131">
         <v>0.8</v>
       </c>
       <c r="M26" s="46" t="s">
         <v>299</v>
       </c>
       <c r="N26" s="46"/>
-      <c r="O26" s="216"/>
-      <c r="P26" s="216"/>
-      <c r="Q26" s="216"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="120"/>
+      <c r="Q26" s="120"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
       <c r="T26" s="1"/>
@@ -18845,24 +18845,24 @@
     </row>
     <row r="27" spans="1:27" ht="19.5" customHeight="1">
       <c r="A27" s="1"/>
-      <c r="B27" s="213"/>
-      <c r="C27" s="213"/>
-      <c r="D27" s="214"/>
-      <c r="E27" s="214"/>
-      <c r="F27" s="214"/>
-      <c r="G27" s="214"/>
-      <c r="H27" s="214"/>
-      <c r="I27" s="213"/>
-      <c r="J27" s="213"/>
-      <c r="K27" s="215"/>
-      <c r="L27" s="215"/>
+      <c r="B27" s="132"/>
+      <c r="C27" s="132"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="133"/>
+      <c r="F27" s="133"/>
+      <c r="G27" s="133"/>
+      <c r="H27" s="133"/>
+      <c r="I27" s="132"/>
+      <c r="J27" s="132"/>
+      <c r="K27" s="131"/>
+      <c r="L27" s="131"/>
       <c r="M27" s="46" t="s">
         <v>300</v>
       </c>
       <c r="N27" s="46"/>
-      <c r="O27" s="217"/>
-      <c r="P27" s="217"/>
-      <c r="Q27" s="217"/>
+      <c r="O27" s="121"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
       <c r="R27" s="1"/>
       <c r="S27" s="1"/>
       <c r="T27" s="1"/>
@@ -18876,24 +18876,24 @@
     </row>
     <row r="28" spans="1:27" ht="19.5" customHeight="1">
       <c r="A28" s="1"/>
-      <c r="B28" s="213"/>
-      <c r="C28" s="213"/>
-      <c r="D28" s="214"/>
-      <c r="E28" s="214"/>
-      <c r="F28" s="214"/>
-      <c r="G28" s="214"/>
-      <c r="H28" s="214"/>
-      <c r="I28" s="213"/>
-      <c r="J28" s="213"/>
-      <c r="K28" s="215"/>
-      <c r="L28" s="215"/>
+      <c r="B28" s="132"/>
+      <c r="C28" s="132"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="133"/>
+      <c r="F28" s="133"/>
+      <c r="G28" s="133"/>
+      <c r="H28" s="133"/>
+      <c r="I28" s="132"/>
+      <c r="J28" s="132"/>
+      <c r="K28" s="131"/>
+      <c r="L28" s="131"/>
       <c r="M28" s="46" t="s">
         <v>301</v>
       </c>
       <c r="N28" s="46"/>
-      <c r="O28" s="218"/>
-      <c r="P28" s="218"/>
-      <c r="Q28" s="218"/>
+      <c r="O28" s="122"/>
+      <c r="P28" s="122"/>
+      <c r="Q28" s="122"/>
       <c r="R28" s="1"/>
       <c r="S28" s="1"/>
       <c r="T28" s="1"/>
@@ -47279,20 +47279,20 @@
   </cols>
   <sheetData>
     <row r="4" spans="2:4">
-      <c r="B4" s="120" t="s">
+      <c r="B4" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="120" t="s">
+      <c r="C4" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="D4" s="122" t="s">
+      <c r="D4" s="134" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="5" spans="2:4">
-      <c r="B5" s="121"/>
-      <c r="C5" s="121"/>
-      <c r="D5" s="123"/>
+      <c r="B5" s="130"/>
+      <c r="C5" s="130"/>
+      <c r="D5" s="135"/>
     </row>
     <row r="6" spans="2:4">
       <c r="B6" s="36">
@@ -47559,90 +47559,90 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="120" t="s">
+      <c r="B2" s="129" t="s">
         <v>65</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="129" t="s">
         <v>66</v>
       </c>
-      <c r="D2" s="125" t="s">
+      <c r="D2" s="145" t="s">
         <v>67</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="125" t="s">
+      <c r="E2" s="146"/>
+      <c r="F2" s="145" t="s">
         <v>68</v>
       </c>
-      <c r="G2" s="126"/>
-      <c r="H2" s="131" t="s">
+      <c r="G2" s="146"/>
+      <c r="H2" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="120" t="s">
+      <c r="I2" s="129" t="s">
         <v>69</v>
       </c>
-      <c r="J2" s="120" t="s">
+      <c r="J2" s="129" t="s">
         <v>70</v>
       </c>
-      <c r="K2" s="122" t="s">
+      <c r="K2" s="134" t="s">
         <v>113</v>
       </c>
-      <c r="L2" s="122" t="s">
+      <c r="L2" s="134" t="s">
         <v>115</v>
       </c>
-      <c r="M2" s="122" t="s">
+      <c r="M2" s="134" t="s">
         <v>116</v>
       </c>
-      <c r="N2" s="122" t="s">
+      <c r="N2" s="134" t="s">
         <v>117</v>
       </c>
-      <c r="O2" s="122" t="s">
+      <c r="O2" s="134" t="s">
         <v>119</v>
       </c>
-      <c r="P2" s="122" t="s">
+      <c r="P2" s="134" t="s">
         <v>122</v>
       </c>
-      <c r="Q2" s="122" t="s">
+      <c r="Q2" s="134" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="127"/>
-      <c r="G3" s="128"/>
-      <c r="H3" s="132"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="122"/>
-      <c r="L3" s="122"/>
-      <c r="M3" s="122"/>
-      <c r="N3" s="122"/>
-      <c r="O3" s="122"/>
-      <c r="P3" s="122"/>
-      <c r="Q3" s="122"/>
+      <c r="B3" s="129"/>
+      <c r="C3" s="129"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="148"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="148"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="129"/>
+      <c r="J3" s="129"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
     </row>
     <row r="4" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B4" s="120"/>
-      <c r="C4" s="120"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="130"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="133"/>
-      <c r="I4" s="120"/>
-      <c r="J4" s="120"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="122"/>
-      <c r="M4" s="122"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="122"/>
-      <c r="P4" s="122"/>
-      <c r="Q4" s="122"/>
+      <c r="B4" s="129"/>
+      <c r="C4" s="129"/>
+      <c r="D4" s="149"/>
+      <c r="E4" s="150"/>
+      <c r="F4" s="149"/>
+      <c r="G4" s="150"/>
+      <c r="H4" s="153"/>
+      <c r="I4" s="129"/>
+      <c r="J4" s="129"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="134"/>
+      <c r="M4" s="134"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="134"/>
+      <c r="P4" s="134"/>
+      <c r="Q4" s="134"/>
     </row>
     <row r="5" spans="2:17">
-      <c r="B5" s="120"/>
-      <c r="C5" s="120"/>
+      <c r="B5" s="129"/>
+      <c r="C5" s="129"/>
       <c r="D5" s="35" t="s">
         <v>72</v>
       </c>
@@ -48687,106 +48687,106 @@
       </c>
     </row>
     <row r="29" spans="2:17" ht="31.5" customHeight="1">
-      <c r="B29" s="141" t="s">
+      <c r="B29" s="142" t="s">
         <v>120</v>
       </c>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="142"/>
-      <c r="I29" s="142"/>
-      <c r="J29" s="142"/>
-      <c r="K29" s="142"/>
-      <c r="L29" s="142"/>
-      <c r="M29" s="142"/>
-      <c r="N29" s="142"/>
-      <c r="O29" s="143"/>
+      <c r="C29" s="143"/>
+      <c r="D29" s="143"/>
+      <c r="E29" s="143"/>
+      <c r="F29" s="143"/>
+      <c r="G29" s="143"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="143"/>
+      <c r="J29" s="143"/>
+      <c r="K29" s="143"/>
+      <c r="L29" s="143"/>
+      <c r="M29" s="143"/>
+      <c r="N29" s="143"/>
+      <c r="O29" s="144"/>
     </row>
     <row r="30" spans="2:17" s="43" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B30" s="135" t="s">
+      <c r="B30" s="136" t="s">
         <v>209</v>
       </c>
-      <c r="C30" s="136"/>
-      <c r="D30" s="136"/>
-      <c r="E30" s="136"/>
-      <c r="F30" s="136"/>
-      <c r="G30" s="136"/>
-      <c r="H30" s="136"/>
-      <c r="I30" s="136"/>
-      <c r="J30" s="136"/>
-      <c r="K30" s="136"/>
-      <c r="L30" s="136"/>
-      <c r="M30" s="136"/>
-      <c r="N30" s="136"/>
-      <c r="O30" s="137"/>
+      <c r="C30" s="137"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="137"/>
+      <c r="F30" s="137"/>
+      <c r="G30" s="137"/>
+      <c r="H30" s="137"/>
+      <c r="I30" s="137"/>
+      <c r="J30" s="137"/>
+      <c r="K30" s="137"/>
+      <c r="L30" s="137"/>
+      <c r="M30" s="137"/>
+      <c r="N30" s="137"/>
+      <c r="O30" s="138"/>
     </row>
     <row r="31" spans="2:17" s="43" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B31" s="135" t="s">
+      <c r="B31" s="136" t="s">
         <v>124</v>
       </c>
-      <c r="C31" s="136"/>
-      <c r="D31" s="136"/>
-      <c r="E31" s="136"/>
-      <c r="F31" s="136"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="136"/>
-      <c r="I31" s="136"/>
-      <c r="J31" s="136"/>
-      <c r="K31" s="136"/>
-      <c r="L31" s="136"/>
-      <c r="M31" s="136"/>
-      <c r="N31" s="136"/>
-      <c r="O31" s="137"/>
+      <c r="C31" s="137"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="137"/>
+      <c r="F31" s="137"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="137"/>
+      <c r="I31" s="137"/>
+      <c r="J31" s="137"/>
+      <c r="K31" s="137"/>
+      <c r="L31" s="137"/>
+      <c r="M31" s="137"/>
+      <c r="N31" s="137"/>
+      <c r="O31" s="138"/>
     </row>
     <row r="32" spans="2:17" s="43" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B32" s="135"/>
-      <c r="C32" s="136"/>
-      <c r="D32" s="136"/>
-      <c r="E32" s="136"/>
-      <c r="F32" s="136"/>
-      <c r="G32" s="136"/>
-      <c r="H32" s="136"/>
-      <c r="I32" s="136"/>
-      <c r="J32" s="136"/>
-      <c r="K32" s="136"/>
-      <c r="L32" s="136"/>
-      <c r="M32" s="136"/>
-      <c r="N32" s="136"/>
-      <c r="O32" s="137"/>
+      <c r="B32" s="136"/>
+      <c r="C32" s="137"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="137"/>
+      <c r="F32" s="137"/>
+      <c r="G32" s="137"/>
+      <c r="H32" s="137"/>
+      <c r="I32" s="137"/>
+      <c r="J32" s="137"/>
+      <c r="K32" s="137"/>
+      <c r="L32" s="137"/>
+      <c r="M32" s="137"/>
+      <c r="N32" s="137"/>
+      <c r="O32" s="138"/>
     </row>
     <row r="33" spans="1:16" s="43" customFormat="1" ht="22.5" customHeight="1">
-      <c r="B33" s="135"/>
-      <c r="C33" s="136"/>
-      <c r="D33" s="136"/>
-      <c r="E33" s="136"/>
-      <c r="F33" s="136"/>
-      <c r="G33" s="136"/>
-      <c r="H33" s="136"/>
-      <c r="I33" s="136"/>
-      <c r="J33" s="136"/>
-      <c r="K33" s="136"/>
-      <c r="L33" s="136"/>
-      <c r="M33" s="136"/>
-      <c r="N33" s="136"/>
-      <c r="O33" s="137"/>
+      <c r="B33" s="136"/>
+      <c r="C33" s="137"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="137"/>
+      <c r="F33" s="137"/>
+      <c r="G33" s="137"/>
+      <c r="H33" s="137"/>
+      <c r="I33" s="137"/>
+      <c r="J33" s="137"/>
+      <c r="K33" s="137"/>
+      <c r="L33" s="137"/>
+      <c r="M33" s="137"/>
+      <c r="N33" s="137"/>
+      <c r="O33" s="138"/>
     </row>
     <row r="34" spans="1:16" s="43" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B34" s="138"/>
-      <c r="C34" s="139"/>
-      <c r="D34" s="139"/>
-      <c r="E34" s="139"/>
-      <c r="F34" s="139"/>
-      <c r="G34" s="139"/>
-      <c r="H34" s="139"/>
-      <c r="I34" s="139"/>
-      <c r="J34" s="139"/>
-      <c r="K34" s="139"/>
-      <c r="L34" s="139"/>
-      <c r="M34" s="139"/>
-      <c r="N34" s="139"/>
-      <c r="O34" s="140"/>
+      <c r="B34" s="139"/>
+      <c r="C34" s="140"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="140"/>
+      <c r="F34" s="140"/>
+      <c r="G34" s="140"/>
+      <c r="H34" s="140"/>
+      <c r="I34" s="140"/>
+      <c r="J34" s="140"/>
+      <c r="K34" s="140"/>
+      <c r="L34" s="140"/>
+      <c r="M34" s="140"/>
+      <c r="N34" s="140"/>
+      <c r="O34" s="141"/>
     </row>
     <row r="35" spans="1:16" s="43" customFormat="1" ht="23.25" customHeight="1">
       <c r="B35" s="62"/>
@@ -48805,16 +48805,16 @@
       <c r="O35" s="62"/>
     </row>
     <row r="36" spans="1:16" s="43" customFormat="1" ht="23.25" customHeight="1">
-      <c r="B36" s="134" t="s">
+      <c r="B36" s="154" t="s">
         <v>211</v>
       </c>
-      <c r="C36" s="134"/>
-      <c r="D36" s="134"/>
-      <c r="E36" s="134"/>
-      <c r="F36" s="134"/>
-      <c r="G36" s="134"/>
-      <c r="H36" s="134"/>
-      <c r="I36" s="134"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="154"/>
+      <c r="E36" s="154"/>
+      <c r="F36" s="154"/>
+      <c r="G36" s="154"/>
+      <c r="H36" s="154"/>
+      <c r="I36" s="154"/>
       <c r="J36" s="62"/>
       <c r="K36" s="62"/>
       <c r="L36" s="62"/>
@@ -48839,283 +48839,283 @@
       <c r="O37" s="47"/>
     </row>
     <row r="38" spans="1:16">
-      <c r="A38" s="124"/>
-      <c r="B38" s="124"/>
-      <c r="C38" s="124"/>
-      <c r="D38" s="124"/>
-      <c r="E38" s="124"/>
-      <c r="F38" s="124"/>
-      <c r="G38" s="124"/>
-      <c r="H38" s="124"/>
-      <c r="I38" s="124"/>
-      <c r="J38" s="124"/>
-      <c r="K38" s="124"/>
-      <c r="L38" s="124"/>
-      <c r="M38" s="124"/>
-      <c r="N38" s="124"/>
+      <c r="A38" s="155"/>
+      <c r="B38" s="155"/>
+      <c r="C38" s="155"/>
+      <c r="D38" s="155"/>
+      <c r="E38" s="155"/>
+      <c r="F38" s="155"/>
+      <c r="G38" s="155"/>
+      <c r="H38" s="155"/>
+      <c r="I38" s="155"/>
+      <c r="J38" s="155"/>
+      <c r="K38" s="155"/>
+      <c r="L38" s="155"/>
+      <c r="M38" s="155"/>
+      <c r="N38" s="155"/>
       <c r="O38" s="42"/>
     </row>
     <row r="39" spans="1:16" ht="47.25" customHeight="1">
-      <c r="A39" s="124"/>
-      <c r="B39" s="124"/>
-      <c r="C39" s="124"/>
-      <c r="D39" s="124"/>
-      <c r="E39" s="124"/>
-      <c r="F39" s="124"/>
-      <c r="G39" s="124"/>
-      <c r="H39" s="124"/>
-      <c r="I39" s="124"/>
-      <c r="J39" s="124"/>
-      <c r="K39" s="124"/>
-      <c r="L39" s="124"/>
-      <c r="M39" s="124"/>
-      <c r="N39" s="124"/>
+      <c r="A39" s="155"/>
+      <c r="B39" s="155"/>
+      <c r="C39" s="155"/>
+      <c r="D39" s="155"/>
+      <c r="E39" s="155"/>
+      <c r="F39" s="155"/>
+      <c r="G39" s="155"/>
+      <c r="H39" s="155"/>
+      <c r="I39" s="155"/>
+      <c r="J39" s="155"/>
+      <c r="K39" s="155"/>
+      <c r="L39" s="155"/>
+      <c r="M39" s="155"/>
+      <c r="N39" s="155"/>
       <c r="O39" s="42"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="124"/>
-      <c r="B40" s="124"/>
-      <c r="C40" s="124"/>
-      <c r="D40" s="124"/>
-      <c r="E40" s="124"/>
-      <c r="F40" s="124"/>
-      <c r="G40" s="124"/>
-      <c r="H40" s="124"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
-      <c r="M40" s="124"/>
-      <c r="N40" s="124"/>
+      <c r="A40" s="155"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="155"/>
+      <c r="D40" s="155"/>
+      <c r="E40" s="155"/>
+      <c r="F40" s="155"/>
+      <c r="G40" s="155"/>
+      <c r="H40" s="155"/>
+      <c r="I40" s="155"/>
+      <c r="J40" s="155"/>
+      <c r="K40" s="155"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="155"/>
+      <c r="N40" s="155"/>
       <c r="O40" s="42"/>
     </row>
     <row r="41" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A41" s="124"/>
-      <c r="B41" s="124"/>
-      <c r="C41" s="124"/>
-      <c r="D41" s="124"/>
-      <c r="E41" s="124"/>
-      <c r="F41" s="124"/>
-      <c r="G41" s="124"/>
-      <c r="H41" s="124"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="124"/>
-      <c r="K41" s="124"/>
-      <c r="L41" s="124"/>
-      <c r="M41" s="124"/>
-      <c r="N41" s="124"/>
+      <c r="A41" s="155"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="155"/>
+      <c r="D41" s="155"/>
+      <c r="E41" s="155"/>
+      <c r="F41" s="155"/>
+      <c r="G41" s="155"/>
+      <c r="H41" s="155"/>
+      <c r="I41" s="155"/>
+      <c r="J41" s="155"/>
+      <c r="K41" s="155"/>
+      <c r="L41" s="155"/>
+      <c r="M41" s="155"/>
+      <c r="N41" s="155"/>
       <c r="O41" s="42"/>
     </row>
     <row r="42" spans="1:16" ht="26.25" customHeight="1">
-      <c r="A42" s="124"/>
-      <c r="B42" s="124"/>
-      <c r="C42" s="124"/>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="124"/>
-      <c r="I42" s="124"/>
-      <c r="J42" s="124"/>
-      <c r="K42" s="124"/>
-      <c r="L42" s="124"/>
-      <c r="M42" s="124"/>
-      <c r="N42" s="124"/>
+      <c r="A42" s="155"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="155"/>
+      <c r="D42" s="155"/>
+      <c r="E42" s="155"/>
+      <c r="F42" s="155"/>
+      <c r="G42" s="155"/>
+      <c r="H42" s="155"/>
+      <c r="I42" s="155"/>
+      <c r="J42" s="155"/>
+      <c r="K42" s="155"/>
+      <c r="L42" s="155"/>
+      <c r="M42" s="155"/>
+      <c r="N42" s="155"/>
       <c r="O42" s="42"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="124"/>
-      <c r="B43" s="124"/>
-      <c r="C43" s="124"/>
-      <c r="D43" s="124"/>
-      <c r="E43" s="124"/>
-      <c r="F43" s="124"/>
-      <c r="G43" s="124"/>
-      <c r="H43" s="124"/>
-      <c r="I43" s="124"/>
-      <c r="J43" s="124"/>
-      <c r="K43" s="124"/>
-      <c r="L43" s="124"/>
-      <c r="M43" s="124"/>
-      <c r="N43" s="124"/>
+      <c r="A43" s="155"/>
+      <c r="B43" s="155"/>
+      <c r="C43" s="155"/>
+      <c r="D43" s="155"/>
+      <c r="E43" s="155"/>
+      <c r="F43" s="155"/>
+      <c r="G43" s="155"/>
+      <c r="H43" s="155"/>
+      <c r="I43" s="155"/>
+      <c r="J43" s="155"/>
+      <c r="K43" s="155"/>
+      <c r="L43" s="155"/>
+      <c r="M43" s="155"/>
+      <c r="N43" s="155"/>
       <c r="O43" s="42"/>
     </row>
     <row r="44" spans="1:16" ht="38.25" customHeight="1">
-      <c r="A44" s="124"/>
-      <c r="B44" s="124"/>
-      <c r="C44" s="124"/>
-      <c r="D44" s="124"/>
-      <c r="E44" s="124"/>
-      <c r="F44" s="124"/>
-      <c r="G44" s="124"/>
-      <c r="H44" s="124"/>
-      <c r="I44" s="124"/>
-      <c r="J44" s="124"/>
-      <c r="K44" s="124"/>
-      <c r="L44" s="124"/>
-      <c r="M44" s="124"/>
-      <c r="N44" s="124"/>
+      <c r="A44" s="155"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="155"/>
+      <c r="D44" s="155"/>
+      <c r="E44" s="155"/>
+      <c r="F44" s="155"/>
+      <c r="G44" s="155"/>
+      <c r="H44" s="155"/>
+      <c r="I44" s="155"/>
+      <c r="J44" s="155"/>
+      <c r="K44" s="155"/>
+      <c r="L44" s="155"/>
+      <c r="M44" s="155"/>
+      <c r="N44" s="155"/>
       <c r="O44" s="42"/>
     </row>
     <row r="45" spans="1:16" ht="39.75" customHeight="1">
-      <c r="A45" s="124"/>
-      <c r="B45" s="124"/>
-      <c r="C45" s="124"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="124"/>
-      <c r="J45" s="124"/>
-      <c r="K45" s="124"/>
-      <c r="L45" s="124"/>
-      <c r="M45" s="124"/>
-      <c r="N45" s="124"/>
+      <c r="A45" s="155"/>
+      <c r="B45" s="155"/>
+      <c r="C45" s="155"/>
+      <c r="D45" s="155"/>
+      <c r="E45" s="155"/>
+      <c r="F45" s="155"/>
+      <c r="G45" s="155"/>
+      <c r="H45" s="155"/>
+      <c r="I45" s="155"/>
+      <c r="J45" s="155"/>
+      <c r="K45" s="155"/>
+      <c r="L45" s="155"/>
+      <c r="M45" s="155"/>
+      <c r="N45" s="155"/>
       <c r="O45" s="42"/>
       <c r="P45" s="42"/>
     </row>
     <row r="46" spans="1:16" ht="60.75" customHeight="1">
-      <c r="A46" s="124"/>
-      <c r="B46" s="124"/>
-      <c r="C46" s="124"/>
-      <c r="D46" s="124"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="124"/>
-      <c r="J46" s="124"/>
-      <c r="K46" s="124"/>
-      <c r="L46" s="124"/>
-      <c r="M46" s="124"/>
-      <c r="N46" s="124"/>
+      <c r="A46" s="155"/>
+      <c r="B46" s="155"/>
+      <c r="C46" s="155"/>
+      <c r="D46" s="155"/>
+      <c r="E46" s="155"/>
+      <c r="F46" s="155"/>
+      <c r="G46" s="155"/>
+      <c r="H46" s="155"/>
+      <c r="I46" s="155"/>
+      <c r="J46" s="155"/>
+      <c r="K46" s="155"/>
+      <c r="L46" s="155"/>
+      <c r="M46" s="155"/>
+      <c r="N46" s="155"/>
       <c r="O46" s="42"/>
       <c r="P46" s="42"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="124"/>
-      <c r="B47" s="124"/>
-      <c r="C47" s="124"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="124"/>
-      <c r="J47" s="124"/>
-      <c r="K47" s="124"/>
-      <c r="L47" s="124"/>
-      <c r="M47" s="124"/>
-      <c r="N47" s="124"/>
+      <c r="A47" s="155"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="155"/>
+      <c r="D47" s="155"/>
+      <c r="E47" s="155"/>
+      <c r="F47" s="155"/>
+      <c r="G47" s="155"/>
+      <c r="H47" s="155"/>
+      <c r="I47" s="155"/>
+      <c r="J47" s="155"/>
+      <c r="K47" s="155"/>
+      <c r="L47" s="155"/>
+      <c r="M47" s="155"/>
+      <c r="N47" s="155"/>
       <c r="O47" s="42"/>
       <c r="P47" s="42"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="124"/>
-      <c r="B48" s="124"/>
-      <c r="C48" s="124"/>
-      <c r="D48" s="124"/>
-      <c r="E48" s="124"/>
-      <c r="F48" s="124"/>
-      <c r="G48" s="124"/>
-      <c r="H48" s="124"/>
-      <c r="I48" s="124"/>
-      <c r="J48" s="124"/>
-      <c r="K48" s="124"/>
-      <c r="L48" s="124"/>
-      <c r="M48" s="124"/>
-      <c r="N48" s="124"/>
+      <c r="A48" s="155"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="155"/>
+      <c r="D48" s="155"/>
+      <c r="E48" s="155"/>
+      <c r="F48" s="155"/>
+      <c r="G48" s="155"/>
+      <c r="H48" s="155"/>
+      <c r="I48" s="155"/>
+      <c r="J48" s="155"/>
+      <c r="K48" s="155"/>
+      <c r="L48" s="155"/>
+      <c r="M48" s="155"/>
+      <c r="N48" s="155"/>
       <c r="O48" s="42"/>
       <c r="P48" s="42"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="124"/>
-      <c r="B49" s="124"/>
-      <c r="C49" s="124"/>
-      <c r="D49" s="124"/>
-      <c r="E49" s="124"/>
-      <c r="F49" s="124"/>
-      <c r="G49" s="124"/>
-      <c r="H49" s="124"/>
-      <c r="I49" s="124"/>
-      <c r="J49" s="124"/>
-      <c r="K49" s="124"/>
-      <c r="L49" s="124"/>
-      <c r="M49" s="124"/>
-      <c r="N49" s="124"/>
+      <c r="A49" s="155"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="155"/>
+      <c r="D49" s="155"/>
+      <c r="E49" s="155"/>
+      <c r="F49" s="155"/>
+      <c r="G49" s="155"/>
+      <c r="H49" s="155"/>
+      <c r="I49" s="155"/>
+      <c r="J49" s="155"/>
+      <c r="K49" s="155"/>
+      <c r="L49" s="155"/>
+      <c r="M49" s="155"/>
+      <c r="N49" s="155"/>
       <c r="O49" s="42"/>
       <c r="P49" s="42"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="124"/>
-      <c r="B50" s="124"/>
-      <c r="C50" s="124"/>
-      <c r="D50" s="124"/>
-      <c r="E50" s="124"/>
-      <c r="F50" s="124"/>
-      <c r="G50" s="124"/>
-      <c r="H50" s="124"/>
-      <c r="I50" s="124"/>
-      <c r="J50" s="124"/>
-      <c r="K50" s="124"/>
-      <c r="L50" s="124"/>
-      <c r="M50" s="124"/>
-      <c r="N50" s="124"/>
+      <c r="A50" s="155"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="155"/>
+      <c r="D50" s="155"/>
+      <c r="E50" s="155"/>
+      <c r="F50" s="155"/>
+      <c r="G50" s="155"/>
+      <c r="H50" s="155"/>
+      <c r="I50" s="155"/>
+      <c r="J50" s="155"/>
+      <c r="K50" s="155"/>
+      <c r="L50" s="155"/>
+      <c r="M50" s="155"/>
+      <c r="N50" s="155"/>
       <c r="O50" s="42"/>
       <c r="P50" s="42"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="124"/>
-      <c r="B51" s="124"/>
-      <c r="C51" s="124"/>
-      <c r="D51" s="124"/>
-      <c r="E51" s="124"/>
-      <c r="F51" s="124"/>
-      <c r="G51" s="124"/>
-      <c r="H51" s="124"/>
-      <c r="I51" s="124"/>
-      <c r="J51" s="124"/>
-      <c r="K51" s="124"/>
-      <c r="L51" s="124"/>
-      <c r="M51" s="124"/>
-      <c r="N51" s="124"/>
+      <c r="A51" s="155"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="155"/>
+      <c r="D51" s="155"/>
+      <c r="E51" s="155"/>
+      <c r="F51" s="155"/>
+      <c r="G51" s="155"/>
+      <c r="H51" s="155"/>
+      <c r="I51" s="155"/>
+      <c r="J51" s="155"/>
+      <c r="K51" s="155"/>
+      <c r="L51" s="155"/>
+      <c r="M51" s="155"/>
+      <c r="N51" s="155"/>
       <c r="O51" s="42"/>
       <c r="P51" s="42"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="124"/>
-      <c r="B52" s="124"/>
-      <c r="C52" s="124"/>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="124"/>
-      <c r="I52" s="124"/>
-      <c r="J52" s="124"/>
-      <c r="K52" s="124"/>
-      <c r="L52" s="124"/>
-      <c r="M52" s="124"/>
-      <c r="N52" s="124"/>
+      <c r="A52" s="155"/>
+      <c r="B52" s="155"/>
+      <c r="C52" s="155"/>
+      <c r="D52" s="155"/>
+      <c r="E52" s="155"/>
+      <c r="F52" s="155"/>
+      <c r="G52" s="155"/>
+      <c r="H52" s="155"/>
+      <c r="I52" s="155"/>
+      <c r="J52" s="155"/>
+      <c r="K52" s="155"/>
+      <c r="L52" s="155"/>
+      <c r="M52" s="155"/>
+      <c r="N52" s="155"/>
       <c r="O52" s="42"/>
       <c r="P52" s="42"/>
     </row>
     <row r="53" spans="1:16">
-      <c r="A53" s="124"/>
-      <c r="B53" s="124"/>
-      <c r="C53" s="124"/>
-      <c r="D53" s="124"/>
-      <c r="E53" s="124"/>
-      <c r="F53" s="124"/>
-      <c r="G53" s="124"/>
-      <c r="H53" s="124"/>
-      <c r="I53" s="124"/>
-      <c r="J53" s="124"/>
-      <c r="K53" s="124"/>
-      <c r="L53" s="124"/>
-      <c r="M53" s="124"/>
-      <c r="N53" s="124"/>
+      <c r="A53" s="155"/>
+      <c r="B53" s="155"/>
+      <c r="C53" s="155"/>
+      <c r="D53" s="155"/>
+      <c r="E53" s="155"/>
+      <c r="F53" s="155"/>
+      <c r="G53" s="155"/>
+      <c r="H53" s="155"/>
+      <c r="I53" s="155"/>
+      <c r="J53" s="155"/>
+      <c r="K53" s="155"/>
+      <c r="L53" s="155"/>
+      <c r="M53" s="155"/>
+      <c r="N53" s="155"/>
       <c r="O53" s="42"/>
       <c r="P53" s="42"/>
     </row>
@@ -49166,6 +49166,27 @@
     </row>
   </sheetData>
   <mergeCells count="37">
+    <mergeCell ref="A38:N38"/>
+    <mergeCell ref="A39:N39"/>
+    <mergeCell ref="A44:N44"/>
+    <mergeCell ref="A40:N40"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="A43:N43"/>
+    <mergeCell ref="A50:N50"/>
+    <mergeCell ref="A51:N51"/>
+    <mergeCell ref="A52:N52"/>
+    <mergeCell ref="A53:N53"/>
+    <mergeCell ref="A45:N45"/>
+    <mergeCell ref="A46:N46"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A49:N49"/>
+    <mergeCell ref="C2:C5"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="B36:I36"/>
     <mergeCell ref="Q2:Q4"/>
     <mergeCell ref="B31:O31"/>
     <mergeCell ref="B32:O32"/>
@@ -49182,27 +49203,6 @@
     <mergeCell ref="M2:M4"/>
     <mergeCell ref="N2:N4"/>
     <mergeCell ref="K2:K4"/>
-    <mergeCell ref="C2:C5"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A50:N50"/>
-    <mergeCell ref="A51:N51"/>
-    <mergeCell ref="A52:N52"/>
-    <mergeCell ref="A53:N53"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A46:N46"/>
-    <mergeCell ref="A47:N47"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A49:N49"/>
-    <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A39:N39"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A40:N40"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="A42:N42"/>
-    <mergeCell ref="A43:N43"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -49214,8 +49214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE09EFEF-EC0B-4984-B180-595A6EF1BBAD}">
   <dimension ref="B2:Q174"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K175" sqref="K175"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F175" sqref="F175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -49226,50 +49226,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
       <c r="K2" s="53"/>
-      <c r="M2" s="171" t="s">
+      <c r="M2" s="170" t="s">
         <v>210</v>
       </c>
-      <c r="N2" s="171"/>
-      <c r="O2" s="171"/>
-      <c r="P2" s="171"/>
-      <c r="Q2" s="171"/>
+      <c r="N2" s="170"/>
+      <c r="O2" s="170"/>
+      <c r="P2" s="170"/>
+      <c r="Q2" s="170"/>
     </row>
     <row r="3" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B3" s="161" t="s">
+      <c r="B3" s="179" t="s">
         <v>178</v>
       </c>
-      <c r="C3" s="159"/>
-      <c r="D3" s="159"/>
-      <c r="E3" s="159"/>
-      <c r="F3" s="159"/>
-      <c r="G3" s="159"/>
-      <c r="H3" s="159"/>
-      <c r="I3" s="159"/>
-      <c r="J3" s="159"/>
+      <c r="C3" s="177"/>
+      <c r="D3" s="177"/>
+      <c r="E3" s="177"/>
+      <c r="F3" s="177"/>
+      <c r="G3" s="177"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
       <c r="K3" s="55"/>
     </row>
     <row r="4" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B4" s="161"/>
-      <c r="C4" s="159"/>
-      <c r="D4" s="159"/>
-      <c r="E4" s="159"/>
-      <c r="F4" s="159"/>
-      <c r="G4" s="159"/>
-      <c r="H4" s="159"/>
-      <c r="I4" s="159"/>
-      <c r="J4" s="159"/>
+      <c r="B4" s="179"/>
+      <c r="C4" s="177"/>
+      <c r="D4" s="177"/>
+      <c r="E4" s="177"/>
+      <c r="F4" s="177"/>
+      <c r="G4" s="177"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
       <c r="K4" s="55"/>
     </row>
     <row r="5" spans="2:17" ht="20.100000000000001" customHeight="1">
@@ -49289,15 +49289,15 @@
         <v>126</v>
       </c>
       <c r="C6" s="50"/>
-      <c r="D6" s="164" t="s">
+      <c r="D6" s="182" t="s">
         <v>136</v>
       </c>
-      <c r="E6" s="164"/>
-      <c r="F6" s="164"/>
-      <c r="G6" s="164" t="s">
+      <c r="E6" s="182"/>
+      <c r="F6" s="182"/>
+      <c r="G6" s="182" t="s">
         <v>145</v>
       </c>
-      <c r="H6" s="164"/>
+      <c r="H6" s="182"/>
       <c r="I6" s="51"/>
       <c r="J6" s="51"/>
       <c r="K6" s="55"/>
@@ -49307,17 +49307,17 @@
         <v>127</v>
       </c>
       <c r="C7" s="49"/>
-      <c r="D7" s="162" t="s">
+      <c r="D7" s="180" t="s">
         <v>137</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="162"/>
-      <c r="G7" s="159" t="s">
+      <c r="E7" s="180"/>
+      <c r="F7" s="180"/>
+      <c r="G7" s="177" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="159"/>
-      <c r="I7" s="159"/>
-      <c r="J7" s="159"/>
+      <c r="H7" s="177"/>
+      <c r="I7" s="177"/>
+      <c r="J7" s="177"/>
       <c r="K7" s="55"/>
     </row>
     <row r="8" spans="2:17" ht="20.100000000000001" customHeight="1">
@@ -49325,95 +49325,95 @@
         <v>128</v>
       </c>
       <c r="C8" s="49"/>
-      <c r="D8" s="162" t="s">
+      <c r="D8" s="180" t="s">
         <v>138</v>
       </c>
-      <c r="E8" s="162"/>
-      <c r="F8" s="162"/>
-      <c r="G8" s="159"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="159"/>
-      <c r="J8" s="159"/>
+      <c r="E8" s="180"/>
+      <c r="F8" s="180"/>
+      <c r="G8" s="177"/>
+      <c r="H8" s="177"/>
+      <c r="I8" s="177"/>
+      <c r="J8" s="177"/>
       <c r="K8" s="55"/>
     </row>
     <row r="9" spans="2:17" ht="20.100000000000001" customHeight="1">
       <c r="B9" s="58"/>
       <c r="C9" s="59"/>
-      <c r="D9" s="163"/>
-      <c r="E9" s="163"/>
-      <c r="F9" s="163"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="181"/>
+      <c r="F9" s="181"/>
+      <c r="G9" s="178"/>
+      <c r="H9" s="178"/>
+      <c r="I9" s="178"/>
+      <c r="J9" s="178"/>
       <c r="K9" s="60"/>
     </row>
     <row r="10" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B10" s="165"/>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="F10" s="165"/>
-      <c r="G10" s="165"/>
-      <c r="H10" s="165"/>
+      <c r="B10" s="183"/>
+      <c r="C10" s="183"/>
+      <c r="D10" s="183"/>
+      <c r="E10" s="183"/>
+      <c r="F10" s="183"/>
+      <c r="G10" s="183"/>
+      <c r="H10" s="183"/>
     </row>
     <row r="11" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B11" s="154" t="s">
+      <c r="B11" s="166" t="s">
         <v>161</v>
       </c>
-      <c r="C11" s="154"/>
-      <c r="D11" s="154"/>
-      <c r="E11" s="154"/>
-      <c r="F11" s="154"/>
-      <c r="G11" s="154"/>
-      <c r="H11" s="154"/>
-      <c r="I11" s="154"/>
-      <c r="J11" s="154"/>
-      <c r="K11" s="154"/>
+      <c r="C11" s="166"/>
+      <c r="D11" s="166"/>
+      <c r="E11" s="166"/>
+      <c r="F11" s="166"/>
+      <c r="G11" s="166"/>
+      <c r="H11" s="166"/>
+      <c r="I11" s="166"/>
+      <c r="J11" s="166"/>
+      <c r="K11" s="166"/>
     </row>
     <row r="12" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B12" s="155" t="s">
+      <c r="B12" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="155" t="s">
+      <c r="C12" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D12" s="155" t="s">
+      <c r="D12" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E12" s="155" t="s">
+      <c r="E12" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F12" s="155" t="s">
+      <c r="F12" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G12" s="155" t="s">
+      <c r="G12" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H12" s="155" t="s">
+      <c r="H12" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I12" s="155" t="s">
+      <c r="I12" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J12" s="155" t="s">
+      <c r="J12" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K12" s="155" t="s">
+      <c r="K12" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="13" spans="2:17" ht="20.100000000000001" customHeight="1">
-      <c r="B13" s="156"/>
-      <c r="C13" s="156"/>
-      <c r="D13" s="156"/>
-      <c r="E13" s="156"/>
-      <c r="F13" s="156"/>
-      <c r="G13" s="156"/>
-      <c r="H13" s="156"/>
-      <c r="I13" s="156"/>
-      <c r="J13" s="156"/>
-      <c r="K13" s="156"/>
+      <c r="B13" s="168"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
+      <c r="E13" s="168"/>
+      <c r="F13" s="168"/>
+      <c r="G13" s="168"/>
+      <c r="H13" s="168"/>
+      <c r="I13" s="168"/>
+      <c r="J13" s="168"/>
+      <c r="K13" s="168"/>
     </row>
     <row r="14" spans="2:17" ht="20.100000000000001" customHeight="1">
       <c r="B14" s="63" t="s">
@@ -49447,7 +49447,7 @@
         <f>I14</f>
         <v>0.51883581127162259</v>
       </c>
-      <c r="K14" s="166">
+      <c r="K14" s="172">
         <v>2.5</v>
       </c>
     </row>
@@ -49483,7 +49483,7 @@
         <f>SUM(I14:I15)</f>
         <v>0.626499410998822</v>
       </c>
-      <c r="K15" s="167"/>
+      <c r="K15" s="173"/>
     </row>
     <row r="16" spans="2:17" ht="20.100000000000001" customHeight="1">
       <c r="B16" s="37" t="s">
@@ -49517,7 +49517,7 @@
         <f>SUM(I14:I16)</f>
         <v>0.70545839171678348</v>
       </c>
-      <c r="K16" s="167"/>
+      <c r="K16" s="173"/>
     </row>
     <row r="17" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B17" s="37" t="s">
@@ -49551,7 +49551,7 @@
         <f>SUM(I14:I17)</f>
         <v>0.74201298282596573</v>
       </c>
-      <c r="K17" s="167"/>
+      <c r="K17" s="173"/>
     </row>
     <row r="18" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B18" s="63" t="s">
@@ -49585,7 +49585,7 @@
         <f>SUM(I14:I18)</f>
         <v>0.91897869675739363</v>
       </c>
-      <c r="K18" s="167"/>
+      <c r="K18" s="173"/>
     </row>
     <row r="19" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B19" s="37" t="s">
@@ -49619,7 +49619,7 @@
         <f>SUM(I14:I19)</f>
         <v>0.94861158782317578</v>
       </c>
-      <c r="K19" s="167"/>
+      <c r="K19" s="173"/>
     </row>
     <row r="20" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B20" s="63" t="s">
@@ -49653,7 +49653,7 @@
         <f>SUM(I14:I20)</f>
         <v>1.381319356438713</v>
       </c>
-      <c r="K20" s="167"/>
+      <c r="K20" s="173"/>
     </row>
     <row r="21" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B21" s="37" t="s">
@@ -49687,7 +49687,7 @@
         <f>SUM(I14:I21)</f>
         <v>1.4218202120404242</v>
       </c>
-      <c r="K21" s="167"/>
+      <c r="K21" s="173"/>
     </row>
     <row r="22" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B22" s="37" t="s">
@@ -49721,7 +49721,7 @@
         <f>SUM(I14:I22)</f>
         <v>1.5905476222952446</v>
       </c>
-      <c r="K22" s="167"/>
+      <c r="K22" s="173"/>
     </row>
     <row r="23" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B23" s="37" t="s">
@@ -49755,65 +49755,65 @@
         <f>SUM(I14:I23)</f>
         <v>1.791838142476285</v>
       </c>
-      <c r="K23" s="168"/>
+      <c r="K23" s="174"/>
     </row>
     <row r="26" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B26" s="154" t="s">
+      <c r="B26" s="166" t="s">
         <v>162</v>
       </c>
-      <c r="C26" s="154"/>
-      <c r="D26" s="154"/>
-      <c r="E26" s="154"/>
-      <c r="F26" s="154"/>
-      <c r="G26" s="154"/>
-      <c r="H26" s="154"/>
-      <c r="I26" s="154"/>
-      <c r="J26" s="154"/>
-      <c r="K26" s="154"/>
+      <c r="C26" s="166"/>
+      <c r="D26" s="166"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="166"/>
     </row>
     <row r="27" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B27" s="155" t="s">
+      <c r="B27" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C27" s="155" t="s">
+      <c r="C27" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D27" s="155" t="s">
+      <c r="D27" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E27" s="155" t="s">
+      <c r="E27" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F27" s="155" t="s">
+      <c r="F27" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G27" s="155" t="s">
+      <c r="G27" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H27" s="155" t="s">
+      <c r="H27" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I27" s="155" t="s">
+      <c r="I27" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J27" s="155" t="s">
+      <c r="J27" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K27" s="155" t="s">
+      <c r="K27" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="28" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B28" s="156"/>
-      <c r="C28" s="156"/>
-      <c r="D28" s="156"/>
-      <c r="E28" s="156"/>
-      <c r="F28" s="156"/>
-      <c r="G28" s="156"/>
-      <c r="H28" s="156"/>
-      <c r="I28" s="156"/>
-      <c r="J28" s="156"/>
-      <c r="K28" s="156"/>
+      <c r="B28" s="168"/>
+      <c r="C28" s="168"/>
+      <c r="D28" s="168"/>
+      <c r="E28" s="168"/>
+      <c r="F28" s="168"/>
+      <c r="G28" s="168"/>
+      <c r="H28" s="168"/>
+      <c r="I28" s="168"/>
+      <c r="J28" s="168"/>
+      <c r="K28" s="168"/>
     </row>
     <row r="29" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B29" s="63" t="s">
@@ -49847,7 +49847,7 @@
         <f>I29</f>
         <v>9.5258267716535422E-2</v>
       </c>
-      <c r="K29" s="166">
+      <c r="K29" s="172">
         <v>2.5</v>
       </c>
     </row>
@@ -49883,7 +49883,7 @@
         <f>SUM(I29:I30)</f>
         <v>0.21993930187860372</v>
       </c>
-      <c r="K30" s="167"/>
+      <c r="K30" s="173"/>
     </row>
     <row r="31" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B31" s="37" t="s">
@@ -49917,7 +49917,7 @@
         <f>SUM(I29:I31)</f>
         <v>0.2785383594767189</v>
       </c>
-      <c r="K31" s="167"/>
+      <c r="K31" s="173"/>
     </row>
     <row r="32" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B32" s="37" t="s">
@@ -49951,7 +49951,7 @@
         <f>SUM(I29:I32)</f>
         <v>0.29875022010044017</v>
       </c>
-      <c r="K32" s="167"/>
+      <c r="K32" s="173"/>
     </row>
     <row r="33" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B33" s="63" t="s">
@@ -49985,7 +49985,7 @@
         <f>SUM(I29:I33)</f>
         <v>0.42544738669477333</v>
       </c>
-      <c r="K33" s="167"/>
+      <c r="K33" s="173"/>
     </row>
     <row r="34" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B34" s="37" t="s">
@@ -50019,7 +50019,7 @@
         <f>SUM(I29:I34)</f>
         <v>0.52749081778163553</v>
       </c>
-      <c r="K34" s="167"/>
+      <c r="K34" s="173"/>
     </row>
     <row r="35" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B35" s="37" t="s">
@@ -50053,7 +50053,7 @@
         <f>SUM(I29:I35)</f>
         <v>0.60129864219728435</v>
       </c>
-      <c r="K35" s="167"/>
+      <c r="K35" s="173"/>
     </row>
     <row r="36" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B36" s="37" t="s">
@@ -50087,7 +50087,7 @@
         <f>SUM(I29:I36)</f>
         <v>0.65253181226362444</v>
       </c>
-      <c r="K36" s="167"/>
+      <c r="K36" s="173"/>
     </row>
     <row r="37" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B37" s="37" t="s">
@@ -50121,7 +50121,7 @@
         <f>SUM(I29:I37)</f>
         <v>0.67499918779837553</v>
       </c>
-      <c r="K37" s="167"/>
+      <c r="K37" s="173"/>
     </row>
     <row r="38" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B38" s="37" t="s">
@@ -50155,7 +50155,7 @@
         <f>SUM(I29:I38)</f>
         <v>0.70559847479694948</v>
       </c>
-      <c r="K38" s="167"/>
+      <c r="K38" s="173"/>
     </row>
     <row r="39" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B39" s="63" t="s">
@@ -50189,7 +50189,7 @@
         <f>SUM(I29:I39)</f>
         <v>0.7857517081034161</v>
       </c>
-      <c r="K39" s="167"/>
+      <c r="K39" s="173"/>
     </row>
     <row r="40" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B40" s="37" t="s">
@@ -50223,7 +50223,7 @@
         <f>SUM(I29:I40)</f>
         <v>0.80331706243412482</v>
       </c>
-      <c r="K40" s="167"/>
+      <c r="K40" s="173"/>
     </row>
     <row r="41" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B41" s="37" t="s">
@@ -50257,7 +50257,7 @@
         <f>SUM(I29:I41)</f>
         <v>0.84417965155930308</v>
       </c>
-      <c r="K41" s="167"/>
+      <c r="K41" s="173"/>
     </row>
     <row r="42" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B42" s="37" t="s">
@@ -50291,7 +50291,7 @@
         <f>SUM(I29:I42)</f>
         <v>0.8665379750759501</v>
       </c>
-      <c r="K42" s="167"/>
+      <c r="K42" s="173"/>
     </row>
     <row r="43" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B43" s="37" t="s">
@@ -50325,65 +50325,65 @@
         <f>SUM(I29:I43)</f>
         <v>0.87994162068324133</v>
       </c>
-      <c r="K43" s="168"/>
+      <c r="K43" s="174"/>
     </row>
     <row r="46" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B46" s="154" t="s">
+      <c r="B46" s="166" t="s">
         <v>170</v>
       </c>
-      <c r="C46" s="154"/>
-      <c r="D46" s="154"/>
-      <c r="E46" s="154"/>
-      <c r="F46" s="154"/>
-      <c r="G46" s="154"/>
-      <c r="H46" s="154"/>
-      <c r="I46" s="154"/>
-      <c r="J46" s="154"/>
-      <c r="K46" s="154"/>
+      <c r="C46" s="166"/>
+      <c r="D46" s="166"/>
+      <c r="E46" s="166"/>
+      <c r="F46" s="166"/>
+      <c r="G46" s="166"/>
+      <c r="H46" s="166"/>
+      <c r="I46" s="166"/>
+      <c r="J46" s="166"/>
+      <c r="K46" s="166"/>
     </row>
     <row r="47" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B47" s="155" t="s">
+      <c r="B47" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C47" s="155" t="s">
+      <c r="C47" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D47" s="155" t="s">
+      <c r="D47" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E47" s="155" t="s">
+      <c r="E47" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F47" s="155" t="s">
+      <c r="F47" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G47" s="155" t="s">
+      <c r="G47" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H47" s="155" t="s">
+      <c r="H47" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I47" s="155" t="s">
+      <c r="I47" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J47" s="155" t="s">
+      <c r="J47" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K47" s="155" t="s">
+      <c r="K47" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="48" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B48" s="156"/>
-      <c r="C48" s="156"/>
-      <c r="D48" s="156"/>
-      <c r="E48" s="156"/>
-      <c r="F48" s="156"/>
-      <c r="G48" s="156"/>
-      <c r="H48" s="156"/>
-      <c r="I48" s="156"/>
-      <c r="J48" s="156"/>
-      <c r="K48" s="156"/>
+      <c r="B48" s="168"/>
+      <c r="C48" s="168"/>
+      <c r="D48" s="168"/>
+      <c r="E48" s="168"/>
+      <c r="F48" s="168"/>
+      <c r="G48" s="168"/>
+      <c r="H48" s="168"/>
+      <c r="I48" s="168"/>
+      <c r="J48" s="168"/>
+      <c r="K48" s="168"/>
     </row>
     <row r="49" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B49" s="37" t="s">
@@ -50417,7 +50417,7 @@
         <f>I49</f>
         <v>1.1655793961187926</v>
       </c>
-      <c r="K49" s="169">
+      <c r="K49" s="171">
         <v>4</v>
       </c>
     </row>
@@ -50453,7 +50453,7 @@
         <f>SUM(I49:I50)</f>
         <v>1.1752654622109249</v>
       </c>
-      <c r="K50" s="169"/>
+      <c r="K50" s="171"/>
     </row>
     <row r="51" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B51" s="37" t="s">
@@ -50487,7 +50487,7 @@
         <f>SUM(I49:I51)</f>
         <v>1.1820244875689756</v>
       </c>
-      <c r="K51" s="169"/>
+      <c r="K51" s="171"/>
     </row>
     <row r="52" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B52" s="37" t="s">
@@ -50521,7 +50521,7 @@
         <f>SUM(I49:I52)</f>
         <v>1.187739133238267</v>
       </c>
-      <c r="K52" s="169"/>
+      <c r="K52" s="171"/>
     </row>
     <row r="53" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B53" s="37" t="s">
@@ -50555,7 +50555,7 @@
         <f>SUM(I49:I53)</f>
         <v>1.2791934627069259</v>
       </c>
-      <c r="K53" s="169"/>
+      <c r="K53" s="171"/>
     </row>
     <row r="54" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B54" s="37" t="s">
@@ -50589,65 +50589,65 @@
         <f>SUM(I49:I54)</f>
         <v>1.3062117874635755</v>
       </c>
-      <c r="K54" s="169"/>
+      <c r="K54" s="171"/>
     </row>
     <row r="57" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B57" s="154" t="s">
+      <c r="B57" s="166" t="s">
         <v>186</v>
       </c>
-      <c r="C57" s="154"/>
-      <c r="D57" s="154"/>
-      <c r="E57" s="154"/>
-      <c r="F57" s="154"/>
-      <c r="G57" s="154"/>
-      <c r="H57" s="154"/>
-      <c r="I57" s="154"/>
-      <c r="J57" s="154"/>
-      <c r="K57" s="154"/>
+      <c r="C57" s="166"/>
+      <c r="D57" s="166"/>
+      <c r="E57" s="166"/>
+      <c r="F57" s="166"/>
+      <c r="G57" s="166"/>
+      <c r="H57" s="166"/>
+      <c r="I57" s="166"/>
+      <c r="J57" s="166"/>
+      <c r="K57" s="166"/>
     </row>
     <row r="58" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B58" s="155" t="s">
+      <c r="B58" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C58" s="155" t="s">
+      <c r="C58" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D58" s="155" t="s">
+      <c r="D58" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E58" s="155" t="s">
+      <c r="E58" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F58" s="155" t="s">
+      <c r="F58" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G58" s="155" t="s">
+      <c r="G58" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H58" s="155" t="s">
+      <c r="H58" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I58" s="155" t="s">
+      <c r="I58" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J58" s="155" t="s">
+      <c r="J58" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K58" s="155" t="s">
+      <c r="K58" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="59" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B59" s="156"/>
-      <c r="C59" s="156"/>
-      <c r="D59" s="156"/>
-      <c r="E59" s="156"/>
-      <c r="F59" s="156"/>
-      <c r="G59" s="156"/>
-      <c r="H59" s="156"/>
-      <c r="I59" s="156"/>
-      <c r="J59" s="156"/>
-      <c r="K59" s="156"/>
+      <c r="B59" s="168"/>
+      <c r="C59" s="168"/>
+      <c r="D59" s="168"/>
+      <c r="E59" s="168"/>
+      <c r="F59" s="168"/>
+      <c r="G59" s="168"/>
+      <c r="H59" s="168"/>
+      <c r="I59" s="168"/>
+      <c r="J59" s="168"/>
+      <c r="K59" s="168"/>
     </row>
     <row r="60" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B60" s="37" t="s">
@@ -50681,7 +50681,7 @@
         <f>I60</f>
         <v>1.0545718345836694</v>
       </c>
-      <c r="K60" s="144">
+      <c r="K60" s="156">
         <v>4</v>
       </c>
     </row>
@@ -50717,7 +50717,7 @@
         <f>SUM(I60:I61)</f>
         <v>1.1398365478330958</v>
       </c>
-      <c r="K61" s="170"/>
+      <c r="K61" s="169"/>
     </row>
     <row r="62" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B62" s="37" t="s">
@@ -50751,7 +50751,7 @@
         <f>SUM(I60:I62)</f>
         <v>1.3890816492032987</v>
       </c>
-      <c r="K62" s="170"/>
+      <c r="K62" s="169"/>
     </row>
     <row r="63" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B63" s="37" t="s">
@@ -50785,7 +50785,7 @@
         <f>SUM(I60:I63)</f>
         <v>1.3940413416826836</v>
       </c>
-      <c r="K63" s="170"/>
+      <c r="K63" s="169"/>
     </row>
     <row r="64" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B64" s="37" t="s">
@@ -50819,65 +50819,65 @@
         <f>SUM(I60:I64)</f>
         <v>1.4224462471324946</v>
       </c>
-      <c r="K64" s="145"/>
+      <c r="K64" s="157"/>
     </row>
     <row r="67" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B67" s="154" t="s">
+      <c r="B67" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="C67" s="154"/>
-      <c r="D67" s="154"/>
-      <c r="E67" s="154"/>
-      <c r="F67" s="154"/>
-      <c r="G67" s="154"/>
-      <c r="H67" s="154"/>
-      <c r="I67" s="154"/>
-      <c r="J67" s="154"/>
-      <c r="K67" s="154"/>
+      <c r="C67" s="166"/>
+      <c r="D67" s="166"/>
+      <c r="E67" s="166"/>
+      <c r="F67" s="166"/>
+      <c r="G67" s="166"/>
+      <c r="H67" s="166"/>
+      <c r="I67" s="166"/>
+      <c r="J67" s="166"/>
+      <c r="K67" s="166"/>
     </row>
     <row r="68" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B68" s="155" t="s">
+      <c r="B68" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C68" s="155" t="s">
+      <c r="C68" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="155" t="s">
+      <c r="D68" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E68" s="155" t="s">
+      <c r="E68" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F68" s="155" t="s">
+      <c r="F68" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G68" s="155" t="s">
+      <c r="G68" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H68" s="155" t="s">
+      <c r="H68" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I68" s="155" t="s">
+      <c r="I68" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J68" s="155" t="s">
+      <c r="J68" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K68" s="155" t="s">
+      <c r="K68" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="69" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B69" s="156"/>
-      <c r="C69" s="156"/>
-      <c r="D69" s="156"/>
-      <c r="E69" s="156"/>
-      <c r="F69" s="156"/>
-      <c r="G69" s="156"/>
-      <c r="H69" s="156"/>
-      <c r="I69" s="156"/>
-      <c r="J69" s="156"/>
-      <c r="K69" s="156"/>
+      <c r="B69" s="168"/>
+      <c r="C69" s="168"/>
+      <c r="D69" s="168"/>
+      <c r="E69" s="168"/>
+      <c r="F69" s="168"/>
+      <c r="G69" s="168"/>
+      <c r="H69" s="168"/>
+      <c r="I69" s="168"/>
+      <c r="J69" s="168"/>
+      <c r="K69" s="168"/>
     </row>
     <row r="70" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B70" s="37" t="s">
@@ -50911,7 +50911,7 @@
         <f>I70</f>
         <v>1.0317732481864963</v>
       </c>
-      <c r="K70" s="169">
+      <c r="K70" s="171">
         <v>4</v>
       </c>
     </row>
@@ -50947,7 +50947,7 @@
         <f>SUM(I70:I71)</f>
         <v>1.0770871052142104</v>
       </c>
-      <c r="K71" s="169"/>
+      <c r="K71" s="171"/>
     </row>
     <row r="72" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B72" s="37" t="s">
@@ -50981,7 +50981,7 @@
         <f>SUM(I70:I72)</f>
         <v>1.0837439146878294</v>
       </c>
-      <c r="K72" s="169"/>
+      <c r="K72" s="171"/>
     </row>
     <row r="73" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B73" s="37" t="s">
@@ -51015,65 +51015,65 @@
         <f>SUM(I70:I73)</f>
         <v>1.2140558348316697</v>
       </c>
-      <c r="K73" s="169"/>
+      <c r="K73" s="171"/>
     </row>
     <row r="76" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B76" s="154" t="s">
+      <c r="B76" s="166" t="s">
         <v>188</v>
       </c>
-      <c r="C76" s="154"/>
-      <c r="D76" s="154"/>
-      <c r="E76" s="154"/>
-      <c r="F76" s="154"/>
-      <c r="G76" s="154"/>
-      <c r="H76" s="154"/>
-      <c r="I76" s="154"/>
-      <c r="J76" s="154"/>
-      <c r="K76" s="154"/>
+      <c r="C76" s="166"/>
+      <c r="D76" s="166"/>
+      <c r="E76" s="166"/>
+      <c r="F76" s="166"/>
+      <c r="G76" s="166"/>
+      <c r="H76" s="166"/>
+      <c r="I76" s="166"/>
+      <c r="J76" s="166"/>
+      <c r="K76" s="166"/>
     </row>
     <row r="77" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B77" s="155" t="s">
+      <c r="B77" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C77" s="155" t="s">
+      <c r="C77" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D77" s="155" t="s">
+      <c r="D77" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E77" s="155" t="s">
+      <c r="E77" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F77" s="155" t="s">
+      <c r="F77" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G77" s="155" t="s">
+      <c r="G77" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H77" s="155" t="s">
+      <c r="H77" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I77" s="155" t="s">
+      <c r="I77" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J77" s="155" t="s">
+      <c r="J77" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K77" s="155" t="s">
+      <c r="K77" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="78" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B78" s="156"/>
-      <c r="C78" s="156"/>
-      <c r="D78" s="156"/>
-      <c r="E78" s="156"/>
-      <c r="F78" s="156"/>
-      <c r="G78" s="156"/>
-      <c r="H78" s="156"/>
-      <c r="I78" s="156"/>
-      <c r="J78" s="156"/>
-      <c r="K78" s="156"/>
+      <c r="B78" s="168"/>
+      <c r="C78" s="168"/>
+      <c r="D78" s="168"/>
+      <c r="E78" s="168"/>
+      <c r="F78" s="168"/>
+      <c r="G78" s="168"/>
+      <c r="H78" s="168"/>
+      <c r="I78" s="168"/>
+      <c r="J78" s="168"/>
+      <c r="K78" s="168"/>
     </row>
     <row r="79" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B79" s="37" t="s">
@@ -51107,7 +51107,7 @@
         <f>I79</f>
         <v>0.4377535495070991</v>
       </c>
-      <c r="K79" s="144">
+      <c r="K79" s="156">
         <v>6</v>
       </c>
     </row>
@@ -51143,7 +51143,7 @@
         <f>SUM(I79:I80)</f>
         <v>0.51617457994915994</v>
       </c>
-      <c r="K80" s="170"/>
+      <c r="K80" s="169"/>
     </row>
     <row r="81" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B81" s="37" t="s">
@@ -51177,7 +51177,7 @@
         <f>SUM(I79:I81)</f>
         <v>0.56095973277946565</v>
       </c>
-      <c r="K81" s="170"/>
+      <c r="K81" s="169"/>
     </row>
     <row r="82" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B82" s="37" t="s">
@@ -51211,7 +51211,7 @@
         <f>SUM(I79:I82)</f>
         <v>0.56862537355074716</v>
       </c>
-      <c r="K82" s="170"/>
+      <c r="K82" s="169"/>
     </row>
     <row r="83" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B83" s="37" t="s">
@@ -51245,7 +51245,7 @@
         <f>SUM(I79:I83)</f>
         <v>0.61531011284022574</v>
       </c>
-      <c r="K83" s="170"/>
+      <c r="K83" s="169"/>
     </row>
     <row r="84" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B84" s="37" t="s">
@@ -51279,65 +51279,65 @@
         <f>SUM(I79:I84)</f>
         <v>0.65633534813069638</v>
       </c>
-      <c r="K84" s="145"/>
+      <c r="K84" s="157"/>
     </row>
     <row r="87" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B87" s="154" t="s">
+      <c r="B87" s="166" t="s">
         <v>194</v>
       </c>
-      <c r="C87" s="154"/>
-      <c r="D87" s="154"/>
-      <c r="E87" s="154"/>
-      <c r="F87" s="154"/>
-      <c r="G87" s="154"/>
-      <c r="H87" s="154"/>
-      <c r="I87" s="154"/>
-      <c r="J87" s="154"/>
-      <c r="K87" s="154"/>
+      <c r="C87" s="166"/>
+      <c r="D87" s="166"/>
+      <c r="E87" s="166"/>
+      <c r="F87" s="166"/>
+      <c r="G87" s="166"/>
+      <c r="H87" s="166"/>
+      <c r="I87" s="166"/>
+      <c r="J87" s="166"/>
+      <c r="K87" s="166"/>
     </row>
     <row r="88" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B88" s="155" t="s">
+      <c r="B88" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C88" s="155" t="s">
+      <c r="C88" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D88" s="155" t="s">
+      <c r="D88" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E88" s="155" t="s">
+      <c r="E88" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F88" s="155" t="s">
+      <c r="F88" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G88" s="155" t="s">
+      <c r="G88" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H88" s="155" t="s">
+      <c r="H88" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I88" s="155" t="s">
+      <c r="I88" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J88" s="155" t="s">
+      <c r="J88" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K88" s="155" t="s">
+      <c r="K88" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="89" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B89" s="156"/>
-      <c r="C89" s="156"/>
-      <c r="D89" s="156"/>
-      <c r="E89" s="156"/>
-      <c r="F89" s="156"/>
-      <c r="G89" s="156"/>
-      <c r="H89" s="156"/>
-      <c r="I89" s="156"/>
-      <c r="J89" s="156"/>
-      <c r="K89" s="156"/>
+      <c r="B89" s="168"/>
+      <c r="C89" s="168"/>
+      <c r="D89" s="168"/>
+      <c r="E89" s="168"/>
+      <c r="F89" s="168"/>
+      <c r="G89" s="168"/>
+      <c r="H89" s="168"/>
+      <c r="I89" s="168"/>
+      <c r="J89" s="168"/>
+      <c r="K89" s="168"/>
     </row>
     <row r="90" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B90" s="37" t="s">
@@ -51371,7 +51371,7 @@
         <f>I90</f>
         <v>0.45222751565503133</v>
       </c>
-      <c r="K90" s="169">
+      <c r="K90" s="171">
         <v>4</v>
       </c>
     </row>
@@ -51407,7 +51407,7 @@
         <f>SUM(I90:I91)</f>
         <v>0.53149593403186812</v>
       </c>
-      <c r="K91" s="169"/>
+      <c r="K91" s="171"/>
     </row>
     <row r="92" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B92" s="37" t="s">
@@ -51441,7 +51441,7 @@
         <f>SUM(I90:I92)</f>
         <v>0.58363881207762425</v>
       </c>
-      <c r="K92" s="169"/>
+      <c r="K92" s="171"/>
     </row>
     <row r="93" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B93" s="37" t="s">
@@ -51475,7 +51475,7 @@
         <f>SUM(I90:I93)</f>
         <v>0.59414093868187745</v>
       </c>
-      <c r="K93" s="169"/>
+      <c r="K93" s="171"/>
     </row>
     <row r="94" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B94" s="37" t="s">
@@ -51509,65 +51509,65 @@
         <f>SUM(I90:I94)</f>
         <v>0.61057769731539469</v>
       </c>
-      <c r="K94" s="169"/>
+      <c r="K94" s="171"/>
     </row>
     <row r="97" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B97" s="154" t="s">
+      <c r="B97" s="166" t="s">
         <v>200</v>
       </c>
-      <c r="C97" s="154"/>
-      <c r="D97" s="154"/>
-      <c r="E97" s="154"/>
-      <c r="F97" s="154"/>
-      <c r="G97" s="154"/>
-      <c r="H97" s="154"/>
-      <c r="I97" s="154"/>
-      <c r="J97" s="154"/>
-      <c r="K97" s="154"/>
+      <c r="C97" s="166"/>
+      <c r="D97" s="166"/>
+      <c r="E97" s="166"/>
+      <c r="F97" s="166"/>
+      <c r="G97" s="166"/>
+      <c r="H97" s="166"/>
+      <c r="I97" s="166"/>
+      <c r="J97" s="166"/>
+      <c r="K97" s="166"/>
     </row>
     <row r="98" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B98" s="155" t="s">
+      <c r="B98" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C98" s="155" t="s">
+      <c r="C98" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D98" s="155" t="s">
+      <c r="D98" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E98" s="155" t="s">
+      <c r="E98" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F98" s="155" t="s">
+      <c r="F98" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G98" s="155" t="s">
+      <c r="G98" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H98" s="155" t="s">
+      <c r="H98" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I98" s="155" t="s">
+      <c r="I98" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J98" s="155" t="s">
+      <c r="J98" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K98" s="155" t="s">
+      <c r="K98" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="99" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B99" s="156"/>
-      <c r="C99" s="156"/>
-      <c r="D99" s="156"/>
-      <c r="E99" s="156"/>
-      <c r="F99" s="156"/>
-      <c r="G99" s="156"/>
-      <c r="H99" s="156"/>
-      <c r="I99" s="156"/>
-      <c r="J99" s="156"/>
-      <c r="K99" s="156"/>
+      <c r="B99" s="168"/>
+      <c r="C99" s="168"/>
+      <c r="D99" s="168"/>
+      <c r="E99" s="168"/>
+      <c r="F99" s="168"/>
+      <c r="G99" s="168"/>
+      <c r="H99" s="168"/>
+      <c r="I99" s="168"/>
+      <c r="J99" s="168"/>
+      <c r="K99" s="168"/>
     </row>
     <row r="100" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B100" s="37" t="s">
@@ -51601,7 +51601,7 @@
         <f>I100</f>
         <v>0.16521642259284522</v>
       </c>
-      <c r="K100" s="144">
+      <c r="K100" s="156">
         <v>4</v>
       </c>
     </row>
@@ -51637,7 +51637,7 @@
         <f>SUM(I100:I101)</f>
         <v>0.17638184140368285</v>
       </c>
-      <c r="K101" s="170"/>
+      <c r="K101" s="169"/>
     </row>
     <row r="102" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B102" s="37" t="s">
@@ -51671,7 +51671,7 @@
         <f>SUM(I100:I102)</f>
         <v>0.27389246202492412</v>
       </c>
-      <c r="K102" s="170"/>
+      <c r="K102" s="169"/>
     </row>
     <row r="103" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B103" s="37" t="s">
@@ -51705,65 +51705,65 @@
         <f>SUM(I100:I103)</f>
         <v>0.44891494326988668</v>
       </c>
-      <c r="K103" s="145"/>
+      <c r="K103" s="157"/>
     </row>
     <row r="106" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B106" s="154" t="s">
+      <c r="B106" s="166" t="s">
         <v>205</v>
       </c>
-      <c r="C106" s="154"/>
-      <c r="D106" s="154"/>
-      <c r="E106" s="154"/>
-      <c r="F106" s="154"/>
-      <c r="G106" s="154"/>
-      <c r="H106" s="154"/>
-      <c r="I106" s="154"/>
-      <c r="J106" s="154"/>
-      <c r="K106" s="154"/>
+      <c r="C106" s="166"/>
+      <c r="D106" s="166"/>
+      <c r="E106" s="166"/>
+      <c r="F106" s="166"/>
+      <c r="G106" s="166"/>
+      <c r="H106" s="166"/>
+      <c r="I106" s="166"/>
+      <c r="J106" s="166"/>
+      <c r="K106" s="166"/>
     </row>
     <row r="107" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B107" s="155" t="s">
+      <c r="B107" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C107" s="155" t="s">
+      <c r="C107" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D107" s="155" t="s">
+      <c r="D107" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E107" s="155" t="s">
+      <c r="E107" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F107" s="155" t="s">
+      <c r="F107" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G107" s="155" t="s">
+      <c r="G107" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H107" s="155" t="s">
+      <c r="H107" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I107" s="155" t="s">
+      <c r="I107" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J107" s="155" t="s">
+      <c r="J107" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K107" s="155" t="s">
+      <c r="K107" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B108" s="156"/>
-      <c r="C108" s="156"/>
-      <c r="D108" s="156"/>
-      <c r="E108" s="156"/>
-      <c r="F108" s="156"/>
-      <c r="G108" s="156"/>
-      <c r="H108" s="156"/>
-      <c r="I108" s="156"/>
-      <c r="J108" s="156"/>
-      <c r="K108" s="156"/>
+      <c r="B108" s="168"/>
+      <c r="C108" s="168"/>
+      <c r="D108" s="168"/>
+      <c r="E108" s="168"/>
+      <c r="F108" s="168"/>
+      <c r="G108" s="168"/>
+      <c r="H108" s="168"/>
+      <c r="I108" s="168"/>
+      <c r="J108" s="168"/>
+      <c r="K108" s="168"/>
     </row>
     <row r="109" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B109" s="37" t="s">
@@ -51797,7 +51797,7 @@
         <f>I109</f>
         <v>0.40700476408952818</v>
       </c>
-      <c r="K109" s="144">
+      <c r="K109" s="156">
         <v>4</v>
       </c>
     </row>
@@ -51833,7 +51833,7 @@
         <f>SUM(I109:I110)</f>
         <v>0.52671734143468285</v>
       </c>
-      <c r="K110" s="170"/>
+      <c r="K110" s="169"/>
     </row>
     <row r="111" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B111" s="37" t="s">
@@ -51867,985 +51867,1227 @@
         <f>SUM(I109:I111)</f>
         <v>0.66874186868373742</v>
       </c>
-      <c r="K111" s="145"/>
+      <c r="K111" s="157"/>
     </row>
     <row r="114" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B114" s="154" t="s">
+      <c r="B114" s="166" t="s">
         <v>212</v>
       </c>
-      <c r="C114" s="154"/>
-      <c r="D114" s="154"/>
-      <c r="E114" s="154"/>
-      <c r="F114" s="154"/>
-      <c r="G114" s="154"/>
-      <c r="H114" s="154"/>
-      <c r="I114" s="154"/>
-      <c r="J114" s="154"/>
-      <c r="K114" s="154"/>
+      <c r="C114" s="166"/>
+      <c r="D114" s="166"/>
+      <c r="E114" s="166"/>
+      <c r="F114" s="166"/>
+      <c r="G114" s="166"/>
+      <c r="H114" s="166"/>
+      <c r="I114" s="166"/>
+      <c r="J114" s="166"/>
+      <c r="K114" s="166"/>
     </row>
     <row r="115" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B115" s="155" t="s">
+      <c r="B115" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C115" s="155" t="s">
+      <c r="C115" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D115" s="155" t="s">
+      <c r="D115" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E115" s="155" t="s">
+      <c r="E115" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F115" s="155" t="s">
+      <c r="F115" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G115" s="155" t="s">
+      <c r="G115" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H115" s="155" t="s">
+      <c r="H115" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I115" s="155" t="s">
+      <c r="I115" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J115" s="155" t="s">
+      <c r="J115" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K115" s="155" t="s">
+      <c r="K115" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="116" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B116" s="156"/>
-      <c r="C116" s="156"/>
-      <c r="D116" s="156"/>
-      <c r="E116" s="156"/>
-      <c r="F116" s="156"/>
-      <c r="G116" s="156"/>
-      <c r="H116" s="156"/>
-      <c r="I116" s="156"/>
-      <c r="J116" s="156"/>
-      <c r="K116" s="156"/>
+      <c r="B116" s="168"/>
+      <c r="C116" s="168"/>
+      <c r="D116" s="168"/>
+      <c r="E116" s="168"/>
+      <c r="F116" s="168"/>
+      <c r="G116" s="168"/>
+      <c r="H116" s="168"/>
+      <c r="I116" s="168"/>
+      <c r="J116" s="168"/>
+      <c r="K116" s="168"/>
     </row>
     <row r="117" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B117" s="146" t="s">
+      <c r="B117" s="158" t="s">
         <v>213</v>
       </c>
-      <c r="C117" s="148">
+      <c r="C117" s="160">
         <v>5400</v>
       </c>
-      <c r="D117" s="150">
+      <c r="D117" s="162">
         <v>220</v>
       </c>
-      <c r="E117" s="152">
+      <c r="E117" s="164">
         <f>C117/D117</f>
         <v>24.545454545454547</v>
       </c>
-      <c r="F117" s="152">
+      <c r="F117" s="164">
         <v>3.5453999999999999</v>
       </c>
-      <c r="G117" s="152">
+      <c r="G117" s="164">
         <f>F117/1000</f>
         <v>3.5453999999999998E-3</v>
       </c>
-      <c r="H117" s="148">
+      <c r="H117" s="160">
         <v>3.63</v>
       </c>
-      <c r="I117" s="152">
+      <c r="I117" s="164">
         <f>H117*E117*G117*100/D117</f>
         <v>0.14358870000000001</v>
       </c>
-      <c r="J117" s="152">
+      <c r="J117" s="164">
         <f>I117</f>
         <v>0.14358870000000001</v>
       </c>
-      <c r="K117" s="144">
+      <c r="K117" s="156">
         <v>10</v>
       </c>
     </row>
     <row r="118" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B118" s="147"/>
-      <c r="C118" s="149"/>
-      <c r="D118" s="151"/>
-      <c r="E118" s="153"/>
-      <c r="F118" s="153"/>
-      <c r="G118" s="153"/>
-      <c r="H118" s="149"/>
-      <c r="I118" s="153"/>
-      <c r="J118" s="153"/>
-      <c r="K118" s="145"/>
+      <c r="B118" s="159"/>
+      <c r="C118" s="161"/>
+      <c r="D118" s="163"/>
+      <c r="E118" s="165"/>
+      <c r="F118" s="165"/>
+      <c r="G118" s="165"/>
+      <c r="H118" s="161"/>
+      <c r="I118" s="165"/>
+      <c r="J118" s="165"/>
+      <c r="K118" s="157"/>
     </row>
     <row r="121" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B121" s="154" t="s">
+      <c r="B121" s="166" t="s">
         <v>214</v>
       </c>
-      <c r="C121" s="154"/>
-      <c r="D121" s="154"/>
-      <c r="E121" s="154"/>
-      <c r="F121" s="154"/>
-      <c r="G121" s="154"/>
-      <c r="H121" s="154"/>
-      <c r="I121" s="154"/>
-      <c r="J121" s="154"/>
-      <c r="K121" s="154"/>
+      <c r="C121" s="166"/>
+      <c r="D121" s="166"/>
+      <c r="E121" s="166"/>
+      <c r="F121" s="166"/>
+      <c r="G121" s="166"/>
+      <c r="H121" s="166"/>
+      <c r="I121" s="166"/>
+      <c r="J121" s="166"/>
+      <c r="K121" s="166"/>
     </row>
     <row r="122" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B122" s="155" t="s">
+      <c r="B122" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C122" s="155" t="s">
+      <c r="C122" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D122" s="155" t="s">
+      <c r="D122" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E122" s="155" t="s">
+      <c r="E122" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F122" s="155" t="s">
+      <c r="F122" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G122" s="155" t="s">
+      <c r="G122" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H122" s="155" t="s">
+      <c r="H122" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I122" s="155" t="s">
+      <c r="I122" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J122" s="155" t="s">
+      <c r="J122" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K122" s="155" t="s">
+      <c r="K122" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="123" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B123" s="156"/>
-      <c r="C123" s="156"/>
-      <c r="D123" s="156"/>
-      <c r="E123" s="156"/>
-      <c r="F123" s="156"/>
-      <c r="G123" s="156"/>
-      <c r="H123" s="156"/>
-      <c r="I123" s="156"/>
-      <c r="J123" s="156"/>
-      <c r="K123" s="156"/>
+      <c r="B123" s="168"/>
+      <c r="C123" s="168"/>
+      <c r="D123" s="168"/>
+      <c r="E123" s="168"/>
+      <c r="F123" s="168"/>
+      <c r="G123" s="168"/>
+      <c r="H123" s="168"/>
+      <c r="I123" s="168"/>
+      <c r="J123" s="168"/>
+      <c r="K123" s="168"/>
     </row>
     <row r="124" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B124" s="146" t="s">
+      <c r="B124" s="158" t="s">
         <v>215</v>
       </c>
-      <c r="C124" s="148">
+      <c r="C124" s="160">
         <v>5400</v>
       </c>
-      <c r="D124" s="150">
+      <c r="D124" s="162">
         <v>220</v>
       </c>
-      <c r="E124" s="152">
+      <c r="E124" s="164">
         <f>C124/D124</f>
         <v>24.545454545454547</v>
       </c>
-      <c r="F124" s="152">
+      <c r="F124" s="164">
         <v>8.3941999999999997</v>
       </c>
-      <c r="G124" s="152">
+      <c r="G124" s="164">
         <f>F124/1000</f>
         <v>8.3941999999999992E-3</v>
       </c>
-      <c r="H124" s="148">
+      <c r="H124" s="160">
         <v>3.63</v>
       </c>
-      <c r="I124" s="152">
+      <c r="I124" s="164">
         <f>H124*E124*G124*100/D124</f>
         <v>0.33996510000000002</v>
       </c>
-      <c r="J124" s="152">
+      <c r="J124" s="164">
         <f>I124</f>
         <v>0.33996510000000002</v>
       </c>
-      <c r="K124" s="144">
+      <c r="K124" s="156">
         <v>10</v>
       </c>
     </row>
     <row r="125" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B125" s="147"/>
-      <c r="C125" s="149"/>
-      <c r="D125" s="151"/>
-      <c r="E125" s="153"/>
-      <c r="F125" s="153"/>
-      <c r="G125" s="153"/>
-      <c r="H125" s="149"/>
-      <c r="I125" s="153"/>
-      <c r="J125" s="153"/>
-      <c r="K125" s="145"/>
+      <c r="B125" s="159"/>
+      <c r="C125" s="161"/>
+      <c r="D125" s="163"/>
+      <c r="E125" s="165"/>
+      <c r="F125" s="165"/>
+      <c r="G125" s="165"/>
+      <c r="H125" s="161"/>
+      <c r="I125" s="165"/>
+      <c r="J125" s="165"/>
+      <c r="K125" s="157"/>
     </row>
     <row r="128" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B128" s="154" t="s">
+      <c r="B128" s="166" t="s">
         <v>216</v>
       </c>
-      <c r="C128" s="154"/>
-      <c r="D128" s="154"/>
-      <c r="E128" s="154"/>
-      <c r="F128" s="154"/>
-      <c r="G128" s="154"/>
-      <c r="H128" s="154"/>
-      <c r="I128" s="154"/>
-      <c r="J128" s="154"/>
-      <c r="K128" s="154"/>
+      <c r="C128" s="166"/>
+      <c r="D128" s="166"/>
+      <c r="E128" s="166"/>
+      <c r="F128" s="166"/>
+      <c r="G128" s="166"/>
+      <c r="H128" s="166"/>
+      <c r="I128" s="166"/>
+      <c r="J128" s="166"/>
+      <c r="K128" s="166"/>
     </row>
     <row r="129" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B129" s="155" t="s">
+      <c r="B129" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C129" s="155" t="s">
+      <c r="C129" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D129" s="155" t="s">
+      <c r="D129" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E129" s="155" t="s">
+      <c r="E129" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F129" s="155" t="s">
+      <c r="F129" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G129" s="155" t="s">
+      <c r="G129" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H129" s="155" t="s">
+      <c r="H129" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I129" s="155" t="s">
+      <c r="I129" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J129" s="155" t="s">
+      <c r="J129" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K129" s="155" t="s">
+      <c r="K129" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="130" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B130" s="156"/>
-      <c r="C130" s="156"/>
-      <c r="D130" s="156"/>
-      <c r="E130" s="156"/>
-      <c r="F130" s="156"/>
-      <c r="G130" s="156"/>
-      <c r="H130" s="156"/>
-      <c r="I130" s="156"/>
-      <c r="J130" s="156"/>
-      <c r="K130" s="156"/>
+      <c r="B130" s="168"/>
+      <c r="C130" s="168"/>
+      <c r="D130" s="168"/>
+      <c r="E130" s="168"/>
+      <c r="F130" s="168"/>
+      <c r="G130" s="168"/>
+      <c r="H130" s="168"/>
+      <c r="I130" s="168"/>
+      <c r="J130" s="168"/>
+      <c r="K130" s="168"/>
     </row>
     <row r="131" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B131" s="146" t="s">
+      <c r="B131" s="158" t="s">
         <v>217</v>
       </c>
-      <c r="C131" s="148">
+      <c r="C131" s="160">
         <v>2625</v>
       </c>
-      <c r="D131" s="150">
+      <c r="D131" s="162">
         <v>220</v>
       </c>
-      <c r="E131" s="152">
+      <c r="E131" s="164">
         <f>C131/D131</f>
         <v>11.931818181818182</v>
       </c>
-      <c r="F131" s="152">
+      <c r="F131" s="164">
         <v>12.476699999999999</v>
       </c>
-      <c r="G131" s="152">
+      <c r="G131" s="164">
         <f>F131/1000</f>
         <v>1.2476699999999999E-2</v>
       </c>
-      <c r="H131" s="148">
+      <c r="H131" s="160">
         <v>14.3</v>
       </c>
-      <c r="I131" s="152">
+      <c r="I131" s="164">
         <f>H131*E131*G131*100/D131</f>
         <v>0.96765315340909075</v>
       </c>
-      <c r="J131" s="152">
+      <c r="J131" s="164">
         <f>I131</f>
         <v>0.96765315340909075</v>
       </c>
-      <c r="K131" s="144">
+      <c r="K131" s="156">
         <v>2.5</v>
       </c>
     </row>
     <row r="132" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B132" s="147"/>
-      <c r="C132" s="149"/>
-      <c r="D132" s="151"/>
-      <c r="E132" s="153"/>
-      <c r="F132" s="153"/>
-      <c r="G132" s="153"/>
-      <c r="H132" s="149"/>
-      <c r="I132" s="153"/>
-      <c r="J132" s="153"/>
-      <c r="K132" s="145"/>
+      <c r="B132" s="159"/>
+      <c r="C132" s="161"/>
+      <c r="D132" s="163"/>
+      <c r="E132" s="165"/>
+      <c r="F132" s="165"/>
+      <c r="G132" s="165"/>
+      <c r="H132" s="161"/>
+      <c r="I132" s="165"/>
+      <c r="J132" s="165"/>
+      <c r="K132" s="157"/>
     </row>
     <row r="135" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B135" s="154" t="s">
+      <c r="B135" s="166" t="s">
         <v>218</v>
       </c>
-      <c r="C135" s="154"/>
-      <c r="D135" s="154"/>
-      <c r="E135" s="154"/>
-      <c r="F135" s="154"/>
-      <c r="G135" s="154"/>
-      <c r="H135" s="154"/>
-      <c r="I135" s="154"/>
-      <c r="J135" s="154"/>
-      <c r="K135" s="154"/>
+      <c r="C135" s="166"/>
+      <c r="D135" s="166"/>
+      <c r="E135" s="166"/>
+      <c r="F135" s="166"/>
+      <c r="G135" s="166"/>
+      <c r="H135" s="166"/>
+      <c r="I135" s="166"/>
+      <c r="J135" s="166"/>
+      <c r="K135" s="166"/>
     </row>
     <row r="136" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B136" s="155" t="s">
+      <c r="B136" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C136" s="155" t="s">
+      <c r="C136" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D136" s="155" t="s">
+      <c r="D136" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E136" s="155" t="s">
+      <c r="E136" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F136" s="155" t="s">
+      <c r="F136" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G136" s="155" t="s">
+      <c r="G136" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H136" s="155" t="s">
+      <c r="H136" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I136" s="155" t="s">
+      <c r="I136" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J136" s="155" t="s">
+      <c r="J136" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K136" s="155" t="s">
+      <c r="K136" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="137" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B137" s="156"/>
-      <c r="C137" s="156"/>
-      <c r="D137" s="156"/>
-      <c r="E137" s="156"/>
-      <c r="F137" s="156"/>
-      <c r="G137" s="156"/>
-      <c r="H137" s="156"/>
-      <c r="I137" s="156"/>
-      <c r="J137" s="156"/>
-      <c r="K137" s="156"/>
+      <c r="B137" s="168"/>
+      <c r="C137" s="168"/>
+      <c r="D137" s="168"/>
+      <c r="E137" s="168"/>
+      <c r="F137" s="168"/>
+      <c r="G137" s="168"/>
+      <c r="H137" s="168"/>
+      <c r="I137" s="168"/>
+      <c r="J137" s="168"/>
+      <c r="K137" s="168"/>
     </row>
     <row r="138" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B138" s="146" t="s">
+      <c r="B138" s="158" t="s">
         <v>221</v>
       </c>
-      <c r="C138" s="148">
+      <c r="C138" s="160">
         <v>1650</v>
       </c>
-      <c r="D138" s="150">
+      <c r="D138" s="162">
         <v>220</v>
       </c>
-      <c r="E138" s="152">
+      <c r="E138" s="164">
         <f>C138/D138</f>
         <v>7.5</v>
       </c>
-      <c r="F138" s="152">
+      <c r="F138" s="164">
         <v>8.0559999999999992</v>
       </c>
-      <c r="G138" s="152">
+      <c r="G138" s="164">
         <f>F138/1000</f>
         <v>8.0559999999999989E-3</v>
       </c>
-      <c r="H138" s="148">
+      <c r="H138" s="160">
         <v>23.3</v>
       </c>
-      <c r="I138" s="152">
+      <c r="I138" s="164">
         <f>H138*E138*G138*100/D138</f>
         <v>0.63990272727272723</v>
       </c>
-      <c r="J138" s="152">
+      <c r="J138" s="164">
         <f>I138</f>
         <v>0.63990272727272723</v>
       </c>
-      <c r="K138" s="144">
+      <c r="K138" s="156">
         <v>1.5</v>
       </c>
     </row>
     <row r="139" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B139" s="147"/>
-      <c r="C139" s="149"/>
-      <c r="D139" s="151"/>
-      <c r="E139" s="153"/>
-      <c r="F139" s="153"/>
-      <c r="G139" s="153"/>
-      <c r="H139" s="149"/>
-      <c r="I139" s="153"/>
-      <c r="J139" s="153"/>
-      <c r="K139" s="145"/>
+      <c r="B139" s="159"/>
+      <c r="C139" s="161"/>
+      <c r="D139" s="163"/>
+      <c r="E139" s="165"/>
+      <c r="F139" s="165"/>
+      <c r="G139" s="165"/>
+      <c r="H139" s="161"/>
+      <c r="I139" s="165"/>
+      <c r="J139" s="165"/>
+      <c r="K139" s="157"/>
     </row>
     <row r="142" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B142" s="154" t="s">
+      <c r="B142" s="166" t="s">
         <v>219</v>
       </c>
-      <c r="C142" s="154"/>
-      <c r="D142" s="154"/>
-      <c r="E142" s="154"/>
-      <c r="F142" s="154"/>
-      <c r="G142" s="154"/>
-      <c r="H142" s="154"/>
-      <c r="I142" s="154"/>
-      <c r="J142" s="154"/>
-      <c r="K142" s="154"/>
+      <c r="C142" s="166"/>
+      <c r="D142" s="166"/>
+      <c r="E142" s="166"/>
+      <c r="F142" s="166"/>
+      <c r="G142" s="166"/>
+      <c r="H142" s="166"/>
+      <c r="I142" s="166"/>
+      <c r="J142" s="166"/>
+      <c r="K142" s="166"/>
     </row>
     <row r="143" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B143" s="155" t="s">
+      <c r="B143" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C143" s="155" t="s">
+      <c r="C143" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D143" s="155" t="s">
+      <c r="D143" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E143" s="155" t="s">
+      <c r="E143" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F143" s="155" t="s">
+      <c r="F143" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G143" s="155" t="s">
+      <c r="G143" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H143" s="155" t="s">
+      <c r="H143" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I143" s="155" t="s">
+      <c r="I143" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J143" s="155" t="s">
+      <c r="J143" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K143" s="155" t="s">
+      <c r="K143" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="144" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B144" s="156"/>
-      <c r="C144" s="156"/>
-      <c r="D144" s="156"/>
-      <c r="E144" s="156"/>
-      <c r="F144" s="156"/>
-      <c r="G144" s="156"/>
-      <c r="H144" s="156"/>
-      <c r="I144" s="156"/>
-      <c r="J144" s="156"/>
-      <c r="K144" s="156"/>
+      <c r="B144" s="168"/>
+      <c r="C144" s="168"/>
+      <c r="D144" s="168"/>
+      <c r="E144" s="168"/>
+      <c r="F144" s="168"/>
+      <c r="G144" s="168"/>
+      <c r="H144" s="168"/>
+      <c r="I144" s="168"/>
+      <c r="J144" s="168"/>
+      <c r="K144" s="168"/>
     </row>
     <row r="145" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B145" s="146" t="s">
+      <c r="B145" s="158" t="s">
         <v>220</v>
       </c>
-      <c r="C145" s="148">
+      <c r="C145" s="160">
         <v>1650</v>
       </c>
-      <c r="D145" s="150">
+      <c r="D145" s="162">
         <v>220</v>
       </c>
-      <c r="E145" s="152">
+      <c r="E145" s="164">
         <f>C145/D145</f>
         <v>7.5</v>
       </c>
-      <c r="F145" s="152">
+      <c r="F145" s="164">
         <v>5.7344999999999997</v>
       </c>
-      <c r="G145" s="152">
+      <c r="G145" s="164">
         <f>F145/1000</f>
         <v>5.7345E-3</v>
       </c>
-      <c r="H145" s="148">
+      <c r="H145" s="160">
         <v>23.3</v>
       </c>
-      <c r="I145" s="152">
+      <c r="I145" s="164">
         <f>H145*E145*G145*100/D145</f>
         <v>0.45550176136363635</v>
       </c>
-      <c r="J145" s="152">
+      <c r="J145" s="164">
         <f>I145</f>
         <v>0.45550176136363635</v>
       </c>
-      <c r="K145" s="144">
+      <c r="K145" s="156">
         <v>1.5</v>
       </c>
     </row>
     <row r="146" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B146" s="147"/>
-      <c r="C146" s="149"/>
-      <c r="D146" s="151"/>
-      <c r="E146" s="153"/>
-      <c r="F146" s="153"/>
-      <c r="G146" s="153"/>
-      <c r="H146" s="149"/>
-      <c r="I146" s="153"/>
-      <c r="J146" s="153"/>
-      <c r="K146" s="145"/>
+      <c r="B146" s="159"/>
+      <c r="C146" s="161"/>
+      <c r="D146" s="163"/>
+      <c r="E146" s="165"/>
+      <c r="F146" s="165"/>
+      <c r="G146" s="165"/>
+      <c r="H146" s="161"/>
+      <c r="I146" s="165"/>
+      <c r="J146" s="165"/>
+      <c r="K146" s="157"/>
     </row>
     <row r="149" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B149" s="154" t="s">
+      <c r="B149" s="166" t="s">
         <v>222</v>
       </c>
-      <c r="C149" s="154"/>
-      <c r="D149" s="154"/>
-      <c r="E149" s="154"/>
-      <c r="F149" s="154"/>
-      <c r="G149" s="154"/>
-      <c r="H149" s="154"/>
-      <c r="I149" s="154"/>
-      <c r="J149" s="154"/>
-      <c r="K149" s="154"/>
+      <c r="C149" s="166"/>
+      <c r="D149" s="166"/>
+      <c r="E149" s="166"/>
+      <c r="F149" s="166"/>
+      <c r="G149" s="166"/>
+      <c r="H149" s="166"/>
+      <c r="I149" s="166"/>
+      <c r="J149" s="166"/>
+      <c r="K149" s="166"/>
     </row>
     <row r="150" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B150" s="155" t="s">
+      <c r="B150" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C150" s="155" t="s">
+      <c r="C150" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D150" s="155" t="s">
+      <c r="D150" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E150" s="155" t="s">
+      <c r="E150" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F150" s="155" t="s">
+      <c r="F150" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G150" s="155" t="s">
+      <c r="G150" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H150" s="155" t="s">
+      <c r="H150" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I150" s="155" t="s">
+      <c r="I150" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J150" s="155" t="s">
+      <c r="J150" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K150" s="155" t="s">
+      <c r="K150" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="151" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B151" s="156"/>
-      <c r="C151" s="156"/>
-      <c r="D151" s="156"/>
-      <c r="E151" s="156"/>
-      <c r="F151" s="156"/>
-      <c r="G151" s="156"/>
-      <c r="H151" s="156"/>
-      <c r="I151" s="156"/>
-      <c r="J151" s="156"/>
-      <c r="K151" s="156"/>
+      <c r="B151" s="168"/>
+      <c r="C151" s="168"/>
+      <c r="D151" s="168"/>
+      <c r="E151" s="168"/>
+      <c r="F151" s="168"/>
+      <c r="G151" s="168"/>
+      <c r="H151" s="168"/>
+      <c r="I151" s="168"/>
+      <c r="J151" s="168"/>
+      <c r="K151" s="168"/>
     </row>
     <row r="152" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B152" s="146" t="s">
+      <c r="B152" s="158" t="s">
         <v>223</v>
       </c>
-      <c r="C152" s="148">
+      <c r="C152" s="160">
         <v>400</v>
       </c>
-      <c r="D152" s="150">
+      <c r="D152" s="162">
         <v>127</v>
       </c>
-      <c r="E152" s="152">
+      <c r="E152" s="164">
         <f>C152/D152</f>
         <v>3.1496062992125986</v>
       </c>
-      <c r="F152" s="152">
+      <c r="F152" s="164">
         <v>25.872699999999998</v>
       </c>
-      <c r="G152" s="152">
+      <c r="G152" s="164">
         <f>F152/1000</f>
         <v>2.5872699999999998E-2</v>
       </c>
-      <c r="H152" s="148">
+      <c r="H152" s="160">
         <v>23.3</v>
       </c>
-      <c r="I152" s="152">
+      <c r="I152" s="164">
         <f>H152*E152*G152*100/D152</f>
         <v>1.4950310868621739</v>
       </c>
-      <c r="J152" s="152">
+      <c r="J152" s="164">
         <f>I152</f>
         <v>1.4950310868621739</v>
       </c>
-      <c r="K152" s="144">
+      <c r="K152" s="156">
         <v>1.5</v>
       </c>
     </row>
     <row r="153" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B153" s="147"/>
-      <c r="C153" s="149"/>
-      <c r="D153" s="151"/>
-      <c r="E153" s="153"/>
-      <c r="F153" s="153"/>
-      <c r="G153" s="153"/>
-      <c r="H153" s="149"/>
-      <c r="I153" s="153"/>
-      <c r="J153" s="153"/>
-      <c r="K153" s="145"/>
+      <c r="B153" s="159"/>
+      <c r="C153" s="161"/>
+      <c r="D153" s="163"/>
+      <c r="E153" s="165"/>
+      <c r="F153" s="165"/>
+      <c r="G153" s="165"/>
+      <c r="H153" s="161"/>
+      <c r="I153" s="165"/>
+      <c r="J153" s="165"/>
+      <c r="K153" s="157"/>
     </row>
     <row r="156" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B156" s="154" t="s">
+      <c r="B156" s="166" t="s">
         <v>224</v>
       </c>
-      <c r="C156" s="154"/>
-      <c r="D156" s="154"/>
-      <c r="E156" s="154"/>
-      <c r="F156" s="154"/>
-      <c r="G156" s="154"/>
-      <c r="H156" s="154"/>
-      <c r="I156" s="154"/>
-      <c r="J156" s="154"/>
-      <c r="K156" s="154"/>
+      <c r="C156" s="166"/>
+      <c r="D156" s="166"/>
+      <c r="E156" s="166"/>
+      <c r="F156" s="166"/>
+      <c r="G156" s="166"/>
+      <c r="H156" s="166"/>
+      <c r="I156" s="166"/>
+      <c r="J156" s="166"/>
+      <c r="K156" s="166"/>
     </row>
     <row r="157" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B157" s="155" t="s">
+      <c r="B157" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C157" s="155" t="s">
+      <c r="C157" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D157" s="155" t="s">
+      <c r="D157" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E157" s="155" t="s">
+      <c r="E157" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F157" s="155" t="s">
+      <c r="F157" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G157" s="155" t="s">
+      <c r="G157" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H157" s="155" t="s">
+      <c r="H157" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I157" s="155" t="s">
+      <c r="I157" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J157" s="155" t="s">
+      <c r="J157" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K157" s="155" t="s">
+      <c r="K157" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="158" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B158" s="156"/>
-      <c r="C158" s="156"/>
-      <c r="D158" s="156"/>
-      <c r="E158" s="156"/>
-      <c r="F158" s="156"/>
-      <c r="G158" s="156"/>
-      <c r="H158" s="156"/>
-      <c r="I158" s="156"/>
-      <c r="J158" s="156"/>
-      <c r="K158" s="156"/>
+      <c r="B158" s="168"/>
+      <c r="C158" s="168"/>
+      <c r="D158" s="168"/>
+      <c r="E158" s="168"/>
+      <c r="F158" s="168"/>
+      <c r="G158" s="168"/>
+      <c r="H158" s="168"/>
+      <c r="I158" s="168"/>
+      <c r="J158" s="168"/>
+      <c r="K158" s="168"/>
     </row>
     <row r="159" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B159" s="146" t="s">
+      <c r="B159" s="158" t="s">
         <v>225</v>
       </c>
-      <c r="C159" s="148">
+      <c r="C159" s="160">
         <v>1760</v>
       </c>
-      <c r="D159" s="150">
+      <c r="D159" s="162">
         <v>220</v>
       </c>
-      <c r="E159" s="152">
+      <c r="E159" s="164">
         <f>C159/D159</f>
         <v>8</v>
       </c>
-      <c r="F159" s="152">
+      <c r="F159" s="164">
         <v>11.7094</v>
       </c>
-      <c r="G159" s="152">
+      <c r="G159" s="164">
         <f>F159/1000</f>
         <v>1.17094E-2</v>
       </c>
-      <c r="H159" s="148">
+      <c r="H159" s="160">
         <v>23.3</v>
       </c>
-      <c r="I159" s="152">
+      <c r="I159" s="164">
         <f>H159*E159*G159*100/D159</f>
         <v>0.99210552727272738</v>
       </c>
-      <c r="J159" s="152">
+      <c r="J159" s="164">
         <f>I159</f>
         <v>0.99210552727272738</v>
       </c>
-      <c r="K159" s="144">
+      <c r="K159" s="156">
         <v>1.5</v>
       </c>
     </row>
     <row r="160" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B160" s="147"/>
-      <c r="C160" s="149"/>
-      <c r="D160" s="151"/>
-      <c r="E160" s="153"/>
-      <c r="F160" s="153"/>
-      <c r="G160" s="153"/>
-      <c r="H160" s="149"/>
-      <c r="I160" s="153"/>
-      <c r="J160" s="153"/>
-      <c r="K160" s="145"/>
+      <c r="B160" s="159"/>
+      <c r="C160" s="161"/>
+      <c r="D160" s="163"/>
+      <c r="E160" s="165"/>
+      <c r="F160" s="165"/>
+      <c r="G160" s="165"/>
+      <c r="H160" s="161"/>
+      <c r="I160" s="165"/>
+      <c r="J160" s="165"/>
+      <c r="K160" s="157"/>
     </row>
     <row r="163" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B163" s="154" t="s">
+      <c r="B163" s="166" t="s">
         <v>226</v>
       </c>
-      <c r="C163" s="154"/>
-      <c r="D163" s="154"/>
-      <c r="E163" s="154"/>
-      <c r="F163" s="154"/>
-      <c r="G163" s="154"/>
-      <c r="H163" s="154"/>
-      <c r="I163" s="154"/>
-      <c r="J163" s="154"/>
-      <c r="K163" s="154"/>
+      <c r="C163" s="166"/>
+      <c r="D163" s="166"/>
+      <c r="E163" s="166"/>
+      <c r="F163" s="166"/>
+      <c r="G163" s="166"/>
+      <c r="H163" s="166"/>
+      <c r="I163" s="166"/>
+      <c r="J163" s="166"/>
+      <c r="K163" s="166"/>
     </row>
     <row r="164" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B164" s="155" t="s">
+      <c r="B164" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C164" s="155" t="s">
+      <c r="C164" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D164" s="155" t="s">
+      <c r="D164" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E164" s="155" t="s">
+      <c r="E164" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F164" s="155" t="s">
+      <c r="F164" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G164" s="155" t="s">
+      <c r="G164" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H164" s="155" t="s">
+      <c r="H164" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I164" s="155" t="s">
+      <c r="I164" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J164" s="155" t="s">
+      <c r="J164" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K164" s="155" t="s">
+      <c r="K164" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="165" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B165" s="156"/>
-      <c r="C165" s="156"/>
-      <c r="D165" s="156"/>
-      <c r="E165" s="156"/>
-      <c r="F165" s="156"/>
-      <c r="G165" s="156"/>
-      <c r="H165" s="156"/>
-      <c r="I165" s="156"/>
-      <c r="J165" s="156"/>
-      <c r="K165" s="156"/>
+      <c r="B165" s="168"/>
+      <c r="C165" s="168"/>
+      <c r="D165" s="168"/>
+      <c r="E165" s="168"/>
+      <c r="F165" s="168"/>
+      <c r="G165" s="168"/>
+      <c r="H165" s="168"/>
+      <c r="I165" s="168"/>
+      <c r="J165" s="168"/>
+      <c r="K165" s="168"/>
     </row>
     <row r="166" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B166" s="146" t="s">
+      <c r="B166" s="158" t="s">
         <v>227</v>
       </c>
-      <c r="C166" s="148">
+      <c r="C166" s="160">
         <v>300</v>
       </c>
-      <c r="D166" s="150">
+      <c r="D166" s="162">
         <v>220</v>
       </c>
-      <c r="E166" s="152">
+      <c r="E166" s="164">
         <f>C166/D166</f>
         <v>1.3636363636363635</v>
       </c>
-      <c r="F166" s="152">
+      <c r="F166" s="164">
         <v>13.804600000000001</v>
       </c>
-      <c r="G166" s="152">
+      <c r="G166" s="164">
         <f>F166/1000</f>
         <v>1.38046E-2</v>
       </c>
-      <c r="H166" s="148">
+      <c r="H166" s="160">
         <v>23.3</v>
       </c>
-      <c r="I166" s="152">
+      <c r="I166" s="164">
         <f>H166*E166*G166*100/D166</f>
         <v>0.19936808677685947</v>
       </c>
-      <c r="J166" s="152">
+      <c r="J166" s="164">
         <f>I166</f>
         <v>0.19936808677685947</v>
       </c>
-      <c r="K166" s="144">
+      <c r="K166" s="156">
         <v>1.5</v>
       </c>
     </row>
     <row r="167" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B167" s="147"/>
-      <c r="C167" s="149"/>
-      <c r="D167" s="151"/>
-      <c r="E167" s="153"/>
-      <c r="F167" s="153"/>
-      <c r="G167" s="153"/>
-      <c r="H167" s="149"/>
-      <c r="I167" s="153"/>
-      <c r="J167" s="153"/>
-      <c r="K167" s="145"/>
+      <c r="B167" s="159"/>
+      <c r="C167" s="161"/>
+      <c r="D167" s="163"/>
+      <c r="E167" s="165"/>
+      <c r="F167" s="165"/>
+      <c r="G167" s="165"/>
+      <c r="H167" s="161"/>
+      <c r="I167" s="165"/>
+      <c r="J167" s="165"/>
+      <c r="K167" s="157"/>
     </row>
     <row r="170" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B170" s="154" t="s">
+      <c r="B170" s="166" t="s">
         <v>297</v>
       </c>
-      <c r="C170" s="154"/>
-      <c r="D170" s="154"/>
-      <c r="E170" s="154"/>
-      <c r="F170" s="154"/>
-      <c r="G170" s="154"/>
-      <c r="H170" s="154"/>
-      <c r="I170" s="154"/>
-      <c r="J170" s="154"/>
-      <c r="K170" s="154"/>
+      <c r="C170" s="166"/>
+      <c r="D170" s="166"/>
+      <c r="E170" s="166"/>
+      <c r="F170" s="166"/>
+      <c r="G170" s="166"/>
+      <c r="H170" s="166"/>
+      <c r="I170" s="166"/>
+      <c r="J170" s="166"/>
+      <c r="K170" s="166"/>
     </row>
     <row r="171" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B171" s="155" t="s">
+      <c r="B171" s="167" t="s">
         <v>129</v>
       </c>
-      <c r="C171" s="155" t="s">
+      <c r="C171" s="167" t="s">
         <v>130</v>
       </c>
-      <c r="D171" s="155" t="s">
+      <c r="D171" s="167" t="s">
         <v>154</v>
       </c>
-      <c r="E171" s="155" t="s">
+      <c r="E171" s="167" t="s">
         <v>131</v>
       </c>
-      <c r="F171" s="155" t="s">
+      <c r="F171" s="167" t="s">
         <v>132</v>
       </c>
-      <c r="G171" s="155" t="s">
+      <c r="G171" s="167" t="s">
         <v>133</v>
       </c>
-      <c r="H171" s="155" t="s">
+      <c r="H171" s="167" t="s">
         <v>177</v>
       </c>
-      <c r="I171" s="155" t="s">
+      <c r="I171" s="167" t="s">
         <v>134</v>
       </c>
-      <c r="J171" s="155" t="s">
+      <c r="J171" s="167" t="s">
         <v>135</v>
       </c>
-      <c r="K171" s="155" t="s">
+      <c r="K171" s="167" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="172" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B172" s="156"/>
-      <c r="C172" s="156"/>
-      <c r="D172" s="156"/>
-      <c r="E172" s="156"/>
-      <c r="F172" s="156"/>
-      <c r="G172" s="156"/>
-      <c r="H172" s="156"/>
-      <c r="I172" s="156"/>
-      <c r="J172" s="156"/>
-      <c r="K172" s="156"/>
+      <c r="B172" s="168"/>
+      <c r="C172" s="168"/>
+      <c r="D172" s="168"/>
+      <c r="E172" s="168"/>
+      <c r="F172" s="168"/>
+      <c r="G172" s="168"/>
+      <c r="H172" s="168"/>
+      <c r="I172" s="168"/>
+      <c r="J172" s="168"/>
+      <c r="K172" s="168"/>
     </row>
     <row r="173" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B173" s="146" t="s">
+      <c r="B173" s="158" t="s">
         <v>298</v>
       </c>
-      <c r="C173" s="148">
+      <c r="C173" s="160">
         <v>38685</v>
       </c>
-      <c r="D173" s="150">
+      <c r="D173" s="162">
         <v>380</v>
       </c>
-      <c r="E173" s="152">
+      <c r="E173" s="164">
         <f>C173/D173</f>
         <v>101.80263157894737</v>
       </c>
-      <c r="F173" s="152">
-        <v>9.2635000000000005</v>
-      </c>
-      <c r="G173" s="152">
+      <c r="F173" s="164">
+        <v>7.4527000000000001</v>
+      </c>
+      <c r="G173" s="164">
         <f>F173/1000</f>
-        <v>9.2635000000000009E-3</v>
-      </c>
-      <c r="H173" s="148">
+        <v>7.4527000000000005E-3</v>
+      </c>
+      <c r="H173" s="160">
         <v>1.1200000000000001</v>
       </c>
-      <c r="I173" s="152">
+      <c r="I173" s="164">
         <f>H173*E173*G173*100/D173</f>
-        <v>0.27795118919667594</v>
-      </c>
-      <c r="J173" s="152">
+        <v>0.22361816027700834</v>
+      </c>
+      <c r="J173" s="164">
         <f>I173</f>
-        <v>0.27795118919667594</v>
-      </c>
-      <c r="K173" s="144">
+        <v>0.22361816027700834</v>
+      </c>
+      <c r="K173" s="156">
         <v>35</v>
       </c>
     </row>
     <row r="174" spans="2:11" ht="20.100000000000001" customHeight="1">
-      <c r="B174" s="147"/>
-      <c r="C174" s="149"/>
-      <c r="D174" s="151"/>
-      <c r="E174" s="153"/>
-      <c r="F174" s="153"/>
-      <c r="G174" s="153"/>
-      <c r="H174" s="149"/>
-      <c r="I174" s="153"/>
-      <c r="J174" s="153"/>
-      <c r="K174" s="145"/>
+      <c r="B174" s="159"/>
+      <c r="C174" s="161"/>
+      <c r="D174" s="163"/>
+      <c r="E174" s="165"/>
+      <c r="F174" s="165"/>
+      <c r="G174" s="165"/>
+      <c r="H174" s="161"/>
+      <c r="I174" s="165"/>
+      <c r="J174" s="165"/>
+      <c r="K174" s="157"/>
     </row>
   </sheetData>
   <mergeCells count="308">
-    <mergeCell ref="K173:K174"/>
-    <mergeCell ref="B173:B174"/>
-    <mergeCell ref="C173:C174"/>
-    <mergeCell ref="D173:D174"/>
-    <mergeCell ref="E173:E174"/>
-    <mergeCell ref="F173:F174"/>
-    <mergeCell ref="G173:G174"/>
-    <mergeCell ref="H173:H174"/>
-    <mergeCell ref="I173:I174"/>
-    <mergeCell ref="J173:J174"/>
-    <mergeCell ref="B170:K170"/>
-    <mergeCell ref="B171:B172"/>
-    <mergeCell ref="C171:C172"/>
-    <mergeCell ref="D171:D172"/>
-    <mergeCell ref="E171:E172"/>
-    <mergeCell ref="F171:F172"/>
-    <mergeCell ref="G171:G172"/>
-    <mergeCell ref="H171:H172"/>
-    <mergeCell ref="I171:I172"/>
-    <mergeCell ref="J171:J172"/>
-    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="K166:K167"/>
+    <mergeCell ref="B166:B167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="D166:D167"/>
+    <mergeCell ref="E166:E167"/>
+    <mergeCell ref="F166:F167"/>
+    <mergeCell ref="G166:G167"/>
+    <mergeCell ref="H166:H167"/>
+    <mergeCell ref="I166:I167"/>
+    <mergeCell ref="J166:J167"/>
+    <mergeCell ref="K159:K160"/>
+    <mergeCell ref="B163:K163"/>
+    <mergeCell ref="B164:B165"/>
+    <mergeCell ref="C164:C165"/>
+    <mergeCell ref="D164:D165"/>
+    <mergeCell ref="E164:E165"/>
+    <mergeCell ref="F164:F165"/>
+    <mergeCell ref="G164:G165"/>
+    <mergeCell ref="H164:H165"/>
+    <mergeCell ref="I164:I165"/>
+    <mergeCell ref="J164:J165"/>
+    <mergeCell ref="K164:K165"/>
+    <mergeCell ref="B159:B160"/>
+    <mergeCell ref="C159:C160"/>
+    <mergeCell ref="D159:D160"/>
+    <mergeCell ref="E159:E160"/>
+    <mergeCell ref="F159:F160"/>
+    <mergeCell ref="G159:G160"/>
+    <mergeCell ref="H159:H160"/>
+    <mergeCell ref="I159:I160"/>
+    <mergeCell ref="J159:J160"/>
+    <mergeCell ref="K152:K153"/>
+    <mergeCell ref="B156:K156"/>
+    <mergeCell ref="B157:B158"/>
+    <mergeCell ref="C157:C158"/>
+    <mergeCell ref="D157:D158"/>
+    <mergeCell ref="E157:E158"/>
+    <mergeCell ref="F157:F158"/>
+    <mergeCell ref="G157:G158"/>
+    <mergeCell ref="H157:H158"/>
+    <mergeCell ref="I157:I158"/>
+    <mergeCell ref="J157:J158"/>
+    <mergeCell ref="K157:K158"/>
+    <mergeCell ref="B152:B153"/>
+    <mergeCell ref="C152:C153"/>
+    <mergeCell ref="D152:D153"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="F152:F153"/>
+    <mergeCell ref="G152:G153"/>
+    <mergeCell ref="H152:H153"/>
+    <mergeCell ref="I152:I153"/>
+    <mergeCell ref="J152:J153"/>
+    <mergeCell ref="K145:K146"/>
+    <mergeCell ref="B149:K149"/>
+    <mergeCell ref="B150:B151"/>
+    <mergeCell ref="C150:C151"/>
+    <mergeCell ref="D150:D151"/>
+    <mergeCell ref="E150:E151"/>
+    <mergeCell ref="F150:F151"/>
+    <mergeCell ref="G150:G151"/>
+    <mergeCell ref="H150:H151"/>
+    <mergeCell ref="I150:I151"/>
+    <mergeCell ref="J150:J151"/>
+    <mergeCell ref="K150:K151"/>
+    <mergeCell ref="B145:B146"/>
+    <mergeCell ref="C145:C146"/>
+    <mergeCell ref="D145:D146"/>
+    <mergeCell ref="E145:E146"/>
+    <mergeCell ref="F145:F146"/>
+    <mergeCell ref="G145:G146"/>
+    <mergeCell ref="H145:H146"/>
+    <mergeCell ref="I145:I146"/>
+    <mergeCell ref="J145:J146"/>
+    <mergeCell ref="K138:K139"/>
+    <mergeCell ref="B142:K142"/>
+    <mergeCell ref="B143:B144"/>
+    <mergeCell ref="C143:C144"/>
+    <mergeCell ref="D143:D144"/>
+    <mergeCell ref="E143:E144"/>
+    <mergeCell ref="F143:F144"/>
+    <mergeCell ref="G143:G144"/>
+    <mergeCell ref="H143:H144"/>
+    <mergeCell ref="I143:I144"/>
+    <mergeCell ref="J143:J144"/>
+    <mergeCell ref="K143:K144"/>
+    <mergeCell ref="B138:B139"/>
+    <mergeCell ref="C138:C139"/>
+    <mergeCell ref="D138:D139"/>
+    <mergeCell ref="E138:E139"/>
+    <mergeCell ref="F138:F139"/>
+    <mergeCell ref="G138:G139"/>
+    <mergeCell ref="H138:H139"/>
+    <mergeCell ref="I138:I139"/>
+    <mergeCell ref="J138:J139"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="B135:K135"/>
+    <mergeCell ref="B136:B137"/>
+    <mergeCell ref="C136:C137"/>
+    <mergeCell ref="D136:D137"/>
+    <mergeCell ref="E136:E137"/>
+    <mergeCell ref="F136:F137"/>
+    <mergeCell ref="G136:G137"/>
+    <mergeCell ref="H136:H137"/>
+    <mergeCell ref="I136:I137"/>
+    <mergeCell ref="J136:J137"/>
+    <mergeCell ref="K136:K137"/>
+    <mergeCell ref="B131:B132"/>
+    <mergeCell ref="C131:C132"/>
+    <mergeCell ref="D131:D132"/>
+    <mergeCell ref="E131:E132"/>
+    <mergeCell ref="F131:F132"/>
+    <mergeCell ref="G131:G132"/>
+    <mergeCell ref="H131:H132"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="K124:K125"/>
+    <mergeCell ref="B128:K128"/>
+    <mergeCell ref="B129:B130"/>
+    <mergeCell ref="C129:C130"/>
+    <mergeCell ref="D129:D130"/>
+    <mergeCell ref="E129:E130"/>
+    <mergeCell ref="F129:F130"/>
+    <mergeCell ref="G129:G130"/>
+    <mergeCell ref="H129:H130"/>
+    <mergeCell ref="I129:I130"/>
+    <mergeCell ref="J129:J130"/>
+    <mergeCell ref="K129:K130"/>
+    <mergeCell ref="B124:B125"/>
+    <mergeCell ref="C124:C125"/>
+    <mergeCell ref="D124:D125"/>
+    <mergeCell ref="E124:E125"/>
+    <mergeCell ref="F124:F125"/>
+    <mergeCell ref="G124:G125"/>
+    <mergeCell ref="H124:H125"/>
+    <mergeCell ref="I124:I125"/>
+    <mergeCell ref="J124:J125"/>
+    <mergeCell ref="B121:K121"/>
+    <mergeCell ref="B122:B123"/>
+    <mergeCell ref="C122:C123"/>
+    <mergeCell ref="D122:D123"/>
+    <mergeCell ref="E122:E123"/>
+    <mergeCell ref="F122:F123"/>
+    <mergeCell ref="G122:G123"/>
+    <mergeCell ref="H122:H123"/>
+    <mergeCell ref="I122:I123"/>
+    <mergeCell ref="J122:J123"/>
+    <mergeCell ref="K122:K123"/>
+    <mergeCell ref="K115:K116"/>
+    <mergeCell ref="B117:B118"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="F117:F118"/>
+    <mergeCell ref="H117:H118"/>
+    <mergeCell ref="E117:E118"/>
+    <mergeCell ref="G117:G118"/>
+    <mergeCell ref="I117:I118"/>
+    <mergeCell ref="J117:J118"/>
+    <mergeCell ref="K117:K118"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="B115:B116"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="E115:E116"/>
+    <mergeCell ref="F115:F116"/>
+    <mergeCell ref="G115:G116"/>
+    <mergeCell ref="H115:H116"/>
+    <mergeCell ref="I115:I116"/>
+    <mergeCell ref="J115:J116"/>
+    <mergeCell ref="B114:K114"/>
+    <mergeCell ref="B11:K11"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B10:H10"/>
+    <mergeCell ref="K14:K23"/>
+    <mergeCell ref="B26:K26"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="H27:H28"/>
+    <mergeCell ref="I27:I28"/>
+    <mergeCell ref="J27:J28"/>
+    <mergeCell ref="B2:J2"/>
+    <mergeCell ref="G7:J9"/>
+    <mergeCell ref="B3:J3"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="K27:K28"/>
+    <mergeCell ref="K49:K54"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="C58:C59"/>
+    <mergeCell ref="K29:K43"/>
+    <mergeCell ref="B46:K46"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="H47:H48"/>
+    <mergeCell ref="I47:I48"/>
+    <mergeCell ref="J47:J48"/>
+    <mergeCell ref="K47:K48"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="J58:J59"/>
+    <mergeCell ref="K58:K59"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="K60:K64"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="F58:F59"/>
+    <mergeCell ref="G58:G59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="K79:K84"/>
+    <mergeCell ref="K70:K73"/>
+    <mergeCell ref="B67:K67"/>
+    <mergeCell ref="B68:B69"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="G68:G69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="J68:J69"/>
+    <mergeCell ref="K68:K69"/>
+    <mergeCell ref="B76:K76"/>
+    <mergeCell ref="B77:B78"/>
+    <mergeCell ref="C77:C78"/>
+    <mergeCell ref="D77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="H77:H78"/>
+    <mergeCell ref="I77:I78"/>
+    <mergeCell ref="J77:J78"/>
+    <mergeCell ref="K77:K78"/>
+    <mergeCell ref="J98:J99"/>
+    <mergeCell ref="K98:K99"/>
+    <mergeCell ref="B87:K87"/>
+    <mergeCell ref="B88:B89"/>
+    <mergeCell ref="C88:C89"/>
+    <mergeCell ref="D88:D89"/>
+    <mergeCell ref="E88:E89"/>
+    <mergeCell ref="F88:F89"/>
+    <mergeCell ref="G88:G89"/>
+    <mergeCell ref="H88:H89"/>
+    <mergeCell ref="I88:I89"/>
+    <mergeCell ref="J88:J89"/>
+    <mergeCell ref="K88:K89"/>
     <mergeCell ref="K109:K111"/>
     <mergeCell ref="M2:Q2"/>
     <mergeCell ref="K100:K103"/>
@@ -52870,269 +53112,27 @@
     <mergeCell ref="G98:G99"/>
     <mergeCell ref="H98:H99"/>
     <mergeCell ref="I98:I99"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="H77:H78"/>
-    <mergeCell ref="I77:I78"/>
-    <mergeCell ref="J77:J78"/>
-    <mergeCell ref="K77:K78"/>
-    <mergeCell ref="J98:J99"/>
-    <mergeCell ref="K98:K99"/>
-    <mergeCell ref="B87:K87"/>
-    <mergeCell ref="B88:B89"/>
-    <mergeCell ref="C88:C89"/>
-    <mergeCell ref="D88:D89"/>
-    <mergeCell ref="E88:E89"/>
-    <mergeCell ref="F88:F89"/>
-    <mergeCell ref="G88:G89"/>
-    <mergeCell ref="H88:H89"/>
-    <mergeCell ref="I88:I89"/>
-    <mergeCell ref="J88:J89"/>
-    <mergeCell ref="K88:K89"/>
-    <mergeCell ref="K60:K64"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="F58:F59"/>
-    <mergeCell ref="G58:G59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="K79:K84"/>
-    <mergeCell ref="K70:K73"/>
-    <mergeCell ref="B67:K67"/>
-    <mergeCell ref="B68:B69"/>
-    <mergeCell ref="C68:C69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="G68:G69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="J68:J69"/>
-    <mergeCell ref="K68:K69"/>
-    <mergeCell ref="B76:K76"/>
-    <mergeCell ref="B77:B78"/>
-    <mergeCell ref="C77:C78"/>
-    <mergeCell ref="D77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K49:K54"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B58:B59"/>
-    <mergeCell ref="C58:C59"/>
-    <mergeCell ref="K29:K43"/>
-    <mergeCell ref="B46:K46"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="H47:H48"/>
-    <mergeCell ref="I47:I48"/>
-    <mergeCell ref="J47:J48"/>
-    <mergeCell ref="K47:K48"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="J58:J59"/>
-    <mergeCell ref="K58:K59"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="H27:H28"/>
-    <mergeCell ref="I27:I28"/>
-    <mergeCell ref="J27:J28"/>
-    <mergeCell ref="B2:J2"/>
-    <mergeCell ref="G7:J9"/>
-    <mergeCell ref="B3:J3"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B114:K114"/>
-    <mergeCell ref="B11:K11"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B10:H10"/>
-    <mergeCell ref="K14:K23"/>
-    <mergeCell ref="B26:K26"/>
-    <mergeCell ref="K115:K116"/>
-    <mergeCell ref="B117:B118"/>
-    <mergeCell ref="C117:C118"/>
-    <mergeCell ref="F117:F118"/>
-    <mergeCell ref="H117:H118"/>
-    <mergeCell ref="E117:E118"/>
-    <mergeCell ref="G117:G118"/>
-    <mergeCell ref="I117:I118"/>
-    <mergeCell ref="J117:J118"/>
-    <mergeCell ref="K117:K118"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="B115:B116"/>
-    <mergeCell ref="C115:C116"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="E115:E116"/>
-    <mergeCell ref="F115:F116"/>
-    <mergeCell ref="G115:G116"/>
-    <mergeCell ref="H115:H116"/>
-    <mergeCell ref="I115:I116"/>
-    <mergeCell ref="J115:J116"/>
-    <mergeCell ref="B121:K121"/>
-    <mergeCell ref="B122:B123"/>
-    <mergeCell ref="C122:C123"/>
-    <mergeCell ref="D122:D123"/>
-    <mergeCell ref="E122:E123"/>
-    <mergeCell ref="F122:F123"/>
-    <mergeCell ref="G122:G123"/>
-    <mergeCell ref="H122:H123"/>
-    <mergeCell ref="I122:I123"/>
-    <mergeCell ref="J122:J123"/>
-    <mergeCell ref="K122:K123"/>
-    <mergeCell ref="K124:K125"/>
-    <mergeCell ref="B128:K128"/>
-    <mergeCell ref="B129:B130"/>
-    <mergeCell ref="C129:C130"/>
-    <mergeCell ref="D129:D130"/>
-    <mergeCell ref="E129:E130"/>
-    <mergeCell ref="F129:F130"/>
-    <mergeCell ref="G129:G130"/>
-    <mergeCell ref="H129:H130"/>
-    <mergeCell ref="I129:I130"/>
-    <mergeCell ref="J129:J130"/>
-    <mergeCell ref="K129:K130"/>
-    <mergeCell ref="B124:B125"/>
-    <mergeCell ref="C124:C125"/>
-    <mergeCell ref="D124:D125"/>
-    <mergeCell ref="E124:E125"/>
-    <mergeCell ref="F124:F125"/>
-    <mergeCell ref="G124:G125"/>
-    <mergeCell ref="H124:H125"/>
-    <mergeCell ref="I124:I125"/>
-    <mergeCell ref="J124:J125"/>
-    <mergeCell ref="K131:K132"/>
-    <mergeCell ref="B135:K135"/>
-    <mergeCell ref="B136:B137"/>
-    <mergeCell ref="C136:C137"/>
-    <mergeCell ref="D136:D137"/>
-    <mergeCell ref="E136:E137"/>
-    <mergeCell ref="F136:F137"/>
-    <mergeCell ref="G136:G137"/>
-    <mergeCell ref="H136:H137"/>
-    <mergeCell ref="I136:I137"/>
-    <mergeCell ref="J136:J137"/>
-    <mergeCell ref="K136:K137"/>
-    <mergeCell ref="B131:B132"/>
-    <mergeCell ref="C131:C132"/>
-    <mergeCell ref="D131:D132"/>
-    <mergeCell ref="E131:E132"/>
-    <mergeCell ref="F131:F132"/>
-    <mergeCell ref="G131:G132"/>
-    <mergeCell ref="H131:H132"/>
-    <mergeCell ref="I131:I132"/>
-    <mergeCell ref="J131:J132"/>
-    <mergeCell ref="K138:K139"/>
-    <mergeCell ref="B142:K142"/>
-    <mergeCell ref="B143:B144"/>
-    <mergeCell ref="C143:C144"/>
-    <mergeCell ref="D143:D144"/>
-    <mergeCell ref="E143:E144"/>
-    <mergeCell ref="F143:F144"/>
-    <mergeCell ref="G143:G144"/>
-    <mergeCell ref="H143:H144"/>
-    <mergeCell ref="I143:I144"/>
-    <mergeCell ref="J143:J144"/>
-    <mergeCell ref="K143:K144"/>
-    <mergeCell ref="B138:B139"/>
-    <mergeCell ref="C138:C139"/>
-    <mergeCell ref="D138:D139"/>
-    <mergeCell ref="E138:E139"/>
-    <mergeCell ref="F138:F139"/>
-    <mergeCell ref="G138:G139"/>
-    <mergeCell ref="H138:H139"/>
-    <mergeCell ref="I138:I139"/>
-    <mergeCell ref="J138:J139"/>
-    <mergeCell ref="K145:K146"/>
-    <mergeCell ref="B149:K149"/>
-    <mergeCell ref="B150:B151"/>
-    <mergeCell ref="C150:C151"/>
-    <mergeCell ref="D150:D151"/>
-    <mergeCell ref="E150:E151"/>
-    <mergeCell ref="F150:F151"/>
-    <mergeCell ref="G150:G151"/>
-    <mergeCell ref="H150:H151"/>
-    <mergeCell ref="I150:I151"/>
-    <mergeCell ref="J150:J151"/>
-    <mergeCell ref="K150:K151"/>
-    <mergeCell ref="B145:B146"/>
-    <mergeCell ref="C145:C146"/>
-    <mergeCell ref="D145:D146"/>
-    <mergeCell ref="E145:E146"/>
-    <mergeCell ref="F145:F146"/>
-    <mergeCell ref="G145:G146"/>
-    <mergeCell ref="H145:H146"/>
-    <mergeCell ref="I145:I146"/>
-    <mergeCell ref="J145:J146"/>
-    <mergeCell ref="K152:K153"/>
-    <mergeCell ref="B156:K156"/>
-    <mergeCell ref="B157:B158"/>
-    <mergeCell ref="C157:C158"/>
-    <mergeCell ref="D157:D158"/>
-    <mergeCell ref="E157:E158"/>
-    <mergeCell ref="F157:F158"/>
-    <mergeCell ref="G157:G158"/>
-    <mergeCell ref="H157:H158"/>
-    <mergeCell ref="I157:I158"/>
-    <mergeCell ref="J157:J158"/>
-    <mergeCell ref="K157:K158"/>
-    <mergeCell ref="B152:B153"/>
-    <mergeCell ref="C152:C153"/>
-    <mergeCell ref="D152:D153"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="F152:F153"/>
-    <mergeCell ref="G152:G153"/>
-    <mergeCell ref="H152:H153"/>
-    <mergeCell ref="I152:I153"/>
-    <mergeCell ref="J152:J153"/>
-    <mergeCell ref="K159:K160"/>
-    <mergeCell ref="B163:K163"/>
-    <mergeCell ref="B164:B165"/>
-    <mergeCell ref="C164:C165"/>
-    <mergeCell ref="D164:D165"/>
-    <mergeCell ref="E164:E165"/>
-    <mergeCell ref="F164:F165"/>
-    <mergeCell ref="G164:G165"/>
-    <mergeCell ref="H164:H165"/>
-    <mergeCell ref="I164:I165"/>
-    <mergeCell ref="J164:J165"/>
-    <mergeCell ref="K164:K165"/>
-    <mergeCell ref="B159:B160"/>
-    <mergeCell ref="C159:C160"/>
-    <mergeCell ref="D159:D160"/>
-    <mergeCell ref="E159:E160"/>
-    <mergeCell ref="F159:F160"/>
-    <mergeCell ref="G159:G160"/>
-    <mergeCell ref="H159:H160"/>
-    <mergeCell ref="I159:I160"/>
-    <mergeCell ref="J159:J160"/>
-    <mergeCell ref="K166:K167"/>
-    <mergeCell ref="B166:B167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="D166:D167"/>
-    <mergeCell ref="E166:E167"/>
-    <mergeCell ref="F166:F167"/>
-    <mergeCell ref="G166:G167"/>
-    <mergeCell ref="H166:H167"/>
-    <mergeCell ref="I166:I167"/>
-    <mergeCell ref="J166:J167"/>
+    <mergeCell ref="B170:K170"/>
+    <mergeCell ref="B171:B172"/>
+    <mergeCell ref="C171:C172"/>
+    <mergeCell ref="D171:D172"/>
+    <mergeCell ref="E171:E172"/>
+    <mergeCell ref="F171:F172"/>
+    <mergeCell ref="G171:G172"/>
+    <mergeCell ref="H171:H172"/>
+    <mergeCell ref="I171:I172"/>
+    <mergeCell ref="J171:J172"/>
+    <mergeCell ref="K171:K172"/>
+    <mergeCell ref="K173:K174"/>
+    <mergeCell ref="B173:B174"/>
+    <mergeCell ref="C173:C174"/>
+    <mergeCell ref="D173:D174"/>
+    <mergeCell ref="E173:E174"/>
+    <mergeCell ref="F173:F174"/>
+    <mergeCell ref="G173:G174"/>
+    <mergeCell ref="H173:H174"/>
+    <mergeCell ref="I173:I174"/>
+    <mergeCell ref="J173:J174"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -53178,7 +53178,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEF36A6-5DD3-4F51-BC82-46BE92CCC810}">
   <dimension ref="C2:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
@@ -53195,81 +53195,81 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="18" customHeight="1">
-      <c r="C2" s="172" t="s">
+      <c r="C2" s="196" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="173"/>
-      <c r="I2" s="157" t="s">
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="198"/>
+      <c r="I2" s="175" t="s">
         <v>125</v>
       </c>
-      <c r="J2" s="158"/>
-      <c r="K2" s="189"/>
-      <c r="L2" s="189"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
       <c r="M2" s="53"/>
     </row>
     <row r="3" spans="3:13" ht="18" customHeight="1">
-      <c r="C3" s="175" t="s">
+      <c r="C3" s="199" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="177"/>
-      <c r="I3" s="191" t="s">
+      <c r="D3" s="200"/>
+      <c r="E3" s="200"/>
+      <c r="F3" s="200"/>
+      <c r="G3" s="201"/>
+      <c r="I3" s="211" t="s">
         <v>241</v>
       </c>
-      <c r="J3" s="192"/>
-      <c r="K3" s="192"/>
-      <c r="L3" s="192"/>
+      <c r="J3" s="212"/>
+      <c r="K3" s="212"/>
+      <c r="L3" s="212"/>
       <c r="M3" s="55"/>
     </row>
     <row r="4" spans="3:13" ht="18" customHeight="1">
-      <c r="C4" s="178"/>
-      <c r="D4" s="179"/>
-      <c r="E4" s="179"/>
-      <c r="F4" s="179"/>
-      <c r="G4" s="180"/>
-      <c r="I4" s="202" t="s">
+      <c r="C4" s="202"/>
+      <c r="D4" s="203"/>
+      <c r="E4" s="203"/>
+      <c r="F4" s="203"/>
+      <c r="G4" s="204"/>
+      <c r="I4" s="213" t="s">
         <v>285</v>
       </c>
-      <c r="J4" s="203"/>
-      <c r="K4" s="203"/>
-      <c r="L4" s="203"/>
-      <c r="M4" s="204"/>
+      <c r="J4" s="214"/>
+      <c r="K4" s="214"/>
+      <c r="L4" s="214"/>
+      <c r="M4" s="215"/>
     </row>
     <row r="5" spans="3:13" ht="18" customHeight="1">
-      <c r="C5" s="181"/>
-      <c r="D5" s="182"/>
-      <c r="E5" s="182"/>
-      <c r="F5" s="182"/>
-      <c r="G5" s="183"/>
-      <c r="I5" s="205"/>
-      <c r="J5" s="206"/>
-      <c r="K5" s="206"/>
-      <c r="L5" s="206"/>
-      <c r="M5" s="207"/>
+      <c r="C5" s="205"/>
+      <c r="D5" s="206"/>
+      <c r="E5" s="206"/>
+      <c r="F5" s="206"/>
+      <c r="G5" s="207"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="217"/>
+      <c r="K5" s="217"/>
+      <c r="L5" s="217"/>
+      <c r="M5" s="218"/>
     </row>
     <row r="6" spans="3:13" ht="18" customHeight="1">
-      <c r="C6" s="186" t="s">
+      <c r="C6" s="208" t="s">
         <v>243</v>
       </c>
-      <c r="D6" s="187"/>
-      <c r="E6" s="187"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="188"/>
+      <c r="D6" s="209"/>
+      <c r="E6" s="209"/>
+      <c r="F6" s="209"/>
+      <c r="G6" s="210"/>
     </row>
     <row r="7" spans="3:13" ht="18" customHeight="1">
-      <c r="C7" s="184" t="s">
+      <c r="C7" s="192" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="185"/>
-      <c r="E7" s="184" t="s">
+      <c r="D7" s="193"/>
+      <c r="E7" s="192" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="185"/>
+      <c r="F7" s="193"/>
       <c r="G7" s="44" t="s">
         <v>242</v>
       </c>
@@ -53301,10 +53301,10 @@
       </c>
     </row>
     <row r="10" spans="3:13" ht="18" customHeight="1">
-      <c r="C10" s="184" t="s">
+      <c r="C10" s="192" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="185"/>
+      <c r="D10" s="193"/>
       <c r="E10" s="44" t="s">
         <v>239</v>
       </c>
@@ -53366,7 +53366,7 @@
         <v>256</v>
       </c>
       <c r="D14" s="195"/>
-      <c r="E14" s="197" t="s">
+      <c r="E14" s="72" t="s">
         <v>255</v>
       </c>
       <c r="F14" s="37">
@@ -53381,7 +53381,7 @@
         <v>249</v>
       </c>
       <c r="D15" s="195"/>
-      <c r="E15" s="197" t="s">
+      <c r="E15" s="72" t="s">
         <v>257</v>
       </c>
       <c r="F15" s="37">
@@ -53407,93 +53407,93 @@
       </c>
     </row>
     <row r="17" spans="3:11" s="51" customFormat="1" ht="18" customHeight="1">
-      <c r="C17" s="193" t="s">
+      <c r="C17" s="191" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="193"/>
-      <c r="E17" s="193"/>
-      <c r="F17" s="193"/>
+      <c r="D17" s="191"/>
+      <c r="E17" s="191"/>
+      <c r="F17" s="191"/>
       <c r="G17" s="44">
         <f>SUM(G11:G16:G8:G9)</f>
         <v>23830</v>
       </c>
     </row>
     <row r="18" spans="3:11" s="51" customFormat="1" ht="18" customHeight="1">
-      <c r="C18" s="190"/>
-      <c r="D18" s="190"/>
+      <c r="C18" s="184"/>
+      <c r="D18" s="184"/>
     </row>
     <row r="19" spans="3:11" s="51" customFormat="1" ht="18" customHeight="1">
-      <c r="C19" s="190"/>
-      <c r="D19" s="190"/>
+      <c r="C19" s="184"/>
+      <c r="D19" s="184"/>
     </row>
     <row r="20" spans="3:11" ht="18" customHeight="1">
-      <c r="C20" s="193" t="s">
+      <c r="C20" s="191" t="s">
         <v>258</v>
       </c>
-      <c r="D20" s="193"/>
-      <c r="E20" s="193"/>
-      <c r="F20" s="193"/>
+      <c r="D20" s="191"/>
+      <c r="E20" s="191"/>
+      <c r="F20" s="191"/>
     </row>
     <row r="21" spans="3:11" ht="18" customHeight="1">
-      <c r="C21" s="193" t="s">
+      <c r="C21" s="191" t="s">
         <v>259</v>
       </c>
-      <c r="D21" s="193"/>
-      <c r="E21" s="193">
+      <c r="D21" s="191"/>
+      <c r="E21" s="191">
         <f>G17/1000</f>
         <v>23.83</v>
       </c>
-      <c r="F21" s="193"/>
+      <c r="F21" s="191"/>
     </row>
     <row r="22" spans="3:11" ht="18" customHeight="1">
-      <c r="C22" s="198" t="s">
+      <c r="C22" s="185" t="s">
         <v>260</v>
       </c>
-      <c r="D22" s="198"/>
-      <c r="E22" s="198" t="s">
+      <c r="D22" s="185"/>
+      <c r="E22" s="185" t="s">
         <v>261</v>
       </c>
-      <c r="F22" s="198"/>
+      <c r="F22" s="185"/>
     </row>
     <row r="23" spans="3:11" ht="18" customHeight="1">
-      <c r="C23" s="198" t="s">
+      <c r="C23" s="185" t="s">
         <v>262</v>
       </c>
-      <c r="D23" s="198"/>
-      <c r="E23" s="198" t="s">
+      <c r="D23" s="185"/>
+      <c r="E23" s="185" t="s">
         <v>263</v>
       </c>
-      <c r="F23" s="198"/>
+      <c r="F23" s="185"/>
     </row>
     <row r="24" spans="3:11" ht="18" customHeight="1">
-      <c r="C24" s="198" t="s">
+      <c r="C24" s="185" t="s">
         <v>264</v>
       </c>
-      <c r="D24" s="198"/>
-      <c r="E24" s="198" t="s">
+      <c r="D24" s="185"/>
+      <c r="E24" s="185" t="s">
         <v>265</v>
       </c>
-      <c r="F24" s="198"/>
+      <c r="F24" s="185"/>
     </row>
     <row r="25" spans="3:11" ht="18" customHeight="1">
-      <c r="C25" s="198" t="s">
+      <c r="C25" s="185" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="198"/>
-      <c r="E25" s="198" t="s">
+      <c r="D25" s="185"/>
+      <c r="E25" s="185" t="s">
         <v>267</v>
       </c>
-      <c r="F25" s="198"/>
+      <c r="F25" s="185"/>
     </row>
     <row r="26" spans="3:11" ht="18" customHeight="1">
-      <c r="C26" s="198" t="s">
+      <c r="C26" s="185" t="s">
         <v>268</v>
       </c>
-      <c r="D26" s="198"/>
-      <c r="E26" s="198" t="s">
+      <c r="D26" s="185"/>
+      <c r="E26" s="185" t="s">
         <v>269</v>
       </c>
-      <c r="F26" s="198"/>
+      <c r="F26" s="185"/>
       <c r="G26" s="70"/>
       <c r="H26" s="70"/>
       <c r="I26" s="70"/>
@@ -53501,196 +53501,250 @@
       <c r="K26" s="70"/>
     </row>
     <row r="27" spans="3:11" ht="18" customHeight="1">
-      <c r="C27" s="198" t="s">
+      <c r="C27" s="185" t="s">
         <v>270</v>
       </c>
-      <c r="D27" s="198"/>
-      <c r="E27" s="198" t="s">
+      <c r="D27" s="185"/>
+      <c r="E27" s="185" t="s">
         <v>271</v>
       </c>
-      <c r="F27" s="198"/>
+      <c r="F27" s="185"/>
     </row>
     <row r="28" spans="3:11" ht="18" customHeight="1">
-      <c r="C28" s="198" t="s">
+      <c r="C28" s="185" t="s">
         <v>272</v>
       </c>
-      <c r="D28" s="198"/>
-      <c r="E28" s="198">
+      <c r="D28" s="185"/>
+      <c r="E28" s="185">
         <v>2</v>
       </c>
-      <c r="F28" s="198"/>
+      <c r="F28" s="185"/>
     </row>
     <row r="29" spans="3:11" ht="18" customHeight="1">
-      <c r="C29" s="199" t="s">
+      <c r="C29" s="190" t="s">
         <v>273</v>
       </c>
-      <c r="D29" s="199"/>
-      <c r="E29" s="199" t="s">
+      <c r="D29" s="190"/>
+      <c r="E29" s="190" t="s">
         <v>274</v>
       </c>
-      <c r="F29" s="199"/>
+      <c r="F29" s="190"/>
     </row>
     <row r="30" spans="3:11" ht="18" customHeight="1">
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
-      <c r="E30" s="199"/>
-      <c r="F30" s="199"/>
+      <c r="C30" s="190"/>
+      <c r="D30" s="190"/>
+      <c r="E30" s="190"/>
+      <c r="F30" s="190"/>
     </row>
     <row r="31" spans="3:11" ht="18" customHeight="1">
-      <c r="C31" s="198" t="s">
+      <c r="C31" s="185" t="s">
         <v>275</v>
       </c>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198" t="s">
+      <c r="D31" s="185"/>
+      <c r="E31" s="185" t="s">
         <v>276</v>
       </c>
-      <c r="F31" s="198"/>
+      <c r="F31" s="185"/>
     </row>
     <row r="32" spans="3:11" ht="18" customHeight="1">
-      <c r="C32" s="198" t="s">
+      <c r="C32" s="185" t="s">
         <v>277</v>
       </c>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198" t="s">
+      <c r="D32" s="185"/>
+      <c r="E32" s="185" t="s">
         <v>278</v>
       </c>
-      <c r="F32" s="198"/>
+      <c r="F32" s="185"/>
     </row>
     <row r="33" spans="3:6" ht="18" customHeight="1">
-      <c r="C33" s="198" t="s">
+      <c r="C33" s="185" t="s">
         <v>279</v>
       </c>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198" t="s">
+      <c r="D33" s="185"/>
+      <c r="E33" s="185" t="s">
         <v>280</v>
       </c>
-      <c r="F33" s="198"/>
+      <c r="F33" s="185"/>
     </row>
     <row r="34" spans="3:6" ht="18" customHeight="1">
-      <c r="C34" s="198" t="s">
+      <c r="C34" s="185" t="s">
         <v>281</v>
       </c>
-      <c r="D34" s="198"/>
-      <c r="E34" s="198" t="s">
+      <c r="D34" s="185"/>
+      <c r="E34" s="185" t="s">
         <v>282</v>
       </c>
-      <c r="F34" s="198"/>
+      <c r="F34" s="185"/>
     </row>
     <row r="35" spans="3:6" ht="18" customHeight="1">
-      <c r="C35" s="198" t="s">
+      <c r="C35" s="185" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="198"/>
-      <c r="E35" s="198" t="s">
+      <c r="D35" s="185"/>
+      <c r="E35" s="185" t="s">
         <v>284</v>
       </c>
-      <c r="F35" s="198"/>
+      <c r="F35" s="185"/>
     </row>
     <row r="37" spans="3:6" ht="18" customHeight="1">
-      <c r="C37" s="208"/>
+      <c r="C37" s="73"/>
     </row>
     <row r="39" spans="3:6" ht="18" customHeight="1">
-      <c r="C39" s="193" t="s">
+      <c r="C39" s="191" t="s">
         <v>286</v>
       </c>
-      <c r="D39" s="193"/>
-      <c r="E39" s="193"/>
-      <c r="F39" s="193"/>
+      <c r="D39" s="191"/>
+      <c r="E39" s="191"/>
+      <c r="F39" s="191"/>
     </row>
     <row r="40" spans="3:6" ht="18" customHeight="1">
-      <c r="C40" s="198" t="s">
+      <c r="C40" s="185" t="s">
         <v>287</v>
       </c>
-      <c r="D40" s="198"/>
-      <c r="E40" s="198" t="s">
+      <c r="D40" s="185"/>
+      <c r="E40" s="185" t="s">
         <v>288</v>
       </c>
-      <c r="F40" s="198"/>
+      <c r="F40" s="185"/>
     </row>
     <row r="41" spans="3:6" ht="18" customHeight="1">
-      <c r="C41" s="198" t="s">
+      <c r="C41" s="185" t="s">
         <v>289</v>
       </c>
-      <c r="D41" s="198"/>
-      <c r="E41" s="198" t="s">
+      <c r="D41" s="185"/>
+      <c r="E41" s="185" t="s">
         <v>290</v>
       </c>
-      <c r="F41" s="198"/>
+      <c r="F41" s="185"/>
     </row>
     <row r="42" spans="3:6" ht="18" customHeight="1">
-      <c r="C42" s="198" t="s">
+      <c r="C42" s="185" t="s">
         <v>291</v>
       </c>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198" t="s">
+      <c r="D42" s="185"/>
+      <c r="E42" s="185" t="s">
         <v>292</v>
       </c>
-      <c r="F42" s="198"/>
+      <c r="F42" s="185"/>
     </row>
     <row r="43" spans="3:6" ht="18" customHeight="1">
-      <c r="C43" s="209" t="s">
+      <c r="C43" s="186" t="s">
         <v>293</v>
       </c>
-      <c r="D43" s="210"/>
-      <c r="E43" s="209" t="s">
+      <c r="D43" s="187"/>
+      <c r="E43" s="186" t="s">
         <v>294</v>
       </c>
-      <c r="F43" s="210"/>
+      <c r="F43" s="187"/>
     </row>
     <row r="44" spans="3:6" ht="18" customHeight="1">
-      <c r="C44" s="200"/>
-      <c r="D44" s="201"/>
-      <c r="E44" s="200"/>
-      <c r="F44" s="201"/>
+      <c r="C44" s="188"/>
+      <c r="D44" s="189"/>
+      <c r="E44" s="188"/>
+      <c r="F44" s="189"/>
     </row>
     <row r="45" spans="3:6" ht="18" customHeight="1">
-      <c r="C45" s="199" t="s">
+      <c r="C45" s="190" t="s">
         <v>295</v>
       </c>
-      <c r="D45" s="199"/>
-      <c r="E45" s="199" t="s">
+      <c r="D45" s="190"/>
+      <c r="E45" s="190" t="s">
         <v>296</v>
       </c>
-      <c r="F45" s="199"/>
+      <c r="F45" s="190"/>
     </row>
     <row r="46" spans="3:6" ht="18" customHeight="1">
-      <c r="C46" s="199"/>
-      <c r="D46" s="199"/>
-      <c r="E46" s="199"/>
-      <c r="F46" s="199"/>
+      <c r="C46" s="190"/>
+      <c r="D46" s="190"/>
+      <c r="E46" s="190"/>
+      <c r="F46" s="190"/>
     </row>
     <row r="47" spans="3:6" ht="18" customHeight="1">
-      <c r="C47" s="199"/>
-      <c r="D47" s="199"/>
-      <c r="E47" s="199"/>
-      <c r="F47" s="199"/>
+      <c r="C47" s="190"/>
+      <c r="D47" s="190"/>
+      <c r="E47" s="190"/>
+      <c r="F47" s="190"/>
     </row>
     <row r="48" spans="3:6" ht="18" customHeight="1">
-      <c r="C48" s="190"/>
-      <c r="D48" s="190"/>
-      <c r="E48" s="190"/>
-      <c r="F48" s="190"/>
+      <c r="C48" s="184"/>
+      <c r="D48" s="184"/>
+      <c r="E48" s="184"/>
+      <c r="F48" s="184"/>
     </row>
     <row r="49" spans="3:6" ht="18" customHeight="1">
-      <c r="C49" s="190"/>
-      <c r="D49" s="190"/>
-      <c r="E49" s="190"/>
-      <c r="F49" s="190"/>
+      <c r="C49" s="184"/>
+      <c r="D49" s="184"/>
+      <c r="E49" s="184"/>
+      <c r="F49" s="184"/>
     </row>
     <row r="50" spans="3:6" ht="18" customHeight="1">
-      <c r="C50" s="190"/>
-      <c r="D50" s="190"/>
-      <c r="E50" s="190"/>
-      <c r="F50" s="190"/>
+      <c r="C50" s="184"/>
+      <c r="D50" s="184"/>
+      <c r="E50" s="184"/>
+      <c r="F50" s="184"/>
     </row>
     <row r="51" spans="3:6" ht="18" customHeight="1">
-      <c r="C51" s="190"/>
-      <c r="D51" s="190"/>
+      <c r="C51" s="184"/>
+      <c r="D51" s="184"/>
       <c r="E51" s="51"/>
       <c r="F51" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="69">
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I4:M5"/>
+    <mergeCell ref="C19:D19"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G5"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="C26:D26"/>
+    <mergeCell ref="C27:D27"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="E27:F27"/>
+    <mergeCell ref="C40:D40"/>
+    <mergeCell ref="E29:F30"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="E40:F40"/>
+    <mergeCell ref="C28:D28"/>
+    <mergeCell ref="E28:F28"/>
+    <mergeCell ref="C34:D34"/>
+    <mergeCell ref="E34:F34"/>
+    <mergeCell ref="C35:D35"/>
+    <mergeCell ref="E35:F35"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="C31:D31"/>
+    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="C32:D32"/>
+    <mergeCell ref="E32:F32"/>
+    <mergeCell ref="C33:D33"/>
+    <mergeCell ref="E33:F33"/>
     <mergeCell ref="C51:D51"/>
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E42:F42"/>
@@ -53706,60 +53760,6 @@
     <mergeCell ref="C50:D50"/>
     <mergeCell ref="C41:D41"/>
     <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C31:D31"/>
-    <mergeCell ref="E31:F31"/>
-    <mergeCell ref="C32:D32"/>
-    <mergeCell ref="E32:F32"/>
-    <mergeCell ref="C33:D33"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="C34:D34"/>
-    <mergeCell ref="E34:F34"/>
-    <mergeCell ref="C35:D35"/>
-    <mergeCell ref="E35:F35"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C40:D40"/>
-    <mergeCell ref="E29:F30"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="E40:F40"/>
-    <mergeCell ref="C28:D28"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="E24:F24"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C26:D26"/>
-    <mergeCell ref="C27:D27"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G5"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I4:M5"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C3:G5" r:id="rId1" display="FORNECIMENTO DE ENERGIA ELÉTRICA EM TENSÃO SECUNDÁRIA EDIFICAÇÕES INDIVIDUAIS - EDP ESPÍRITO SANTO - PT.DT.PDN.000061 - V.12 06/04/2023" xr:uid="{3973E550-14C2-4504-A338-CA2A62DB75F3}"/>

--- a/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
+++ b/Memorial_de_calculo_Gabriel.S_&_Ramon.M.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ramon\Documents\UFES\GitHub\Instel-I\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAC3237E-B55C-41A9-B528-586CAAF44D47}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8719E6A8-FBBB-4C58-B08C-F9ECCC52290E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="4" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="5" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação_Informações" sheetId="1" r:id="rId1"/>
@@ -912,9 +912,6 @@
     <t>Proteção de entrada principal</t>
   </si>
   <si>
-    <t>63 A</t>
-  </si>
-  <si>
     <t>Tipo de Fornecimento</t>
   </si>
   <si>
@@ -1027,6 +1024,9 @@
   </si>
   <si>
     <t>PE: 25</t>
+  </si>
+  <si>
+    <t>63 A (trifásico)</t>
   </si>
 </sst>
 </file>
@@ -2292,10 +2292,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="35" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2314,12 +2314,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="42" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2363,6 +2357,12 @@
     </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="39" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="8" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -17617,7 +17617,7 @@
   <dimension ref="A1:AA1005"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="Q26" sqref="Q26:Q28"/>
+      <selection activeCell="L26" sqref="L26:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -18819,14 +18819,14 @@
         <v>380</v>
       </c>
       <c r="K26" s="131">
-        <f>SUM(K5:K25)</f>
-        <v>242.07927702219044</v>
+        <f>I26/J26</f>
+        <v>101.80263157894737</v>
       </c>
       <c r="L26" s="131">
         <v>0.8</v>
       </c>
       <c r="M26" s="46" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="N26" s="46"/>
       <c r="O26" s="120"/>
@@ -18857,7 +18857,7 @@
       <c r="K27" s="131"/>
       <c r="L27" s="131"/>
       <c r="M27" s="46" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="N27" s="46"/>
       <c r="O27" s="121"/>
@@ -18888,7 +18888,7 @@
       <c r="K28" s="131"/>
       <c r="L28" s="131"/>
       <c r="M28" s="46" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="N28" s="46"/>
       <c r="O28" s="122"/>
@@ -47540,8 +47540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E36D55B-3867-4EF4-9271-23288EED3B45}">
   <dimension ref="A2:Q63"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P28" sqref="P28"/>
+    <sheetView showGridLines="0" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q27" sqref="Q27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -49214,8 +49214,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE09EFEF-EC0B-4984-B180-595A6EF1BBAD}">
   <dimension ref="B2:Q174"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A148" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F175" sqref="F175"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="20.7109375" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -52719,7 +52719,7 @@
     </row>
     <row r="170" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B170" s="166" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C170" s="166"/>
       <c r="D170" s="166"/>
@@ -52777,7 +52777,7 @@
     </row>
     <row r="173" spans="2:11" ht="20.100000000000001" customHeight="1">
       <c r="B173" s="158" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C173" s="160">
         <v>38685</v>
@@ -53013,6 +53013,9 @@
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="I27:I28"/>
     <mergeCell ref="J27:J28"/>
+    <mergeCell ref="K49:K54"/>
+    <mergeCell ref="B57:K57"/>
+    <mergeCell ref="B58:B59"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="G7:J9"/>
     <mergeCell ref="B3:J3"/>
@@ -53022,9 +53025,10 @@
     <mergeCell ref="D9:F9"/>
     <mergeCell ref="D6:F6"/>
     <mergeCell ref="K27:K28"/>
-    <mergeCell ref="K49:K54"/>
-    <mergeCell ref="B57:K57"/>
-    <mergeCell ref="B58:B59"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="E27:E28"/>
     <mergeCell ref="C58:C59"/>
     <mergeCell ref="K29:K43"/>
     <mergeCell ref="B46:K46"/>
@@ -53041,10 +53045,6 @@
     <mergeCell ref="I58:I59"/>
     <mergeCell ref="J58:J59"/>
     <mergeCell ref="K58:K59"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="E27:E28"/>
     <mergeCell ref="K60:K64"/>
     <mergeCell ref="D58:D59"/>
     <mergeCell ref="E58:E59"/>
@@ -53178,8 +53178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DEF36A6-5DD3-4F51-BC82-46BE92CCC810}">
   <dimension ref="C2:M51"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" customHeight="1"/>
@@ -53195,13 +53195,13 @@
   </cols>
   <sheetData>
     <row r="2" spans="3:13" ht="18" customHeight="1">
-      <c r="C2" s="196" t="s">
+      <c r="C2" s="194" t="s">
         <v>236</v>
       </c>
-      <c r="D2" s="197"/>
-      <c r="E2" s="197"/>
-      <c r="F2" s="197"/>
-      <c r="G2" s="198"/>
+      <c r="D2" s="195"/>
+      <c r="E2" s="195"/>
+      <c r="F2" s="195"/>
+      <c r="G2" s="196"/>
       <c r="I2" s="175" t="s">
         <v>125</v>
       </c>
@@ -53211,13 +53211,13 @@
       <c r="M2" s="53"/>
     </row>
     <row r="3" spans="3:13" ht="18" customHeight="1">
-      <c r="C3" s="199" t="s">
+      <c r="C3" s="197" t="s">
         <v>237</v>
       </c>
-      <c r="D3" s="200"/>
-      <c r="E3" s="200"/>
-      <c r="F3" s="200"/>
-      <c r="G3" s="201"/>
+      <c r="D3" s="198"/>
+      <c r="E3" s="198"/>
+      <c r="F3" s="198"/>
+      <c r="G3" s="199"/>
       <c r="I3" s="211" t="s">
         <v>241</v>
       </c>
@@ -53227,13 +53227,13 @@
       <c r="M3" s="55"/>
     </row>
     <row r="4" spans="3:13" ht="18" customHeight="1">
-      <c r="C4" s="202"/>
-      <c r="D4" s="203"/>
-      <c r="E4" s="203"/>
-      <c r="F4" s="203"/>
-      <c r="G4" s="204"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="201"/>
+      <c r="E4" s="201"/>
+      <c r="F4" s="201"/>
+      <c r="G4" s="202"/>
       <c r="I4" s="213" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J4" s="214"/>
       <c r="K4" s="214"/>
@@ -53241,11 +53241,11 @@
       <c r="M4" s="215"/>
     </row>
     <row r="5" spans="3:13" ht="18" customHeight="1">
-      <c r="C5" s="205"/>
-      <c r="D5" s="206"/>
-      <c r="E5" s="206"/>
-      <c r="F5" s="206"/>
-      <c r="G5" s="207"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="204"/>
+      <c r="E5" s="204"/>
+      <c r="F5" s="204"/>
+      <c r="G5" s="205"/>
       <c r="I5" s="216"/>
       <c r="J5" s="217"/>
       <c r="K5" s="217"/>
@@ -53262,49 +53262,49 @@
       <c r="G6" s="210"/>
     </row>
     <row r="7" spans="3:13" ht="18" customHeight="1">
-      <c r="C7" s="192" t="s">
+      <c r="C7" s="206" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="193"/>
-      <c r="E7" s="192" t="s">
+      <c r="D7" s="207"/>
+      <c r="E7" s="206" t="s">
         <v>238</v>
       </c>
-      <c r="F7" s="193"/>
+      <c r="F7" s="207"/>
       <c r="G7" s="44" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="8" spans="3:13" ht="18" customHeight="1">
-      <c r="C8" s="194" t="s">
+      <c r="C8" s="192" t="s">
         <v>246</v>
       </c>
-      <c r="D8" s="195"/>
-      <c r="E8" s="194" t="s">
+      <c r="D8" s="193"/>
+      <c r="E8" s="192" t="s">
         <v>244</v>
       </c>
-      <c r="F8" s="195"/>
+      <c r="F8" s="193"/>
       <c r="G8" s="37">
         <v>2900</v>
       </c>
     </row>
     <row r="9" spans="3:13" ht="18" customHeight="1">
-      <c r="C9" s="194" t="s">
+      <c r="C9" s="192" t="s">
         <v>252</v>
       </c>
-      <c r="D9" s="195"/>
-      <c r="E9" s="194" t="s">
+      <c r="D9" s="193"/>
+      <c r="E9" s="192" t="s">
         <v>240</v>
       </c>
-      <c r="F9" s="195"/>
+      <c r="F9" s="193"/>
       <c r="G9" s="37">
         <v>2800</v>
       </c>
     </row>
     <row r="10" spans="3:13" ht="18" customHeight="1">
-      <c r="C10" s="192" t="s">
+      <c r="C10" s="206" t="s">
         <v>253</v>
       </c>
-      <c r="D10" s="193"/>
+      <c r="D10" s="207"/>
       <c r="E10" s="44" t="s">
         <v>239</v>
       </c>
@@ -53316,10 +53316,10 @@
       </c>
     </row>
     <row r="11" spans="3:13" ht="18" customHeight="1">
-      <c r="C11" s="194" t="s">
+      <c r="C11" s="192" t="s">
         <v>245</v>
       </c>
-      <c r="D11" s="195"/>
+      <c r="D11" s="193"/>
       <c r="E11" s="37">
         <v>5400</v>
       </c>
@@ -53332,10 +53332,10 @@
       </c>
     </row>
     <row r="12" spans="3:13" ht="18" customHeight="1">
-      <c r="C12" s="194" t="s">
+      <c r="C12" s="192" t="s">
         <v>248</v>
       </c>
-      <c r="D12" s="195"/>
+      <c r="D12" s="193"/>
       <c r="E12" s="37" t="s">
         <v>251</v>
       </c>
@@ -53347,10 +53347,10 @@
       </c>
     </row>
     <row r="13" spans="3:13" ht="18" customHeight="1">
-      <c r="C13" s="194" t="s">
+      <c r="C13" s="192" t="s">
         <v>57</v>
       </c>
-      <c r="D13" s="195"/>
+      <c r="D13" s="193"/>
       <c r="E13" s="37" t="s">
         <v>254</v>
       </c>
@@ -53362,10 +53362,10 @@
       </c>
     </row>
     <row r="14" spans="3:13" ht="18" customHeight="1">
-      <c r="C14" s="194" t="s">
+      <c r="C14" s="192" t="s">
         <v>256</v>
       </c>
-      <c r="D14" s="195"/>
+      <c r="D14" s="193"/>
       <c r="E14" s="72" t="s">
         <v>255</v>
       </c>
@@ -53377,10 +53377,10 @@
       </c>
     </row>
     <row r="15" spans="3:13" ht="18" customHeight="1">
-      <c r="C15" s="194" t="s">
+      <c r="C15" s="192" t="s">
         <v>249</v>
       </c>
-      <c r="D15" s="195"/>
+      <c r="D15" s="193"/>
       <c r="E15" s="72" t="s">
         <v>257</v>
       </c>
@@ -53392,10 +53392,10 @@
       </c>
     </row>
     <row r="16" spans="3:13" ht="18" customHeight="1">
-      <c r="C16" s="194" t="s">
+      <c r="C16" s="192" t="s">
         <v>250</v>
       </c>
-      <c r="D16" s="195"/>
+      <c r="D16" s="193"/>
       <c r="E16" s="37" t="s">
         <v>114</v>
       </c>
@@ -53419,12 +53419,12 @@
       </c>
     </row>
     <row r="18" spans="3:11" s="51" customFormat="1" ht="18" customHeight="1">
-      <c r="C18" s="184"/>
-      <c r="D18" s="184"/>
+      <c r="C18" s="185"/>
+      <c r="D18" s="185"/>
     </row>
     <row r="19" spans="3:11" s="51" customFormat="1" ht="18" customHeight="1">
-      <c r="C19" s="184"/>
-      <c r="D19" s="184"/>
+      <c r="C19" s="185"/>
+      <c r="D19" s="185"/>
     </row>
     <row r="20" spans="3:11" ht="18" customHeight="1">
       <c r="C20" s="191" t="s">
@@ -53446,54 +53446,54 @@
       <c r="F21" s="191"/>
     </row>
     <row r="22" spans="3:11" ht="18" customHeight="1">
-      <c r="C22" s="185" t="s">
+      <c r="C22" s="184" t="s">
         <v>260</v>
       </c>
-      <c r="D22" s="185"/>
-      <c r="E22" s="185" t="s">
+      <c r="D22" s="184"/>
+      <c r="E22" s="184" t="s">
         <v>261</v>
       </c>
-      <c r="F22" s="185"/>
+      <c r="F22" s="184"/>
     </row>
     <row r="23" spans="3:11" ht="18" customHeight="1">
-      <c r="C23" s="185" t="s">
+      <c r="C23" s="184" t="s">
         <v>262</v>
       </c>
-      <c r="D23" s="185"/>
-      <c r="E23" s="185" t="s">
+      <c r="D23" s="184"/>
+      <c r="E23" s="184" t="s">
+        <v>301</v>
+      </c>
+      <c r="F23" s="184"/>
+    </row>
+    <row r="24" spans="3:11" ht="18" customHeight="1">
+      <c r="C24" s="184" t="s">
         <v>263</v>
       </c>
-      <c r="F23" s="185"/>
-    </row>
-    <row r="24" spans="3:11" ht="18" customHeight="1">
-      <c r="C24" s="185" t="s">
+      <c r="D24" s="184"/>
+      <c r="E24" s="184" t="s">
         <v>264</v>
       </c>
-      <c r="D24" s="185"/>
-      <c r="E24" s="185" t="s">
+      <c r="F24" s="184"/>
+    </row>
+    <row r="25" spans="3:11" ht="18" customHeight="1">
+      <c r="C25" s="184" t="s">
         <v>265</v>
       </c>
-      <c r="F24" s="185"/>
-    </row>
-    <row r="25" spans="3:11" ht="18" customHeight="1">
-      <c r="C25" s="185" t="s">
+      <c r="D25" s="184"/>
+      <c r="E25" s="184" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="185"/>
-      <c r="E25" s="185" t="s">
+      <c r="F25" s="184"/>
+    </row>
+    <row r="26" spans="3:11" ht="18" customHeight="1">
+      <c r="C26" s="184" t="s">
         <v>267</v>
       </c>
-      <c r="F25" s="185"/>
-    </row>
-    <row r="26" spans="3:11" ht="18" customHeight="1">
-      <c r="C26" s="185" t="s">
+      <c r="D26" s="184"/>
+      <c r="E26" s="184" t="s">
         <v>268</v>
       </c>
-      <c r="D26" s="185"/>
-      <c r="E26" s="185" t="s">
-        <v>269</v>
-      </c>
-      <c r="F26" s="185"/>
+      <c r="F26" s="184"/>
       <c r="G26" s="70"/>
       <c r="H26" s="70"/>
       <c r="I26" s="70"/>
@@ -53501,32 +53501,32 @@
       <c r="K26" s="70"/>
     </row>
     <row r="27" spans="3:11" ht="18" customHeight="1">
-      <c r="C27" s="185" t="s">
+      <c r="C27" s="184" t="s">
+        <v>269</v>
+      </c>
+      <c r="D27" s="184"/>
+      <c r="E27" s="184" t="s">
         <v>270</v>
       </c>
-      <c r="D27" s="185"/>
-      <c r="E27" s="185" t="s">
+      <c r="F27" s="184"/>
+    </row>
+    <row r="28" spans="3:11" ht="18" customHeight="1">
+      <c r="C28" s="184" t="s">
         <v>271</v>
       </c>
-      <c r="F27" s="185"/>
-    </row>
-    <row r="28" spans="3:11" ht="18" customHeight="1">
-      <c r="C28" s="185" t="s">
-        <v>272</v>
-      </c>
-      <c r="D28" s="185"/>
-      <c r="E28" s="185">
+      <c r="D28" s="184"/>
+      <c r="E28" s="184">
         <v>2</v>
       </c>
-      <c r="F28" s="185"/>
+      <c r="F28" s="184"/>
     </row>
     <row r="29" spans="3:11" ht="18" customHeight="1">
       <c r="C29" s="190" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D29" s="190"/>
       <c r="E29" s="190" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F29" s="190"/>
     </row>
@@ -53537,103 +53537,103 @@
       <c r="F30" s="190"/>
     </row>
     <row r="31" spans="3:11" ht="18" customHeight="1">
-      <c r="C31" s="185" t="s">
+      <c r="C31" s="184" t="s">
+        <v>274</v>
+      </c>
+      <c r="D31" s="184"/>
+      <c r="E31" s="184" t="s">
         <v>275</v>
       </c>
-      <c r="D31" s="185"/>
-      <c r="E31" s="185" t="s">
+      <c r="F31" s="184"/>
+    </row>
+    <row r="32" spans="3:11" ht="18" customHeight="1">
+      <c r="C32" s="184" t="s">
         <v>276</v>
       </c>
-      <c r="F31" s="185"/>
-    </row>
-    <row r="32" spans="3:11" ht="18" customHeight="1">
-      <c r="C32" s="185" t="s">
+      <c r="D32" s="184"/>
+      <c r="E32" s="184" t="s">
         <v>277</v>
       </c>
-      <c r="D32" s="185"/>
-      <c r="E32" s="185" t="s">
+      <c r="F32" s="184"/>
+    </row>
+    <row r="33" spans="3:6" ht="18" customHeight="1">
+      <c r="C33" s="184" t="s">
         <v>278</v>
       </c>
-      <c r="F32" s="185"/>
-    </row>
-    <row r="33" spans="3:6" ht="18" customHeight="1">
-      <c r="C33" s="185" t="s">
+      <c r="D33" s="184"/>
+      <c r="E33" s="184" t="s">
         <v>279</v>
       </c>
-      <c r="D33" s="185"/>
-      <c r="E33" s="185" t="s">
+      <c r="F33" s="184"/>
+    </row>
+    <row r="34" spans="3:6" ht="18" customHeight="1">
+      <c r="C34" s="184" t="s">
         <v>280</v>
       </c>
-      <c r="F33" s="185"/>
-    </row>
-    <row r="34" spans="3:6" ht="18" customHeight="1">
-      <c r="C34" s="185" t="s">
+      <c r="D34" s="184"/>
+      <c r="E34" s="184" t="s">
         <v>281</v>
       </c>
-      <c r="D34" s="185"/>
-      <c r="E34" s="185" t="s">
+      <c r="F34" s="184"/>
+    </row>
+    <row r="35" spans="3:6" ht="18" customHeight="1">
+      <c r="C35" s="184" t="s">
         <v>282</v>
       </c>
-      <c r="F34" s="185"/>
-    </row>
-    <row r="35" spans="3:6" ht="18" customHeight="1">
-      <c r="C35" s="185" t="s">
+      <c r="D35" s="184"/>
+      <c r="E35" s="184" t="s">
         <v>283</v>
       </c>
-      <c r="D35" s="185"/>
-      <c r="E35" s="185" t="s">
-        <v>284</v>
-      </c>
-      <c r="F35" s="185"/>
+      <c r="F35" s="184"/>
     </row>
     <row r="37" spans="3:6" ht="18" customHeight="1">
       <c r="C37" s="73"/>
     </row>
     <row r="39" spans="3:6" ht="18" customHeight="1">
       <c r="C39" s="191" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D39" s="191"/>
       <c r="E39" s="191"/>
       <c r="F39" s="191"/>
     </row>
     <row r="40" spans="3:6" ht="18" customHeight="1">
-      <c r="C40" s="185" t="s">
+      <c r="C40" s="184" t="s">
+        <v>286</v>
+      </c>
+      <c r="D40" s="184"/>
+      <c r="E40" s="184" t="s">
         <v>287</v>
       </c>
-      <c r="D40" s="185"/>
-      <c r="E40" s="185" t="s">
+      <c r="F40" s="184"/>
+    </row>
+    <row r="41" spans="3:6" ht="18" customHeight="1">
+      <c r="C41" s="184" t="s">
         <v>288</v>
       </c>
-      <c r="F40" s="185"/>
-    </row>
-    <row r="41" spans="3:6" ht="18" customHeight="1">
-      <c r="C41" s="185" t="s">
+      <c r="D41" s="184"/>
+      <c r="E41" s="184" t="s">
         <v>289</v>
       </c>
-      <c r="D41" s="185"/>
-      <c r="E41" s="185" t="s">
+      <c r="F41" s="184"/>
+    </row>
+    <row r="42" spans="3:6" ht="18" customHeight="1">
+      <c r="C42" s="184" t="s">
         <v>290</v>
       </c>
-      <c r="F41" s="185"/>
-    </row>
-    <row r="42" spans="3:6" ht="18" customHeight="1">
-      <c r="C42" s="185" t="s">
+      <c r="D42" s="184"/>
+      <c r="E42" s="184" t="s">
         <v>291</v>
       </c>
-      <c r="D42" s="185"/>
-      <c r="E42" s="185" t="s">
-        <v>292</v>
-      </c>
-      <c r="F42" s="185"/>
+      <c r="F42" s="184"/>
     </row>
     <row r="43" spans="3:6" ht="18" customHeight="1">
       <c r="C43" s="186" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D43" s="187"/>
       <c r="E43" s="186" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="F43" s="187"/>
     </row>
@@ -53645,11 +53645,11 @@
     </row>
     <row r="45" spans="3:6" ht="18" customHeight="1">
       <c r="C45" s="190" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D45" s="190"/>
       <c r="E45" s="190" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F45" s="190"/>
     </row>
@@ -53666,26 +53666,26 @@
       <c r="F47" s="190"/>
     </row>
     <row r="48" spans="3:6" ht="18" customHeight="1">
-      <c r="C48" s="184"/>
-      <c r="D48" s="184"/>
-      <c r="E48" s="184"/>
-      <c r="F48" s="184"/>
+      <c r="C48" s="185"/>
+      <c r="D48" s="185"/>
+      <c r="E48" s="185"/>
+      <c r="F48" s="185"/>
     </row>
     <row r="49" spans="3:6" ht="18" customHeight="1">
-      <c r="C49" s="184"/>
-      <c r="D49" s="184"/>
-      <c r="E49" s="184"/>
-      <c r="F49" s="184"/>
+      <c r="C49" s="185"/>
+      <c r="D49" s="185"/>
+      <c r="E49" s="185"/>
+      <c r="F49" s="185"/>
     </row>
     <row r="50" spans="3:6" ht="18" customHeight="1">
-      <c r="C50" s="184"/>
-      <c r="D50" s="184"/>
-      <c r="E50" s="184"/>
-      <c r="F50" s="184"/>
+      <c r="C50" s="185"/>
+      <c r="D50" s="185"/>
+      <c r="E50" s="185"/>
+      <c r="F50" s="185"/>
     </row>
     <row r="51" spans="3:6" ht="18" customHeight="1">
-      <c r="C51" s="184"/>
-      <c r="D51" s="184"/>
+      <c r="C51" s="185"/>
+      <c r="D51" s="185"/>
       <c r="E51" s="51"/>
       <c r="F51" s="51"/>
     </row>
